--- a/personal/quincena.xlsx
+++ b/personal/quincena.xlsx
@@ -6,15 +6,45 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="fecha" r:id="rId3" sheetId="1"/>
+    <sheet name="dia x mes x año x" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>Asistencia fecha xxxxxx</t>
+    <t>Asistencia del dia de hoy fecha</t>
+  </si>
+  <si>
+    <t>Nficha</t>
+  </si>
+  <si>
+    <t>1er Apellido</t>
+  </si>
+  <si>
+    <t>2do Apellido</t>
+  </si>
+  <si>
+    <t>!er Nombre</t>
+  </si>
+  <si>
+    <t>2do Nombre</t>
+  </si>
+  <si>
+    <t>Identificacion</t>
+  </si>
+  <si>
+    <t>Día</t>
+  </si>
+  <si>
+    <t>Cargo</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>Maestro Grupo:</t>
   </si>
 </sst>
 </file>
@@ -31,22 +61,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="53"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -61,11 +81,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -78,14 +95,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="2" ht="30.0" customHeight="true">
-      <c r="B2" t="s" s="1">
+    <row r="2">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/personal/quincena.xlsx
+++ b/personal/quincena.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Asistencia del dia de hoy fecha</t>
   </si>
@@ -26,7 +26,7 @@
     <t>2do Apellido</t>
   </si>
   <si>
-    <t>!er Nombre</t>
+    <t>1er Nombre</t>
   </si>
   <si>
     <t>2do Nombre</t>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Maestro Grupo:</t>
+  </si>
+  <si>
+    <t>maestro XXXX</t>
   </si>
 </sst>
 </file>
@@ -52,7 +55,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -60,16 +63,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -77,12 +105,90 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -96,51 +202,63 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="2">
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="1">
         <v>0</v>
       </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="4">
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" t="s" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="1">
         <v>10</v>
       </c>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E7:G7"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/personal/quincena.xlsx
+++ b/personal/quincena.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Asistencia del dia de hoy fecha</t>
   </si>
@@ -42,6 +42,30 @@
   </si>
   <si>
     <t>Grupo</t>
+  </si>
+  <si>
+    <t>#ficha</t>
+  </si>
+  <si>
+    <t>apellido</t>
+  </si>
+  <si>
+    <t>#apellido</t>
+  </si>
+  <si>
+    <t>#nombre</t>
+  </si>
+  <si>
+    <t>#identificacion</t>
+  </si>
+  <si>
+    <t>#dia</t>
+  </si>
+  <si>
+    <t>#cargo</t>
+  </si>
+  <si>
+    <t>#grupo</t>
   </si>
   <si>
     <t>Maestro Grupo:</t>
@@ -239,26 +263,55 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" t="s" s="1">
+    <row r="5">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7">
-      <c r="E7" t="s">
-        <v>11</v>
+      <c r="B7" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="E8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E8:G8"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/personal/quincena.xlsx
+++ b/personal/quincena.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
-  <si>
-    <t>Asistencia del dia de hoy fecha</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="219">
+  <si>
+    <t>Asistencia 2016-09-02</t>
   </si>
   <si>
     <t>Nficha</t>
@@ -44,34 +44,632 @@
     <t>Grupo</t>
   </si>
   <si>
-    <t>#ficha</t>
-  </si>
-  <si>
-    <t>apellido</t>
-  </si>
-  <si>
-    <t>#apellido</t>
-  </si>
-  <si>
-    <t>#nombre</t>
-  </si>
-  <si>
-    <t>#identificacion</t>
-  </si>
-  <si>
-    <t>#dia</t>
-  </si>
-  <si>
-    <t>#cargo</t>
-  </si>
-  <si>
-    <t>#grupo</t>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>CANCIMANCE</t>
+  </si>
+  <si>
+    <t>NESTOR</t>
+  </si>
+  <si>
+    <t>JAIME</t>
+  </si>
+  <si>
+    <t>5.249.748</t>
+  </si>
+  <si>
+    <t>2016-09-02</t>
+  </si>
+  <si>
+    <t>PORTERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPLEMENTARIAS
+</t>
+  </si>
+  <si>
+    <t>BURBANO</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>GERMAN</t>
+  </si>
+  <si>
+    <t>OSWALDO</t>
+  </si>
+  <si>
+    <t>12.754.736</t>
+  </si>
+  <si>
+    <t>CERRAJERO</t>
+  </si>
+  <si>
+    <t>MENESES</t>
+  </si>
+  <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>JAIRO</t>
+  </si>
+  <si>
+    <t>87.060.664</t>
+  </si>
+  <si>
+    <t>LLAVERO</t>
+  </si>
+  <si>
+    <t>BOTINA</t>
+  </si>
+  <si>
+    <t>NUPAN</t>
+  </si>
+  <si>
+    <t>ROSA</t>
+  </si>
+  <si>
+    <t>ELVIRA</t>
+  </si>
+  <si>
+    <t>59.836.908</t>
+  </si>
+  <si>
+    <t>ASEO</t>
+  </si>
+  <si>
+    <t>ERASO</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>CONCEPCION</t>
+  </si>
+  <si>
+    <t>27.204.225</t>
   </si>
   <si>
     <t>Maestro Grupo:</t>
   </si>
   <si>
-    <t>maestro XXXX</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>DELGADO</t>
+  </si>
+  <si>
+    <t>MANCISOY</t>
+  </si>
+  <si>
+    <t>SEGUNDO</t>
+  </si>
+  <si>
+    <t>MEDARDO</t>
+  </si>
+  <si>
+    <t>12.750.317</t>
+  </si>
+  <si>
+    <t>AYUDANTE</t>
+  </si>
+  <si>
+    <t>JUAN</t>
+  </si>
+  <si>
+    <t>RIASCOS</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>HERMES</t>
+  </si>
+  <si>
+    <t>12.983.892</t>
+  </si>
+  <si>
+    <t>SAAVEDRA</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>CLAUDIO</t>
+  </si>
+  <si>
+    <t>ROBERTO</t>
+  </si>
+  <si>
+    <t>1.085.247.858</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>ROSERO</t>
+  </si>
+  <si>
+    <t>FRANCO</t>
+  </si>
+  <si>
+    <t>IGNACIO</t>
+  </si>
+  <si>
+    <t>12.964.012</t>
+  </si>
+  <si>
+    <t>LIBIO</t>
+  </si>
+  <si>
+    <t>ALEXANDER</t>
+  </si>
+  <si>
+    <t>1.085.252.017</t>
+  </si>
+  <si>
+    <t>CHACUA</t>
+  </si>
+  <si>
+    <t>ITUYAN</t>
+  </si>
+  <si>
+    <t>ALEXIS</t>
+  </si>
+  <si>
+    <t>JAVIER</t>
+  </si>
+  <si>
+    <t>1.126.449.550</t>
+  </si>
+  <si>
+    <t>ARMADOR</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>HENRRY</t>
+  </si>
+  <si>
+    <t>FERNANDO</t>
+  </si>
+  <si>
+    <t>13.062.509</t>
+  </si>
+  <si>
+    <t>PORTILLA</t>
+  </si>
+  <si>
+    <t>CERON</t>
+  </si>
+  <si>
+    <t>NICOLAS</t>
+  </si>
+  <si>
+    <t>87.532.409</t>
+  </si>
+  <si>
+    <t>GELPUD</t>
+  </si>
+  <si>
+    <t>HEIMAN</t>
+  </si>
+  <si>
+    <t>GUILLERMO</t>
+  </si>
+  <si>
+    <t>87.061.316</t>
+  </si>
+  <si>
+    <t>GARCES</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>HERNAN</t>
+  </si>
+  <si>
+    <t>79.318.587</t>
+  </si>
+  <si>
+    <t>JURADO</t>
+  </si>
+  <si>
+    <t>MORA</t>
+  </si>
+  <si>
+    <t>HECTOR</t>
+  </si>
+  <si>
+    <t>DARIO</t>
+  </si>
+  <si>
+    <t>5.213.931</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>CRIOLLO</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>SERAFIN</t>
+  </si>
+  <si>
+    <t>12.989.621</t>
+  </si>
+  <si>
+    <t>REPELLADOR</t>
+  </si>
+  <si>
+    <t>GONZALO</t>
+  </si>
+  <si>
+    <t>1.085.247.435</t>
+  </si>
+  <si>
+    <t>MEZA</t>
+  </si>
+  <si>
+    <t>LEONEL</t>
+  </si>
+  <si>
+    <t>12.992.035</t>
+  </si>
+  <si>
+    <t>GETIAL</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>AVELARDO</t>
+  </si>
+  <si>
+    <t>13.067.774</t>
+  </si>
+  <si>
+    <t>bonba crt</t>
+  </si>
+  <si>
+    <t>CARLOSAMA</t>
+  </si>
+  <si>
+    <t>MAURICIO</t>
+  </si>
+  <si>
+    <t>YOBANY</t>
+  </si>
+  <si>
+    <t>13.070.549</t>
+  </si>
+  <si>
+    <t>RIGOBERTO</t>
+  </si>
+  <si>
+    <t>1.088.728.594</t>
+  </si>
+  <si>
+    <t>TELLO</t>
+  </si>
+  <si>
+    <t>MANUEL</t>
+  </si>
+  <si>
+    <t>JESUS</t>
+  </si>
+  <si>
+    <t>5.262.835</t>
+  </si>
+  <si>
+    <t>JUAN SEGUNDO CRIOLLO BOTINA</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>94.399.855</t>
+  </si>
+  <si>
+    <t>MAQUINISTAS</t>
+  </si>
+  <si>
+    <t>CORDOBA</t>
+  </si>
+  <si>
+    <t>BUESAQUILLO</t>
+  </si>
+  <si>
+    <t>CRISTIAN</t>
+  </si>
+  <si>
+    <t>HERLEY</t>
+  </si>
+  <si>
+    <t>1.085.331.105</t>
+  </si>
+  <si>
+    <t>ZAMBRANO</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>1.085.265.001</t>
+  </si>
+  <si>
+    <t>MONTILLA</t>
+  </si>
+  <si>
+    <t>DORADO</t>
+  </si>
+  <si>
+    <t>GILDARDO</t>
+  </si>
+  <si>
+    <t>1.086.223.759</t>
+  </si>
+  <si>
+    <t>CUCHALA</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>ENRIQUE</t>
+  </si>
+  <si>
+    <t>12.968.279</t>
+  </si>
+  <si>
+    <t>MEJIA</t>
+  </si>
+  <si>
+    <t>JOSA</t>
+  </si>
+  <si>
+    <t>OSCAR</t>
+  </si>
+  <si>
+    <t>RODRIGO</t>
+  </si>
+  <si>
+    <t>98.400.772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE CELIMO OBANDO </t>
+  </si>
+  <si>
+    <t>JUAJINOY</t>
+  </si>
+  <si>
+    <t>RUALES</t>
+  </si>
+  <si>
+    <t>EDGAR</t>
+  </si>
+  <si>
+    <t>12.991.433</t>
+  </si>
+  <si>
+    <t>PIANDAS</t>
+  </si>
+  <si>
+    <t>BENAVIDES</t>
+  </si>
+  <si>
+    <t>FLOREZ</t>
+  </si>
+  <si>
+    <t>EUGENIO</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>87.067.092</t>
+  </si>
+  <si>
+    <t>PLOMERO</t>
+  </si>
+  <si>
+    <t>JUAN OSCAR PIANDA BOTINA</t>
+  </si>
+  <si>
+    <t>12.972.762</t>
+  </si>
+  <si>
+    <t>NORBEY</t>
+  </si>
+  <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>ANIBAL</t>
+  </si>
+  <si>
+    <t>5.277.964</t>
+  </si>
+  <si>
+    <t>MAIGUAL</t>
+  </si>
+  <si>
+    <t>MIGUEL</t>
+  </si>
+  <si>
+    <t>EDISSON</t>
+  </si>
+  <si>
+    <t>1.083.752.690</t>
+  </si>
+  <si>
+    <t>NORBEY EDILSON VALLEJOS VALLEJOS</t>
+  </si>
+  <si>
+    <t>PASICHANA</t>
+  </si>
+  <si>
+    <t>MILTON</t>
+  </si>
+  <si>
+    <t>87.064.871</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>ENRIQUEZ</t>
+  </si>
+  <si>
+    <t>FAVIAN</t>
+  </si>
+  <si>
+    <t>FRANCISCO</t>
+  </si>
+  <si>
+    <t>87.061.048</t>
+  </si>
+  <si>
+    <t>SERGIO ANDRES VALLEJOS VALLEJOS</t>
+  </si>
+  <si>
+    <t>CHAÑAG</t>
+  </si>
+  <si>
+    <t>PEDRO</t>
+  </si>
+  <si>
+    <t>5.354.229</t>
+  </si>
+  <si>
+    <t>PEREGRINOS</t>
+  </si>
+  <si>
+    <t>JOJOA</t>
+  </si>
+  <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>98.384.627</t>
+  </si>
+  <si>
+    <t>ESTUCADOR</t>
+  </si>
+  <si>
+    <t>PEREGRINO  YAQUENO PASICHANA</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>GIRALDO</t>
+  </si>
+  <si>
+    <t>LEONIDAS</t>
+  </si>
+  <si>
+    <t>5.208.891</t>
+  </si>
+  <si>
+    <t>PINTORES</t>
+  </si>
+  <si>
+    <t>IVAN</t>
+  </si>
+  <si>
+    <t>5.228.681</t>
+  </si>
+  <si>
+    <t>CONTRAMAESTRO</t>
+  </si>
+  <si>
+    <t>CARLOS IVAN CUCHALA DELGADO</t>
+  </si>
+  <si>
+    <t>CAICEDO</t>
+  </si>
+  <si>
+    <t>CAMPO</t>
+  </si>
+  <si>
+    <t>ELIAS</t>
+  </si>
+  <si>
+    <t>5.203.622</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>DAZA</t>
+  </si>
+  <si>
+    <t>ERLINTO</t>
+  </si>
+  <si>
+    <t>FERNEY</t>
+  </si>
+  <si>
+    <t>12.747.384</t>
+  </si>
+  <si>
+    <t>TORO</t>
+  </si>
+  <si>
+    <t>MONTERO</t>
+  </si>
+  <si>
+    <t>MARIO</t>
+  </si>
+  <si>
+    <t>13.072.581</t>
+  </si>
+  <si>
+    <t>ENCHAPADOR</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>BRAVO</t>
+  </si>
+  <si>
+    <t>ULPIANO</t>
+  </si>
+  <si>
+    <t>1.085.315.910</t>
+  </si>
+  <si>
+    <t>TULCAN</t>
+  </si>
+  <si>
+    <t>IMBAJOA</t>
+  </si>
+  <si>
+    <t>BERNARDO</t>
+  </si>
+  <si>
+    <t>1.086.223.845</t>
+  </si>
+  <si>
+    <t>LUIS FELIPE YAQUENO DE LA CRUZ</t>
   </si>
 </sst>
 </file>
@@ -226,13 +824,13 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="2">
-      <c r="B2" t="s" s="1">
+      <c r="D2" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
     <row r="4">
       <c r="B4" t="s" s="3">
@@ -264,17 +862,17 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="2" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>13</v>
@@ -292,26 +890,1688 @@
         <v>17</v>
       </c>
     </row>
+    <row r="6">
+      <c r="B6" s="2" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="7">
-      <c r="B7" t="s" s="1">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="B7" s="2" t="n">
+        <v>625.0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8">
-      <c r="E8" t="s">
+      <c r="B8" s="2" t="n">
+        <v>773.0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="2" t="n">
+        <v>784.0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="H14" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="I14" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="J14" t="s" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="2" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="2" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="2" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="2" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="2" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="2" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="2" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="2" t="n">
+        <v>212.0</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="2" t="n">
+        <v>249.0</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="2" t="n">
+        <v>252.0</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="2" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="2" t="n">
+        <v>375.0</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="2" t="n">
+        <v>402.0</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="2" t="n">
+        <v>403.0</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="2" t="n">
+        <v>411.0</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="2" t="n">
+        <v>639.0</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="2" t="n">
+        <v>704.0</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="2" t="n">
+        <v>737.0</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35">
+      <c r="E35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="F37" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="H37" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="I37" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="J37" t="s" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="2" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="2" t="n">
+        <v>768.0</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="2" t="n">
+        <v>798.0</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="2" t="n">
+        <v>826.0</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="2" t="n">
+        <v>832.0</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="2" t="n">
+        <v>834.0</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46">
+      <c r="E46" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="E48" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="F48" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="G48" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="H48" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="I48" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="J48" t="s" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="2" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="2" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53">
+      <c r="E53" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="F55" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="G55" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="H55" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="I55" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="J55" t="s" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="2" t="n">
+        <v>235.0</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="2" t="n">
+        <v>334.0</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="2" t="n">
+        <v>502.0</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+    </row>
+    <row r="61">
+      <c r="E61" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="E63" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="F63" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="G63" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="H63" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="I63" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="J63" t="s" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="2" t="n">
+        <v>224.0</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="2" t="n">
+        <v>779.0</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68">
+      <c r="E68" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="E70" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="F70" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="G70" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="H70" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="I70" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="J70" t="s" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="2" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="2" t="n">
+        <v>313.0</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+    </row>
+    <row r="75">
+      <c r="E75" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="E77" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="F77" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="G77" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="H77" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="I77" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="J77" t="s" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" s="2" t="n">
+        <v>330.0</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="2" t="n">
+        <v>331.0</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+    </row>
+    <row r="82">
+      <c r="E82" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="E84" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="F84" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="G84" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="H84" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="I84" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="J84" t="s" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" s="2" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" s="2" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" s="2" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" s="2" t="n">
+        <v>1123.0</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" s="2" t="n">
+        <v>1124.0</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+    </row>
+    <row r="92">
+      <c r="E92" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="E61:I61"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="E75:I75"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="E82:I82"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="E92:I92"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/personal/quincena.xlsx
+++ b/personal/quincena.xlsx
@@ -6,14 +6,424 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="2016-09-03" r:id="rId3" sheetId="1"/>
-    <sheet name="quincena" r:id="rId4" sheetId="2"/>
+    <sheet name="periodo 2016-09-01 a 2016-09-15" r:id="rId3" sheetId="1"/>
+    <sheet name="2016-09-03" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="136">
+  <si>
+    <t>Asistencia 2016-09-03</t>
+  </si>
+  <si>
+    <t>Nficha</t>
+  </si>
+  <si>
+    <t>1er Apellido</t>
+  </si>
+  <si>
+    <t>2do Apellido</t>
+  </si>
+  <si>
+    <t>1er Nombre</t>
+  </si>
+  <si>
+    <t>2do Nombre</t>
+  </si>
+  <si>
+    <t>Identificacion</t>
+  </si>
+  <si>
+    <t>Día</t>
+  </si>
+  <si>
+    <t>Cargo</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>CANCIMANCE</t>
+  </si>
+  <si>
+    <t>NESTOR</t>
+  </si>
+  <si>
+    <t>JAIME</t>
+  </si>
+  <si>
+    <t>5.249.748</t>
+  </si>
+  <si>
+    <t>2016-09-03</t>
+  </si>
+  <si>
+    <t>PORTERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPLEMENTARIAS
+</t>
+  </si>
+  <si>
+    <t>Maestro Grupo:</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>DELGADO</t>
+  </si>
+  <si>
+    <t>MANCISOY</t>
+  </si>
+  <si>
+    <t>SEGUNDO</t>
+  </si>
+  <si>
+    <t>MEDARDO</t>
+  </si>
+  <si>
+    <t>12.750.317</t>
+  </si>
+  <si>
+    <t>AYUDANTE</t>
+  </si>
+  <si>
+    <t>JUAN</t>
+  </si>
+  <si>
+    <t>JURADO</t>
+  </si>
+  <si>
+    <t>MORA</t>
+  </si>
+  <si>
+    <t>HECTOR</t>
+  </si>
+  <si>
+    <t>DARIO</t>
+  </si>
+  <si>
+    <t>5.213.931</t>
+  </si>
+  <si>
+    <t>JUAN SEGUNDO CRIOLLO BOTINA</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>ALEXANDER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>94.399.855</t>
+  </si>
+  <si>
+    <t>MAQUINISTAS</t>
+  </si>
+  <si>
+    <t>CORDOBA</t>
+  </si>
+  <si>
+    <t>BUESAQUILLO</t>
+  </si>
+  <si>
+    <t>CRISTIAN</t>
+  </si>
+  <si>
+    <t>HERLEY</t>
+  </si>
+  <si>
+    <t>1.085.331.105</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>ZAMBRANO</t>
+  </si>
+  <si>
+    <t>JESUS</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>1.085.265.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE CELIMO OBANDO </t>
+  </si>
+  <si>
+    <t>JUAJINOY</t>
+  </si>
+  <si>
+    <t>RUALES</t>
+  </si>
+  <si>
+    <t>EDGAR</t>
+  </si>
+  <si>
+    <t>ENRIQUE</t>
+  </si>
+  <si>
+    <t>12.991.433</t>
+  </si>
+  <si>
+    <t>PIANDAS</t>
+  </si>
+  <si>
+    <t>BENAVIDES</t>
+  </si>
+  <si>
+    <t>FLOREZ</t>
+  </si>
+  <si>
+    <t>EUGENIO</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>87.067.092</t>
+  </si>
+  <si>
+    <t>PLOMERO</t>
+  </si>
+  <si>
+    <t>CORTEZ</t>
+  </si>
+  <si>
+    <t>CUASPA</t>
+  </si>
+  <si>
+    <t>JOHNNY</t>
+  </si>
+  <si>
+    <t>STEVEN</t>
+  </si>
+  <si>
+    <t>1.085.319.345</t>
+  </si>
+  <si>
+    <t>ROSERO</t>
+  </si>
+  <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>1.085.271.056</t>
+  </si>
+  <si>
+    <t>JUAN OSCAR PIANDA BOTINA</t>
+  </si>
+  <si>
+    <t>ERASO</t>
+  </si>
+  <si>
+    <t>OSWALDO</t>
+  </si>
+  <si>
+    <t>JAVIER</t>
+  </si>
+  <si>
+    <t>12.972.762</t>
+  </si>
+  <si>
+    <t>ARMADOR</t>
+  </si>
+  <si>
+    <t>NORBEY</t>
+  </si>
+  <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>ANIBAL</t>
+  </si>
+  <si>
+    <t>5.277.964</t>
+  </si>
+  <si>
+    <t>LAGOS</t>
+  </si>
+  <si>
+    <t>MAIGUAL</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>EDILFONSO</t>
+  </si>
+  <si>
+    <t>1.085.272.447</t>
+  </si>
+  <si>
+    <t>MALES</t>
+  </si>
+  <si>
+    <t>ENUI</t>
+  </si>
+  <si>
+    <t>MIYE</t>
+  </si>
+  <si>
+    <t>1.085.300.661</t>
+  </si>
+  <si>
+    <t>ESTRADA</t>
+  </si>
+  <si>
+    <t>CARMEN</t>
+  </si>
+  <si>
+    <t>5.305.894</t>
+  </si>
+  <si>
+    <t>NORBEY EDILSON VALLEJOS VALLEJOS</t>
+  </si>
+  <si>
+    <t>ENRIQUEZ</t>
+  </si>
+  <si>
+    <t>BOTINA</t>
+  </si>
+  <si>
+    <t>FAVIAN</t>
+  </si>
+  <si>
+    <t>FRANCISCO</t>
+  </si>
+  <si>
+    <t>87.061.048</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>SERGIO ANDRES VALLEJOS VALLEJOS</t>
+  </si>
+  <si>
+    <t>YAQUENO</t>
+  </si>
+  <si>
+    <t>PASICHANA</t>
+  </si>
+  <si>
+    <t>PEREGRINO</t>
+  </si>
+  <si>
+    <t>12.745.057</t>
+  </si>
+  <si>
+    <t>CONTRAMAESTRO</t>
+  </si>
+  <si>
+    <t>PEREGRINOS</t>
+  </si>
+  <si>
+    <t>CHAÑAG</t>
+  </si>
+  <si>
+    <t>PEDRO</t>
+  </si>
+  <si>
+    <t>5.354.229</t>
+  </si>
+  <si>
+    <t>PEREGRINO  YAQUENO PASICHANA</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>GIRALDO</t>
+  </si>
+  <si>
+    <t>LEONIDAS</t>
+  </si>
+  <si>
+    <t>5.208.891</t>
+  </si>
+  <si>
+    <t>PINTORES</t>
+  </si>
+  <si>
+    <t>CUCHALA</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>IVAN</t>
+  </si>
+  <si>
+    <t>5.228.681</t>
+  </si>
+  <si>
+    <t>VALLEJOS</t>
+  </si>
+  <si>
+    <t>WILLIAM</t>
+  </si>
+  <si>
+    <t>GERARDO</t>
+  </si>
+  <si>
+    <t>1.085.297.046</t>
+  </si>
+  <si>
+    <t>ESTUCADOR</t>
+  </si>
+  <si>
+    <t>CARLOS IVAN CUCHALA DELGADO</t>
+  </si>
+  <si>
+    <t>GELPUD</t>
+  </si>
+  <si>
+    <t>MASINSOY</t>
+  </si>
+  <si>
+    <t>APARICIO</t>
+  </si>
+  <si>
+    <t>10.537.227</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>CAICEDO</t>
+  </si>
+  <si>
+    <t>CAMPO</t>
+  </si>
+  <si>
+    <t>ELIAS</t>
+  </si>
+  <si>
+    <t>5.203.622</t>
+  </si>
+  <si>
+    <t>LUIS FELIPE YAQUENO DE LA CRUZ</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -178,7 +588,1119 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2">
+      <c r="D2" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="4">
+      <c r="B4" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="2" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="2" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="H17" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="I17" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="J17" t="s" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="2" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="2" t="n">
+        <v>768.0</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="2" t="n">
+        <v>798.0</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23">
+      <c r="E23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="H25" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="I25" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="J25" t="s" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="2" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="2" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="2" t="n">
+        <v>921.0</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="2" t="n">
+        <v>922.0</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32">
+      <c r="E32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="F34" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="H34" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="I34" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="J34" t="s" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="2" t="n">
+        <v>235.0</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="2" t="n">
+        <v>334.0</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="2" t="n">
+        <v>346.0</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="2" t="n">
+        <v>472.0</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="2" t="n">
+        <v>491.0</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42">
+      <c r="E42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="F44" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="H44" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="I44" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="J44" t="s" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="2" t="n">
+        <v>779.0</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48">
+      <c r="E48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="F50" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="G50" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="H50" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="I50" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="J50" t="s" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="2" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="2" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55">
+      <c r="E55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="E57" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="F57" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="G57" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="H57" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="I57" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="J57" t="s" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="2" t="n">
+        <v>330.0</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="2" t="n">
+        <v>331.0</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="2" t="n">
+        <v>459.0</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+    </row>
+    <row r="63">
+      <c r="E63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="F65" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="G65" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="H65" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="I65" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="J65" t="s" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="2" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="2" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+    </row>
+    <row r="70">
+      <c r="E70" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E63:I63"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="E70:I70"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/personal/quincena.xlsx
+++ b/personal/quincena.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="100">
   <si>
     <t>Asistencia 2016-09-04</t>
   </si>
@@ -206,6 +206,114 @@
   </si>
   <si>
     <t>JUAN OSCAR PIANDA BOTINA</t>
+  </si>
+  <si>
+    <t>Convecciones</t>
+  </si>
+  <si>
+    <t>Faltas</t>
+  </si>
+  <si>
+    <t>ContraMaestros</t>
+  </si>
+  <si>
+    <t>Incapacidades</t>
+  </si>
+  <si>
+    <t>Permisos</t>
+  </si>
+  <si>
+    <t>SANTA MARIA DE FATIMA</t>
+  </si>
+  <si>
+    <t>quincena N° #</t>
+  </si>
+  <si>
+    <t>día1 a día2 de mes</t>
+  </si>
+  <si>
+    <t>grupo 1</t>
+  </si>
+  <si>
+    <t>N°</t>
+  </si>
+  <si>
+    <t>Ficha</t>
+  </si>
+  <si>
+    <t>1ER.Apellido</t>
+  </si>
+  <si>
+    <t>2DO.Apellido</t>
+  </si>
+  <si>
+    <t>1ER.Nombre</t>
+  </si>
+  <si>
+    <t>2DO.Nombre</t>
+  </si>
+  <si>
+    <t>concatenar</t>
+  </si>
+  <si>
+    <t>IDENTIFICACION</t>
+  </si>
+  <si>
+    <t>#Cuenta</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>D/W</t>
+  </si>
+  <si>
+    <t>V/ DIARIO</t>
+  </si>
+  <si>
+    <t>SALARIO</t>
+  </si>
+  <si>
+    <t>AUX. TRANS</t>
+  </si>
+  <si>
+    <t>BONIFICACION</t>
+  </si>
+  <si>
+    <t>ISS</t>
+  </si>
+  <si>
+    <t>TOTAL A PAGAR</t>
+  </si>
+  <si>
+    <t>REDONDEAR</t>
+  </si>
+  <si>
+    <t>CES-%CES -P-V</t>
+  </si>
+  <si>
+    <t>Total Costo Empresa</t>
+  </si>
+  <si>
+    <t>CARGO</t>
+  </si>
+  <si>
+    <t>MAESTRO/CUADRILLA</t>
   </si>
 </sst>
 </file>
@@ -213,7 +321,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -226,8 +334,22 @@
       <sz val="11.0"/>
       <b val="true"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,8 +376,53 @@
         <fgColor indexed="13"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -331,11 +498,90 @@
         <color indexed="64"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
@@ -347,6 +593,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -359,8 +617,213 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="2"/>
+    <row r="2">
+      <c r="H2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K7" s="10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L7" s="10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M7" s="10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="N7" s="10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O7" s="10" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P7" s="10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q7" s="10" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="R7" s="10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="S7" s="10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="T7" s="10" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="U7" s="10" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="V7" s="10" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="W7" s="10" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="X7" s="10" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="11">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s" s="11">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s" s="11">
+        <v>75</v>
+      </c>
+      <c r="D8" t="s" s="11">
+        <v>76</v>
+      </c>
+      <c r="E8" t="s" s="11">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s" s="11">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s" s="11">
+        <v>79</v>
+      </c>
+      <c r="H8" t="s" s="11">
+        <v>80</v>
+      </c>
+      <c r="I8" t="s" s="11">
+        <v>81</v>
+      </c>
+      <c r="J8" t="s" s="11">
+        <v>82</v>
+      </c>
+      <c r="K8" t="s" s="11">
+        <v>83</v>
+      </c>
+      <c r="L8" t="s" s="11">
+        <v>84</v>
+      </c>
+      <c r="M8" t="s" s="11">
+        <v>85</v>
+      </c>
+      <c r="N8" t="s" s="11">
+        <v>85</v>
+      </c>
+      <c r="O8" t="s" s="11">
+        <v>86</v>
+      </c>
+      <c r="P8" t="s" s="11">
+        <v>87</v>
+      </c>
+      <c r="Q8" t="s" s="11">
+        <v>82</v>
+      </c>
+      <c r="R8" t="s" s="11">
+        <v>83</v>
+      </c>
+      <c r="S8" t="s" s="11">
+        <v>84</v>
+      </c>
+      <c r="T8" t="s" s="11">
+        <v>85</v>
+      </c>
+      <c r="U8" t="s" s="11">
+        <v>85</v>
+      </c>
+      <c r="V8" t="s" s="11">
+        <v>86</v>
+      </c>
+      <c r="W8" t="s" s="11">
+        <v>87</v>
+      </c>
+      <c r="X8" t="s" s="11">
+        <v>82</v>
+      </c>
+      <c r="Y8" t="s" s="11">
+        <v>88</v>
+      </c>
+      <c r="Z8" t="s" s="11">
+        <v>89</v>
+      </c>
+      <c r="AA8" t="s" s="11">
+        <v>90</v>
+      </c>
+      <c r="AB8" t="s" s="11">
+        <v>91</v>
+      </c>
+      <c r="AC8" t="s" s="11">
+        <v>92</v>
+      </c>
+      <c r="AD8" t="s" s="11">
+        <v>93</v>
+      </c>
+      <c r="AE8" t="s" s="11">
+        <v>94</v>
+      </c>
+      <c r="AF8" t="s" s="11">
+        <v>95</v>
+      </c>
+      <c r="AG8" t="s" s="11">
+        <v>96</v>
+      </c>
+      <c r="AH8" t="s" s="11">
+        <v>97</v>
+      </c>
+      <c r="AI8" t="s" s="11">
+        <v>98</v>
+      </c>
+      <c r="AJ8" t="s" s="11">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>

--- a/personal/quincena.xlsx
+++ b/personal/quincena.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="360">
   <si>
     <t>Convecciones</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>ARMANDO</t>
-  </si>
-  <si>
-    <t>=CONCATENAR(C9;D9;E9;F9)</t>
   </si>
   <si>
     <t>CHALACAN</t>
@@ -1614,8 +1611,8 @@
       <c r="F9" t="s" s="10">
         <v>39</v>
       </c>
-      <c r="G9" t="s" s="10">
-        <v>40</v>
+      <c r="G9" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="10">
@@ -1626,19 +1623,19 @@
         <v>-1.0</v>
       </c>
       <c r="C10" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s" s="10">
         <v>41</v>
       </c>
-      <c r="D10" t="s" s="10">
+      <c r="E10" t="s" s="10">
         <v>42</v>
       </c>
-      <c r="E10" t="s" s="10">
+      <c r="F10" t="s" s="10">
         <v>43</v>
       </c>
-      <c r="F10" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="G10" t="s" s="10">
-        <v>40</v>
+      <c r="G10" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="11">
@@ -1649,19 +1646,19 @@
         <v>49.0</v>
       </c>
       <c r="C11" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s" s="10">
         <v>45</v>
       </c>
-      <c r="D11" t="s" s="10">
+      <c r="E11" t="s" s="10">
         <v>46</v>
       </c>
-      <c r="E11" t="s" s="10">
+      <c r="F11" t="s" s="10">
         <v>47</v>
       </c>
-      <c r="F11" t="s" s="10">
-        <v>48</v>
-      </c>
-      <c r="G11" t="s" s="10">
-        <v>40</v>
+      <c r="G11" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="12">
@@ -1672,19 +1669,19 @@
         <v>230.0</v>
       </c>
       <c r="C12" t="s" s="10">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s" s="10">
         <v>49</v>
       </c>
-      <c r="D12" t="s" s="10">
+      <c r="E12" t="s" s="10">
         <v>50</v>
       </c>
-      <c r="E12" t="s" s="10">
+      <c r="F12" t="s" s="10">
         <v>51</v>
       </c>
-      <c r="F12" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="G12" t="s" s="10">
-        <v>40</v>
+      <c r="G12" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="13">
@@ -1695,19 +1692,19 @@
         <v>625.0</v>
       </c>
       <c r="C13" t="s" s="10">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s" s="10">
         <v>53</v>
       </c>
-      <c r="D13" t="s" s="10">
+      <c r="E13" t="s" s="10">
         <v>54</v>
       </c>
-      <c r="E13" t="s" s="10">
+      <c r="F13" t="s" s="10">
         <v>55</v>
       </c>
-      <c r="F13" t="s" s="10">
-        <v>56</v>
-      </c>
-      <c r="G13" t="s" s="10">
-        <v>40</v>
+      <c r="G13" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="14">
@@ -1718,19 +1715,19 @@
         <v>773.0</v>
       </c>
       <c r="C14" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s" s="10">
         <v>57</v>
       </c>
-      <c r="D14" t="s" s="10">
+      <c r="E14" t="s" s="10">
         <v>58</v>
       </c>
-      <c r="E14" t="s" s="10">
+      <c r="F14" t="s" s="10">
         <v>59</v>
       </c>
-      <c r="F14" t="s" s="10">
-        <v>60</v>
-      </c>
-      <c r="G14" t="s" s="10">
-        <v>40</v>
+      <c r="G14" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="15">
@@ -1741,19 +1738,19 @@
         <v>784.0</v>
       </c>
       <c r="C15" t="s" s="10">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s" s="10">
         <v>61</v>
       </c>
-      <c r="D15" t="s" s="10">
-        <v>45</v>
-      </c>
-      <c r="E15" t="s" s="10">
+      <c r="F15" t="s" s="10">
         <v>62</v>
       </c>
-      <c r="F15" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="G15" t="s" s="10">
-        <v>40</v>
+      <c r="G15" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="16">
@@ -1764,19 +1761,19 @@
         <v>-3.0</v>
       </c>
       <c r="C16" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s" s="7">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s" s="7">
         <v>64</v>
       </c>
-      <c r="D16" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="E16" t="s" s="7">
+      <c r="F16" t="s" s="7">
         <v>65</v>
       </c>
-      <c r="F16" t="s" s="7">
-        <v>66</v>
-      </c>
-      <c r="G16" t="s" s="7">
-        <v>40</v>
+      <c r="G16" s="7">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="17">
@@ -1787,19 +1784,19 @@
         <v>8.0</v>
       </c>
       <c r="C17" t="s" s="10">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s" s="10">
         <v>67</v>
-      </c>
-      <c r="D17" t="s" s="10">
-        <v>68</v>
       </c>
       <c r="E17" t="s" s="10">
         <v>38</v>
       </c>
       <c r="F17" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="G17" t="s" s="10">
-        <v>40</v>
+        <v>68</v>
+      </c>
+      <c r="G17" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="18">
@@ -1810,19 +1807,19 @@
         <v>23.0</v>
       </c>
       <c r="C18" t="s" s="10">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s" s="10">
         <v>70</v>
       </c>
-      <c r="D18" t="s" s="10">
+      <c r="E18" t="s" s="10">
+        <v>65</v>
+      </c>
+      <c r="F18" t="s" s="10">
         <v>71</v>
       </c>
-      <c r="E18" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="F18" t="s" s="10">
-        <v>72</v>
-      </c>
-      <c r="G18" t="s" s="10">
-        <v>40</v>
+      <c r="G18" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="19">
@@ -1833,19 +1830,19 @@
         <v>92.0</v>
       </c>
       <c r="C19" t="s" s="10">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s" s="10">
         <v>73</v>
       </c>
-      <c r="D19" t="s" s="10">
+      <c r="E19" t="s" s="10">
+        <v>65</v>
+      </c>
+      <c r="F19" t="s" s="10">
         <v>74</v>
       </c>
-      <c r="E19" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="F19" t="s" s="10">
-        <v>75</v>
-      </c>
-      <c r="G19" t="s" s="10">
-        <v>40</v>
+      <c r="G19" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="20">
@@ -1856,19 +1853,19 @@
         <v>100.0</v>
       </c>
       <c r="C20" t="s" s="10">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s" s="10">
         <v>76</v>
       </c>
-      <c r="D20" t="s" s="10">
+      <c r="E20" t="s" s="10">
         <v>77</v>
       </c>
-      <c r="E20" t="s" s="10">
+      <c r="F20" t="s" s="10">
         <v>78</v>
       </c>
-      <c r="F20" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="G20" t="s" s="10">
-        <v>40</v>
+      <c r="G20" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="21">
@@ -1879,19 +1876,19 @@
         <v>127.0</v>
       </c>
       <c r="C21" t="s" s="10">
+        <v>79</v>
+      </c>
+      <c r="D21" t="s" s="10">
         <v>80</v>
       </c>
-      <c r="D21" t="s" s="10">
+      <c r="E21" t="s" s="10">
         <v>81</v>
       </c>
-      <c r="E21" t="s" s="10">
+      <c r="F21" t="s" s="10">
         <v>82</v>
       </c>
-      <c r="F21" t="s" s="10">
-        <v>83</v>
-      </c>
-      <c r="G21" t="s" s="10">
-        <v>40</v>
+      <c r="G21" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="22">
@@ -1902,19 +1899,19 @@
         <v>147.0</v>
       </c>
       <c r="C22" t="s" s="10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s" s="10">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="F22" t="s" s="10">
         <v>84</v>
       </c>
-      <c r="F22" t="s" s="10">
-        <v>85</v>
-      </c>
-      <c r="G22" t="s" s="10">
-        <v>40</v>
+      <c r="G22" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="23">
@@ -1925,19 +1922,19 @@
         <v>178.0</v>
       </c>
       <c r="C23" t="s" s="10">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s" s="10">
         <v>86</v>
       </c>
-      <c r="D23" t="s" s="10">
+      <c r="E23" t="s" s="10">
         <v>87</v>
       </c>
-      <c r="E23" t="s" s="10">
+      <c r="F23" t="s" s="10">
         <v>88</v>
       </c>
-      <c r="F23" t="s" s="10">
-        <v>89</v>
-      </c>
-      <c r="G23" t="s" s="10">
-        <v>40</v>
+      <c r="G23" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="24">
@@ -1948,19 +1945,19 @@
         <v>206.0</v>
       </c>
       <c r="C24" t="s" s="10">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="E24" t="s" s="10">
         <v>90</v>
       </c>
-      <c r="D24" t="s" s="10">
-        <v>68</v>
-      </c>
-      <c r="E24" t="s" s="10">
+      <c r="F24" t="s" s="10">
         <v>91</v>
       </c>
-      <c r="F24" t="s" s="10">
-        <v>92</v>
-      </c>
-      <c r="G24" t="s" s="10">
-        <v>40</v>
+      <c r="G24" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="25">
@@ -1971,19 +1968,19 @@
         <v>212.0</v>
       </c>
       <c r="C25" t="s" s="10">
+        <v>92</v>
+      </c>
+      <c r="D25" t="s" s="10">
         <v>93</v>
       </c>
-      <c r="D25" t="s" s="10">
+      <c r="E25" t="s" s="10">
+        <v>55</v>
+      </c>
+      <c r="F25" t="s" s="10">
         <v>94</v>
       </c>
-      <c r="E25" t="s" s="10">
-        <v>56</v>
-      </c>
-      <c r="F25" t="s" s="10">
-        <v>95</v>
-      </c>
-      <c r="G25" t="s" s="10">
-        <v>40</v>
+      <c r="G25" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="26">
@@ -1994,19 +1991,19 @@
         <v>249.0</v>
       </c>
       <c r="C26" t="s" s="10">
+        <v>95</v>
+      </c>
+      <c r="D26" t="s" s="10">
+        <v>95</v>
+      </c>
+      <c r="E26" t="s" s="10">
         <v>96</v>
       </c>
-      <c r="D26" t="s" s="10">
-        <v>96</v>
-      </c>
-      <c r="E26" t="s" s="10">
+      <c r="F26" t="s" s="10">
         <v>97</v>
       </c>
-      <c r="F26" t="s" s="10">
-        <v>98</v>
-      </c>
-      <c r="G26" t="s" s="10">
-        <v>40</v>
+      <c r="G26" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="27">
@@ -2017,19 +2014,19 @@
         <v>252.0</v>
       </c>
       <c r="C27" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="D27" t="s" s="10">
         <v>99</v>
       </c>
-      <c r="D27" t="s" s="10">
+      <c r="E27" t="s" s="10">
         <v>100</v>
       </c>
-      <c r="E27" t="s" s="10">
+      <c r="F27" t="s" s="10">
         <v>101</v>
       </c>
-      <c r="F27" t="s" s="10">
-        <v>102</v>
-      </c>
-      <c r="G27" t="s" s="10">
-        <v>40</v>
+      <c r="G27" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="28">
@@ -2040,19 +2037,19 @@
         <v>256.0</v>
       </c>
       <c r="C28" t="s" s="10">
+        <v>102</v>
+      </c>
+      <c r="D28" t="s" s="10">
         <v>103</v>
       </c>
-      <c r="D28" t="s" s="10">
+      <c r="E28" t="s" s="10">
         <v>104</v>
       </c>
-      <c r="E28" t="s" s="10">
+      <c r="F28" t="s" s="10">
         <v>105</v>
       </c>
-      <c r="F28" t="s" s="10">
-        <v>106</v>
-      </c>
-      <c r="G28" t="s" s="10">
-        <v>40</v>
+      <c r="G28" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="29">
@@ -2063,19 +2060,19 @@
         <v>375.0</v>
       </c>
       <c r="C29" t="s" s="10">
+        <v>106</v>
+      </c>
+      <c r="D29" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="E29" t="s" s="10">
         <v>107</v>
       </c>
-      <c r="D29" t="s" s="10">
-        <v>64</v>
-      </c>
-      <c r="E29" t="s" s="10">
-        <v>108</v>
-      </c>
       <c r="F29" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="G29" t="s" s="10">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="G29" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="30">
@@ -2086,19 +2083,19 @@
         <v>402.0</v>
       </c>
       <c r="C30" t="s" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s" s="10">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E30" t="s" s="10">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F30" t="s" s="10">
-        <v>109</v>
-      </c>
-      <c r="G30" t="s" s="10">
-        <v>40</v>
+        <v>108</v>
+      </c>
+      <c r="G30" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="31">
@@ -2109,19 +2106,19 @@
         <v>403.0</v>
       </c>
       <c r="C31" t="s" s="10">
+        <v>109</v>
+      </c>
+      <c r="D31" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="E31" t="s" s="10">
+        <v>64</v>
+      </c>
+      <c r="F31" t="s" s="10">
         <v>110</v>
       </c>
-      <c r="D31" t="s" s="10">
-        <v>64</v>
-      </c>
-      <c r="E31" t="s" s="10">
-        <v>65</v>
-      </c>
-      <c r="F31" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="G31" t="s" s="10">
-        <v>40</v>
+      <c r="G31" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="32">
@@ -2132,19 +2129,19 @@
         <v>411.0</v>
       </c>
       <c r="C32" t="s" s="10">
+        <v>111</v>
+      </c>
+      <c r="D32" t="s" s="10">
+        <v>111</v>
+      </c>
+      <c r="E32" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="F32" t="s" s="10">
         <v>112</v>
       </c>
-      <c r="D32" t="s" s="10">
-        <v>112</v>
-      </c>
-      <c r="E32" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="F32" t="s" s="10">
-        <v>113</v>
-      </c>
-      <c r="G32" t="s" s="10">
-        <v>40</v>
+      <c r="G32" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="33">
@@ -2155,19 +2152,19 @@
         <v>639.0</v>
       </c>
       <c r="C33" t="s" s="10">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s" s="10">
+        <v>113</v>
+      </c>
+      <c r="E33" t="s" s="10">
         <v>114</v>
       </c>
-      <c r="E33" t="s" s="10">
+      <c r="F33" t="s" s="10">
         <v>115</v>
       </c>
-      <c r="F33" t="s" s="10">
-        <v>116</v>
-      </c>
-      <c r="G33" t="s" s="10">
-        <v>40</v>
+      <c r="G33" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="34">
@@ -2178,19 +2175,19 @@
         <v>704.0</v>
       </c>
       <c r="C34" t="s" s="10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s" s="10">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E34" t="s" s="10">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F34" t="s" s="10">
-        <v>68</v>
-      </c>
-      <c r="G34" t="s" s="10">
-        <v>40</v>
+        <v>67</v>
+      </c>
+      <c r="G34" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="35">
@@ -2201,19 +2198,19 @@
         <v>737.0</v>
       </c>
       <c r="C35" t="s" s="10">
+        <v>117</v>
+      </c>
+      <c r="D35" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="E35" t="s" s="10">
         <v>118</v>
       </c>
-      <c r="D35" t="s" s="10">
-        <v>68</v>
-      </c>
-      <c r="E35" t="s" s="10">
+      <c r="F35" t="s" s="10">
         <v>119</v>
       </c>
-      <c r="F35" t="s" s="10">
-        <v>120</v>
-      </c>
-      <c r="G35" t="s" s="10">
-        <v>40</v>
+      <c r="G35" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="36">
@@ -2224,19 +2221,19 @@
         <v>738.0</v>
       </c>
       <c r="C36" t="s" s="10">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D36" t="s" s="10">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E36" t="s" s="10">
+        <v>120</v>
+      </c>
+      <c r="F36" t="s" s="10">
         <v>121</v>
       </c>
-      <c r="F36" t="s" s="10">
-        <v>122</v>
-      </c>
-      <c r="G36" t="s" s="10">
-        <v>40</v>
+      <c r="G36" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="37">
@@ -2247,19 +2244,19 @@
         <v>807.0</v>
       </c>
       <c r="C37" t="s" s="10">
+        <v>122</v>
+      </c>
+      <c r="D37" t="s" s="10">
         <v>123</v>
       </c>
-      <c r="D37" t="s" s="10">
+      <c r="E37" t="s" s="10">
         <v>124</v>
       </c>
-      <c r="E37" t="s" s="10">
+      <c r="F37" t="s" s="10">
         <v>125</v>
       </c>
-      <c r="F37" t="s" s="10">
-        <v>126</v>
-      </c>
-      <c r="G37" t="s" s="10">
-        <v>40</v>
+      <c r="G37" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="38">
@@ -2270,19 +2267,19 @@
         <v>887.0</v>
       </c>
       <c r="C38" t="s" s="10">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D38" t="s" s="10">
+        <v>126</v>
+      </c>
+      <c r="E38" t="s" s="10">
         <v>127</v>
       </c>
-      <c r="E38" t="s" s="10">
-        <v>128</v>
-      </c>
       <c r="F38" t="s" s="10">
-        <v>85</v>
-      </c>
-      <c r="G38" t="s" s="10">
-        <v>40</v>
+        <v>84</v>
+      </c>
+      <c r="G38" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="39">
@@ -2293,19 +2290,19 @@
         <v>928.0</v>
       </c>
       <c r="C39" t="s" s="10">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s" s="10">
+        <v>128</v>
+      </c>
+      <c r="E39" t="s" s="10">
+        <v>119</v>
+      </c>
+      <c r="F39" t="s" s="10">
         <v>129</v>
       </c>
-      <c r="E39" t="s" s="10">
-        <v>120</v>
-      </c>
-      <c r="F39" t="s" s="10">
-        <v>130</v>
-      </c>
-      <c r="G39" t="s" s="10">
-        <v>40</v>
+      <c r="G39" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="40">
@@ -2316,19 +2313,19 @@
         <v>978.0</v>
       </c>
       <c r="C40" t="s" s="10">
+        <v>130</v>
+      </c>
+      <c r="D40" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="E40" t="s" s="10">
+        <v>119</v>
+      </c>
+      <c r="F40" t="s" s="10">
         <v>131</v>
       </c>
-      <c r="D40" t="s" s="10">
-        <v>57</v>
-      </c>
-      <c r="E40" t="s" s="10">
-        <v>120</v>
-      </c>
-      <c r="F40" t="s" s="10">
-        <v>132</v>
-      </c>
-      <c r="G40" t="s" s="10">
-        <v>40</v>
+      <c r="G40" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="41">
@@ -2339,19 +2336,19 @@
         <v>1028.0</v>
       </c>
       <c r="C41" t="s" s="10">
+        <v>132</v>
+      </c>
+      <c r="D41" t="s" s="10">
         <v>133</v>
       </c>
-      <c r="D41" t="s" s="10">
+      <c r="E41" t="s" s="10">
         <v>134</v>
       </c>
-      <c r="E41" t="s" s="10">
+      <c r="F41" t="s" s="10">
         <v>135</v>
       </c>
-      <c r="F41" t="s" s="10">
-        <v>136</v>
-      </c>
-      <c r="G41" t="s" s="10">
-        <v>40</v>
+      <c r="G41" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="42">
@@ -2362,19 +2359,19 @@
         <v>1044.0</v>
       </c>
       <c r="C42" t="s" s="10">
+        <v>136</v>
+      </c>
+      <c r="D42" t="s" s="10">
         <v>137</v>
       </c>
-      <c r="D42" t="s" s="10">
+      <c r="E42" t="s" s="10">
         <v>138</v>
       </c>
-      <c r="E42" t="s" s="10">
-        <v>139</v>
-      </c>
       <c r="F42" t="s" s="10">
-        <v>68</v>
-      </c>
-      <c r="G42" t="s" s="10">
-        <v>40</v>
+        <v>67</v>
+      </c>
+      <c r="G42" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="43">
@@ -2385,19 +2382,19 @@
         <v>1046.0</v>
       </c>
       <c r="C43" t="s" s="10">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D43" t="s" s="10">
+        <v>139</v>
+      </c>
+      <c r="E43" t="s" s="10">
         <v>140</v>
       </c>
-      <c r="E43" t="s" s="10">
+      <c r="F43" t="s" s="10">
         <v>141</v>
       </c>
-      <c r="F43" t="s" s="10">
-        <v>142</v>
-      </c>
-      <c r="G43" t="s" s="10">
-        <v>40</v>
+      <c r="G43" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="44">
@@ -2408,19 +2405,19 @@
         <v>1106.0</v>
       </c>
       <c r="C44" t="s" s="10">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D44" t="s" s="10">
+        <v>142</v>
+      </c>
+      <c r="E44" t="s" s="10">
         <v>143</v>
       </c>
-      <c r="E44" t="s" s="10">
+      <c r="F44" t="s" s="10">
         <v>144</v>
       </c>
-      <c r="F44" t="s" s="10">
-        <v>145</v>
-      </c>
-      <c r="G44" t="s" s="10">
-        <v>40</v>
+      <c r="G44" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="45">
@@ -2431,19 +2428,19 @@
         <v>1108.0</v>
       </c>
       <c r="C45" t="s" s="10">
+        <v>145</v>
+      </c>
+      <c r="D45" t="s" s="10">
+        <v>123</v>
+      </c>
+      <c r="E45" t="s" s="10">
         <v>146</v>
       </c>
-      <c r="D45" t="s" s="10">
-        <v>124</v>
-      </c>
-      <c r="E45" t="s" s="10">
+      <c r="F45" t="s" s="10">
         <v>147</v>
       </c>
-      <c r="F45" t="s" s="10">
-        <v>148</v>
-      </c>
-      <c r="G45" t="s" s="10">
-        <v>40</v>
+      <c r="G45" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="46">
@@ -2454,19 +2451,19 @@
         <v>221.0</v>
       </c>
       <c r="C46" t="s" s="7">
+        <v>148</v>
+      </c>
+      <c r="D46" t="s" s="7">
+        <v>67</v>
+      </c>
+      <c r="E46" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="F46" t="s" s="7">
         <v>149</v>
       </c>
-      <c r="D46" t="s" s="7">
-        <v>68</v>
-      </c>
-      <c r="E46" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="F46" t="s" s="7">
-        <v>150</v>
-      </c>
-      <c r="G46" t="s" s="7">
-        <v>40</v>
+      <c r="G46" s="7">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="47">
@@ -2477,19 +2474,19 @@
         <v>484.0</v>
       </c>
       <c r="C47" t="s" s="10">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D47" t="s" s="10">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E47" t="s" s="10">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F47" t="s" s="10">
-        <v>68</v>
-      </c>
-      <c r="G47" t="s" s="10">
-        <v>40</v>
+        <v>67</v>
+      </c>
+      <c r="G47" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="48">
@@ -2500,19 +2497,19 @@
         <v>768.0</v>
       </c>
       <c r="C48" t="s" s="10">
+        <v>151</v>
+      </c>
+      <c r="D48" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="E48" t="s" s="10">
         <v>152</v>
       </c>
-      <c r="D48" t="s" s="10">
-        <v>68</v>
-      </c>
-      <c r="E48" t="s" s="10">
+      <c r="F48" t="s" s="10">
         <v>153</v>
       </c>
-      <c r="F48" t="s" s="10">
-        <v>154</v>
-      </c>
-      <c r="G48" t="s" s="10">
-        <v>40</v>
+      <c r="G48" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="49">
@@ -2523,19 +2520,19 @@
         <v>798.0</v>
       </c>
       <c r="C49" t="s" s="10">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D49" t="s" s="10">
+        <v>154</v>
+      </c>
+      <c r="E49" t="s" s="10">
+        <v>119</v>
+      </c>
+      <c r="F49" t="s" s="10">
         <v>155</v>
       </c>
-      <c r="E49" t="s" s="10">
-        <v>120</v>
-      </c>
-      <c r="F49" t="s" s="10">
-        <v>156</v>
-      </c>
-      <c r="G49" t="s" s="10">
-        <v>40</v>
+      <c r="G49" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="50">
@@ -2546,19 +2543,19 @@
         <v>826.0</v>
       </c>
       <c r="C50" t="s" s="10">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D50" t="s" s="10">
+        <v>156</v>
+      </c>
+      <c r="E50" t="s" s="10">
+        <v>100</v>
+      </c>
+      <c r="F50" t="s" s="10">
         <v>157</v>
       </c>
-      <c r="E50" t="s" s="10">
-        <v>101</v>
-      </c>
-      <c r="F50" t="s" s="10">
-        <v>158</v>
-      </c>
-      <c r="G50" t="s" s="10">
-        <v>40</v>
+      <c r="G50" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="51">
@@ -2569,19 +2566,19 @@
         <v>832.0</v>
       </c>
       <c r="C51" t="s" s="10">
+        <v>158</v>
+      </c>
+      <c r="D51" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="E51" t="s" s="10">
         <v>159</v>
       </c>
-      <c r="D51" t="s" s="10">
-        <v>68</v>
-      </c>
-      <c r="E51" t="s" s="10">
+      <c r="F51" t="s" s="10">
         <v>160</v>
       </c>
-      <c r="F51" t="s" s="10">
-        <v>161</v>
-      </c>
-      <c r="G51" t="s" s="10">
-        <v>40</v>
+      <c r="G51" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="52">
@@ -2592,19 +2589,19 @@
         <v>834.0</v>
       </c>
       <c r="C52" t="s" s="10">
+        <v>161</v>
+      </c>
+      <c r="D52" t="s" s="10">
         <v>162</v>
       </c>
-      <c r="D52" t="s" s="10">
+      <c r="E52" t="s" s="10">
         <v>163</v>
       </c>
-      <c r="E52" t="s" s="10">
+      <c r="F52" t="s" s="10">
         <v>164</v>
       </c>
-      <c r="F52" t="s" s="10">
-        <v>165</v>
-      </c>
-      <c r="G52" t="s" s="10">
-        <v>40</v>
+      <c r="G52" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="53">
@@ -2615,19 +2612,19 @@
         <v>837.0</v>
       </c>
       <c r="C53" t="s" s="10">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D53" t="s" s="10">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E53" t="s" s="10">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s" s="10">
-        <v>101</v>
-      </c>
-      <c r="G53" t="s" s="10">
-        <v>40</v>
+        <v>100</v>
+      </c>
+      <c r="G53" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="54">
@@ -2638,19 +2635,19 @@
         <v>851.0</v>
       </c>
       <c r="C54" t="s" s="10">
+        <v>166</v>
+      </c>
+      <c r="D54" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="E54" t="s" s="10">
+        <v>159</v>
+      </c>
+      <c r="F54" t="s" s="10">
         <v>167</v>
       </c>
-      <c r="D54" t="s" s="10">
-        <v>77</v>
-      </c>
-      <c r="E54" t="s" s="10">
-        <v>160</v>
-      </c>
-      <c r="F54" t="s" s="10">
-        <v>168</v>
-      </c>
-      <c r="G54" t="s" s="10">
-        <v>40</v>
+      <c r="G54" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="55">
@@ -2661,19 +2658,19 @@
         <v>855.0</v>
       </c>
       <c r="C55" t="s" s="10">
+        <v>168</v>
+      </c>
+      <c r="D55" t="s" s="10">
+        <v>49</v>
+      </c>
+      <c r="E55" t="s" s="10">
+        <v>100</v>
+      </c>
+      <c r="F55" t="s" s="10">
         <v>169</v>
       </c>
-      <c r="D55" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="E55" t="s" s="10">
-        <v>101</v>
-      </c>
-      <c r="F55" t="s" s="10">
-        <v>170</v>
-      </c>
-      <c r="G55" t="s" s="10">
-        <v>40</v>
+      <c r="G55" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="56">
@@ -2684,19 +2681,19 @@
         <v>861.0</v>
       </c>
       <c r="C56" t="s" s="10">
+        <v>170</v>
+      </c>
+      <c r="D56" t="s" s="10">
         <v>171</v>
       </c>
-      <c r="D56" t="s" s="10">
+      <c r="E56" t="s" s="10">
+        <v>159</v>
+      </c>
+      <c r="F56" t="s" s="10">
         <v>172</v>
       </c>
-      <c r="E56" t="s" s="10">
-        <v>160</v>
-      </c>
-      <c r="F56" t="s" s="10">
-        <v>173</v>
-      </c>
-      <c r="G56" t="s" s="10">
-        <v>40</v>
+      <c r="G56" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="57">
@@ -2707,19 +2704,19 @@
         <v>938.0</v>
       </c>
       <c r="C57" t="s" s="10">
+        <v>173</v>
+      </c>
+      <c r="D57" t="s" s="10">
         <v>174</v>
       </c>
-      <c r="D57" t="s" s="10">
+      <c r="E57" t="s" s="10">
         <v>175</v>
       </c>
-      <c r="E57" t="s" s="10">
+      <c r="F57" t="s" s="10">
         <v>176</v>
       </c>
-      <c r="F57" t="s" s="10">
-        <v>177</v>
-      </c>
-      <c r="G57" t="s" s="10">
-        <v>40</v>
+      <c r="G57" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="58">
@@ -2730,19 +2727,19 @@
         <v>975.0</v>
       </c>
       <c r="C58" t="s" s="10">
+        <v>177</v>
+      </c>
+      <c r="D58" t="s" s="10">
         <v>178</v>
       </c>
-      <c r="D58" t="s" s="10">
+      <c r="E58" t="s" s="10">
         <v>179</v>
       </c>
-      <c r="E58" t="s" s="10">
-        <v>180</v>
-      </c>
       <c r="F58" t="s" s="10">
-        <v>68</v>
-      </c>
-      <c r="G58" t="s" s="10">
-        <v>40</v>
+        <v>67</v>
+      </c>
+      <c r="G58" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="59">
@@ -2753,19 +2750,19 @@
         <v>979.0</v>
       </c>
       <c r="C59" t="s" s="10">
+        <v>180</v>
+      </c>
+      <c r="D59" t="s" s="10">
         <v>181</v>
       </c>
-      <c r="D59" t="s" s="10">
+      <c r="E59" t="s" s="10">
         <v>182</v>
       </c>
-      <c r="E59" t="s" s="10">
+      <c r="F59" t="s" s="10">
         <v>183</v>
       </c>
-      <c r="F59" t="s" s="10">
-        <v>184</v>
-      </c>
-      <c r="G59" t="s" s="10">
-        <v>40</v>
+      <c r="G59" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="60">
@@ -2776,19 +2773,19 @@
         <v>1073.0</v>
       </c>
       <c r="C60" t="s" s="10">
+        <v>184</v>
+      </c>
+      <c r="D60" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="E60" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="F60" t="s" s="10">
         <v>185</v>
       </c>
-      <c r="D60" t="s" s="10">
-        <v>81</v>
-      </c>
-      <c r="E60" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="F60" t="s" s="10">
-        <v>186</v>
-      </c>
-      <c r="G60" t="s" s="10">
-        <v>40</v>
+      <c r="G60" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="61">
@@ -2799,19 +2796,19 @@
         <v>-4.0</v>
       </c>
       <c r="C61" t="s" s="7">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D61" t="s" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E61" t="s" s="7">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F61" t="s" s="7">
-        <v>164</v>
-      </c>
-      <c r="G61" t="s" s="7">
-        <v>40</v>
+        <v>163</v>
+      </c>
+      <c r="G61" s="7">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="62">
@@ -2822,19 +2819,19 @@
         <v>319.0</v>
       </c>
       <c r="C62" t="s" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D62" t="s" s="7">
+        <v>187</v>
+      </c>
+      <c r="E62" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="F62" t="s" s="7">
         <v>188</v>
       </c>
-      <c r="E62" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="F62" t="s" s="7">
-        <v>189</v>
-      </c>
-      <c r="G62" t="s" s="7">
-        <v>40</v>
+      <c r="G62" s="7">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="63">
@@ -2845,19 +2842,19 @@
         <v>22.0</v>
       </c>
       <c r="C63" t="s" s="10">
+        <v>189</v>
+      </c>
+      <c r="D63" t="s" s="10">
         <v>190</v>
       </c>
-      <c r="D63" t="s" s="10">
+      <c r="E63" t="s" s="10">
         <v>191</v>
       </c>
-      <c r="E63" t="s" s="10">
-        <v>192</v>
-      </c>
       <c r="F63" t="s" s="10">
-        <v>68</v>
-      </c>
-      <c r="G63" t="s" s="10">
-        <v>40</v>
+        <v>67</v>
+      </c>
+      <c r="G63" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="64">
@@ -2868,19 +2865,19 @@
         <v>46.0</v>
       </c>
       <c r="C64" t="s" s="10">
+        <v>192</v>
+      </c>
+      <c r="D64" t="s" s="10">
         <v>193</v>
       </c>
-      <c r="D64" t="s" s="10">
+      <c r="E64" t="s" s="10">
         <v>194</v>
       </c>
-      <c r="E64" t="s" s="10">
-        <v>195</v>
-      </c>
       <c r="F64" t="s" s="10">
-        <v>161</v>
-      </c>
-      <c r="G64" t="s" s="10">
-        <v>40</v>
+        <v>160</v>
+      </c>
+      <c r="G64" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="65">
@@ -2891,19 +2888,19 @@
         <v>119.0</v>
       </c>
       <c r="C65" t="s" s="10">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D65" t="s" s="10">
+        <v>195</v>
+      </c>
+      <c r="E65" t="s" s="10">
         <v>196</v>
       </c>
-      <c r="E65" t="s" s="10">
-        <v>197</v>
-      </c>
       <c r="F65" t="s" s="10">
-        <v>168</v>
-      </c>
-      <c r="G65" t="s" s="10">
-        <v>40</v>
+        <v>167</v>
+      </c>
+      <c r="G65" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="66">
@@ -2914,19 +2911,19 @@
         <v>142.0</v>
       </c>
       <c r="C66" t="s" s="10">
+        <v>197</v>
+      </c>
+      <c r="D66" t="s" s="10">
         <v>198</v>
       </c>
-      <c r="D66" t="s" s="10">
+      <c r="E66" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="F66" t="s" s="10">
         <v>199</v>
       </c>
-      <c r="E66" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="F66" t="s" s="10">
-        <v>200</v>
-      </c>
-      <c r="G66" t="s" s="10">
-        <v>40</v>
+      <c r="G66" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="67">
@@ -2937,19 +2934,19 @@
         <v>148.0</v>
       </c>
       <c r="C67" t="s" s="10">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D67" t="s" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E67" t="s" s="10">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F67" t="s" s="10">
         <v>39</v>
       </c>
-      <c r="G67" t="s" s="10">
-        <v>40</v>
+      <c r="G67" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="68">
@@ -2960,19 +2957,19 @@
         <v>176.0</v>
       </c>
       <c r="C68" t="s" s="10">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D68" t="s" s="10">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E68" t="s" s="10">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F68" t="s" s="10">
-        <v>202</v>
-      </c>
-      <c r="G68" t="s" s="10">
-        <v>40</v>
+        <v>201</v>
+      </c>
+      <c r="G68" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="69">
@@ -2983,19 +2980,19 @@
         <v>180.0</v>
       </c>
       <c r="C69" t="s" s="10">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D69" t="s" s="10">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E69" t="s" s="10">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F69" t="s" s="10">
-        <v>203</v>
-      </c>
-      <c r="G69" t="s" s="10">
-        <v>40</v>
+        <v>202</v>
+      </c>
+      <c r="G69" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="70">
@@ -3006,19 +3003,19 @@
         <v>227.0</v>
       </c>
       <c r="C70" t="s" s="10">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D70" t="s" s="10">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E70" t="s" s="10">
+        <v>118</v>
+      </c>
+      <c r="F70" t="s" s="10">
         <v>119</v>
       </c>
-      <c r="F70" t="s" s="10">
-        <v>120</v>
-      </c>
-      <c r="G70" t="s" s="10">
-        <v>40</v>
+      <c r="G70" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="71">
@@ -3029,19 +3026,19 @@
         <v>291.0</v>
       </c>
       <c r="C71" t="s" s="10">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" t="s" s="10">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E71" t="s" s="10">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F71" t="s" s="10">
-        <v>109</v>
-      </c>
-      <c r="G71" t="s" s="10">
-        <v>40</v>
+        <v>108</v>
+      </c>
+      <c r="G71" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="72">
@@ -3052,19 +3049,19 @@
         <v>320.0</v>
       </c>
       <c r="C72" t="s" s="10">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D72" t="s" s="10">
+        <v>205</v>
+      </c>
+      <c r="E72" t="s" s="10">
+        <v>47</v>
+      </c>
+      <c r="F72" t="s" s="10">
         <v>206</v>
       </c>
-      <c r="E72" t="s" s="10">
-        <v>48</v>
-      </c>
-      <c r="F72" t="s" s="10">
-        <v>207</v>
-      </c>
-      <c r="G72" t="s" s="10">
-        <v>40</v>
+      <c r="G72" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="73">
@@ -3075,19 +3072,19 @@
         <v>321.0</v>
       </c>
       <c r="C73" t="s" s="10">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D73" t="s" s="10">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E73" t="s" s="10">
+        <v>207</v>
+      </c>
+      <c r="F73" t="s" s="10">
         <v>208</v>
       </c>
-      <c r="F73" t="s" s="10">
-        <v>209</v>
-      </c>
-      <c r="G73" t="s" s="10">
-        <v>40</v>
+      <c r="G73" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="74">
@@ -3098,19 +3095,19 @@
         <v>362.0</v>
       </c>
       <c r="C74" t="s" s="10">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D74" t="s" s="10">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E74" t="s" s="10">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F74" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="G74" t="s" s="10">
-        <v>40</v>
+        <v>65</v>
+      </c>
+      <c r="G74" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="75">
@@ -3121,19 +3118,19 @@
         <v>442.0</v>
       </c>
       <c r="C75" t="s" s="10">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D75" t="s" s="10">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E75" t="s" s="10">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F75" t="s" s="10">
-        <v>211</v>
-      </c>
-      <c r="G75" t="s" s="10">
-        <v>40</v>
+        <v>210</v>
+      </c>
+      <c r="G75" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="76">
@@ -3144,19 +3141,19 @@
         <v>527.0</v>
       </c>
       <c r="C76" t="s" s="10">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D76" t="s" s="10">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E76" t="s" s="10">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F76" t="s" s="10">
-        <v>212</v>
-      </c>
-      <c r="G76" t="s" s="10">
-        <v>40</v>
+        <v>211</v>
+      </c>
+      <c r="G76" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="77">
@@ -3167,19 +3164,19 @@
         <v>551.0</v>
       </c>
       <c r="C77" t="s" s="10">
+        <v>212</v>
+      </c>
+      <c r="D77" t="s" s="10">
+        <v>198</v>
+      </c>
+      <c r="E77" t="s" s="10">
         <v>213</v>
       </c>
-      <c r="D77" t="s" s="10">
-        <v>199</v>
-      </c>
-      <c r="E77" t="s" s="10">
-        <v>214</v>
-      </c>
       <c r="F77" t="s" s="10">
-        <v>85</v>
-      </c>
-      <c r="G77" t="s" s="10">
-        <v>40</v>
+        <v>84</v>
+      </c>
+      <c r="G77" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="78">
@@ -3190,19 +3187,19 @@
         <v>836.0</v>
       </c>
       <c r="C78" t="s" s="10">
+        <v>214</v>
+      </c>
+      <c r="D78" t="s" s="10">
+        <v>186</v>
+      </c>
+      <c r="E78" t="s" s="10">
         <v>215</v>
       </c>
-      <c r="D78" t="s" s="10">
-        <v>187</v>
-      </c>
-      <c r="E78" t="s" s="10">
+      <c r="F78" t="s" s="10">
         <v>216</v>
       </c>
-      <c r="F78" t="s" s="10">
-        <v>217</v>
-      </c>
-      <c r="G78" t="s" s="10">
-        <v>40</v>
+      <c r="G78" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="79">
@@ -3213,19 +3210,19 @@
         <v>862.0</v>
       </c>
       <c r="C79" t="s" s="10">
+        <v>217</v>
+      </c>
+      <c r="D79" t="s" s="10">
+        <v>203</v>
+      </c>
+      <c r="E79" t="s" s="10">
         <v>218</v>
       </c>
-      <c r="D79" t="s" s="10">
-        <v>204</v>
-      </c>
-      <c r="E79" t="s" s="10">
+      <c r="F79" t="s" s="10">
         <v>219</v>
       </c>
-      <c r="F79" t="s" s="10">
-        <v>220</v>
-      </c>
-      <c r="G79" t="s" s="10">
-        <v>40</v>
+      <c r="G79" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="80">
@@ -3236,19 +3233,19 @@
         <v>895.0</v>
       </c>
       <c r="C80" t="s" s="10">
+        <v>220</v>
+      </c>
+      <c r="D80" t="s" s="10">
+        <v>204</v>
+      </c>
+      <c r="E80" t="s" s="10">
         <v>221</v>
       </c>
-      <c r="D80" t="s" s="10">
-        <v>205</v>
-      </c>
-      <c r="E80" t="s" s="10">
+      <c r="F80" t="s" s="10">
         <v>222</v>
       </c>
-      <c r="F80" t="s" s="10">
-        <v>223</v>
-      </c>
-      <c r="G80" t="s" s="10">
-        <v>40</v>
+      <c r="G80" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="81">
@@ -3259,19 +3256,19 @@
         <v>921.0</v>
       </c>
       <c r="C81" t="s" s="10">
+        <v>223</v>
+      </c>
+      <c r="D81" t="s" s="10">
         <v>224</v>
       </c>
-      <c r="D81" t="s" s="10">
+      <c r="E81" t="s" s="10">
         <v>225</v>
       </c>
-      <c r="E81" t="s" s="10">
+      <c r="F81" t="s" s="10">
         <v>226</v>
       </c>
-      <c r="F81" t="s" s="10">
-        <v>227</v>
-      </c>
-      <c r="G81" t="s" s="10">
-        <v>40</v>
+      <c r="G81" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="82">
@@ -3282,19 +3279,19 @@
         <v>922.0</v>
       </c>
       <c r="C82" t="s" s="10">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D82" t="s" s="10">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E82" t="s" s="10">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F82" t="s" s="10">
-        <v>228</v>
-      </c>
-      <c r="G82" t="s" s="10">
-        <v>40</v>
+        <v>227</v>
+      </c>
+      <c r="G82" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="83">
@@ -3305,19 +3302,19 @@
         <v>944.0</v>
       </c>
       <c r="C83" t="s" s="10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D83" t="s" s="10">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E83" t="s" s="10">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F83" t="s" s="10">
-        <v>229</v>
-      </c>
-      <c r="G83" t="s" s="10">
-        <v>40</v>
+        <v>228</v>
+      </c>
+      <c r="G83" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="84">
@@ -3328,19 +3325,19 @@
         <v>960.0</v>
       </c>
       <c r="C84" t="s" s="10">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D84" t="s" s="10">
+        <v>229</v>
+      </c>
+      <c r="E84" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="F84" t="s" s="10">
         <v>230</v>
       </c>
-      <c r="E84" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="F84" t="s" s="10">
-        <v>231</v>
-      </c>
-      <c r="G84" t="s" s="10">
-        <v>40</v>
+      <c r="G84" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="85">
@@ -3351,19 +3348,19 @@
         <v>962.0</v>
       </c>
       <c r="C85" t="s" s="10">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D85" t="s" s="10">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E85" t="s" s="10">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F85" t="s" s="10">
-        <v>56</v>
-      </c>
-      <c r="G85" t="s" s="10">
-        <v>40</v>
+        <v>55</v>
+      </c>
+      <c r="G85" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="86">
@@ -3374,19 +3371,19 @@
         <v>981.0</v>
       </c>
       <c r="C86" t="s" s="10">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D86" t="s" s="10">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E86" t="s" s="10">
+        <v>232</v>
+      </c>
+      <c r="F86" t="s" s="10">
         <v>233</v>
       </c>
-      <c r="F86" t="s" s="10">
-        <v>234</v>
-      </c>
-      <c r="G86" t="s" s="10">
-        <v>40</v>
+      <c r="G86" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="87">
@@ -3397,19 +3394,19 @@
         <v>1023.0</v>
       </c>
       <c r="C87" t="s" s="10">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D87" t="s" s="10">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E87" t="s" s="10">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F87" t="s" s="10">
-        <v>108</v>
-      </c>
-      <c r="G87" t="s" s="10">
-        <v>40</v>
+        <v>107</v>
+      </c>
+      <c r="G87" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="88">
@@ -3420,19 +3417,19 @@
         <v>1086.0</v>
       </c>
       <c r="C88" t="s" s="10">
+        <v>235</v>
+      </c>
+      <c r="D88" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="E88" t="s" s="10">
         <v>236</v>
       </c>
-      <c r="D88" t="s" s="10">
-        <v>77</v>
-      </c>
-      <c r="E88" t="s" s="10">
-        <v>237</v>
-      </c>
       <c r="F88" t="s" s="10">
-        <v>223</v>
-      </c>
-      <c r="G88" t="s" s="10">
-        <v>40</v>
+        <v>222</v>
+      </c>
+      <c r="G88" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="89">
@@ -3443,19 +3440,19 @@
         <v>1125.0</v>
       </c>
       <c r="C89" t="s" s="10">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D89" t="s" s="10">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E89" t="s" s="10">
+        <v>237</v>
+      </c>
+      <c r="F89" t="s" s="10">
         <v>238</v>
       </c>
-      <c r="F89" t="s" s="10">
-        <v>239</v>
-      </c>
-      <c r="G89" t="s" s="10">
-        <v>40</v>
+      <c r="G89" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="90">
@@ -3466,19 +3463,19 @@
         <v>1129.0</v>
       </c>
       <c r="C90" t="s" s="10">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D90" t="s" s="10">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E90" t="s" s="10">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F90" t="s" s="10">
-        <v>161</v>
-      </c>
-      <c r="G90" t="s" s="10">
-        <v>40</v>
+        <v>160</v>
+      </c>
+      <c r="G90" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="91">
@@ -3489,19 +3486,19 @@
         <v>-5.0</v>
       </c>
       <c r="C91" t="s" s="7">
+        <v>240</v>
+      </c>
+      <c r="D91" t="s" s="7">
+        <v>240</v>
+      </c>
+      <c r="E91" t="s" s="7">
         <v>241</v>
       </c>
-      <c r="D91" t="s" s="7">
-        <v>241</v>
-      </c>
-      <c r="E91" t="s" s="7">
+      <c r="F91" t="s" s="7">
         <v>242</v>
       </c>
-      <c r="F91" t="s" s="7">
-        <v>243</v>
-      </c>
-      <c r="G91" t="s" s="7">
-        <v>40</v>
+      <c r="G91" s="7">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="92">
@@ -3512,19 +3509,19 @@
         <v>226.0</v>
       </c>
       <c r="C92" t="s" s="10">
+        <v>243</v>
+      </c>
+      <c r="D92" t="s" s="10">
         <v>244</v>
       </c>
-      <c r="D92" t="s" s="10">
+      <c r="E92" t="s" s="10">
+        <v>88</v>
+      </c>
+      <c r="F92" t="s" s="10">
         <v>245</v>
       </c>
-      <c r="E92" t="s" s="10">
-        <v>89</v>
-      </c>
-      <c r="F92" t="s" s="10">
-        <v>246</v>
-      </c>
-      <c r="G92" t="s" s="10">
-        <v>40</v>
+      <c r="G92" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="93">
@@ -3535,19 +3532,19 @@
         <v>235.0</v>
       </c>
       <c r="C93" t="s" s="10">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D93" t="s" s="10">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E93" t="s" s="10">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F93" t="s" s="10">
-        <v>89</v>
-      </c>
-      <c r="G93" t="s" s="10">
-        <v>40</v>
+        <v>88</v>
+      </c>
+      <c r="G93" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="94">
@@ -3558,19 +3555,19 @@
         <v>334.0</v>
       </c>
       <c r="C94" t="s" s="10">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D94" t="s" s="10">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E94" t="s" s="10">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F94" t="s" s="10">
-        <v>247</v>
-      </c>
-      <c r="G94" t="s" s="10">
-        <v>40</v>
+        <v>246</v>
+      </c>
+      <c r="G94" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="95">
@@ -3581,19 +3578,19 @@
         <v>346.0</v>
       </c>
       <c r="C95" t="s" s="10">
+        <v>247</v>
+      </c>
+      <c r="D95" t="s" s="10">
         <v>248</v>
       </c>
-      <c r="D95" t="s" s="10">
+      <c r="E95" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="F95" t="s" s="10">
         <v>249</v>
       </c>
-      <c r="E95" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="F95" t="s" s="10">
-        <v>250</v>
-      </c>
-      <c r="G95" t="s" s="10">
-        <v>40</v>
+      <c r="G95" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="96">
@@ -3604,19 +3601,19 @@
         <v>472.0</v>
       </c>
       <c r="C96" t="s" s="10">
+        <v>250</v>
+      </c>
+      <c r="D96" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="E96" t="s" s="10">
         <v>251</v>
       </c>
-      <c r="D96" t="s" s="10">
-        <v>68</v>
-      </c>
-      <c r="E96" t="s" s="10">
+      <c r="F96" t="s" s="10">
         <v>252</v>
       </c>
-      <c r="F96" t="s" s="10">
-        <v>253</v>
-      </c>
-      <c r="G96" t="s" s="10">
-        <v>40</v>
+      <c r="G96" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="97">
@@ -3627,19 +3624,19 @@
         <v>491.0</v>
       </c>
       <c r="C97" t="s" s="10">
+        <v>253</v>
+      </c>
+      <c r="D97" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="E97" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="F97" t="s" s="10">
         <v>254</v>
       </c>
-      <c r="D97" t="s" s="10">
-        <v>45</v>
-      </c>
-      <c r="E97" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="F97" t="s" s="10">
-        <v>255</v>
-      </c>
-      <c r="G97" t="s" s="10">
-        <v>40</v>
+      <c r="G97" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="98">
@@ -3650,19 +3647,19 @@
         <v>502.0</v>
       </c>
       <c r="C98" t="s" s="10">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D98" t="s" s="10">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E98" t="s" s="10">
+        <v>255</v>
+      </c>
+      <c r="F98" t="s" s="10">
         <v>256</v>
       </c>
-      <c r="F98" t="s" s="10">
-        <v>257</v>
-      </c>
-      <c r="G98" t="s" s="10">
-        <v>40</v>
+      <c r="G98" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="99">
@@ -3673,19 +3670,19 @@
         <v>892.0</v>
       </c>
       <c r="C99" t="s" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D99" t="s" s="10">
+        <v>257</v>
+      </c>
+      <c r="E99" t="s" s="10">
         <v>258</v>
       </c>
-      <c r="E99" t="s" s="10">
-        <v>259</v>
-      </c>
       <c r="F99" t="s" s="10">
-        <v>85</v>
-      </c>
-      <c r="G99" t="s" s="10">
-        <v>40</v>
+        <v>84</v>
+      </c>
+      <c r="G99" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="100">
@@ -3696,19 +3693,19 @@
         <v>1021.0</v>
       </c>
       <c r="C100" t="s" s="10">
+        <v>259</v>
+      </c>
+      <c r="D100" t="s" s="10">
         <v>260</v>
       </c>
-      <c r="D100" t="s" s="10">
-        <v>261</v>
-      </c>
       <c r="E100" t="s" s="10">
+        <v>118</v>
+      </c>
+      <c r="F100" t="s" s="10">
         <v>119</v>
       </c>
-      <c r="F100" t="s" s="10">
-        <v>120</v>
-      </c>
-      <c r="G100" t="s" s="10">
-        <v>40</v>
+      <c r="G100" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="101">
@@ -3719,19 +3716,19 @@
         <v>1050.0</v>
       </c>
       <c r="C101" t="s" s="10">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D101" t="s" s="10">
+        <v>261</v>
+      </c>
+      <c r="E101" t="s" s="10">
         <v>262</v>
       </c>
-      <c r="E101" t="s" s="10">
+      <c r="F101" t="s" s="10">
         <v>263</v>
       </c>
-      <c r="F101" t="s" s="10">
-        <v>264</v>
-      </c>
-      <c r="G101" t="s" s="10">
-        <v>40</v>
+      <c r="G101" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="102">
@@ -3742,19 +3739,19 @@
         <v>1067.0</v>
       </c>
       <c r="C102" t="s" s="10">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D102" t="s" s="10">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E102" t="s" s="10">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F102" t="s" s="10">
-        <v>68</v>
-      </c>
-      <c r="G102" t="s" s="10">
-        <v>40</v>
+        <v>67</v>
+      </c>
+      <c r="G102" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="103">
@@ -3765,19 +3762,19 @@
         <v>1080.0</v>
       </c>
       <c r="C103" t="s" s="10">
+        <v>264</v>
+      </c>
+      <c r="D103" t="s" s="10">
         <v>265</v>
       </c>
-      <c r="D103" t="s" s="10">
-        <v>266</v>
-      </c>
       <c r="E103" t="s" s="10">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F103" t="s" s="10">
-        <v>180</v>
-      </c>
-      <c r="G103" t="s" s="10">
-        <v>40</v>
+        <v>179</v>
+      </c>
+      <c r="G103" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="104">
@@ -3788,19 +3785,19 @@
         <v>1104.0</v>
       </c>
       <c r="C104" t="s" s="10">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D104" t="s" s="10">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E104" t="s" s="10">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F104" t="s" s="10">
-        <v>68</v>
-      </c>
-      <c r="G104" t="s" s="10">
-        <v>40</v>
+        <v>67</v>
+      </c>
+      <c r="G104" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="105">
@@ -3811,19 +3808,19 @@
         <v>1105.0</v>
       </c>
       <c r="C105" t="s" s="10">
+        <v>266</v>
+      </c>
+      <c r="D105" t="s" s="10">
+        <v>130</v>
+      </c>
+      <c r="E105" t="s" s="10">
         <v>267</v>
       </c>
-      <c r="D105" t="s" s="10">
-        <v>131</v>
-      </c>
-      <c r="E105" t="s" s="10">
-        <v>268</v>
-      </c>
       <c r="F105" t="s" s="10">
-        <v>68</v>
-      </c>
-      <c r="G105" t="s" s="10">
-        <v>40</v>
+        <v>67</v>
+      </c>
+      <c r="G105" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="106">
@@ -3834,19 +3831,19 @@
         <v>-6.0</v>
       </c>
       <c r="C106" t="s" s="7">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D106" t="s" s="7">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E106" t="s" s="7">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F106" t="s" s="7">
-        <v>223</v>
-      </c>
-      <c r="G106" t="s" s="7">
-        <v>40</v>
+        <v>222</v>
+      </c>
+      <c r="G106" s="7">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="107">
@@ -3857,19 +3854,19 @@
         <v>224.0</v>
       </c>
       <c r="C107" t="s" s="10">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D107" t="s" s="10">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E107" t="s" s="10">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F107" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="G107" t="s" s="10">
-        <v>40</v>
+        <v>51</v>
+      </c>
+      <c r="G107" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="108">
@@ -3880,19 +3877,19 @@
         <v>779.0</v>
       </c>
       <c r="C108" t="s" s="10">
+        <v>269</v>
+      </c>
+      <c r="D108" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="E108" t="s" s="10">
         <v>270</v>
       </c>
-      <c r="D108" t="s" s="10">
-        <v>57</v>
-      </c>
-      <c r="E108" t="s" s="10">
-        <v>271</v>
-      </c>
       <c r="F108" t="s" s="10">
-        <v>246</v>
-      </c>
-      <c r="G108" t="s" s="10">
-        <v>40</v>
+        <v>245</v>
+      </c>
+      <c r="G108" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="109">
@@ -3903,19 +3900,19 @@
         <v>849.0</v>
       </c>
       <c r="C109" t="s" s="10">
+        <v>271</v>
+      </c>
+      <c r="D109" t="s" s="10">
         <v>272</v>
       </c>
-      <c r="D109" t="s" s="10">
+      <c r="E109" t="s" s="10">
         <v>273</v>
       </c>
-      <c r="E109" t="s" s="10">
-        <v>274</v>
-      </c>
       <c r="F109" t="s" s="10">
-        <v>68</v>
-      </c>
-      <c r="G109" t="s" s="10">
-        <v>40</v>
+        <v>67</v>
+      </c>
+      <c r="G109" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="110">
@@ -3926,19 +3923,19 @@
         <v>907.0</v>
       </c>
       <c r="C110" t="s" s="10">
+        <v>274</v>
+      </c>
+      <c r="D110" t="s" s="10">
+        <v>178</v>
+      </c>
+      <c r="E110" t="s" s="10">
         <v>275</v>
       </c>
-      <c r="D110" t="s" s="10">
-        <v>179</v>
-      </c>
-      <c r="E110" t="s" s="10">
-        <v>276</v>
-      </c>
       <c r="F110" t="s" s="10">
-        <v>68</v>
-      </c>
-      <c r="G110" t="s" s="10">
-        <v>40</v>
+        <v>67</v>
+      </c>
+      <c r="G110" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="111">
@@ -3949,19 +3946,19 @@
         <v>993.0</v>
       </c>
       <c r="C111" t="s" s="10">
+        <v>276</v>
+      </c>
+      <c r="D111" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="E111" t="s" s="10">
         <v>277</v>
       </c>
-      <c r="D111" t="s" s="10">
-        <v>54</v>
-      </c>
-      <c r="E111" t="s" s="10">
+      <c r="F111" t="s" s="10">
         <v>278</v>
       </c>
-      <c r="F111" t="s" s="10">
-        <v>279</v>
-      </c>
-      <c r="G111" t="s" s="10">
-        <v>40</v>
+      <c r="G111" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="112">
@@ -3972,19 +3969,19 @@
         <v>1031.0</v>
       </c>
       <c r="C112" t="s" s="10">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D112" t="s" s="10">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E112" t="s" s="10">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F112" t="s" s="10">
-        <v>85</v>
-      </c>
-      <c r="G112" t="s" s="10">
-        <v>40</v>
+        <v>84</v>
+      </c>
+      <c r="G112" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="113">
@@ -3995,19 +3992,19 @@
         <v>140.0</v>
       </c>
       <c r="C113" t="s" s="7">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D113" t="s" s="7">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E113" t="s" s="7">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F113" t="s" s="7">
-        <v>68</v>
-      </c>
-      <c r="G113" t="s" s="7">
-        <v>40</v>
+        <v>67</v>
+      </c>
+      <c r="G113" s="7">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="114">
@@ -4018,19 +4015,19 @@
         <v>199.0</v>
       </c>
       <c r="C114" t="s" s="10">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D114" t="s" s="10">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E114" t="s" s="10">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F114" t="s" s="10">
-        <v>156</v>
-      </c>
-      <c r="G114" t="s" s="10">
-        <v>40</v>
+        <v>155</v>
+      </c>
+      <c r="G114" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="115">
@@ -4041,19 +4038,19 @@
         <v>313.0</v>
       </c>
       <c r="C115" t="s" s="10">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D115" t="s" s="10">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E115" t="s" s="10">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F115" t="s" s="10">
-        <v>223</v>
-      </c>
-      <c r="G115" t="s" s="10">
-        <v>40</v>
+        <v>222</v>
+      </c>
+      <c r="G115" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="116">
@@ -4064,19 +4061,19 @@
         <v>325.0</v>
       </c>
       <c r="C116" t="s" s="10">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D116" t="s" s="10">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E116" t="s" s="10">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F116" t="s" s="10">
-        <v>283</v>
-      </c>
-      <c r="G116" t="s" s="10">
-        <v>40</v>
+        <v>282</v>
+      </c>
+      <c r="G116" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="117">
@@ -4087,19 +4084,19 @@
         <v>329.0</v>
       </c>
       <c r="C117" t="s" s="10">
+        <v>283</v>
+      </c>
+      <c r="D117" t="s" s="10">
+        <v>283</v>
+      </c>
+      <c r="E117" t="s" s="10">
         <v>284</v>
       </c>
-      <c r="D117" t="s" s="10">
-        <v>284</v>
-      </c>
-      <c r="E117" t="s" s="10">
+      <c r="F117" t="s" s="10">
         <v>285</v>
       </c>
-      <c r="F117" t="s" s="10">
-        <v>286</v>
-      </c>
-      <c r="G117" t="s" s="10">
-        <v>40</v>
+      <c r="G117" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="118">
@@ -4110,19 +4107,19 @@
         <v>545.0</v>
       </c>
       <c r="C118" t="s" s="10">
+        <v>286</v>
+      </c>
+      <c r="D118" t="s" s="10">
+        <v>123</v>
+      </c>
+      <c r="E118" t="s" s="10">
         <v>287</v>
       </c>
-      <c r="D118" t="s" s="10">
-        <v>124</v>
-      </c>
-      <c r="E118" t="s" s="10">
-        <v>288</v>
-      </c>
       <c r="F118" t="s" s="10">
-        <v>168</v>
-      </c>
-      <c r="G118" t="s" s="10">
-        <v>40</v>
+        <v>167</v>
+      </c>
+      <c r="G118" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="119">
@@ -4133,19 +4130,19 @@
         <v>557.0</v>
       </c>
       <c r="C119" t="s" s="10">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D119" t="s" s="10">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E119" t="s" s="10">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F119" t="s" s="10">
-        <v>121</v>
-      </c>
-      <c r="G119" t="s" s="10">
-        <v>40</v>
+        <v>120</v>
+      </c>
+      <c r="G119" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="120">
@@ -4156,19 +4153,19 @@
         <v>706.0</v>
       </c>
       <c r="C120" t="s" s="10">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D120" t="s" s="10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E120" t="s" s="10">
+        <v>289</v>
+      </c>
+      <c r="F120" t="s" s="10">
         <v>290</v>
       </c>
-      <c r="F120" t="s" s="10">
-        <v>291</v>
-      </c>
-      <c r="G120" t="s" s="10">
-        <v>40</v>
+      <c r="G120" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="121">
@@ -4179,19 +4176,19 @@
         <v>331.0</v>
       </c>
       <c r="C121" t="s" s="7">
+        <v>158</v>
+      </c>
+      <c r="D121" t="s" s="7">
+        <v>69</v>
+      </c>
+      <c r="E121" t="s" s="7">
         <v>159</v>
       </c>
-      <c r="D121" t="s" s="7">
-        <v>70</v>
-      </c>
-      <c r="E121" t="s" s="7">
-        <v>160</v>
-      </c>
       <c r="F121" t="s" s="7">
-        <v>126</v>
-      </c>
-      <c r="G121" t="s" s="7">
-        <v>40</v>
+        <v>125</v>
+      </c>
+      <c r="G121" s="7">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="122">
@@ -4202,19 +4199,19 @@
         <v>317.0</v>
       </c>
       <c r="C122" t="s" s="10">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D122" t="s" s="10">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E122" t="s" s="10">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F122" t="s" s="10">
-        <v>92</v>
-      </c>
-      <c r="G122" t="s" s="10">
-        <v>40</v>
+        <v>91</v>
+      </c>
+      <c r="G122" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="123">
@@ -4225,19 +4222,19 @@
         <v>330.0</v>
       </c>
       <c r="C123" t="s" s="10">
+        <v>291</v>
+      </c>
+      <c r="D123" t="s" s="10">
+        <v>150</v>
+      </c>
+      <c r="E123" t="s" s="10">
+        <v>131</v>
+      </c>
+      <c r="F123" t="s" s="10">
         <v>292</v>
       </c>
-      <c r="D123" t="s" s="10">
-        <v>151</v>
-      </c>
-      <c r="E123" t="s" s="10">
-        <v>132</v>
-      </c>
-      <c r="F123" t="s" s="10">
-        <v>293</v>
-      </c>
-      <c r="G123" t="s" s="10">
-        <v>40</v>
+      <c r="G123" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="124">
@@ -4248,19 +4245,19 @@
         <v>459.0</v>
       </c>
       <c r="C124" t="s" s="10">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D124" t="s" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E124" t="s" s="10">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F124" t="s" s="10">
-        <v>170</v>
-      </c>
-      <c r="G124" t="s" s="10">
-        <v>40</v>
+        <v>169</v>
+      </c>
+      <c r="G124" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="125">
@@ -4271,19 +4268,19 @@
         <v>592.0</v>
       </c>
       <c r="C125" t="s" s="10">
+        <v>293</v>
+      </c>
+      <c r="D125" t="s" s="10">
         <v>294</v>
       </c>
-      <c r="D125" t="s" s="10">
-        <v>295</v>
-      </c>
       <c r="E125" t="s" s="10">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F125" t="s" s="10">
-        <v>223</v>
-      </c>
-      <c r="G125" t="s" s="10">
-        <v>40</v>
+        <v>222</v>
+      </c>
+      <c r="G125" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="126">
@@ -4294,19 +4291,19 @@
         <v>602.0</v>
       </c>
       <c r="C126" t="s" s="10">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D126" t="s" s="10">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E126" t="s" s="10">
+        <v>295</v>
+      </c>
+      <c r="F126" t="s" s="10">
         <v>296</v>
       </c>
-      <c r="F126" t="s" s="10">
-        <v>297</v>
-      </c>
-      <c r="G126" t="s" s="10">
-        <v>40</v>
+      <c r="G126" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="127">
@@ -4317,19 +4314,19 @@
         <v>605.0</v>
       </c>
       <c r="C127" t="s" s="10">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D127" t="s" s="10">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E127" t="s" s="10">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F127" t="s" s="10">
-        <v>85</v>
-      </c>
-      <c r="G127" t="s" s="10">
-        <v>40</v>
+        <v>84</v>
+      </c>
+      <c r="G127" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="128">
@@ -4340,19 +4337,19 @@
         <v>740.0</v>
       </c>
       <c r="C128" t="s" s="10">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D128" t="s" s="10">
+        <v>297</v>
+      </c>
+      <c r="E128" t="s" s="10">
+        <v>105</v>
+      </c>
+      <c r="F128" t="s" s="10">
         <v>298</v>
       </c>
-      <c r="E128" t="s" s="10">
-        <v>106</v>
-      </c>
-      <c r="F128" t="s" s="10">
-        <v>299</v>
-      </c>
-      <c r="G128" t="s" s="10">
-        <v>40</v>
+      <c r="G128" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="129">
@@ -4363,19 +4360,19 @@
         <v>755.0</v>
       </c>
       <c r="C129" t="s" s="10">
+        <v>299</v>
+      </c>
+      <c r="D129" t="s" s="10">
         <v>300</v>
       </c>
-      <c r="D129" t="s" s="10">
-        <v>301</v>
-      </c>
       <c r="E129" t="s" s="10">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F129" t="s" s="10">
-        <v>92</v>
-      </c>
-      <c r="G129" t="s" s="10">
-        <v>40</v>
+        <v>91</v>
+      </c>
+      <c r="G129" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="130">
@@ -4386,19 +4383,19 @@
         <v>-7.0</v>
       </c>
       <c r="C130" t="s" s="7">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D130" t="s" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E130" t="s" s="7">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F130" t="s" s="7">
-        <v>228</v>
-      </c>
-      <c r="G130" t="s" s="7">
-        <v>40</v>
+        <v>227</v>
+      </c>
+      <c r="G130" s="7">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="131">
@@ -4409,19 +4406,19 @@
         <v>32.0</v>
       </c>
       <c r="C131" t="s" s="10">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D131" t="s" s="10">
+        <v>301</v>
+      </c>
+      <c r="E131" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="F131" t="s" s="10">
         <v>302</v>
       </c>
-      <c r="E131" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="F131" t="s" s="10">
-        <v>303</v>
-      </c>
-      <c r="G131" t="s" s="10">
-        <v>40</v>
+      <c r="G131" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="132">
@@ -4432,19 +4429,19 @@
         <v>48.0</v>
       </c>
       <c r="C132" t="s" s="10">
+        <v>303</v>
+      </c>
+      <c r="D132" t="s" s="10">
+        <v>265</v>
+      </c>
+      <c r="E132" t="s" s="10">
         <v>304</v>
       </c>
-      <c r="D132" t="s" s="10">
-        <v>266</v>
-      </c>
-      <c r="E132" t="s" s="10">
+      <c r="F132" t="s" s="10">
         <v>305</v>
       </c>
-      <c r="F132" t="s" s="10">
-        <v>306</v>
-      </c>
-      <c r="G132" t="s" s="10">
-        <v>40</v>
+      <c r="G132" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="133">
@@ -4455,19 +4452,19 @@
         <v>51.0</v>
       </c>
       <c r="C133" t="s" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D133" t="s" s="10">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E133" t="s" s="10">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F133" t="s" s="10">
-        <v>299</v>
-      </c>
-      <c r="G133" t="s" s="10">
-        <v>40</v>
+        <v>298</v>
+      </c>
+      <c r="G133" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="134">
@@ -4478,19 +4475,19 @@
         <v>73.0</v>
       </c>
       <c r="C134" t="s" s="10">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D134" t="s" s="10">
+        <v>307</v>
+      </c>
+      <c r="E134" t="s" s="10">
         <v>308</v>
       </c>
-      <c r="E134" t="s" s="10">
-        <v>309</v>
-      </c>
       <c r="F134" t="s" s="10">
-        <v>239</v>
-      </c>
-      <c r="G134" t="s" s="10">
-        <v>40</v>
+        <v>238</v>
+      </c>
+      <c r="G134" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="135">
@@ -4501,19 +4498,19 @@
         <v>218.0</v>
       </c>
       <c r="C135" t="s" s="10">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D135" t="s" s="10">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E135" t="s" s="10">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F135" t="s" s="10">
-        <v>310</v>
-      </c>
-      <c r="G135" t="s" s="10">
-        <v>40</v>
+        <v>309</v>
+      </c>
+      <c r="G135" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="136">
@@ -4524,19 +4521,19 @@
         <v>231.0</v>
       </c>
       <c r="C136" t="s" s="10">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D136" t="s" s="10">
+        <v>310</v>
+      </c>
+      <c r="E136" t="s" s="10">
         <v>311</v>
       </c>
-      <c r="E136" t="s" s="10">
-        <v>312</v>
-      </c>
       <c r="F136" t="s" s="10">
-        <v>92</v>
-      </c>
-      <c r="G136" t="s" s="10">
-        <v>40</v>
+        <v>91</v>
+      </c>
+      <c r="G136" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="137">
@@ -4547,19 +4544,19 @@
         <v>288.0</v>
       </c>
       <c r="C137" t="s" s="10">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D137" t="s" s="10">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E137" t="s" s="10">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F137" t="s" s="10">
-        <v>68</v>
-      </c>
-      <c r="G137" t="s" s="10">
-        <v>40</v>
+        <v>67</v>
+      </c>
+      <c r="G137" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="138">
@@ -4570,19 +4567,19 @@
         <v>293.0</v>
       </c>
       <c r="C138" t="s" s="10">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D138" t="s" s="10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E138" t="s" s="10">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F138" t="s" s="10">
-        <v>68</v>
-      </c>
-      <c r="G138" t="s" s="10">
-        <v>40</v>
+        <v>67</v>
+      </c>
+      <c r="G138" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="139">
@@ -4593,19 +4590,19 @@
         <v>423.0</v>
       </c>
       <c r="C139" t="s" s="10">
+        <v>313</v>
+      </c>
+      <c r="D139" t="s" s="10">
         <v>314</v>
       </c>
-      <c r="D139" t="s" s="10">
+      <c r="E139" t="s" s="10">
         <v>315</v>
       </c>
-      <c r="E139" t="s" s="10">
-        <v>316</v>
-      </c>
       <c r="F139" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="G139" t="s" s="10">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="G139" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="140">
@@ -4616,19 +4613,19 @@
         <v>514.0</v>
       </c>
       <c r="C140" t="s" s="10">
+        <v>316</v>
+      </c>
+      <c r="D140" t="s" s="10">
         <v>317</v>
       </c>
-      <c r="D140" t="s" s="10">
+      <c r="E140" t="s" s="10">
+        <v>47</v>
+      </c>
+      <c r="F140" t="s" s="10">
         <v>318</v>
       </c>
-      <c r="E140" t="s" s="10">
-        <v>48</v>
-      </c>
-      <c r="F140" t="s" s="10">
-        <v>319</v>
-      </c>
-      <c r="G140" t="s" s="10">
-        <v>40</v>
+      <c r="G140" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="141">
@@ -4639,19 +4636,19 @@
         <v>516.0</v>
       </c>
       <c r="C141" t="s" s="10">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D141" t="s" s="10">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E141" t="s" s="10">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F141" t="s" s="10">
-        <v>120</v>
-      </c>
-      <c r="G141" t="s" s="10">
-        <v>40</v>
+        <v>119</v>
+      </c>
+      <c r="G141" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="142">
@@ -4662,19 +4659,19 @@
         <v>574.0</v>
       </c>
       <c r="C142" t="s" s="10">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D142" t="s" s="10">
+        <v>320</v>
+      </c>
+      <c r="E142" t="s" s="10">
         <v>321</v>
       </c>
-      <c r="E142" t="s" s="10">
+      <c r="F142" t="s" s="10">
         <v>322</v>
       </c>
-      <c r="F142" t="s" s="10">
-        <v>323</v>
-      </c>
-      <c r="G142" t="s" s="10">
-        <v>40</v>
+      <c r="G142" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="143">
@@ -4685,19 +4682,19 @@
         <v>598.0</v>
       </c>
       <c r="C143" t="s" s="10">
+        <v>323</v>
+      </c>
+      <c r="D143" t="s" s="10">
         <v>324</v>
       </c>
-      <c r="D143" t="s" s="10">
-        <v>325</v>
-      </c>
       <c r="E143" t="s" s="10">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F143" t="s" s="10">
-        <v>319</v>
-      </c>
-      <c r="G143" t="s" s="10">
-        <v>40</v>
+        <v>318</v>
+      </c>
+      <c r="G143" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="144">
@@ -4708,19 +4705,19 @@
         <v>626.0</v>
       </c>
       <c r="C144" t="s" s="10">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D144" t="s" s="10">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E144" t="s" s="10">
         <v>38</v>
       </c>
       <c r="F144" t="s" s="10">
-        <v>327</v>
-      </c>
-      <c r="G144" t="s" s="10">
-        <v>40</v>
+        <v>326</v>
+      </c>
+      <c r="G144" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="145">
@@ -4731,19 +4728,19 @@
         <v>791.0</v>
       </c>
       <c r="C145" t="s" s="10">
+        <v>327</v>
+      </c>
+      <c r="D145" t="s" s="10">
         <v>328</v>
       </c>
-      <c r="D145" t="s" s="10">
-        <v>329</v>
-      </c>
       <c r="E145" t="s" s="10">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F145" t="s" s="10">
-        <v>68</v>
-      </c>
-      <c r="G145" t="s" s="10">
-        <v>40</v>
+        <v>67</v>
+      </c>
+      <c r="G145" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="146">
@@ -4754,19 +4751,19 @@
         <v>920.0</v>
       </c>
       <c r="C146" t="s" s="10">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D146" t="s" s="10">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E146" t="s" s="10">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F146" t="s" s="10">
         <v>39</v>
       </c>
-      <c r="G146" t="s" s="10">
-        <v>40</v>
+      <c r="G146" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="147">
@@ -4777,19 +4774,19 @@
         <v>945.0</v>
       </c>
       <c r="C147" t="s" s="10">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D147" t="s" s="10">
+        <v>330</v>
+      </c>
+      <c r="E147" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="F147" t="s" s="10">
         <v>331</v>
       </c>
-      <c r="E147" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="F147" t="s" s="10">
-        <v>332</v>
-      </c>
-      <c r="G147" t="s" s="10">
-        <v>40</v>
+      <c r="G147" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="148">
@@ -4800,19 +4797,19 @@
         <v>970.0</v>
       </c>
       <c r="C148" t="s" s="10">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D148" t="s" s="10">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E148" t="s" s="10">
         <v>38</v>
       </c>
       <c r="F148" t="s" s="10">
-        <v>334</v>
-      </c>
-      <c r="G148" t="s" s="10">
-        <v>40</v>
+        <v>333</v>
+      </c>
+      <c r="G148" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="149">
@@ -4823,19 +4820,19 @@
         <v>1009.0</v>
       </c>
       <c r="C149" t="s" s="10">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D149" t="s" s="10">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E149" t="s" s="10">
+        <v>334</v>
+      </c>
+      <c r="F149" t="s" s="10">
         <v>335</v>
       </c>
-      <c r="F149" t="s" s="10">
-        <v>336</v>
-      </c>
-      <c r="G149" t="s" s="10">
-        <v>40</v>
+      <c r="G149" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="150">
@@ -4846,19 +4843,19 @@
         <v>1065.0</v>
       </c>
       <c r="C150" t="s" s="10">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D150" t="s" s="10">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E150" t="s" s="10">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F150" t="s" s="10">
-        <v>223</v>
-      </c>
-      <c r="G150" t="s" s="10">
-        <v>40</v>
+        <v>222</v>
+      </c>
+      <c r="G150" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="151">
@@ -4869,19 +4866,19 @@
         <v>1103.0</v>
       </c>
       <c r="C151" t="s" s="10">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D151" t="s" s="10">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E151" t="s" s="10">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F151" t="s" s="10">
-        <v>68</v>
-      </c>
-      <c r="G151" t="s" s="10">
-        <v>40</v>
+        <v>67</v>
+      </c>
+      <c r="G151" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="152">
@@ -4892,19 +4889,19 @@
         <v>1114.0</v>
       </c>
       <c r="C152" t="s" s="10">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D152" t="s" s="10">
+        <v>338</v>
+      </c>
+      <c r="E152" t="s" s="10">
         <v>339</v>
       </c>
-      <c r="E152" t="s" s="10">
+      <c r="F152" t="s" s="10">
         <v>340</v>
       </c>
-      <c r="F152" t="s" s="10">
-        <v>341</v>
-      </c>
-      <c r="G152" t="s" s="10">
-        <v>40</v>
+      <c r="G152" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="153">
@@ -4915,19 +4912,19 @@
         <v>1115.0</v>
       </c>
       <c r="C153" t="s" s="10">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D153" t="s" s="10">
+        <v>341</v>
+      </c>
+      <c r="E153" t="s" s="10">
+        <v>279</v>
+      </c>
+      <c r="F153" t="s" s="10">
         <v>342</v>
       </c>
-      <c r="E153" t="s" s="10">
-        <v>280</v>
-      </c>
-      <c r="F153" t="s" s="10">
-        <v>343</v>
-      </c>
-      <c r="G153" t="s" s="10">
-        <v>40</v>
+      <c r="G153" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="154">
@@ -4938,19 +4935,19 @@
         <v>1117.0</v>
       </c>
       <c r="C154" t="s" s="10">
+        <v>264</v>
+      </c>
+      <c r="D154" t="s" s="10">
         <v>265</v>
       </c>
-      <c r="D154" t="s" s="10">
-        <v>266</v>
-      </c>
       <c r="E154" t="s" s="10">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F154" t="s" s="10">
         <v>39</v>
       </c>
-      <c r="G154" t="s" s="10">
-        <v>40</v>
+      <c r="G154" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="155">
@@ -4961,19 +4958,19 @@
         <v>1118.0</v>
       </c>
       <c r="C155" t="s" s="10">
+        <v>343</v>
+      </c>
+      <c r="D155" t="s" s="10">
+        <v>286</v>
+      </c>
+      <c r="E155" t="s" s="10">
+        <v>236</v>
+      </c>
+      <c r="F155" t="s" s="10">
         <v>344</v>
       </c>
-      <c r="D155" t="s" s="10">
-        <v>287</v>
-      </c>
-      <c r="E155" t="s" s="10">
-        <v>237</v>
-      </c>
-      <c r="F155" t="s" s="10">
-        <v>345</v>
-      </c>
-      <c r="G155" t="s" s="10">
-        <v>40</v>
+      <c r="G155" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="156">
@@ -4984,19 +4981,19 @@
         <v>1120.0</v>
       </c>
       <c r="C156" t="s" s="10">
+        <v>345</v>
+      </c>
+      <c r="D156" t="s" s="10">
         <v>346</v>
       </c>
-      <c r="D156" t="s" s="10">
-        <v>347</v>
-      </c>
       <c r="E156" t="s" s="10">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F156" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="G156" t="s" s="10">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="G156" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="157">
@@ -5007,19 +5004,19 @@
         <v>1121.0</v>
       </c>
       <c r="C157" t="s" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D157" t="s" s="10">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E157" t="s" s="10">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F157" t="s" s="10">
-        <v>246</v>
-      </c>
-      <c r="G157" t="s" s="10">
-        <v>40</v>
+        <v>245</v>
+      </c>
+      <c r="G157" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="158">
@@ -5030,19 +5027,19 @@
         <v>1122.0</v>
       </c>
       <c r="C158" t="s" s="10">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D158" t="s" s="10">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E158" t="s" s="10">
+        <v>348</v>
+      </c>
+      <c r="F158" t="s" s="10">
         <v>349</v>
       </c>
-      <c r="F158" t="s" s="10">
-        <v>350</v>
-      </c>
-      <c r="G158" t="s" s="10">
-        <v>40</v>
+      <c r="G158" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="159">
@@ -5053,19 +5050,19 @@
         <v>1123.0</v>
       </c>
       <c r="C159" t="s" s="10">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D159" t="s" s="10">
+        <v>350</v>
+      </c>
+      <c r="E159" t="s" s="10">
+        <v>87</v>
+      </c>
+      <c r="F159" t="s" s="10">
         <v>351</v>
       </c>
-      <c r="E159" t="s" s="10">
-        <v>88</v>
-      </c>
-      <c r="F159" t="s" s="10">
-        <v>352</v>
-      </c>
-      <c r="G159" t="s" s="10">
-        <v>40</v>
+      <c r="G159" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="160">
@@ -5076,19 +5073,19 @@
         <v>1124.0</v>
       </c>
       <c r="C160" t="s" s="10">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D160" t="s" s="10">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E160" t="s" s="10">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F160" t="s" s="10">
-        <v>115</v>
-      </c>
-      <c r="G160" t="s" s="10">
-        <v>40</v>
+        <v>114</v>
+      </c>
+      <c r="G160" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="161">
@@ -5099,19 +5096,19 @@
         <v>1127.0</v>
       </c>
       <c r="C161" t="s" s="10">
+        <v>353</v>
+      </c>
+      <c r="D161" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="E161" t="s" s="10">
         <v>354</v>
       </c>
-      <c r="D161" t="s" s="10">
-        <v>58</v>
-      </c>
-      <c r="E161" t="s" s="10">
+      <c r="F161" t="s" s="10">
         <v>355</v>
       </c>
-      <c r="F161" t="s" s="10">
-        <v>356</v>
-      </c>
-      <c r="G161" t="s" s="10">
-        <v>40</v>
+      <c r="G161" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="162">
@@ -5122,19 +5119,19 @@
         <v>1133.0</v>
       </c>
       <c r="C162" t="s" s="10">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D162" t="s" s="10">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E162" t="s" s="10">
+        <v>356</v>
+      </c>
+      <c r="F162" t="s" s="10">
         <v>357</v>
       </c>
-      <c r="F162" t="s" s="10">
-        <v>358</v>
-      </c>
-      <c r="G162" t="s" s="10">
-        <v>40</v>
+      <c r="G162" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="163">
@@ -5145,19 +5142,19 @@
         <v>1136.0</v>
       </c>
       <c r="C163" t="s" s="10">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D163" t="s" s="10">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E163" t="s" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F163" t="s" s="10">
-        <v>160</v>
-      </c>
-      <c r="G163" t="s" s="10">
-        <v>40</v>
+        <v>159</v>
+      </c>
+      <c r="G163" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
     <row r="164">
@@ -5168,19 +5165,19 @@
         <v>1137.0</v>
       </c>
       <c r="C164" t="s" s="10">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D164" t="s" s="10">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E164" t="s" s="10">
+        <v>358</v>
+      </c>
+      <c r="F164" t="s" s="10">
         <v>359</v>
       </c>
-      <c r="F164" t="s" s="10">
-        <v>360</v>
-      </c>
-      <c r="G164" t="s" s="10">
-        <v>40</v>
+      <c r="G164" s="10">
+        <f>sum(a9:b9)</f>
       </c>
     </row>
   </sheetData>

--- a/personal/quincena.xlsx
+++ b/personal/quincena.xlsx
@@ -204,15 +204,114 @@
     <t>CONCEPCION</t>
   </si>
   <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>GOMAJOA</t>
+  </si>
+  <si>
+    <t>NATIVEL</t>
+  </si>
+  <si>
+    <t>BENAVIDES</t>
+  </si>
+  <si>
+    <t>FLOREZ</t>
+  </si>
+  <si>
+    <t>EUGENIO</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>NARVAEZ</t>
+  </si>
+  <si>
+    <t>EDMUNDO</t>
+  </si>
+  <si>
+    <t>BUESAQUILLO</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>HUVEYMAR</t>
+  </si>
+  <si>
+    <t>TUTISTAR</t>
+  </si>
+  <si>
+    <t>ERLINTO</t>
+  </si>
+  <si>
+    <t>LEANDRO</t>
+  </si>
+  <si>
+    <t>MARINO</t>
+  </si>
+  <si>
+    <t>YORDIN</t>
+  </si>
+  <si>
+    <t>SEGUNDO</t>
+  </si>
+  <si>
+    <t>NICANOR</t>
+  </si>
+  <si>
+    <t>TIMARAN</t>
+  </si>
+  <si>
+    <t>WILMAR</t>
+  </si>
+  <si>
+    <t>ALEXANDER</t>
+  </si>
+  <si>
+    <t>CORTES</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>JHONY</t>
+  </si>
+  <si>
+    <t>SANDRO</t>
+  </si>
+  <si>
+    <t>CORTEZ</t>
+  </si>
+  <si>
+    <t>CUASPA</t>
+  </si>
+  <si>
+    <t>JOHNNY</t>
+  </si>
+  <si>
+    <t>STEVEN</t>
+  </si>
+  <si>
+    <t>ROSERO</t>
+  </si>
+  <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
     <t>CRIOLLO</t>
   </si>
   <si>
     <t>JUAN</t>
   </si>
   <si>
-    <t>SEGUNDO</t>
-  </si>
-  <si>
     <t>CABRERA</t>
   </si>
   <si>
@@ -243,9 +342,6 @@
     <t>SAAVEDRA</t>
   </si>
   <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
     <t>CLAUDIO</t>
   </si>
   <si>
@@ -255,9 +351,6 @@
     <t>RIVERA</t>
   </si>
   <si>
-    <t>ROSERO</t>
-  </si>
-  <si>
     <t>FRANCO</t>
   </si>
   <si>
@@ -267,9 +360,6 @@
     <t>LIBIO</t>
   </si>
   <si>
-    <t>ALEXANDER</t>
-  </si>
-  <si>
     <t>CHACUA</t>
   </si>
   <si>
@@ -414,9 +504,6 @@
     <t>PINCHAO</t>
   </si>
   <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
     <t>WILSON</t>
   </si>
   <si>
@@ -468,9 +555,6 @@
     <t>ORTIZ</t>
   </si>
   <si>
-    <t>BUESAQUILLO</t>
-  </si>
-  <si>
     <t>CRISTIAN</t>
   </si>
   <si>
@@ -516,9 +600,6 @@
     <t>DAZA</t>
   </si>
   <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
     <t>GONZALEZ</t>
   </si>
   <si>
@@ -549,9 +630,6 @@
     <t>MADROÑERO</t>
   </si>
   <si>
-    <t>BENAVIDES</t>
-  </si>
-  <si>
     <t>EDUARDO</t>
   </si>
   <si>
@@ -576,12 +654,6 @@
     <t>PIANDA</t>
   </si>
   <si>
-    <t>GOMAJOA</t>
-  </si>
-  <si>
-    <t>NATIVEL</t>
-  </si>
-  <si>
     <t>DAVILA</t>
   </si>
   <si>
@@ -600,63 +672,18 @@
     <t>EDGAR</t>
   </si>
   <si>
-    <t>FLOREZ</t>
-  </si>
-  <si>
-    <t>EUGENIO</t>
-  </si>
-  <si>
-    <t>ANDRADE</t>
-  </si>
-  <si>
-    <t>NARVAEZ</t>
-  </si>
-  <si>
-    <t>EDMUNDO</t>
-  </si>
-  <si>
     <t>FELIX</t>
   </si>
   <si>
     <t>HUMBERTO</t>
   </si>
   <si>
-    <t>HUVEYMAR</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
     <t>TUMAL</t>
   </si>
   <si>
-    <t>TUTISTAR</t>
-  </si>
-  <si>
-    <t>ERLINTO</t>
-  </si>
-  <si>
-    <t>LEANDRO</t>
-  </si>
-  <si>
-    <t>MARINO</t>
-  </si>
-  <si>
-    <t>YORDIN</t>
-  </si>
-  <si>
     <t>HERIBERTO</t>
   </si>
   <si>
-    <t>NICANOR</t>
-  </si>
-  <si>
-    <t>TIMARAN</t>
-  </si>
-  <si>
-    <t>WILMAR</t>
-  </si>
-  <si>
     <t>CHAPAL</t>
   </si>
   <si>
@@ -666,37 +693,10 @@
     <t>DAVID</t>
   </si>
   <si>
-    <t>CORTES</t>
-  </si>
-  <si>
-    <t>JHONY</t>
-  </si>
-  <si>
-    <t>SANDRO</t>
-  </si>
-  <si>
     <t>VELASQUEZ</t>
   </si>
   <si>
     <t>HEIMAR</t>
-  </si>
-  <si>
-    <t>ANDRES</t>
-  </si>
-  <si>
-    <t>CORTEZ</t>
-  </si>
-  <si>
-    <t>CUASPA</t>
-  </si>
-  <si>
-    <t>JOHNNY</t>
-  </si>
-  <si>
-    <t>STEVEN</t>
-  </si>
-  <si>
-    <t>FELIPE</t>
   </si>
   <si>
     <t>REMIGIO</t>
@@ -1758,16 +1758,16 @@
         <v>8.0</v>
       </c>
       <c r="B16" t="n" s="7">
-        <v>-3.0</v>
+        <v>319.0</v>
       </c>
       <c r="C16" t="s" s="7">
         <v>63</v>
       </c>
       <c r="D16" t="s" s="7">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s" s="7">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s" s="7">
         <v>65</v>
@@ -1781,7 +1781,7 @@
         <v>9.0</v>
       </c>
       <c r="B17" t="n" s="10">
-        <v>8.0</v>
+        <v>119.0</v>
       </c>
       <c r="C17" t="s" s="10">
         <v>66</v>
@@ -1790,10 +1790,10 @@
         <v>67</v>
       </c>
       <c r="E17" t="s" s="10">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s" s="10">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G17" s="10">
         <f>sum(a9:b9)</f>
@@ -1804,19 +1804,19 @@
         <v>10.0</v>
       </c>
       <c r="B18" t="n" s="10">
-        <v>23.0</v>
+        <v>142.0</v>
       </c>
       <c r="C18" t="s" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s" s="10">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s" s="10">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s" s="10">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G18" s="10">
         <f>sum(a9:b9)</f>
@@ -1827,19 +1827,19 @@
         <v>11.0</v>
       </c>
       <c r="B19" t="n" s="10">
-        <v>92.0</v>
+        <v>180.0</v>
       </c>
       <c r="C19" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s" s="10">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F19" t="s" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G19" s="10">
         <f>sum(a9:b9)</f>
@@ -1850,19 +1850,19 @@
         <v>12.0</v>
       </c>
       <c r="B20" t="n" s="10">
-        <v>100.0</v>
+        <v>320.0</v>
       </c>
       <c r="C20" t="s" s="10">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s" s="10">
         <v>76</v>
       </c>
       <c r="E20" t="s" s="10">
+        <v>47</v>
+      </c>
+      <c r="F20" t="s" s="10">
         <v>77</v>
-      </c>
-      <c r="F20" t="s" s="10">
-        <v>78</v>
       </c>
       <c r="G20" s="10">
         <f>sum(a9:b9)</f>
@@ -1873,19 +1873,19 @@
         <v>13.0</v>
       </c>
       <c r="B21" t="n" s="10">
-        <v>127.0</v>
+        <v>321.0</v>
       </c>
       <c r="C21" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="E21" t="s" s="10">
+        <v>78</v>
+      </c>
+      <c r="F21" t="s" s="10">
         <v>79</v>
-      </c>
-      <c r="D21" t="s" s="10">
-        <v>80</v>
-      </c>
-      <c r="E21" t="s" s="10">
-        <v>81</v>
-      </c>
-      <c r="F21" t="s" s="10">
-        <v>82</v>
       </c>
       <c r="G21" s="10">
         <f>sum(a9:b9)</f>
@@ -1896,19 +1896,19 @@
         <v>14.0</v>
       </c>
       <c r="B22" t="n" s="10">
-        <v>147.0</v>
+        <v>362.0</v>
       </c>
       <c r="C22" t="s" s="10">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s" s="10">
         <v>52</v>
       </c>
       <c r="E22" t="s" s="10">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s" s="10">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G22" s="10">
         <f>sum(a9:b9)</f>
@@ -1919,19 +1919,19 @@
         <v>15.0</v>
       </c>
       <c r="B23" t="n" s="10">
-        <v>178.0</v>
+        <v>527.0</v>
       </c>
       <c r="C23" t="s" s="10">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s" s="10">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s" s="10">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s" s="10">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G23" s="10">
         <f>sum(a9:b9)</f>
@@ -1942,19 +1942,19 @@
         <v>16.0</v>
       </c>
       <c r="B24" t="n" s="10">
-        <v>206.0</v>
+        <v>551.0</v>
       </c>
       <c r="C24" t="s" s="10">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s" s="10">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F24" t="s" s="10">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G24" s="10">
         <f>sum(a9:b9)</f>
@@ -1965,19 +1965,19 @@
         <v>17.0</v>
       </c>
       <c r="B25" t="n" s="10">
-        <v>212.0</v>
+        <v>862.0</v>
       </c>
       <c r="C25" t="s" s="10">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s" s="10">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s" s="10">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="F25" t="s" s="10">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G25" s="10">
         <f>sum(a9:b9)</f>
@@ -1988,19 +1988,19 @@
         <v>18.0</v>
       </c>
       <c r="B26" t="n" s="10">
-        <v>249.0</v>
+        <v>921.0</v>
       </c>
       <c r="C26" t="s" s="10">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s" s="10">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s" s="10">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F26" t="s" s="10">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G26" s="10">
         <f>sum(a9:b9)</f>
@@ -2011,19 +2011,19 @@
         <v>19.0</v>
       </c>
       <c r="B27" t="n" s="10">
-        <v>252.0</v>
+        <v>922.0</v>
       </c>
       <c r="C27" t="s" s="10">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s" s="10">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="E27" t="s" s="10">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F27" t="s" s="10">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G27" s="10">
         <f>sum(a9:b9)</f>
@@ -2033,22 +2033,22 @@
       <c r="A28" t="n" s="10">
         <v>20.0</v>
       </c>
-      <c r="B28" t="n" s="10">
-        <v>256.0</v>
-      </c>
-      <c r="C28" t="s" s="10">
-        <v>102</v>
-      </c>
-      <c r="D28" t="s" s="10">
-        <v>103</v>
-      </c>
-      <c r="E28" t="s" s="10">
-        <v>104</v>
-      </c>
-      <c r="F28" t="s" s="10">
-        <v>105</v>
-      </c>
-      <c r="G28" s="10">
+      <c r="B28" t="n" s="7">
+        <v>-3.0</v>
+      </c>
+      <c r="C28" t="s" s="7">
+        <v>97</v>
+      </c>
+      <c r="D28" t="s" s="7">
+        <v>56</v>
+      </c>
+      <c r="E28" t="s" s="7">
+        <v>98</v>
+      </c>
+      <c r="F28" t="s" s="7">
+        <v>81</v>
+      </c>
+      <c r="G28" s="7">
         <f>sum(a9:b9)</f>
       </c>
     </row>
@@ -2057,19 +2057,19 @@
         <v>21.0</v>
       </c>
       <c r="B29" t="n" s="10">
-        <v>375.0</v>
+        <v>8.0</v>
       </c>
       <c r="C29" t="s" s="10">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D29" t="s" s="10">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="E29" t="s" s="10">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="F29" t="s" s="10">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="G29" s="10">
         <f>sum(a9:b9)</f>
@@ -2080,19 +2080,19 @@
         <v>22.0</v>
       </c>
       <c r="B30" t="n" s="10">
-        <v>402.0</v>
+        <v>23.0</v>
       </c>
       <c r="C30" t="s" s="10">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="D30" t="s" s="10">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E30" t="s" s="10">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F30" t="s" s="10">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G30" s="10">
         <f>sum(a9:b9)</f>
@@ -2103,19 +2103,19 @@
         <v>23.0</v>
       </c>
       <c r="B31" t="n" s="10">
-        <v>403.0</v>
+        <v>92.0</v>
       </c>
       <c r="C31" t="s" s="10">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s" s="10">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="E31" t="s" s="10">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="F31" t="s" s="10">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G31" s="10">
         <f>sum(a9:b9)</f>
@@ -2126,19 +2126,19 @@
         <v>24.0</v>
       </c>
       <c r="B32" t="n" s="10">
-        <v>411.0</v>
+        <v>100.0</v>
       </c>
       <c r="C32" t="s" s="10">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D32" t="s" s="10">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="E32" t="s" s="10">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="F32" t="s" s="10">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G32" s="10">
         <f>sum(a9:b9)</f>
@@ -2149,19 +2149,19 @@
         <v>25.0</v>
       </c>
       <c r="B33" t="n" s="10">
-        <v>639.0</v>
+        <v>127.0</v>
       </c>
       <c r="C33" t="s" s="10">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="D33" t="s" s="10">
+        <v>94</v>
+      </c>
+      <c r="E33" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="F33" t="s" s="10">
         <v>113</v>
-      </c>
-      <c r="E33" t="s" s="10">
-        <v>114</v>
-      </c>
-      <c r="F33" t="s" s="10">
-        <v>115</v>
       </c>
       <c r="G33" s="10">
         <f>sum(a9:b9)</f>
@@ -2172,19 +2172,19 @@
         <v>26.0</v>
       </c>
       <c r="B34" t="n" s="10">
-        <v>704.0</v>
+        <v>147.0</v>
       </c>
       <c r="C34" t="s" s="10">
         <v>49</v>
       </c>
       <c r="D34" t="s" s="10">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E34" t="s" s="10">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F34" t="s" s="10">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="G34" s="10">
         <f>sum(a9:b9)</f>
@@ -2195,19 +2195,19 @@
         <v>27.0</v>
       </c>
       <c r="B35" t="n" s="10">
-        <v>737.0</v>
+        <v>178.0</v>
       </c>
       <c r="C35" t="s" s="10">
+        <v>115</v>
+      </c>
+      <c r="D35" t="s" s="10">
+        <v>116</v>
+      </c>
+      <c r="E35" t="s" s="10">
         <v>117</v>
       </c>
-      <c r="D35" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="E35" t="s" s="10">
+      <c r="F35" t="s" s="10">
         <v>118</v>
-      </c>
-      <c r="F35" t="s" s="10">
-        <v>119</v>
       </c>
       <c r="G35" s="10">
         <f>sum(a9:b9)</f>
@@ -2218,13 +2218,13 @@
         <v>28.0</v>
       </c>
       <c r="B36" t="n" s="10">
-        <v>738.0</v>
+        <v>206.0</v>
       </c>
       <c r="C36" t="s" s="10">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D36" t="s" s="10">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="E36" t="s" s="10">
         <v>120</v>
@@ -2241,7 +2241,7 @@
         <v>29.0</v>
       </c>
       <c r="B37" t="n" s="10">
-        <v>807.0</v>
+        <v>212.0</v>
       </c>
       <c r="C37" t="s" s="10">
         <v>122</v>
@@ -2250,10 +2250,10 @@
         <v>123</v>
       </c>
       <c r="E37" t="s" s="10">
+        <v>55</v>
+      </c>
+      <c r="F37" t="s" s="10">
         <v>124</v>
-      </c>
-      <c r="F37" t="s" s="10">
-        <v>125</v>
       </c>
       <c r="G37" s="10">
         <f>sum(a9:b9)</f>
@@ -2264,19 +2264,19 @@
         <v>30.0</v>
       </c>
       <c r="B38" t="n" s="10">
-        <v>887.0</v>
+        <v>249.0</v>
       </c>
       <c r="C38" t="s" s="10">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="D38" t="s" s="10">
+        <v>125</v>
+      </c>
+      <c r="E38" t="s" s="10">
         <v>126</v>
       </c>
-      <c r="E38" t="s" s="10">
+      <c r="F38" t="s" s="10">
         <v>127</v>
-      </c>
-      <c r="F38" t="s" s="10">
-        <v>84</v>
       </c>
       <c r="G38" s="10">
         <f>sum(a9:b9)</f>
@@ -2287,19 +2287,19 @@
         <v>31.0</v>
       </c>
       <c r="B39" t="n" s="10">
-        <v>928.0</v>
+        <v>252.0</v>
       </c>
       <c r="C39" t="s" s="10">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="D39" t="s" s="10">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E39" t="s" s="10">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="F39" t="s" s="10">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G39" s="10">
         <f>sum(a9:b9)</f>
@@ -2310,19 +2310,19 @@
         <v>32.0</v>
       </c>
       <c r="B40" t="n" s="10">
-        <v>978.0</v>
+        <v>256.0</v>
       </c>
       <c r="C40" t="s" s="10">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D40" t="s" s="10">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="E40" t="s" s="10">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="F40" t="s" s="10">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G40" s="10">
         <f>sum(a9:b9)</f>
@@ -2333,19 +2333,19 @@
         <v>33.0</v>
       </c>
       <c r="B41" t="n" s="10">
-        <v>1028.0</v>
+        <v>375.0</v>
       </c>
       <c r="C41" t="s" s="10">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D41" t="s" s="10">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="E41" t="s" s="10">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F41" t="s" s="10">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="G41" s="10">
         <f>sum(a9:b9)</f>
@@ -2356,19 +2356,19 @@
         <v>34.0</v>
       </c>
       <c r="B42" t="n" s="10">
-        <v>1044.0</v>
+        <v>402.0</v>
       </c>
       <c r="C42" t="s" s="10">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="D42" t="s" s="10">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E42" t="s" s="10">
+        <v>130</v>
+      </c>
+      <c r="F42" t="s" s="10">
         <v>138</v>
-      </c>
-      <c r="F42" t="s" s="10">
-        <v>67</v>
       </c>
       <c r="G42" s="10">
         <f>sum(a9:b9)</f>
@@ -2379,19 +2379,19 @@
         <v>35.0</v>
       </c>
       <c r="B43" t="n" s="10">
-        <v>1046.0</v>
+        <v>403.0</v>
       </c>
       <c r="C43" t="s" s="10">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="D43" t="s" s="10">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="E43" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="F43" t="s" s="10">
         <v>140</v>
-      </c>
-      <c r="F43" t="s" s="10">
-        <v>141</v>
       </c>
       <c r="G43" s="10">
         <f>sum(a9:b9)</f>
@@ -2402,19 +2402,19 @@
         <v>36.0</v>
       </c>
       <c r="B44" t="n" s="10">
-        <v>1106.0</v>
+        <v>411.0</v>
       </c>
       <c r="C44" t="s" s="10">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="D44" t="s" s="10">
+        <v>141</v>
+      </c>
+      <c r="E44" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="F44" t="s" s="10">
         <v>142</v>
-      </c>
-      <c r="E44" t="s" s="10">
-        <v>143</v>
-      </c>
-      <c r="F44" t="s" s="10">
-        <v>144</v>
       </c>
       <c r="G44" s="10">
         <f>sum(a9:b9)</f>
@@ -2425,19 +2425,19 @@
         <v>37.0</v>
       </c>
       <c r="B45" t="n" s="10">
-        <v>1108.0</v>
+        <v>639.0</v>
       </c>
       <c r="C45" t="s" s="10">
+        <v>106</v>
+      </c>
+      <c r="D45" t="s" s="10">
+        <v>143</v>
+      </c>
+      <c r="E45" t="s" s="10">
+        <v>144</v>
+      </c>
+      <c r="F45" t="s" s="10">
         <v>145</v>
-      </c>
-      <c r="D45" t="s" s="10">
-        <v>123</v>
-      </c>
-      <c r="E45" t="s" s="10">
-        <v>146</v>
-      </c>
-      <c r="F45" t="s" s="10">
-        <v>147</v>
       </c>
       <c r="G45" s="10">
         <f>sum(a9:b9)</f>
@@ -2447,22 +2447,22 @@
       <c r="A46" t="n" s="10">
         <v>38.0</v>
       </c>
-      <c r="B46" t="n" s="7">
-        <v>221.0</v>
-      </c>
-      <c r="C46" t="s" s="7">
-        <v>148</v>
-      </c>
-      <c r="D46" t="s" s="7">
-        <v>67</v>
-      </c>
-      <c r="E46" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="F46" t="s" s="7">
-        <v>149</v>
-      </c>
-      <c r="G46" s="7">
+      <c r="B46" t="n" s="10">
+        <v>704.0</v>
+      </c>
+      <c r="C46" t="s" s="10">
+        <v>49</v>
+      </c>
+      <c r="D46" t="s" s="10">
+        <v>106</v>
+      </c>
+      <c r="E46" t="s" s="10">
+        <v>146</v>
+      </c>
+      <c r="F46" t="s" s="10">
+        <v>100</v>
+      </c>
+      <c r="G46" s="10">
         <f>sum(a9:b9)</f>
       </c>
     </row>
@@ -2471,19 +2471,19 @@
         <v>39.0</v>
       </c>
       <c r="B47" t="n" s="10">
-        <v>484.0</v>
+        <v>737.0</v>
       </c>
       <c r="C47" t="s" s="10">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D47" t="s" s="10">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E47" t="s" s="10">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="F47" t="s" s="10">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="G47" s="10">
         <f>sum(a9:b9)</f>
@@ -2494,19 +2494,19 @@
         <v>40.0</v>
       </c>
       <c r="B48" t="n" s="10">
-        <v>768.0</v>
+        <v>738.0</v>
       </c>
       <c r="C48" t="s" s="10">
+        <v>147</v>
+      </c>
+      <c r="D48" t="s" s="10">
+        <v>100</v>
+      </c>
+      <c r="E48" t="s" s="10">
+        <v>150</v>
+      </c>
+      <c r="F48" t="s" s="10">
         <v>151</v>
-      </c>
-      <c r="D48" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="E48" t="s" s="10">
-        <v>152</v>
-      </c>
-      <c r="F48" t="s" s="10">
-        <v>153</v>
       </c>
       <c r="G48" s="10">
         <f>sum(a9:b9)</f>
@@ -2517,16 +2517,16 @@
         <v>41.0</v>
       </c>
       <c r="B49" t="n" s="10">
-        <v>798.0</v>
+        <v>807.0</v>
       </c>
       <c r="C49" t="s" s="10">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="D49" t="s" s="10">
+        <v>153</v>
+      </c>
+      <c r="E49" t="s" s="10">
         <v>154</v>
-      </c>
-      <c r="E49" t="s" s="10">
-        <v>119</v>
       </c>
       <c r="F49" t="s" s="10">
         <v>155</v>
@@ -2540,19 +2540,19 @@
         <v>42.0</v>
       </c>
       <c r="B50" t="n" s="10">
-        <v>826.0</v>
+        <v>887.0</v>
       </c>
       <c r="C50" t="s" s="10">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="D50" t="s" s="10">
         <v>156</v>
       </c>
       <c r="E50" t="s" s="10">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="F50" t="s" s="10">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="G50" s="10">
         <f>sum(a9:b9)</f>
@@ -2563,19 +2563,19 @@
         <v>43.0</v>
       </c>
       <c r="B51" t="n" s="10">
-        <v>832.0</v>
+        <v>928.0</v>
       </c>
       <c r="C51" t="s" s="10">
+        <v>94</v>
+      </c>
+      <c r="D51" t="s" s="10">
         <v>158</v>
       </c>
-      <c r="D51" t="s" s="10">
-        <v>67</v>
-      </c>
       <c r="E51" t="s" s="10">
+        <v>149</v>
+      </c>
+      <c r="F51" t="s" s="10">
         <v>159</v>
-      </c>
-      <c r="F51" t="s" s="10">
-        <v>160</v>
       </c>
       <c r="G51" s="10">
         <f>sum(a9:b9)</f>
@@ -2586,19 +2586,19 @@
         <v>44.0</v>
       </c>
       <c r="B52" t="n" s="10">
-        <v>834.0</v>
+        <v>978.0</v>
       </c>
       <c r="C52" t="s" s="10">
+        <v>160</v>
+      </c>
+      <c r="D52" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="E52" t="s" s="10">
+        <v>149</v>
+      </c>
+      <c r="F52" t="s" s="10">
         <v>161</v>
-      </c>
-      <c r="D52" t="s" s="10">
-        <v>162</v>
-      </c>
-      <c r="E52" t="s" s="10">
-        <v>163</v>
-      </c>
-      <c r="F52" t="s" s="10">
-        <v>164</v>
       </c>
       <c r="G52" s="10">
         <f>sum(a9:b9)</f>
@@ -2609,19 +2609,19 @@
         <v>45.0</v>
       </c>
       <c r="B53" t="n" s="10">
-        <v>837.0</v>
+        <v>1028.0</v>
       </c>
       <c r="C53" t="s" s="10">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D53" t="s" s="10">
-        <v>165</v>
+        <v>74</v>
       </c>
       <c r="E53" t="s" s="10">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="F53" t="s" s="10">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="G53" s="10">
         <f>sum(a9:b9)</f>
@@ -2632,19 +2632,19 @@
         <v>46.0</v>
       </c>
       <c r="B54" t="n" s="10">
-        <v>851.0</v>
+        <v>1044.0</v>
       </c>
       <c r="C54" t="s" s="10">
+        <v>165</v>
+      </c>
+      <c r="D54" t="s" s="10">
         <v>166</v>
       </c>
-      <c r="D54" t="s" s="10">
-        <v>76</v>
-      </c>
       <c r="E54" t="s" s="10">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F54" t="s" s="10">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="G54" s="10">
         <f>sum(a9:b9)</f>
@@ -2655,19 +2655,19 @@
         <v>47.0</v>
       </c>
       <c r="B55" t="n" s="10">
-        <v>855.0</v>
+        <v>1046.0</v>
       </c>
       <c r="C55" t="s" s="10">
+        <v>132</v>
+      </c>
+      <c r="D55" t="s" s="10">
         <v>168</v>
       </c>
-      <c r="D55" t="s" s="10">
-        <v>49</v>
-      </c>
       <c r="E55" t="s" s="10">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="F55" t="s" s="10">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G55" s="10">
         <f>sum(a9:b9)</f>
@@ -2678,19 +2678,19 @@
         <v>48.0</v>
       </c>
       <c r="B56" t="n" s="10">
-        <v>861.0</v>
+        <v>1106.0</v>
       </c>
       <c r="C56" t="s" s="10">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="D56" t="s" s="10">
         <v>171</v>
       </c>
       <c r="E56" t="s" s="10">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="F56" t="s" s="10">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G56" s="10">
         <f>sum(a9:b9)</f>
@@ -2701,13 +2701,13 @@
         <v>49.0</v>
       </c>
       <c r="B57" t="n" s="10">
-        <v>938.0</v>
+        <v>1108.0</v>
       </c>
       <c r="C57" t="s" s="10">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" t="s" s="10">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="E57" t="s" s="10">
         <v>175</v>
@@ -2723,22 +2723,22 @@
       <c r="A58" t="n" s="10">
         <v>50.0</v>
       </c>
-      <c r="B58" t="n" s="10">
-        <v>975.0</v>
-      </c>
-      <c r="C58" t="s" s="10">
+      <c r="B58" t="n" s="7">
+        <v>221.0</v>
+      </c>
+      <c r="C58" t="s" s="7">
         <v>177</v>
       </c>
-      <c r="D58" t="s" s="10">
+      <c r="D58" t="s" s="7">
+        <v>100</v>
+      </c>
+      <c r="E58" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="F58" t="s" s="7">
         <v>178</v>
       </c>
-      <c r="E58" t="s" s="10">
-        <v>179</v>
-      </c>
-      <c r="F58" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="G58" s="10">
+      <c r="G58" s="7">
         <f>sum(a9:b9)</f>
       </c>
     </row>
@@ -2747,19 +2747,19 @@
         <v>51.0</v>
       </c>
       <c r="B59" t="n" s="10">
-        <v>979.0</v>
+        <v>484.0</v>
       </c>
       <c r="C59" t="s" s="10">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" t="s" s="10">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="E59" t="s" s="10">
-        <v>182</v>
+        <v>85</v>
       </c>
       <c r="F59" t="s" s="10">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="G59" s="10">
         <f>sum(a9:b9)</f>
@@ -2770,19 +2770,19 @@
         <v>52.0</v>
       </c>
       <c r="B60" t="n" s="10">
-        <v>1073.0</v>
+        <v>768.0</v>
       </c>
       <c r="C60" t="s" s="10">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="D60" t="s" s="10">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E60" t="s" s="10">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="F60" t="s" s="10">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G60" s="10">
         <f>sum(a9:b9)</f>
@@ -2792,22 +2792,22 @@
       <c r="A61" t="n" s="10">
         <v>53.0</v>
       </c>
-      <c r="B61" t="n" s="7">
-        <v>-4.0</v>
-      </c>
-      <c r="C61" t="s" s="7">
-        <v>186</v>
-      </c>
-      <c r="D61" t="s" s="7">
-        <v>56</v>
-      </c>
-      <c r="E61" t="s" s="7">
-        <v>64</v>
-      </c>
-      <c r="F61" t="s" s="7">
-        <v>163</v>
-      </c>
-      <c r="G61" s="7">
+      <c r="B61" t="n" s="10">
+        <v>798.0</v>
+      </c>
+      <c r="C61" t="s" s="10">
+        <v>111</v>
+      </c>
+      <c r="D61" t="s" s="10">
+        <v>182</v>
+      </c>
+      <c r="E61" t="s" s="10">
+        <v>149</v>
+      </c>
+      <c r="F61" t="s" s="10">
+        <v>183</v>
+      </c>
+      <c r="G61" s="10">
         <f>sum(a9:b9)</f>
       </c>
     </row>
@@ -2815,22 +2815,22 @@
       <c r="A62" t="n" s="10">
         <v>54.0</v>
       </c>
-      <c r="B62" t="n" s="7">
-        <v>319.0</v>
-      </c>
-      <c r="C62" t="s" s="7">
-        <v>76</v>
-      </c>
-      <c r="D62" t="s" s="7">
-        <v>187</v>
-      </c>
-      <c r="E62" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="F62" t="s" s="7">
-        <v>188</v>
-      </c>
-      <c r="G62" s="7">
+      <c r="B62" t="n" s="10">
+        <v>826.0</v>
+      </c>
+      <c r="C62" t="s" s="10">
+        <v>152</v>
+      </c>
+      <c r="D62" t="s" s="10">
+        <v>184</v>
+      </c>
+      <c r="E62" t="s" s="10">
+        <v>130</v>
+      </c>
+      <c r="F62" t="s" s="10">
+        <v>185</v>
+      </c>
+      <c r="G62" s="10">
         <f>sum(a9:b9)</f>
       </c>
     </row>
@@ -2839,19 +2839,19 @@
         <v>55.0</v>
       </c>
       <c r="B63" t="n" s="10">
-        <v>22.0</v>
+        <v>832.0</v>
       </c>
       <c r="C63" t="s" s="10">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D63" t="s" s="10">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="E63" t="s" s="10">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F63" t="s" s="10">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="G63" s="10">
         <f>sum(a9:b9)</f>
@@ -2862,19 +2862,19 @@
         <v>56.0</v>
       </c>
       <c r="B64" t="n" s="10">
-        <v>46.0</v>
+        <v>834.0</v>
       </c>
       <c r="C64" t="s" s="10">
+        <v>189</v>
+      </c>
+      <c r="D64" t="s" s="10">
+        <v>190</v>
+      </c>
+      <c r="E64" t="s" s="10">
+        <v>191</v>
+      </c>
+      <c r="F64" t="s" s="10">
         <v>192</v>
-      </c>
-      <c r="D64" t="s" s="10">
-        <v>193</v>
-      </c>
-      <c r="E64" t="s" s="10">
-        <v>194</v>
-      </c>
-      <c r="F64" t="s" s="10">
-        <v>160</v>
       </c>
       <c r="G64" s="10">
         <f>sum(a9:b9)</f>
@@ -2885,19 +2885,19 @@
         <v>57.0</v>
       </c>
       <c r="B65" t="n" s="10">
-        <v>119.0</v>
+        <v>837.0</v>
       </c>
       <c r="C65" t="s" s="10">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="D65" t="s" s="10">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E65" t="s" s="10">
-        <v>196</v>
+        <v>42</v>
       </c>
       <c r="F65" t="s" s="10">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="G65" s="10">
         <f>sum(a9:b9)</f>
@@ -2908,19 +2908,19 @@
         <v>58.0</v>
       </c>
       <c r="B66" t="n" s="10">
-        <v>142.0</v>
+        <v>851.0</v>
       </c>
       <c r="C66" t="s" s="10">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D66" t="s" s="10">
-        <v>198</v>
+        <v>63</v>
       </c>
       <c r="E66" t="s" s="10">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="F66" t="s" s="10">
-        <v>199</v>
+        <v>69</v>
       </c>
       <c r="G66" s="10">
         <f>sum(a9:b9)</f>
@@ -2931,19 +2931,19 @@
         <v>59.0</v>
       </c>
       <c r="B67" t="n" s="10">
-        <v>148.0</v>
+        <v>855.0</v>
       </c>
       <c r="C67" t="s" s="10">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="D67" t="s" s="10">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E67" t="s" s="10">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="F67" t="s" s="10">
-        <v>39</v>
+        <v>196</v>
       </c>
       <c r="G67" s="10">
         <f>sum(a9:b9)</f>
@@ -2954,19 +2954,19 @@
         <v>60.0</v>
       </c>
       <c r="B68" t="n" s="10">
-        <v>176.0</v>
+        <v>861.0</v>
       </c>
       <c r="C68" t="s" s="10">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="D68" t="s" s="10">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="E68" t="s" s="10">
-        <v>84</v>
+        <v>187</v>
       </c>
       <c r="F68" t="s" s="10">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G68" s="10">
         <f>sum(a9:b9)</f>
@@ -2977,19 +2977,19 @@
         <v>61.0</v>
       </c>
       <c r="B69" t="n" s="10">
-        <v>180.0</v>
+        <v>938.0</v>
       </c>
       <c r="C69" t="s" s="10">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="D69" t="s" s="10">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c r="E69" t="s" s="10">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="F69" t="s" s="10">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G69" s="10">
         <f>sum(a9:b9)</f>
@@ -3000,19 +3000,19 @@
         <v>62.0</v>
       </c>
       <c r="B70" t="n" s="10">
-        <v>227.0</v>
+        <v>975.0</v>
       </c>
       <c r="C70" t="s" s="10">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="D70" t="s" s="10">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="E70" t="s" s="10">
-        <v>118</v>
+        <v>205</v>
       </c>
       <c r="F70" t="s" s="10">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="G70" s="10">
         <f>sum(a9:b9)</f>
@@ -3023,19 +3023,19 @@
         <v>63.0</v>
       </c>
       <c r="B71" t="n" s="10">
-        <v>291.0</v>
+        <v>979.0</v>
       </c>
       <c r="C71" t="s" s="10">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D71" t="s" s="10">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E71" t="s" s="10">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="F71" t="s" s="10">
-        <v>108</v>
+        <v>209</v>
       </c>
       <c r="G71" s="10">
         <f>sum(a9:b9)</f>
@@ -3046,19 +3046,19 @@
         <v>64.0</v>
       </c>
       <c r="B72" t="n" s="10">
-        <v>320.0</v>
+        <v>1073.0</v>
       </c>
       <c r="C72" t="s" s="10">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="D72" t="s" s="10">
-        <v>205</v>
+        <v>94</v>
       </c>
       <c r="E72" t="s" s="10">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F72" t="s" s="10">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G72" s="10">
         <f>sum(a9:b9)</f>
@@ -3068,22 +3068,22 @@
       <c r="A73" t="n" s="10">
         <v>65.0</v>
       </c>
-      <c r="B73" t="n" s="10">
-        <v>321.0</v>
-      </c>
-      <c r="C73" t="s" s="10">
-        <v>76</v>
-      </c>
-      <c r="D73" t="s" s="10">
-        <v>205</v>
-      </c>
-      <c r="E73" t="s" s="10">
-        <v>207</v>
-      </c>
-      <c r="F73" t="s" s="10">
-        <v>208</v>
-      </c>
-      <c r="G73" s="10">
+      <c r="B73" t="n" s="7">
+        <v>-4.0</v>
+      </c>
+      <c r="C73" t="s" s="7">
+        <v>212</v>
+      </c>
+      <c r="D73" t="s" s="7">
+        <v>56</v>
+      </c>
+      <c r="E73" t="s" s="7">
+        <v>98</v>
+      </c>
+      <c r="F73" t="s" s="7">
+        <v>191</v>
+      </c>
+      <c r="G73" s="7">
         <f>sum(a9:b9)</f>
       </c>
     </row>
@@ -3092,19 +3092,19 @@
         <v>66.0</v>
       </c>
       <c r="B74" t="n" s="10">
-        <v>362.0</v>
+        <v>22.0</v>
       </c>
       <c r="C74" t="s" s="10">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="D74" t="s" s="10">
-        <v>52</v>
+        <v>214</v>
       </c>
       <c r="E74" t="s" s="10">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F74" t="s" s="10">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="G74" s="10">
         <f>sum(a9:b9)</f>
@@ -3115,19 +3115,19 @@
         <v>67.0</v>
       </c>
       <c r="B75" t="n" s="10">
-        <v>442.0</v>
+        <v>46.0</v>
       </c>
       <c r="C75" t="s" s="10">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="D75" t="s" s="10">
-        <v>113</v>
+        <v>217</v>
       </c>
       <c r="E75" t="s" s="10">
-        <v>100</v>
+        <v>218</v>
       </c>
       <c r="F75" t="s" s="10">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="G75" s="10">
         <f>sum(a9:b9)</f>
@@ -3138,19 +3138,19 @@
         <v>68.0</v>
       </c>
       <c r="B76" t="n" s="10">
-        <v>527.0</v>
+        <v>148.0</v>
       </c>
       <c r="C76" t="s" s="10">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="D76" t="s" s="10">
-        <v>187</v>
+        <v>56</v>
       </c>
       <c r="E76" t="s" s="10">
-        <v>65</v>
+        <v>219</v>
       </c>
       <c r="F76" t="s" s="10">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="G76" s="10">
         <f>sum(a9:b9)</f>
@@ -3161,19 +3161,19 @@
         <v>69.0</v>
       </c>
       <c r="B77" t="n" s="10">
-        <v>551.0</v>
+        <v>176.0</v>
       </c>
       <c r="C77" t="s" s="10">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="D77" t="s" s="10">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E77" t="s" s="10">
-        <v>213</v>
+        <v>85</v>
       </c>
       <c r="F77" t="s" s="10">
-        <v>84</v>
+        <v>220</v>
       </c>
       <c r="G77" s="10">
         <f>sum(a9:b9)</f>
@@ -3184,19 +3184,19 @@
         <v>70.0</v>
       </c>
       <c r="B78" t="n" s="10">
-        <v>836.0</v>
+        <v>227.0</v>
       </c>
       <c r="C78" t="s" s="10">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="D78" t="s" s="10">
-        <v>186</v>
+        <v>87</v>
       </c>
       <c r="E78" t="s" s="10">
-        <v>215</v>
+        <v>148</v>
       </c>
       <c r="F78" t="s" s="10">
-        <v>216</v>
+        <v>149</v>
       </c>
       <c r="G78" s="10">
         <f>sum(a9:b9)</f>
@@ -3207,19 +3207,19 @@
         <v>71.0</v>
       </c>
       <c r="B79" t="n" s="10">
-        <v>862.0</v>
+        <v>291.0</v>
       </c>
       <c r="C79" t="s" s="10">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D79" t="s" s="10">
-        <v>203</v>
+        <v>71</v>
       </c>
       <c r="E79" t="s" s="10">
-        <v>218</v>
+        <v>130</v>
       </c>
       <c r="F79" t="s" s="10">
-        <v>219</v>
+        <v>138</v>
       </c>
       <c r="G79" s="10">
         <f>sum(a9:b9)</f>
@@ -3230,16 +3230,16 @@
         <v>72.0</v>
       </c>
       <c r="B80" t="n" s="10">
-        <v>895.0</v>
+        <v>442.0</v>
       </c>
       <c r="C80" t="s" s="10">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="D80" t="s" s="10">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="E80" t="s" s="10">
-        <v>221</v>
+        <v>130</v>
       </c>
       <c r="F80" t="s" s="10">
         <v>222</v>
@@ -3253,19 +3253,19 @@
         <v>73.0</v>
       </c>
       <c r="B81" t="n" s="10">
-        <v>921.0</v>
+        <v>836.0</v>
       </c>
       <c r="C81" t="s" s="10">
         <v>223</v>
       </c>
       <c r="D81" t="s" s="10">
+        <v>212</v>
+      </c>
+      <c r="E81" t="s" s="10">
         <v>224</v>
       </c>
-      <c r="E81" t="s" s="10">
+      <c r="F81" t="s" s="10">
         <v>225</v>
-      </c>
-      <c r="F81" t="s" s="10">
-        <v>226</v>
       </c>
       <c r="G81" s="10">
         <f>sum(a9:b9)</f>
@@ -3276,19 +3276,19 @@
         <v>74.0</v>
       </c>
       <c r="B82" t="n" s="10">
-        <v>922.0</v>
+        <v>895.0</v>
       </c>
       <c r="C82" t="s" s="10">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="D82" t="s" s="10">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="E82" t="s" s="10">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F82" t="s" s="10">
-        <v>227</v>
+        <v>95</v>
       </c>
       <c r="G82" s="10">
         <f>sum(a9:b9)</f>
@@ -3305,10 +3305,10 @@
         <v>49</v>
       </c>
       <c r="D83" t="s" s="10">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="E83" t="s" s="10">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F83" t="s" s="10">
         <v>228</v>
@@ -3325,7 +3325,7 @@
         <v>960.0</v>
       </c>
       <c r="C84" t="s" s="10">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="D84" t="s" s="10">
         <v>229</v>
@@ -3348,10 +3348,10 @@
         <v>962.0</v>
       </c>
       <c r="C85" t="s" s="10">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="D85" t="s" s="10">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="E85" t="s" s="10">
         <v>231</v>
@@ -3397,13 +3397,13 @@
         <v>234</v>
       </c>
       <c r="D87" t="s" s="10">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="E87" t="s" s="10">
         <v>42</v>
       </c>
       <c r="F87" t="s" s="10">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="G87" s="10">
         <f>sum(a9:b9)</f>
@@ -3420,13 +3420,13 @@
         <v>235</v>
       </c>
       <c r="D88" t="s" s="10">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E88" t="s" s="10">
         <v>236</v>
       </c>
       <c r="F88" t="s" s="10">
-        <v>222</v>
+        <v>95</v>
       </c>
       <c r="G88" s="10">
         <f>sum(a9:b9)</f>
@@ -3440,10 +3440,10 @@
         <v>1125.0</v>
       </c>
       <c r="C89" t="s" s="10">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="D89" t="s" s="10">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="E89" t="s" s="10">
         <v>237</v>
@@ -3463,16 +3463,16 @@
         <v>1129.0</v>
       </c>
       <c r="C90" t="s" s="10">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="D90" t="s" s="10">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="E90" t="s" s="10">
         <v>239</v>
       </c>
       <c r="F90" t="s" s="10">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="G90" s="10">
         <f>sum(a9:b9)</f>
@@ -3515,7 +3515,7 @@
         <v>244</v>
       </c>
       <c r="E92" t="s" s="10">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="F92" t="s" s="10">
         <v>245</v>
@@ -3535,13 +3535,13 @@
         <v>60</v>
       </c>
       <c r="D93" t="s" s="10">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="E93" t="s" s="10">
         <v>51</v>
       </c>
       <c r="F93" t="s" s="10">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="G93" s="10">
         <f>sum(a9:b9)</f>
@@ -3555,13 +3555,13 @@
         <v>334.0</v>
       </c>
       <c r="C94" t="s" s="10">
-        <v>197</v>
+        <v>70</v>
       </c>
       <c r="D94" t="s" s="10">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="E94" t="s" s="10">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F94" t="s" s="10">
         <v>246</v>
@@ -3604,7 +3604,7 @@
         <v>250</v>
       </c>
       <c r="D96" t="s" s="10">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="E96" t="s" s="10">
         <v>251</v>
@@ -3679,7 +3679,7 @@
         <v>258</v>
       </c>
       <c r="F99" t="s" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G99" s="10">
         <f>sum(a9:b9)</f>
@@ -3699,10 +3699,10 @@
         <v>260</v>
       </c>
       <c r="E100" t="s" s="10">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="F100" t="s" s="10">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="G100" s="10">
         <f>sum(a9:b9)</f>
@@ -3716,7 +3716,7 @@
         <v>1050.0</v>
       </c>
       <c r="C101" t="s" s="10">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="D101" t="s" s="10">
         <v>261</v>
@@ -3742,13 +3742,13 @@
         <v>243</v>
       </c>
       <c r="D102" t="s" s="10">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="E102" t="s" s="10">
         <v>245</v>
       </c>
       <c r="F102" t="s" s="10">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="G102" s="10">
         <f>sum(a9:b9)</f>
@@ -3771,7 +3771,7 @@
         <v>256</v>
       </c>
       <c r="F103" t="s" s="10">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="G103" s="10">
         <f>sum(a9:b9)</f>
@@ -3785,16 +3785,16 @@
         <v>1104.0</v>
       </c>
       <c r="C104" t="s" s="10">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="D104" t="s" s="10">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="E104" t="s" s="10">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="F104" t="s" s="10">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="G104" s="10">
         <f>sum(a9:b9)</f>
@@ -3811,13 +3811,13 @@
         <v>266</v>
       </c>
       <c r="D105" t="s" s="10">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="E105" t="s" s="10">
         <v>267</v>
       </c>
       <c r="F105" t="s" s="10">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="G105" s="10">
         <f>sum(a9:b9)</f>
@@ -3840,7 +3840,7 @@
         <v>267</v>
       </c>
       <c r="F106" t="s" s="7">
-        <v>222</v>
+        <v>95</v>
       </c>
       <c r="G106" s="7">
         <f>sum(a9:b9)</f>
@@ -3854,10 +3854,10 @@
         <v>224.0</v>
       </c>
       <c r="C107" t="s" s="10">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="D107" t="s" s="10">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="E107" t="s" s="10">
         <v>268</v>
@@ -3909,7 +3909,7 @@
         <v>273</v>
       </c>
       <c r="F109" t="s" s="10">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="G109" s="10">
         <f>sum(a9:b9)</f>
@@ -3926,13 +3926,13 @@
         <v>274</v>
       </c>
       <c r="D110" t="s" s="10">
-        <v>178</v>
+        <v>66</v>
       </c>
       <c r="E110" t="s" s="10">
         <v>275</v>
       </c>
       <c r="F110" t="s" s="10">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="G110" s="10">
         <f>sum(a9:b9)</f>
@@ -3969,16 +3969,16 @@
         <v>1031.0</v>
       </c>
       <c r="C112" t="s" s="10">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="D112" t="s" s="10">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="E112" t="s" s="10">
         <v>279</v>
       </c>
       <c r="F112" t="s" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G112" s="10">
         <f>sum(a9:b9)</f>
@@ -3992,16 +3992,16 @@
         <v>140.0</v>
       </c>
       <c r="C113" t="s" s="7">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="D113" t="s" s="7">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="E113" t="s" s="7">
         <v>280</v>
       </c>
       <c r="F113" t="s" s="7">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="G113" s="7">
         <f>sum(a9:b9)</f>
@@ -4018,13 +4018,13 @@
         <v>281</v>
       </c>
       <c r="D114" t="s" s="10">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="E114" t="s" s="10">
         <v>237</v>
       </c>
       <c r="F114" t="s" s="10">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="G114" s="10">
         <f>sum(a9:b9)</f>
@@ -4038,16 +4038,16 @@
         <v>313.0</v>
       </c>
       <c r="C115" t="s" s="10">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="D115" t="s" s="10">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="E115" t="s" s="10">
         <v>255</v>
       </c>
       <c r="F115" t="s" s="10">
-        <v>222</v>
+        <v>95</v>
       </c>
       <c r="G115" s="10">
         <f>sum(a9:b9)</f>
@@ -4061,13 +4061,13 @@
         <v>325.0</v>
       </c>
       <c r="C116" t="s" s="10">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="D116" t="s" s="10">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="E116" t="s" s="10">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="F116" t="s" s="10">
         <v>282</v>
@@ -4110,13 +4110,13 @@
         <v>286</v>
       </c>
       <c r="D118" t="s" s="10">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="E118" t="s" s="10">
         <v>287</v>
       </c>
       <c r="F118" t="s" s="10">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="G118" s="10">
         <f>sum(a9:b9)</f>
@@ -4139,7 +4139,7 @@
         <v>288</v>
       </c>
       <c r="F119" t="s" s="10">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="G119" s="10">
         <f>sum(a9:b9)</f>
@@ -4153,7 +4153,7 @@
         <v>706.0</v>
       </c>
       <c r="C120" t="s" s="10">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="D120" t="s" s="10">
         <v>49</v>
@@ -4176,16 +4176,16 @@
         <v>331.0</v>
       </c>
       <c r="C121" t="s" s="7">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="D121" t="s" s="7">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="E121" t="s" s="7">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="F121" t="s" s="7">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="G121" s="7">
         <f>sum(a9:b9)</f>
@@ -4199,16 +4199,16 @@
         <v>317.0</v>
       </c>
       <c r="C122" t="s" s="10">
+        <v>132</v>
+      </c>
+      <c r="D122" t="s" s="10">
         <v>102</v>
-      </c>
-      <c r="D122" t="s" s="10">
-        <v>69</v>
       </c>
       <c r="E122" t="s" s="10">
         <v>42</v>
       </c>
       <c r="F122" t="s" s="10">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="G122" s="10">
         <f>sum(a9:b9)</f>
@@ -4225,10 +4225,10 @@
         <v>291</v>
       </c>
       <c r="D123" t="s" s="10">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E123" t="s" s="10">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="F123" t="s" s="10">
         <v>292</v>
@@ -4254,7 +4254,7 @@
         <v>279</v>
       </c>
       <c r="F124" t="s" s="10">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="G124" s="10">
         <f>sum(a9:b9)</f>
@@ -4274,10 +4274,10 @@
         <v>294</v>
       </c>
       <c r="E125" t="s" s="10">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="F125" t="s" s="10">
-        <v>222</v>
+        <v>95</v>
       </c>
       <c r="G125" s="10">
         <f>sum(a9:b9)</f>
@@ -4291,10 +4291,10 @@
         <v>602.0</v>
       </c>
       <c r="C126" t="s" s="10">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="D126" t="s" s="10">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="E126" t="s" s="10">
         <v>295</v>
@@ -4317,13 +4317,13 @@
         <v>291</v>
       </c>
       <c r="D127" t="s" s="10">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="E127" t="s" s="10">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="F127" t="s" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G127" s="10">
         <f>sum(a9:b9)</f>
@@ -4337,13 +4337,13 @@
         <v>740.0</v>
       </c>
       <c r="C128" t="s" s="10">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="D128" t="s" s="10">
         <v>297</v>
       </c>
       <c r="E128" t="s" s="10">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="F128" t="s" s="10">
         <v>298</v>
@@ -4369,7 +4369,7 @@
         <v>236</v>
       </c>
       <c r="F129" t="s" s="10">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="G129" s="10">
         <f>sum(a9:b9)</f>
@@ -4383,16 +4383,16 @@
         <v>-7.0</v>
       </c>
       <c r="C130" t="s" s="7">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="D130" t="s" s="7">
         <v>49</v>
       </c>
       <c r="E130" t="s" s="7">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F130" t="s" s="7">
-        <v>227</v>
+        <v>96</v>
       </c>
       <c r="G130" s="7">
         <f>sum(a9:b9)</f>
@@ -4406,7 +4406,7 @@
         <v>32.0</v>
       </c>
       <c r="C131" t="s" s="10">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="D131" t="s" s="10">
         <v>301</v>
@@ -4458,7 +4458,7 @@
         <v>306</v>
       </c>
       <c r="E133" t="s" s="10">
-        <v>227</v>
+        <v>96</v>
       </c>
       <c r="F133" t="s" s="10">
         <v>298</v>
@@ -4475,7 +4475,7 @@
         <v>73.0</v>
       </c>
       <c r="C134" t="s" s="10">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="D134" t="s" s="10">
         <v>307</v>
@@ -4498,13 +4498,13 @@
         <v>218.0</v>
       </c>
       <c r="C135" t="s" s="10">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="D135" t="s" s="10">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="E135" t="s" s="10">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="F135" t="s" s="10">
         <v>309</v>
@@ -4530,7 +4530,7 @@
         <v>311</v>
       </c>
       <c r="F136" t="s" s="10">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="G136" s="10">
         <f>sum(a9:b9)</f>
@@ -4547,13 +4547,13 @@
         <v>240</v>
       </c>
       <c r="D137" t="s" s="10">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="E137" t="s" s="10">
         <v>312</v>
       </c>
       <c r="F137" t="s" s="10">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="G137" s="10">
         <f>sum(a9:b9)</f>
@@ -4567,16 +4567,16 @@
         <v>293.0</v>
       </c>
       <c r="C138" t="s" s="10">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="D138" t="s" s="10">
         <v>49</v>
       </c>
       <c r="E138" t="s" s="10">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="F138" t="s" s="10">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="G138" s="10">
         <f>sum(a9:b9)</f>
@@ -4645,7 +4645,7 @@
         <v>318</v>
       </c>
       <c r="F141" t="s" s="10">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="G141" s="10">
         <f>sum(a9:b9)</f>
@@ -4688,7 +4688,7 @@
         <v>324</v>
       </c>
       <c r="E143" t="s" s="10">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="F143" t="s" s="10">
         <v>318</v>
@@ -4708,7 +4708,7 @@
         <v>325</v>
       </c>
       <c r="D144" t="s" s="10">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="E144" t="s" s="10">
         <v>38</v>
@@ -4734,10 +4734,10 @@
         <v>328</v>
       </c>
       <c r="E145" t="s" s="10">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="F145" t="s" s="10">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="G145" s="10">
         <f>sum(a9:b9)</f>
@@ -4754,10 +4754,10 @@
         <v>329</v>
       </c>
       <c r="D146" t="s" s="10">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="E146" t="s" s="10">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="F146" t="s" s="10">
         <v>39</v>
@@ -4774,7 +4774,7 @@
         <v>945.0</v>
       </c>
       <c r="C147" t="s" s="10">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="D147" t="s" s="10">
         <v>330</v>
@@ -4797,7 +4797,7 @@
         <v>970.0</v>
       </c>
       <c r="C148" t="s" s="10">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="D148" t="s" s="10">
         <v>332</v>
@@ -4823,7 +4823,7 @@
         <v>291</v>
       </c>
       <c r="D149" t="s" s="10">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="E149" t="s" s="10">
         <v>334</v>
@@ -4852,7 +4852,7 @@
         <v>336</v>
       </c>
       <c r="F150" t="s" s="10">
-        <v>222</v>
+        <v>95</v>
       </c>
       <c r="G150" s="10">
         <f>sum(a9:b9)</f>
@@ -4872,10 +4872,10 @@
         <v>337</v>
       </c>
       <c r="E151" t="s" s="10">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="F151" t="s" s="10">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="G151" s="10">
         <f>sum(a9:b9)</f>
@@ -4889,7 +4889,7 @@
         <v>1114.0</v>
       </c>
       <c r="C152" t="s" s="10">
-        <v>195</v>
+        <v>67</v>
       </c>
       <c r="D152" t="s" s="10">
         <v>338</v>
@@ -4941,7 +4941,7 @@
         <v>265</v>
       </c>
       <c r="E154" t="s" s="10">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F154" t="s" s="10">
         <v>39</v>
@@ -5027,10 +5027,10 @@
         <v>1122.0</v>
       </c>
       <c r="C158" t="s" s="10">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="D158" t="s" s="10">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="E158" t="s" s="10">
         <v>348</v>
@@ -5050,13 +5050,13 @@
         <v>1123.0</v>
       </c>
       <c r="C159" t="s" s="10">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c r="D159" t="s" s="10">
         <v>350</v>
       </c>
       <c r="E159" t="s" s="10">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="F159" t="s" s="10">
         <v>351</v>
@@ -5079,10 +5079,10 @@
         <v>352</v>
       </c>
       <c r="E160" t="s" s="10">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="F160" t="s" s="10">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="G160" s="10">
         <f>sum(a9:b9)</f>
@@ -5119,10 +5119,10 @@
         <v>1133.0</v>
       </c>
       <c r="C162" t="s" s="10">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="D162" t="s" s="10">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="E162" t="s" s="10">
         <v>356</v>
@@ -5142,16 +5142,16 @@
         <v>1136.0</v>
       </c>
       <c r="C163" t="s" s="10">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="D163" t="s" s="10">
         <v>229</v>
       </c>
       <c r="E163" t="s" s="10">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="F163" t="s" s="10">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="G163" s="10">
         <f>sum(a9:b9)</f>
@@ -5165,7 +5165,7 @@
         <v>1137.0</v>
       </c>
       <c r="C164" t="s" s="10">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="D164" t="s" s="10">
         <v>229</v>

--- a/personal/quincena.xlsx
+++ b/personal/quincena.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="periodo 2016-09-01 a 2016-09-15" r:id="rId3" sheetId="1"/>
-    <sheet name="2016-09-06" r:id="rId4" sheetId="2"/>
+    <sheet name="2016-09-07" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="516">
   <si>
     <t>Convecciones</t>
   </si>
@@ -135,6 +135,9 @@
     <t>ARMANDO</t>
   </si>
   <si>
+    <t>1.085.284.339</t>
+  </si>
+  <si>
     <t>CHALACAN</t>
   </si>
   <si>
@@ -147,6 +150,9 @@
     <t>SERAFIN</t>
   </si>
   <si>
+    <t>5.309.290</t>
+  </si>
+  <si>
     <t>LOPEZ</t>
   </si>
   <si>
@@ -159,6 +165,9 @@
     <t>JAIME</t>
   </si>
   <si>
+    <t>5.249.748</t>
+  </si>
+  <si>
     <t>BURBANO</t>
   </si>
   <si>
@@ -171,6 +180,9 @@
     <t>OSWALDO</t>
   </si>
   <si>
+    <t>12.754.736</t>
+  </si>
+  <si>
     <t>MENESES</t>
   </si>
   <si>
@@ -183,6 +195,9 @@
     <t>JAIRO</t>
   </si>
   <si>
+    <t>87.060.664</t>
+  </si>
+  <si>
     <t>BOTINA</t>
   </si>
   <si>
@@ -195,6 +210,9 @@
     <t>ELVIRA</t>
   </si>
   <si>
+    <t>59.836.908</t>
+  </si>
+  <si>
     <t>ERASO</t>
   </si>
   <si>
@@ -204,6 +222,9 @@
     <t>CONCEPCION</t>
   </si>
   <si>
+    <t>27.204.225</t>
+  </si>
+  <si>
     <t>ROJAS</t>
   </si>
   <si>
@@ -213,6 +234,9 @@
     <t>NATIVEL</t>
   </si>
   <si>
+    <t>98.392.255</t>
+  </si>
+  <si>
     <t>BENAVIDES</t>
   </si>
   <si>
@@ -225,6 +249,9 @@
     <t>RAFAEL</t>
   </si>
   <si>
+    <t>87.067.092</t>
+  </si>
+  <si>
     <t>ANDRADE</t>
   </si>
   <si>
@@ -234,6 +261,9 @@
     <t>EDMUNDO</t>
   </si>
   <si>
+    <t>5.207.330</t>
+  </si>
+  <si>
     <t>BUESAQUILLO</t>
   </si>
   <si>
@@ -243,27 +273,42 @@
     <t>HUVEYMAR</t>
   </si>
   <si>
+    <t>1.085.275.131</t>
+  </si>
+  <si>
     <t>TUTISTAR</t>
   </si>
   <si>
     <t>ERLINTO</t>
   </si>
   <si>
+    <t>5.203.541</t>
+  </si>
+  <si>
     <t>LEANDRO</t>
   </si>
   <si>
     <t>MARINO</t>
   </si>
   <si>
+    <t>1.085.311.542</t>
+  </si>
+  <si>
     <t>YORDIN</t>
   </si>
   <si>
     <t>SEGUNDO</t>
   </si>
   <si>
+    <t>1.085.309.640</t>
+  </si>
+  <si>
     <t>NICANOR</t>
   </si>
   <si>
+    <t>12.995.874</t>
+  </si>
+  <si>
     <t>TIMARAN</t>
   </si>
   <si>
@@ -273,6 +318,9 @@
     <t>ALEXANDER</t>
   </si>
   <si>
+    <t>1.084.224.396</t>
+  </si>
+  <si>
     <t>CORTES</t>
   </si>
   <si>
@@ -285,6 +333,9 @@
     <t>SANDRO</t>
   </si>
   <si>
+    <t>98.385.039</t>
+  </si>
+  <si>
     <t>CORTEZ</t>
   </si>
   <si>
@@ -297,6 +348,9 @@
     <t>STEVEN</t>
   </si>
   <si>
+    <t>1.085.319.345</t>
+  </si>
+  <si>
     <t>ROSERO</t>
   </si>
   <si>
@@ -306,12 +360,18 @@
     <t>FELIPE</t>
   </si>
   <si>
+    <t>1.085.271.056</t>
+  </si>
+  <si>
     <t>CRIOLLO</t>
   </si>
   <si>
     <t>JUAN</t>
   </si>
   <si>
+    <t>98.381.799</t>
+  </si>
+  <si>
     <t>CABRERA</t>
   </si>
   <si>
@@ -321,6 +381,9 @@
     <t>KENEDY</t>
   </si>
   <si>
+    <t>87.303.908</t>
+  </si>
+  <si>
     <t>DELGADO</t>
   </si>
   <si>
@@ -330,6 +393,9 @@
     <t>MEDARDO</t>
   </si>
   <si>
+    <t>12.750.317</t>
+  </si>
+  <si>
     <t>RIASCOS</t>
   </si>
   <si>
@@ -339,6 +405,9 @@
     <t>HERMES</t>
   </si>
   <si>
+    <t>12.983.892</t>
+  </si>
+  <si>
     <t>SAAVEDRA</t>
   </si>
   <si>
@@ -348,6 +417,9 @@
     <t>ROBERTO</t>
   </si>
   <si>
+    <t>1.085.247.858</t>
+  </si>
+  <si>
     <t>RIVERA</t>
   </si>
   <si>
@@ -357,9 +429,15 @@
     <t>IGNACIO</t>
   </si>
   <si>
+    <t>12.964.012</t>
+  </si>
+  <si>
     <t>LIBIO</t>
   </si>
   <si>
+    <t>1.085.252.017</t>
+  </si>
+  <si>
     <t>CHACUA</t>
   </si>
   <si>
@@ -372,6 +450,9 @@
     <t>JAVIER</t>
   </si>
   <si>
+    <t>1.126.449.550</t>
+  </si>
+  <si>
     <t>MORALES</t>
   </si>
   <si>
@@ -381,6 +462,9 @@
     <t>FERNANDO</t>
   </si>
   <si>
+    <t>13.062.509</t>
+  </si>
+  <si>
     <t>PORTILLA</t>
   </si>
   <si>
@@ -390,6 +474,9 @@
     <t>NICOLAS</t>
   </si>
   <si>
+    <t>87.532.409</t>
+  </si>
+  <si>
     <t>GELPUD</t>
   </si>
   <si>
@@ -399,6 +486,9 @@
     <t>GUILLERMO</t>
   </si>
   <si>
+    <t>87.061.316</t>
+  </si>
+  <si>
     <t>GARCES</t>
   </si>
   <si>
@@ -411,6 +501,9 @@
     <t>HERNAN</t>
   </si>
   <si>
+    <t>79.318.587</t>
+  </si>
+  <si>
     <t>JURADO</t>
   </si>
   <si>
@@ -423,27 +516,42 @@
     <t>DARIO</t>
   </si>
   <si>
+    <t>5.213.931</t>
+  </si>
+  <si>
     <t>LUNA</t>
   </si>
   <si>
     <t>DANIEL</t>
   </si>
   <si>
+    <t>12.989.621</t>
+  </si>
+  <si>
     <t>GONZALO</t>
   </si>
   <si>
+    <t>1.085.247.435</t>
+  </si>
+  <si>
     <t>MEZA</t>
   </si>
   <si>
     <t>LEONEL</t>
   </si>
   <si>
+    <t>12.992.035</t>
+  </si>
+  <si>
     <t>GETIAL</t>
   </si>
   <si>
     <t>AVELARDO</t>
   </si>
   <si>
+    <t>13.067.774</t>
+  </si>
+  <si>
     <t>CARLOSAMA</t>
   </si>
   <si>
@@ -453,9 +561,15 @@
     <t>YOBANY</t>
   </si>
   <si>
+    <t>13.070.549</t>
+  </si>
+  <si>
     <t>RIGOBERTO</t>
   </si>
   <si>
+    <t>1.088.728.594</t>
+  </si>
+  <si>
     <t>TELLO</t>
   </si>
   <si>
@@ -465,12 +579,18 @@
     <t>JESUS</t>
   </si>
   <si>
+    <t>5.262.835</t>
+  </si>
+  <si>
     <t>ORLANDO</t>
   </si>
   <si>
     <t>SIGIFREDO</t>
   </si>
   <si>
+    <t>5.262.875</t>
+  </si>
+  <si>
     <t>MONTILLA</t>
   </si>
   <si>
@@ -483,24 +603,36 @@
     <t>IVAN</t>
   </si>
   <si>
+    <t>1.085.304.273</t>
+  </si>
+  <si>
     <t>CASTILLO</t>
   </si>
   <si>
     <t>HELMER</t>
   </si>
   <si>
+    <t>1.085.283.086</t>
+  </si>
+  <si>
     <t>SALCEDO</t>
   </si>
   <si>
     <t>ERMINSOL</t>
   </si>
   <si>
+    <t>12.751.792</t>
+  </si>
+  <si>
     <t>JOJOA</t>
   </si>
   <si>
     <t>GIRALDO</t>
   </si>
   <si>
+    <t>1.085.265.411</t>
+  </si>
+  <si>
     <t>PINCHAO</t>
   </si>
   <si>
@@ -510,6 +642,9 @@
     <t>ALVARO</t>
   </si>
   <si>
+    <t>1.085.244.777</t>
+  </si>
+  <si>
     <t>GOMEZ</t>
   </si>
   <si>
@@ -519,6 +654,9 @@
     <t>ROBULO</t>
   </si>
   <si>
+    <t>1.085.687.903</t>
+  </si>
+  <si>
     <t>OJEDA</t>
   </si>
   <si>
@@ -528,6 +666,9 @@
     <t>EFREN</t>
   </si>
   <si>
+    <t>1.086.920.844</t>
+  </si>
+  <si>
     <t>POTOSI</t>
   </si>
   <si>
@@ -537,6 +678,9 @@
     <t>ERNEY</t>
   </si>
   <si>
+    <t>1.085.322.248</t>
+  </si>
+  <si>
     <t>LOPERA</t>
   </si>
   <si>
@@ -546,33 +690,51 @@
     <t>FERLEY</t>
   </si>
   <si>
+    <t>1.004.215.859</t>
+  </si>
+  <si>
     <t>OBANDO</t>
   </si>
   <si>
     <t>CELIMO</t>
   </si>
   <si>
+    <t>98.368.011</t>
+  </si>
+  <si>
     <t>ORTIZ</t>
   </si>
   <si>
+    <t>94.399.855</t>
+  </si>
+  <si>
     <t>CRISTIAN</t>
   </si>
   <si>
     <t>HERLEY</t>
   </si>
   <si>
+    <t>1.085.331.105</t>
+  </si>
+  <si>
     <t>ZAMBRANO</t>
   </si>
   <si>
     <t>ANTONIO</t>
   </si>
   <si>
+    <t>1.085.265.001</t>
+  </si>
+  <si>
     <t>DORADO</t>
   </si>
   <si>
     <t>GILDARDO</t>
   </si>
   <si>
+    <t>1.086.223.759</t>
+  </si>
+  <si>
     <t>CUCHALA</t>
   </si>
   <si>
@@ -582,6 +744,9 @@
     <t>ENRIQUE</t>
   </si>
   <si>
+    <t>12.968.279</t>
+  </si>
+  <si>
     <t>MEJIA</t>
   </si>
   <si>
@@ -594,18 +759,30 @@
     <t>RODRIGO</t>
   </si>
   <si>
+    <t>98.400.772</t>
+  </si>
+  <si>
     <t>YAQUENO</t>
   </si>
   <si>
+    <t>1.085.258.037</t>
+  </si>
+  <si>
     <t>DAZA</t>
   </si>
   <si>
+    <t>98.390.553</t>
+  </si>
+  <si>
     <t>GONZALEZ</t>
   </si>
   <si>
     <t>GERARDO</t>
   </si>
   <si>
+    <t>13.014.331</t>
+  </si>
+  <si>
     <t>MONTANCHEZ</t>
   </si>
   <si>
@@ -615,6 +792,9 @@
     <t>ALVEIRO</t>
   </si>
   <si>
+    <t>1.085.262.925</t>
+  </si>
+  <si>
     <t>SALAZAR</t>
   </si>
   <si>
@@ -627,12 +807,18 @@
     <t>VICENTE</t>
   </si>
   <si>
+    <t>87.531.288</t>
+  </si>
+  <si>
     <t>MADROÑERO</t>
   </si>
   <si>
     <t>EDUARDO</t>
   </si>
   <si>
+    <t>98.146.700</t>
+  </si>
+  <si>
     <t>GUERRERO</t>
   </si>
   <si>
@@ -645,15 +831,24 @@
     <t>RENE</t>
   </si>
   <si>
+    <t>1.086.102.436</t>
+  </si>
+  <si>
     <t>VILLOTA</t>
   </si>
   <si>
     <t>MARIA JAMES</t>
   </si>
   <si>
+    <t>12.749.400</t>
+  </si>
+  <si>
     <t>PIANDA</t>
   </si>
   <si>
+    <t>5.207.345</t>
+  </si>
+  <si>
     <t>DAVILA</t>
   </si>
   <si>
@@ -663,6 +858,9 @@
     <t>JADER</t>
   </si>
   <si>
+    <t>10.693.672</t>
+  </si>
+  <si>
     <t>JUAJINOY</t>
   </si>
   <si>
@@ -672,18 +870,36 @@
     <t>EDGAR</t>
   </si>
   <si>
+    <t>12.991.433</t>
+  </si>
+  <si>
     <t>FELIX</t>
   </si>
   <si>
+    <t>98.387.613</t>
+  </si>
+  <si>
     <t>HUMBERTO</t>
   </si>
   <si>
+    <t>1.085.279.371</t>
+  </si>
+  <si>
+    <t>16.676.528</t>
+  </si>
+  <si>
     <t>TUMAL</t>
   </si>
   <si>
+    <t>1.085.244.678</t>
+  </si>
+  <si>
     <t>HERIBERTO</t>
   </si>
   <si>
+    <t>12.748.810</t>
+  </si>
+  <si>
     <t>CHAPAL</t>
   </si>
   <si>
@@ -693,48 +909,78 @@
     <t>DAVID</t>
   </si>
   <si>
+    <t>1.085.334.407</t>
+  </si>
+  <si>
     <t>VELASQUEZ</t>
   </si>
   <si>
     <t>HEIMAR</t>
   </si>
   <si>
+    <t>1.085.268.943</t>
+  </si>
+  <si>
     <t>REMIGIO</t>
   </si>
   <si>
+    <t>1.088.731.548</t>
+  </si>
+  <si>
     <t>TIMANA</t>
   </si>
   <si>
     <t>VEMTURA</t>
   </si>
   <si>
+    <t>12.999.405</t>
+  </si>
+  <si>
     <t>JOHN</t>
   </si>
   <si>
+    <t>1.085.266.371</t>
+  </si>
+  <si>
     <t>JHON</t>
   </si>
   <si>
     <t>FREDDY</t>
   </si>
   <si>
+    <t>1.085.281.503</t>
+  </si>
+  <si>
     <t>SUAREZ</t>
   </si>
   <si>
+    <t>98.386.128</t>
+  </si>
+  <si>
     <t>PEJENDINO</t>
   </si>
   <si>
     <t>DIEGO</t>
   </si>
   <si>
+    <t>1.085.268.485</t>
+  </si>
+  <si>
     <t>PEDRO</t>
   </si>
   <si>
     <t>ELIAS</t>
   </si>
   <si>
+    <t>1.082.630.599</t>
+  </si>
+  <si>
     <t>PABLO</t>
   </si>
   <si>
+    <t>12.750.310</t>
+  </si>
+  <si>
     <t>VALLEJOS</t>
   </si>
   <si>
@@ -744,6 +990,9 @@
     <t>EDILSON</t>
   </si>
   <si>
+    <t>12.749.982</t>
+  </si>
+  <si>
     <t>LEON</t>
   </si>
   <si>
@@ -753,9 +1002,18 @@
     <t>FRANCISCO</t>
   </si>
   <si>
+    <t>12.962.963</t>
+  </si>
+  <si>
+    <t>12.972.762</t>
+  </si>
+  <si>
     <t>ANIBAL</t>
   </si>
   <si>
+    <t>5.277.964</t>
+  </si>
+  <si>
     <t>LAGOS</t>
   </si>
   <si>
@@ -765,6 +1023,9 @@
     <t>EDILFONSO</t>
   </si>
   <si>
+    <t>1.085.272.447</t>
+  </si>
+  <si>
     <t>MALES</t>
   </si>
   <si>
@@ -774,30 +1035,45 @@
     <t>MIYE</t>
   </si>
   <si>
+    <t>1.085.300.661</t>
+  </si>
+  <si>
     <t>ESTRADA</t>
   </si>
   <si>
     <t>CARMEN</t>
   </si>
   <si>
+    <t>5.305.894</t>
+  </si>
+  <si>
     <t>MIGUEL</t>
   </si>
   <si>
     <t>EDISSON</t>
   </si>
   <si>
+    <t>1.083.752.690</t>
+  </si>
+  <si>
     <t>MORENO</t>
   </si>
   <si>
     <t>EDWIN</t>
   </si>
   <si>
+    <t>1.085.326.149</t>
+  </si>
+  <si>
     <t>CORAL</t>
   </si>
   <si>
     <t>REINA</t>
   </si>
   <si>
+    <t>98.386.742</t>
+  </si>
+  <si>
     <t>MIRAMAG</t>
   </si>
   <si>
@@ -807,27 +1083,51 @@
     <t>ALONSO</t>
   </si>
   <si>
+    <t>98.391.830</t>
+  </si>
+  <si>
+    <t>5.306.138</t>
+  </si>
+  <si>
     <t>TORO</t>
   </si>
   <si>
     <t>ACOSTA</t>
   </si>
   <si>
+    <t>1.085.927.918</t>
+  </si>
+  <si>
+    <t>87.062.593</t>
+  </si>
+  <si>
     <t>RIOBAMBA</t>
   </si>
   <si>
     <t>SERGIO</t>
   </si>
   <si>
+    <t>98.395.041</t>
+  </si>
+  <si>
+    <t>1.085.265.167</t>
+  </si>
+  <si>
     <t>MILTON</t>
   </si>
   <si>
+    <t>87.064.871</t>
+  </si>
+  <si>
     <t>ENRIQUEZ</t>
   </si>
   <si>
     <t>FAVIAN</t>
   </si>
   <si>
+    <t>87.061.048</t>
+  </si>
+  <si>
     <t>QUINTERO</t>
   </si>
   <si>
@@ -837,12 +1137,18 @@
     <t>CUPERTINO</t>
   </si>
   <si>
+    <t>79.991.446</t>
+  </si>
+  <si>
     <t>TULCAN</t>
   </si>
   <si>
     <t>RICARDO</t>
   </si>
   <si>
+    <t>98.355.389</t>
+  </si>
+  <si>
     <t>MAMIAN</t>
   </si>
   <si>
@@ -852,18 +1158,36 @@
     <t>ALVAN</t>
   </si>
   <si>
+    <t>76.345.101</t>
+  </si>
+  <si>
     <t>WILLIAM</t>
   </si>
   <si>
+    <t>1.086.224.075</t>
+  </si>
+  <si>
     <t>PEREGRINO</t>
   </si>
   <si>
+    <t>12.745.057</t>
+  </si>
+  <si>
     <t>CHAÑAG</t>
   </si>
   <si>
+    <t>5.354.229</t>
+  </si>
+  <si>
+    <t>98.384.627</t>
+  </si>
+  <si>
     <t>ARVEY</t>
   </si>
   <si>
+    <t>1.086.921.586</t>
+  </si>
+  <si>
     <t>PINTO</t>
   </si>
   <si>
@@ -873,57 +1197,102 @@
     <t>RAUL</t>
   </si>
   <si>
+    <t>98.195.309</t>
+  </si>
+  <si>
     <t>TUMBACO</t>
   </si>
   <si>
     <t>LAURENCIO</t>
   </si>
   <si>
+    <t>12.753.171</t>
+  </si>
+  <si>
     <t>ISAAC</t>
   </si>
   <si>
+    <t>98.380.091</t>
+  </si>
+  <si>
     <t>CHRISTIAN</t>
   </si>
   <si>
     <t>FABIAN</t>
   </si>
   <si>
+    <t>1.085.325.358</t>
+  </si>
+  <si>
+    <t>5.228.681</t>
+  </si>
+  <si>
+    <t>1.086.920.813</t>
+  </si>
+  <si>
     <t>MARTINEZ</t>
   </si>
   <si>
     <t>LEONIDAS</t>
   </si>
   <si>
+    <t>5.208.891</t>
+  </si>
+  <si>
+    <t>1.085.297.046</t>
+  </si>
+  <si>
     <t>PASUY</t>
   </si>
   <si>
     <t>MONTENEGRO</t>
   </si>
   <si>
+    <t>1.085.291.794</t>
+  </si>
+  <si>
     <t>VICTOR</t>
   </si>
   <si>
     <t>OVIDIO</t>
   </si>
   <si>
+    <t>1.085.262.703</t>
+  </si>
+  <si>
+    <t>1.085.256.722</t>
+  </si>
+  <si>
     <t>FIGUEROA</t>
   </si>
   <si>
     <t>ALEJANDRO</t>
   </si>
   <si>
+    <t>1.004.190.551</t>
+  </si>
+  <si>
     <t>NOGUERA</t>
   </si>
   <si>
     <t>ALPALA</t>
   </si>
   <si>
+    <t>1.085.244.601</t>
+  </si>
+  <si>
+    <t>12.748.831</t>
+  </si>
+  <si>
     <t>MASINSOY</t>
   </si>
   <si>
     <t>APARICIO</t>
   </si>
   <si>
+    <t>10.537.227</t>
+  </si>
+  <si>
     <t>LEGARDA</t>
   </si>
   <si>
@@ -933,27 +1302,48 @@
     <t>HUGO</t>
   </si>
   <si>
+    <t>5.277.930</t>
+  </si>
+  <si>
     <t>OBIEDO</t>
   </si>
   <si>
+    <t>12.989.424</t>
+  </si>
+  <si>
     <t>CAICEDO</t>
   </si>
   <si>
     <t>CAMPO</t>
   </si>
   <si>
+    <t>5.203.622</t>
+  </si>
+  <si>
     <t>FERNEY</t>
   </si>
   <si>
+    <t>12.747.384</t>
+  </si>
+  <si>
     <t>MONTERO</t>
   </si>
   <si>
     <t>MARIO</t>
   </si>
   <si>
+    <t>13.072.581</t>
+  </si>
+  <si>
     <t>GENRY</t>
   </si>
   <si>
+    <t>98.399.775</t>
+  </si>
+  <si>
+    <t>87.060.190</t>
+  </si>
+  <si>
     <t>TARRA</t>
   </si>
   <si>
@@ -963,6 +1353,9 @@
     <t>JHOVANI</t>
   </si>
   <si>
+    <t>1.003.044.416</t>
+  </si>
+  <si>
     <t>TUMBAQUI</t>
   </si>
   <si>
@@ -972,9 +1365,15 @@
     <t>ARTEMIO</t>
   </si>
   <si>
+    <t>12.964.866</t>
+  </si>
+  <si>
     <t>ARTEAGA</t>
   </si>
   <si>
+    <t>87.680.042</t>
+  </si>
+  <si>
     <t>BURGOS</t>
   </si>
   <si>
@@ -984,51 +1383,81 @@
     <t>ADALBERTO</t>
   </si>
   <si>
+    <t>87.717.878</t>
+  </si>
+  <si>
     <t>GENOY</t>
   </si>
   <si>
     <t>PACICHANA</t>
   </si>
   <si>
+    <t>12.993.605</t>
+  </si>
+  <si>
     <t>BASANTES</t>
   </si>
   <si>
     <t>OSVALDO</t>
   </si>
   <si>
+    <t>98.378.577</t>
+  </si>
+  <si>
     <t>GOYES</t>
   </si>
   <si>
     <t>GUEVARA</t>
   </si>
   <si>
+    <t>1.123.201.610</t>
+  </si>
+  <si>
     <t>CHAVES</t>
   </si>
   <si>
+    <t>87.472.939</t>
+  </si>
+  <si>
     <t>MIRAMA</t>
   </si>
   <si>
     <t>ISRRAEL</t>
   </si>
   <si>
+    <t>12.988.458</t>
+  </si>
+  <si>
     <t>VILLADA</t>
   </si>
   <si>
     <t>HERALDO</t>
   </si>
   <si>
+    <t>12.989.522</t>
+  </si>
+  <si>
     <t>HENRY</t>
   </si>
   <si>
     <t>RAMIRO</t>
   </si>
   <si>
+    <t>98.196.280</t>
+  </si>
+  <si>
     <t>BAIRON</t>
   </si>
   <si>
+    <t>1.086.360.884</t>
+  </si>
+  <si>
     <t>LEYTON</t>
   </si>
   <si>
+    <t>87.070.102</t>
+  </si>
+  <si>
     <t>CASANOVA</t>
   </si>
   <si>
@@ -1038,42 +1467,69 @@
     <t>YOVANY</t>
   </si>
   <si>
+    <t>1.087.417.275</t>
+  </si>
+  <si>
     <t>ORDOÑEZ</t>
   </si>
   <si>
     <t>ESTEBAN</t>
   </si>
   <si>
+    <t>1.085.322.799</t>
+  </si>
+  <si>
+    <t>87.218.795</t>
+  </si>
+  <si>
     <t>QUENGUAN</t>
   </si>
   <si>
     <t>ARBEY</t>
   </si>
   <si>
+    <t>1.085.304.622</t>
+  </si>
+  <si>
     <t>TORRES</t>
   </si>
   <si>
     <t>ANTE</t>
   </si>
   <si>
+    <t>12.981.551</t>
+  </si>
+  <si>
     <t>VIVEROS</t>
   </si>
   <si>
+    <t>1.010.099.298</t>
+  </si>
+  <si>
     <t>JULIO</t>
   </si>
   <si>
     <t>CESAR</t>
   </si>
   <si>
+    <t>13.070.573</t>
+  </si>
+  <si>
     <t>BRAVO</t>
   </si>
   <si>
     <t>ULPIANO</t>
   </si>
   <si>
+    <t>1.085.315.910</t>
+  </si>
+  <si>
     <t>IMBAJOA</t>
   </si>
   <si>
+    <t>1.086.223.845</t>
+  </si>
+  <si>
     <t>HERNANDES</t>
   </si>
   <si>
@@ -1083,16 +1539,28 @@
     <t>NORALDO</t>
   </si>
   <si>
+    <t>1.085.307.397</t>
+  </si>
+  <si>
     <t>EDISON</t>
   </si>
   <si>
     <t>YAMITH</t>
   </si>
   <si>
+    <t>1.085.258.595</t>
+  </si>
+  <si>
+    <t>1.085.308.395</t>
+  </si>
+  <si>
     <t>HAROLD</t>
   </si>
   <si>
     <t>HERNESTO</t>
+  </si>
+  <si>
+    <t>1.085.335.394</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1844,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
@@ -1612,7 +2080,13 @@
         <v>39</v>
       </c>
       <c r="G9" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c9,d9,e9,f9)</f>
+      </c>
+      <c r="H9" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="I9" t="n" s="10">
+        <v>2.4040875765E10</v>
       </c>
     </row>
     <row r="10">
@@ -1623,19 +2097,25 @@
         <v>-1.0</v>
       </c>
       <c r="C10" t="s" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s" s="10">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G10" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c10,d10,e10,f10)</f>
+      </c>
+      <c r="H10" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="I10" t="n" s="10">
+        <v>2.404102177E10</v>
       </c>
     </row>
     <row r="11">
@@ -1646,19 +2126,25 @@
         <v>49.0</v>
       </c>
       <c r="C11" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s" s="10">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s" s="10">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s" s="10">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G11" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c11,d11,e11,f11)</f>
+      </c>
+      <c r="H11" t="s" s="10">
+        <v>50</v>
+      </c>
+      <c r="I11" t="n" s="10">
+        <v>2.4040874104E10</v>
       </c>
     </row>
     <row r="12">
@@ -1669,19 +2155,25 @@
         <v>230.0</v>
       </c>
       <c r="C12" t="s" s="10">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G12" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c12,d12,e12,f12)</f>
+      </c>
+      <c r="H12" t="s" s="10">
+        <v>55</v>
+      </c>
+      <c r="I12" t="n" s="10">
+        <v>2.4040879938E10</v>
       </c>
     </row>
     <row r="13">
@@ -1692,19 +2184,25 @@
         <v>625.0</v>
       </c>
       <c r="C13" t="s" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G13" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c13,d13,e13,f13)</f>
+      </c>
+      <c r="H13" t="s" s="10">
+        <v>60</v>
+      </c>
+      <c r="I13" t="n" s="10">
+        <v>2.4041419106E10</v>
       </c>
     </row>
     <row r="14">
@@ -1715,19 +2213,25 @@
         <v>773.0</v>
       </c>
       <c r="C14" t="s" s="10">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s" s="10">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s" s="10">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s" s="10">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G14" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c14,d14,e14,f14)</f>
+      </c>
+      <c r="H14" t="s" s="10">
+        <v>65</v>
+      </c>
+      <c r="I14" t="n" s="10">
+        <v>2.4041417287E10</v>
       </c>
     </row>
     <row r="15">
@@ -1738,19 +2242,25 @@
         <v>784.0</v>
       </c>
       <c r="C15" t="s" s="10">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s" s="10">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F15" t="s" s="10">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G15" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c15,d15,e15,f15)</f>
+      </c>
+      <c r="H15" t="s" s="10">
+        <v>69</v>
+      </c>
+      <c r="I15" t="n" s="10">
+        <v>2.4050679421E10</v>
       </c>
     </row>
     <row r="16">
@@ -1761,19 +2271,25 @@
         <v>319.0</v>
       </c>
       <c r="C16" t="s" s="7">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s" s="7">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s" s="7">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G16" s="7">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c16,d16,e16,f16)</f>
+      </c>
+      <c r="H16" t="s" s="7">
+        <v>73</v>
+      </c>
+      <c r="I16" t="n" s="10">
+        <v>2.4040877747E10</v>
       </c>
     </row>
     <row r="17">
@@ -1784,19 +2300,25 @@
         <v>119.0</v>
       </c>
       <c r="C17" t="s" s="10">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s" s="10">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s" s="10">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s" s="10">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G17" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c17,d17,e17,f17)</f>
+      </c>
+      <c r="H17" t="s" s="10">
+        <v>78</v>
+      </c>
+      <c r="I17" t="n" s="10">
+        <v>2.4040993339E10</v>
       </c>
     </row>
     <row r="18">
@@ -1807,19 +2329,25 @@
         <v>142.0</v>
       </c>
       <c r="C18" t="s" s="10">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s" s="10">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s" s="10">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s" s="10">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G18" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c18,d18,e18,f18)</f>
+      </c>
+      <c r="H18" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="I18" t="n" s="10">
+        <v>2.4041276873E10</v>
       </c>
     </row>
     <row r="19">
@@ -1830,19 +2358,25 @@
         <v>180.0</v>
       </c>
       <c r="C19" t="s" s="10">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s" s="10">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E19" t="s" s="10">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s" s="10">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G19" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c19,d19,e19,f19)</f>
+      </c>
+      <c r="H19" t="s" s="10">
+        <v>86</v>
+      </c>
+      <c r="I19" t="n" s="10">
+        <v>2.4041025525E10</v>
       </c>
     </row>
     <row r="20">
@@ -1853,19 +2387,25 @@
         <v>320.0</v>
       </c>
       <c r="C20" t="s" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s" s="10">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s" s="10">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F20" t="s" s="10">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G20" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c20,d20,e20,f20)</f>
+      </c>
+      <c r="H20" t="s" s="10">
+        <v>89</v>
+      </c>
+      <c r="I20" t="n" s="10">
+        <v>2.4041276431E10</v>
       </c>
     </row>
     <row r="21">
@@ -1876,19 +2416,25 @@
         <v>321.0</v>
       </c>
       <c r="C21" t="s" s="10">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s" s="10">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="E21" t="s" s="10">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F21" t="s" s="10">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G21" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c21,d21,e21,f21)</f>
+      </c>
+      <c r="H21" t="s" s="10">
+        <v>92</v>
+      </c>
+      <c r="I21" t="n" s="10">
+        <v>2.4040934284E10</v>
       </c>
     </row>
     <row r="22">
@@ -1899,19 +2445,25 @@
         <v>362.0</v>
       </c>
       <c r="C22" t="s" s="10">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s" s="10">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="F22" t="s" s="10">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G22" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c22,d22,e22,f22)</f>
+      </c>
+      <c r="H22" t="s" s="10">
+        <v>95</v>
+      </c>
+      <c r="I22" t="n" s="10">
+        <v>2.4041023101E10</v>
       </c>
     </row>
     <row r="23">
@@ -1922,19 +2474,25 @@
         <v>527.0</v>
       </c>
       <c r="C23" t="s" s="10">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s" s="10">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E23" t="s" s="10">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="F23" t="s" s="10">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G23" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c23,d23,e23,f23)</f>
+      </c>
+      <c r="H23" t="s" s="10">
+        <v>97</v>
+      </c>
+      <c r="I23" t="n" s="10">
+        <v>2.4042048949E10</v>
       </c>
     </row>
     <row r="24">
@@ -1945,19 +2503,25 @@
         <v>551.0</v>
       </c>
       <c r="C24" t="s" s="10">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D24" t="s" s="10">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s" s="10">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F24" t="s" s="10">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="G24" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c24,d24,e24,f24)</f>
+      </c>
+      <c r="H24" t="s" s="10">
+        <v>101</v>
+      </c>
+      <c r="I24" t="n" s="10">
+        <v>2.4042198868E10</v>
       </c>
     </row>
     <row r="25">
@@ -1968,19 +2532,25 @@
         <v>862.0</v>
       </c>
       <c r="C25" t="s" s="10">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s" s="10">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s" s="10">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="F25" t="s" s="10">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="G25" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c25,d25,e25,f25)</f>
+      </c>
+      <c r="H25" t="s" s="10">
+        <v>106</v>
+      </c>
+      <c r="I25" t="n" s="10">
+        <v>2.4053669562E10</v>
       </c>
     </row>
     <row r="26">
@@ -1991,19 +2561,25 @@
         <v>921.0</v>
       </c>
       <c r="C26" t="s" s="10">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="D26" t="s" s="10">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="E26" t="s" s="10">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="F26" t="s" s="10">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="G26" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c26,d26,e26,f26)</f>
+      </c>
+      <c r="H26" t="s" s="10">
+        <v>111</v>
+      </c>
+      <c r="I26" t="n" s="10">
+        <v>2.4054491483E10</v>
       </c>
     </row>
     <row r="27">
@@ -2014,19 +2590,25 @@
         <v>922.0</v>
       </c>
       <c r="C27" t="s" s="10">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D27" t="s" s="10">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E27" t="s" s="10">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="F27" t="s" s="10">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="G27" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c27,d27,e27,f27)</f>
+      </c>
+      <c r="H27" t="s" s="10">
+        <v>115</v>
+      </c>
+      <c r="I27" t="n" s="10">
+        <v>2.4054489428E10</v>
       </c>
     </row>
     <row r="28">
@@ -2037,19 +2619,25 @@
         <v>-3.0</v>
       </c>
       <c r="C28" t="s" s="7">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="D28" t="s" s="7">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E28" t="s" s="7">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="F28" t="s" s="7">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G28" s="7">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c28,d28,e28,f28)</f>
+      </c>
+      <c r="H28" t="s" s="7">
+        <v>118</v>
+      </c>
+      <c r="I28" t="n" s="10">
+        <v>2.4042181512E10</v>
       </c>
     </row>
     <row r="29">
@@ -2060,19 +2648,25 @@
         <v>8.0</v>
       </c>
       <c r="C29" t="s" s="10">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="D29" t="s" s="10">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E29" t="s" s="10">
         <v>38</v>
       </c>
       <c r="F29" t="s" s="10">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="G29" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c29,d29,e29,f29)</f>
+      </c>
+      <c r="H29" t="s" s="10">
+        <v>122</v>
+      </c>
+      <c r="I29" t="n" s="10">
+        <v>2.404102362E10</v>
       </c>
     </row>
     <row r="30">
@@ -2083,19 +2677,25 @@
         <v>23.0</v>
       </c>
       <c r="C30" t="s" s="10">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="D30" t="s" s="10">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E30" t="s" s="10">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="F30" t="s" s="10">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="G30" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c30,d30,e30,f30)</f>
+      </c>
+      <c r="H30" t="s" s="10">
+        <v>126</v>
+      </c>
+      <c r="I30" t="n" s="10">
+        <v>2.404102278E10</v>
       </c>
     </row>
     <row r="31">
@@ -2106,19 +2706,25 @@
         <v>92.0</v>
       </c>
       <c r="C31" t="s" s="10">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="D31" t="s" s="10">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="E31" t="s" s="10">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="F31" t="s" s="10">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="G31" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c31,d31,e31,f31)</f>
+      </c>
+      <c r="H31" t="s" s="10">
+        <v>130</v>
+      </c>
+      <c r="I31" t="n" s="10">
+        <v>2.4041023954E10</v>
       </c>
     </row>
     <row r="32">
@@ -2129,19 +2735,25 @@
         <v>100.0</v>
       </c>
       <c r="C32" t="s" s="10">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D32" t="s" s="10">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s" s="10">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="F32" t="s" s="10">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="G32" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c32,d32,e32,f32)</f>
+      </c>
+      <c r="H32" t="s" s="10">
+        <v>134</v>
+      </c>
+      <c r="I32" t="n" s="10">
+        <v>2.4041416734E10</v>
       </c>
     </row>
     <row r="33">
@@ -2152,19 +2764,25 @@
         <v>127.0</v>
       </c>
       <c r="C33" t="s" s="10">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="D33" t="s" s="10">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="E33" t="s" s="10">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="F33" t="s" s="10">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="G33" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c33,d33,e33,f33)</f>
+      </c>
+      <c r="H33" t="s" s="10">
+        <v>138</v>
+      </c>
+      <c r="I33" t="n" s="10">
+        <v>2.404087812E10</v>
       </c>
     </row>
     <row r="34">
@@ -2175,19 +2793,25 @@
         <v>147.0</v>
       </c>
       <c r="C34" t="s" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D34" t="s" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E34" t="s" s="10">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="F34" t="s" s="10">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="G34" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c34,d34,e34,f34)</f>
+      </c>
+      <c r="H34" t="s" s="10">
+        <v>140</v>
+      </c>
+      <c r="I34" t="n" s="10">
+        <v>2.4040993764E10</v>
       </c>
     </row>
     <row r="35">
@@ -2198,19 +2822,25 @@
         <v>178.0</v>
       </c>
       <c r="C35" t="s" s="10">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="D35" t="s" s="10">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="E35" t="s" s="10">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="F35" t="s" s="10">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="G35" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c35,d35,e35,f35)</f>
+      </c>
+      <c r="H35" t="s" s="10">
+        <v>145</v>
+      </c>
+      <c r="I35" t="n" s="10">
+        <v>2.404087519E10</v>
       </c>
     </row>
     <row r="36">
@@ -2221,19 +2851,25 @@
         <v>206.0</v>
       </c>
       <c r="C36" t="s" s="10">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D36" t="s" s="10">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E36" t="s" s="10">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="F36" t="s" s="10">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="G36" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c36,d36,e36,f36)</f>
+      </c>
+      <c r="H36" t="s" s="10">
+        <v>149</v>
+      </c>
+      <c r="I36" t="n" s="10">
+        <v>2.4040875215E10</v>
       </c>
     </row>
     <row r="37">
@@ -2244,19 +2880,25 @@
         <v>212.0</v>
       </c>
       <c r="C37" t="s" s="10">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="D37" t="s" s="10">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="E37" t="s" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F37" t="s" s="10">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="G37" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c37,d37,e37,f37)</f>
+      </c>
+      <c r="H37" t="s" s="10">
+        <v>153</v>
+      </c>
+      <c r="I37" t="n" s="10">
+        <v>2.4040877071E10</v>
       </c>
     </row>
     <row r="38">
@@ -2267,19 +2909,25 @@
         <v>249.0</v>
       </c>
       <c r="C38" t="s" s="10">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="D38" t="s" s="10">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="E38" t="s" s="10">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="F38" t="s" s="10">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="G38" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c38,d38,e38,f38)</f>
+      </c>
+      <c r="H38" t="s" s="10">
+        <v>157</v>
+      </c>
+      <c r="I38" t="n" s="10">
+        <v>2.4040875811E10</v>
       </c>
     </row>
     <row r="39">
@@ -2290,19 +2938,25 @@
         <v>252.0</v>
       </c>
       <c r="C39" t="s" s="10">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="D39" t="s" s="10">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="E39" t="s" s="10">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="F39" t="s" s="10">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="G39" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c39,d39,e39,f39)</f>
+      </c>
+      <c r="H39" t="s" s="10">
+        <v>162</v>
+      </c>
+      <c r="I39" t="n" s="10">
+        <v>2.4041024351E10</v>
       </c>
     </row>
     <row r="40">
@@ -2313,19 +2967,25 @@
         <v>256.0</v>
       </c>
       <c r="C40" t="s" s="10">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="D40" t="s" s="10">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="E40" t="s" s="10">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="F40" t="s" s="10">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="G40" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c40,d40,e40,f40)</f>
+      </c>
+      <c r="H40" t="s" s="10">
+        <v>167</v>
+      </c>
+      <c r="I40" t="n" s="10">
+        <v>2.4041024104E10</v>
       </c>
     </row>
     <row r="41">
@@ -2336,19 +2996,25 @@
         <v>375.0</v>
       </c>
       <c r="C41" t="s" s="10">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="D41" t="s" s="10">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E41" t="s" s="10">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="F41" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G41" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c41,d41,e41,f41)</f>
+      </c>
+      <c r="H41" t="s" s="10">
+        <v>170</v>
+      </c>
+      <c r="I41" t="n" s="10">
+        <v>2.4040935674E10</v>
       </c>
     </row>
     <row r="42">
@@ -2359,19 +3025,25 @@
         <v>402.0</v>
       </c>
       <c r="C42" t="s" s="10">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D42" t="s" s="10">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="E42" t="s" s="10">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="F42" t="s" s="10">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="G42" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c42,d42,e42,f42)</f>
+      </c>
+      <c r="H42" t="s" s="10">
+        <v>172</v>
+      </c>
+      <c r="I42" t="n" s="10">
+        <v>2.4040884839E10</v>
       </c>
     </row>
     <row r="43">
@@ -2382,19 +3054,25 @@
         <v>403.0</v>
       </c>
       <c r="C43" t="s" s="10">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="D43" t="s" s="10">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E43" t="s" s="10">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="F43" t="s" s="10">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="G43" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c43,d43,e43,f43)</f>
+      </c>
+      <c r="H43" t="s" s="10">
+        <v>175</v>
+      </c>
+      <c r="I43" t="n" s="10">
+        <v>2.4040874375E10</v>
       </c>
     </row>
     <row r="44">
@@ -2405,19 +3083,25 @@
         <v>411.0</v>
       </c>
       <c r="C44" t="s" s="10">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="D44" t="s" s="10">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="E44" t="s" s="10">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s" s="10">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="G44" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c44,d44,e44,f44)</f>
+      </c>
+      <c r="H44" t="s" s="10">
+        <v>178</v>
+      </c>
+      <c r="I44" t="n" s="10">
+        <v>2.404093596E10</v>
       </c>
     </row>
     <row r="45">
@@ -2428,19 +3112,25 @@
         <v>639.0</v>
       </c>
       <c r="C45" t="s" s="10">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="D45" t="s" s="10">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="E45" t="s" s="10">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="F45" t="s" s="10">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="G45" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c45,d45,e45,f45)</f>
+      </c>
+      <c r="H45" t="s" s="10">
+        <v>182</v>
+      </c>
+      <c r="I45" t="n" s="10">
+        <v>2.404448862E10</v>
       </c>
     </row>
     <row r="46">
@@ -2451,19 +3141,25 @@
         <v>704.0</v>
       </c>
       <c r="C46" t="s" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D46" t="s" s="10">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="E46" t="s" s="10">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="F46" t="s" s="10">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G46" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c46,d46,e46,f46)</f>
+      </c>
+      <c r="H46" t="s" s="10">
+        <v>184</v>
+      </c>
+      <c r="I46" t="n" s="10">
+        <v>2.404551069E10</v>
       </c>
     </row>
     <row r="47">
@@ -2474,19 +3170,25 @@
         <v>737.0</v>
       </c>
       <c r="C47" t="s" s="10">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="D47" t="s" s="10">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E47" t="s" s="10">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="F47" t="s" s="10">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="G47" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c47,d47,e47,f47)</f>
+      </c>
+      <c r="H47" t="s" s="10">
+        <v>188</v>
+      </c>
+      <c r="I47" t="n" s="10">
+        <v>2.4046162342E10</v>
       </c>
     </row>
     <row r="48">
@@ -2497,19 +3199,25 @@
         <v>738.0</v>
       </c>
       <c r="C48" t="s" s="10">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="D48" t="s" s="10">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E48" t="s" s="10">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="F48" t="s" s="10">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="G48" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c48,d48,e48,f48)</f>
+      </c>
+      <c r="H48" t="s" s="10">
+        <v>191</v>
+      </c>
+      <c r="I48" t="n" s="10">
+        <v>2.4046415938E10</v>
       </c>
     </row>
     <row r="49">
@@ -2520,19 +3228,25 @@
         <v>807.0</v>
       </c>
       <c r="C49" t="s" s="10">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="D49" t="s" s="10">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="E49" t="s" s="10">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="F49" t="s" s="10">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="G49" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c49,d49,e49,f49)</f>
+      </c>
+      <c r="H49" t="s" s="10">
+        <v>196</v>
+      </c>
+      <c r="I49" t="n" s="10">
+        <v>2.4051432896E10</v>
       </c>
     </row>
     <row r="50">
@@ -2543,19 +3257,25 @@
         <v>887.0</v>
       </c>
       <c r="C50" t="s" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D50" t="s" s="10">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="E50" t="s" s="10">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="F50" t="s" s="10">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="G50" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c50,d50,e50,f50)</f>
+      </c>
+      <c r="H50" t="s" s="10">
+        <v>199</v>
+      </c>
+      <c r="I50" t="n" s="10">
+        <v>2.4054095171E10</v>
       </c>
     </row>
     <row r="51">
@@ -2566,19 +3286,25 @@
         <v>928.0</v>
       </c>
       <c r="C51" t="s" s="10">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D51" t="s" s="10">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="E51" t="s" s="10">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="F51" t="s" s="10">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="G51" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c51,d51,e51,f51)</f>
+      </c>
+      <c r="H51" t="s" s="10">
+        <v>202</v>
+      </c>
+      <c r="I51" t="n" s="10">
+        <v>2.4040877468E10</v>
       </c>
     </row>
     <row r="52">
@@ -2589,19 +3315,25 @@
         <v>978.0</v>
       </c>
       <c r="C52" t="s" s="10">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="D52" t="s" s="10">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E52" t="s" s="10">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="F52" t="s" s="10">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="G52" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c52,d52,e52,f52)</f>
+      </c>
+      <c r="H52" t="s" s="10">
+        <v>205</v>
+      </c>
+      <c r="I52" t="n" s="10">
+        <v>2.4041021648E10</v>
       </c>
     </row>
     <row r="53">
@@ -2612,19 +3344,25 @@
         <v>1028.0</v>
       </c>
       <c r="C53" t="s" s="10">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="D53" t="s" s="10">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E53" t="s" s="10">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="F53" t="s" s="10">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="G53" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c53,d53,e53,f53)</f>
+      </c>
+      <c r="H53" t="s" s="10">
+        <v>209</v>
+      </c>
+      <c r="I53" t="n" s="10">
+        <v>2.4056106293E10</v>
       </c>
     </row>
     <row r="54">
@@ -2635,19 +3373,25 @@
         <v>1044.0</v>
       </c>
       <c r="C54" t="s" s="10">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="D54" t="s" s="10">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="E54" t="s" s="10">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="F54" t="s" s="10">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G54" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c54,d54,e54,f54)</f>
+      </c>
+      <c r="H54" t="s" s="10">
+        <v>213</v>
+      </c>
+      <c r="I54" t="n" s="10">
+        <v>2.4056114434E10</v>
       </c>
     </row>
     <row r="55">
@@ -2658,19 +3402,25 @@
         <v>1046.0</v>
       </c>
       <c r="C55" t="s" s="10">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="D55" t="s" s="10">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="E55" t="s" s="10">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="F55" t="s" s="10">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="G55" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c55,d55,e55,f55)</f>
+      </c>
+      <c r="H55" t="s" s="10">
+        <v>217</v>
+      </c>
+      <c r="I55" t="n" s="10">
+        <v>2.405611458E10</v>
       </c>
     </row>
     <row r="56">
@@ -2681,19 +3431,25 @@
         <v>1106.0</v>
       </c>
       <c r="C56" t="s" s="10">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D56" t="s" s="10">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c r="E56" t="s" s="10">
-        <v>172</v>
+        <v>219</v>
       </c>
       <c r="F56" t="s" s="10">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="G56" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c56,d56,e56,f56)</f>
+      </c>
+      <c r="H56" t="s" s="10">
+        <v>221</v>
+      </c>
+      <c r="I56" t="n" s="10">
+        <v>2.4057413329E10</v>
       </c>
     </row>
     <row r="57">
@@ -2704,19 +3460,25 @@
         <v>1108.0</v>
       </c>
       <c r="C57" t="s" s="10">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="D57" t="s" s="10">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="E57" t="s" s="10">
-        <v>175</v>
+        <v>223</v>
       </c>
       <c r="F57" t="s" s="10">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="G57" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c57,d57,e57,f57)</f>
+      </c>
+      <c r="H57" t="s" s="10">
+        <v>225</v>
+      </c>
+      <c r="I57" t="n" s="10">
+        <v>2.4057558006E10</v>
       </c>
     </row>
     <row r="58">
@@ -2727,19 +3489,25 @@
         <v>221.0</v>
       </c>
       <c r="C58" t="s" s="7">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="D58" t="s" s="7">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E58" t="s" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s" s="7">
-        <v>178</v>
+        <v>227</v>
       </c>
       <c r="G58" s="7">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c58,d58,e58,f58)</f>
+      </c>
+      <c r="H58" t="s" s="7">
+        <v>228</v>
+      </c>
+      <c r="I58" t="n" s="10">
+        <v>2.4040980566E10</v>
       </c>
     </row>
     <row r="59">
@@ -2750,19 +3518,25 @@
         <v>484.0</v>
       </c>
       <c r="C59" t="s" s="10">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="D59" t="s" s="10">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="E59" t="s" s="10">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F59" t="s" s="10">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G59" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c59,d59,e59,f59)</f>
+      </c>
+      <c r="H59" t="s" s="10">
+        <v>230</v>
+      </c>
+      <c r="I59" t="n" s="10">
+        <v>2.404147226E10</v>
       </c>
     </row>
     <row r="60">
@@ -2773,19 +3547,25 @@
         <v>768.0</v>
       </c>
       <c r="C60" t="s" s="10">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D60" t="s" s="10">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E60" t="s" s="10">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="F60" t="s" s="10">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="G60" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c60,d60,e60,f60)</f>
+      </c>
+      <c r="H60" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="I60" t="n" s="10">
+        <v>2.4048444831E10</v>
       </c>
     </row>
     <row r="61">
@@ -2796,19 +3576,25 @@
         <v>798.0</v>
       </c>
       <c r="C61" t="s" s="10">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="D61" t="s" s="10">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="E61" t="s" s="10">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="F61" t="s" s="10">
-        <v>183</v>
+        <v>235</v>
       </c>
       <c r="G61" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c61,d61,e61,f61)</f>
+      </c>
+      <c r="H61" t="s" s="10">
+        <v>236</v>
+      </c>
+      <c r="I61" t="n" s="10">
+        <v>2.4051430566E10</v>
       </c>
     </row>
     <row r="62">
@@ -2819,19 +3605,25 @@
         <v>826.0</v>
       </c>
       <c r="C62" t="s" s="10">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="D62" t="s" s="10">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="E62" t="s" s="10">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="F62" t="s" s="10">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c r="G62" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c62,d62,e62,f62)</f>
+      </c>
+      <c r="H62" t="s" s="10">
+        <v>239</v>
+      </c>
+      <c r="I62" t="n" s="10">
+        <v>2.4046973465E10</v>
       </c>
     </row>
     <row r="63">
@@ -2842,19 +3634,25 @@
         <v>832.0</v>
       </c>
       <c r="C63" t="s" s="10">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="D63" t="s" s="10">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E63" t="s" s="10">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="F63" t="s" s="10">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="G63" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c63,d63,e63,f63)</f>
+      </c>
+      <c r="H63" t="s" s="10">
+        <v>243</v>
+      </c>
+      <c r="I63" t="n" s="10">
+        <v>2.4053029892E10</v>
       </c>
     </row>
     <row r="64">
@@ -2865,19 +3663,25 @@
         <v>834.0</v>
       </c>
       <c r="C64" t="s" s="10">
-        <v>189</v>
+        <v>244</v>
       </c>
       <c r="D64" t="s" s="10">
-        <v>190</v>
+        <v>245</v>
       </c>
       <c r="E64" t="s" s="10">
-        <v>191</v>
+        <v>246</v>
       </c>
       <c r="F64" t="s" s="10">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c r="G64" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c64,d64,e64,f64)</f>
+      </c>
+      <c r="H64" t="s" s="10">
+        <v>248</v>
+      </c>
+      <c r="I64" t="n" s="10">
+        <v>2.4053031097E10</v>
       </c>
     </row>
     <row r="65">
@@ -2888,19 +3692,25 @@
         <v>837.0</v>
       </c>
       <c r="C65" t="s" s="10">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="D65" t="s" s="10">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="E65" t="s" s="10">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F65" t="s" s="10">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="G65" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c65,d65,e65,f65)</f>
+      </c>
+      <c r="H65" t="s" s="10">
+        <v>250</v>
+      </c>
+      <c r="I65" t="n" s="10">
+        <v>2.4042062301E10</v>
       </c>
     </row>
     <row r="66">
@@ -2911,19 +3721,25 @@
         <v>851.0</v>
       </c>
       <c r="C66" t="s" s="10">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="D66" t="s" s="10">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E66" t="s" s="10">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="F66" t="s" s="10">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G66" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c66,d66,e66,f66)</f>
+      </c>
+      <c r="H66" t="s" s="10">
+        <v>252</v>
+      </c>
+      <c r="I66" t="n" s="10">
+        <v>2.4053221605E10</v>
       </c>
     </row>
     <row r="67">
@@ -2934,19 +3750,25 @@
         <v>855.0</v>
       </c>
       <c r="C67" t="s" s="10">
-        <v>195</v>
+        <v>253</v>
       </c>
       <c r="D67" t="s" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E67" t="s" s="10">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="F67" t="s" s="10">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="G67" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c67,d67,e67,f67)</f>
+      </c>
+      <c r="H67" t="s" s="10">
+        <v>255</v>
+      </c>
+      <c r="I67" t="n" s="10">
+        <v>2.405358386E10</v>
       </c>
     </row>
     <row r="68">
@@ -2957,19 +3779,25 @@
         <v>861.0</v>
       </c>
       <c r="C68" t="s" s="10">
-        <v>197</v>
+        <v>256</v>
       </c>
       <c r="D68" t="s" s="10">
-        <v>198</v>
+        <v>257</v>
       </c>
       <c r="E68" t="s" s="10">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="F68" t="s" s="10">
-        <v>199</v>
+        <v>258</v>
       </c>
       <c r="G68" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c68,d68,e68,f68)</f>
+      </c>
+      <c r="H68" t="s" s="10">
+        <v>259</v>
+      </c>
+      <c r="I68" t="n" s="10">
+        <v>2.4053670384E10</v>
       </c>
     </row>
     <row r="69">
@@ -2980,19 +3808,25 @@
         <v>938.0</v>
       </c>
       <c r="C69" t="s" s="10">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="D69" t="s" s="10">
-        <v>201</v>
+        <v>261</v>
       </c>
       <c r="E69" t="s" s="10">
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="F69" t="s" s="10">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="G69" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c69,d69,e69,f69)</f>
+      </c>
+      <c r="H69" t="s" s="10">
+        <v>264</v>
+      </c>
+      <c r="I69" t="n" s="10">
+        <v>2.4054779741E10</v>
       </c>
     </row>
     <row r="70">
@@ -3003,19 +3837,25 @@
         <v>975.0</v>
       </c>
       <c r="C70" t="s" s="10">
-        <v>204</v>
+        <v>265</v>
       </c>
       <c r="D70" t="s" s="10">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E70" t="s" s="10">
-        <v>205</v>
+        <v>266</v>
       </c>
       <c r="F70" t="s" s="10">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G70" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c70,d70,e70,f70)</f>
+      </c>
+      <c r="H70" t="s" s="10">
+        <v>267</v>
+      </c>
+      <c r="I70" t="n" s="10">
+        <v>2.4052657078E10</v>
       </c>
     </row>
     <row r="71">
@@ -3026,19 +3866,25 @@
         <v>979.0</v>
       </c>
       <c r="C71" t="s" s="10">
-        <v>206</v>
+        <v>268</v>
       </c>
       <c r="D71" t="s" s="10">
-        <v>207</v>
+        <v>269</v>
       </c>
       <c r="E71" t="s" s="10">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="F71" t="s" s="10">
-        <v>209</v>
+        <v>271</v>
       </c>
       <c r="G71" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c71,d71,e71,f71)</f>
+      </c>
+      <c r="H71" t="s" s="10">
+        <v>272</v>
+      </c>
+      <c r="I71" t="n" s="10">
+        <v>2.4055405207E10</v>
       </c>
     </row>
     <row r="72">
@@ -3049,19 +3895,25 @@
         <v>1073.0</v>
       </c>
       <c r="C72" t="s" s="10">
-        <v>210</v>
+        <v>273</v>
       </c>
       <c r="D72" t="s" s="10">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="E72" t="s" s="10">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F72" t="s" s="10">
-        <v>211</v>
+        <v>274</v>
       </c>
       <c r="G72" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c72,d72,e72,f72)</f>
+      </c>
+      <c r="H72" t="s" s="10">
+        <v>275</v>
+      </c>
+      <c r="I72" t="n" s="10">
+        <v>2.4052656277E10</v>
       </c>
     </row>
     <row r="73">
@@ -3072,19 +3924,25 @@
         <v>-4.0</v>
       </c>
       <c r="C73" t="s" s="7">
-        <v>212</v>
+        <v>276</v>
       </c>
       <c r="D73" t="s" s="7">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E73" t="s" s="7">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="F73" t="s" s="7">
-        <v>191</v>
+        <v>246</v>
       </c>
       <c r="G73" s="7">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c73,d73,e73,f73)</f>
+      </c>
+      <c r="H73" t="s" s="7">
+        <v>277</v>
+      </c>
+      <c r="I73" t="n" s="10">
+        <v>2.4040877482E10</v>
       </c>
     </row>
     <row r="74">
@@ -3095,19 +3953,25 @@
         <v>22.0</v>
       </c>
       <c r="C74" t="s" s="10">
-        <v>213</v>
+        <v>278</v>
       </c>
       <c r="D74" t="s" s="10">
-        <v>214</v>
+        <v>279</v>
       </c>
       <c r="E74" t="s" s="10">
-        <v>215</v>
+        <v>280</v>
       </c>
       <c r="F74" t="s" s="10">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G74" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c74,d74,e74,f74)</f>
+      </c>
+      <c r="H74" t="s" s="10">
+        <v>281</v>
+      </c>
+      <c r="I74" t="n" s="10">
+        <v>2.4041023916E10</v>
       </c>
     </row>
     <row r="75">
@@ -3118,19 +3982,25 @@
         <v>46.0</v>
       </c>
       <c r="C75" t="s" s="10">
-        <v>216</v>
+        <v>282</v>
       </c>
       <c r="D75" t="s" s="10">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="E75" t="s" s="10">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="F75" t="s" s="10">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="G75" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c75,d75,e75,f75)</f>
+      </c>
+      <c r="H75" t="s" s="10">
+        <v>285</v>
+      </c>
+      <c r="I75" t="n" s="10">
+        <v>2.4041024988E10</v>
       </c>
     </row>
     <row r="76">
@@ -3141,19 +4011,25 @@
         <v>148.0</v>
       </c>
       <c r="C76" t="s" s="10">
-        <v>212</v>
+        <v>276</v>
       </c>
       <c r="D76" t="s" s="10">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E76" t="s" s="10">
-        <v>219</v>
+        <v>286</v>
       </c>
       <c r="F76" t="s" s="10">
         <v>39</v>
       </c>
       <c r="G76" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c76,d76,e76,f76)</f>
+      </c>
+      <c r="H76" t="s" s="10">
+        <v>287</v>
+      </c>
+      <c r="I76" t="n" s="10">
+        <v>2.4041022533E10</v>
       </c>
     </row>
     <row r="77">
@@ -3164,19 +4040,25 @@
         <v>176.0</v>
       </c>
       <c r="C77" t="s" s="10">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="D77" t="s" s="10">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="E77" t="s" s="10">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F77" t="s" s="10">
-        <v>220</v>
+        <v>288</v>
       </c>
       <c r="G77" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c77,d77,e77,f77)</f>
+      </c>
+      <c r="H77" t="s" s="10">
+        <v>289</v>
+      </c>
+      <c r="I77" t="n" s="10">
+        <v>2.4041022331E10</v>
       </c>
     </row>
     <row r="78">
@@ -3187,19 +4069,25 @@
         <v>227.0</v>
       </c>
       <c r="C78" t="s" s="10">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="D78" t="s" s="10">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="E78" t="s" s="10">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="F78" t="s" s="10">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="G78" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c78,d78,e78,f78)</f>
+      </c>
+      <c r="H78" t="s" s="10">
+        <v>290</v>
+      </c>
+      <c r="I78" t="n" s="10">
+        <v>2.4041023839E10</v>
       </c>
     </row>
     <row r="79">
@@ -3210,19 +4098,25 @@
         <v>291.0</v>
       </c>
       <c r="C79" t="s" s="10">
-        <v>221</v>
+        <v>291</v>
       </c>
       <c r="D79" t="s" s="10">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E79" t="s" s="10">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="F79" t="s" s="10">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="G79" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c79,d79,e79,f79)</f>
+      </c>
+      <c r="H79" t="s" s="10">
+        <v>292</v>
+      </c>
+      <c r="I79" t="n" s="10">
+        <v>2.4041021819E10</v>
       </c>
     </row>
     <row r="80">
@@ -3233,19 +4127,25 @@
         <v>442.0</v>
       </c>
       <c r="C80" t="s" s="10">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="D80" t="s" s="10">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="E80" t="s" s="10">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="F80" t="s" s="10">
-        <v>222</v>
+        <v>293</v>
       </c>
       <c r="G80" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c80,d80,e80,f80)</f>
+      </c>
+      <c r="H80" t="s" s="10">
+        <v>294</v>
+      </c>
+      <c r="I80" t="n" s="10">
+        <v>2.4041022247E10</v>
       </c>
     </row>
     <row r="81">
@@ -3256,19 +4156,25 @@
         <v>836.0</v>
       </c>
       <c r="C81" t="s" s="10">
-        <v>223</v>
+        <v>295</v>
       </c>
       <c r="D81" t="s" s="10">
-        <v>212</v>
+        <v>276</v>
       </c>
       <c r="E81" t="s" s="10">
-        <v>224</v>
+        <v>296</v>
       </c>
       <c r="F81" t="s" s="10">
-        <v>225</v>
+        <v>297</v>
       </c>
       <c r="G81" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c81,d81,e81,f81)</f>
+      </c>
+      <c r="H81" t="s" s="10">
+        <v>298</v>
+      </c>
+      <c r="I81" t="n" s="10">
+        <v>2.4053009766E10</v>
       </c>
     </row>
     <row r="82">
@@ -3279,19 +4185,25 @@
         <v>895.0</v>
       </c>
       <c r="C82" t="s" s="10">
-        <v>226</v>
+        <v>299</v>
       </c>
       <c r="D82" t="s" s="10">
-        <v>221</v>
+        <v>291</v>
       </c>
       <c r="E82" t="s" s="10">
-        <v>227</v>
+        <v>300</v>
       </c>
       <c r="F82" t="s" s="10">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="G82" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c82,d82,e82,f82)</f>
+      </c>
+      <c r="H82" t="s" s="10">
+        <v>301</v>
+      </c>
+      <c r="I82" t="n" s="10">
+        <v>2.4054201541E10</v>
       </c>
     </row>
     <row r="83">
@@ -3302,19 +4214,25 @@
         <v>944.0</v>
       </c>
       <c r="C83" t="s" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D83" t="s" s="10">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="E83" t="s" s="10">
-        <v>183</v>
+        <v>235</v>
       </c>
       <c r="F83" t="s" s="10">
-        <v>228</v>
+        <v>302</v>
       </c>
       <c r="G83" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c83,d83,e83,f83)</f>
+      </c>
+      <c r="H83" t="s" s="10">
+        <v>303</v>
+      </c>
+      <c r="I83" t="n" s="10">
+        <v>2.4054858613E10</v>
       </c>
     </row>
     <row r="84">
@@ -3325,19 +4243,25 @@
         <v>960.0</v>
       </c>
       <c r="C84" t="s" s="10">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="D84" t="s" s="10">
-        <v>229</v>
+        <v>304</v>
       </c>
       <c r="E84" t="s" s="10">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F84" t="s" s="10">
-        <v>230</v>
+        <v>305</v>
       </c>
       <c r="G84" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c84,d84,e84,f84)</f>
+      </c>
+      <c r="H84" t="s" s="10">
+        <v>306</v>
+      </c>
+      <c r="I84" t="n" s="10">
+        <v>2.4055339766E10</v>
       </c>
     </row>
     <row r="85">
@@ -3348,19 +4272,25 @@
         <v>962.0</v>
       </c>
       <c r="C85" t="s" s="10">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="D85" t="s" s="10">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="E85" t="s" s="10">
-        <v>231</v>
+        <v>307</v>
       </c>
       <c r="F85" t="s" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G85" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c85,d85,e85,f85)</f>
+      </c>
+      <c r="H85" t="s" s="10">
+        <v>308</v>
+      </c>
+      <c r="I85" t="n" s="10">
+        <v>2.4055339216E10</v>
       </c>
     </row>
     <row r="86">
@@ -3371,19 +4301,25 @@
         <v>981.0</v>
       </c>
       <c r="C86" t="s" s="10">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D86" t="s" s="10">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E86" t="s" s="10">
-        <v>232</v>
+        <v>309</v>
       </c>
       <c r="F86" t="s" s="10">
-        <v>233</v>
+        <v>310</v>
       </c>
       <c r="G86" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c86,d86,e86,f86)</f>
+      </c>
+      <c r="H86" t="s" s="10">
+        <v>311</v>
+      </c>
+      <c r="I86" t="n" s="10">
+        <v>2.4055406596E10</v>
       </c>
     </row>
     <row r="87">
@@ -3394,19 +4330,25 @@
         <v>1023.0</v>
       </c>
       <c r="C87" t="s" s="10">
-        <v>234</v>
+        <v>312</v>
       </c>
       <c r="D87" t="s" s="10">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E87" t="s" s="10">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F87" t="s" s="10">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="G87" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c87,d87,e87,f87)</f>
+      </c>
+      <c r="H87" t="s" s="10">
+        <v>313</v>
+      </c>
+      <c r="I87" t="n" s="10">
+        <v>2.4055811097E10</v>
       </c>
     </row>
     <row r="88">
@@ -3417,19 +4359,25 @@
         <v>1086.0</v>
       </c>
       <c r="C88" t="s" s="10">
-        <v>235</v>
+        <v>314</v>
       </c>
       <c r="D88" t="s" s="10">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E88" t="s" s="10">
-        <v>236</v>
+        <v>315</v>
       </c>
       <c r="F88" t="s" s="10">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="G88" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c88,d88,e88,f88)</f>
+      </c>
+      <c r="H88" t="s" s="10">
+        <v>316</v>
+      </c>
+      <c r="I88" t="n" s="10">
+        <v>2.4056726293E10</v>
       </c>
     </row>
     <row r="89">
@@ -3440,19 +4388,25 @@
         <v>1125.0</v>
       </c>
       <c r="C89" t="s" s="10">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="D89" t="s" s="10">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="E89" t="s" s="10">
-        <v>237</v>
+        <v>317</v>
       </c>
       <c r="F89" t="s" s="10">
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="G89" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c89,d89,e89,f89)</f>
+      </c>
+      <c r="H89" t="s" s="10">
+        <v>319</v>
+      </c>
+      <c r="I89" t="n" s="10">
+        <v>2.4041022658E10</v>
       </c>
     </row>
     <row r="90">
@@ -3463,19 +4417,25 @@
         <v>1129.0</v>
       </c>
       <c r="C90" t="s" s="10">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="D90" t="s" s="10">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="E90" t="s" s="10">
-        <v>239</v>
+        <v>320</v>
       </c>
       <c r="F90" t="s" s="10">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="G90" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c90,d90,e90,f90)</f>
+      </c>
+      <c r="H90" t="s" s="10">
+        <v>321</v>
+      </c>
+      <c r="I90" t="n" s="10">
+        <v>2.4041280579E10</v>
       </c>
     </row>
     <row r="91">
@@ -3486,19 +4446,25 @@
         <v>-5.0</v>
       </c>
       <c r="C91" t="s" s="7">
-        <v>240</v>
+        <v>322</v>
       </c>
       <c r="D91" t="s" s="7">
-        <v>240</v>
+        <v>322</v>
       </c>
       <c r="E91" t="s" s="7">
-        <v>241</v>
+        <v>323</v>
       </c>
       <c r="F91" t="s" s="7">
-        <v>242</v>
+        <v>324</v>
       </c>
       <c r="G91" s="7">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c91,d91,e91,f91)</f>
+      </c>
+      <c r="H91" t="s" s="7">
+        <v>325</v>
+      </c>
+      <c r="I91" t="n" s="10">
+        <v>2.404126672E10</v>
       </c>
     </row>
     <row r="92">
@@ -3509,19 +4475,25 @@
         <v>226.0</v>
       </c>
       <c r="C92" t="s" s="10">
-        <v>243</v>
+        <v>326</v>
       </c>
       <c r="D92" t="s" s="10">
-        <v>244</v>
+        <v>327</v>
       </c>
       <c r="E92" t="s" s="10">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="F92" t="s" s="10">
-        <v>245</v>
+        <v>328</v>
       </c>
       <c r="G92" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c92,d92,e92,f92)</f>
+      </c>
+      <c r="H92" t="s" s="10">
+        <v>329</v>
+      </c>
+      <c r="I92" t="n" s="10">
+        <v>2.4041022069E10</v>
       </c>
     </row>
     <row r="93">
@@ -3532,19 +4504,25 @@
         <v>235.0</v>
       </c>
       <c r="C93" t="s" s="10">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D93" t="s" s="10">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E93" t="s" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F93" t="s" s="10">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="G93" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c93,d93,e93,f93)</f>
+      </c>
+      <c r="H93" t="s" s="10">
+        <v>330</v>
+      </c>
+      <c r="I93" t="n" s="10">
+        <v>2.4040878478E10</v>
       </c>
     </row>
     <row r="94">
@@ -3555,19 +4533,25 @@
         <v>334.0</v>
       </c>
       <c r="C94" t="s" s="10">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D94" t="s" s="10">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="E94" t="s" s="10">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="F94" t="s" s="10">
-        <v>246</v>
+        <v>331</v>
       </c>
       <c r="G94" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c94,d94,e94,f94)</f>
+      </c>
+      <c r="H94" t="s" s="10">
+        <v>332</v>
+      </c>
+      <c r="I94" t="n" s="10">
+        <v>2.4040875563E10</v>
       </c>
     </row>
     <row r="95">
@@ -3578,19 +4562,25 @@
         <v>346.0</v>
       </c>
       <c r="C95" t="s" s="10">
-        <v>247</v>
+        <v>333</v>
       </c>
       <c r="D95" t="s" s="10">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="E95" t="s" s="10">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F95" t="s" s="10">
-        <v>249</v>
+        <v>335</v>
       </c>
       <c r="G95" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c95,d95,e95,f95)</f>
+      </c>
+      <c r="H95" t="s" s="10">
+        <v>336</v>
+      </c>
+      <c r="I95" t="n" s="10">
+        <v>2.4040980573E10</v>
       </c>
     </row>
     <row r="96">
@@ -3601,19 +4591,25 @@
         <v>472.0</v>
       </c>
       <c r="C96" t="s" s="10">
-        <v>250</v>
+        <v>337</v>
       </c>
       <c r="D96" t="s" s="10">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E96" t="s" s="10">
-        <v>251</v>
+        <v>338</v>
       </c>
       <c r="F96" t="s" s="10">
-        <v>252</v>
+        <v>339</v>
       </c>
       <c r="G96" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c96,d96,e96,f96)</f>
+      </c>
+      <c r="H96" t="s" s="10">
+        <v>340</v>
+      </c>
+      <c r="I96" t="n" s="10">
+        <v>2.4040935744E10</v>
       </c>
     </row>
     <row r="97">
@@ -3624,19 +4620,25 @@
         <v>491.0</v>
       </c>
       <c r="C97" t="s" s="10">
-        <v>253</v>
+        <v>341</v>
       </c>
       <c r="D97" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E97" t="s" s="10">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F97" t="s" s="10">
-        <v>254</v>
+        <v>342</v>
       </c>
       <c r="G97" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c97,d97,e97,f97)</f>
+      </c>
+      <c r="H97" t="s" s="10">
+        <v>343</v>
+      </c>
+      <c r="I97" t="n" s="10">
+        <v>2.4041395008E10</v>
       </c>
     </row>
     <row r="98">
@@ -3647,19 +4649,25 @@
         <v>502.0</v>
       </c>
       <c r="C98" t="s" s="10">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="D98" t="s" s="10">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="E98" t="s" s="10">
-        <v>255</v>
+        <v>344</v>
       </c>
       <c r="F98" t="s" s="10">
-        <v>256</v>
+        <v>345</v>
       </c>
       <c r="G98" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c98,d98,e98,f98)</f>
+      </c>
+      <c r="H98" t="s" s="10">
+        <v>346</v>
+      </c>
+      <c r="I98" t="n" s="10">
+        <v>2.4041860146E10</v>
       </c>
     </row>
     <row r="99">
@@ -3670,19 +4678,25 @@
         <v>892.0</v>
       </c>
       <c r="C99" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D99" t="s" s="10">
-        <v>257</v>
+        <v>347</v>
       </c>
       <c r="E99" t="s" s="10">
-        <v>258</v>
+        <v>348</v>
       </c>
       <c r="F99" t="s" s="10">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="G99" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c99,d99,e99,f99)</f>
+      </c>
+      <c r="H99" t="s" s="10">
+        <v>349</v>
+      </c>
+      <c r="I99" t="n" s="10">
+        <v>2.4054172489E10</v>
       </c>
     </row>
     <row r="100">
@@ -3693,19 +4707,25 @@
         <v>1021.0</v>
       </c>
       <c r="C100" t="s" s="10">
-        <v>259</v>
+        <v>350</v>
       </c>
       <c r="D100" t="s" s="10">
-        <v>260</v>
+        <v>351</v>
       </c>
       <c r="E100" t="s" s="10">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="F100" t="s" s="10">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="G100" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c100,d100,e100,f100)</f>
+      </c>
+      <c r="H100" t="s" s="10">
+        <v>352</v>
+      </c>
+      <c r="I100" t="n" s="10">
+        <v>2.4055841694E10</v>
       </c>
     </row>
     <row r="101">
@@ -3716,19 +4736,25 @@
         <v>1050.0</v>
       </c>
       <c r="C101" t="s" s="10">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="D101" t="s" s="10">
-        <v>261</v>
+        <v>353</v>
       </c>
       <c r="E101" t="s" s="10">
-        <v>262</v>
+        <v>354</v>
       </c>
       <c r="F101" t="s" s="10">
-        <v>263</v>
+        <v>355</v>
       </c>
       <c r="G101" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c101,d101,e101,f101)</f>
+      </c>
+      <c r="H101" t="s" s="10">
+        <v>356</v>
+      </c>
+      <c r="I101" t="n" s="10">
+        <v>2.4041265556E10</v>
       </c>
     </row>
     <row r="102">
@@ -3739,19 +4765,25 @@
         <v>1067.0</v>
       </c>
       <c r="C102" t="s" s="10">
-        <v>243</v>
+        <v>326</v>
       </c>
       <c r="D102" t="s" s="10">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E102" t="s" s="10">
-        <v>245</v>
+        <v>328</v>
       </c>
       <c r="F102" t="s" s="10">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G102" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c102,d102,e102,f102)</f>
+      </c>
+      <c r="H102" t="s" s="10">
+        <v>357</v>
+      </c>
+      <c r="I102" t="n" s="10">
+        <v>2.4056458886E10</v>
       </c>
     </row>
     <row r="103">
@@ -3762,19 +4794,25 @@
         <v>1080.0</v>
       </c>
       <c r="C103" t="s" s="10">
-        <v>264</v>
+        <v>358</v>
       </c>
       <c r="D103" t="s" s="10">
-        <v>265</v>
+        <v>359</v>
       </c>
       <c r="E103" t="s" s="10">
-        <v>256</v>
+        <v>345</v>
       </c>
       <c r="F103" t="s" s="10">
-        <v>205</v>
+        <v>266</v>
       </c>
       <c r="G103" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c103,d103,e103,f103)</f>
+      </c>
+      <c r="H103" t="s" s="10">
+        <v>360</v>
+      </c>
+      <c r="I103" t="n" s="10">
+        <v>2.4056675148E10</v>
       </c>
     </row>
     <row r="104">
@@ -3785,19 +4823,25 @@
         <v>1104.0</v>
       </c>
       <c r="C104" t="s" s="10">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c r="D104" t="s" s="10">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="E104" t="s" s="10">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="F104" t="s" s="10">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G104" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c104,d104,e104,f104)</f>
+      </c>
+      <c r="H104" t="s" s="10">
+        <v>361</v>
+      </c>
+      <c r="I104" t="n" s="10">
+        <v>2.4041264933E10</v>
       </c>
     </row>
     <row r="105">
@@ -3808,19 +4852,25 @@
         <v>1105.0</v>
       </c>
       <c r="C105" t="s" s="10">
-        <v>266</v>
+        <v>362</v>
       </c>
       <c r="D105" t="s" s="10">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="E105" t="s" s="10">
-        <v>267</v>
+        <v>363</v>
       </c>
       <c r="F105" t="s" s="10">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G105" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c105,d105,e105,f105)</f>
+      </c>
+      <c r="H105" t="s" s="10">
+        <v>364</v>
+      </c>
+      <c r="I105" t="n" s="10">
+        <v>2.4041022456E10</v>
       </c>
     </row>
     <row r="106">
@@ -3831,19 +4881,25 @@
         <v>-6.0</v>
       </c>
       <c r="C106" t="s" s="7">
-        <v>240</v>
+        <v>322</v>
       </c>
       <c r="D106" t="s" s="7">
-        <v>240</v>
+        <v>322</v>
       </c>
       <c r="E106" t="s" s="7">
-        <v>267</v>
+        <v>363</v>
       </c>
       <c r="F106" t="s" s="7">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="G106" s="7">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c106,d106,e106,f106)</f>
+      </c>
+      <c r="H106" t="s" s="7">
+        <v>365</v>
+      </c>
+      <c r="I106" t="n" s="10">
+        <v>2.4040908836E10</v>
       </c>
     </row>
     <row r="107">
@@ -3854,19 +4910,25 @@
         <v>224.0</v>
       </c>
       <c r="C107" t="s" s="10">
-        <v>214</v>
+        <v>279</v>
       </c>
       <c r="D107" t="s" s="10">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E107" t="s" s="10">
-        <v>268</v>
+        <v>366</v>
       </c>
       <c r="F107" t="s" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G107" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c107,d107,e107,f107)</f>
+      </c>
+      <c r="H107" t="s" s="10">
+        <v>367</v>
+      </c>
+      <c r="I107" t="n" s="10">
+        <v>2.4040980085E10</v>
       </c>
     </row>
     <row r="108">
@@ -3877,19 +4939,25 @@
         <v>779.0</v>
       </c>
       <c r="C108" t="s" s="10">
-        <v>269</v>
+        <v>368</v>
       </c>
       <c r="D108" t="s" s="10">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E108" t="s" s="10">
-        <v>270</v>
+        <v>369</v>
       </c>
       <c r="F108" t="s" s="10">
-        <v>245</v>
+        <v>328</v>
       </c>
       <c r="G108" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c108,d108,e108,f108)</f>
+      </c>
+      <c r="H108" t="s" s="10">
+        <v>370</v>
+      </c>
+      <c r="I108" t="n" s="10">
+        <v>2.4050221567E10</v>
       </c>
     </row>
     <row r="109">
@@ -3900,19 +4968,25 @@
         <v>849.0</v>
       </c>
       <c r="C109" t="s" s="10">
-        <v>271</v>
+        <v>371</v>
       </c>
       <c r="D109" t="s" s="10">
-        <v>272</v>
+        <v>372</v>
       </c>
       <c r="E109" t="s" s="10">
-        <v>273</v>
+        <v>373</v>
       </c>
       <c r="F109" t="s" s="10">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G109" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c109,d109,e109,f109)</f>
+      </c>
+      <c r="H109" t="s" s="10">
+        <v>374</v>
+      </c>
+      <c r="I109" t="n" s="10">
+        <v>2.4041023644E10</v>
       </c>
     </row>
     <row r="110">
@@ -3923,19 +4997,25 @@
         <v>907.0</v>
       </c>
       <c r="C110" t="s" s="10">
-        <v>274</v>
+        <v>375</v>
       </c>
       <c r="D110" t="s" s="10">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E110" t="s" s="10">
-        <v>275</v>
+        <v>376</v>
       </c>
       <c r="F110" t="s" s="10">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G110" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c110,d110,e110,f110)</f>
+      </c>
+      <c r="H110" t="s" s="10">
+        <v>377</v>
+      </c>
+      <c r="I110" t="n" s="10">
+        <v>2.4054250271E10</v>
       </c>
     </row>
     <row r="111">
@@ -3946,19 +5026,25 @@
         <v>993.0</v>
       </c>
       <c r="C111" t="s" s="10">
-        <v>276</v>
+        <v>378</v>
       </c>
       <c r="D111" t="s" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E111" t="s" s="10">
-        <v>277</v>
+        <v>379</v>
       </c>
       <c r="F111" t="s" s="10">
-        <v>278</v>
+        <v>380</v>
       </c>
       <c r="G111" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c111,d111,e111,f111)</f>
+      </c>
+      <c r="H111" t="s" s="10">
+        <v>381</v>
+      </c>
+      <c r="I111" t="n" s="10">
+        <v>2.4056382105E10</v>
       </c>
     </row>
     <row r="112">
@@ -3969,19 +5055,25 @@
         <v>1031.0</v>
       </c>
       <c r="C112" t="s" s="10">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="D112" t="s" s="10">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="E112" t="s" s="10">
-        <v>279</v>
+        <v>382</v>
       </c>
       <c r="F112" t="s" s="10">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="G112" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c112,d112,e112,f112)</f>
+      </c>
+      <c r="H112" t="s" s="10">
+        <v>383</v>
+      </c>
+      <c r="I112" t="n" s="10">
+        <v>2.4046148074E10</v>
       </c>
     </row>
     <row r="113">
@@ -3992,19 +5084,25 @@
         <v>140.0</v>
       </c>
       <c r="C113" t="s" s="7">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="D113" t="s" s="7">
-        <v>214</v>
+        <v>279</v>
       </c>
       <c r="E113" t="s" s="7">
-        <v>280</v>
+        <v>384</v>
       </c>
       <c r="F113" t="s" s="7">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G113" s="7">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c113,d113,e113,f113)</f>
+      </c>
+      <c r="H113" t="s" s="7">
+        <v>385</v>
+      </c>
+      <c r="I113" t="n" s="10">
+        <v>2.4040876218E10</v>
       </c>
     </row>
     <row r="114">
@@ -4015,19 +5113,25 @@
         <v>199.0</v>
       </c>
       <c r="C114" t="s" s="10">
-        <v>281</v>
+        <v>386</v>
       </c>
       <c r="D114" t="s" s="10">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="E114" t="s" s="10">
-        <v>237</v>
+        <v>317</v>
       </c>
       <c r="F114" t="s" s="10">
-        <v>183</v>
+        <v>235</v>
       </c>
       <c r="G114" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c114,d114,e114,f114)</f>
+      </c>
+      <c r="H114" t="s" s="10">
+        <v>387</v>
+      </c>
+      <c r="I114" t="n" s="10">
+        <v>2.4041596515E10</v>
       </c>
     </row>
     <row r="115">
@@ -4038,19 +5142,25 @@
         <v>313.0</v>
       </c>
       <c r="C115" t="s" s="10">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="D115" t="s" s="10">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="E115" t="s" s="10">
-        <v>255</v>
+        <v>344</v>
       </c>
       <c r="F115" t="s" s="10">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="G115" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c115,d115,e115,f115)</f>
+      </c>
+      <c r="H115" t="s" s="10">
+        <v>388</v>
+      </c>
+      <c r="I115" t="n" s="10">
+        <v>2.4041022704E10</v>
       </c>
     </row>
     <row r="116">
@@ -4061,19 +5171,25 @@
         <v>325.0</v>
       </c>
       <c r="C116" t="s" s="10">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="D116" t="s" s="10">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="E116" t="s" s="10">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="F116" t="s" s="10">
-        <v>282</v>
+        <v>389</v>
       </c>
       <c r="G116" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c116,d116,e116,f116)</f>
+      </c>
+      <c r="H116" t="s" s="10">
+        <v>390</v>
+      </c>
+      <c r="I116" t="n" s="10">
+        <v>2.4041023017E10</v>
       </c>
     </row>
     <row r="117">
@@ -4084,19 +5200,25 @@
         <v>329.0</v>
       </c>
       <c r="C117" t="s" s="10">
-        <v>283</v>
+        <v>391</v>
       </c>
       <c r="D117" t="s" s="10">
-        <v>283</v>
+        <v>391</v>
       </c>
       <c r="E117" t="s" s="10">
-        <v>284</v>
+        <v>392</v>
       </c>
       <c r="F117" t="s" s="10">
-        <v>285</v>
+        <v>393</v>
       </c>
       <c r="G117" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c117,d117,e117,f117)</f>
+      </c>
+      <c r="H117" t="s" s="10">
+        <v>394</v>
+      </c>
+      <c r="I117" t="n" s="10">
+        <v>2.4041022805E10</v>
       </c>
     </row>
     <row r="118">
@@ -4107,19 +5229,25 @@
         <v>545.0</v>
       </c>
       <c r="C118" t="s" s="10">
-        <v>286</v>
+        <v>395</v>
       </c>
       <c r="D118" t="s" s="10">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="E118" t="s" s="10">
-        <v>287</v>
+        <v>396</v>
       </c>
       <c r="F118" t="s" s="10">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G118" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c118,d118,e118,f118)</f>
+      </c>
+      <c r="H118" t="s" s="10">
+        <v>397</v>
+      </c>
+      <c r="I118" t="n" s="10">
+        <v>2.4042181101E10</v>
       </c>
     </row>
     <row r="119">
@@ -4130,19 +5258,25 @@
         <v>557.0</v>
       </c>
       <c r="C119" t="s" s="10">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="D119" t="s" s="10">
-        <v>261</v>
+        <v>353</v>
       </c>
       <c r="E119" t="s" s="10">
-        <v>288</v>
+        <v>398</v>
       </c>
       <c r="F119" t="s" s="10">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="G119" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c119,d119,e119,f119)</f>
+      </c>
+      <c r="H119" t="s" s="10">
+        <v>399</v>
+      </c>
+      <c r="I119" t="n" s="10">
+        <v>2.4042489083E10</v>
       </c>
     </row>
     <row r="120">
@@ -4153,19 +5287,25 @@
         <v>706.0</v>
       </c>
       <c r="C120" t="s" s="10">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="D120" t="s" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E120" t="s" s="10">
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="F120" t="s" s="10">
-        <v>290</v>
+        <v>401</v>
       </c>
       <c r="G120" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c120,d120,e120,f120)</f>
+      </c>
+      <c r="H120" t="s" s="10">
+        <v>402</v>
+      </c>
+      <c r="I120" t="n" s="10">
+        <v>2.4045679962E10</v>
       </c>
     </row>
     <row r="121">
@@ -4176,19 +5316,25 @@
         <v>331.0</v>
       </c>
       <c r="C121" t="s" s="7">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="D121" t="s" s="7">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="E121" t="s" s="7">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="F121" t="s" s="7">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="G121" s="7">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c121,d121,e121,f121)</f>
+      </c>
+      <c r="H121" t="s" s="7">
+        <v>403</v>
+      </c>
+      <c r="I121" t="n" s="10">
+        <v>2.4040875253E10</v>
       </c>
     </row>
     <row r="122">
@@ -4199,19 +5345,25 @@
         <v>317.0</v>
       </c>
       <c r="C122" t="s" s="10">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="D122" t="s" s="10">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="E122" t="s" s="10">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F122" t="s" s="10">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="G122" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c122,d122,e122,f122)</f>
+      </c>
+      <c r="H122" t="s" s="10">
+        <v>404</v>
+      </c>
+      <c r="I122" t="n" s="10">
+        <v>2.4041022519E10</v>
       </c>
     </row>
     <row r="123">
@@ -4222,19 +5374,25 @@
         <v>330.0</v>
       </c>
       <c r="C123" t="s" s="10">
-        <v>291</v>
+        <v>405</v>
       </c>
       <c r="D123" t="s" s="10">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="E123" t="s" s="10">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="F123" t="s" s="10">
-        <v>292</v>
+        <v>406</v>
       </c>
       <c r="G123" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c123,d123,e123,f123)</f>
+      </c>
+      <c r="H123" t="s" s="10">
+        <v>407</v>
+      </c>
+      <c r="I123" t="n" s="10">
+        <v>2.4040874692E10</v>
       </c>
     </row>
     <row r="124">
@@ -4245,19 +5403,25 @@
         <v>459.0</v>
       </c>
       <c r="C124" t="s" s="10">
-        <v>240</v>
+        <v>322</v>
       </c>
       <c r="D124" t="s" s="10">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E124" t="s" s="10">
-        <v>279</v>
+        <v>382</v>
       </c>
       <c r="F124" t="s" s="10">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="G124" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c124,d124,e124,f124)</f>
+      </c>
+      <c r="H124" t="s" s="10">
+        <v>408</v>
+      </c>
+      <c r="I124" t="n" s="10">
+        <v>2.4040875385E10</v>
       </c>
     </row>
     <row r="125">
@@ -4268,19 +5432,25 @@
         <v>592.0</v>
       </c>
       <c r="C125" t="s" s="10">
-        <v>293</v>
+        <v>409</v>
       </c>
       <c r="D125" t="s" s="10">
-        <v>294</v>
+        <v>410</v>
       </c>
       <c r="E125" t="s" s="10">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s" s="10">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="G125" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c125,d125,e125,f125)</f>
+      </c>
+      <c r="H125" t="s" s="10">
+        <v>411</v>
+      </c>
+      <c r="I125" t="n" s="10">
+        <v>2.4041862267E10</v>
       </c>
     </row>
     <row r="126">
@@ -4291,19 +5461,25 @@
         <v>602.0</v>
       </c>
       <c r="C126" t="s" s="10">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D126" t="s" s="10">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="E126" t="s" s="10">
-        <v>295</v>
+        <v>412</v>
       </c>
       <c r="F126" t="s" s="10">
-        <v>296</v>
+        <v>413</v>
       </c>
       <c r="G126" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c126,d126,e126,f126)</f>
+      </c>
+      <c r="H126" t="s" s="10">
+        <v>414</v>
+      </c>
+      <c r="I126" t="n" s="10">
+        <v>2.4041418437E10</v>
       </c>
     </row>
     <row r="127">
@@ -4314,19 +5490,25 @@
         <v>605.0</v>
       </c>
       <c r="C127" t="s" s="10">
-        <v>291</v>
+        <v>405</v>
       </c>
       <c r="D127" t="s" s="10">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="E127" t="s" s="10">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="F127" t="s" s="10">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="G127" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c127,d127,e127,f127)</f>
+      </c>
+      <c r="H127" t="s" s="10">
+        <v>415</v>
+      </c>
+      <c r="I127" t="n" s="10">
+        <v>2.4043531716E10</v>
       </c>
     </row>
     <row r="128">
@@ -4337,19 +5519,25 @@
         <v>740.0</v>
       </c>
       <c r="C128" t="s" s="10">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="D128" t="s" s="10">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="E128" t="s" s="10">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="F128" t="s" s="10">
-        <v>298</v>
+        <v>417</v>
       </c>
       <c r="G128" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c128,d128,e128,f128)</f>
+      </c>
+      <c r="H128" t="s" s="10">
+        <v>418</v>
+      </c>
+      <c r="I128" t="n" s="10">
+        <v>2.4046415813E10</v>
       </c>
     </row>
     <row r="129">
@@ -4360,19 +5548,25 @@
         <v>755.0</v>
       </c>
       <c r="C129" t="s" s="10">
-        <v>299</v>
+        <v>419</v>
       </c>
       <c r="D129" t="s" s="10">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="E129" t="s" s="10">
-        <v>236</v>
+        <v>315</v>
       </c>
       <c r="F129" t="s" s="10">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="G129" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c129,d129,e129,f129)</f>
+      </c>
+      <c r="H129" t="s" s="10">
+        <v>421</v>
+      </c>
+      <c r="I129" t="n" s="10">
+        <v>2.4046845243E10</v>
       </c>
     </row>
     <row r="130">
@@ -4383,19 +5577,25 @@
         <v>-7.0</v>
       </c>
       <c r="C130" t="s" s="7">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="D130" t="s" s="7">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E130" t="s" s="7">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="F130" t="s" s="7">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="G130" s="7">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c130,d130,e130,f130)</f>
+      </c>
+      <c r="H130" t="s" s="7">
+        <v>422</v>
+      </c>
+      <c r="I130" t="n" s="10">
+        <v>2.4040877235E10</v>
       </c>
     </row>
     <row r="131">
@@ -4406,19 +5606,25 @@
         <v>32.0</v>
       </c>
       <c r="C131" t="s" s="10">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="D131" t="s" s="10">
-        <v>301</v>
+        <v>423</v>
       </c>
       <c r="E131" t="s" s="10">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F131" t="s" s="10">
-        <v>302</v>
+        <v>424</v>
       </c>
       <c r="G131" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c131,d131,e131,f131)</f>
+      </c>
+      <c r="H131" t="s" s="10">
+        <v>425</v>
+      </c>
+      <c r="I131" t="n" s="10">
+        <v>2.4041266845E10</v>
       </c>
     </row>
     <row r="132">
@@ -4429,19 +5635,25 @@
         <v>48.0</v>
       </c>
       <c r="C132" t="s" s="10">
-        <v>303</v>
+        <v>426</v>
       </c>
       <c r="D132" t="s" s="10">
-        <v>265</v>
+        <v>359</v>
       </c>
       <c r="E132" t="s" s="10">
-        <v>304</v>
+        <v>427</v>
       </c>
       <c r="F132" t="s" s="10">
-        <v>305</v>
+        <v>428</v>
       </c>
       <c r="G132" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c132,d132,e132,f132)</f>
+      </c>
+      <c r="H132" t="s" s="10">
+        <v>429</v>
+      </c>
+      <c r="I132" t="n" s="10">
+        <v>2.4040879161E10</v>
       </c>
     </row>
     <row r="133">
@@ -4452,19 +5664,25 @@
         <v>51.0</v>
       </c>
       <c r="C133" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D133" t="s" s="10">
-        <v>306</v>
+        <v>430</v>
       </c>
       <c r="E133" t="s" s="10">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="F133" t="s" s="10">
-        <v>298</v>
+        <v>417</v>
       </c>
       <c r="G133" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c133,d133,e133,f133)</f>
+      </c>
+      <c r="H133" t="s" s="10">
+        <v>431</v>
+      </c>
+      <c r="I133" t="n" s="10">
+        <v>2.4040993795E10</v>
       </c>
     </row>
     <row r="134">
@@ -4475,19 +5693,25 @@
         <v>73.0</v>
       </c>
       <c r="C134" t="s" s="10">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D134" t="s" s="10">
-        <v>307</v>
+        <v>432</v>
       </c>
       <c r="E134" t="s" s="10">
-        <v>308</v>
+        <v>433</v>
       </c>
       <c r="F134" t="s" s="10">
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="G134" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c134,d134,e134,f134)</f>
+      </c>
+      <c r="H134" t="s" s="10">
+        <v>434</v>
+      </c>
+      <c r="I134" t="n" s="10">
+        <v>2.4040874539E10</v>
       </c>
     </row>
     <row r="135">
@@ -4498,19 +5722,25 @@
         <v>218.0</v>
       </c>
       <c r="C135" t="s" s="10">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="D135" t="s" s="10">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="E135" t="s" s="10">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F135" t="s" s="10">
-        <v>309</v>
+        <v>435</v>
       </c>
       <c r="G135" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c135,d135,e135,f135)</f>
+      </c>
+      <c r="H135" t="s" s="10">
+        <v>436</v>
+      </c>
+      <c r="I135" t="n" s="10">
+        <v>2.4040933832E10</v>
       </c>
     </row>
     <row r="136">
@@ -4521,19 +5751,25 @@
         <v>231.0</v>
       </c>
       <c r="C136" t="s" s="10">
-        <v>264</v>
+        <v>358</v>
       </c>
       <c r="D136" t="s" s="10">
-        <v>310</v>
+        <v>437</v>
       </c>
       <c r="E136" t="s" s="10">
-        <v>311</v>
+        <v>438</v>
       </c>
       <c r="F136" t="s" s="10">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="G136" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c136,d136,e136,f136)</f>
+      </c>
+      <c r="H136" t="s" s="10">
+        <v>439</v>
+      </c>
+      <c r="I136" t="n" s="10">
+        <v>2.4041021958E10</v>
       </c>
     </row>
     <row r="137">
@@ -4544,19 +5780,25 @@
         <v>288.0</v>
       </c>
       <c r="C137" t="s" s="10">
-        <v>240</v>
+        <v>322</v>
       </c>
       <c r="D137" t="s" s="10">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="E137" t="s" s="10">
-        <v>312</v>
+        <v>440</v>
       </c>
       <c r="F137" t="s" s="10">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G137" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c137,d137,e137,f137)</f>
+      </c>
+      <c r="H137" t="s" s="10">
+        <v>441</v>
+      </c>
+      <c r="I137" t="n" s="10">
+        <v>2.4041265208E10</v>
       </c>
     </row>
     <row r="138">
@@ -4567,19 +5809,25 @@
         <v>293.0</v>
       </c>
       <c r="C138" t="s" s="10">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="D138" t="s" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E138" t="s" s="10">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="F138" t="s" s="10">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G138" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c138,d138,e138,f138)</f>
+      </c>
+      <c r="H138" t="s" s="10">
+        <v>442</v>
+      </c>
+      <c r="I138" t="n" s="10">
+        <v>2.404102418E10</v>
       </c>
     </row>
     <row r="139">
@@ -4590,19 +5838,25 @@
         <v>423.0</v>
       </c>
       <c r="C139" t="s" s="10">
-        <v>313</v>
+        <v>443</v>
       </c>
       <c r="D139" t="s" s="10">
-        <v>314</v>
+        <v>444</v>
       </c>
       <c r="E139" t="s" s="10">
-        <v>315</v>
+        <v>445</v>
       </c>
       <c r="F139" t="s" s="10">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G139" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c139,d139,e139,f139)</f>
+      </c>
+      <c r="H139" t="s" s="10">
+        <v>446</v>
+      </c>
+      <c r="I139" t="n" s="10">
+        <v>2.4040874166E10</v>
       </c>
     </row>
     <row r="140">
@@ -4613,19 +5867,25 @@
         <v>514.0</v>
       </c>
       <c r="C140" t="s" s="10">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="D140" t="s" s="10">
-        <v>317</v>
+        <v>448</v>
       </c>
       <c r="E140" t="s" s="10">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F140" t="s" s="10">
-        <v>318</v>
+        <v>449</v>
       </c>
       <c r="G140" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c140,d140,e140,f140)</f>
+      </c>
+      <c r="H140" t="s" s="10">
+        <v>450</v>
+      </c>
+      <c r="I140" t="n" s="10">
+        <v>2.4041863974E10</v>
       </c>
     </row>
     <row r="141">
@@ -4636,19 +5896,25 @@
         <v>516.0</v>
       </c>
       <c r="C141" t="s" s="10">
-        <v>247</v>
+        <v>333</v>
       </c>
       <c r="D141" t="s" s="10">
-        <v>319</v>
+        <v>451</v>
       </c>
       <c r="E141" t="s" s="10">
-        <v>318</v>
+        <v>449</v>
       </c>
       <c r="F141" t="s" s="10">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="G141" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c141,d141,e141,f141)</f>
+      </c>
+      <c r="H141" t="s" s="10">
+        <v>452</v>
+      </c>
+      <c r="I141" t="n" s="10">
+        <v>2.4041860177E10</v>
       </c>
     </row>
     <row r="142">
@@ -4659,19 +5925,25 @@
         <v>574.0</v>
       </c>
       <c r="C142" t="s" s="10">
-        <v>259</v>
+        <v>350</v>
       </c>
       <c r="D142" t="s" s="10">
-        <v>320</v>
+        <v>453</v>
       </c>
       <c r="E142" t="s" s="10">
-        <v>321</v>
+        <v>454</v>
       </c>
       <c r="F142" t="s" s="10">
-        <v>322</v>
+        <v>455</v>
       </c>
       <c r="G142" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c142,d142,e142,f142)</f>
+      </c>
+      <c r="H142" t="s" s="10">
+        <v>456</v>
+      </c>
+      <c r="I142" t="n" s="10">
+        <v>2.4042906665E10</v>
       </c>
     </row>
     <row r="143">
@@ -4682,19 +5954,25 @@
         <v>598.0</v>
       </c>
       <c r="C143" t="s" s="10">
-        <v>323</v>
+        <v>457</v>
       </c>
       <c r="D143" t="s" s="10">
-        <v>324</v>
+        <v>458</v>
       </c>
       <c r="E143" t="s" s="10">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="F143" t="s" s="10">
-        <v>318</v>
+        <v>449</v>
       </c>
       <c r="G143" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c143,d143,e143,f143)</f>
+      </c>
+      <c r="H143" t="s" s="10">
+        <v>459</v>
+      </c>
+      <c r="I143" t="n" s="10">
+        <v>2.4043159664E10</v>
       </c>
     </row>
     <row r="144">
@@ -4705,19 +5983,25 @@
         <v>626.0</v>
       </c>
       <c r="C144" t="s" s="10">
-        <v>325</v>
+        <v>460</v>
       </c>
       <c r="D144" t="s" s="10">
-        <v>214</v>
+        <v>279</v>
       </c>
       <c r="E144" t="s" s="10">
         <v>38</v>
       </c>
       <c r="F144" t="s" s="10">
-        <v>326</v>
+        <v>461</v>
       </c>
       <c r="G144" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c144,d144,e144,f144)</f>
+      </c>
+      <c r="H144" t="s" s="10">
+        <v>462</v>
+      </c>
+      <c r="I144" t="n" s="10">
+        <v>2.4044488567E10</v>
       </c>
     </row>
     <row r="145">
@@ -4728,19 +6012,25 @@
         <v>791.0</v>
       </c>
       <c r="C145" t="s" s="10">
-        <v>327</v>
+        <v>463</v>
       </c>
       <c r="D145" t="s" s="10">
-        <v>328</v>
+        <v>464</v>
       </c>
       <c r="E145" t="s" s="10">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="F145" t="s" s="10">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G145" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c145,d145,e145,f145)</f>
+      </c>
+      <c r="H145" t="s" s="10">
+        <v>465</v>
+      </c>
+      <c r="I145" t="n" s="10">
+        <v>2.4051011338E10</v>
       </c>
     </row>
     <row r="146">
@@ -4751,19 +6041,25 @@
         <v>920.0</v>
       </c>
       <c r="C146" t="s" s="10">
-        <v>329</v>
+        <v>466</v>
       </c>
       <c r="D146" t="s" s="10">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="E146" t="s" s="10">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="F146" t="s" s="10">
         <v>39</v>
       </c>
       <c r="G146" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c146,d146,e146,f146)</f>
+      </c>
+      <c r="H146" t="s" s="10">
+        <v>467</v>
+      </c>
+      <c r="I146" t="n" s="10">
+        <v>2.4054525881E10</v>
       </c>
     </row>
     <row r="147">
@@ -4774,19 +6070,25 @@
         <v>945.0</v>
       </c>
       <c r="C147" t="s" s="10">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D147" t="s" s="10">
-        <v>330</v>
+        <v>468</v>
       </c>
       <c r="E147" t="s" s="10">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F147" t="s" s="10">
-        <v>331</v>
+        <v>469</v>
       </c>
       <c r="G147" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c147,d147,e147,f147)</f>
+      </c>
+      <c r="H147" t="s" s="10">
+        <v>470</v>
+      </c>
+      <c r="I147" t="n" s="10">
+        <v>2.4054861208E10</v>
       </c>
     </row>
     <row r="148">
@@ -4797,19 +6099,25 @@
         <v>970.0</v>
       </c>
       <c r="C148" t="s" s="10">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="D148" t="s" s="10">
-        <v>332</v>
+        <v>471</v>
       </c>
       <c r="E148" t="s" s="10">
         <v>38</v>
       </c>
       <c r="F148" t="s" s="10">
-        <v>333</v>
+        <v>472</v>
       </c>
       <c r="G148" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c148,d148,e148,f148)</f>
+      </c>
+      <c r="H148" t="s" s="10">
+        <v>473</v>
+      </c>
+      <c r="I148" t="n" s="10">
+        <v>2.4046162962E10</v>
       </c>
     </row>
     <row r="149">
@@ -4820,19 +6128,25 @@
         <v>1009.0</v>
       </c>
       <c r="C149" t="s" s="10">
-        <v>291</v>
+        <v>405</v>
       </c>
       <c r="D149" t="s" s="10">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E149" t="s" s="10">
-        <v>334</v>
+        <v>474</v>
       </c>
       <c r="F149" t="s" s="10">
-        <v>335</v>
+        <v>475</v>
       </c>
       <c r="G149" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c149,d149,e149,f149)</f>
+      </c>
+      <c r="H149" t="s" s="10">
+        <v>476</v>
+      </c>
+      <c r="I149" t="n" s="10">
+        <v>2.4055737795E10</v>
       </c>
     </row>
     <row r="150">
@@ -4843,19 +6157,25 @@
         <v>1065.0</v>
       </c>
       <c r="C150" t="s" s="10">
-        <v>235</v>
+        <v>314</v>
       </c>
       <c r="D150" t="s" s="10">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E150" t="s" s="10">
-        <v>336</v>
+        <v>477</v>
       </c>
       <c r="F150" t="s" s="10">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="G150" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c150,d150,e150,f150)</f>
+      </c>
+      <c r="H150" t="s" s="10">
+        <v>478</v>
+      </c>
+      <c r="I150" t="n" s="10">
+        <v>2.4041265253E10</v>
       </c>
     </row>
     <row r="151">
@@ -4866,19 +6186,25 @@
         <v>1103.0</v>
       </c>
       <c r="C151" t="s" s="10">
-        <v>247</v>
+        <v>333</v>
       </c>
       <c r="D151" t="s" s="10">
-        <v>337</v>
+        <v>479</v>
       </c>
       <c r="E151" t="s" s="10">
-        <v>225</v>
+        <v>297</v>
       </c>
       <c r="F151" t="s" s="10">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G151" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c151,d151,e151,f151)</f>
+      </c>
+      <c r="H151" t="s" s="10">
+        <v>480</v>
+      </c>
+      <c r="I151" t="n" s="10">
+        <v>2.4044829416E10</v>
       </c>
     </row>
     <row r="152">
@@ -4889,19 +6215,25 @@
         <v>1114.0</v>
       </c>
       <c r="C152" t="s" s="10">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D152" t="s" s="10">
-        <v>338</v>
+        <v>481</v>
       </c>
       <c r="E152" t="s" s="10">
-        <v>339</v>
+        <v>482</v>
       </c>
       <c r="F152" t="s" s="10">
-        <v>340</v>
+        <v>483</v>
       </c>
       <c r="G152" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c152,d152,e152,f152)</f>
+      </c>
+      <c r="H152" t="s" s="10">
+        <v>484</v>
+      </c>
+      <c r="I152" t="n" s="10">
+        <v>2.4059089816E10</v>
       </c>
     </row>
     <row r="153">
@@ -4912,19 +6244,25 @@
         <v>1115.0</v>
       </c>
       <c r="C153" t="s" s="10">
-        <v>338</v>
+        <v>481</v>
       </c>
       <c r="D153" t="s" s="10">
-        <v>341</v>
+        <v>485</v>
       </c>
       <c r="E153" t="s" s="10">
-        <v>279</v>
+        <v>382</v>
       </c>
       <c r="F153" t="s" s="10">
-        <v>342</v>
+        <v>486</v>
       </c>
       <c r="G153" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c153,d153,e153,f153)</f>
+      </c>
+      <c r="H153" t="s" s="10">
+        <v>487</v>
+      </c>
+      <c r="I153" t="n" s="10">
+        <v>2.4059055899E10</v>
       </c>
     </row>
     <row r="154">
@@ -4935,19 +6273,25 @@
         <v>1117.0</v>
       </c>
       <c r="C154" t="s" s="10">
-        <v>264</v>
+        <v>358</v>
       </c>
       <c r="D154" t="s" s="10">
-        <v>265</v>
+        <v>359</v>
       </c>
       <c r="E154" t="s" s="10">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="F154" t="s" s="10">
         <v>39</v>
       </c>
       <c r="G154" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c154,d154,e154,f154)</f>
+      </c>
+      <c r="H154" t="s" s="10">
+        <v>488</v>
+      </c>
+      <c r="I154" t="n" s="10">
+        <v>2.4059238478E10</v>
       </c>
     </row>
     <row r="155">
@@ -4958,19 +6302,25 @@
         <v>1118.0</v>
       </c>
       <c r="C155" t="s" s="10">
-        <v>343</v>
+        <v>489</v>
       </c>
       <c r="D155" t="s" s="10">
-        <v>286</v>
+        <v>395</v>
       </c>
       <c r="E155" t="s" s="10">
-        <v>236</v>
+        <v>315</v>
       </c>
       <c r="F155" t="s" s="10">
-        <v>344</v>
+        <v>490</v>
       </c>
       <c r="G155" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c155,d155,e155,f155)</f>
+      </c>
+      <c r="H155" t="s" s="10">
+        <v>491</v>
+      </c>
+      <c r="I155" t="n" s="10">
+        <v>2.4054858163E10</v>
       </c>
     </row>
     <row r="156">
@@ -4981,19 +6331,25 @@
         <v>1120.0</v>
       </c>
       <c r="C156" t="s" s="10">
-        <v>345</v>
+        <v>492</v>
       </c>
       <c r="D156" t="s" s="10">
-        <v>346</v>
+        <v>493</v>
       </c>
       <c r="E156" t="s" s="10">
-        <v>334</v>
+        <v>474</v>
       </c>
       <c r="F156" t="s" s="10">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G156" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c156,d156,e156,f156)</f>
+      </c>
+      <c r="H156" t="s" s="10">
+        <v>494</v>
+      </c>
+      <c r="I156" t="n" s="10">
+        <v>2.4053690977E10</v>
       </c>
     </row>
     <row r="157">
@@ -5004,19 +6360,25 @@
         <v>1121.0</v>
       </c>
       <c r="C157" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D157" t="s" s="10">
-        <v>347</v>
+        <v>495</v>
       </c>
       <c r="E157" t="s" s="10">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F157" t="s" s="10">
-        <v>245</v>
+        <v>328</v>
       </c>
       <c r="G157" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c157,d157,e157,f157)</f>
+      </c>
+      <c r="H157" t="s" s="10">
+        <v>496</v>
+      </c>
+      <c r="I157" t="n" s="10">
+        <v>2.4040876542E10</v>
       </c>
     </row>
     <row r="158">
@@ -5027,19 +6389,25 @@
         <v>1122.0</v>
       </c>
       <c r="C158" t="s" s="10">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="D158" t="s" s="10">
-        <v>201</v>
+        <v>261</v>
       </c>
       <c r="E158" t="s" s="10">
-        <v>348</v>
+        <v>497</v>
       </c>
       <c r="F158" t="s" s="10">
-        <v>349</v>
+        <v>498</v>
       </c>
       <c r="G158" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c158,d158,e158,f158)</f>
+      </c>
+      <c r="H158" t="s" s="10">
+        <v>499</v>
+      </c>
+      <c r="I158" t="n" s="10">
+        <v>2.4041266908E10</v>
       </c>
     </row>
     <row r="159">
@@ -5050,19 +6418,25 @@
         <v>1123.0</v>
       </c>
       <c r="C159" t="s" s="10">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="D159" t="s" s="10">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="E159" t="s" s="10">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="F159" t="s" s="10">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="G159" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c159,d159,e159,f159)</f>
+      </c>
+      <c r="H159" t="s" s="10">
+        <v>502</v>
+      </c>
+      <c r="I159" t="n" s="10">
+        <v>2.4059506171E10</v>
       </c>
     </row>
     <row r="160">
@@ -5073,19 +6447,25 @@
         <v>1124.0</v>
       </c>
       <c r="C160" t="s" s="10">
-        <v>274</v>
+        <v>375</v>
       </c>
       <c r="D160" t="s" s="10">
-        <v>352</v>
+        <v>503</v>
       </c>
       <c r="E160" t="s" s="10">
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="F160" t="s" s="10">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="G160" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c160,d160,e160,f160)</f>
+      </c>
+      <c r="H160" t="s" s="10">
+        <v>504</v>
+      </c>
+      <c r="I160" t="n" s="10">
+        <v>2.4042062192E10</v>
       </c>
     </row>
     <row r="161">
@@ -5096,19 +6476,25 @@
         <v>1127.0</v>
       </c>
       <c r="C161" t="s" s="10">
-        <v>353</v>
+        <v>505</v>
       </c>
       <c r="D161" t="s" s="10">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E161" t="s" s="10">
-        <v>354</v>
+        <v>506</v>
       </c>
       <c r="F161" t="s" s="10">
-        <v>355</v>
+        <v>507</v>
       </c>
       <c r="G161" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c161,d161,e161,f161)</f>
+      </c>
+      <c r="H161" t="s" s="10">
+        <v>508</v>
+      </c>
+      <c r="I161" t="n" s="10">
+        <v>2.4060369644E10</v>
       </c>
     </row>
     <row r="162">
@@ -5119,19 +6505,25 @@
         <v>1133.0</v>
       </c>
       <c r="C162" t="s" s="10">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="D162" t="s" s="10">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="E162" t="s" s="10">
-        <v>356</v>
+        <v>509</v>
       </c>
       <c r="F162" t="s" s="10">
-        <v>357</v>
+        <v>510</v>
       </c>
       <c r="G162" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c162,d162,e162,f162)</f>
+      </c>
+      <c r="H162" t="s" s="10">
+        <v>511</v>
+      </c>
+      <c r="I162" t="n" s="10">
+        <v>2.4060368913E10</v>
       </c>
     </row>
     <row r="163">
@@ -5142,19 +6534,25 @@
         <v>1136.0</v>
       </c>
       <c r="C163" t="s" s="10">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="D163" t="s" s="10">
-        <v>229</v>
+        <v>304</v>
       </c>
       <c r="E163" t="s" s="10">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="F163" t="s" s="10">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="G163" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c163,d163,e163,f163)</f>
+      </c>
+      <c r="H163" t="s" s="10">
+        <v>512</v>
+      </c>
+      <c r="I163" t="n" s="10">
+        <v>2.4061141724E10</v>
       </c>
     </row>
     <row r="164">
@@ -5165,19 +6563,25 @@
         <v>1137.0</v>
       </c>
       <c r="C164" t="s" s="10">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="D164" t="s" s="10">
-        <v>229</v>
+        <v>304</v>
       </c>
       <c r="E164" t="s" s="10">
-        <v>358</v>
+        <v>513</v>
       </c>
       <c r="F164" t="s" s="10">
-        <v>359</v>
+        <v>514</v>
       </c>
       <c r="G164" s="10">
-        <f>sum(a9:b9)</f>
+        <f>concatenate(c164,d164,e164,f164)</f>
+      </c>
+      <c r="H164" t="s" s="10">
+        <v>515</v>
+      </c>
+      <c r="I164" t="n" s="10">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/personal/quincena.xlsx
+++ b/personal/quincena.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="517">
   <si>
     <t>Convecciones</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>1.085.284.339</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
   <si>
     <t>CHALACAN</t>
@@ -2088,6 +2091,27 @@
       <c r="I9" t="n" s="10">
         <v>2.4040875765E10</v>
       </c>
+      <c r="J9" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K9" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L9" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M9" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N9" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O9" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P9" t="s" s="10">
+        <v>41</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n" s="10">
@@ -2097,25 +2121,46 @@
         <v>-1.0</v>
       </c>
       <c r="C10" t="s" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s" s="10">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G10" s="10">
         <f>concatenate(c10,d10,e10,f10)</f>
       </c>
       <c r="H10" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10" t="n" s="10">
         <v>2.404102177E10</v>
+      </c>
+      <c r="J10" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K10" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L10" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M10" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N10" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O10" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P10" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="11">
@@ -2126,25 +2171,46 @@
         <v>49.0</v>
       </c>
       <c r="C11" t="s" s="10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11" s="10">
         <f>concatenate(c11,d11,e11,f11)</f>
       </c>
       <c r="H11" t="s" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I11" t="n" s="10">
         <v>2.4040874104E10</v>
+      </c>
+      <c r="J11" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K11" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L11" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M11" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N11" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O11" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P11" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -2155,25 +2221,46 @@
         <v>230.0</v>
       </c>
       <c r="C12" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s" s="10">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G12" s="10">
         <f>concatenate(c12,d12,e12,f12)</f>
       </c>
       <c r="H12" t="s" s="10">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I12" t="n" s="10">
         <v>2.4040879938E10</v>
+      </c>
+      <c r="J12" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K12" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L12" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M12" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N12" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O12" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P12" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="13">
@@ -2184,25 +2271,46 @@
         <v>625.0</v>
       </c>
       <c r="C13" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s" s="10">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s" s="10">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G13" s="10">
         <f>concatenate(c13,d13,e13,f13)</f>
       </c>
       <c r="H13" t="s" s="10">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I13" t="n" s="10">
         <v>2.4041419106E10</v>
+      </c>
+      <c r="J13" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K13" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L13" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M13" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N13" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O13" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P13" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="14">
@@ -2213,25 +2321,46 @@
         <v>773.0</v>
       </c>
       <c r="C14" t="s" s="10">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s" s="10">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s" s="10">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F14" t="s" s="10">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G14" s="10">
         <f>concatenate(c14,d14,e14,f14)</f>
       </c>
       <c r="H14" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I14" t="n" s="10">
         <v>2.4041417287E10</v>
+      </c>
+      <c r="J14" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K14" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L14" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M14" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N14" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O14" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P14" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="15">
@@ -2242,25 +2371,46 @@
         <v>784.0</v>
       </c>
       <c r="C15" t="s" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s" s="10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s" s="10">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F15" t="s" s="10">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G15" s="10">
         <f>concatenate(c15,d15,e15,f15)</f>
       </c>
       <c r="H15" t="s" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I15" t="n" s="10">
         <v>2.4050679421E10</v>
+      </c>
+      <c r="J15" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K15" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L15" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M15" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N15" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O15" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P15" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="16">
@@ -2271,25 +2421,46 @@
         <v>319.0</v>
       </c>
       <c r="C16" t="s" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G16" s="7">
         <f>concatenate(c16,d16,e16,f16)</f>
       </c>
       <c r="H16" t="s" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I16" t="n" s="10">
         <v>2.4040877747E10</v>
+      </c>
+      <c r="J16" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K16" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L16" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M16" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N16" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O16" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P16" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="17">
@@ -2300,25 +2471,46 @@
         <v>119.0</v>
       </c>
       <c r="C17" t="s" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s" s="10">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s" s="10">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s" s="10">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G17" s="10">
         <f>concatenate(c17,d17,e17,f17)</f>
       </c>
       <c r="H17" t="s" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I17" t="n" s="10">
         <v>2.4040993339E10</v>
+      </c>
+      <c r="J17" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K17" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L17" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M17" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N17" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O17" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P17" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="18">
@@ -2329,25 +2521,46 @@
         <v>142.0</v>
       </c>
       <c r="C18" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s" s="10">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G18" s="10">
         <f>concatenate(c18,d18,e18,f18)</f>
       </c>
       <c r="H18" t="s" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I18" t="n" s="10">
         <v>2.4041276873E10</v>
+      </c>
+      <c r="J18" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K18" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L18" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M18" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N18" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O18" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P18" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="19">
@@ -2358,25 +2571,46 @@
         <v>180.0</v>
       </c>
       <c r="C19" t="s" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s" s="10">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s" s="10">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G19" s="10">
         <f>concatenate(c19,d19,e19,f19)</f>
       </c>
       <c r="H19" t="s" s="10">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I19" t="n" s="10">
         <v>2.4041025525E10</v>
+      </c>
+      <c r="J19" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K19" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L19" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M19" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N19" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O19" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P19" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="20">
@@ -2387,25 +2621,46 @@
         <v>320.0</v>
       </c>
       <c r="C20" t="s" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s" s="10">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E20" t="s" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s" s="10">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G20" s="10">
         <f>concatenate(c20,d20,e20,f20)</f>
       </c>
       <c r="H20" t="s" s="10">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I20" t="n" s="10">
         <v>2.4041276431E10</v>
+      </c>
+      <c r="J20" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K20" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L20" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M20" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N20" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O20" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P20" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="21">
@@ -2416,25 +2671,46 @@
         <v>321.0</v>
       </c>
       <c r="C21" t="s" s="10">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s" s="10">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s" s="10">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F21" t="s" s="10">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G21" s="10">
         <f>concatenate(c21,d21,e21,f21)</f>
       </c>
       <c r="H21" t="s" s="10">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I21" t="n" s="10">
         <v>2.4040934284E10</v>
+      </c>
+      <c r="J21" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K21" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L21" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M21" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N21" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O21" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P21" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="22">
@@ -2445,25 +2721,46 @@
         <v>362.0</v>
       </c>
       <c r="C22" t="s" s="10">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F22" t="s" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G22" s="10">
         <f>concatenate(c22,d22,e22,f22)</f>
       </c>
       <c r="H22" t="s" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I22" t="n" s="10">
         <v>2.4041023101E10</v>
+      </c>
+      <c r="J22" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K22" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L22" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M22" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N22" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O22" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P22" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="23">
@@ -2474,25 +2771,46 @@
         <v>527.0</v>
       </c>
       <c r="C23" t="s" s="10">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s" s="10">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F23" t="s" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G23" s="10">
         <f>concatenate(c23,d23,e23,f23)</f>
       </c>
       <c r="H23" t="s" s="10">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I23" t="n" s="10">
         <v>2.4042048949E10</v>
+      </c>
+      <c r="J23" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K23" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L23" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M23" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N23" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O23" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P23" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -2503,25 +2821,46 @@
         <v>551.0</v>
       </c>
       <c r="C24" t="s" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s" s="10">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F24" t="s" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G24" s="10">
         <f>concatenate(c24,d24,e24,f24)</f>
       </c>
       <c r="H24" t="s" s="10">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I24" t="n" s="10">
         <v>2.4042198868E10</v>
+      </c>
+      <c r="J24" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K24" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L24" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M24" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N24" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O24" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P24" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="25">
@@ -2532,25 +2871,46 @@
         <v>862.0</v>
       </c>
       <c r="C25" t="s" s="10">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D25" t="s" s="10">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E25" t="s" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F25" t="s" s="10">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G25" s="10">
         <f>concatenate(c25,d25,e25,f25)</f>
       </c>
       <c r="H25" t="s" s="10">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I25" t="n" s="10">
         <v>2.4053669562E10</v>
+      </c>
+      <c r="J25" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K25" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L25" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M25" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N25" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O25" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P25" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="26">
@@ -2561,25 +2921,46 @@
         <v>921.0</v>
       </c>
       <c r="C26" t="s" s="10">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D26" t="s" s="10">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E26" t="s" s="10">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F26" t="s" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G26" s="10">
         <f>concatenate(c26,d26,e26,f26)</f>
       </c>
       <c r="H26" t="s" s="10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I26" t="n" s="10">
         <v>2.4054491483E10</v>
+      </c>
+      <c r="J26" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K26" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L26" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M26" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N26" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O26" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P26" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="27">
@@ -2590,25 +2971,46 @@
         <v>922.0</v>
       </c>
       <c r="C27" t="s" s="10">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D27" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s" s="10">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F27" t="s" s="10">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G27" s="10">
         <f>concatenate(c27,d27,e27,f27)</f>
       </c>
       <c r="H27" t="s" s="10">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I27" t="n" s="10">
         <v>2.4054489428E10</v>
+      </c>
+      <c r="J27" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K27" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L27" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M27" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N27" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O27" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P27" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="28">
@@ -2619,25 +3021,46 @@
         <v>-3.0</v>
       </c>
       <c r="C28" t="s" s="7">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s" s="7">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F28" t="s" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G28" s="7">
         <f>concatenate(c28,d28,e28,f28)</f>
       </c>
       <c r="H28" t="s" s="7">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I28" t="n" s="10">
         <v>2.4042181512E10</v>
+      </c>
+      <c r="J28" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K28" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L28" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M28" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N28" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O28" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P28" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="29">
@@ -2648,25 +3071,46 @@
         <v>8.0</v>
       </c>
       <c r="C29" t="s" s="10">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E29" t="s" s="10">
         <v>38</v>
       </c>
       <c r="F29" t="s" s="10">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G29" s="10">
         <f>concatenate(c29,d29,e29,f29)</f>
       </c>
       <c r="H29" t="s" s="10">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I29" t="n" s="10">
         <v>2.404102362E10</v>
+      </c>
+      <c r="J29" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K29" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L29" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M29" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N29" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O29" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P29" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="30">
@@ -2677,25 +3121,46 @@
         <v>23.0</v>
       </c>
       <c r="C30" t="s" s="10">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D30" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E30" t="s" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F30" t="s" s="10">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G30" s="10">
         <f>concatenate(c30,d30,e30,f30)</f>
       </c>
       <c r="H30" t="s" s="10">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I30" t="n" s="10">
         <v>2.404102278E10</v>
+      </c>
+      <c r="J30" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K30" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L30" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M30" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N30" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O30" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P30" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="31">
@@ -2706,25 +3171,46 @@
         <v>92.0</v>
       </c>
       <c r="C31" t="s" s="10">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D31" t="s" s="10">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E31" t="s" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F31" t="s" s="10">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G31" s="10">
         <f>concatenate(c31,d31,e31,f31)</f>
       </c>
       <c r="H31" t="s" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I31" t="n" s="10">
         <v>2.4041023954E10</v>
+      </c>
+      <c r="J31" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K31" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L31" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M31" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N31" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O31" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P31" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="32">
@@ -2735,25 +3221,46 @@
         <v>100.0</v>
       </c>
       <c r="C32" t="s" s="10">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D32" t="s" s="10">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E32" t="s" s="10">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F32" t="s" s="10">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G32" s="10">
         <f>concatenate(c32,d32,e32,f32)</f>
       </c>
       <c r="H32" t="s" s="10">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I32" t="n" s="10">
         <v>2.4041416734E10</v>
+      </c>
+      <c r="J32" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K32" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L32" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M32" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N32" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O32" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P32" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="33">
@@ -2764,25 +3271,46 @@
         <v>127.0</v>
       </c>
       <c r="C33" t="s" s="10">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D33" t="s" s="10">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s" s="10">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F33" t="s" s="10">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G33" s="10">
         <f>concatenate(c33,d33,e33,f33)</f>
       </c>
       <c r="H33" t="s" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I33" t="n" s="10">
         <v>2.404087812E10</v>
+      </c>
+      <c r="J33" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K33" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L33" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M33" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N33" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O33" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P33" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="34">
@@ -2793,25 +3321,46 @@
         <v>147.0</v>
       </c>
       <c r="C34" t="s" s="10">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D34" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E34" t="s" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F34" t="s" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G34" s="10">
         <f>concatenate(c34,d34,e34,f34)</f>
       </c>
       <c r="H34" t="s" s="10">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I34" t="n" s="10">
         <v>2.4040993764E10</v>
+      </c>
+      <c r="J34" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K34" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L34" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M34" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N34" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O34" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P34" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="35">
@@ -2822,25 +3371,46 @@
         <v>178.0</v>
       </c>
       <c r="C35" t="s" s="10">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D35" t="s" s="10">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E35" t="s" s="10">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F35" t="s" s="10">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G35" s="10">
         <f>concatenate(c35,d35,e35,f35)</f>
       </c>
       <c r="H35" t="s" s="10">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I35" t="n" s="10">
         <v>2.404087519E10</v>
+      </c>
+      <c r="J35" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K35" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L35" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M35" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N35" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O35" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P35" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="36">
@@ -2851,25 +3421,46 @@
         <v>206.0</v>
       </c>
       <c r="C36" t="s" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D36" t="s" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E36" t="s" s="10">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F36" t="s" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G36" s="10">
         <f>concatenate(c36,d36,e36,f36)</f>
       </c>
       <c r="H36" t="s" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I36" t="n" s="10">
         <v>2.4040875215E10</v>
+      </c>
+      <c r="J36" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K36" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L36" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M36" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N36" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O36" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P36" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="37">
@@ -2880,25 +3471,46 @@
         <v>212.0</v>
       </c>
       <c r="C37" t="s" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D37" t="s" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E37" t="s" s="10">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F37" t="s" s="10">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G37" s="10">
         <f>concatenate(c37,d37,e37,f37)</f>
       </c>
       <c r="H37" t="s" s="10">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I37" t="n" s="10">
         <v>2.4040877071E10</v>
+      </c>
+      <c r="J37" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K37" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L37" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M37" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N37" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O37" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P37" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="38">
@@ -2909,25 +3521,46 @@
         <v>249.0</v>
       </c>
       <c r="C38" t="s" s="10">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D38" t="s" s="10">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E38" t="s" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F38" t="s" s="10">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G38" s="10">
         <f>concatenate(c38,d38,e38,f38)</f>
       </c>
       <c r="H38" t="s" s="10">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I38" t="n" s="10">
         <v>2.4040875811E10</v>
+      </c>
+      <c r="J38" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K38" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L38" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M38" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N38" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O38" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P38" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="39">
@@ -2938,25 +3571,46 @@
         <v>252.0</v>
       </c>
       <c r="C39" t="s" s="10">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D39" t="s" s="10">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E39" t="s" s="10">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F39" t="s" s="10">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G39" s="10">
         <f>concatenate(c39,d39,e39,f39)</f>
       </c>
       <c r="H39" t="s" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I39" t="n" s="10">
         <v>2.4041024351E10</v>
+      </c>
+      <c r="J39" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K39" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L39" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M39" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N39" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O39" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P39" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="40">
@@ -2967,25 +3621,46 @@
         <v>256.0</v>
       </c>
       <c r="C40" t="s" s="10">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D40" t="s" s="10">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E40" t="s" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F40" t="s" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G40" s="10">
         <f>concatenate(c40,d40,e40,f40)</f>
       </c>
       <c r="H40" t="s" s="10">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I40" t="n" s="10">
         <v>2.4041024104E10</v>
+      </c>
+      <c r="J40" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K40" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L40" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M40" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N40" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O40" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P40" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="41">
@@ -2996,25 +3671,46 @@
         <v>375.0</v>
       </c>
       <c r="C41" t="s" s="10">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D41" t="s" s="10">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E41" t="s" s="10">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F41" t="s" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G41" s="10">
         <f>concatenate(c41,d41,e41,f41)</f>
       </c>
       <c r="H41" t="s" s="10">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I41" t="n" s="10">
         <v>2.4040935674E10</v>
+      </c>
+      <c r="J41" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K41" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L41" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M41" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N41" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O41" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P41" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="42">
@@ -3025,25 +3721,46 @@
         <v>402.0</v>
       </c>
       <c r="C42" t="s" s="10">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D42" t="s" s="10">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E42" t="s" s="10">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F42" t="s" s="10">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G42" s="10">
         <f>concatenate(c42,d42,e42,f42)</f>
       </c>
       <c r="H42" t="s" s="10">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I42" t="n" s="10">
         <v>2.4040884839E10</v>
+      </c>
+      <c r="J42" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K42" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L42" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M42" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N42" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O42" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P42" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="43">
@@ -3054,25 +3771,46 @@
         <v>403.0</v>
       </c>
       <c r="C43" t="s" s="10">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D43" t="s" s="10">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E43" t="s" s="10">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F43" t="s" s="10">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G43" s="10">
         <f>concatenate(c43,d43,e43,f43)</f>
       </c>
       <c r="H43" t="s" s="10">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I43" t="n" s="10">
         <v>2.4040874375E10</v>
+      </c>
+      <c r="J43" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K43" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L43" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M43" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N43" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O43" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P43" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="44">
@@ -3083,25 +3821,46 @@
         <v>411.0</v>
       </c>
       <c r="C44" t="s" s="10">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D44" t="s" s="10">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E44" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s" s="10">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G44" s="10">
         <f>concatenate(c44,d44,e44,f44)</f>
       </c>
       <c r="H44" t="s" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I44" t="n" s="10">
         <v>2.404093596E10</v>
+      </c>
+      <c r="J44" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K44" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L44" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M44" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N44" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O44" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P44" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="45">
@@ -3112,25 +3871,46 @@
         <v>639.0</v>
       </c>
       <c r="C45" t="s" s="10">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D45" t="s" s="10">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E45" t="s" s="10">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F45" t="s" s="10">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G45" s="10">
         <f>concatenate(c45,d45,e45,f45)</f>
       </c>
       <c r="H45" t="s" s="10">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I45" t="n" s="10">
         <v>2.404448862E10</v>
+      </c>
+      <c r="J45" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K45" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L45" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M45" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N45" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O45" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P45" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="46">
@@ -3141,25 +3921,46 @@
         <v>704.0</v>
       </c>
       <c r="C46" t="s" s="10">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D46" t="s" s="10">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E46" t="s" s="10">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F46" t="s" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G46" s="10">
         <f>concatenate(c46,d46,e46,f46)</f>
       </c>
       <c r="H46" t="s" s="10">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I46" t="n" s="10">
         <v>2.404551069E10</v>
+      </c>
+      <c r="J46" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K46" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L46" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M46" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N46" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O46" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P46" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="47">
@@ -3170,25 +3971,46 @@
         <v>737.0</v>
       </c>
       <c r="C47" t="s" s="10">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D47" t="s" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E47" t="s" s="10">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F47" t="s" s="10">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G47" s="10">
         <f>concatenate(c47,d47,e47,f47)</f>
       </c>
       <c r="H47" t="s" s="10">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I47" t="n" s="10">
         <v>2.4046162342E10</v>
+      </c>
+      <c r="J47" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K47" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L47" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M47" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N47" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O47" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P47" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="48">
@@ -3199,25 +4021,46 @@
         <v>738.0</v>
       </c>
       <c r="C48" t="s" s="10">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D48" t="s" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E48" t="s" s="10">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F48" t="s" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G48" s="10">
         <f>concatenate(c48,d48,e48,f48)</f>
       </c>
       <c r="H48" t="s" s="10">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I48" t="n" s="10">
         <v>2.4046415938E10</v>
+      </c>
+      <c r="J48" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K48" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L48" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M48" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N48" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O48" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P48" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="49">
@@ -3228,25 +4071,46 @@
         <v>807.0</v>
       </c>
       <c r="C49" t="s" s="10">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D49" t="s" s="10">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E49" t="s" s="10">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F49" t="s" s="10">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G49" s="10">
         <f>concatenate(c49,d49,e49,f49)</f>
       </c>
       <c r="H49" t="s" s="10">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I49" t="n" s="10">
         <v>2.4051432896E10</v>
+      </c>
+      <c r="J49" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K49" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L49" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M49" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N49" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O49" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P49" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="50">
@@ -3257,25 +4121,46 @@
         <v>887.0</v>
       </c>
       <c r="C50" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D50" t="s" s="10">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E50" t="s" s="10">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F50" t="s" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G50" s="10">
         <f>concatenate(c50,d50,e50,f50)</f>
       </c>
       <c r="H50" t="s" s="10">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I50" t="n" s="10">
         <v>2.4054095171E10</v>
+      </c>
+      <c r="J50" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K50" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L50" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M50" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N50" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O50" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P50" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="51">
@@ -3286,25 +4171,46 @@
         <v>928.0</v>
       </c>
       <c r="C51" t="s" s="10">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D51" t="s" s="10">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E51" t="s" s="10">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F51" t="s" s="10">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G51" s="10">
         <f>concatenate(c51,d51,e51,f51)</f>
       </c>
       <c r="H51" t="s" s="10">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I51" t="n" s="10">
         <v>2.4040877468E10</v>
+      </c>
+      <c r="J51" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K51" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L51" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M51" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N51" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O51" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P51" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="52">
@@ -3315,25 +4221,46 @@
         <v>978.0</v>
       </c>
       <c r="C52" t="s" s="10">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D52" t="s" s="10">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E52" t="s" s="10">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F52" t="s" s="10">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G52" s="10">
         <f>concatenate(c52,d52,e52,f52)</f>
       </c>
       <c r="H52" t="s" s="10">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I52" t="n" s="10">
         <v>2.4041021648E10</v>
+      </c>
+      <c r="J52" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K52" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L52" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M52" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N52" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O52" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P52" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="53">
@@ -3344,25 +4271,46 @@
         <v>1028.0</v>
       </c>
       <c r="C53" t="s" s="10">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D53" t="s" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E53" t="s" s="10">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F53" t="s" s="10">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G53" s="10">
         <f>concatenate(c53,d53,e53,f53)</f>
       </c>
       <c r="H53" t="s" s="10">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I53" t="n" s="10">
         <v>2.4056106293E10</v>
+      </c>
+      <c r="J53" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K53" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L53" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M53" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N53" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O53" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P53" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="54">
@@ -3373,25 +4321,46 @@
         <v>1044.0</v>
       </c>
       <c r="C54" t="s" s="10">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D54" t="s" s="10">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E54" t="s" s="10">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F54" t="s" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G54" s="10">
         <f>concatenate(c54,d54,e54,f54)</f>
       </c>
       <c r="H54" t="s" s="10">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I54" t="n" s="10">
         <v>2.4056114434E10</v>
+      </c>
+      <c r="J54" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K54" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L54" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M54" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N54" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O54" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P54" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="55">
@@ -3402,25 +4371,46 @@
         <v>1046.0</v>
       </c>
       <c r="C55" t="s" s="10">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" t="s" s="10">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E55" t="s" s="10">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F55" t="s" s="10">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G55" s="10">
         <f>concatenate(c55,d55,e55,f55)</f>
       </c>
       <c r="H55" t="s" s="10">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I55" t="n" s="10">
         <v>2.405611458E10</v>
+      </c>
+      <c r="J55" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K55" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L55" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M55" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N55" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O55" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P55" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="56">
@@ -3431,25 +4421,46 @@
         <v>1106.0</v>
       </c>
       <c r="C56" t="s" s="10">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D56" t="s" s="10">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E56" t="s" s="10">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F56" t="s" s="10">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G56" s="10">
         <f>concatenate(c56,d56,e56,f56)</f>
       </c>
       <c r="H56" t="s" s="10">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I56" t="n" s="10">
         <v>2.4057413329E10</v>
+      </c>
+      <c r="J56" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K56" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L56" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M56" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N56" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O56" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P56" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="57">
@@ -3460,25 +4471,46 @@
         <v>1108.0</v>
       </c>
       <c r="C57" t="s" s="10">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D57" t="s" s="10">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E57" t="s" s="10">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F57" t="s" s="10">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G57" s="10">
         <f>concatenate(c57,d57,e57,f57)</f>
       </c>
       <c r="H57" t="s" s="10">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I57" t="n" s="10">
         <v>2.4057558006E10</v>
+      </c>
+      <c r="J57" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K57" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L57" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M57" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N57" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O57" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P57" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="58">
@@ -3489,25 +4521,46 @@
         <v>221.0</v>
       </c>
       <c r="C58" t="s" s="7">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D58" t="s" s="7">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E58" t="s" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s" s="7">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G58" s="7">
         <f>concatenate(c58,d58,e58,f58)</f>
       </c>
       <c r="H58" t="s" s="7">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I58" t="n" s="10">
         <v>2.4040980566E10</v>
+      </c>
+      <c r="J58" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K58" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L58" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M58" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N58" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O58" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P58" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="59">
@@ -3518,25 +4571,46 @@
         <v>484.0</v>
       </c>
       <c r="C59" t="s" s="10">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D59" t="s" s="10">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E59" t="s" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F59" t="s" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G59" s="10">
         <f>concatenate(c59,d59,e59,f59)</f>
       </c>
       <c r="H59" t="s" s="10">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I59" t="n" s="10">
         <v>2.404147226E10</v>
+      </c>
+      <c r="J59" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K59" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L59" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M59" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N59" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O59" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P59" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="60">
@@ -3547,25 +4621,46 @@
         <v>768.0</v>
       </c>
       <c r="C60" t="s" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D60" t="s" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E60" t="s" s="10">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F60" t="s" s="10">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G60" s="10">
         <f>concatenate(c60,d60,e60,f60)</f>
       </c>
       <c r="H60" t="s" s="10">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I60" t="n" s="10">
         <v>2.4048444831E10</v>
+      </c>
+      <c r="J60" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K60" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L60" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M60" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N60" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O60" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P60" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="61">
@@ -3576,25 +4671,46 @@
         <v>798.0</v>
       </c>
       <c r="C61" t="s" s="10">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D61" t="s" s="10">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E61" t="s" s="10">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F61" t="s" s="10">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G61" s="10">
         <f>concatenate(c61,d61,e61,f61)</f>
       </c>
       <c r="H61" t="s" s="10">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I61" t="n" s="10">
         <v>2.4051430566E10</v>
+      </c>
+      <c r="J61" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K61" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L61" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M61" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N61" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O61" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P61" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="62">
@@ -3605,25 +4721,46 @@
         <v>826.0</v>
       </c>
       <c r="C62" t="s" s="10">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D62" t="s" s="10">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E62" t="s" s="10">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F62" t="s" s="10">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G62" s="10">
         <f>concatenate(c62,d62,e62,f62)</f>
       </c>
       <c r="H62" t="s" s="10">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I62" t="n" s="10">
         <v>2.4046973465E10</v>
+      </c>
+      <c r="J62" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K62" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L62" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M62" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N62" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O62" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P62" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="63">
@@ -3634,25 +4771,46 @@
         <v>832.0</v>
       </c>
       <c r="C63" t="s" s="10">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D63" t="s" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E63" t="s" s="10">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F63" t="s" s="10">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G63" s="10">
         <f>concatenate(c63,d63,e63,f63)</f>
       </c>
       <c r="H63" t="s" s="10">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I63" t="n" s="10">
         <v>2.4053029892E10</v>
+      </c>
+      <c r="J63" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K63" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L63" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M63" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N63" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O63" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P63" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="64">
@@ -3663,25 +4821,46 @@
         <v>834.0</v>
       </c>
       <c r="C64" t="s" s="10">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D64" t="s" s="10">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E64" t="s" s="10">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F64" t="s" s="10">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G64" s="10">
         <f>concatenate(c64,d64,e64,f64)</f>
       </c>
       <c r="H64" t="s" s="10">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I64" t="n" s="10">
         <v>2.4053031097E10</v>
+      </c>
+      <c r="J64" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K64" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L64" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M64" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N64" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O64" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P64" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="65">
@@ -3692,25 +4871,46 @@
         <v>837.0</v>
       </c>
       <c r="C65" t="s" s="10">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D65" t="s" s="10">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E65" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s" s="10">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G65" s="10">
         <f>concatenate(c65,d65,e65,f65)</f>
       </c>
       <c r="H65" t="s" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I65" t="n" s="10">
         <v>2.4042062301E10</v>
+      </c>
+      <c r="J65" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K65" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L65" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M65" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N65" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O65" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P65" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="66">
@@ -3721,25 +4921,46 @@
         <v>851.0</v>
       </c>
       <c r="C66" t="s" s="10">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D66" t="s" s="10">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E66" t="s" s="10">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F66" t="s" s="10">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G66" s="10">
         <f>concatenate(c66,d66,e66,f66)</f>
       </c>
       <c r="H66" t="s" s="10">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I66" t="n" s="10">
         <v>2.4053221605E10</v>
+      </c>
+      <c r="J66" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K66" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L66" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M66" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N66" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O66" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P66" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="67">
@@ -3750,25 +4971,46 @@
         <v>855.0</v>
       </c>
       <c r="C67" t="s" s="10">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D67" t="s" s="10">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E67" t="s" s="10">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F67" t="s" s="10">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G67" s="10">
         <f>concatenate(c67,d67,e67,f67)</f>
       </c>
       <c r="H67" t="s" s="10">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I67" t="n" s="10">
         <v>2.405358386E10</v>
+      </c>
+      <c r="J67" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K67" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L67" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M67" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N67" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O67" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P67" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="68">
@@ -3779,25 +5021,46 @@
         <v>861.0</v>
       </c>
       <c r="C68" t="s" s="10">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D68" t="s" s="10">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E68" t="s" s="10">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F68" t="s" s="10">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G68" s="10">
         <f>concatenate(c68,d68,e68,f68)</f>
       </c>
       <c r="H68" t="s" s="10">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I68" t="n" s="10">
         <v>2.4053670384E10</v>
+      </c>
+      <c r="J68" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K68" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L68" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M68" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N68" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O68" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P68" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="69">
@@ -3808,25 +5071,46 @@
         <v>938.0</v>
       </c>
       <c r="C69" t="s" s="10">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D69" t="s" s="10">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E69" t="s" s="10">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F69" t="s" s="10">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G69" s="10">
         <f>concatenate(c69,d69,e69,f69)</f>
       </c>
       <c r="H69" t="s" s="10">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I69" t="n" s="10">
         <v>2.4054779741E10</v>
+      </c>
+      <c r="J69" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K69" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L69" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M69" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N69" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O69" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P69" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="70">
@@ -3837,25 +5121,46 @@
         <v>975.0</v>
       </c>
       <c r="C70" t="s" s="10">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D70" t="s" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E70" t="s" s="10">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F70" t="s" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G70" s="10">
         <f>concatenate(c70,d70,e70,f70)</f>
       </c>
       <c r="H70" t="s" s="10">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I70" t="n" s="10">
         <v>2.4052657078E10</v>
+      </c>
+      <c r="J70" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K70" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L70" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M70" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N70" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O70" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P70" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="71">
@@ -3866,25 +5171,46 @@
         <v>979.0</v>
       </c>
       <c r="C71" t="s" s="10">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D71" t="s" s="10">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E71" t="s" s="10">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F71" t="s" s="10">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G71" s="10">
         <f>concatenate(c71,d71,e71,f71)</f>
       </c>
       <c r="H71" t="s" s="10">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I71" t="n" s="10">
         <v>2.4055405207E10</v>
+      </c>
+      <c r="J71" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K71" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L71" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M71" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N71" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O71" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P71" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="72">
@@ -3895,25 +5221,46 @@
         <v>1073.0</v>
       </c>
       <c r="C72" t="s" s="10">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D72" t="s" s="10">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E72" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s" s="10">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G72" s="10">
         <f>concatenate(c72,d72,e72,f72)</f>
       </c>
       <c r="H72" t="s" s="10">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I72" t="n" s="10">
         <v>2.4052656277E10</v>
+      </c>
+      <c r="J72" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K72" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L72" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M72" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N72" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O72" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P72" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="73">
@@ -3924,25 +5271,46 @@
         <v>-4.0</v>
       </c>
       <c r="C73" t="s" s="7">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D73" t="s" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E73" t="s" s="7">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F73" t="s" s="7">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G73" s="7">
         <f>concatenate(c73,d73,e73,f73)</f>
       </c>
       <c r="H73" t="s" s="7">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I73" t="n" s="10">
         <v>2.4040877482E10</v>
+      </c>
+      <c r="J73" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K73" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L73" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M73" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N73" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O73" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P73" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="74">
@@ -3953,25 +5321,46 @@
         <v>22.0</v>
       </c>
       <c r="C74" t="s" s="10">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D74" t="s" s="10">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E74" t="s" s="10">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F74" t="s" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G74" s="10">
         <f>concatenate(c74,d74,e74,f74)</f>
       </c>
       <c r="H74" t="s" s="10">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I74" t="n" s="10">
         <v>2.4041023916E10</v>
+      </c>
+      <c r="J74" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K74" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L74" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M74" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N74" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O74" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P74" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="75">
@@ -3982,25 +5371,46 @@
         <v>46.0</v>
       </c>
       <c r="C75" t="s" s="10">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D75" t="s" s="10">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E75" t="s" s="10">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F75" t="s" s="10">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G75" s="10">
         <f>concatenate(c75,d75,e75,f75)</f>
       </c>
       <c r="H75" t="s" s="10">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I75" t="n" s="10">
         <v>2.4041024988E10</v>
+      </c>
+      <c r="J75" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K75" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L75" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M75" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N75" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O75" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P75" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="76">
@@ -4011,13 +5421,13 @@
         <v>148.0</v>
       </c>
       <c r="C76" t="s" s="10">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D76" t="s" s="10">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E76" t="s" s="10">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F76" t="s" s="10">
         <v>39</v>
@@ -4026,10 +5436,31 @@
         <f>concatenate(c76,d76,e76,f76)</f>
       </c>
       <c r="H76" t="s" s="10">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I76" t="n" s="10">
         <v>2.4041022533E10</v>
+      </c>
+      <c r="J76" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K76" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L76" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M76" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N76" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O76" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P76" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="77">
@@ -4040,25 +5471,46 @@
         <v>176.0</v>
       </c>
       <c r="C77" t="s" s="10">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D77" t="s" s="10">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E77" t="s" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F77" t="s" s="10">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G77" s="10">
         <f>concatenate(c77,d77,e77,f77)</f>
       </c>
       <c r="H77" t="s" s="10">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I77" t="n" s="10">
         <v>2.4041022331E10</v>
+      </c>
+      <c r="J77" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K77" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L77" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M77" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N77" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O77" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P77" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="78">
@@ -4069,25 +5521,46 @@
         <v>227.0</v>
       </c>
       <c r="C78" t="s" s="10">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D78" t="s" s="10">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E78" t="s" s="10">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F78" t="s" s="10">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G78" s="10">
         <f>concatenate(c78,d78,e78,f78)</f>
       </c>
       <c r="H78" t="s" s="10">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I78" t="n" s="10">
         <v>2.4041023839E10</v>
+      </c>
+      <c r="J78" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K78" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L78" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M78" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N78" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O78" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P78" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="79">
@@ -4098,25 +5571,46 @@
         <v>291.0</v>
       </c>
       <c r="C79" t="s" s="10">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D79" t="s" s="10">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E79" t="s" s="10">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F79" t="s" s="10">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G79" s="10">
         <f>concatenate(c79,d79,e79,f79)</f>
       </c>
       <c r="H79" t="s" s="10">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I79" t="n" s="10">
         <v>2.4041021819E10</v>
+      </c>
+      <c r="J79" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K79" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L79" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M79" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N79" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O79" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P79" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="80">
@@ -4127,25 +5621,46 @@
         <v>442.0</v>
       </c>
       <c r="C80" t="s" s="10">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D80" t="s" s="10">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E80" t="s" s="10">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F80" t="s" s="10">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G80" s="10">
         <f>concatenate(c80,d80,e80,f80)</f>
       </c>
       <c r="H80" t="s" s="10">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I80" t="n" s="10">
         <v>2.4041022247E10</v>
+      </c>
+      <c r="J80" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K80" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L80" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M80" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N80" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O80" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P80" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="81">
@@ -4156,25 +5671,46 @@
         <v>836.0</v>
       </c>
       <c r="C81" t="s" s="10">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D81" t="s" s="10">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E81" t="s" s="10">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F81" t="s" s="10">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G81" s="10">
         <f>concatenate(c81,d81,e81,f81)</f>
       </c>
       <c r="H81" t="s" s="10">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I81" t="n" s="10">
         <v>2.4053009766E10</v>
+      </c>
+      <c r="J81" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K81" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L81" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M81" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N81" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O81" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P81" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="82">
@@ -4185,25 +5721,46 @@
         <v>895.0</v>
       </c>
       <c r="C82" t="s" s="10">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D82" t="s" s="10">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E82" t="s" s="10">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F82" t="s" s="10">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G82" s="10">
         <f>concatenate(c82,d82,e82,f82)</f>
       </c>
       <c r="H82" t="s" s="10">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I82" t="n" s="10">
         <v>2.4054201541E10</v>
+      </c>
+      <c r="J82" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K82" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L82" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M82" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N82" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O82" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P82" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="83">
@@ -4214,25 +5771,46 @@
         <v>944.0</v>
       </c>
       <c r="C83" t="s" s="10">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D83" t="s" s="10">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E83" t="s" s="10">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F83" t="s" s="10">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G83" s="10">
         <f>concatenate(c83,d83,e83,f83)</f>
       </c>
       <c r="H83" t="s" s="10">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I83" t="n" s="10">
         <v>2.4054858613E10</v>
+      </c>
+      <c r="J83" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K83" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L83" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M83" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N83" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O83" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P83" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="84">
@@ -4243,25 +5821,46 @@
         <v>960.0</v>
       </c>
       <c r="C84" t="s" s="10">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D84" t="s" s="10">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E84" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s" s="10">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G84" s="10">
         <f>concatenate(c84,d84,e84,f84)</f>
       </c>
       <c r="H84" t="s" s="10">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I84" t="n" s="10">
         <v>2.4055339766E10</v>
+      </c>
+      <c r="J84" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K84" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L84" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M84" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N84" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O84" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P84" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="85">
@@ -4272,25 +5871,46 @@
         <v>962.0</v>
       </c>
       <c r="C85" t="s" s="10">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D85" t="s" s="10">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E85" t="s" s="10">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F85" t="s" s="10">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G85" s="10">
         <f>concatenate(c85,d85,e85,f85)</f>
       </c>
       <c r="H85" t="s" s="10">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I85" t="n" s="10">
         <v>2.4055339216E10</v>
+      </c>
+      <c r="J85" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K85" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L85" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M85" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N85" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O85" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P85" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="86">
@@ -4301,25 +5921,46 @@
         <v>981.0</v>
       </c>
       <c r="C86" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D86" t="s" s="10">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E86" t="s" s="10">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F86" t="s" s="10">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G86" s="10">
         <f>concatenate(c86,d86,e86,f86)</f>
       </c>
       <c r="H86" t="s" s="10">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I86" t="n" s="10">
         <v>2.4055406596E10</v>
+      </c>
+      <c r="J86" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K86" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L86" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M86" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N86" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O86" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P86" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="87">
@@ -4330,25 +5971,46 @@
         <v>1023.0</v>
       </c>
       <c r="C87" t="s" s="10">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D87" t="s" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E87" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s" s="10">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G87" s="10">
         <f>concatenate(c87,d87,e87,f87)</f>
       </c>
       <c r="H87" t="s" s="10">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I87" t="n" s="10">
         <v>2.4055811097E10</v>
+      </c>
+      <c r="J87" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K87" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L87" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M87" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N87" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O87" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P87" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="88">
@@ -4359,25 +6021,46 @@
         <v>1086.0</v>
       </c>
       <c r="C88" t="s" s="10">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D88" t="s" s="10">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E88" t="s" s="10">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F88" t="s" s="10">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G88" s="10">
         <f>concatenate(c88,d88,e88,f88)</f>
       </c>
       <c r="H88" t="s" s="10">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I88" t="n" s="10">
         <v>2.4056726293E10</v>
+      </c>
+      <c r="J88" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K88" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L88" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M88" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N88" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O88" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P88" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="89">
@@ -4388,25 +6071,46 @@
         <v>1125.0</v>
       </c>
       <c r="C89" t="s" s="10">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D89" t="s" s="10">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E89" t="s" s="10">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F89" t="s" s="10">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G89" s="10">
         <f>concatenate(c89,d89,e89,f89)</f>
       </c>
       <c r="H89" t="s" s="10">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I89" t="n" s="10">
         <v>2.4041022658E10</v>
+      </c>
+      <c r="J89" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K89" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L89" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M89" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N89" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O89" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P89" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="90">
@@ -4417,25 +6121,46 @@
         <v>1129.0</v>
       </c>
       <c r="C90" t="s" s="10">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D90" t="s" s="10">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E90" t="s" s="10">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F90" t="s" s="10">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G90" s="10">
         <f>concatenate(c90,d90,e90,f90)</f>
       </c>
       <c r="H90" t="s" s="10">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I90" t="n" s="10">
         <v>2.4041280579E10</v>
+      </c>
+      <c r="J90" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K90" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L90" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M90" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N90" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O90" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P90" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="91">
@@ -4446,25 +6171,46 @@
         <v>-5.0</v>
       </c>
       <c r="C91" t="s" s="7">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D91" t="s" s="7">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E91" t="s" s="7">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F91" t="s" s="7">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G91" s="7">
         <f>concatenate(c91,d91,e91,f91)</f>
       </c>
       <c r="H91" t="s" s="7">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I91" t="n" s="10">
         <v>2.404126672E10</v>
+      </c>
+      <c r="J91" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K91" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L91" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M91" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N91" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O91" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P91" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="92">
@@ -4475,25 +6221,46 @@
         <v>226.0</v>
       </c>
       <c r="C92" t="s" s="10">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D92" t="s" s="10">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E92" t="s" s="10">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F92" t="s" s="10">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G92" s="10">
         <f>concatenate(c92,d92,e92,f92)</f>
       </c>
       <c r="H92" t="s" s="10">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I92" t="n" s="10">
         <v>2.4041022069E10</v>
+      </c>
+      <c r="J92" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K92" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L92" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M92" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N92" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O92" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P92" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="93">
@@ -4504,25 +6271,46 @@
         <v>235.0</v>
       </c>
       <c r="C93" t="s" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D93" t="s" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E93" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F93" t="s" s="10">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G93" s="10">
         <f>concatenate(c93,d93,e93,f93)</f>
       </c>
       <c r="H93" t="s" s="10">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I93" t="n" s="10">
         <v>2.4040878478E10</v>
+      </c>
+      <c r="J93" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K93" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L93" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M93" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N93" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O93" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P93" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="94">
@@ -4533,25 +6321,46 @@
         <v>334.0</v>
       </c>
       <c r="C94" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D94" t="s" s="10">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E94" t="s" s="10">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F94" t="s" s="10">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G94" s="10">
         <f>concatenate(c94,d94,e94,f94)</f>
       </c>
       <c r="H94" t="s" s="10">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I94" t="n" s="10">
         <v>2.4040875563E10</v>
+      </c>
+      <c r="J94" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K94" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L94" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M94" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N94" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O94" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P94" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="95">
@@ -4562,25 +6371,46 @@
         <v>346.0</v>
       </c>
       <c r="C95" t="s" s="10">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D95" t="s" s="10">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E95" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F95" t="s" s="10">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G95" s="10">
         <f>concatenate(c95,d95,e95,f95)</f>
       </c>
       <c r="H95" t="s" s="10">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I95" t="n" s="10">
         <v>2.4040980573E10</v>
+      </c>
+      <c r="J95" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K95" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L95" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M95" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N95" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O95" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P95" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="96">
@@ -4591,25 +6421,46 @@
         <v>472.0</v>
       </c>
       <c r="C96" t="s" s="10">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D96" t="s" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E96" t="s" s="10">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F96" t="s" s="10">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G96" s="10">
         <f>concatenate(c96,d96,e96,f96)</f>
       </c>
       <c r="H96" t="s" s="10">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I96" t="n" s="10">
         <v>2.4040935744E10</v>
+      </c>
+      <c r="J96" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K96" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L96" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M96" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N96" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O96" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P96" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="97">
@@ -4620,25 +6471,46 @@
         <v>491.0</v>
       </c>
       <c r="C97" t="s" s="10">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D97" t="s" s="10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E97" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F97" t="s" s="10">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G97" s="10">
         <f>concatenate(c97,d97,e97,f97)</f>
       </c>
       <c r="H97" t="s" s="10">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I97" t="n" s="10">
         <v>2.4041395008E10</v>
+      </c>
+      <c r="J97" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K97" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L97" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M97" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N97" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O97" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P97" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="98">
@@ -4649,25 +6521,46 @@
         <v>502.0</v>
       </c>
       <c r="C98" t="s" s="10">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D98" t="s" s="10">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E98" t="s" s="10">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F98" t="s" s="10">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G98" s="10">
         <f>concatenate(c98,d98,e98,f98)</f>
       </c>
       <c r="H98" t="s" s="10">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I98" t="n" s="10">
         <v>2.4041860146E10</v>
+      </c>
+      <c r="J98" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K98" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L98" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M98" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N98" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O98" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P98" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="99">
@@ -4678,25 +6571,46 @@
         <v>892.0</v>
       </c>
       <c r="C99" t="s" s="10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D99" t="s" s="10">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E99" t="s" s="10">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F99" t="s" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G99" s="10">
         <f>concatenate(c99,d99,e99,f99)</f>
       </c>
       <c r="H99" t="s" s="10">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I99" t="n" s="10">
         <v>2.4054172489E10</v>
+      </c>
+      <c r="J99" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K99" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L99" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M99" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N99" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O99" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P99" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="100">
@@ -4707,25 +6621,46 @@
         <v>1021.0</v>
       </c>
       <c r="C100" t="s" s="10">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D100" t="s" s="10">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E100" t="s" s="10">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F100" t="s" s="10">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G100" s="10">
         <f>concatenate(c100,d100,e100,f100)</f>
       </c>
       <c r="H100" t="s" s="10">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I100" t="n" s="10">
         <v>2.4055841694E10</v>
+      </c>
+      <c r="J100" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K100" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L100" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M100" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N100" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O100" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P100" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="101">
@@ -4736,25 +6671,46 @@
         <v>1050.0</v>
       </c>
       <c r="C101" t="s" s="10">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D101" t="s" s="10">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E101" t="s" s="10">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F101" t="s" s="10">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G101" s="10">
         <f>concatenate(c101,d101,e101,f101)</f>
       </c>
       <c r="H101" t="s" s="10">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I101" t="n" s="10">
         <v>2.4041265556E10</v>
+      </c>
+      <c r="J101" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K101" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L101" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M101" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N101" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O101" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P101" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="102">
@@ -4765,25 +6721,46 @@
         <v>1067.0</v>
       </c>
       <c r="C102" t="s" s="10">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D102" t="s" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E102" t="s" s="10">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F102" t="s" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G102" s="10">
         <f>concatenate(c102,d102,e102,f102)</f>
       </c>
       <c r="H102" t="s" s="10">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I102" t="n" s="10">
         <v>2.4056458886E10</v>
+      </c>
+      <c r="J102" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K102" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L102" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M102" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N102" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O102" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P102" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="103">
@@ -4794,25 +6771,46 @@
         <v>1080.0</v>
       </c>
       <c r="C103" t="s" s="10">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D103" t="s" s="10">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E103" t="s" s="10">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F103" t="s" s="10">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G103" s="10">
         <f>concatenate(c103,d103,e103,f103)</f>
       </c>
       <c r="H103" t="s" s="10">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I103" t="n" s="10">
         <v>2.4056675148E10</v>
+      </c>
+      <c r="J103" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K103" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L103" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M103" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N103" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O103" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P103" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="104">
@@ -4823,25 +6821,46 @@
         <v>1104.0</v>
       </c>
       <c r="C104" t="s" s="10">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D104" t="s" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E104" t="s" s="10">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F104" t="s" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G104" s="10">
         <f>concatenate(c104,d104,e104,f104)</f>
       </c>
       <c r="H104" t="s" s="10">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I104" t="n" s="10">
         <v>2.4041264933E10</v>
+      </c>
+      <c r="J104" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K104" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L104" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M104" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N104" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O104" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P104" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="105">
@@ -4852,25 +6871,46 @@
         <v>1105.0</v>
       </c>
       <c r="C105" t="s" s="10">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D105" t="s" s="10">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E105" t="s" s="10">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F105" t="s" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G105" s="10">
         <f>concatenate(c105,d105,e105,f105)</f>
       </c>
       <c r="H105" t="s" s="10">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I105" t="n" s="10">
         <v>2.4041022456E10</v>
+      </c>
+      <c r="J105" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K105" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L105" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M105" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N105" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O105" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P105" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="106">
@@ -4881,25 +6921,46 @@
         <v>-6.0</v>
       </c>
       <c r="C106" t="s" s="7">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D106" t="s" s="7">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E106" t="s" s="7">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F106" t="s" s="7">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G106" s="7">
         <f>concatenate(c106,d106,e106,f106)</f>
       </c>
       <c r="H106" t="s" s="7">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I106" t="n" s="10">
         <v>2.4040908836E10</v>
+      </c>
+      <c r="J106" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K106" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L106" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M106" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N106" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O106" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P106" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="107">
@@ -4910,25 +6971,46 @@
         <v>224.0</v>
       </c>
       <c r="C107" t="s" s="10">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D107" t="s" s="10">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E107" t="s" s="10">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F107" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G107" s="10">
         <f>concatenate(c107,d107,e107,f107)</f>
       </c>
       <c r="H107" t="s" s="10">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I107" t="n" s="10">
         <v>2.4040980085E10</v>
+      </c>
+      <c r="J107" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K107" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L107" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M107" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N107" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O107" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P107" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="108">
@@ -4939,25 +7021,46 @@
         <v>779.0</v>
       </c>
       <c r="C108" t="s" s="10">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D108" t="s" s="10">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E108" t="s" s="10">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F108" t="s" s="10">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G108" s="10">
         <f>concatenate(c108,d108,e108,f108)</f>
       </c>
       <c r="H108" t="s" s="10">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I108" t="n" s="10">
         <v>2.4050221567E10</v>
+      </c>
+      <c r="J108" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K108" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L108" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M108" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N108" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O108" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P108" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="109">
@@ -4968,25 +7071,46 @@
         <v>849.0</v>
       </c>
       <c r="C109" t="s" s="10">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D109" t="s" s="10">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E109" t="s" s="10">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F109" t="s" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G109" s="10">
         <f>concatenate(c109,d109,e109,f109)</f>
       </c>
       <c r="H109" t="s" s="10">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I109" t="n" s="10">
         <v>2.4041023644E10</v>
+      </c>
+      <c r="J109" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K109" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L109" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M109" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N109" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O109" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P109" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="110">
@@ -4997,25 +7121,46 @@
         <v>907.0</v>
       </c>
       <c r="C110" t="s" s="10">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D110" t="s" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E110" t="s" s="10">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F110" t="s" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G110" s="10">
         <f>concatenate(c110,d110,e110,f110)</f>
       </c>
       <c r="H110" t="s" s="10">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I110" t="n" s="10">
         <v>2.4054250271E10</v>
+      </c>
+      <c r="J110" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K110" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L110" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M110" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N110" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O110" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P110" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="111">
@@ -5026,25 +7171,46 @@
         <v>993.0</v>
       </c>
       <c r="C111" t="s" s="10">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D111" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E111" t="s" s="10">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F111" t="s" s="10">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G111" s="10">
         <f>concatenate(c111,d111,e111,f111)</f>
       </c>
       <c r="H111" t="s" s="10">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I111" t="n" s="10">
         <v>2.4056382105E10</v>
+      </c>
+      <c r="J111" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K111" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L111" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M111" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N111" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O111" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P111" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="112">
@@ -5055,25 +7221,46 @@
         <v>1031.0</v>
       </c>
       <c r="C112" t="s" s="10">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D112" t="s" s="10">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E112" t="s" s="10">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F112" t="s" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G112" s="10">
         <f>concatenate(c112,d112,e112,f112)</f>
       </c>
       <c r="H112" t="s" s="10">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I112" t="n" s="10">
         <v>2.4046148074E10</v>
+      </c>
+      <c r="J112" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K112" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L112" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M112" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N112" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O112" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P112" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="113">
@@ -5084,25 +7271,46 @@
         <v>140.0</v>
       </c>
       <c r="C113" t="s" s="7">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D113" t="s" s="7">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E113" t="s" s="7">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F113" t="s" s="7">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G113" s="7">
         <f>concatenate(c113,d113,e113,f113)</f>
       </c>
       <c r="H113" t="s" s="7">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I113" t="n" s="10">
         <v>2.4040876218E10</v>
+      </c>
+      <c r="J113" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K113" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L113" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M113" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N113" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O113" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P113" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="114">
@@ -5113,25 +7321,46 @@
         <v>199.0</v>
       </c>
       <c r="C114" t="s" s="10">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D114" t="s" s="10">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E114" t="s" s="10">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F114" t="s" s="10">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G114" s="10">
         <f>concatenate(c114,d114,e114,f114)</f>
       </c>
       <c r="H114" t="s" s="10">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I114" t="n" s="10">
         <v>2.4041596515E10</v>
+      </c>
+      <c r="J114" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K114" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L114" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M114" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N114" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O114" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P114" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="115">
@@ -5142,25 +7371,46 @@
         <v>313.0</v>
       </c>
       <c r="C115" t="s" s="10">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D115" t="s" s="10">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E115" t="s" s="10">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F115" t="s" s="10">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G115" s="10">
         <f>concatenate(c115,d115,e115,f115)</f>
       </c>
       <c r="H115" t="s" s="10">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I115" t="n" s="10">
         <v>2.4041022704E10</v>
+      </c>
+      <c r="J115" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K115" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L115" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M115" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N115" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O115" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P115" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="116">
@@ -5171,25 +7421,46 @@
         <v>325.0</v>
       </c>
       <c r="C116" t="s" s="10">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D116" t="s" s="10">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E116" t="s" s="10">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F116" t="s" s="10">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G116" s="10">
         <f>concatenate(c116,d116,e116,f116)</f>
       </c>
       <c r="H116" t="s" s="10">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I116" t="n" s="10">
         <v>2.4041023017E10</v>
+      </c>
+      <c r="J116" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K116" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L116" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M116" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N116" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O116" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P116" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="117">
@@ -5200,25 +7471,46 @@
         <v>329.0</v>
       </c>
       <c r="C117" t="s" s="10">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D117" t="s" s="10">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E117" t="s" s="10">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F117" t="s" s="10">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G117" s="10">
         <f>concatenate(c117,d117,e117,f117)</f>
       </c>
       <c r="H117" t="s" s="10">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I117" t="n" s="10">
         <v>2.4041022805E10</v>
+      </c>
+      <c r="J117" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K117" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L117" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M117" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N117" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O117" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P117" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="118">
@@ -5229,25 +7521,46 @@
         <v>545.0</v>
       </c>
       <c r="C118" t="s" s="10">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D118" t="s" s="10">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E118" t="s" s="10">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F118" t="s" s="10">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G118" s="10">
         <f>concatenate(c118,d118,e118,f118)</f>
       </c>
       <c r="H118" t="s" s="10">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I118" t="n" s="10">
         <v>2.4042181101E10</v>
+      </c>
+      <c r="J118" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K118" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L118" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M118" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N118" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O118" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P118" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="119">
@@ -5258,25 +7571,46 @@
         <v>557.0</v>
       </c>
       <c r="C119" t="s" s="10">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D119" t="s" s="10">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E119" t="s" s="10">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F119" t="s" s="10">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G119" s="10">
         <f>concatenate(c119,d119,e119,f119)</f>
       </c>
       <c r="H119" t="s" s="10">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I119" t="n" s="10">
         <v>2.4042489083E10</v>
+      </c>
+      <c r="J119" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K119" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L119" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M119" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N119" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O119" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P119" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="120">
@@ -5287,25 +7621,46 @@
         <v>706.0</v>
       </c>
       <c r="C120" t="s" s="10">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D120" t="s" s="10">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E120" t="s" s="10">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F120" t="s" s="10">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G120" s="10">
         <f>concatenate(c120,d120,e120,f120)</f>
       </c>
       <c r="H120" t="s" s="10">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I120" t="n" s="10">
         <v>2.4045679962E10</v>
+      </c>
+      <c r="J120" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K120" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L120" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M120" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N120" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O120" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P120" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="121">
@@ -5316,25 +7671,46 @@
         <v>331.0</v>
       </c>
       <c r="C121" t="s" s="7">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D121" t="s" s="7">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E121" t="s" s="7">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F121" t="s" s="7">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G121" s="7">
         <f>concatenate(c121,d121,e121,f121)</f>
       </c>
       <c r="H121" t="s" s="7">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I121" t="n" s="10">
         <v>2.4040875253E10</v>
+      </c>
+      <c r="J121" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K121" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L121" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M121" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N121" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O121" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P121" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="122">
@@ -5345,25 +7721,46 @@
         <v>317.0</v>
       </c>
       <c r="C122" t="s" s="10">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D122" t="s" s="10">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E122" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F122" t="s" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G122" s="10">
         <f>concatenate(c122,d122,e122,f122)</f>
       </c>
       <c r="H122" t="s" s="10">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I122" t="n" s="10">
         <v>2.4041022519E10</v>
+      </c>
+      <c r="J122" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K122" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L122" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M122" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N122" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O122" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P122" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="123">
@@ -5374,25 +7771,46 @@
         <v>330.0</v>
       </c>
       <c r="C123" t="s" s="10">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D123" t="s" s="10">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E123" t="s" s="10">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F123" t="s" s="10">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G123" s="10">
         <f>concatenate(c123,d123,e123,f123)</f>
       </c>
       <c r="H123" t="s" s="10">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I123" t="n" s="10">
         <v>2.4040874692E10</v>
+      </c>
+      <c r="J123" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K123" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L123" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M123" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N123" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O123" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P123" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="124">
@@ -5403,25 +7821,46 @@
         <v>459.0</v>
       </c>
       <c r="C124" t="s" s="10">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D124" t="s" s="10">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E124" t="s" s="10">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F124" t="s" s="10">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G124" s="10">
         <f>concatenate(c124,d124,e124,f124)</f>
       </c>
       <c r="H124" t="s" s="10">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I124" t="n" s="10">
         <v>2.4040875385E10</v>
+      </c>
+      <c r="J124" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K124" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L124" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M124" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N124" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O124" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P124" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="125">
@@ -5432,25 +7871,46 @@
         <v>592.0</v>
       </c>
       <c r="C125" t="s" s="10">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D125" t="s" s="10">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E125" t="s" s="10">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F125" t="s" s="10">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G125" s="10">
         <f>concatenate(c125,d125,e125,f125)</f>
       </c>
       <c r="H125" t="s" s="10">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I125" t="n" s="10">
         <v>2.4041862267E10</v>
+      </c>
+      <c r="J125" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K125" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L125" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M125" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N125" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O125" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P125" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="126">
@@ -5461,25 +7921,46 @@
         <v>602.0</v>
       </c>
       <c r="C126" t="s" s="10">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D126" t="s" s="10">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E126" t="s" s="10">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F126" t="s" s="10">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G126" s="10">
         <f>concatenate(c126,d126,e126,f126)</f>
       </c>
       <c r="H126" t="s" s="10">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I126" t="n" s="10">
         <v>2.4041418437E10</v>
+      </c>
+      <c r="J126" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K126" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L126" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M126" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N126" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O126" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P126" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="127">
@@ -5490,25 +7971,46 @@
         <v>605.0</v>
       </c>
       <c r="C127" t="s" s="10">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D127" t="s" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E127" t="s" s="10">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F127" t="s" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G127" s="10">
         <f>concatenate(c127,d127,e127,f127)</f>
       </c>
       <c r="H127" t="s" s="10">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I127" t="n" s="10">
         <v>2.4043531716E10</v>
+      </c>
+      <c r="J127" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K127" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L127" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M127" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N127" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O127" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P127" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="128">
@@ -5519,25 +8021,46 @@
         <v>740.0</v>
       </c>
       <c r="C128" t="s" s="10">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D128" t="s" s="10">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E128" t="s" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F128" t="s" s="10">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G128" s="10">
         <f>concatenate(c128,d128,e128,f128)</f>
       </c>
       <c r="H128" t="s" s="10">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I128" t="n" s="10">
         <v>2.4046415813E10</v>
+      </c>
+      <c r="J128" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K128" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L128" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M128" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N128" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O128" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P128" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="129">
@@ -5548,25 +8071,46 @@
         <v>755.0</v>
       </c>
       <c r="C129" t="s" s="10">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D129" t="s" s="10">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E129" t="s" s="10">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F129" t="s" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G129" s="10">
         <f>concatenate(c129,d129,e129,f129)</f>
       </c>
       <c r="H129" t="s" s="10">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I129" t="n" s="10">
         <v>2.4046845243E10</v>
+      </c>
+      <c r="J129" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K129" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L129" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M129" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N129" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O129" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P129" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="130">
@@ -5577,25 +8121,46 @@
         <v>-7.0</v>
       </c>
       <c r="C130" t="s" s="7">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D130" t="s" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E130" t="s" s="7">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F130" t="s" s="7">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G130" s="7">
         <f>concatenate(c130,d130,e130,f130)</f>
       </c>
       <c r="H130" t="s" s="7">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I130" t="n" s="10">
         <v>2.4040877235E10</v>
+      </c>
+      <c r="J130" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K130" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L130" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M130" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N130" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O130" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P130" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="131">
@@ -5606,25 +8171,46 @@
         <v>32.0</v>
       </c>
       <c r="C131" t="s" s="10">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D131" t="s" s="10">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E131" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F131" t="s" s="10">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G131" s="10">
         <f>concatenate(c131,d131,e131,f131)</f>
       </c>
       <c r="H131" t="s" s="10">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I131" t="n" s="10">
         <v>2.4041266845E10</v>
+      </c>
+      <c r="J131" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K131" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L131" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M131" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N131" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O131" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P131" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="132">
@@ -5635,25 +8221,46 @@
         <v>48.0</v>
       </c>
       <c r="C132" t="s" s="10">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D132" t="s" s="10">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E132" t="s" s="10">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F132" t="s" s="10">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G132" s="10">
         <f>concatenate(c132,d132,e132,f132)</f>
       </c>
       <c r="H132" t="s" s="10">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I132" t="n" s="10">
         <v>2.4040879161E10</v>
+      </c>
+      <c r="J132" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K132" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L132" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M132" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N132" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O132" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P132" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="133">
@@ -5664,25 +8271,46 @@
         <v>51.0</v>
       </c>
       <c r="C133" t="s" s="10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D133" t="s" s="10">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E133" t="s" s="10">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F133" t="s" s="10">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G133" s="10">
         <f>concatenate(c133,d133,e133,f133)</f>
       </c>
       <c r="H133" t="s" s="10">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I133" t="n" s="10">
         <v>2.4040993795E10</v>
+      </c>
+      <c r="J133" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K133" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L133" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M133" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N133" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O133" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P133" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="134">
@@ -5693,25 +8321,46 @@
         <v>73.0</v>
       </c>
       <c r="C134" t="s" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D134" t="s" s="10">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E134" t="s" s="10">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F134" t="s" s="10">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G134" s="10">
         <f>concatenate(c134,d134,e134,f134)</f>
       </c>
       <c r="H134" t="s" s="10">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I134" t="n" s="10">
         <v>2.4040874539E10</v>
+      </c>
+      <c r="J134" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K134" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L134" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M134" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N134" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O134" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P134" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="135">
@@ -5722,25 +8371,46 @@
         <v>218.0</v>
       </c>
       <c r="C135" t="s" s="10">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D135" t="s" s="10">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E135" t="s" s="10">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F135" t="s" s="10">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G135" s="10">
         <f>concatenate(c135,d135,e135,f135)</f>
       </c>
       <c r="H135" t="s" s="10">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I135" t="n" s="10">
         <v>2.4040933832E10</v>
+      </c>
+      <c r="J135" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K135" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L135" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M135" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N135" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O135" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P135" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="136">
@@ -5751,25 +8421,46 @@
         <v>231.0</v>
       </c>
       <c r="C136" t="s" s="10">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D136" t="s" s="10">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E136" t="s" s="10">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F136" t="s" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G136" s="10">
         <f>concatenate(c136,d136,e136,f136)</f>
       </c>
       <c r="H136" t="s" s="10">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I136" t="n" s="10">
         <v>2.4041021958E10</v>
+      </c>
+      <c r="J136" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K136" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L136" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M136" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N136" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O136" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P136" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="137">
@@ -5780,25 +8471,46 @@
         <v>288.0</v>
       </c>
       <c r="C137" t="s" s="10">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D137" t="s" s="10">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E137" t="s" s="10">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F137" t="s" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G137" s="10">
         <f>concatenate(c137,d137,e137,f137)</f>
       </c>
       <c r="H137" t="s" s="10">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I137" t="n" s="10">
         <v>2.4041265208E10</v>
+      </c>
+      <c r="J137" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K137" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L137" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M137" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N137" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O137" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P137" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="138">
@@ -5809,25 +8521,46 @@
         <v>293.0</v>
       </c>
       <c r="C138" t="s" s="10">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D138" t="s" s="10">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E138" t="s" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F138" t="s" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G138" s="10">
         <f>concatenate(c138,d138,e138,f138)</f>
       </c>
       <c r="H138" t="s" s="10">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="I138" t="n" s="10">
         <v>2.404102418E10</v>
+      </c>
+      <c r="J138" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K138" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L138" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M138" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N138" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O138" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P138" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="139">
@@ -5838,25 +8571,46 @@
         <v>423.0</v>
       </c>
       <c r="C139" t="s" s="10">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D139" t="s" s="10">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E139" t="s" s="10">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F139" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G139" s="10">
         <f>concatenate(c139,d139,e139,f139)</f>
       </c>
       <c r="H139" t="s" s="10">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I139" t="n" s="10">
         <v>2.4040874166E10</v>
+      </c>
+      <c r="J139" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K139" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L139" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M139" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N139" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O139" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P139" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="140">
@@ -5867,25 +8621,46 @@
         <v>514.0</v>
       </c>
       <c r="C140" t="s" s="10">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D140" t="s" s="10">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E140" t="s" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F140" t="s" s="10">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G140" s="10">
         <f>concatenate(c140,d140,e140,f140)</f>
       </c>
       <c r="H140" t="s" s="10">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="I140" t="n" s="10">
         <v>2.4041863974E10</v>
+      </c>
+      <c r="J140" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K140" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L140" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M140" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N140" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O140" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P140" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="141">
@@ -5896,25 +8671,46 @@
         <v>516.0</v>
       </c>
       <c r="C141" t="s" s="10">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D141" t="s" s="10">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E141" t="s" s="10">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F141" t="s" s="10">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G141" s="10">
         <f>concatenate(c141,d141,e141,f141)</f>
       </c>
       <c r="H141" t="s" s="10">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="I141" t="n" s="10">
         <v>2.4041860177E10</v>
+      </c>
+      <c r="J141" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K141" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L141" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M141" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N141" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O141" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P141" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="142">
@@ -5925,25 +8721,46 @@
         <v>574.0</v>
       </c>
       <c r="C142" t="s" s="10">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D142" t="s" s="10">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E142" t="s" s="10">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F142" t="s" s="10">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G142" s="10">
         <f>concatenate(c142,d142,e142,f142)</f>
       </c>
       <c r="H142" t="s" s="10">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="I142" t="n" s="10">
         <v>2.4042906665E10</v>
+      </c>
+      <c r="J142" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K142" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L142" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M142" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N142" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O142" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P142" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="143">
@@ -5954,25 +8771,46 @@
         <v>598.0</v>
       </c>
       <c r="C143" t="s" s="10">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D143" t="s" s="10">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E143" t="s" s="10">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F143" t="s" s="10">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G143" s="10">
         <f>concatenate(c143,d143,e143,f143)</f>
       </c>
       <c r="H143" t="s" s="10">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I143" t="n" s="10">
         <v>2.4043159664E10</v>
+      </c>
+      <c r="J143" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K143" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L143" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M143" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N143" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O143" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P143" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="144">
@@ -5983,25 +8821,46 @@
         <v>626.0</v>
       </c>
       <c r="C144" t="s" s="10">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D144" t="s" s="10">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E144" t="s" s="10">
         <v>38</v>
       </c>
       <c r="F144" t="s" s="10">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G144" s="10">
         <f>concatenate(c144,d144,e144,f144)</f>
       </c>
       <c r="H144" t="s" s="10">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I144" t="n" s="10">
         <v>2.4044488567E10</v>
+      </c>
+      <c r="J144" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K144" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L144" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M144" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N144" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O144" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P144" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="145">
@@ -6012,25 +8871,46 @@
         <v>791.0</v>
       </c>
       <c r="C145" t="s" s="10">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D145" t="s" s="10">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E145" t="s" s="10">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F145" t="s" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G145" s="10">
         <f>concatenate(c145,d145,e145,f145)</f>
       </c>
       <c r="H145" t="s" s="10">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="I145" t="n" s="10">
         <v>2.4051011338E10</v>
+      </c>
+      <c r="J145" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K145" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L145" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M145" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N145" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O145" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P145" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="146">
@@ -6041,13 +8921,13 @@
         <v>920.0</v>
       </c>
       <c r="C146" t="s" s="10">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D146" t="s" s="10">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E146" t="s" s="10">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F146" t="s" s="10">
         <v>39</v>
@@ -6056,10 +8936,31 @@
         <f>concatenate(c146,d146,e146,f146)</f>
       </c>
       <c r="H146" t="s" s="10">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I146" t="n" s="10">
         <v>2.4054525881E10</v>
+      </c>
+      <c r="J146" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K146" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L146" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M146" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N146" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O146" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P146" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="147">
@@ -6070,25 +8971,46 @@
         <v>945.0</v>
       </c>
       <c r="C147" t="s" s="10">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D147" t="s" s="10">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E147" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F147" t="s" s="10">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G147" s="10">
         <f>concatenate(c147,d147,e147,f147)</f>
       </c>
       <c r="H147" t="s" s="10">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="I147" t="n" s="10">
         <v>2.4054861208E10</v>
+      </c>
+      <c r="J147" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K147" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L147" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M147" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N147" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O147" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P147" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="148">
@@ -6099,25 +9021,46 @@
         <v>970.0</v>
       </c>
       <c r="C148" t="s" s="10">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D148" t="s" s="10">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E148" t="s" s="10">
         <v>38</v>
       </c>
       <c r="F148" t="s" s="10">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G148" s="10">
         <f>concatenate(c148,d148,e148,f148)</f>
       </c>
       <c r="H148" t="s" s="10">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="I148" t="n" s="10">
         <v>2.4046162962E10</v>
+      </c>
+      <c r="J148" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K148" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L148" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M148" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N148" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O148" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P148" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="149">
@@ -6128,25 +9071,46 @@
         <v>1009.0</v>
       </c>
       <c r="C149" t="s" s="10">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D149" t="s" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E149" t="s" s="10">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F149" t="s" s="10">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G149" s="10">
         <f>concatenate(c149,d149,e149,f149)</f>
       </c>
       <c r="H149" t="s" s="10">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="I149" t="n" s="10">
         <v>2.4055737795E10</v>
+      </c>
+      <c r="J149" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K149" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L149" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M149" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N149" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O149" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P149" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="150">
@@ -6157,25 +9121,46 @@
         <v>1065.0</v>
       </c>
       <c r="C150" t="s" s="10">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D150" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E150" t="s" s="10">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F150" t="s" s="10">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G150" s="10">
         <f>concatenate(c150,d150,e150,f150)</f>
       </c>
       <c r="H150" t="s" s="10">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="I150" t="n" s="10">
         <v>2.4041265253E10</v>
+      </c>
+      <c r="J150" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K150" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L150" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M150" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N150" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O150" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P150" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="151">
@@ -6186,25 +9171,46 @@
         <v>1103.0</v>
       </c>
       <c r="C151" t="s" s="10">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D151" t="s" s="10">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E151" t="s" s="10">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F151" t="s" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G151" s="10">
         <f>concatenate(c151,d151,e151,f151)</f>
       </c>
       <c r="H151" t="s" s="10">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="I151" t="n" s="10">
         <v>2.4044829416E10</v>
+      </c>
+      <c r="J151" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K151" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L151" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M151" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N151" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O151" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P151" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="152">
@@ -6215,25 +9221,46 @@
         <v>1114.0</v>
       </c>
       <c r="C152" t="s" s="10">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D152" t="s" s="10">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E152" t="s" s="10">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F152" t="s" s="10">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G152" s="10">
         <f>concatenate(c152,d152,e152,f152)</f>
       </c>
       <c r="H152" t="s" s="10">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="I152" t="n" s="10">
         <v>2.4059089816E10</v>
+      </c>
+      <c r="J152" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K152" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L152" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M152" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N152" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O152" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P152" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="153">
@@ -6244,25 +9271,46 @@
         <v>1115.0</v>
       </c>
       <c r="C153" t="s" s="10">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D153" t="s" s="10">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E153" t="s" s="10">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F153" t="s" s="10">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G153" s="10">
         <f>concatenate(c153,d153,e153,f153)</f>
       </c>
       <c r="H153" t="s" s="10">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I153" t="n" s="10">
         <v>2.4059055899E10</v>
+      </c>
+      <c r="J153" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K153" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L153" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M153" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N153" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O153" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P153" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="154">
@@ -6273,13 +9321,13 @@
         <v>1117.0</v>
       </c>
       <c r="C154" t="s" s="10">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D154" t="s" s="10">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E154" t="s" s="10">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F154" t="s" s="10">
         <v>39</v>
@@ -6288,10 +9336,31 @@
         <f>concatenate(c154,d154,e154,f154)</f>
       </c>
       <c r="H154" t="s" s="10">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="I154" t="n" s="10">
         <v>2.4059238478E10</v>
+      </c>
+      <c r="J154" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K154" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L154" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M154" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N154" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O154" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P154" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="155">
@@ -6302,25 +9371,46 @@
         <v>1118.0</v>
       </c>
       <c r="C155" t="s" s="10">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D155" t="s" s="10">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E155" t="s" s="10">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F155" t="s" s="10">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G155" s="10">
         <f>concatenate(c155,d155,e155,f155)</f>
       </c>
       <c r="H155" t="s" s="10">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="I155" t="n" s="10">
         <v>2.4054858163E10</v>
+      </c>
+      <c r="J155" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K155" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L155" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M155" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N155" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O155" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P155" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="156">
@@ -6331,25 +9421,46 @@
         <v>1120.0</v>
       </c>
       <c r="C156" t="s" s="10">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D156" t="s" s="10">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E156" t="s" s="10">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F156" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G156" s="10">
         <f>concatenate(c156,d156,e156,f156)</f>
       </c>
       <c r="H156" t="s" s="10">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I156" t="n" s="10">
         <v>2.4053690977E10</v>
+      </c>
+      <c r="J156" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K156" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L156" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M156" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N156" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O156" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P156" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="157">
@@ -6360,25 +9471,46 @@
         <v>1121.0</v>
       </c>
       <c r="C157" t="s" s="10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D157" t="s" s="10">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E157" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F157" t="s" s="10">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G157" s="10">
         <f>concatenate(c157,d157,e157,f157)</f>
       </c>
       <c r="H157" t="s" s="10">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="I157" t="n" s="10">
         <v>2.4040876542E10</v>
+      </c>
+      <c r="J157" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K157" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L157" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M157" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N157" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O157" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P157" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="158">
@@ -6389,25 +9521,46 @@
         <v>1122.0</v>
       </c>
       <c r="C158" t="s" s="10">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D158" t="s" s="10">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E158" t="s" s="10">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F158" t="s" s="10">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G158" s="10">
         <f>concatenate(c158,d158,e158,f158)</f>
       </c>
       <c r="H158" t="s" s="10">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="I158" t="n" s="10">
         <v>2.4041266908E10</v>
+      </c>
+      <c r="J158" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K158" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L158" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M158" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N158" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O158" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P158" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="159">
@@ -6418,25 +9571,46 @@
         <v>1123.0</v>
       </c>
       <c r="C159" t="s" s="10">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D159" t="s" s="10">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E159" t="s" s="10">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F159" t="s" s="10">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G159" s="10">
         <f>concatenate(c159,d159,e159,f159)</f>
       </c>
       <c r="H159" t="s" s="10">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="I159" t="n" s="10">
         <v>2.4059506171E10</v>
+      </c>
+      <c r="J159" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K159" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L159" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M159" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N159" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O159" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P159" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="160">
@@ -6447,25 +9621,46 @@
         <v>1124.0</v>
       </c>
       <c r="C160" t="s" s="10">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D160" t="s" s="10">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E160" t="s" s="10">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F160" t="s" s="10">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G160" s="10">
         <f>concatenate(c160,d160,e160,f160)</f>
       </c>
       <c r="H160" t="s" s="10">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I160" t="n" s="10">
         <v>2.4042062192E10</v>
+      </c>
+      <c r="J160" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K160" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L160" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M160" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N160" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O160" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P160" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="161">
@@ -6476,25 +9671,46 @@
         <v>1127.0</v>
       </c>
       <c r="C161" t="s" s="10">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D161" t="s" s="10">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E161" t="s" s="10">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F161" t="s" s="10">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G161" s="10">
         <f>concatenate(c161,d161,e161,f161)</f>
       </c>
       <c r="H161" t="s" s="10">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I161" t="n" s="10">
         <v>2.4060369644E10</v>
+      </c>
+      <c r="J161" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K161" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L161" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M161" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N161" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O161" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P161" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="162">
@@ -6505,25 +9721,46 @@
         <v>1133.0</v>
       </c>
       <c r="C162" t="s" s="10">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D162" t="s" s="10">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E162" t="s" s="10">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F162" t="s" s="10">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G162" s="10">
         <f>concatenate(c162,d162,e162,f162)</f>
       </c>
       <c r="H162" t="s" s="10">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="I162" t="n" s="10">
         <v>2.4060368913E10</v>
+      </c>
+      <c r="J162" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K162" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L162" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M162" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N162" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O162" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P162" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="163">
@@ -6534,25 +9771,46 @@
         <v>1136.0</v>
       </c>
       <c r="C163" t="s" s="10">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D163" t="s" s="10">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E163" t="s" s="10">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F163" t="s" s="10">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G163" s="10">
         <f>concatenate(c163,d163,e163,f163)</f>
       </c>
       <c r="H163" t="s" s="10">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I163" t="n" s="10">
         <v>2.4061141724E10</v>
+      </c>
+      <c r="J163" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K163" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L163" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M163" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N163" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O163" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P163" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="164">
@@ -6563,25 +9821,46 @@
         <v>1137.0</v>
       </c>
       <c r="C164" t="s" s="10">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D164" t="s" s="10">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E164" t="s" s="10">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F164" t="s" s="10">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G164" s="10">
         <f>concatenate(c164,d164,e164,f164)</f>
       </c>
       <c r="H164" t="s" s="10">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I164" t="n" s="10">
         <v>0.0</v>
+      </c>
+      <c r="J164" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K164" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L164" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M164" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N164" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O164" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P164" t="s" s="10">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/personal/quincena.xlsx
+++ b/personal/quincena.xlsx
@@ -13,7 +13,92 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="538">
+  <si>
+    <t>Asistencia 2016-09-07</t>
+  </si>
+  <si>
+    <t>Nficha</t>
+  </si>
+  <si>
+    <t>1er Apellido</t>
+  </si>
+  <si>
+    <t>2do Apellido</t>
+  </si>
+  <si>
+    <t>1er Nombre</t>
+  </si>
+  <si>
+    <t>2do Nombre</t>
+  </si>
+  <si>
+    <t>Identificacion</t>
+  </si>
+  <si>
+    <t>Día</t>
+  </si>
+  <si>
+    <t>Cargo</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>MENESES</t>
+  </si>
+  <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>JAIRO</t>
+  </si>
+  <si>
+    <t>87.060.664</t>
+  </si>
+  <si>
+    <t>2016-09-07</t>
+  </si>
+  <si>
+    <t>LLAVERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPLEMENTARIAS
+</t>
+  </si>
+  <si>
+    <t>Maestro Grupo:</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>GOMAJOA</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>NATIVEL</t>
+  </si>
+  <si>
+    <t>98.392.255</t>
+  </si>
+  <si>
+    <t>CONTRAMAESTRO</t>
+  </si>
+  <si>
+    <t>PLOMEROS</t>
+  </si>
+  <si>
+    <t>JOSE NATIVEL ROJAS GOMAJOA</t>
+  </si>
   <si>
     <t>Convecciones</t>
   </si>
@@ -147,9 +232,6 @@
     <t>AREVALO</t>
   </si>
   <si>
-    <t>JOSE</t>
-  </si>
-  <si>
     <t>SERAFIN</t>
   </si>
   <si>
@@ -171,6 +253,12 @@
     <t>5.249.748</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
     <t>BURBANO</t>
   </si>
   <si>
@@ -186,21 +274,6 @@
     <t>12.754.736</t>
   </si>
   <si>
-    <t>MENESES</t>
-  </si>
-  <si>
-    <t>MUÑOZ</t>
-  </si>
-  <si>
-    <t>MARCELO</t>
-  </si>
-  <si>
-    <t>JAIRO</t>
-  </si>
-  <si>
-    <t>87.060.664</t>
-  </si>
-  <si>
     <t>BOTINA</t>
   </si>
   <si>
@@ -216,6 +289,9 @@
     <t>59.836.908</t>
   </si>
   <si>
+    <t>I</t>
+  </si>
+  <si>
     <t>ERASO</t>
   </si>
   <si>
@@ -226,18 +302,6 @@
   </si>
   <si>
     <t>27.204.225</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>GOMAJOA</t>
-  </si>
-  <si>
-    <t>NATIVEL</t>
-  </si>
-  <si>
-    <t>98.392.255</t>
   </si>
   <si>
     <t>BENAVIDES</t>
@@ -1869,43 +1933,43 @@
   <sheetData>
     <row r="2">
       <c r="H2" s="5" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="10" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="12" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="10" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="12" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="10" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="12" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="10" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="C7" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="J7" s="10" t="n">
         <v>1.0</v>
@@ -1955,112 +2019,112 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="11">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s" s="11">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s" s="11">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s" s="11">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s" s="11">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s" s="11">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s" s="11">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s" s="11">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s" s="11">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s" s="11">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="K8" t="s" s="11">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="L8" t="s" s="11">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="M8" t="s" s="11">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="N8" t="s" s="11">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="O8" t="s" s="11">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="P8" t="s" s="11">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="Q8" t="s" s="11">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="R8" t="s" s="11">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="S8" t="s" s="11">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="T8" t="s" s="11">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="U8" t="s" s="11">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="V8" t="s" s="11">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="W8" t="s" s="11">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="X8" t="s" s="11">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="Y8" t="s" s="11">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="Z8" t="s" s="11">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="AA8" t="s" s="11">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="AB8" t="s" s="11">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="AC8" t="s" s="11">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="AD8" t="s" s="11">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="AE8" t="s" s="11">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="AF8" t="s" s="11">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="AG8" t="s" s="11">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AH8" t="s" s="11">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="AI8" t="s" s="11">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="AJ8" t="s" s="11">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
@@ -2071,46 +2135,46 @@
         <v>-2.0</v>
       </c>
       <c r="C9" t="s" s="10">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s" s="10">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s" s="10">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s" s="10">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="G9" s="10">
         <f>concatenate(c9,d9,e9,f9)</f>
       </c>
       <c r="H9" t="s" s="10">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="I9" t="n" s="10">
         <v>2.4040875765E10</v>
       </c>
       <c r="J9" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K9" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L9" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M9" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N9" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O9" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P9" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -2121,46 +2185,46 @@
         <v>-1.0</v>
       </c>
       <c r="C10" t="s" s="10">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s" s="10">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s" s="10">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s" s="10">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="G10" s="10">
         <f>concatenate(c10,d10,e10,f10)</f>
       </c>
       <c r="H10" t="s" s="10">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="I10" t="n" s="10">
         <v>2.404102177E10</v>
       </c>
       <c r="J10" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K10" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L10" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M10" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N10" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O10" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P10" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -2171,46 +2235,46 @@
         <v>49.0</v>
       </c>
       <c r="C11" t="s" s="10">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s" s="10">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s" s="10">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s" s="10">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="G11" s="10">
         <f>concatenate(c11,d11,e11,f11)</f>
       </c>
       <c r="H11" t="s" s="10">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="I11" t="n" s="10">
         <v>2.4040874104E10</v>
       </c>
       <c r="J11" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K11" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="L11" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="K11" t="s" s="6">
+        <v>79</v>
+      </c>
+      <c r="L11" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="M11" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N11" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O11" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="P11" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="P11" t="s" s="9">
+        <v>80</v>
       </c>
     </row>
     <row r="12">
@@ -2221,46 +2285,46 @@
         <v>230.0</v>
       </c>
       <c r="C12" t="s" s="10">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s" s="10">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s" s="10">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s" s="10">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="G12" s="10">
         <f>concatenate(c12,d12,e12,f12)</f>
       </c>
       <c r="H12" t="s" s="10">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="I12" t="n" s="10">
         <v>2.4040879938E10</v>
       </c>
-      <c r="J12" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K12" t="s" s="10">
-        <v>41</v>
+      <c r="J12" t="s" s="6">
+        <v>79</v>
+      </c>
+      <c r="K12" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="L12" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="M12" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="M12" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="N12" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O12" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="P12" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="P12" t="s" s="9">
+        <v>80</v>
       </c>
     </row>
     <row r="13">
@@ -2271,46 +2335,46 @@
         <v>625.0</v>
       </c>
       <c r="C13" t="s" s="10">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s" s="10">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s" s="10">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="G13" s="10">
         <f>concatenate(c13,d13,e13,f13)</f>
       </c>
       <c r="H13" t="s" s="10">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="I13" t="n" s="10">
         <v>2.4041419106E10</v>
       </c>
       <c r="J13" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K13" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="K13" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="L13" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M13" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N13" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O13" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="P13" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="P13" t="s" s="6">
+        <v>79</v>
       </c>
     </row>
     <row r="14">
@@ -2321,46 +2385,46 @@
         <v>773.0</v>
       </c>
       <c r="C14" t="s" s="10">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s" s="10">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s" s="10">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s" s="10">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="G14" s="10">
         <f>concatenate(c14,d14,e14,f14)</f>
       </c>
       <c r="H14" t="s" s="10">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="I14" t="n" s="10">
         <v>2.4041417287E10</v>
       </c>
-      <c r="J14" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K14" t="s" s="10">
-        <v>41</v>
+      <c r="J14" t="s" s="6">
+        <v>79</v>
+      </c>
+      <c r="K14" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="L14" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M14" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N14" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O14" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="P14" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="P14" t="s" s="8">
+        <v>91</v>
       </c>
     </row>
     <row r="15">
@@ -2371,46 +2435,46 @@
         <v>784.0</v>
       </c>
       <c r="C15" t="s" s="10">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s" s="10">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s" s="10">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="F15" t="s" s="10">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="G15" s="10">
         <f>concatenate(c15,d15,e15,f15)</f>
       </c>
       <c r="H15" t="s" s="10">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="I15" t="n" s="10">
         <v>2.4050679421E10</v>
       </c>
-      <c r="J15" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K15" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="L15" t="s" s="10">
-        <v>41</v>
+      <c r="J15" t="s" s="8">
+        <v>91</v>
+      </c>
+      <c r="K15" t="s" s="8">
+        <v>91</v>
+      </c>
+      <c r="L15" t="s" s="8">
+        <v>91</v>
       </c>
       <c r="M15" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N15" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O15" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P15" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
@@ -2421,46 +2485,46 @@
         <v>319.0</v>
       </c>
       <c r="C16" t="s" s="7">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s" s="7">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s" s="7">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s" s="7">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="G16" s="7">
         <f>concatenate(c16,d16,e16,f16)</f>
       </c>
       <c r="H16" t="s" s="7">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="I16" t="n" s="10">
         <v>2.4040877747E10</v>
       </c>
       <c r="J16" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K16" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L16" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="M16" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="M16" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="N16" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O16" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="P16" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="P16" t="s" s="6">
+        <v>79</v>
       </c>
     </row>
     <row r="17">
@@ -2471,46 +2535,46 @@
         <v>119.0</v>
       </c>
       <c r="C17" t="s" s="10">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s" s="10">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s" s="10">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F17" t="s" s="10">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="G17" s="10">
         <f>concatenate(c17,d17,e17,f17)</f>
       </c>
       <c r="H17" t="s" s="10">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="I17" t="n" s="10">
         <v>2.4040993339E10</v>
       </c>
       <c r="J17" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K17" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="L17" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="K17" t="s" s="6">
+        <v>79</v>
+      </c>
+      <c r="L17" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="M17" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N17" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O17" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P17" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18">
@@ -2521,46 +2585,46 @@
         <v>142.0</v>
       </c>
       <c r="C18" t="s" s="10">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s" s="10">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="E18" t="s" s="10">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s" s="10">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G18" s="10">
         <f>concatenate(c18,d18,e18,f18)</f>
       </c>
       <c r="H18" t="s" s="10">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="I18" t="n" s="10">
         <v>2.4041276873E10</v>
       </c>
       <c r="J18" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K18" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L18" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M18" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N18" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O18" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P18" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19">
@@ -2571,46 +2635,46 @@
         <v>180.0</v>
       </c>
       <c r="C19" t="s" s="10">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s" s="10">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="E19" t="s" s="10">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F19" t="s" s="10">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="G19" s="10">
         <f>concatenate(c19,d19,e19,f19)</f>
       </c>
       <c r="H19" t="s" s="10">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="I19" t="n" s="10">
         <v>2.4041025525E10</v>
       </c>
       <c r="J19" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K19" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L19" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M19" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N19" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O19" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P19" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20">
@@ -2621,46 +2685,46 @@
         <v>320.0</v>
       </c>
       <c r="C20" t="s" s="10">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s" s="10">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="E20" t="s" s="10">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s" s="10">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="G20" s="10">
         <f>concatenate(c20,d20,e20,f20)</f>
       </c>
       <c r="H20" t="s" s="10">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="I20" t="n" s="10">
         <v>2.4041276431E10</v>
       </c>
       <c r="J20" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K20" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L20" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M20" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N20" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O20" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P20" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21">
@@ -2671,46 +2735,46 @@
         <v>321.0</v>
       </c>
       <c r="C21" t="s" s="10">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s" s="10">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s" s="10">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="F21" t="s" s="10">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="G21" s="10">
         <f>concatenate(c21,d21,e21,f21)</f>
       </c>
       <c r="H21" t="s" s="10">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="I21" t="n" s="10">
         <v>2.4040934284E10</v>
       </c>
       <c r="J21" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K21" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L21" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M21" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N21" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O21" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P21" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22">
@@ -2721,46 +2785,46 @@
         <v>362.0</v>
       </c>
       <c r="C22" t="s" s="10">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s" s="10">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s" s="10">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="F22" t="s" s="10">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="G22" s="10">
         <f>concatenate(c22,d22,e22,f22)</f>
       </c>
       <c r="H22" t="s" s="10">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="I22" t="n" s="10">
         <v>2.4041023101E10</v>
       </c>
       <c r="J22" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K22" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L22" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M22" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N22" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O22" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P22" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
@@ -2771,46 +2835,46 @@
         <v>527.0</v>
       </c>
       <c r="C23" t="s" s="10">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s" s="10">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s" s="10">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="F23" t="s" s="10">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="G23" s="10">
         <f>concatenate(c23,d23,e23,f23)</f>
       </c>
       <c r="H23" t="s" s="10">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="I23" t="n" s="10">
         <v>2.4042048949E10</v>
       </c>
       <c r="J23" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K23" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L23" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M23" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N23" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O23" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P23" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24">
@@ -2821,46 +2885,46 @@
         <v>551.0</v>
       </c>
       <c r="C24" t="s" s="10">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="D24" t="s" s="10">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="E24" t="s" s="10">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="F24" t="s" s="10">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G24" s="10">
         <f>concatenate(c24,d24,e24,f24)</f>
       </c>
       <c r="H24" t="s" s="10">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="I24" t="n" s="10">
         <v>2.4042198868E10</v>
       </c>
       <c r="J24" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K24" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L24" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M24" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N24" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O24" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P24" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
@@ -2871,46 +2935,46 @@
         <v>862.0</v>
       </c>
       <c r="C25" t="s" s="10">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="D25" t="s" s="10">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="E25" t="s" s="10">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="F25" t="s" s="10">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="G25" s="10">
         <f>concatenate(c25,d25,e25,f25)</f>
       </c>
       <c r="H25" t="s" s="10">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="I25" t="n" s="10">
         <v>2.4053669562E10</v>
       </c>
       <c r="J25" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K25" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L25" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M25" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N25" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O25" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P25" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26">
@@ -2921,46 +2985,46 @@
         <v>921.0</v>
       </c>
       <c r="C26" t="s" s="10">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="D26" t="s" s="10">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="E26" t="s" s="10">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="F26" t="s" s="10">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="G26" s="10">
         <f>concatenate(c26,d26,e26,f26)</f>
       </c>
       <c r="H26" t="s" s="10">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="I26" t="n" s="10">
         <v>2.4054491483E10</v>
       </c>
       <c r="J26" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K26" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="L26" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="L26" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="M26" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N26" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O26" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P26" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27">
@@ -2971,46 +3035,46 @@
         <v>922.0</v>
       </c>
       <c r="C27" t="s" s="10">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D27" t="s" s="10">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="E27" t="s" s="10">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="F27" t="s" s="10">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="G27" s="10">
         <f>concatenate(c27,d27,e27,f27)</f>
       </c>
       <c r="H27" t="s" s="10">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="I27" t="n" s="10">
         <v>2.4054489428E10</v>
       </c>
       <c r="J27" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K27" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="L27" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="L27" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="M27" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N27" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O27" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P27" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28">
@@ -3021,46 +3085,46 @@
         <v>-3.0</v>
       </c>
       <c r="C28" t="s" s="7">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="D28" t="s" s="7">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="E28" t="s" s="7">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="F28" t="s" s="7">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="G28" s="7">
         <f>concatenate(c28,d28,e28,f28)</f>
       </c>
       <c r="H28" t="s" s="7">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="I28" t="n" s="10">
         <v>2.4042181512E10</v>
       </c>
       <c r="J28" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K28" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L28" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M28" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N28" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O28" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P28" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29">
@@ -3071,46 +3135,46 @@
         <v>8.0</v>
       </c>
       <c r="C29" t="s" s="10">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="D29" t="s" s="10">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="E29" t="s" s="10">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="F29" t="s" s="10">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="G29" s="10">
         <f>concatenate(c29,d29,e29,f29)</f>
       </c>
       <c r="H29" t="s" s="10">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I29" t="n" s="10">
         <v>2.404102362E10</v>
       </c>
       <c r="J29" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K29" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L29" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M29" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N29" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O29" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P29" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30">
@@ -3121,46 +3185,46 @@
         <v>23.0</v>
       </c>
       <c r="C30" t="s" s="10">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="D30" t="s" s="10">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="E30" t="s" s="10">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="F30" t="s" s="10">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="G30" s="10">
         <f>concatenate(c30,d30,e30,f30)</f>
       </c>
       <c r="H30" t="s" s="10">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="I30" t="n" s="10">
         <v>2.404102278E10</v>
       </c>
-      <c r="J30" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K30" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="L30" t="s" s="10">
-        <v>41</v>
+      <c r="J30" t="s" s="6">
+        <v>79</v>
+      </c>
+      <c r="K30" t="s" s="6">
+        <v>79</v>
+      </c>
+      <c r="L30" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="M30" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N30" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O30" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P30" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31">
@@ -3171,46 +3235,46 @@
         <v>92.0</v>
       </c>
       <c r="C31" t="s" s="10">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="D31" t="s" s="10">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="E31" t="s" s="10">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="F31" t="s" s="10">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="G31" s="10">
         <f>concatenate(c31,d31,e31,f31)</f>
       </c>
       <c r="H31" t="s" s="10">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="I31" t="n" s="10">
         <v>2.4041023954E10</v>
       </c>
       <c r="J31" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K31" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="K31" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="L31" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M31" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N31" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O31" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P31" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32">
@@ -3221,46 +3285,46 @@
         <v>100.0</v>
       </c>
       <c r="C32" t="s" s="10">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="D32" t="s" s="10">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="E32" t="s" s="10">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="F32" t="s" s="10">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="G32" s="10">
         <f>concatenate(c32,d32,e32,f32)</f>
       </c>
       <c r="H32" t="s" s="10">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="I32" t="n" s="10">
         <v>2.4041416734E10</v>
       </c>
-      <c r="J32" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K32" t="s" s="10">
-        <v>41</v>
+      <c r="J32" t="s" s="6">
+        <v>79</v>
+      </c>
+      <c r="K32" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="L32" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M32" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N32" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O32" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="P32" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="P32" t="s" s="8">
+        <v>91</v>
       </c>
     </row>
     <row r="33">
@@ -3271,46 +3335,46 @@
         <v>127.0</v>
       </c>
       <c r="C33" t="s" s="10">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="D33" t="s" s="10">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E33" t="s" s="10">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="F33" t="s" s="10">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="G33" s="10">
         <f>concatenate(c33,d33,e33,f33)</f>
       </c>
       <c r="H33" t="s" s="10">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="I33" t="n" s="10">
         <v>2.404087812E10</v>
       </c>
       <c r="J33" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K33" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="K33" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="L33" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="M33" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="M33" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="N33" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O33" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P33" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34">
@@ -3321,46 +3385,46 @@
         <v>147.0</v>
       </c>
       <c r="C34" t="s" s="10">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s" s="10">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s" s="10">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="F34" t="s" s="10">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G34" s="10">
         <f>concatenate(c34,d34,e34,f34)</f>
       </c>
       <c r="H34" t="s" s="10">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="I34" t="n" s="10">
         <v>2.4040993764E10</v>
       </c>
-      <c r="J34" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K34" t="s" s="10">
-        <v>41</v>
+      <c r="J34" t="s" s="6">
+        <v>79</v>
+      </c>
+      <c r="K34" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="L34" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M34" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N34" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O34" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P34" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35">
@@ -3371,46 +3435,46 @@
         <v>178.0</v>
       </c>
       <c r="C35" t="s" s="10">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="D35" t="s" s="10">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="E35" t="s" s="10">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="F35" t="s" s="10">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G35" s="10">
         <f>concatenate(c35,d35,e35,f35)</f>
       </c>
       <c r="H35" t="s" s="10">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="I35" t="n" s="10">
         <v>2.404087519E10</v>
       </c>
       <c r="J35" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K35" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="K35" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="L35" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M35" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N35" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O35" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P35" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36">
@@ -3421,46 +3485,46 @@
         <v>206.0</v>
       </c>
       <c r="C36" t="s" s="10">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="D36" t="s" s="10">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="E36" t="s" s="10">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="F36" t="s" s="10">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="G36" s="10">
         <f>concatenate(c36,d36,e36,f36)</f>
       </c>
       <c r="H36" t="s" s="10">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="I36" t="n" s="10">
         <v>2.4040875215E10</v>
       </c>
-      <c r="J36" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K36" t="s" s="10">
-        <v>41</v>
+      <c r="J36" t="s" s="6">
+        <v>79</v>
+      </c>
+      <c r="K36" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="L36" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M36" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N36" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O36" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P36" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37">
@@ -3471,46 +3535,46 @@
         <v>212.0</v>
       </c>
       <c r="C37" t="s" s="10">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="D37" t="s" s="10">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="E37" t="s" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F37" t="s" s="10">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="G37" s="10">
         <f>concatenate(c37,d37,e37,f37)</f>
       </c>
       <c r="H37" t="s" s="10">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="I37" t="n" s="10">
         <v>2.4040877071E10</v>
       </c>
       <c r="J37" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K37" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="K37" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="L37" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="M37" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="M37" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="N37" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O37" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P37" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38">
@@ -3521,46 +3585,46 @@
         <v>249.0</v>
       </c>
       <c r="C38" t="s" s="10">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="D38" t="s" s="10">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="E38" t="s" s="10">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="F38" t="s" s="10">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="G38" s="10">
         <f>concatenate(c38,d38,e38,f38)</f>
       </c>
       <c r="H38" t="s" s="10">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="I38" t="n" s="10">
         <v>2.4040875811E10</v>
       </c>
-      <c r="J38" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K38" t="s" s="10">
-        <v>41</v>
+      <c r="J38" t="s" s="6">
+        <v>79</v>
+      </c>
+      <c r="K38" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="L38" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M38" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N38" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O38" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P38" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39">
@@ -3571,46 +3635,46 @@
         <v>252.0</v>
       </c>
       <c r="C39" t="s" s="10">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="D39" t="s" s="10">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="E39" t="s" s="10">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="F39" t="s" s="10">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="G39" s="10">
         <f>concatenate(c39,d39,e39,f39)</f>
       </c>
       <c r="H39" t="s" s="10">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="I39" t="n" s="10">
         <v>2.4041024351E10</v>
       </c>
       <c r="J39" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K39" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="K39" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="L39" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M39" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N39" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O39" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P39" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40">
@@ -3621,46 +3685,46 @@
         <v>256.0</v>
       </c>
       <c r="C40" t="s" s="10">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="D40" t="s" s="10">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="E40" t="s" s="10">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="F40" t="s" s="10">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="G40" s="10">
         <f>concatenate(c40,d40,e40,f40)</f>
       </c>
       <c r="H40" t="s" s="10">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="I40" t="n" s="10">
         <v>2.4041024104E10</v>
       </c>
-      <c r="J40" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K40" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="L40" t="s" s="10">
-        <v>41</v>
+      <c r="J40" t="s" s="6">
+        <v>79</v>
+      </c>
+      <c r="K40" t="s" s="6">
+        <v>79</v>
+      </c>
+      <c r="L40" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="M40" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N40" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O40" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P40" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41">
@@ -3671,46 +3735,46 @@
         <v>375.0</v>
       </c>
       <c r="C41" t="s" s="10">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="D41" t="s" s="10">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E41" t="s" s="10">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="F41" t="s" s="10">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="G41" s="10">
         <f>concatenate(c41,d41,e41,f41)</f>
       </c>
       <c r="H41" t="s" s="10">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="I41" t="n" s="10">
         <v>2.4040935674E10</v>
       </c>
       <c r="J41" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K41" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="K41" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="L41" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="M41" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="M41" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="N41" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O41" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P41" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42">
@@ -3721,46 +3785,46 @@
         <v>402.0</v>
       </c>
       <c r="C42" t="s" s="10">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D42" t="s" s="10">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="E42" t="s" s="10">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="F42" t="s" s="10">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="G42" s="10">
         <f>concatenate(c42,d42,e42,f42)</f>
       </c>
       <c r="H42" t="s" s="10">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="I42" t="n" s="10">
         <v>2.4040884839E10</v>
       </c>
-      <c r="J42" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K42" t="s" s="10">
-        <v>41</v>
+      <c r="J42" t="s" s="6">
+        <v>79</v>
+      </c>
+      <c r="K42" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="L42" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M42" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N42" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O42" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P42" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43">
@@ -3771,46 +3835,46 @@
         <v>403.0</v>
       </c>
       <c r="C43" t="s" s="10">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="D43" t="s" s="10">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E43" t="s" s="10">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="F43" t="s" s="10">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="G43" s="10">
         <f>concatenate(c43,d43,e43,f43)</f>
       </c>
       <c r="H43" t="s" s="10">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="I43" t="n" s="10">
         <v>2.4040874375E10</v>
       </c>
       <c r="J43" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K43" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="K43" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="L43" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M43" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N43" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O43" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P43" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44">
@@ -3821,46 +3885,46 @@
         <v>411.0</v>
       </c>
       <c r="C44" t="s" s="10">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="D44" t="s" s="10">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="E44" t="s" s="10">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F44" t="s" s="10">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="G44" s="10">
         <f>concatenate(c44,d44,e44,f44)</f>
       </c>
       <c r="H44" t="s" s="10">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="I44" t="n" s="10">
         <v>2.404093596E10</v>
       </c>
-      <c r="J44" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K44" t="s" s="10">
-        <v>41</v>
+      <c r="J44" t="s" s="6">
+        <v>79</v>
+      </c>
+      <c r="K44" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="L44" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="M44" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="M44" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="N44" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O44" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P44" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45">
@@ -3871,46 +3935,46 @@
         <v>639.0</v>
       </c>
       <c r="C45" t="s" s="10">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="D45" t="s" s="10">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="E45" t="s" s="10">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="F45" t="s" s="10">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="G45" s="10">
         <f>concatenate(c45,d45,e45,f45)</f>
       </c>
       <c r="H45" t="s" s="10">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="I45" t="n" s="10">
         <v>2.404448862E10</v>
       </c>
       <c r="J45" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K45" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="K45" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="L45" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M45" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N45" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O45" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P45" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46">
@@ -3921,46 +3985,46 @@
         <v>704.0</v>
       </c>
       <c r="C46" t="s" s="10">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="D46" t="s" s="10">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="E46" t="s" s="10">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="F46" t="s" s="10">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="G46" s="10">
         <f>concatenate(c46,d46,e46,f46)</f>
       </c>
       <c r="H46" t="s" s="10">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="I46" t="n" s="10">
         <v>2.404551069E10</v>
       </c>
-      <c r="J46" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K46" t="s" s="10">
-        <v>41</v>
+      <c r="J46" t="s" s="6">
+        <v>79</v>
+      </c>
+      <c r="K46" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="L46" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M46" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N46" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O46" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P46" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47">
@@ -3971,46 +4035,46 @@
         <v>737.0</v>
       </c>
       <c r="C47" t="s" s="10">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="D47" t="s" s="10">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="E47" t="s" s="10">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="F47" t="s" s="10">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="G47" s="10">
         <f>concatenate(c47,d47,e47,f47)</f>
       </c>
       <c r="H47" t="s" s="10">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="I47" t="n" s="10">
         <v>2.4046162342E10</v>
       </c>
       <c r="J47" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K47" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="K47" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="L47" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M47" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N47" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O47" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P47" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48">
@@ -4021,46 +4085,46 @@
         <v>738.0</v>
       </c>
       <c r="C48" t="s" s="10">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="D48" t="s" s="10">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="E48" t="s" s="10">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="F48" t="s" s="10">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="G48" s="10">
         <f>concatenate(c48,d48,e48,f48)</f>
       </c>
       <c r="H48" t="s" s="10">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="I48" t="n" s="10">
         <v>2.4046415938E10</v>
       </c>
-      <c r="J48" t="s" s="10">
-        <v>41</v>
+      <c r="J48" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="K48" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L48" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M48" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N48" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O48" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P48" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49">
@@ -4071,46 +4135,46 @@
         <v>807.0</v>
       </c>
       <c r="C49" t="s" s="10">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="D49" t="s" s="10">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="E49" t="s" s="10">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="F49" t="s" s="10">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="G49" s="10">
         <f>concatenate(c49,d49,e49,f49)</f>
       </c>
       <c r="H49" t="s" s="10">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="I49" t="n" s="10">
         <v>2.4051432896E10</v>
       </c>
       <c r="J49" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K49" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L49" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M49" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N49" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O49" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P49" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50">
@@ -4121,46 +4185,46 @@
         <v>887.0</v>
       </c>
       <c r="C50" t="s" s="10">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s" s="10">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="E50" t="s" s="10">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="F50" t="s" s="10">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G50" s="10">
         <f>concatenate(c50,d50,e50,f50)</f>
       </c>
       <c r="H50" t="s" s="10">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="I50" t="n" s="10">
         <v>2.4054095171E10</v>
       </c>
-      <c r="J50" t="s" s="10">
-        <v>41</v>
+      <c r="J50" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="K50" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L50" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M50" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N50" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O50" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P50" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51">
@@ -4171,46 +4235,46 @@
         <v>928.0</v>
       </c>
       <c r="C51" t="s" s="10">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D51" t="s" s="10">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="E51" t="s" s="10">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="F51" t="s" s="10">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="G51" s="10">
         <f>concatenate(c51,d51,e51,f51)</f>
       </c>
       <c r="H51" t="s" s="10">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="I51" t="n" s="10">
         <v>2.4040877468E10</v>
       </c>
       <c r="J51" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K51" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L51" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M51" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N51" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O51" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P51" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52">
@@ -4221,46 +4285,46 @@
         <v>978.0</v>
       </c>
       <c r="C52" t="s" s="10">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="D52" t="s" s="10">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="E52" t="s" s="10">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="F52" t="s" s="10">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="G52" s="10">
         <f>concatenate(c52,d52,e52,f52)</f>
       </c>
       <c r="H52" t="s" s="10">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="I52" t="n" s="10">
         <v>2.4041021648E10</v>
       </c>
-      <c r="J52" t="s" s="10">
-        <v>41</v>
+      <c r="J52" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="K52" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L52" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M52" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N52" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O52" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P52" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53">
@@ -4271,46 +4335,46 @@
         <v>1028.0</v>
       </c>
       <c r="C53" t="s" s="10">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="D53" t="s" s="10">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="E53" t="s" s="10">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="F53" t="s" s="10">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="G53" s="10">
         <f>concatenate(c53,d53,e53,f53)</f>
       </c>
       <c r="H53" t="s" s="10">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="I53" t="n" s="10">
         <v>2.4056106293E10</v>
       </c>
       <c r="J53" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K53" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L53" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M53" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N53" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O53" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P53" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54">
@@ -4321,46 +4385,46 @@
         <v>1044.0</v>
       </c>
       <c r="C54" t="s" s="10">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="D54" t="s" s="10">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="E54" t="s" s="10">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="F54" t="s" s="10">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="G54" s="10">
         <f>concatenate(c54,d54,e54,f54)</f>
       </c>
       <c r="H54" t="s" s="10">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="I54" t="n" s="10">
         <v>2.4056114434E10</v>
       </c>
-      <c r="J54" t="s" s="10">
-        <v>41</v>
+      <c r="J54" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="K54" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L54" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M54" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N54" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O54" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P54" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55">
@@ -4371,46 +4435,46 @@
         <v>1046.0</v>
       </c>
       <c r="C55" t="s" s="10">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="D55" t="s" s="10">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="E55" t="s" s="10">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="F55" t="s" s="10">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="G55" s="10">
         <f>concatenate(c55,d55,e55,f55)</f>
       </c>
       <c r="H55" t="s" s="10">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="I55" t="n" s="10">
         <v>2.405611458E10</v>
       </c>
       <c r="J55" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K55" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L55" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M55" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N55" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O55" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P55" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56">
@@ -4421,46 +4485,46 @@
         <v>1106.0</v>
       </c>
       <c r="C56" t="s" s="10">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="D56" t="s" s="10">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="E56" t="s" s="10">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="F56" t="s" s="10">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="G56" s="10">
         <f>concatenate(c56,d56,e56,f56)</f>
       </c>
       <c r="H56" t="s" s="10">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="I56" t="n" s="10">
         <v>2.4057413329E10</v>
       </c>
-      <c r="J56" t="s" s="10">
-        <v>41</v>
+      <c r="J56" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="K56" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L56" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M56" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N56" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O56" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P56" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57">
@@ -4471,46 +4535,46 @@
         <v>1108.0</v>
       </c>
       <c r="C57" t="s" s="10">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="D57" t="s" s="10">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="E57" t="s" s="10">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="F57" t="s" s="10">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="G57" s="10">
         <f>concatenate(c57,d57,e57,f57)</f>
       </c>
       <c r="H57" t="s" s="10">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="I57" t="n" s="10">
         <v>2.4057558006E10</v>
       </c>
       <c r="J57" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K57" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L57" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M57" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N57" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O57" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P57" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58">
@@ -4521,46 +4585,46 @@
         <v>221.0</v>
       </c>
       <c r="C58" t="s" s="7">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="D58" t="s" s="7">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="E58" t="s" s="7">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F58" t="s" s="7">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="G58" s="7">
         <f>concatenate(c58,d58,e58,f58)</f>
       </c>
       <c r="H58" t="s" s="7">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="I58" t="n" s="10">
         <v>2.4040980566E10</v>
       </c>
-      <c r="J58" t="s" s="10">
-        <v>41</v>
+      <c r="J58" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="K58" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L58" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M58" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N58" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O58" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P58" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59">
@@ -4571,46 +4635,46 @@
         <v>484.0</v>
       </c>
       <c r="C59" t="s" s="10">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="D59" t="s" s="10">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="E59" t="s" s="10">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F59" t="s" s="10">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="G59" s="10">
         <f>concatenate(c59,d59,e59,f59)</f>
       </c>
       <c r="H59" t="s" s="10">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="I59" t="n" s="10">
         <v>2.404147226E10</v>
       </c>
       <c r="J59" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K59" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="L59" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="K59" t="s" s="6">
+        <v>79</v>
+      </c>
+      <c r="L59" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="M59" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N59" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O59" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P59" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60">
@@ -4621,46 +4685,46 @@
         <v>768.0</v>
       </c>
       <c r="C60" t="s" s="10">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="D60" t="s" s="10">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="E60" t="s" s="10">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="F60" t="s" s="10">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="G60" s="10">
         <f>concatenate(c60,d60,e60,f60)</f>
       </c>
       <c r="H60" t="s" s="10">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="I60" t="n" s="10">
         <v>2.4048444831E10</v>
       </c>
       <c r="J60" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K60" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="L60" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="K60" t="s" s="6">
+        <v>79</v>
+      </c>
+      <c r="L60" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="M60" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N60" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O60" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P60" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61">
@@ -4671,46 +4735,46 @@
         <v>798.0</v>
       </c>
       <c r="C61" t="s" s="10">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="D61" t="s" s="10">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="E61" t="s" s="10">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="F61" t="s" s="10">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="G61" s="10">
         <f>concatenate(c61,d61,e61,f61)</f>
       </c>
       <c r="H61" t="s" s="10">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="I61" t="n" s="10">
         <v>2.4051430566E10</v>
       </c>
       <c r="J61" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K61" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="L61" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="K61" t="s" s="6">
+        <v>79</v>
+      </c>
+      <c r="L61" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="M61" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N61" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O61" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P61" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62">
@@ -4721,46 +4785,46 @@
         <v>826.0</v>
       </c>
       <c r="C62" t="s" s="10">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="D62" t="s" s="10">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="E62" t="s" s="10">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="F62" t="s" s="10">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="G62" s="10">
         <f>concatenate(c62,d62,e62,f62)</f>
       </c>
       <c r="H62" t="s" s="10">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="I62" t="n" s="10">
         <v>2.4046973465E10</v>
       </c>
       <c r="J62" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K62" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="L62" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="K62" t="s" s="9">
+        <v>80</v>
+      </c>
+      <c r="L62" t="s" s="9">
+        <v>80</v>
       </c>
       <c r="M62" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N62" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O62" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P62" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63">
@@ -4771,46 +4835,46 @@
         <v>832.0</v>
       </c>
       <c r="C63" t="s" s="10">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="D63" t="s" s="10">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="E63" t="s" s="10">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="F63" t="s" s="10">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="G63" s="10">
         <f>concatenate(c63,d63,e63,f63)</f>
       </c>
       <c r="H63" t="s" s="10">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="I63" t="n" s="10">
         <v>2.4053029892E10</v>
       </c>
       <c r="J63" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K63" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="K63" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="L63" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M63" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N63" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O63" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P63" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64">
@@ -4821,46 +4885,46 @@
         <v>834.0</v>
       </c>
       <c r="C64" t="s" s="10">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="D64" t="s" s="10">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="E64" t="s" s="10">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="F64" t="s" s="10">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="G64" s="10">
         <f>concatenate(c64,d64,e64,f64)</f>
       </c>
       <c r="H64" t="s" s="10">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="I64" t="n" s="10">
         <v>2.4053031097E10</v>
       </c>
       <c r="J64" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K64" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="K64" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="L64" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M64" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N64" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O64" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P64" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65">
@@ -4871,46 +4935,46 @@
         <v>837.0</v>
       </c>
       <c r="C65" t="s" s="10">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="D65" t="s" s="10">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="E65" t="s" s="10">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F65" t="s" s="10">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="G65" s="10">
         <f>concatenate(c65,d65,e65,f65)</f>
       </c>
       <c r="H65" t="s" s="10">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="I65" t="n" s="10">
         <v>2.4042062301E10</v>
       </c>
       <c r="J65" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K65" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L65" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M65" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N65" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O65" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P65" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66">
@@ -4921,46 +4985,46 @@
         <v>851.0</v>
       </c>
       <c r="C66" t="s" s="10">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="D66" t="s" s="10">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="E66" t="s" s="10">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="F66" t="s" s="10">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="G66" s="10">
         <f>concatenate(c66,d66,e66,f66)</f>
       </c>
       <c r="H66" t="s" s="10">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="I66" t="n" s="10">
         <v>2.4053221605E10</v>
       </c>
       <c r="J66" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K66" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L66" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M66" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N66" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O66" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P66" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67">
@@ -4971,46 +5035,46 @@
         <v>855.0</v>
       </c>
       <c r="C67" t="s" s="10">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="D67" t="s" s="10">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="E67" t="s" s="10">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="F67" t="s" s="10">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="G67" s="10">
         <f>concatenate(c67,d67,e67,f67)</f>
       </c>
       <c r="H67" t="s" s="10">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="I67" t="n" s="10">
         <v>2.405358386E10</v>
       </c>
       <c r="J67" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K67" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L67" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M67" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N67" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O67" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P67" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68">
@@ -5021,46 +5085,46 @@
         <v>861.0</v>
       </c>
       <c r="C68" t="s" s="10">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="D68" t="s" s="10">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="E68" t="s" s="10">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="F68" t="s" s="10">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="G68" s="10">
         <f>concatenate(c68,d68,e68,f68)</f>
       </c>
       <c r="H68" t="s" s="10">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="I68" t="n" s="10">
         <v>2.4053670384E10</v>
       </c>
       <c r="J68" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K68" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L68" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="M68" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="M68" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="N68" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O68" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P68" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69">
@@ -5071,46 +5135,46 @@
         <v>938.0</v>
       </c>
       <c r="C69" t="s" s="10">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="D69" t="s" s="10">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="E69" t="s" s="10">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="F69" t="s" s="10">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="G69" s="10">
         <f>concatenate(c69,d69,e69,f69)</f>
       </c>
       <c r="H69" t="s" s="10">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="I69" t="n" s="10">
         <v>2.4054779741E10</v>
       </c>
       <c r="J69" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K69" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L69" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="M69" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="M69" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="N69" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O69" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P69" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70">
@@ -5121,46 +5185,46 @@
         <v>975.0</v>
       </c>
       <c r="C70" t="s" s="10">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="D70" t="s" s="10">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="E70" t="s" s="10">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="F70" t="s" s="10">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="G70" s="10">
         <f>concatenate(c70,d70,e70,f70)</f>
       </c>
       <c r="H70" t="s" s="10">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="I70" t="n" s="10">
         <v>2.4052657078E10</v>
       </c>
       <c r="J70" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K70" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L70" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M70" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N70" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O70" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P70" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71">
@@ -5171,46 +5235,46 @@
         <v>979.0</v>
       </c>
       <c r="C71" t="s" s="10">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="D71" t="s" s="10">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="E71" t="s" s="10">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="F71" t="s" s="10">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="G71" s="10">
         <f>concatenate(c71,d71,e71,f71)</f>
       </c>
       <c r="H71" t="s" s="10">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="I71" t="n" s="10">
         <v>2.4055405207E10</v>
       </c>
       <c r="J71" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K71" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L71" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M71" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N71" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O71" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P71" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72">
@@ -5221,46 +5285,46 @@
         <v>1073.0</v>
       </c>
       <c r="C72" t="s" s="10">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="D72" t="s" s="10">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E72" t="s" s="10">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F72" t="s" s="10">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="G72" s="10">
         <f>concatenate(c72,d72,e72,f72)</f>
       </c>
       <c r="H72" t="s" s="10">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="I72" t="n" s="10">
         <v>2.4052656277E10</v>
       </c>
       <c r="J72" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K72" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L72" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M72" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N72" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O72" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P72" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73">
@@ -5271,46 +5335,46 @@
         <v>-4.0</v>
       </c>
       <c r="C73" t="s" s="7">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="D73" t="s" s="7">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="E73" t="s" s="7">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="F73" t="s" s="7">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="G73" s="7">
         <f>concatenate(c73,d73,e73,f73)</f>
       </c>
       <c r="H73" t="s" s="7">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="I73" t="n" s="10">
         <v>2.4040877482E10</v>
       </c>
       <c r="J73" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K73" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L73" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M73" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N73" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O73" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P73" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74">
@@ -5321,46 +5385,46 @@
         <v>22.0</v>
       </c>
       <c r="C74" t="s" s="10">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="D74" t="s" s="10">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="E74" t="s" s="10">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="F74" t="s" s="10">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="G74" s="10">
         <f>concatenate(c74,d74,e74,f74)</f>
       </c>
       <c r="H74" t="s" s="10">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="I74" t="n" s="10">
         <v>2.4041023916E10</v>
       </c>
       <c r="J74" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K74" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L74" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M74" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N74" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O74" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P74" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75">
@@ -5371,46 +5435,46 @@
         <v>46.0</v>
       </c>
       <c r="C75" t="s" s="10">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="D75" t="s" s="10">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="E75" t="s" s="10">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="F75" t="s" s="10">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="G75" s="10">
         <f>concatenate(c75,d75,e75,f75)</f>
       </c>
       <c r="H75" t="s" s="10">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="I75" t="n" s="10">
         <v>2.4041024988E10</v>
       </c>
       <c r="J75" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K75" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="L75" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="K75" t="s" s="6">
+        <v>79</v>
+      </c>
+      <c r="L75" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="M75" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N75" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O75" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P75" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76">
@@ -5421,46 +5485,46 @@
         <v>148.0</v>
       </c>
       <c r="C76" t="s" s="10">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="D76" t="s" s="10">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="E76" t="s" s="10">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="F76" t="s" s="10">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="G76" s="10">
         <f>concatenate(c76,d76,e76,f76)</f>
       </c>
       <c r="H76" t="s" s="10">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="I76" t="n" s="10">
         <v>2.4041022533E10</v>
       </c>
       <c r="J76" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K76" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L76" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M76" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N76" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O76" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P76" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77">
@@ -5471,46 +5535,46 @@
         <v>176.0</v>
       </c>
       <c r="C77" t="s" s="10">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="D77" t="s" s="10">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="E77" t="s" s="10">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F77" t="s" s="10">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="G77" s="10">
         <f>concatenate(c77,d77,e77,f77)</f>
       </c>
       <c r="H77" t="s" s="10">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="I77" t="n" s="10">
         <v>2.4041022331E10</v>
       </c>
       <c r="J77" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K77" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L77" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M77" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N77" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O77" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P77" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78">
@@ -5521,46 +5585,46 @@
         <v>227.0</v>
       </c>
       <c r="C78" t="s" s="10">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="D78" t="s" s="10">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="E78" t="s" s="10">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="F78" t="s" s="10">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="G78" s="10">
         <f>concatenate(c78,d78,e78,f78)</f>
       </c>
       <c r="H78" t="s" s="10">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="I78" t="n" s="10">
         <v>2.4041023839E10</v>
       </c>
       <c r="J78" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K78" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L78" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M78" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N78" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O78" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P78" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79">
@@ -5571,46 +5635,46 @@
         <v>291.0</v>
       </c>
       <c r="C79" t="s" s="10">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="D79" t="s" s="10">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="E79" t="s" s="10">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="F79" t="s" s="10">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="G79" s="10">
         <f>concatenate(c79,d79,e79,f79)</f>
       </c>
       <c r="H79" t="s" s="10">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="I79" t="n" s="10">
         <v>2.4041021819E10</v>
       </c>
       <c r="J79" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K79" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L79" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M79" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N79" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O79" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P79" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80">
@@ -5621,46 +5685,46 @@
         <v>442.0</v>
       </c>
       <c r="C80" t="s" s="10">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="D80" t="s" s="10">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="E80" t="s" s="10">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="F80" t="s" s="10">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="G80" s="10">
         <f>concatenate(c80,d80,e80,f80)</f>
       </c>
       <c r="H80" t="s" s="10">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="I80" t="n" s="10">
         <v>2.4041022247E10</v>
       </c>
       <c r="J80" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K80" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L80" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M80" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N80" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O80" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P80" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81">
@@ -5671,46 +5735,46 @@
         <v>836.0</v>
       </c>
       <c r="C81" t="s" s="10">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="D81" t="s" s="10">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="E81" t="s" s="10">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="F81" t="s" s="10">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="G81" s="10">
         <f>concatenate(c81,d81,e81,f81)</f>
       </c>
       <c r="H81" t="s" s="10">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="I81" t="n" s="10">
         <v>2.4053009766E10</v>
       </c>
       <c r="J81" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K81" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L81" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M81" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N81" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O81" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P81" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82">
@@ -5721,46 +5785,46 @@
         <v>895.0</v>
       </c>
       <c r="C82" t="s" s="10">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="D82" t="s" s="10">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="E82" t="s" s="10">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="F82" t="s" s="10">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="G82" s="10">
         <f>concatenate(c82,d82,e82,f82)</f>
       </c>
       <c r="H82" t="s" s="10">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="I82" t="n" s="10">
         <v>2.4054201541E10</v>
       </c>
       <c r="J82" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K82" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L82" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M82" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N82" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O82" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P82" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83">
@@ -5771,46 +5835,46 @@
         <v>944.0</v>
       </c>
       <c r="C83" t="s" s="10">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="D83" t="s" s="10">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="E83" t="s" s="10">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="F83" t="s" s="10">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="G83" s="10">
         <f>concatenate(c83,d83,e83,f83)</f>
       </c>
       <c r="H83" t="s" s="10">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="I83" t="n" s="10">
         <v>2.4054858613E10</v>
       </c>
       <c r="J83" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K83" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L83" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M83" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N83" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O83" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P83" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84">
@@ -5821,46 +5885,46 @@
         <v>960.0</v>
       </c>
       <c r="C84" t="s" s="10">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="D84" t="s" s="10">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="E84" t="s" s="10">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F84" t="s" s="10">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="G84" s="10">
         <f>concatenate(c84,d84,e84,f84)</f>
       </c>
       <c r="H84" t="s" s="10">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="I84" t="n" s="10">
         <v>2.4055339766E10</v>
       </c>
       <c r="J84" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K84" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L84" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M84" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N84" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O84" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P84" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85">
@@ -5871,46 +5935,46 @@
         <v>962.0</v>
       </c>
       <c r="C85" t="s" s="10">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="D85" t="s" s="10">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="E85" t="s" s="10">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="F85" t="s" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="G85" s="10">
         <f>concatenate(c85,d85,e85,f85)</f>
       </c>
       <c r="H85" t="s" s="10">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="I85" t="n" s="10">
         <v>2.4055339216E10</v>
       </c>
       <c r="J85" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K85" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L85" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M85" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N85" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O85" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P85" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86">
@@ -5921,46 +5985,46 @@
         <v>981.0</v>
       </c>
       <c r="C86" t="s" s="10">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="D86" t="s" s="10">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="E86" t="s" s="10">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="F86" t="s" s="10">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="G86" s="10">
         <f>concatenate(c86,d86,e86,f86)</f>
       </c>
       <c r="H86" t="s" s="10">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="I86" t="n" s="10">
         <v>2.4055406596E10</v>
       </c>
       <c r="J86" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K86" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L86" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M86" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N86" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O86" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P86" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87">
@@ -5971,46 +6035,46 @@
         <v>1023.0</v>
       </c>
       <c r="C87" t="s" s="10">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="D87" t="s" s="10">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="E87" t="s" s="10">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F87" t="s" s="10">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="G87" s="10">
         <f>concatenate(c87,d87,e87,f87)</f>
       </c>
       <c r="H87" t="s" s="10">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="I87" t="n" s="10">
         <v>2.4055811097E10</v>
       </c>
       <c r="J87" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K87" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L87" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M87" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N87" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O87" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P87" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88">
@@ -6021,46 +6085,46 @@
         <v>1086.0</v>
       </c>
       <c r="C88" t="s" s="10">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="D88" t="s" s="10">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="E88" t="s" s="10">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="F88" t="s" s="10">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="G88" s="10">
         <f>concatenate(c88,d88,e88,f88)</f>
       </c>
       <c r="H88" t="s" s="10">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="I88" t="n" s="10">
         <v>2.4056726293E10</v>
       </c>
       <c r="J88" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K88" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L88" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M88" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N88" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O88" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P88" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89">
@@ -6071,46 +6135,46 @@
         <v>1125.0</v>
       </c>
       <c r="C89" t="s" s="10">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="D89" t="s" s="10">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="E89" t="s" s="10">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="F89" t="s" s="10">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="G89" s="10">
         <f>concatenate(c89,d89,e89,f89)</f>
       </c>
       <c r="H89" t="s" s="10">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="I89" t="n" s="10">
         <v>2.4041022658E10</v>
       </c>
       <c r="J89" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K89" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L89" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M89" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N89" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O89" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P89" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="90">
@@ -6121,46 +6185,46 @@
         <v>1129.0</v>
       </c>
       <c r="C90" t="s" s="10">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="D90" t="s" s="10">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="E90" t="s" s="10">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="F90" t="s" s="10">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="G90" s="10">
         <f>concatenate(c90,d90,e90,f90)</f>
       </c>
       <c r="H90" t="s" s="10">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="I90" t="n" s="10">
         <v>2.4041280579E10</v>
       </c>
       <c r="J90" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K90" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L90" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M90" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N90" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O90" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P90" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91">
@@ -6171,46 +6235,46 @@
         <v>-5.0</v>
       </c>
       <c r="C91" t="s" s="7">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="D91" t="s" s="7">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="E91" t="s" s="7">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="F91" t="s" s="7">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="G91" s="7">
         <f>concatenate(c91,d91,e91,f91)</f>
       </c>
       <c r="H91" t="s" s="7">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="I91" t="n" s="10">
         <v>2.404126672E10</v>
       </c>
       <c r="J91" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K91" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L91" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M91" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N91" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O91" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P91" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92">
@@ -6221,46 +6285,46 @@
         <v>226.0</v>
       </c>
       <c r="C92" t="s" s="10">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="D92" t="s" s="10">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="E92" t="s" s="10">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="F92" t="s" s="10">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="G92" s="10">
         <f>concatenate(c92,d92,e92,f92)</f>
       </c>
       <c r="H92" t="s" s="10">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="I92" t="n" s="10">
         <v>2.4041022069E10</v>
       </c>
       <c r="J92" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K92" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L92" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M92" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N92" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O92" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P92" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="93">
@@ -6271,46 +6335,46 @@
         <v>235.0</v>
       </c>
       <c r="C93" t="s" s="10">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="D93" t="s" s="10">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="E93" t="s" s="10">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="F93" t="s" s="10">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G93" s="10">
         <f>concatenate(c93,d93,e93,f93)</f>
       </c>
       <c r="H93" t="s" s="10">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="I93" t="n" s="10">
         <v>2.4040878478E10</v>
       </c>
       <c r="J93" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K93" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="L93" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="K93" t="s" s="6">
+        <v>79</v>
+      </c>
+      <c r="L93" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="M93" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N93" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O93" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P93" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="94">
@@ -6321,46 +6385,46 @@
         <v>334.0</v>
       </c>
       <c r="C94" t="s" s="10">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="D94" t="s" s="10">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="E94" t="s" s="10">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="F94" t="s" s="10">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="G94" s="10">
         <f>concatenate(c94,d94,e94,f94)</f>
       </c>
       <c r="H94" t="s" s="10">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="I94" t="n" s="10">
         <v>2.4040875563E10</v>
       </c>
       <c r="J94" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K94" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="L94" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="K94" t="s" s="6">
+        <v>79</v>
+      </c>
+      <c r="L94" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="M94" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N94" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O94" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P94" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95">
@@ -6371,46 +6435,46 @@
         <v>346.0</v>
       </c>
       <c r="C95" t="s" s="10">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="D95" t="s" s="10">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="E95" t="s" s="10">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F95" t="s" s="10">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="G95" s="10">
         <f>concatenate(c95,d95,e95,f95)</f>
       </c>
       <c r="H95" t="s" s="10">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="I95" t="n" s="10">
         <v>2.4040980573E10</v>
       </c>
       <c r="J95" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K95" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="L95" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="L95" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="M95" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N95" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O95" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P95" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96">
@@ -6421,46 +6485,46 @@
         <v>472.0</v>
       </c>
       <c r="C96" t="s" s="10">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="D96" t="s" s="10">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="E96" t="s" s="10">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="F96" t="s" s="10">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="G96" s="10">
         <f>concatenate(c96,d96,e96,f96)</f>
       </c>
       <c r="H96" t="s" s="10">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="I96" t="n" s="10">
         <v>2.4040935744E10</v>
       </c>
       <c r="J96" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K96" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="L96" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="L96" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="M96" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N96" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O96" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P96" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97">
@@ -6471,46 +6535,46 @@
         <v>491.0</v>
       </c>
       <c r="C97" t="s" s="10">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="D97" t="s" s="10">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="E97" t="s" s="10">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F97" t="s" s="10">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="G97" s="10">
         <f>concatenate(c97,d97,e97,f97)</f>
       </c>
       <c r="H97" t="s" s="10">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="I97" t="n" s="10">
         <v>2.4041395008E10</v>
       </c>
       <c r="J97" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K97" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="L97" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="L97" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="M97" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N97" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O97" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P97" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98">
@@ -6521,46 +6585,46 @@
         <v>502.0</v>
       </c>
       <c r="C98" t="s" s="10">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="D98" t="s" s="10">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="E98" t="s" s="10">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="F98" t="s" s="10">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="G98" s="10">
         <f>concatenate(c98,d98,e98,f98)</f>
       </c>
       <c r="H98" t="s" s="10">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="I98" t="n" s="10">
         <v>2.4041860146E10</v>
       </c>
       <c r="J98" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K98" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="K98" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="L98" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M98" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N98" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O98" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P98" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="99">
@@ -6571,46 +6635,46 @@
         <v>892.0</v>
       </c>
       <c r="C99" t="s" s="10">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D99" t="s" s="10">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="E99" t="s" s="10">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="F99" t="s" s="10">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G99" s="10">
         <f>concatenate(c99,d99,e99,f99)</f>
       </c>
       <c r="H99" t="s" s="10">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="I99" t="n" s="10">
         <v>2.4054172489E10</v>
       </c>
       <c r="J99" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K99" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L99" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M99" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N99" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O99" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P99" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="100">
@@ -6621,46 +6685,46 @@
         <v>1021.0</v>
       </c>
       <c r="C100" t="s" s="10">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="D100" t="s" s="10">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="E100" t="s" s="10">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="F100" t="s" s="10">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="G100" s="10">
         <f>concatenate(c100,d100,e100,f100)</f>
       </c>
       <c r="H100" t="s" s="10">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="I100" t="n" s="10">
         <v>2.4055841694E10</v>
       </c>
       <c r="J100" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K100" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L100" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M100" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N100" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O100" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P100" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101">
@@ -6671,46 +6735,46 @@
         <v>1050.0</v>
       </c>
       <c r="C101" t="s" s="10">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="D101" t="s" s="10">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="E101" t="s" s="10">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="F101" t="s" s="10">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="G101" s="10">
         <f>concatenate(c101,d101,e101,f101)</f>
       </c>
       <c r="H101" t="s" s="10">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="I101" t="n" s="10">
         <v>2.4041265556E10</v>
       </c>
       <c r="J101" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K101" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L101" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M101" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N101" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O101" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P101" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="102">
@@ -6721,46 +6785,46 @@
         <v>1067.0</v>
       </c>
       <c r="C102" t="s" s="10">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="D102" t="s" s="10">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="E102" t="s" s="10">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="F102" t="s" s="10">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="G102" s="10">
         <f>concatenate(c102,d102,e102,f102)</f>
       </c>
       <c r="H102" t="s" s="10">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="I102" t="n" s="10">
         <v>2.4056458886E10</v>
       </c>
       <c r="J102" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K102" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L102" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M102" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N102" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O102" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P102" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="103">
@@ -6771,46 +6835,46 @@
         <v>1080.0</v>
       </c>
       <c r="C103" t="s" s="10">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="D103" t="s" s="10">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="E103" t="s" s="10">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="F103" t="s" s="10">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="G103" s="10">
         <f>concatenate(c103,d103,e103,f103)</f>
       </c>
       <c r="H103" t="s" s="10">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="I103" t="n" s="10">
         <v>2.4056675148E10</v>
       </c>
       <c r="J103" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K103" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L103" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M103" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N103" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O103" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P103" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="104">
@@ -6821,46 +6885,46 @@
         <v>1104.0</v>
       </c>
       <c r="C104" t="s" s="10">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="D104" t="s" s="10">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="E104" t="s" s="10">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="F104" t="s" s="10">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="G104" s="10">
         <f>concatenate(c104,d104,e104,f104)</f>
       </c>
       <c r="H104" t="s" s="10">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="I104" t="n" s="10">
         <v>2.4041264933E10</v>
       </c>
       <c r="J104" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K104" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L104" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M104" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N104" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O104" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P104" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="105">
@@ -6871,46 +6935,46 @@
         <v>1105.0</v>
       </c>
       <c r="C105" t="s" s="10">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="D105" t="s" s="10">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="E105" t="s" s="10">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="F105" t="s" s="10">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="G105" s="10">
         <f>concatenate(c105,d105,e105,f105)</f>
       </c>
       <c r="H105" t="s" s="10">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="I105" t="n" s="10">
         <v>2.4041022456E10</v>
       </c>
       <c r="J105" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K105" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L105" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M105" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N105" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O105" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P105" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="106">
@@ -6921,46 +6985,46 @@
         <v>-6.0</v>
       </c>
       <c r="C106" t="s" s="7">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="D106" t="s" s="7">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="E106" t="s" s="7">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="F106" t="s" s="7">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="G106" s="7">
         <f>concatenate(c106,d106,e106,f106)</f>
       </c>
       <c r="H106" t="s" s="7">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="I106" t="n" s="10">
         <v>2.4040908836E10</v>
       </c>
       <c r="J106" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K106" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L106" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M106" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N106" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O106" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P106" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="107">
@@ -6971,46 +7035,46 @@
         <v>224.0</v>
       </c>
       <c r="C107" t="s" s="10">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="D107" t="s" s="10">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E107" t="s" s="10">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="F107" t="s" s="10">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="G107" s="10">
         <f>concatenate(c107,d107,e107,f107)</f>
       </c>
       <c r="H107" t="s" s="10">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="I107" t="n" s="10">
         <v>2.4040980085E10</v>
       </c>
       <c r="J107" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K107" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="K107" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="L107" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M107" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N107" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O107" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P107" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="108">
@@ -7021,46 +7085,46 @@
         <v>779.0</v>
       </c>
       <c r="C108" t="s" s="10">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="D108" t="s" s="10">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="E108" t="s" s="10">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="F108" t="s" s="10">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="G108" s="10">
         <f>concatenate(c108,d108,e108,f108)</f>
       </c>
       <c r="H108" t="s" s="10">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="I108" t="n" s="10">
         <v>2.4050221567E10</v>
       </c>
       <c r="J108" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K108" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="L108" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="K108" t="s" s="6">
+        <v>79</v>
+      </c>
+      <c r="L108" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="M108" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N108" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O108" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P108" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="109">
@@ -7071,46 +7135,46 @@
         <v>849.0</v>
       </c>
       <c r="C109" t="s" s="10">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="D109" t="s" s="10">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="E109" t="s" s="10">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="F109" t="s" s="10">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="G109" s="10">
         <f>concatenate(c109,d109,e109,f109)</f>
       </c>
       <c r="H109" t="s" s="10">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="I109" t="n" s="10">
         <v>2.4041023644E10</v>
       </c>
       <c r="J109" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K109" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L109" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M109" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N109" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O109" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P109" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="110">
@@ -7121,46 +7185,46 @@
         <v>907.0</v>
       </c>
       <c r="C110" t="s" s="10">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="D110" t="s" s="10">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="E110" t="s" s="10">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="F110" t="s" s="10">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="G110" s="10">
         <f>concatenate(c110,d110,e110,f110)</f>
       </c>
       <c r="H110" t="s" s="10">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="I110" t="n" s="10">
         <v>2.4054250271E10</v>
       </c>
       <c r="J110" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K110" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L110" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M110" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N110" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O110" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P110" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111">
@@ -7171,46 +7235,46 @@
         <v>993.0</v>
       </c>
       <c r="C111" t="s" s="10">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="D111" t="s" s="10">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s" s="10">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="F111" t="s" s="10">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="G111" s="10">
         <f>concatenate(c111,d111,e111,f111)</f>
       </c>
       <c r="H111" t="s" s="10">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="I111" t="n" s="10">
         <v>2.4056382105E10</v>
       </c>
       <c r="J111" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K111" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L111" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M111" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N111" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O111" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P111" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="112">
@@ -7221,46 +7285,46 @@
         <v>1031.0</v>
       </c>
       <c r="C112" t="s" s="10">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="D112" t="s" s="10">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="E112" t="s" s="10">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="F112" t="s" s="10">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G112" s="10">
         <f>concatenate(c112,d112,e112,f112)</f>
       </c>
       <c r="H112" t="s" s="10">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="I112" t="n" s="10">
         <v>2.4046148074E10</v>
       </c>
       <c r="J112" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K112" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L112" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M112" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N112" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O112" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P112" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="113">
@@ -7271,46 +7335,46 @@
         <v>140.0</v>
       </c>
       <c r="C113" t="s" s="7">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="D113" t="s" s="7">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="E113" t="s" s="7">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="F113" t="s" s="7">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="G113" s="7">
         <f>concatenate(c113,d113,e113,f113)</f>
       </c>
       <c r="H113" t="s" s="7">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="I113" t="n" s="10">
         <v>2.4040876218E10</v>
       </c>
       <c r="J113" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K113" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="L113" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="L113" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="M113" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N113" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O113" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P113" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="114">
@@ -7321,46 +7385,46 @@
         <v>199.0</v>
       </c>
       <c r="C114" t="s" s="10">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="D114" t="s" s="10">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="E114" t="s" s="10">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="F114" t="s" s="10">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="G114" s="10">
         <f>concatenate(c114,d114,e114,f114)</f>
       </c>
       <c r="H114" t="s" s="10">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="I114" t="n" s="10">
         <v>2.4041596515E10</v>
       </c>
       <c r="J114" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K114" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="L114" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="K114" t="s" s="6">
+        <v>79</v>
+      </c>
+      <c r="L114" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="M114" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N114" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O114" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P114" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="115">
@@ -7371,46 +7435,46 @@
         <v>313.0</v>
       </c>
       <c r="C115" t="s" s="10">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="D115" t="s" s="10">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="E115" t="s" s="10">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="F115" t="s" s="10">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="G115" s="10">
         <f>concatenate(c115,d115,e115,f115)</f>
       </c>
       <c r="H115" t="s" s="10">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="I115" t="n" s="10">
         <v>2.4041022704E10</v>
       </c>
       <c r="J115" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K115" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="K115" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="L115" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M115" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N115" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O115" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P115" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="116">
@@ -7421,46 +7485,46 @@
         <v>325.0</v>
       </c>
       <c r="C116" t="s" s="10">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="D116" t="s" s="10">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="E116" t="s" s="10">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="F116" t="s" s="10">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="G116" s="10">
         <f>concatenate(c116,d116,e116,f116)</f>
       </c>
       <c r="H116" t="s" s="10">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="I116" t="n" s="10">
         <v>2.4041023017E10</v>
       </c>
       <c r="J116" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K116" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L116" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M116" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N116" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O116" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P116" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="117">
@@ -7471,46 +7535,46 @@
         <v>329.0</v>
       </c>
       <c r="C117" t="s" s="10">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="D117" t="s" s="10">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="E117" t="s" s="10">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="F117" t="s" s="10">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="G117" s="10">
         <f>concatenate(c117,d117,e117,f117)</f>
       </c>
       <c r="H117" t="s" s="10">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="I117" t="n" s="10">
         <v>2.4041022805E10</v>
       </c>
       <c r="J117" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K117" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L117" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M117" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N117" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O117" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P117" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="118">
@@ -7521,46 +7585,46 @@
         <v>545.0</v>
       </c>
       <c r="C118" t="s" s="10">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="D118" t="s" s="10">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="E118" t="s" s="10">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="F118" t="s" s="10">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="G118" s="10">
         <f>concatenate(c118,d118,e118,f118)</f>
       </c>
       <c r="H118" t="s" s="10">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="I118" t="n" s="10">
         <v>2.4042181101E10</v>
       </c>
       <c r="J118" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K118" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L118" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M118" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N118" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O118" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P118" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="119">
@@ -7571,46 +7635,46 @@
         <v>557.0</v>
       </c>
       <c r="C119" t="s" s="10">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="D119" t="s" s="10">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="E119" t="s" s="10">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="F119" t="s" s="10">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="G119" s="10">
         <f>concatenate(c119,d119,e119,f119)</f>
       </c>
       <c r="H119" t="s" s="10">
-        <v>400</v>
+        <v>421</v>
       </c>
       <c r="I119" t="n" s="10">
         <v>2.4042489083E10</v>
       </c>
       <c r="J119" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K119" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L119" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M119" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N119" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O119" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P119" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="120">
@@ -7621,46 +7685,46 @@
         <v>706.0</v>
       </c>
       <c r="C120" t="s" s="10">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="D120" t="s" s="10">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="E120" t="s" s="10">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="F120" t="s" s="10">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="G120" s="10">
         <f>concatenate(c120,d120,e120,f120)</f>
       </c>
       <c r="H120" t="s" s="10">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="I120" t="n" s="10">
         <v>2.4045679962E10</v>
       </c>
       <c r="J120" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K120" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L120" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M120" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N120" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O120" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P120" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="121">
@@ -7671,46 +7735,46 @@
         <v>331.0</v>
       </c>
       <c r="C121" t="s" s="7">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="D121" t="s" s="7">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="E121" t="s" s="7">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="F121" t="s" s="7">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="G121" s="7">
         <f>concatenate(c121,d121,e121,f121)</f>
       </c>
       <c r="H121" t="s" s="7">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="I121" t="n" s="10">
         <v>2.4040875253E10</v>
       </c>
       <c r="J121" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K121" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="L121" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="K121" t="s" s="6">
+        <v>79</v>
+      </c>
+      <c r="L121" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="M121" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N121" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O121" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P121" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="122">
@@ -7721,46 +7785,46 @@
         <v>317.0</v>
       </c>
       <c r="C122" t="s" s="10">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="D122" t="s" s="10">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="E122" t="s" s="10">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F122" t="s" s="10">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="G122" s="10">
         <f>concatenate(c122,d122,e122,f122)</f>
       </c>
       <c r="H122" t="s" s="10">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="I122" t="n" s="10">
         <v>2.4041022519E10</v>
       </c>
       <c r="J122" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K122" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L122" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M122" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N122" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O122" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P122" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="123">
@@ -7771,46 +7835,46 @@
         <v>330.0</v>
       </c>
       <c r="C123" t="s" s="10">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="D123" t="s" s="10">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="E123" t="s" s="10">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="F123" t="s" s="10">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="G123" s="10">
         <f>concatenate(c123,d123,e123,f123)</f>
       </c>
       <c r="H123" t="s" s="10">
-        <v>408</v>
+        <v>429</v>
       </c>
       <c r="I123" t="n" s="10">
         <v>2.4040874692E10</v>
       </c>
       <c r="J123" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K123" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="L123" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="K123" t="s" s="6">
+        <v>79</v>
+      </c>
+      <c r="L123" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="M123" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N123" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O123" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P123" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="124">
@@ -7821,46 +7885,46 @@
         <v>459.0</v>
       </c>
       <c r="C124" t="s" s="10">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="D124" t="s" s="10">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="E124" t="s" s="10">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="F124" t="s" s="10">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="G124" s="10">
         <f>concatenate(c124,d124,e124,f124)</f>
       </c>
       <c r="H124" t="s" s="10">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="I124" t="n" s="10">
         <v>2.4040875385E10</v>
       </c>
       <c r="J124" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K124" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="L124" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="L124" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="M124" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N124" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O124" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P124" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="125">
@@ -7871,46 +7935,46 @@
         <v>592.0</v>
       </c>
       <c r="C125" t="s" s="10">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="D125" t="s" s="10">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="E125" t="s" s="10">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="F125" t="s" s="10">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="G125" s="10">
         <f>concatenate(c125,d125,e125,f125)</f>
       </c>
       <c r="H125" t="s" s="10">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="I125" t="n" s="10">
         <v>2.4041862267E10</v>
       </c>
       <c r="J125" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K125" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L125" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M125" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N125" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O125" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P125" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="126">
@@ -7921,46 +7985,46 @@
         <v>602.0</v>
       </c>
       <c r="C126" t="s" s="10">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="D126" t="s" s="10">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="E126" t="s" s="10">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="F126" t="s" s="10">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="G126" s="10">
         <f>concatenate(c126,d126,e126,f126)</f>
       </c>
       <c r="H126" t="s" s="10">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="I126" t="n" s="10">
         <v>2.4041418437E10</v>
       </c>
       <c r="J126" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K126" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L126" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M126" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N126" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O126" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P126" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="127">
@@ -7971,46 +8035,46 @@
         <v>605.0</v>
       </c>
       <c r="C127" t="s" s="10">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="D127" t="s" s="10">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="E127" t="s" s="10">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="F127" t="s" s="10">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G127" s="10">
         <f>concatenate(c127,d127,e127,f127)</f>
       </c>
       <c r="H127" t="s" s="10">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="I127" t="n" s="10">
         <v>2.4043531716E10</v>
       </c>
       <c r="J127" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K127" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L127" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M127" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N127" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O127" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P127" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="128">
@@ -8021,46 +8085,46 @@
         <v>740.0</v>
       </c>
       <c r="C128" t="s" s="10">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="D128" t="s" s="10">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="E128" t="s" s="10">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="F128" t="s" s="10">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="G128" s="10">
         <f>concatenate(c128,d128,e128,f128)</f>
       </c>
       <c r="H128" t="s" s="10">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="I128" t="n" s="10">
         <v>2.4046415813E10</v>
       </c>
       <c r="J128" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K128" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L128" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M128" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N128" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O128" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P128" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="129">
@@ -8071,46 +8135,46 @@
         <v>755.0</v>
       </c>
       <c r="C129" t="s" s="10">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="D129" t="s" s="10">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="E129" t="s" s="10">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="F129" t="s" s="10">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="G129" s="10">
         <f>concatenate(c129,d129,e129,f129)</f>
       </c>
       <c r="H129" t="s" s="10">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="I129" t="n" s="10">
         <v>2.4046845243E10</v>
       </c>
       <c r="J129" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K129" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L129" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M129" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N129" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O129" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P129" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="130">
@@ -8121,46 +8185,46 @@
         <v>-7.0</v>
       </c>
       <c r="C130" t="s" s="7">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="D130" t="s" s="7">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="E130" t="s" s="7">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="F130" t="s" s="7">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="G130" s="7">
         <f>concatenate(c130,d130,e130,f130)</f>
       </c>
       <c r="H130" t="s" s="7">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="I130" t="n" s="10">
         <v>2.4040877235E10</v>
       </c>
       <c r="J130" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K130" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L130" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M130" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N130" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O130" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P130" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="131">
@@ -8171,46 +8235,46 @@
         <v>32.0</v>
       </c>
       <c r="C131" t="s" s="10">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="D131" t="s" s="10">
-        <v>424</v>
+        <v>445</v>
       </c>
       <c r="E131" t="s" s="10">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F131" t="s" s="10">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="G131" s="10">
         <f>concatenate(c131,d131,e131,f131)</f>
       </c>
       <c r="H131" t="s" s="10">
-        <v>426</v>
+        <v>447</v>
       </c>
       <c r="I131" t="n" s="10">
         <v>2.4041266845E10</v>
       </c>
       <c r="J131" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K131" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="L131" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="L131" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="M131" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N131" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O131" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P131" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="132">
@@ -8221,46 +8285,46 @@
         <v>48.0</v>
       </c>
       <c r="C132" t="s" s="10">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="D132" t="s" s="10">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="E132" t="s" s="10">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="F132" t="s" s="10">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="G132" s="10">
         <f>concatenate(c132,d132,e132,f132)</f>
       </c>
       <c r="H132" t="s" s="10">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="I132" t="n" s="10">
         <v>2.4040879161E10</v>
       </c>
       <c r="J132" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K132" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L132" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M132" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N132" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O132" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P132" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="133">
@@ -8271,46 +8335,46 @@
         <v>51.0</v>
       </c>
       <c r="C133" t="s" s="10">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D133" t="s" s="10">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="E133" t="s" s="10">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F133" t="s" s="10">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="G133" s="10">
         <f>concatenate(c133,d133,e133,f133)</f>
       </c>
       <c r="H133" t="s" s="10">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="I133" t="n" s="10">
         <v>2.4040993795E10</v>
       </c>
       <c r="J133" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K133" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L133" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M133" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N133" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O133" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P133" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="134">
@@ -8321,46 +8385,46 @@
         <v>73.0</v>
       </c>
       <c r="C134" t="s" s="10">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="D134" t="s" s="10">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="E134" t="s" s="10">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="F134" t="s" s="10">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="G134" s="10">
         <f>concatenate(c134,d134,e134,f134)</f>
       </c>
       <c r="H134" t="s" s="10">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="I134" t="n" s="10">
         <v>2.4040874539E10</v>
       </c>
       <c r="J134" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K134" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="L134" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="K134" t="s" s="6">
+        <v>79</v>
+      </c>
+      <c r="L134" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="M134" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N134" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O134" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P134" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="135">
@@ -8371,46 +8435,46 @@
         <v>218.0</v>
       </c>
       <c r="C135" t="s" s="10">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="D135" t="s" s="10">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="E135" t="s" s="10">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="F135" t="s" s="10">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="G135" s="10">
         <f>concatenate(c135,d135,e135,f135)</f>
       </c>
       <c r="H135" t="s" s="10">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="I135" t="n" s="10">
         <v>2.4040933832E10</v>
       </c>
       <c r="J135" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K135" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="K135" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="L135" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M135" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N135" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O135" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P135" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="136">
@@ -8421,46 +8485,46 @@
         <v>231.0</v>
       </c>
       <c r="C136" t="s" s="10">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="D136" t="s" s="10">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="E136" t="s" s="10">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="F136" t="s" s="10">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="G136" s="10">
         <f>concatenate(c136,d136,e136,f136)</f>
       </c>
       <c r="H136" t="s" s="10">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="I136" t="n" s="10">
         <v>2.4041021958E10</v>
       </c>
       <c r="J136" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K136" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="K136" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="L136" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M136" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N136" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O136" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P136" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="137">
@@ -8471,46 +8535,46 @@
         <v>288.0</v>
       </c>
       <c r="C137" t="s" s="10">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="D137" t="s" s="10">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="E137" t="s" s="10">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="F137" t="s" s="10">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="G137" s="10">
         <f>concatenate(c137,d137,e137,f137)</f>
       </c>
       <c r="H137" t="s" s="10">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="I137" t="n" s="10">
         <v>2.4041265208E10</v>
       </c>
       <c r="J137" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K137" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L137" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M137" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N137" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O137" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P137" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="138">
@@ -8521,46 +8585,46 @@
         <v>293.0</v>
       </c>
       <c r="C138" t="s" s="10">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="D138" t="s" s="10">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="E138" t="s" s="10">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="F138" t="s" s="10">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="G138" s="10">
         <f>concatenate(c138,d138,e138,f138)</f>
       </c>
       <c r="H138" t="s" s="10">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="I138" t="n" s="10">
         <v>2.404102418E10</v>
       </c>
       <c r="J138" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K138" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L138" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M138" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N138" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O138" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P138" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="139">
@@ -8571,46 +8635,46 @@
         <v>423.0</v>
       </c>
       <c r="C139" t="s" s="10">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="D139" t="s" s="10">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="E139" t="s" s="10">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="F139" t="s" s="10">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="G139" s="10">
         <f>concatenate(c139,d139,e139,f139)</f>
       </c>
       <c r="H139" t="s" s="10">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="I139" t="n" s="10">
         <v>2.4040874166E10</v>
       </c>
       <c r="J139" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K139" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L139" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M139" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N139" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O139" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P139" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="140">
@@ -8621,46 +8685,46 @@
         <v>514.0</v>
       </c>
       <c r="C140" t="s" s="10">
-        <v>448</v>
+        <v>469</v>
       </c>
       <c r="D140" t="s" s="10">
-        <v>449</v>
+        <v>470</v>
       </c>
       <c r="E140" t="s" s="10">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="F140" t="s" s="10">
-        <v>450</v>
+        <v>471</v>
       </c>
       <c r="G140" s="10">
         <f>concatenate(c140,d140,e140,f140)</f>
       </c>
       <c r="H140" t="s" s="10">
-        <v>451</v>
+        <v>472</v>
       </c>
       <c r="I140" t="n" s="10">
         <v>2.4041863974E10</v>
       </c>
       <c r="J140" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K140" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L140" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M140" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N140" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O140" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P140" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="141">
@@ -8671,46 +8735,46 @@
         <v>516.0</v>
       </c>
       <c r="C141" t="s" s="10">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="D141" t="s" s="10">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="E141" t="s" s="10">
-        <v>450</v>
+        <v>471</v>
       </c>
       <c r="F141" t="s" s="10">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="G141" s="10">
         <f>concatenate(c141,d141,e141,f141)</f>
       </c>
       <c r="H141" t="s" s="10">
-        <v>453</v>
+        <v>474</v>
       </c>
       <c r="I141" t="n" s="10">
         <v>2.4041860177E10</v>
       </c>
       <c r="J141" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K141" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L141" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M141" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N141" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O141" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P141" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="142">
@@ -8721,46 +8785,46 @@
         <v>574.0</v>
       </c>
       <c r="C142" t="s" s="10">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="D142" t="s" s="10">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="E142" t="s" s="10">
-        <v>455</v>
+        <v>476</v>
       </c>
       <c r="F142" t="s" s="10">
-        <v>456</v>
+        <v>477</v>
       </c>
       <c r="G142" s="10">
         <f>concatenate(c142,d142,e142,f142)</f>
       </c>
       <c r="H142" t="s" s="10">
-        <v>457</v>
+        <v>478</v>
       </c>
       <c r="I142" t="n" s="10">
         <v>2.4042906665E10</v>
       </c>
       <c r="J142" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K142" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L142" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M142" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N142" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O142" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P142" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="143">
@@ -8771,46 +8835,46 @@
         <v>598.0</v>
       </c>
       <c r="C143" t="s" s="10">
-        <v>458</v>
+        <v>479</v>
       </c>
       <c r="D143" t="s" s="10">
-        <v>459</v>
+        <v>480</v>
       </c>
       <c r="E143" t="s" s="10">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="F143" t="s" s="10">
-        <v>450</v>
+        <v>471</v>
       </c>
       <c r="G143" s="10">
         <f>concatenate(c143,d143,e143,f143)</f>
       </c>
       <c r="H143" t="s" s="10">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="I143" t="n" s="10">
         <v>2.4043159664E10</v>
       </c>
       <c r="J143" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K143" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L143" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M143" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N143" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O143" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P143" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="144">
@@ -8821,46 +8885,46 @@
         <v>626.0</v>
       </c>
       <c r="C144" t="s" s="10">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="D144" t="s" s="10">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="E144" t="s" s="10">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="F144" t="s" s="10">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="G144" s="10">
         <f>concatenate(c144,d144,e144,f144)</f>
       </c>
       <c r="H144" t="s" s="10">
-        <v>463</v>
+        <v>484</v>
       </c>
       <c r="I144" t="n" s="10">
         <v>2.4044488567E10</v>
       </c>
       <c r="J144" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K144" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L144" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M144" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N144" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O144" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P144" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="145">
@@ -8871,46 +8935,46 @@
         <v>791.0</v>
       </c>
       <c r="C145" t="s" s="10">
-        <v>464</v>
+        <v>485</v>
       </c>
       <c r="D145" t="s" s="10">
-        <v>465</v>
+        <v>486</v>
       </c>
       <c r="E145" t="s" s="10">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="F145" t="s" s="10">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="G145" s="10">
         <f>concatenate(c145,d145,e145,f145)</f>
       </c>
       <c r="H145" t="s" s="10">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="I145" t="n" s="10">
         <v>2.4051011338E10</v>
       </c>
       <c r="J145" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K145" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L145" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M145" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N145" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O145" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P145" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="146">
@@ -8921,46 +8985,46 @@
         <v>920.0</v>
       </c>
       <c r="C146" t="s" s="10">
-        <v>467</v>
+        <v>488</v>
       </c>
       <c r="D146" t="s" s="10">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="E146" t="s" s="10">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="F146" t="s" s="10">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="G146" s="10">
         <f>concatenate(c146,d146,e146,f146)</f>
       </c>
       <c r="H146" t="s" s="10">
-        <v>468</v>
+        <v>489</v>
       </c>
       <c r="I146" t="n" s="10">
         <v>2.4054525881E10</v>
       </c>
       <c r="J146" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K146" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L146" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M146" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N146" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O146" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P146" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="147">
@@ -8971,46 +9035,46 @@
         <v>945.0</v>
       </c>
       <c r="C147" t="s" s="10">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="D147" t="s" s="10">
-        <v>469</v>
+        <v>490</v>
       </c>
       <c r="E147" t="s" s="10">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F147" t="s" s="10">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="G147" s="10">
         <f>concatenate(c147,d147,e147,f147)</f>
       </c>
       <c r="H147" t="s" s="10">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="I147" t="n" s="10">
         <v>2.4054861208E10</v>
       </c>
       <c r="J147" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K147" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L147" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M147" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N147" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O147" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P147" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="148">
@@ -9021,46 +9085,46 @@
         <v>970.0</v>
       </c>
       <c r="C148" t="s" s="10">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="D148" t="s" s="10">
-        <v>472</v>
+        <v>493</v>
       </c>
       <c r="E148" t="s" s="10">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="F148" t="s" s="10">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="G148" s="10">
         <f>concatenate(c148,d148,e148,f148)</f>
       </c>
       <c r="H148" t="s" s="10">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="I148" t="n" s="10">
         <v>2.4046162962E10</v>
       </c>
       <c r="J148" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K148" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L148" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M148" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N148" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O148" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P148" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="149">
@@ -9071,46 +9135,46 @@
         <v>1009.0</v>
       </c>
       <c r="C149" t="s" s="10">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="D149" t="s" s="10">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="E149" t="s" s="10">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="F149" t="s" s="10">
-        <v>476</v>
+        <v>497</v>
       </c>
       <c r="G149" s="10">
         <f>concatenate(c149,d149,e149,f149)</f>
       </c>
       <c r="H149" t="s" s="10">
-        <v>477</v>
+        <v>498</v>
       </c>
       <c r="I149" t="n" s="10">
         <v>2.4055737795E10</v>
       </c>
       <c r="J149" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K149" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L149" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M149" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N149" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O149" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P149" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="150">
@@ -9121,46 +9185,46 @@
         <v>1065.0</v>
       </c>
       <c r="C150" t="s" s="10">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="D150" t="s" s="10">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="E150" t="s" s="10">
-        <v>478</v>
+        <v>499</v>
       </c>
       <c r="F150" t="s" s="10">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="G150" s="10">
         <f>concatenate(c150,d150,e150,f150)</f>
       </c>
       <c r="H150" t="s" s="10">
-        <v>479</v>
+        <v>500</v>
       </c>
       <c r="I150" t="n" s="10">
         <v>2.4041265253E10</v>
       </c>
       <c r="J150" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K150" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L150" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M150" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N150" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O150" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P150" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="151">
@@ -9171,46 +9235,46 @@
         <v>1103.0</v>
       </c>
       <c r="C151" t="s" s="10">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="D151" t="s" s="10">
-        <v>480</v>
+        <v>501</v>
       </c>
       <c r="E151" t="s" s="10">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="F151" t="s" s="10">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="G151" s="10">
         <f>concatenate(c151,d151,e151,f151)</f>
       </c>
       <c r="H151" t="s" s="10">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="I151" t="n" s="10">
         <v>2.4044829416E10</v>
       </c>
       <c r="J151" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K151" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L151" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M151" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N151" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O151" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P151" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="152">
@@ -9221,46 +9285,46 @@
         <v>1114.0</v>
       </c>
       <c r="C152" t="s" s="10">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="D152" t="s" s="10">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="E152" t="s" s="10">
-        <v>483</v>
+        <v>504</v>
       </c>
       <c r="F152" t="s" s="10">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="G152" s="10">
         <f>concatenate(c152,d152,e152,f152)</f>
       </c>
       <c r="H152" t="s" s="10">
-        <v>485</v>
+        <v>506</v>
       </c>
       <c r="I152" t="n" s="10">
         <v>2.4059089816E10</v>
       </c>
       <c r="J152" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K152" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L152" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M152" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N152" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O152" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P152" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="153">
@@ -9271,46 +9335,46 @@
         <v>1115.0</v>
       </c>
       <c r="C153" t="s" s="10">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="D153" t="s" s="10">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="E153" t="s" s="10">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="F153" t="s" s="10">
-        <v>487</v>
+        <v>508</v>
       </c>
       <c r="G153" s="10">
         <f>concatenate(c153,d153,e153,f153)</f>
       </c>
       <c r="H153" t="s" s="10">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="I153" t="n" s="10">
         <v>2.4059055899E10</v>
       </c>
       <c r="J153" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K153" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L153" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M153" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N153" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O153" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P153" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="154">
@@ -9321,46 +9385,46 @@
         <v>1117.0</v>
       </c>
       <c r="C154" t="s" s="10">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="D154" t="s" s="10">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="E154" t="s" s="10">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="F154" t="s" s="10">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="G154" s="10">
         <f>concatenate(c154,d154,e154,f154)</f>
       </c>
       <c r="H154" t="s" s="10">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="I154" t="n" s="10">
         <v>2.4059238478E10</v>
       </c>
       <c r="J154" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K154" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L154" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M154" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N154" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O154" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P154" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="155">
@@ -9371,46 +9435,46 @@
         <v>1118.0</v>
       </c>
       <c r="C155" t="s" s="10">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="D155" t="s" s="10">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="E155" t="s" s="10">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="F155" t="s" s="10">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="G155" s="10">
         <f>concatenate(c155,d155,e155,f155)</f>
       </c>
       <c r="H155" t="s" s="10">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="I155" t="n" s="10">
         <v>2.4054858163E10</v>
       </c>
       <c r="J155" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K155" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L155" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M155" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N155" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O155" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P155" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="156">
@@ -9421,46 +9485,46 @@
         <v>1120.0</v>
       </c>
       <c r="C156" t="s" s="10">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="D156" t="s" s="10">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="E156" t="s" s="10">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="F156" t="s" s="10">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="G156" s="10">
         <f>concatenate(c156,d156,e156,f156)</f>
       </c>
       <c r="H156" t="s" s="10">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="I156" t="n" s="10">
         <v>2.4053690977E10</v>
       </c>
       <c r="J156" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K156" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L156" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M156" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N156" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O156" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P156" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="157">
@@ -9471,46 +9535,46 @@
         <v>1121.0</v>
       </c>
       <c r="C157" t="s" s="10">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D157" t="s" s="10">
-        <v>496</v>
+        <v>517</v>
       </c>
       <c r="E157" t="s" s="10">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F157" t="s" s="10">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="G157" s="10">
         <f>concatenate(c157,d157,e157,f157)</f>
       </c>
       <c r="H157" t="s" s="10">
-        <v>497</v>
+        <v>518</v>
       </c>
       <c r="I157" t="n" s="10">
         <v>2.4040876542E10</v>
       </c>
       <c r="J157" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K157" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L157" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M157" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N157" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O157" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P157" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="158">
@@ -9521,46 +9585,46 @@
         <v>1122.0</v>
       </c>
       <c r="C158" t="s" s="10">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="D158" t="s" s="10">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="E158" t="s" s="10">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="F158" t="s" s="10">
-        <v>499</v>
+        <v>520</v>
       </c>
       <c r="G158" s="10">
         <f>concatenate(c158,d158,e158,f158)</f>
       </c>
       <c r="H158" t="s" s="10">
-        <v>500</v>
+        <v>521</v>
       </c>
       <c r="I158" t="n" s="10">
         <v>2.4041266908E10</v>
       </c>
       <c r="J158" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K158" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L158" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M158" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N158" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O158" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P158" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="159">
@@ -9571,46 +9635,46 @@
         <v>1123.0</v>
       </c>
       <c r="C159" t="s" s="10">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D159" t="s" s="10">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="E159" t="s" s="10">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="F159" t="s" s="10">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="G159" s="10">
         <f>concatenate(c159,d159,e159,f159)</f>
       </c>
       <c r="H159" t="s" s="10">
-        <v>503</v>
+        <v>524</v>
       </c>
       <c r="I159" t="n" s="10">
         <v>2.4059506171E10</v>
       </c>
       <c r="J159" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K159" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="K159" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="L159" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M159" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N159" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O159" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P159" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="160">
@@ -9621,46 +9685,46 @@
         <v>1124.0</v>
       </c>
       <c r="C160" t="s" s="10">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="D160" t="s" s="10">
-        <v>504</v>
+        <v>525</v>
       </c>
       <c r="E160" t="s" s="10">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="F160" t="s" s="10">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="G160" s="10">
         <f>concatenate(c160,d160,e160,f160)</f>
       </c>
       <c r="H160" t="s" s="10">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="I160" t="n" s="10">
         <v>2.4042062192E10</v>
       </c>
       <c r="J160" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="K160" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="K160" t="s" s="6">
+        <v>79</v>
       </c>
       <c r="L160" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M160" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N160" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O160" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P160" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="161">
@@ -9671,46 +9735,46 @@
         <v>1127.0</v>
       </c>
       <c r="C161" t="s" s="10">
-        <v>506</v>
+        <v>527</v>
       </c>
       <c r="D161" t="s" s="10">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="E161" t="s" s="10">
-        <v>507</v>
+        <v>528</v>
       </c>
       <c r="F161" t="s" s="10">
-        <v>508</v>
+        <v>529</v>
       </c>
       <c r="G161" s="10">
         <f>concatenate(c161,d161,e161,f161)</f>
       </c>
       <c r="H161" t="s" s="10">
-        <v>509</v>
+        <v>530</v>
       </c>
       <c r="I161" t="n" s="10">
         <v>2.4060369644E10</v>
       </c>
       <c r="J161" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K161" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L161" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M161" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N161" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O161" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P161" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="162">
@@ -9721,46 +9785,46 @@
         <v>1133.0</v>
       </c>
       <c r="C162" t="s" s="10">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="D162" t="s" s="10">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="E162" t="s" s="10">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="F162" t="s" s="10">
-        <v>511</v>
+        <v>532</v>
       </c>
       <c r="G162" s="10">
         <f>concatenate(c162,d162,e162,f162)</f>
       </c>
       <c r="H162" t="s" s="10">
-        <v>512</v>
+        <v>533</v>
       </c>
       <c r="I162" t="n" s="10">
         <v>2.4060368913E10</v>
       </c>
       <c r="J162" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K162" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L162" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M162" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N162" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O162" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P162" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="163">
@@ -9771,46 +9835,46 @@
         <v>1136.0</v>
       </c>
       <c r="C163" t="s" s="10">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="D163" t="s" s="10">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="E163" t="s" s="10">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="F163" t="s" s="10">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="G163" s="10">
         <f>concatenate(c163,d163,e163,f163)</f>
       </c>
       <c r="H163" t="s" s="10">
-        <v>513</v>
+        <v>534</v>
       </c>
       <c r="I163" t="n" s="10">
         <v>2.4061141724E10</v>
       </c>
       <c r="J163" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K163" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L163" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M163" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N163" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O163" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P163" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="164">
@@ -9821,46 +9885,46 @@
         <v>1137.0</v>
       </c>
       <c r="C164" t="s" s="10">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="D164" t="s" s="10">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="E164" t="s" s="10">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="F164" t="s" s="10">
-        <v>515</v>
+        <v>536</v>
       </c>
       <c r="G164" s="10">
         <f>concatenate(c164,d164,e164,f164)</f>
       </c>
       <c r="H164" t="s" s="10">
-        <v>516</v>
+        <v>537</v>
       </c>
       <c r="I164" t="n" s="10">
         <v>0.0</v>
       </c>
       <c r="J164" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K164" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L164" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M164" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N164" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O164" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="P164" t="s" s="10">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -9885,7 +9949,174 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2">
+      <c r="D2" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="4">
+      <c r="B4" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="2" t="n">
+        <v>625.0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="n">
+        <v>319.0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E14:I14"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/personal/quincena.xlsx
+++ b/personal/quincena.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="522">
   <si>
     <t>Convecciones</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>bonificacion</t>
   </si>
   <si>
     <t>CHALACAN</t>
@@ -1582,7 +1585,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_(* #.##0_);_(* (#.##0);_(* -??_);_(@_)"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="11.0"/>
@@ -1862,7 +1867,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
@@ -1879,31 +1884,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="4.95703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="8.72265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="15.5546875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="15.6953125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.984375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="14.52734375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="12.7265625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="17.9296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="2.5078125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="3.390625" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="2.5078125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="3.01171875" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="3.01171875" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="2.5078125" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="2.60546875" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="2.78515625" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="2.70703125" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="3.68359375" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="3.68359375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="3.68359375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="3.68359375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="3.68359375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="3.68359375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="5.3984375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="24.04296875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="10.6796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="10.6796875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="10.6796875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="10.6796875" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="10.6796875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="10.6796875" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="10.6796875" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="10.6796875" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="10.6796875" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="11.953125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="11.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="11.953125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="11.953125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="11.953125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="11.953125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="10.6796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="11.1875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="10.1640625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="13.77734375" customWidth="true" bestFit="true"/>
@@ -2168,6 +2173,21 @@
       <c r="Y9" t="n" s="10">
         <v>8.0</v>
       </c>
+      <c r="Z9" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA9" s="10">
+        <f>(z9 * y9)</f>
+      </c>
+      <c r="AB9" s="10">
+        <f>(77700/30*y9)</f>
+      </c>
+      <c r="AC9" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD9" s="10">
+        <f>(689455.0*0.08)/30*15</f>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n" s="10">
@@ -2177,22 +2197,22 @@
         <v>-1.0</v>
       </c>
       <c r="C10" t="s" s="10">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" s="10">
         <f>concatenate(c10,d10,e10,f10)</f>
       </c>
       <c r="H10" t="s" s="10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="n" s="10">
         <v>2.404102177E10</v>
@@ -2223,6 +2243,21 @@
       </c>
       <c r="Y10" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z10" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA10" s="10">
+        <f>(z10 * y10)</f>
+      </c>
+      <c r="AB10" s="10">
+        <f>(77700/30*y10)</f>
+      </c>
+      <c r="AC10" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD10" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="11">
@@ -2233,22 +2268,22 @@
         <v>49.0</v>
       </c>
       <c r="C11" t="s" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G11" s="10">
         <f>concatenate(c11,d11,e11,f11)</f>
       </c>
       <c r="H11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I11" t="n" s="10">
         <v>2.4040874104E10</v>
@@ -2257,10 +2292,10 @@
         <v>41</v>
       </c>
       <c r="K11" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L11" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M11" t="s" s="10">
         <v>41</v>
@@ -2272,13 +2307,28 @@
         <v>41</v>
       </c>
       <c r="P11" t="s" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q11" t="s" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y11" t="n" s="10">
         <v>6.0</v>
+      </c>
+      <c r="Z11" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA11" s="10">
+        <f>(z11 * y11)</f>
+      </c>
+      <c r="AB11" s="10">
+        <f>(77700/30*y11)</f>
+      </c>
+      <c r="AC11" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD11" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="12">
@@ -2289,37 +2339,37 @@
         <v>230.0</v>
       </c>
       <c r="C12" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s" s="10">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G12" s="10">
         <f>concatenate(c12,d12,e12,f12)</f>
       </c>
       <c r="H12" t="s" s="10">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I12" t="n" s="10">
         <v>2.4040879938E10</v>
       </c>
       <c r="J12" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K12" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L12" t="s" s="10">
         <v>41</v>
       </c>
       <c r="M12" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N12" t="s" s="10">
         <v>41</v>
@@ -2328,13 +2378,28 @@
         <v>41</v>
       </c>
       <c r="P12" t="s" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q12" t="s" s="10">
         <v>41</v>
       </c>
       <c r="Y12" t="n" s="10">
         <v>5.0</v>
+      </c>
+      <c r="Z12" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA12" s="10">
+        <f>(z12 * y12)</f>
+      </c>
+      <c r="AB12" s="10">
+        <f>(77700/30*y12)</f>
+      </c>
+      <c r="AC12" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD12" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="13">
@@ -2345,22 +2410,22 @@
         <v>625.0</v>
       </c>
       <c r="C13" t="s" s="10">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s" s="10">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s" s="10">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s" s="10">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G13" s="10">
         <f>concatenate(c13,d13,e13,f13)</f>
       </c>
       <c r="H13" t="s" s="10">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I13" t="n" s="10">
         <v>2.4041419106E10</v>
@@ -2369,7 +2434,7 @@
         <v>41</v>
       </c>
       <c r="K13" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L13" t="s" s="10">
         <v>41</v>
@@ -2384,13 +2449,28 @@
         <v>41</v>
       </c>
       <c r="P13" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q13" t="s" s="10">
         <v>41</v>
       </c>
       <c r="Y13" t="n" s="10">
         <v>6.0</v>
+      </c>
+      <c r="Z13" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA13" s="10">
+        <f>(z13 * y13)</f>
+      </c>
+      <c r="AB13" s="10">
+        <f>(77700/30*y13)</f>
+      </c>
+      <c r="AC13" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD13" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="14">
@@ -2401,31 +2481,31 @@
         <v>773.0</v>
       </c>
       <c r="C14" t="s" s="10">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s" s="10">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G14" s="10">
         <f>concatenate(c14,d14,e14,f14)</f>
       </c>
       <c r="H14" t="s" s="10">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I14" t="n" s="10">
         <v>2.4041417287E10</v>
       </c>
       <c r="J14" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K14" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L14" t="s" s="10">
         <v>41</v>
@@ -2440,13 +2520,28 @@
         <v>41</v>
       </c>
       <c r="P14" t="s" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q14" t="s" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y14" t="n" s="10">
         <v>4.0</v>
+      </c>
+      <c r="Z14" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA14" s="10">
+        <f>(z14 * y14)</f>
+      </c>
+      <c r="AB14" s="10">
+        <f>(77700/30*y14)</f>
+      </c>
+      <c r="AC14" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD14" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="15">
@@ -2457,34 +2552,34 @@
         <v>784.0</v>
       </c>
       <c r="C15" t="s" s="10">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s" s="10">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G15" s="10">
         <f>concatenate(c15,d15,e15,f15)</f>
       </c>
       <c r="H15" t="s" s="10">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I15" t="n" s="10">
         <v>2.4050679421E10</v>
       </c>
       <c r="J15" t="s" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K15" t="s" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L15" t="s" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M15" t="s" s="10">
         <v>41</v>
@@ -2503,6 +2598,21 @@
       </c>
       <c r="Y15" t="n" s="10">
         <v>5.0</v>
+      </c>
+      <c r="Z15" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA15" s="10">
+        <f>(z15 * y15)</f>
+      </c>
+      <c r="AB15" s="10">
+        <f>(77700/30*y15)</f>
+      </c>
+      <c r="AC15" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD15" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="16">
@@ -2513,22 +2623,22 @@
         <v>319.0</v>
       </c>
       <c r="C16" t="s" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G16" s="7">
         <f>concatenate(c16,d16,e16,f16)</f>
       </c>
       <c r="H16" t="s" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I16" t="n" s="10">
         <v>2.4040877747E10</v>
@@ -2543,7 +2653,7 @@
         <v>41</v>
       </c>
       <c r="M16" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N16" t="s" s="10">
         <v>41</v>
@@ -2552,13 +2662,28 @@
         <v>41</v>
       </c>
       <c r="P16" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q16" t="s" s="10">
         <v>41</v>
       </c>
       <c r="Y16" t="n" s="10">
         <v>6.0</v>
+      </c>
+      <c r="Z16" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA16" s="10">
+        <f>(z16 * y16)</f>
+      </c>
+      <c r="AB16" s="10">
+        <f>(77700/30*y16)</f>
+      </c>
+      <c r="AC16" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD16" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="17">
@@ -2569,22 +2694,22 @@
         <v>119.0</v>
       </c>
       <c r="C17" t="s" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s" s="10">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G17" s="10">
         <f>concatenate(c17,d17,e17,f17)</f>
       </c>
       <c r="H17" t="s" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I17" t="n" s="10">
         <v>2.4040993339E10</v>
@@ -2593,10 +2718,10 @@
         <v>41</v>
       </c>
       <c r="K17" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L17" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M17" t="s" s="10">
         <v>41</v>
@@ -2615,6 +2740,21 @@
       </c>
       <c r="Y17" t="n" s="10">
         <v>6.0</v>
+      </c>
+      <c r="Z17" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA17" s="10">
+        <f>(z17 * y17)</f>
+      </c>
+      <c r="AB17" s="10">
+        <f>(77700/30*y17)</f>
+      </c>
+      <c r="AC17" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD17" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="18">
@@ -2625,22 +2765,22 @@
         <v>142.0</v>
       </c>
       <c r="C18" t="s" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s" s="10">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G18" s="10">
         <f>concatenate(c18,d18,e18,f18)</f>
       </c>
       <c r="H18" t="s" s="10">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I18" t="n" s="10">
         <v>2.4041276873E10</v>
@@ -2671,6 +2811,21 @@
       </c>
       <c r="Y18" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z18" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA18" s="10">
+        <f>(z18 * y18)</f>
+      </c>
+      <c r="AB18" s="10">
+        <f>(77700/30*y18)</f>
+      </c>
+      <c r="AC18" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD18" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="19">
@@ -2681,22 +2836,22 @@
         <v>180.0</v>
       </c>
       <c r="C19" t="s" s="10">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s" s="10">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E19" t="s" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F19" t="s" s="10">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G19" s="10">
         <f>concatenate(c19,d19,e19,f19)</f>
       </c>
       <c r="H19" t="s" s="10">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I19" t="n" s="10">
         <v>2.4041025525E10</v>
@@ -2727,6 +2882,21 @@
       </c>
       <c r="Y19" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z19" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA19" s="10">
+        <f>(z19 * y19)</f>
+      </c>
+      <c r="AB19" s="10">
+        <f>(77700/30*y19)</f>
+      </c>
+      <c r="AC19" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD19" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="20">
@@ -2737,22 +2907,22 @@
         <v>320.0</v>
       </c>
       <c r="C20" t="s" s="10">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s" s="10">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E20" t="s" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F20" t="s" s="10">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G20" s="10">
         <f>concatenate(c20,d20,e20,f20)</f>
       </c>
       <c r="H20" t="s" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I20" t="n" s="10">
         <v>2.4041276431E10</v>
@@ -2783,6 +2953,21 @@
       </c>
       <c r="Y20" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z20" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA20" s="10">
+        <f>(z20 * y20)</f>
+      </c>
+      <c r="AB20" s="10">
+        <f>(77700/30*y20)</f>
+      </c>
+      <c r="AC20" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD20" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="21">
@@ -2793,22 +2978,22 @@
         <v>321.0</v>
       </c>
       <c r="C21" t="s" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s" s="10">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F21" t="s" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G21" s="10">
         <f>concatenate(c21,d21,e21,f21)</f>
       </c>
       <c r="H21" t="s" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I21" t="n" s="10">
         <v>2.4040934284E10</v>
@@ -2839,6 +3024,21 @@
       </c>
       <c r="Y21" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z21" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA21" s="10">
+        <f>(z21 * y21)</f>
+      </c>
+      <c r="AB21" s="10">
+        <f>(77700/30*y21)</f>
+      </c>
+      <c r="AC21" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD21" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="22">
@@ -2849,22 +3049,22 @@
         <v>362.0</v>
       </c>
       <c r="C22" t="s" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s" s="10">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s" s="10">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F22" t="s" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G22" s="10">
         <f>concatenate(c22,d22,e22,f22)</f>
       </c>
       <c r="H22" t="s" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I22" t="n" s="10">
         <v>2.4041023101E10</v>
@@ -2895,6 +3095,21 @@
       </c>
       <c r="Y22" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z22" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA22" s="10">
+        <f>(z22 * y22)</f>
+      </c>
+      <c r="AB22" s="10">
+        <f>(77700/30*y22)</f>
+      </c>
+      <c r="AC22" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD22" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="23">
@@ -2905,22 +3120,22 @@
         <v>527.0</v>
       </c>
       <c r="C23" t="s" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s" s="10">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F23" t="s" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G23" s="10">
         <f>concatenate(c23,d23,e23,f23)</f>
       </c>
       <c r="H23" t="s" s="10">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I23" t="n" s="10">
         <v>2.4042048949E10</v>
@@ -2951,6 +3166,21 @@
       </c>
       <c r="Y23" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z23" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA23" s="10">
+        <f>(z23 * y23)</f>
+      </c>
+      <c r="AB23" s="10">
+        <f>(77700/30*y23)</f>
+      </c>
+      <c r="AC23" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD23" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="24">
@@ -2961,22 +3191,22 @@
         <v>551.0</v>
       </c>
       <c r="C24" t="s" s="10">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E24" t="s" s="10">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F24" t="s" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G24" s="10">
         <f>concatenate(c24,d24,e24,f24)</f>
       </c>
       <c r="H24" t="s" s="10">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I24" t="n" s="10">
         <v>2.4042198868E10</v>
@@ -3007,6 +3237,21 @@
       </c>
       <c r="Y24" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z24" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA24" s="10">
+        <f>(z24 * y24)</f>
+      </c>
+      <c r="AB24" s="10">
+        <f>(77700/30*y24)</f>
+      </c>
+      <c r="AC24" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD24" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="25">
@@ -3017,22 +3262,22 @@
         <v>862.0</v>
       </c>
       <c r="C25" t="s" s="10">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D25" t="s" s="10">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E25" t="s" s="10">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F25" t="s" s="10">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G25" s="10">
         <f>concatenate(c25,d25,e25,f25)</f>
       </c>
       <c r="H25" t="s" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I25" t="n" s="10">
         <v>2.4053669562E10</v>
@@ -3063,6 +3308,21 @@
       </c>
       <c r="Y25" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z25" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA25" s="10">
+        <f>(z25 * y25)</f>
+      </c>
+      <c r="AB25" s="10">
+        <f>(77700/30*y25)</f>
+      </c>
+      <c r="AC25" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD25" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="26">
@@ -3073,22 +3333,22 @@
         <v>921.0</v>
       </c>
       <c r="C26" t="s" s="10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D26" t="s" s="10">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E26" t="s" s="10">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F26" t="s" s="10">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G26" s="10">
         <f>concatenate(c26,d26,e26,f26)</f>
       </c>
       <c r="H26" t="s" s="10">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I26" t="n" s="10">
         <v>2.4054491483E10</v>
@@ -3100,7 +3360,7 @@
         <v>41</v>
       </c>
       <c r="L26" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M26" t="s" s="10">
         <v>41</v>
@@ -3119,6 +3379,21 @@
       </c>
       <c r="Y26" t="n" s="10">
         <v>7.0</v>
+      </c>
+      <c r="Z26" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA26" s="10">
+        <f>(z26 * y26)</f>
+      </c>
+      <c r="AB26" s="10">
+        <f>(77700/30*y26)</f>
+      </c>
+      <c r="AC26" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD26" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="27">
@@ -3129,22 +3404,22 @@
         <v>922.0</v>
       </c>
       <c r="C27" t="s" s="10">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D27" t="s" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E27" t="s" s="10">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F27" t="s" s="10">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G27" s="10">
         <f>concatenate(c27,d27,e27,f27)</f>
       </c>
       <c r="H27" t="s" s="10">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I27" t="n" s="10">
         <v>2.4054489428E10</v>
@@ -3156,7 +3431,7 @@
         <v>41</v>
       </c>
       <c r="L27" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M27" t="s" s="10">
         <v>41</v>
@@ -3175,6 +3450,21 @@
       </c>
       <c r="Y27" t="n" s="10">
         <v>7.0</v>
+      </c>
+      <c r="Z27" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA27" s="10">
+        <f>(z27 * y27)</f>
+      </c>
+      <c r="AB27" s="10">
+        <f>(77700/30*y27)</f>
+      </c>
+      <c r="AC27" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD27" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="28">
@@ -3185,22 +3475,22 @@
         <v>-3.0</v>
       </c>
       <c r="C28" t="s" s="7">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D28" t="s" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E28" t="s" s="7">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F28" t="s" s="7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G28" s="7">
         <f>concatenate(c28,d28,e28,f28)</f>
       </c>
       <c r="H28" t="s" s="7">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I28" t="n" s="10">
         <v>2.4042181512E10</v>
@@ -3231,6 +3521,21 @@
       </c>
       <c r="Y28" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z28" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA28" s="10">
+        <f>(z28 * y28)</f>
+      </c>
+      <c r="AB28" s="10">
+        <f>(77700/30*y28)</f>
+      </c>
+      <c r="AC28" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD28" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="29">
@@ -3241,22 +3546,22 @@
         <v>8.0</v>
       </c>
       <c r="C29" t="s" s="10">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D29" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E29" t="s" s="10">
         <v>38</v>
       </c>
       <c r="F29" t="s" s="10">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G29" s="10">
         <f>concatenate(c29,d29,e29,f29)</f>
       </c>
       <c r="H29" t="s" s="10">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I29" t="n" s="10">
         <v>2.404102362E10</v>
@@ -3287,6 +3592,21 @@
       </c>
       <c r="Y29" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z29" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA29" s="10">
+        <f>(z29 * y29)</f>
+      </c>
+      <c r="AB29" s="10">
+        <f>(77700/30*y29)</f>
+      </c>
+      <c r="AC29" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD29" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="30">
@@ -3297,34 +3617,34 @@
         <v>23.0</v>
       </c>
       <c r="C30" t="s" s="10">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s" s="10">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E30" t="s" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F30" t="s" s="10">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G30" s="10">
         <f>concatenate(c30,d30,e30,f30)</f>
       </c>
       <c r="H30" t="s" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I30" t="n" s="10">
         <v>2.404102278E10</v>
       </c>
       <c r="J30" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K30" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L30" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M30" t="s" s="10">
         <v>41</v>
@@ -3343,6 +3663,21 @@
       </c>
       <c r="Y30" t="n" s="10">
         <v>5.0</v>
+      </c>
+      <c r="Z30" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA30" s="10">
+        <f>(z30 * y30)</f>
+      </c>
+      <c r="AB30" s="10">
+        <f>(77700/30*y30)</f>
+      </c>
+      <c r="AC30" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD30" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="31">
@@ -3353,22 +3688,22 @@
         <v>92.0</v>
       </c>
       <c r="C31" t="s" s="10">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D31" t="s" s="10">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E31" t="s" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F31" t="s" s="10">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G31" s="10">
         <f>concatenate(c31,d31,e31,f31)</f>
       </c>
       <c r="H31" t="s" s="10">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I31" t="n" s="10">
         <v>2.4041023954E10</v>
@@ -3377,7 +3712,7 @@
         <v>41</v>
       </c>
       <c r="K31" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L31" t="s" s="10">
         <v>41</v>
@@ -3399,6 +3734,21 @@
       </c>
       <c r="Y31" t="n" s="10">
         <v>7.0</v>
+      </c>
+      <c r="Z31" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA31" s="10">
+        <f>(z31 * y31)</f>
+      </c>
+      <c r="AB31" s="10">
+        <f>(77700/30*y31)</f>
+      </c>
+      <c r="AC31" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD31" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="32">
@@ -3409,31 +3759,31 @@
         <v>100.0</v>
       </c>
       <c r="C32" t="s" s="10">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D32" t="s" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E32" t="s" s="10">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F32" t="s" s="10">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G32" s="10">
         <f>concatenate(c32,d32,e32,f32)</f>
       </c>
       <c r="H32" t="s" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I32" t="n" s="10">
         <v>2.4041416734E10</v>
       </c>
       <c r="J32" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K32" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L32" t="s" s="10">
         <v>41</v>
@@ -3448,13 +3798,28 @@
         <v>41</v>
       </c>
       <c r="P32" t="s" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q32" t="s" s="10">
         <v>41</v>
       </c>
       <c r="Y32" t="n" s="10">
         <v>5.0</v>
+      </c>
+      <c r="Z32" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA32" s="10">
+        <f>(z32 * y32)</f>
+      </c>
+      <c r="AB32" s="10">
+        <f>(77700/30*y32)</f>
+      </c>
+      <c r="AC32" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD32" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="33">
@@ -3465,22 +3830,22 @@
         <v>127.0</v>
       </c>
       <c r="C33" t="s" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D33" t="s" s="10">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E33" t="s" s="10">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F33" t="s" s="10">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G33" s="10">
         <f>concatenate(c33,d33,e33,f33)</f>
       </c>
       <c r="H33" t="s" s="10">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I33" t="n" s="10">
         <v>2.404087812E10</v>
@@ -3489,13 +3854,13 @@
         <v>41</v>
       </c>
       <c r="K33" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L33" t="s" s="10">
         <v>41</v>
       </c>
       <c r="M33" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N33" t="s" s="10">
         <v>41</v>
@@ -3511,6 +3876,21 @@
       </c>
       <c r="Y33" t="n" s="10">
         <v>6.0</v>
+      </c>
+      <c r="Z33" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA33" s="10">
+        <f>(z33 * y33)</f>
+      </c>
+      <c r="AB33" s="10">
+        <f>(77700/30*y33)</f>
+      </c>
+      <c r="AC33" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD33" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="34">
@@ -3521,31 +3901,31 @@
         <v>147.0</v>
       </c>
       <c r="C34" t="s" s="10">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s" s="10">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s" s="10">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F34" t="s" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G34" s="10">
         <f>concatenate(c34,d34,e34,f34)</f>
       </c>
       <c r="H34" t="s" s="10">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I34" t="n" s="10">
         <v>2.4040993764E10</v>
       </c>
       <c r="J34" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K34" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L34" t="s" s="10">
         <v>41</v>
@@ -3567,6 +3947,21 @@
       </c>
       <c r="Y34" t="n" s="10">
         <v>6.0</v>
+      </c>
+      <c r="Z34" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA34" s="10">
+        <f>(z34 * y34)</f>
+      </c>
+      <c r="AB34" s="10">
+        <f>(77700/30*y34)</f>
+      </c>
+      <c r="AC34" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD34" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="35">
@@ -3577,22 +3972,22 @@
         <v>178.0</v>
       </c>
       <c r="C35" t="s" s="10">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D35" t="s" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E35" t="s" s="10">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F35" t="s" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G35" s="10">
         <f>concatenate(c35,d35,e35,f35)</f>
       </c>
       <c r="H35" t="s" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I35" t="n" s="10">
         <v>2.404087519E10</v>
@@ -3601,7 +3996,7 @@
         <v>41</v>
       </c>
       <c r="K35" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L35" t="s" s="10">
         <v>41</v>
@@ -3623,6 +4018,21 @@
       </c>
       <c r="Y35" t="n" s="10">
         <v>7.0</v>
+      </c>
+      <c r="Z35" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA35" s="10">
+        <f>(z35 * y35)</f>
+      </c>
+      <c r="AB35" s="10">
+        <f>(77700/30*y35)</f>
+      </c>
+      <c r="AC35" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD35" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="36">
@@ -3633,31 +4043,31 @@
         <v>206.0</v>
       </c>
       <c r="C36" t="s" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D36" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E36" t="s" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F36" t="s" s="10">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G36" s="10">
         <f>concatenate(c36,d36,e36,f36)</f>
       </c>
       <c r="H36" t="s" s="10">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I36" t="n" s="10">
         <v>2.4040875215E10</v>
       </c>
       <c r="J36" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K36" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L36" t="s" s="10">
         <v>41</v>
@@ -3679,6 +4089,21 @@
       </c>
       <c r="Y36" t="n" s="10">
         <v>6.0</v>
+      </c>
+      <c r="Z36" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA36" s="10">
+        <f>(z36 * y36)</f>
+      </c>
+      <c r="AB36" s="10">
+        <f>(77700/30*y36)</f>
+      </c>
+      <c r="AC36" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD36" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="37">
@@ -3689,22 +4114,22 @@
         <v>212.0</v>
       </c>
       <c r="C37" t="s" s="10">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D37" t="s" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E37" t="s" s="10">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F37" t="s" s="10">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G37" s="10">
         <f>concatenate(c37,d37,e37,f37)</f>
       </c>
       <c r="H37" t="s" s="10">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I37" t="n" s="10">
         <v>2.4040877071E10</v>
@@ -3713,13 +4138,13 @@
         <v>41</v>
       </c>
       <c r="K37" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L37" t="s" s="10">
         <v>41</v>
       </c>
       <c r="M37" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N37" t="s" s="10">
         <v>41</v>
@@ -3735,6 +4160,21 @@
       </c>
       <c r="Y37" t="n" s="10">
         <v>6.0</v>
+      </c>
+      <c r="Z37" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA37" s="10">
+        <f>(z37 * y37)</f>
+      </c>
+      <c r="AB37" s="10">
+        <f>(77700/30*y37)</f>
+      </c>
+      <c r="AC37" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD37" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="38">
@@ -3745,31 +4185,31 @@
         <v>249.0</v>
       </c>
       <c r="C38" t="s" s="10">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D38" t="s" s="10">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E38" t="s" s="10">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F38" t="s" s="10">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G38" s="10">
         <f>concatenate(c38,d38,e38,f38)</f>
       </c>
       <c r="H38" t="s" s="10">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I38" t="n" s="10">
         <v>2.4040875811E10</v>
       </c>
       <c r="J38" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K38" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L38" t="s" s="10">
         <v>41</v>
@@ -3791,6 +4231,21 @@
       </c>
       <c r="Y38" t="n" s="10">
         <v>6.0</v>
+      </c>
+      <c r="Z38" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA38" s="10">
+        <f>(z38 * y38)</f>
+      </c>
+      <c r="AB38" s="10">
+        <f>(77700/30*y38)</f>
+      </c>
+      <c r="AC38" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD38" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="39">
@@ -3801,22 +4256,22 @@
         <v>252.0</v>
       </c>
       <c r="C39" t="s" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D39" t="s" s="10">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E39" t="s" s="10">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F39" t="s" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G39" s="10">
         <f>concatenate(c39,d39,e39,f39)</f>
       </c>
       <c r="H39" t="s" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I39" t="n" s="10">
         <v>2.4041024351E10</v>
@@ -3825,7 +4280,7 @@
         <v>41</v>
       </c>
       <c r="K39" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L39" t="s" s="10">
         <v>41</v>
@@ -3847,6 +4302,21 @@
       </c>
       <c r="Y39" t="n" s="10">
         <v>7.0</v>
+      </c>
+      <c r="Z39" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA39" s="10">
+        <f>(z39 * y39)</f>
+      </c>
+      <c r="AB39" s="10">
+        <f>(77700/30*y39)</f>
+      </c>
+      <c r="AC39" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD39" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="40">
@@ -3857,34 +4327,34 @@
         <v>256.0</v>
       </c>
       <c r="C40" t="s" s="10">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D40" t="s" s="10">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E40" t="s" s="10">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F40" t="s" s="10">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G40" s="10">
         <f>concatenate(c40,d40,e40,f40)</f>
       </c>
       <c r="H40" t="s" s="10">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I40" t="n" s="10">
         <v>2.4041024104E10</v>
       </c>
       <c r="J40" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K40" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L40" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M40" t="s" s="10">
         <v>41</v>
@@ -3903,6 +4373,21 @@
       </c>
       <c r="Y40" t="n" s="10">
         <v>5.0</v>
+      </c>
+      <c r="Z40" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA40" s="10">
+        <f>(z40 * y40)</f>
+      </c>
+      <c r="AB40" s="10">
+        <f>(77700/30*y40)</f>
+      </c>
+      <c r="AC40" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD40" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="41">
@@ -3913,22 +4398,22 @@
         <v>375.0</v>
       </c>
       <c r="C41" t="s" s="10">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D41" t="s" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E41" t="s" s="10">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F41" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G41" s="10">
         <f>concatenate(c41,d41,e41,f41)</f>
       </c>
       <c r="H41" t="s" s="10">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I41" t="n" s="10">
         <v>2.4040935674E10</v>
@@ -3937,13 +4422,13 @@
         <v>41</v>
       </c>
       <c r="K41" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L41" t="s" s="10">
         <v>41</v>
       </c>
       <c r="M41" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N41" t="s" s="10">
         <v>41</v>
@@ -3955,10 +4440,25 @@
         <v>41</v>
       </c>
       <c r="Q41" t="s" s="9">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y41" t="n" s="10">
         <v>5.5</v>
+      </c>
+      <c r="Z41" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA41" s="10">
+        <f>(z41 * y41)</f>
+      </c>
+      <c r="AB41" s="10">
+        <f>(77700/30*y41)</f>
+      </c>
+      <c r="AC41" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD41" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="42">
@@ -3969,31 +4469,31 @@
         <v>402.0</v>
       </c>
       <c r="C42" t="s" s="10">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D42" t="s" s="10">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E42" t="s" s="10">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F42" t="s" s="10">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G42" s="10">
         <f>concatenate(c42,d42,e42,f42)</f>
       </c>
       <c r="H42" t="s" s="10">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I42" t="n" s="10">
         <v>2.4040884839E10</v>
       </c>
       <c r="J42" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K42" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L42" t="s" s="10">
         <v>41</v>
@@ -4015,6 +4515,21 @@
       </c>
       <c r="Y42" t="n" s="10">
         <v>6.0</v>
+      </c>
+      <c r="Z42" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA42" s="10">
+        <f>(z42 * y42)</f>
+      </c>
+      <c r="AB42" s="10">
+        <f>(77700/30*y42)</f>
+      </c>
+      <c r="AC42" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD42" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="43">
@@ -4025,22 +4540,22 @@
         <v>403.0</v>
       </c>
       <c r="C43" t="s" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D43" t="s" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E43" t="s" s="10">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F43" t="s" s="10">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G43" s="10">
         <f>concatenate(c43,d43,e43,f43)</f>
       </c>
       <c r="H43" t="s" s="10">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I43" t="n" s="10">
         <v>2.4040874375E10</v>
@@ -4049,7 +4564,7 @@
         <v>41</v>
       </c>
       <c r="K43" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L43" t="s" s="10">
         <v>41</v>
@@ -4071,6 +4586,21 @@
       </c>
       <c r="Y43" t="n" s="10">
         <v>7.0</v>
+      </c>
+      <c r="Z43" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA43" s="10">
+        <f>(z43 * y43)</f>
+      </c>
+      <c r="AB43" s="10">
+        <f>(77700/30*y43)</f>
+      </c>
+      <c r="AC43" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD43" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="44">
@@ -4081,37 +4611,37 @@
         <v>411.0</v>
       </c>
       <c r="C44" t="s" s="10">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D44" t="s" s="10">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E44" t="s" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s" s="10">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G44" s="10">
         <f>concatenate(c44,d44,e44,f44)</f>
       </c>
       <c r="H44" t="s" s="10">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I44" t="n" s="10">
         <v>2.404093596E10</v>
       </c>
       <c r="J44" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K44" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L44" t="s" s="10">
         <v>41</v>
       </c>
       <c r="M44" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N44" t="s" s="10">
         <v>41</v>
@@ -4127,6 +4657,21 @@
       </c>
       <c r="Y44" t="n" s="10">
         <v>5.0</v>
+      </c>
+      <c r="Z44" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA44" s="10">
+        <f>(z44 * y44)</f>
+      </c>
+      <c r="AB44" s="10">
+        <f>(77700/30*y44)</f>
+      </c>
+      <c r="AC44" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD44" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="45">
@@ -4137,22 +4682,22 @@
         <v>639.0</v>
       </c>
       <c r="C45" t="s" s="10">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" t="s" s="10">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E45" t="s" s="10">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F45" t="s" s="10">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G45" s="10">
         <f>concatenate(c45,d45,e45,f45)</f>
       </c>
       <c r="H45" t="s" s="10">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I45" t="n" s="10">
         <v>2.404448862E10</v>
@@ -4161,7 +4706,7 @@
         <v>41</v>
       </c>
       <c r="K45" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L45" t="s" s="10">
         <v>41</v>
@@ -4183,6 +4728,21 @@
       </c>
       <c r="Y45" t="n" s="10">
         <v>7.0</v>
+      </c>
+      <c r="Z45" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA45" s="10">
+        <f>(z45 * y45)</f>
+      </c>
+      <c r="AB45" s="10">
+        <f>(77700/30*y45)</f>
+      </c>
+      <c r="AC45" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD45" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="46">
@@ -4193,31 +4753,31 @@
         <v>704.0</v>
       </c>
       <c r="C46" t="s" s="10">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D46" t="s" s="10">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E46" t="s" s="10">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F46" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G46" s="10">
         <f>concatenate(c46,d46,e46,f46)</f>
       </c>
       <c r="H46" t="s" s="10">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I46" t="n" s="10">
         <v>2.404551069E10</v>
       </c>
       <c r="J46" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K46" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L46" t="s" s="10">
         <v>41</v>
@@ -4239,6 +4799,21 @@
       </c>
       <c r="Y46" t="n" s="10">
         <v>6.0</v>
+      </c>
+      <c r="Z46" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA46" s="10">
+        <f>(z46 * y46)</f>
+      </c>
+      <c r="AB46" s="10">
+        <f>(77700/30*y46)</f>
+      </c>
+      <c r="AC46" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD46" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="47">
@@ -4249,22 +4824,22 @@
         <v>737.0</v>
       </c>
       <c r="C47" t="s" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D47" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E47" t="s" s="10">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F47" t="s" s="10">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G47" s="10">
         <f>concatenate(c47,d47,e47,f47)</f>
       </c>
       <c r="H47" t="s" s="10">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I47" t="n" s="10">
         <v>2.4046162342E10</v>
@@ -4273,7 +4848,7 @@
         <v>41</v>
       </c>
       <c r="K47" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L47" t="s" s="10">
         <v>41</v>
@@ -4295,6 +4870,21 @@
       </c>
       <c r="Y47" t="n" s="10">
         <v>7.0</v>
+      </c>
+      <c r="Z47" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA47" s="10">
+        <f>(z47 * y47)</f>
+      </c>
+      <c r="AB47" s="10">
+        <f>(77700/30*y47)</f>
+      </c>
+      <c r="AC47" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD47" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="48">
@@ -4305,28 +4895,28 @@
         <v>738.0</v>
       </c>
       <c r="C48" t="s" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D48" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E48" t="s" s="10">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F48" t="s" s="10">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G48" s="10">
         <f>concatenate(c48,d48,e48,f48)</f>
       </c>
       <c r="H48" t="s" s="10">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I48" t="n" s="10">
         <v>2.4046415938E10</v>
       </c>
       <c r="J48" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K48" t="s" s="10">
         <v>41</v>
@@ -4351,6 +4941,21 @@
       </c>
       <c r="Y48" t="n" s="10">
         <v>7.0</v>
+      </c>
+      <c r="Z48" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA48" s="10">
+        <f>(z48 * y48)</f>
+      </c>
+      <c r="AB48" s="10">
+        <f>(77700/30*y48)</f>
+      </c>
+      <c r="AC48" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD48" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="49">
@@ -4361,22 +4966,22 @@
         <v>807.0</v>
       </c>
       <c r="C49" t="s" s="10">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D49" t="s" s="10">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E49" t="s" s="10">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F49" t="s" s="10">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G49" s="10">
         <f>concatenate(c49,d49,e49,f49)</f>
       </c>
       <c r="H49" t="s" s="10">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I49" t="n" s="10">
         <v>2.4051432896E10</v>
@@ -4407,6 +5012,21 @@
       </c>
       <c r="Y49" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z49" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA49" s="10">
+        <f>(z49 * y49)</f>
+      </c>
+      <c r="AB49" s="10">
+        <f>(77700/30*y49)</f>
+      </c>
+      <c r="AC49" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD49" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="50">
@@ -4417,28 +5037,28 @@
         <v>887.0</v>
       </c>
       <c r="C50" t="s" s="10">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D50" t="s" s="10">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E50" t="s" s="10">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F50" t="s" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G50" s="10">
         <f>concatenate(c50,d50,e50,f50)</f>
       </c>
       <c r="H50" t="s" s="10">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I50" t="n" s="10">
         <v>2.4054095171E10</v>
       </c>
       <c r="J50" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K50" t="s" s="10">
         <v>41</v>
@@ -4463,6 +5083,21 @@
       </c>
       <c r="Y50" t="n" s="10">
         <v>7.0</v>
+      </c>
+      <c r="Z50" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA50" s="10">
+        <f>(z50 * y50)</f>
+      </c>
+      <c r="AB50" s="10">
+        <f>(77700/30*y50)</f>
+      </c>
+      <c r="AC50" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD50" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="51">
@@ -4473,22 +5108,22 @@
         <v>928.0</v>
       </c>
       <c r="C51" t="s" s="10">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D51" t="s" s="10">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E51" t="s" s="10">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F51" t="s" s="10">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G51" s="10">
         <f>concatenate(c51,d51,e51,f51)</f>
       </c>
       <c r="H51" t="s" s="10">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I51" t="n" s="10">
         <v>2.4040877468E10</v>
@@ -4519,6 +5154,21 @@
       </c>
       <c r="Y51" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z51" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA51" s="10">
+        <f>(z51 * y51)</f>
+      </c>
+      <c r="AB51" s="10">
+        <f>(77700/30*y51)</f>
+      </c>
+      <c r="AC51" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD51" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="52">
@@ -4529,28 +5179,28 @@
         <v>978.0</v>
       </c>
       <c r="C52" t="s" s="10">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D52" t="s" s="10">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E52" t="s" s="10">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F52" t="s" s="10">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G52" s="10">
         <f>concatenate(c52,d52,e52,f52)</f>
       </c>
       <c r="H52" t="s" s="10">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I52" t="n" s="10">
         <v>2.4041021648E10</v>
       </c>
       <c r="J52" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K52" t="s" s="10">
         <v>41</v>
@@ -4575,6 +5225,21 @@
       </c>
       <c r="Y52" t="n" s="10">
         <v>7.0</v>
+      </c>
+      <c r="Z52" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA52" s="10">
+        <f>(z52 * y52)</f>
+      </c>
+      <c r="AB52" s="10">
+        <f>(77700/30*y52)</f>
+      </c>
+      <c r="AC52" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD52" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="53">
@@ -4585,22 +5250,22 @@
         <v>1028.0</v>
       </c>
       <c r="C53" t="s" s="10">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D53" t="s" s="10">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E53" t="s" s="10">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F53" t="s" s="10">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G53" s="10">
         <f>concatenate(c53,d53,e53,f53)</f>
       </c>
       <c r="H53" t="s" s="10">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I53" t="n" s="10">
         <v>2.4056106293E10</v>
@@ -4631,6 +5296,21 @@
       </c>
       <c r="Y53" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z53" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA53" s="10">
+        <f>(z53 * y53)</f>
+      </c>
+      <c r="AB53" s="10">
+        <f>(77700/30*y53)</f>
+      </c>
+      <c r="AC53" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD53" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="54">
@@ -4641,28 +5321,28 @@
         <v>1044.0</v>
       </c>
       <c r="C54" t="s" s="10">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D54" t="s" s="10">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E54" t="s" s="10">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F54" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G54" s="10">
         <f>concatenate(c54,d54,e54,f54)</f>
       </c>
       <c r="H54" t="s" s="10">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I54" t="n" s="10">
         <v>2.4056114434E10</v>
       </c>
       <c r="J54" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K54" t="s" s="10">
         <v>41</v>
@@ -4687,6 +5367,21 @@
       </c>
       <c r="Y54" t="n" s="10">
         <v>7.0</v>
+      </c>
+      <c r="Z54" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA54" s="10">
+        <f>(z54 * y54)</f>
+      </c>
+      <c r="AB54" s="10">
+        <f>(77700/30*y54)</f>
+      </c>
+      <c r="AC54" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD54" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="55">
@@ -4697,22 +5392,22 @@
         <v>1046.0</v>
       </c>
       <c r="C55" t="s" s="10">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" t="s" s="10">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E55" t="s" s="10">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F55" t="s" s="10">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G55" s="10">
         <f>concatenate(c55,d55,e55,f55)</f>
       </c>
       <c r="H55" t="s" s="10">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I55" t="n" s="10">
         <v>2.405611458E10</v>
@@ -4743,6 +5438,21 @@
       </c>
       <c r="Y55" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z55" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA55" s="10">
+        <f>(z55 * y55)</f>
+      </c>
+      <c r="AB55" s="10">
+        <f>(77700/30*y55)</f>
+      </c>
+      <c r="AC55" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD55" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="56">
@@ -4753,28 +5463,28 @@
         <v>1106.0</v>
       </c>
       <c r="C56" t="s" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D56" t="s" s="10">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E56" t="s" s="10">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F56" t="s" s="10">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G56" s="10">
         <f>concatenate(c56,d56,e56,f56)</f>
       </c>
       <c r="H56" t="s" s="10">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I56" t="n" s="10">
         <v>2.4057413329E10</v>
       </c>
       <c r="J56" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K56" t="s" s="10">
         <v>41</v>
@@ -4799,6 +5509,21 @@
       </c>
       <c r="Y56" t="n" s="10">
         <v>7.0</v>
+      </c>
+      <c r="Z56" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA56" s="10">
+        <f>(z56 * y56)</f>
+      </c>
+      <c r="AB56" s="10">
+        <f>(77700/30*y56)</f>
+      </c>
+      <c r="AC56" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD56" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="57">
@@ -4809,22 +5534,22 @@
         <v>1108.0</v>
       </c>
       <c r="C57" t="s" s="10">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D57" t="s" s="10">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E57" t="s" s="10">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F57" t="s" s="10">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G57" s="10">
         <f>concatenate(c57,d57,e57,f57)</f>
       </c>
       <c r="H57" t="s" s="10">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I57" t="n" s="10">
         <v>2.4057558006E10</v>
@@ -4855,6 +5580,21 @@
       </c>
       <c r="Y57" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z57" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA57" s="10">
+        <f>(z57 * y57)</f>
+      </c>
+      <c r="AB57" s="10">
+        <f>(77700/30*y57)</f>
+      </c>
+      <c r="AC57" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD57" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="58">
@@ -4865,28 +5605,28 @@
         <v>221.0</v>
       </c>
       <c r="C58" t="s" s="7">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D58" t="s" s="7">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E58" t="s" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s" s="7">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G58" s="7">
         <f>concatenate(c58,d58,e58,f58)</f>
       </c>
       <c r="H58" t="s" s="7">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I58" t="n" s="10">
         <v>2.4040980566E10</v>
       </c>
       <c r="J58" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K58" t="s" s="10">
         <v>41</v>
@@ -4911,6 +5651,21 @@
       </c>
       <c r="Y58" t="n" s="10">
         <v>7.0</v>
+      </c>
+      <c r="Z58" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA58" s="10">
+        <f>(z58 * y58)</f>
+      </c>
+      <c r="AB58" s="10">
+        <f>(77700/30*y58)</f>
+      </c>
+      <c r="AC58" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD58" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="59">
@@ -4921,22 +5676,22 @@
         <v>484.0</v>
       </c>
       <c r="C59" t="s" s="10">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D59" t="s" s="10">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E59" t="s" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F59" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G59" s="10">
         <f>concatenate(c59,d59,e59,f59)</f>
       </c>
       <c r="H59" t="s" s="10">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I59" t="n" s="10">
         <v>2.404147226E10</v>
@@ -4945,10 +5700,10 @@
         <v>41</v>
       </c>
       <c r="K59" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L59" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M59" t="s" s="10">
         <v>41</v>
@@ -4967,6 +5722,21 @@
       </c>
       <c r="Y59" t="n" s="10">
         <v>6.0</v>
+      </c>
+      <c r="Z59" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA59" s="10">
+        <f>(z59 * y59)</f>
+      </c>
+      <c r="AB59" s="10">
+        <f>(77700/30*y59)</f>
+      </c>
+      <c r="AC59" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD59" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="60">
@@ -4977,22 +5747,22 @@
         <v>768.0</v>
       </c>
       <c r="C60" t="s" s="10">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D60" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E60" t="s" s="10">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F60" t="s" s="10">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G60" s="10">
         <f>concatenate(c60,d60,e60,f60)</f>
       </c>
       <c r="H60" t="s" s="10">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I60" t="n" s="10">
         <v>2.4048444831E10</v>
@@ -5001,10 +5771,10 @@
         <v>41</v>
       </c>
       <c r="K60" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L60" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M60" t="s" s="10">
         <v>41</v>
@@ -5023,6 +5793,21 @@
       </c>
       <c r="Y60" t="n" s="10">
         <v>6.0</v>
+      </c>
+      <c r="Z60" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA60" s="10">
+        <f>(z60 * y60)</f>
+      </c>
+      <c r="AB60" s="10">
+        <f>(77700/30*y60)</f>
+      </c>
+      <c r="AC60" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD60" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="61">
@@ -5033,22 +5818,22 @@
         <v>798.0</v>
       </c>
       <c r="C61" t="s" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D61" t="s" s="10">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E61" t="s" s="10">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F61" t="s" s="10">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G61" s="10">
         <f>concatenate(c61,d61,e61,f61)</f>
       </c>
       <c r="H61" t="s" s="10">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I61" t="n" s="10">
         <v>2.4051430566E10</v>
@@ -5057,10 +5842,10 @@
         <v>41</v>
       </c>
       <c r="K61" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L61" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M61" t="s" s="10">
         <v>41</v>
@@ -5079,6 +5864,21 @@
       </c>
       <c r="Y61" t="n" s="10">
         <v>6.0</v>
+      </c>
+      <c r="Z61" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA61" s="10">
+        <f>(z61 * y61)</f>
+      </c>
+      <c r="AB61" s="10">
+        <f>(77700/30*y61)</f>
+      </c>
+      <c r="AC61" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD61" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="62">
@@ -5089,22 +5889,22 @@
         <v>826.0</v>
       </c>
       <c r="C62" t="s" s="10">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D62" t="s" s="10">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E62" t="s" s="10">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F62" t="s" s="10">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G62" s="10">
         <f>concatenate(c62,d62,e62,f62)</f>
       </c>
       <c r="H62" t="s" s="10">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I62" t="n" s="10">
         <v>2.4046973465E10</v>
@@ -5113,10 +5913,10 @@
         <v>41</v>
       </c>
       <c r="K62" t="s" s="9">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L62" t="s" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M62" t="s" s="10">
         <v>41</v>
@@ -5135,6 +5935,21 @@
       </c>
       <c r="Y62" t="n" s="10">
         <v>7.5</v>
+      </c>
+      <c r="Z62" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA62" s="10">
+        <f>(z62 * y62)</f>
+      </c>
+      <c r="AB62" s="10">
+        <f>(77700/30*y62)</f>
+      </c>
+      <c r="AC62" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD62" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="63">
@@ -5145,22 +5960,22 @@
         <v>832.0</v>
       </c>
       <c r="C63" t="s" s="10">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D63" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E63" t="s" s="10">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F63" t="s" s="10">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G63" s="10">
         <f>concatenate(c63,d63,e63,f63)</f>
       </c>
       <c r="H63" t="s" s="10">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I63" t="n" s="10">
         <v>2.4053029892E10</v>
@@ -5169,7 +5984,7 @@
         <v>41</v>
       </c>
       <c r="K63" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L63" t="s" s="10">
         <v>41</v>
@@ -5191,6 +6006,21 @@
       </c>
       <c r="Y63" t="n" s="10">
         <v>7.0</v>
+      </c>
+      <c r="Z63" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA63" s="10">
+        <f>(z63 * y63)</f>
+      </c>
+      <c r="AB63" s="10">
+        <f>(77700/30*y63)</f>
+      </c>
+      <c r="AC63" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD63" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="64">
@@ -5201,22 +6031,22 @@
         <v>834.0</v>
       </c>
       <c r="C64" t="s" s="10">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D64" t="s" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E64" t="s" s="10">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F64" t="s" s="10">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G64" s="10">
         <f>concatenate(c64,d64,e64,f64)</f>
       </c>
       <c r="H64" t="s" s="10">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I64" t="n" s="10">
         <v>2.4053031097E10</v>
@@ -5225,7 +6055,7 @@
         <v>41</v>
       </c>
       <c r="K64" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L64" t="s" s="10">
         <v>41</v>
@@ -5247,6 +6077,21 @@
       </c>
       <c r="Y64" t="n" s="10">
         <v>7.0</v>
+      </c>
+      <c r="Z64" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA64" s="10">
+        <f>(z64 * y64)</f>
+      </c>
+      <c r="AB64" s="10">
+        <f>(77700/30*y64)</f>
+      </c>
+      <c r="AC64" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD64" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="65">
@@ -5257,22 +6102,22 @@
         <v>837.0</v>
       </c>
       <c r="C65" t="s" s="10">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D65" t="s" s="10">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E65" t="s" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s" s="10">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G65" s="10">
         <f>concatenate(c65,d65,e65,f65)</f>
       </c>
       <c r="H65" t="s" s="10">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I65" t="n" s="10">
         <v>2.4042062301E10</v>
@@ -5303,6 +6148,21 @@
       </c>
       <c r="Y65" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z65" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA65" s="10">
+        <f>(z65 * y65)</f>
+      </c>
+      <c r="AB65" s="10">
+        <f>(77700/30*y65)</f>
+      </c>
+      <c r="AC65" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD65" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="66">
@@ -5313,22 +6173,22 @@
         <v>851.0</v>
       </c>
       <c r="C66" t="s" s="10">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D66" t="s" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E66" t="s" s="10">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F66" t="s" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G66" s="10">
         <f>concatenate(c66,d66,e66,f66)</f>
       </c>
       <c r="H66" t="s" s="10">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I66" t="n" s="10">
         <v>2.4053221605E10</v>
@@ -5359,6 +6219,21 @@
       </c>
       <c r="Y66" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z66" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA66" s="10">
+        <f>(z66 * y66)</f>
+      </c>
+      <c r="AB66" s="10">
+        <f>(77700/30*y66)</f>
+      </c>
+      <c r="AC66" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD66" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="67">
@@ -5369,22 +6244,22 @@
         <v>855.0</v>
       </c>
       <c r="C67" t="s" s="10">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D67" t="s" s="10">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E67" t="s" s="10">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F67" t="s" s="10">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G67" s="10">
         <f>concatenate(c67,d67,e67,f67)</f>
       </c>
       <c r="H67" t="s" s="10">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I67" t="n" s="10">
         <v>2.405358386E10</v>
@@ -5415,6 +6290,21 @@
       </c>
       <c r="Y67" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z67" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA67" s="10">
+        <f>(z67 * y67)</f>
+      </c>
+      <c r="AB67" s="10">
+        <f>(77700/30*y67)</f>
+      </c>
+      <c r="AC67" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD67" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="68">
@@ -5425,22 +6315,22 @@
         <v>861.0</v>
       </c>
       <c r="C68" t="s" s="10">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D68" t="s" s="10">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E68" t="s" s="10">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F68" t="s" s="10">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G68" s="10">
         <f>concatenate(c68,d68,e68,f68)</f>
       </c>
       <c r="H68" t="s" s="10">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I68" t="n" s="10">
         <v>2.4053670384E10</v>
@@ -5455,7 +6345,7 @@
         <v>41</v>
       </c>
       <c r="M68" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N68" t="s" s="10">
         <v>41</v>
@@ -5471,6 +6361,21 @@
       </c>
       <c r="Y68" t="n" s="10">
         <v>7.0</v>
+      </c>
+      <c r="Z68" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA68" s="10">
+        <f>(z68 * y68)</f>
+      </c>
+      <c r="AB68" s="10">
+        <f>(77700/30*y68)</f>
+      </c>
+      <c r="AC68" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD68" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="69">
@@ -5481,22 +6386,22 @@
         <v>938.0</v>
       </c>
       <c r="C69" t="s" s="10">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D69" t="s" s="10">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E69" t="s" s="10">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F69" t="s" s="10">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G69" s="10">
         <f>concatenate(c69,d69,e69,f69)</f>
       </c>
       <c r="H69" t="s" s="10">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I69" t="n" s="10">
         <v>2.4054779741E10</v>
@@ -5511,7 +6416,7 @@
         <v>41</v>
       </c>
       <c r="M69" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N69" t="s" s="10">
         <v>41</v>
@@ -5527,6 +6432,21 @@
       </c>
       <c r="Y69" t="n" s="10">
         <v>7.0</v>
+      </c>
+      <c r="Z69" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA69" s="10">
+        <f>(z69 * y69)</f>
+      </c>
+      <c r="AB69" s="10">
+        <f>(77700/30*y69)</f>
+      </c>
+      <c r="AC69" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD69" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="70">
@@ -5537,22 +6457,22 @@
         <v>975.0</v>
       </c>
       <c r="C70" t="s" s="10">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D70" t="s" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E70" t="s" s="10">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F70" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G70" s="10">
         <f>concatenate(c70,d70,e70,f70)</f>
       </c>
       <c r="H70" t="s" s="10">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I70" t="n" s="10">
         <v>2.4052657078E10</v>
@@ -5583,6 +6503,21 @@
       </c>
       <c r="Y70" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z70" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA70" s="10">
+        <f>(z70 * y70)</f>
+      </c>
+      <c r="AB70" s="10">
+        <f>(77700/30*y70)</f>
+      </c>
+      <c r="AC70" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD70" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="71">
@@ -5593,22 +6528,22 @@
         <v>979.0</v>
       </c>
       <c r="C71" t="s" s="10">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D71" t="s" s="10">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E71" t="s" s="10">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F71" t="s" s="10">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G71" s="10">
         <f>concatenate(c71,d71,e71,f71)</f>
       </c>
       <c r="H71" t="s" s="10">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I71" t="n" s="10">
         <v>2.4055405207E10</v>
@@ -5639,6 +6574,21 @@
       </c>
       <c r="Y71" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z71" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA71" s="10">
+        <f>(z71 * y71)</f>
+      </c>
+      <c r="AB71" s="10">
+        <f>(77700/30*y71)</f>
+      </c>
+      <c r="AC71" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD71" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="72">
@@ -5649,22 +6599,22 @@
         <v>1073.0</v>
       </c>
       <c r="C72" t="s" s="10">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D72" t="s" s="10">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E72" t="s" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s" s="10">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G72" s="10">
         <f>concatenate(c72,d72,e72,f72)</f>
       </c>
       <c r="H72" t="s" s="10">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I72" t="n" s="10">
         <v>2.4052656277E10</v>
@@ -5695,6 +6645,21 @@
       </c>
       <c r="Y72" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z72" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA72" s="10">
+        <f>(z72 * y72)</f>
+      </c>
+      <c r="AB72" s="10">
+        <f>(77700/30*y72)</f>
+      </c>
+      <c r="AC72" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD72" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="73">
@@ -5705,22 +6670,22 @@
         <v>-4.0</v>
       </c>
       <c r="C73" t="s" s="7">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D73" t="s" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E73" t="s" s="7">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F73" t="s" s="7">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G73" s="7">
         <f>concatenate(c73,d73,e73,f73)</f>
       </c>
       <c r="H73" t="s" s="7">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I73" t="n" s="10">
         <v>2.4040877482E10</v>
@@ -5751,6 +6716,21 @@
       </c>
       <c r="Y73" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z73" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA73" s="10">
+        <f>(z73 * y73)</f>
+      </c>
+      <c r="AB73" s="10">
+        <f>(77700/30*y73)</f>
+      </c>
+      <c r="AC73" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD73" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="74">
@@ -5761,22 +6741,22 @@
         <v>22.0</v>
       </c>
       <c r="C74" t="s" s="10">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D74" t="s" s="10">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E74" t="s" s="10">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F74" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G74" s="10">
         <f>concatenate(c74,d74,e74,f74)</f>
       </c>
       <c r="H74" t="s" s="10">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I74" t="n" s="10">
         <v>2.4041023916E10</v>
@@ -5807,6 +6787,21 @@
       </c>
       <c r="Y74" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z74" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA74" s="10">
+        <f>(z74 * y74)</f>
+      </c>
+      <c r="AB74" s="10">
+        <f>(77700/30*y74)</f>
+      </c>
+      <c r="AC74" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD74" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="75">
@@ -5817,22 +6812,22 @@
         <v>46.0</v>
       </c>
       <c r="C75" t="s" s="10">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D75" t="s" s="10">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E75" t="s" s="10">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F75" t="s" s="10">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G75" s="10">
         <f>concatenate(c75,d75,e75,f75)</f>
       </c>
       <c r="H75" t="s" s="10">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I75" t="n" s="10">
         <v>2.4041024988E10</v>
@@ -5841,10 +6836,10 @@
         <v>41</v>
       </c>
       <c r="K75" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L75" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M75" t="s" s="10">
         <v>41</v>
@@ -5863,6 +6858,21 @@
       </c>
       <c r="Y75" t="n" s="10">
         <v>6.0</v>
+      </c>
+      <c r="Z75" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA75" s="10">
+        <f>(z75 * y75)</f>
+      </c>
+      <c r="AB75" s="10">
+        <f>(77700/30*y75)</f>
+      </c>
+      <c r="AC75" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD75" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="76">
@@ -5873,13 +6883,13 @@
         <v>148.0</v>
       </c>
       <c r="C76" t="s" s="10">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D76" t="s" s="10">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E76" t="s" s="10">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F76" t="s" s="10">
         <v>39</v>
@@ -5888,7 +6898,7 @@
         <f>concatenate(c76,d76,e76,f76)</f>
       </c>
       <c r="H76" t="s" s="10">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I76" t="n" s="10">
         <v>2.4041022533E10</v>
@@ -5919,6 +6929,21 @@
       </c>
       <c r="Y76" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z76" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA76" s="10">
+        <f>(z76 * y76)</f>
+      </c>
+      <c r="AB76" s="10">
+        <f>(77700/30*y76)</f>
+      </c>
+      <c r="AC76" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD76" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="77">
@@ -5929,22 +6954,22 @@
         <v>176.0</v>
       </c>
       <c r="C77" t="s" s="10">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D77" t="s" s="10">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E77" t="s" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F77" t="s" s="10">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G77" s="10">
         <f>concatenate(c77,d77,e77,f77)</f>
       </c>
       <c r="H77" t="s" s="10">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I77" t="n" s="10">
         <v>2.4041022331E10</v>
@@ -5975,6 +7000,21 @@
       </c>
       <c r="Y77" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z77" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA77" s="10">
+        <f>(z77 * y77)</f>
+      </c>
+      <c r="AB77" s="10">
+        <f>(77700/30*y77)</f>
+      </c>
+      <c r="AC77" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD77" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="78">
@@ -5985,22 +7025,22 @@
         <v>227.0</v>
       </c>
       <c r="C78" t="s" s="10">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D78" t="s" s="10">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E78" t="s" s="10">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F78" t="s" s="10">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G78" s="10">
         <f>concatenate(c78,d78,e78,f78)</f>
       </c>
       <c r="H78" t="s" s="10">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I78" t="n" s="10">
         <v>2.4041023839E10</v>
@@ -6031,6 +7071,21 @@
       </c>
       <c r="Y78" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z78" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA78" s="10">
+        <f>(z78 * y78)</f>
+      </c>
+      <c r="AB78" s="10">
+        <f>(77700/30*y78)</f>
+      </c>
+      <c r="AC78" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD78" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="79">
@@ -6041,22 +7096,22 @@
         <v>291.0</v>
       </c>
       <c r="C79" t="s" s="10">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D79" t="s" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E79" t="s" s="10">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F79" t="s" s="10">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G79" s="10">
         <f>concatenate(c79,d79,e79,f79)</f>
       </c>
       <c r="H79" t="s" s="10">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I79" t="n" s="10">
         <v>2.4041021819E10</v>
@@ -6087,6 +7142,21 @@
       </c>
       <c r="Y79" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z79" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA79" s="10">
+        <f>(z79 * y79)</f>
+      </c>
+      <c r="AB79" s="10">
+        <f>(77700/30*y79)</f>
+      </c>
+      <c r="AC79" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD79" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="80">
@@ -6097,22 +7167,22 @@
         <v>442.0</v>
       </c>
       <c r="C80" t="s" s="10">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D80" t="s" s="10">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E80" t="s" s="10">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F80" t="s" s="10">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G80" s="10">
         <f>concatenate(c80,d80,e80,f80)</f>
       </c>
       <c r="H80" t="s" s="10">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I80" t="n" s="10">
         <v>2.4041022247E10</v>
@@ -6143,6 +7213,21 @@
       </c>
       <c r="Y80" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z80" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA80" s="10">
+        <f>(z80 * y80)</f>
+      </c>
+      <c r="AB80" s="10">
+        <f>(77700/30*y80)</f>
+      </c>
+      <c r="AC80" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD80" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="81">
@@ -6153,22 +7238,22 @@
         <v>836.0</v>
       </c>
       <c r="C81" t="s" s="10">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D81" t="s" s="10">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E81" t="s" s="10">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F81" t="s" s="10">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G81" s="10">
         <f>concatenate(c81,d81,e81,f81)</f>
       </c>
       <c r="H81" t="s" s="10">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I81" t="n" s="10">
         <v>2.4053009766E10</v>
@@ -6199,6 +7284,21 @@
       </c>
       <c r="Y81" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z81" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA81" s="10">
+        <f>(z81 * y81)</f>
+      </c>
+      <c r="AB81" s="10">
+        <f>(77700/30*y81)</f>
+      </c>
+      <c r="AC81" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD81" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="82">
@@ -6209,22 +7309,22 @@
         <v>895.0</v>
       </c>
       <c r="C82" t="s" s="10">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D82" t="s" s="10">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E82" t="s" s="10">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F82" t="s" s="10">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G82" s="10">
         <f>concatenate(c82,d82,e82,f82)</f>
       </c>
       <c r="H82" t="s" s="10">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I82" t="n" s="10">
         <v>2.4054201541E10</v>
@@ -6255,6 +7355,21 @@
       </c>
       <c r="Y82" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z82" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA82" s="10">
+        <f>(z82 * y82)</f>
+      </c>
+      <c r="AB82" s="10">
+        <f>(77700/30*y82)</f>
+      </c>
+      <c r="AC82" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD82" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="83">
@@ -6265,22 +7380,22 @@
         <v>944.0</v>
       </c>
       <c r="C83" t="s" s="10">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D83" t="s" s="10">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E83" t="s" s="10">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F83" t="s" s="10">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G83" s="10">
         <f>concatenate(c83,d83,e83,f83)</f>
       </c>
       <c r="H83" t="s" s="10">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I83" t="n" s="10">
         <v>2.4054858613E10</v>
@@ -6311,6 +7426,21 @@
       </c>
       <c r="Y83" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z83" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA83" s="10">
+        <f>(z83 * y83)</f>
+      </c>
+      <c r="AB83" s="10">
+        <f>(77700/30*y83)</f>
+      </c>
+      <c r="AC83" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD83" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="84">
@@ -6321,22 +7451,22 @@
         <v>960.0</v>
       </c>
       <c r="C84" t="s" s="10">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D84" t="s" s="10">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E84" t="s" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s" s="10">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G84" s="10">
         <f>concatenate(c84,d84,e84,f84)</f>
       </c>
       <c r="H84" t="s" s="10">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I84" t="n" s="10">
         <v>2.4055339766E10</v>
@@ -6367,6 +7497,21 @@
       </c>
       <c r="Y84" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z84" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA84" s="10">
+        <f>(z84 * y84)</f>
+      </c>
+      <c r="AB84" s="10">
+        <f>(77700/30*y84)</f>
+      </c>
+      <c r="AC84" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD84" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="85">
@@ -6377,22 +7522,22 @@
         <v>962.0</v>
       </c>
       <c r="C85" t="s" s="10">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D85" t="s" s="10">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E85" t="s" s="10">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F85" t="s" s="10">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G85" s="10">
         <f>concatenate(c85,d85,e85,f85)</f>
       </c>
       <c r="H85" t="s" s="10">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I85" t="n" s="10">
         <v>2.4055339216E10</v>
@@ -6423,6 +7568,21 @@
       </c>
       <c r="Y85" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z85" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA85" s="10">
+        <f>(z85 * y85)</f>
+      </c>
+      <c r="AB85" s="10">
+        <f>(77700/30*y85)</f>
+      </c>
+      <c r="AC85" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD85" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="86">
@@ -6433,22 +7593,22 @@
         <v>981.0</v>
       </c>
       <c r="C86" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D86" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E86" t="s" s="10">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F86" t="s" s="10">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G86" s="10">
         <f>concatenate(c86,d86,e86,f86)</f>
       </c>
       <c r="H86" t="s" s="10">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I86" t="n" s="10">
         <v>2.4055406596E10</v>
@@ -6479,6 +7639,21 @@
       </c>
       <c r="Y86" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z86" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA86" s="10">
+        <f>(z86 * y86)</f>
+      </c>
+      <c r="AB86" s="10">
+        <f>(77700/30*y86)</f>
+      </c>
+      <c r="AC86" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD86" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="87">
@@ -6489,22 +7664,22 @@
         <v>1023.0</v>
       </c>
       <c r="C87" t="s" s="10">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D87" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E87" t="s" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s" s="10">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G87" s="10">
         <f>concatenate(c87,d87,e87,f87)</f>
       </c>
       <c r="H87" t="s" s="10">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I87" t="n" s="10">
         <v>2.4055811097E10</v>
@@ -6535,6 +7710,21 @@
       </c>
       <c r="Y87" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z87" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA87" s="10">
+        <f>(z87 * y87)</f>
+      </c>
+      <c r="AB87" s="10">
+        <f>(77700/30*y87)</f>
+      </c>
+      <c r="AC87" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD87" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="88">
@@ -6545,22 +7735,22 @@
         <v>1086.0</v>
       </c>
       <c r="C88" t="s" s="10">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D88" t="s" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E88" t="s" s="10">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F88" t="s" s="10">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G88" s="10">
         <f>concatenate(c88,d88,e88,f88)</f>
       </c>
       <c r="H88" t="s" s="10">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I88" t="n" s="10">
         <v>2.4056726293E10</v>
@@ -6591,6 +7781,21 @@
       </c>
       <c r="Y88" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z88" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA88" s="10">
+        <f>(z88 * y88)</f>
+      </c>
+      <c r="AB88" s="10">
+        <f>(77700/30*y88)</f>
+      </c>
+      <c r="AC88" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD88" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="89">
@@ -6601,22 +7806,22 @@
         <v>1125.0</v>
       </c>
       <c r="C89" t="s" s="10">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D89" t="s" s="10">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E89" t="s" s="10">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F89" t="s" s="10">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G89" s="10">
         <f>concatenate(c89,d89,e89,f89)</f>
       </c>
       <c r="H89" t="s" s="10">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I89" t="n" s="10">
         <v>2.4041022658E10</v>
@@ -6647,6 +7852,21 @@
       </c>
       <c r="Y89" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z89" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA89" s="10">
+        <f>(z89 * y89)</f>
+      </c>
+      <c r="AB89" s="10">
+        <f>(77700/30*y89)</f>
+      </c>
+      <c r="AC89" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD89" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="90">
@@ -6657,22 +7877,22 @@
         <v>1129.0</v>
       </c>
       <c r="C90" t="s" s="10">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D90" t="s" s="10">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E90" t="s" s="10">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F90" t="s" s="10">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G90" s="10">
         <f>concatenate(c90,d90,e90,f90)</f>
       </c>
       <c r="H90" t="s" s="10">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I90" t="n" s="10">
         <v>2.4041280579E10</v>
@@ -6703,6 +7923,21 @@
       </c>
       <c r="Y90" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z90" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA90" s="10">
+        <f>(z90 * y90)</f>
+      </c>
+      <c r="AB90" s="10">
+        <f>(77700/30*y90)</f>
+      </c>
+      <c r="AC90" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD90" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="91">
@@ -6713,22 +7948,22 @@
         <v>-5.0</v>
       </c>
       <c r="C91" t="s" s="7">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D91" t="s" s="7">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E91" t="s" s="7">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F91" t="s" s="7">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G91" s="7">
         <f>concatenate(c91,d91,e91,f91)</f>
       </c>
       <c r="H91" t="s" s="7">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I91" t="n" s="10">
         <v>2.404126672E10</v>
@@ -6759,6 +7994,21 @@
       </c>
       <c r="Y91" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z91" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA91" s="10">
+        <f>(z91 * y91)</f>
+      </c>
+      <c r="AB91" s="10">
+        <f>(77700/30*y91)</f>
+      </c>
+      <c r="AC91" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD91" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="92">
@@ -6769,22 +8019,22 @@
         <v>226.0</v>
       </c>
       <c r="C92" t="s" s="10">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D92" t="s" s="10">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E92" t="s" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F92" t="s" s="10">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G92" s="10">
         <f>concatenate(c92,d92,e92,f92)</f>
       </c>
       <c r="H92" t="s" s="10">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I92" t="n" s="10">
         <v>2.4041022069E10</v>
@@ -6815,6 +8065,21 @@
       </c>
       <c r="Y92" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z92" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA92" s="10">
+        <f>(z92 * y92)</f>
+      </c>
+      <c r="AB92" s="10">
+        <f>(77700/30*y92)</f>
+      </c>
+      <c r="AC92" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD92" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="93">
@@ -6825,22 +8090,22 @@
         <v>235.0</v>
       </c>
       <c r="C93" t="s" s="10">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D93" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E93" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F93" t="s" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G93" s="10">
         <f>concatenate(c93,d93,e93,f93)</f>
       </c>
       <c r="H93" t="s" s="10">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I93" t="n" s="10">
         <v>2.4040878478E10</v>
@@ -6849,10 +8114,10 @@
         <v>41</v>
       </c>
       <c r="K93" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L93" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M93" t="s" s="10">
         <v>41</v>
@@ -6871,6 +8136,21 @@
       </c>
       <c r="Y93" t="n" s="10">
         <v>6.0</v>
+      </c>
+      <c r="Z93" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA93" s="10">
+        <f>(z93 * y93)</f>
+      </c>
+      <c r="AB93" s="10">
+        <f>(77700/30*y93)</f>
+      </c>
+      <c r="AC93" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD93" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="94">
@@ -6881,22 +8161,22 @@
         <v>334.0</v>
       </c>
       <c r="C94" t="s" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D94" t="s" s="10">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E94" t="s" s="10">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F94" t="s" s="10">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G94" s="10">
         <f>concatenate(c94,d94,e94,f94)</f>
       </c>
       <c r="H94" t="s" s="10">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I94" t="n" s="10">
         <v>2.4040875563E10</v>
@@ -6905,10 +8185,10 @@
         <v>41</v>
       </c>
       <c r="K94" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L94" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M94" t="s" s="10">
         <v>41</v>
@@ -6927,6 +8207,21 @@
       </c>
       <c r="Y94" t="n" s="10">
         <v>6.0</v>
+      </c>
+      <c r="Z94" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA94" s="10">
+        <f>(z94 * y94)</f>
+      </c>
+      <c r="AB94" s="10">
+        <f>(77700/30*y94)</f>
+      </c>
+      <c r="AC94" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD94" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="95">
@@ -6937,22 +8232,22 @@
         <v>346.0</v>
       </c>
       <c r="C95" t="s" s="10">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D95" t="s" s="10">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E95" t="s" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s" s="10">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G95" s="10">
         <f>concatenate(c95,d95,e95,f95)</f>
       </c>
       <c r="H95" t="s" s="10">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I95" t="n" s="10">
         <v>2.4040980573E10</v>
@@ -6964,7 +8259,7 @@
         <v>41</v>
       </c>
       <c r="L95" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M95" t="s" s="10">
         <v>41</v>
@@ -6983,6 +8278,21 @@
       </c>
       <c r="Y95" t="n" s="10">
         <v>7.0</v>
+      </c>
+      <c r="Z95" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA95" s="10">
+        <f>(z95 * y95)</f>
+      </c>
+      <c r="AB95" s="10">
+        <f>(77700/30*y95)</f>
+      </c>
+      <c r="AC95" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD95" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="96">
@@ -6993,22 +8303,22 @@
         <v>472.0</v>
       </c>
       <c r="C96" t="s" s="10">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D96" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E96" t="s" s="10">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F96" t="s" s="10">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G96" s="10">
         <f>concatenate(c96,d96,e96,f96)</f>
       </c>
       <c r="H96" t="s" s="10">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I96" t="n" s="10">
         <v>2.4040935744E10</v>
@@ -7020,7 +8330,7 @@
         <v>41</v>
       </c>
       <c r="L96" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M96" t="s" s="10">
         <v>41</v>
@@ -7039,6 +8349,21 @@
       </c>
       <c r="Y96" t="n" s="10">
         <v>7.0</v>
+      </c>
+      <c r="Z96" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA96" s="10">
+        <f>(z96 * y96)</f>
+      </c>
+      <c r="AB96" s="10">
+        <f>(77700/30*y96)</f>
+      </c>
+      <c r="AC96" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD96" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="97">
@@ -7049,22 +8374,22 @@
         <v>491.0</v>
       </c>
       <c r="C97" t="s" s="10">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D97" t="s" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E97" t="s" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s" s="10">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G97" s="10">
         <f>concatenate(c97,d97,e97,f97)</f>
       </c>
       <c r="H97" t="s" s="10">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I97" t="n" s="10">
         <v>2.4041395008E10</v>
@@ -7076,7 +8401,7 @@
         <v>41</v>
       </c>
       <c r="L97" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M97" t="s" s="10">
         <v>41</v>
@@ -7095,6 +8420,21 @@
       </c>
       <c r="Y97" t="n" s="10">
         <v>7.0</v>
+      </c>
+      <c r="Z97" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA97" s="10">
+        <f>(z97 * y97)</f>
+      </c>
+      <c r="AB97" s="10">
+        <f>(77700/30*y97)</f>
+      </c>
+      <c r="AC97" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD97" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="98">
@@ -7105,22 +8445,22 @@
         <v>502.0</v>
       </c>
       <c r="C98" t="s" s="10">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D98" t="s" s="10">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E98" t="s" s="10">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F98" t="s" s="10">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G98" s="10">
         <f>concatenate(c98,d98,e98,f98)</f>
       </c>
       <c r="H98" t="s" s="10">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I98" t="n" s="10">
         <v>2.4041860146E10</v>
@@ -7129,7 +8469,7 @@
         <v>41</v>
       </c>
       <c r="K98" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L98" t="s" s="10">
         <v>41</v>
@@ -7151,6 +8491,21 @@
       </c>
       <c r="Y98" t="n" s="10">
         <v>7.0</v>
+      </c>
+      <c r="Z98" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA98" s="10">
+        <f>(z98 * y98)</f>
+      </c>
+      <c r="AB98" s="10">
+        <f>(77700/30*y98)</f>
+      </c>
+      <c r="AC98" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD98" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="99">
@@ -7161,22 +8516,22 @@
         <v>892.0</v>
       </c>
       <c r="C99" t="s" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D99" t="s" s="10">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E99" t="s" s="10">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F99" t="s" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G99" s="10">
         <f>concatenate(c99,d99,e99,f99)</f>
       </c>
       <c r="H99" t="s" s="10">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I99" t="n" s="10">
         <v>2.4054172489E10</v>
@@ -7207,6 +8562,21 @@
       </c>
       <c r="Y99" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z99" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA99" s="10">
+        <f>(z99 * y99)</f>
+      </c>
+      <c r="AB99" s="10">
+        <f>(77700/30*y99)</f>
+      </c>
+      <c r="AC99" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD99" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="100">
@@ -7217,22 +8587,22 @@
         <v>1021.0</v>
       </c>
       <c r="C100" t="s" s="10">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D100" t="s" s="10">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E100" t="s" s="10">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F100" t="s" s="10">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G100" s="10">
         <f>concatenate(c100,d100,e100,f100)</f>
       </c>
       <c r="H100" t="s" s="10">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I100" t="n" s="10">
         <v>2.4055841694E10</v>
@@ -7263,6 +8633,21 @@
       </c>
       <c r="Y100" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z100" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA100" s="10">
+        <f>(z100 * y100)</f>
+      </c>
+      <c r="AB100" s="10">
+        <f>(77700/30*y100)</f>
+      </c>
+      <c r="AC100" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD100" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="101">
@@ -7273,22 +8658,22 @@
         <v>1050.0</v>
       </c>
       <c r="C101" t="s" s="10">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D101" t="s" s="10">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E101" t="s" s="10">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F101" t="s" s="10">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G101" s="10">
         <f>concatenate(c101,d101,e101,f101)</f>
       </c>
       <c r="H101" t="s" s="10">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I101" t="n" s="10">
         <v>2.4041265556E10</v>
@@ -7319,6 +8704,21 @@
       </c>
       <c r="Y101" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z101" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA101" s="10">
+        <f>(z101 * y101)</f>
+      </c>
+      <c r="AB101" s="10">
+        <f>(77700/30*y101)</f>
+      </c>
+      <c r="AC101" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD101" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="102">
@@ -7329,22 +8729,22 @@
         <v>1067.0</v>
       </c>
       <c r="C102" t="s" s="10">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D102" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E102" t="s" s="10">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F102" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G102" s="10">
         <f>concatenate(c102,d102,e102,f102)</f>
       </c>
       <c r="H102" t="s" s="10">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I102" t="n" s="10">
         <v>2.4056458886E10</v>
@@ -7375,6 +8775,21 @@
       </c>
       <c r="Y102" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z102" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA102" s="10">
+        <f>(z102 * y102)</f>
+      </c>
+      <c r="AB102" s="10">
+        <f>(77700/30*y102)</f>
+      </c>
+      <c r="AC102" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD102" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="103">
@@ -7385,22 +8800,22 @@
         <v>1080.0</v>
       </c>
       <c r="C103" t="s" s="10">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D103" t="s" s="10">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E103" t="s" s="10">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F103" t="s" s="10">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G103" s="10">
         <f>concatenate(c103,d103,e103,f103)</f>
       </c>
       <c r="H103" t="s" s="10">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I103" t="n" s="10">
         <v>2.4056675148E10</v>
@@ -7431,6 +8846,21 @@
       </c>
       <c r="Y103" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z103" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA103" s="10">
+        <f>(z103 * y103)</f>
+      </c>
+      <c r="AB103" s="10">
+        <f>(77700/30*y103)</f>
+      </c>
+      <c r="AC103" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD103" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="104">
@@ -7441,22 +8871,22 @@
         <v>1104.0</v>
       </c>
       <c r="C104" t="s" s="10">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D104" t="s" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E104" t="s" s="10">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G104" s="10">
         <f>concatenate(c104,d104,e104,f104)</f>
       </c>
       <c r="H104" t="s" s="10">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I104" t="n" s="10">
         <v>2.4041264933E10</v>
@@ -7487,6 +8917,21 @@
       </c>
       <c r="Y104" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z104" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA104" s="10">
+        <f>(z104 * y104)</f>
+      </c>
+      <c r="AB104" s="10">
+        <f>(77700/30*y104)</f>
+      </c>
+      <c r="AC104" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD104" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="105">
@@ -7497,22 +8942,22 @@
         <v>1105.0</v>
       </c>
       <c r="C105" t="s" s="10">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D105" t="s" s="10">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E105" t="s" s="10">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F105" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G105" s="10">
         <f>concatenate(c105,d105,e105,f105)</f>
       </c>
       <c r="H105" t="s" s="10">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I105" t="n" s="10">
         <v>2.4041022456E10</v>
@@ -7543,6 +8988,21 @@
       </c>
       <c r="Y105" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z105" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA105" s="10">
+        <f>(z105 * y105)</f>
+      </c>
+      <c r="AB105" s="10">
+        <f>(77700/30*y105)</f>
+      </c>
+      <c r="AC105" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD105" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="106">
@@ -7553,22 +9013,22 @@
         <v>-6.0</v>
       </c>
       <c r="C106" t="s" s="7">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D106" t="s" s="7">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E106" t="s" s="7">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F106" t="s" s="7">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G106" s="7">
         <f>concatenate(c106,d106,e106,f106)</f>
       </c>
       <c r="H106" t="s" s="7">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I106" t="n" s="10">
         <v>2.4040908836E10</v>
@@ -7599,6 +9059,21 @@
       </c>
       <c r="Y106" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z106" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA106" s="10">
+        <f>(z106 * y106)</f>
+      </c>
+      <c r="AB106" s="10">
+        <f>(77700/30*y106)</f>
+      </c>
+      <c r="AC106" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD106" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="107">
@@ -7609,22 +9084,22 @@
         <v>224.0</v>
       </c>
       <c r="C107" t="s" s="10">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D107" t="s" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E107" t="s" s="10">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F107" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G107" s="10">
         <f>concatenate(c107,d107,e107,f107)</f>
       </c>
       <c r="H107" t="s" s="10">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I107" t="n" s="10">
         <v>2.4040980085E10</v>
@@ -7633,7 +9108,7 @@
         <v>41</v>
       </c>
       <c r="K107" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L107" t="s" s="10">
         <v>41</v>
@@ -7655,6 +9130,21 @@
       </c>
       <c r="Y107" t="n" s="10">
         <v>7.0</v>
+      </c>
+      <c r="Z107" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA107" s="10">
+        <f>(z107 * y107)</f>
+      </c>
+      <c r="AB107" s="10">
+        <f>(77700/30*y107)</f>
+      </c>
+      <c r="AC107" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD107" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="108">
@@ -7665,22 +9155,22 @@
         <v>779.0</v>
       </c>
       <c r="C108" t="s" s="10">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D108" t="s" s="10">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E108" t="s" s="10">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F108" t="s" s="10">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G108" s="10">
         <f>concatenate(c108,d108,e108,f108)</f>
       </c>
       <c r="H108" t="s" s="10">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I108" t="n" s="10">
         <v>2.4050221567E10</v>
@@ -7689,10 +9179,10 @@
         <v>41</v>
       </c>
       <c r="K108" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L108" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M108" t="s" s="10">
         <v>41</v>
@@ -7711,6 +9201,21 @@
       </c>
       <c r="Y108" t="n" s="10">
         <v>6.0</v>
+      </c>
+      <c r="Z108" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA108" s="10">
+        <f>(z108 * y108)</f>
+      </c>
+      <c r="AB108" s="10">
+        <f>(77700/30*y108)</f>
+      </c>
+      <c r="AC108" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD108" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="109">
@@ -7721,22 +9226,22 @@
         <v>849.0</v>
       </c>
       <c r="C109" t="s" s="10">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D109" t="s" s="10">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E109" t="s" s="10">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F109" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G109" s="10">
         <f>concatenate(c109,d109,e109,f109)</f>
       </c>
       <c r="H109" t="s" s="10">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I109" t="n" s="10">
         <v>2.4041023644E10</v>
@@ -7767,6 +9272,21 @@
       </c>
       <c r="Y109" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z109" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA109" s="10">
+        <f>(z109 * y109)</f>
+      </c>
+      <c r="AB109" s="10">
+        <f>(77700/30*y109)</f>
+      </c>
+      <c r="AC109" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD109" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="110">
@@ -7777,22 +9297,22 @@
         <v>907.0</v>
       </c>
       <c r="C110" t="s" s="10">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D110" t="s" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E110" t="s" s="10">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F110" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G110" s="10">
         <f>concatenate(c110,d110,e110,f110)</f>
       </c>
       <c r="H110" t="s" s="10">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I110" t="n" s="10">
         <v>2.4054250271E10</v>
@@ -7823,6 +9343,21 @@
       </c>
       <c r="Y110" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z110" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA110" s="10">
+        <f>(z110 * y110)</f>
+      </c>
+      <c r="AB110" s="10">
+        <f>(77700/30*y110)</f>
+      </c>
+      <c r="AC110" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD110" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="111">
@@ -7833,22 +9368,22 @@
         <v>993.0</v>
       </c>
       <c r="C111" t="s" s="10">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D111" t="s" s="10">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E111" t="s" s="10">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F111" t="s" s="10">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G111" s="10">
         <f>concatenate(c111,d111,e111,f111)</f>
       </c>
       <c r="H111" t="s" s="10">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I111" t="n" s="10">
         <v>2.4056382105E10</v>
@@ -7879,6 +9414,21 @@
       </c>
       <c r="Y111" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z111" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA111" s="10">
+        <f>(z111 * y111)</f>
+      </c>
+      <c r="AB111" s="10">
+        <f>(77700/30*y111)</f>
+      </c>
+      <c r="AC111" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD111" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="112">
@@ -7889,22 +9439,22 @@
         <v>1031.0</v>
       </c>
       <c r="C112" t="s" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D112" t="s" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E112" t="s" s="10">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F112" t="s" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G112" s="10">
         <f>concatenate(c112,d112,e112,f112)</f>
       </c>
       <c r="H112" t="s" s="10">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I112" t="n" s="10">
         <v>2.4046148074E10</v>
@@ -7935,6 +9485,21 @@
       </c>
       <c r="Y112" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z112" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA112" s="10">
+        <f>(z112 * y112)</f>
+      </c>
+      <c r="AB112" s="10">
+        <f>(77700/30*y112)</f>
+      </c>
+      <c r="AC112" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD112" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="113">
@@ -7945,22 +9510,22 @@
         <v>140.0</v>
       </c>
       <c r="C113" t="s" s="7">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D113" t="s" s="7">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E113" t="s" s="7">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F113" t="s" s="7">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G113" s="7">
         <f>concatenate(c113,d113,e113,f113)</f>
       </c>
       <c r="H113" t="s" s="7">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I113" t="n" s="10">
         <v>2.4040876218E10</v>
@@ -7972,7 +9537,7 @@
         <v>41</v>
       </c>
       <c r="L113" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M113" t="s" s="10">
         <v>41</v>
@@ -7991,6 +9556,21 @@
       </c>
       <c r="Y113" t="n" s="10">
         <v>7.0</v>
+      </c>
+      <c r="Z113" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA113" s="10">
+        <f>(z113 * y113)</f>
+      </c>
+      <c r="AB113" s="10">
+        <f>(77700/30*y113)</f>
+      </c>
+      <c r="AC113" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD113" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="114">
@@ -8001,22 +9581,22 @@
         <v>199.0</v>
       </c>
       <c r="C114" t="s" s="10">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D114" t="s" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E114" t="s" s="10">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F114" t="s" s="10">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G114" s="10">
         <f>concatenate(c114,d114,e114,f114)</f>
       </c>
       <c r="H114" t="s" s="10">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I114" t="n" s="10">
         <v>2.4041596515E10</v>
@@ -8025,10 +9605,10 @@
         <v>41</v>
       </c>
       <c r="K114" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L114" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M114" t="s" s="10">
         <v>41</v>
@@ -8047,6 +9627,21 @@
       </c>
       <c r="Y114" t="n" s="10">
         <v>6.0</v>
+      </c>
+      <c r="Z114" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA114" s="10">
+        <f>(z114 * y114)</f>
+      </c>
+      <c r="AB114" s="10">
+        <f>(77700/30*y114)</f>
+      </c>
+      <c r="AC114" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD114" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="115">
@@ -8057,22 +9652,22 @@
         <v>313.0</v>
       </c>
       <c r="C115" t="s" s="10">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D115" t="s" s="10">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E115" t="s" s="10">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F115" t="s" s="10">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G115" s="10">
         <f>concatenate(c115,d115,e115,f115)</f>
       </c>
       <c r="H115" t="s" s="10">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I115" t="n" s="10">
         <v>2.4041022704E10</v>
@@ -8081,7 +9676,7 @@
         <v>41</v>
       </c>
       <c r="K115" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L115" t="s" s="10">
         <v>41</v>
@@ -8103,6 +9698,21 @@
       </c>
       <c r="Y115" t="n" s="10">
         <v>7.0</v>
+      </c>
+      <c r="Z115" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA115" s="10">
+        <f>(z115 * y115)</f>
+      </c>
+      <c r="AB115" s="10">
+        <f>(77700/30*y115)</f>
+      </c>
+      <c r="AC115" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD115" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="116">
@@ -8113,22 +9723,22 @@
         <v>325.0</v>
       </c>
       <c r="C116" t="s" s="10">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D116" t="s" s="10">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E116" t="s" s="10">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F116" t="s" s="10">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G116" s="10">
         <f>concatenate(c116,d116,e116,f116)</f>
       </c>
       <c r="H116" t="s" s="10">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I116" t="n" s="10">
         <v>2.4041023017E10</v>
@@ -8159,6 +9769,21 @@
       </c>
       <c r="Y116" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z116" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA116" s="10">
+        <f>(z116 * y116)</f>
+      </c>
+      <c r="AB116" s="10">
+        <f>(77700/30*y116)</f>
+      </c>
+      <c r="AC116" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD116" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="117">
@@ -8169,22 +9794,22 @@
         <v>329.0</v>
       </c>
       <c r="C117" t="s" s="10">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D117" t="s" s="10">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E117" t="s" s="10">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F117" t="s" s="10">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G117" s="10">
         <f>concatenate(c117,d117,e117,f117)</f>
       </c>
       <c r="H117" t="s" s="10">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I117" t="n" s="10">
         <v>2.4041022805E10</v>
@@ -8215,6 +9840,21 @@
       </c>
       <c r="Y117" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z117" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA117" s="10">
+        <f>(z117 * y117)</f>
+      </c>
+      <c r="AB117" s="10">
+        <f>(77700/30*y117)</f>
+      </c>
+      <c r="AC117" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD117" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="118">
@@ -8225,22 +9865,22 @@
         <v>545.0</v>
       </c>
       <c r="C118" t="s" s="10">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D118" t="s" s="10">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E118" t="s" s="10">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F118" t="s" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G118" s="10">
         <f>concatenate(c118,d118,e118,f118)</f>
       </c>
       <c r="H118" t="s" s="10">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I118" t="n" s="10">
         <v>2.4042181101E10</v>
@@ -8271,6 +9911,21 @@
       </c>
       <c r="Y118" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z118" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA118" s="10">
+        <f>(z118 * y118)</f>
+      </c>
+      <c r="AB118" s="10">
+        <f>(77700/30*y118)</f>
+      </c>
+      <c r="AC118" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD118" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="119">
@@ -8281,22 +9936,22 @@
         <v>557.0</v>
       </c>
       <c r="C119" t="s" s="10">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D119" t="s" s="10">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E119" t="s" s="10">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F119" t="s" s="10">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G119" s="10">
         <f>concatenate(c119,d119,e119,f119)</f>
       </c>
       <c r="H119" t="s" s="10">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I119" t="n" s="10">
         <v>2.4042489083E10</v>
@@ -8327,6 +9982,21 @@
       </c>
       <c r="Y119" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z119" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA119" s="10">
+        <f>(z119 * y119)</f>
+      </c>
+      <c r="AB119" s="10">
+        <f>(77700/30*y119)</f>
+      </c>
+      <c r="AC119" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD119" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="120">
@@ -8337,22 +10007,22 @@
         <v>706.0</v>
       </c>
       <c r="C120" t="s" s="10">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D120" t="s" s="10">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E120" t="s" s="10">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F120" t="s" s="10">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G120" s="10">
         <f>concatenate(c120,d120,e120,f120)</f>
       </c>
       <c r="H120" t="s" s="10">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I120" t="n" s="10">
         <v>2.4045679962E10</v>
@@ -8383,6 +10053,21 @@
       </c>
       <c r="Y120" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z120" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA120" s="10">
+        <f>(z120 * y120)</f>
+      </c>
+      <c r="AB120" s="10">
+        <f>(77700/30*y120)</f>
+      </c>
+      <c r="AC120" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD120" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="121">
@@ -8393,22 +10078,22 @@
         <v>331.0</v>
       </c>
       <c r="C121" t="s" s="7">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D121" t="s" s="7">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E121" t="s" s="7">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F121" t="s" s="7">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G121" s="7">
         <f>concatenate(c121,d121,e121,f121)</f>
       </c>
       <c r="H121" t="s" s="7">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I121" t="n" s="10">
         <v>2.4040875253E10</v>
@@ -8417,10 +10102,10 @@
         <v>41</v>
       </c>
       <c r="K121" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L121" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M121" t="s" s="10">
         <v>41</v>
@@ -8439,6 +10124,21 @@
       </c>
       <c r="Y121" t="n" s="10">
         <v>6.0</v>
+      </c>
+      <c r="Z121" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA121" s="10">
+        <f>(z121 * y121)</f>
+      </c>
+      <c r="AB121" s="10">
+        <f>(77700/30*y121)</f>
+      </c>
+      <c r="AC121" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD121" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="122">
@@ -8449,22 +10149,22 @@
         <v>317.0</v>
       </c>
       <c r="C122" t="s" s="10">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D122" t="s" s="10">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E122" t="s" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F122" t="s" s="10">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G122" s="10">
         <f>concatenate(c122,d122,e122,f122)</f>
       </c>
       <c r="H122" t="s" s="10">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I122" t="n" s="10">
         <v>2.4041022519E10</v>
@@ -8495,6 +10195,21 @@
       </c>
       <c r="Y122" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z122" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA122" s="10">
+        <f>(z122 * y122)</f>
+      </c>
+      <c r="AB122" s="10">
+        <f>(77700/30*y122)</f>
+      </c>
+      <c r="AC122" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD122" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="123">
@@ -8505,22 +10220,22 @@
         <v>330.0</v>
       </c>
       <c r="C123" t="s" s="10">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D123" t="s" s="10">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E123" t="s" s="10">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F123" t="s" s="10">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G123" s="10">
         <f>concatenate(c123,d123,e123,f123)</f>
       </c>
       <c r="H123" t="s" s="10">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I123" t="n" s="10">
         <v>2.4040874692E10</v>
@@ -8529,10 +10244,10 @@
         <v>41</v>
       </c>
       <c r="K123" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L123" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M123" t="s" s="10">
         <v>41</v>
@@ -8551,6 +10266,21 @@
       </c>
       <c r="Y123" t="n" s="10">
         <v>6.0</v>
+      </c>
+      <c r="Z123" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA123" s="10">
+        <f>(z123 * y123)</f>
+      </c>
+      <c r="AB123" s="10">
+        <f>(77700/30*y123)</f>
+      </c>
+      <c r="AC123" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD123" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="124">
@@ -8561,22 +10291,22 @@
         <v>459.0</v>
       </c>
       <c r="C124" t="s" s="10">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D124" t="s" s="10">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E124" t="s" s="10">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F124" t="s" s="10">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G124" s="10">
         <f>concatenate(c124,d124,e124,f124)</f>
       </c>
       <c r="H124" t="s" s="10">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I124" t="n" s="10">
         <v>2.4040875385E10</v>
@@ -8588,7 +10318,7 @@
         <v>41</v>
       </c>
       <c r="L124" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M124" t="s" s="10">
         <v>41</v>
@@ -8607,6 +10337,21 @@
       </c>
       <c r="Y124" t="n" s="10">
         <v>7.0</v>
+      </c>
+      <c r="Z124" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA124" s="10">
+        <f>(z124 * y124)</f>
+      </c>
+      <c r="AB124" s="10">
+        <f>(77700/30*y124)</f>
+      </c>
+      <c r="AC124" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD124" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="125">
@@ -8617,22 +10362,22 @@
         <v>592.0</v>
       </c>
       <c r="C125" t="s" s="10">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D125" t="s" s="10">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E125" t="s" s="10">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F125" t="s" s="10">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G125" s="10">
         <f>concatenate(c125,d125,e125,f125)</f>
       </c>
       <c r="H125" t="s" s="10">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I125" t="n" s="10">
         <v>2.4041862267E10</v>
@@ -8663,6 +10408,21 @@
       </c>
       <c r="Y125" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z125" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA125" s="10">
+        <f>(z125 * y125)</f>
+      </c>
+      <c r="AB125" s="10">
+        <f>(77700/30*y125)</f>
+      </c>
+      <c r="AC125" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD125" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="126">
@@ -8673,22 +10433,22 @@
         <v>602.0</v>
       </c>
       <c r="C126" t="s" s="10">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D126" t="s" s="10">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E126" t="s" s="10">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F126" t="s" s="10">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G126" s="10">
         <f>concatenate(c126,d126,e126,f126)</f>
       </c>
       <c r="H126" t="s" s="10">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I126" t="n" s="10">
         <v>2.4041418437E10</v>
@@ -8719,6 +10479,21 @@
       </c>
       <c r="Y126" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z126" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA126" s="10">
+        <f>(z126 * y126)</f>
+      </c>
+      <c r="AB126" s="10">
+        <f>(77700/30*y126)</f>
+      </c>
+      <c r="AC126" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD126" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="127">
@@ -8729,22 +10504,22 @@
         <v>605.0</v>
       </c>
       <c r="C127" t="s" s="10">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D127" t="s" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E127" t="s" s="10">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F127" t="s" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G127" s="10">
         <f>concatenate(c127,d127,e127,f127)</f>
       </c>
       <c r="H127" t="s" s="10">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I127" t="n" s="10">
         <v>2.4043531716E10</v>
@@ -8775,6 +10550,21 @@
       </c>
       <c r="Y127" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z127" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA127" s="10">
+        <f>(z127 * y127)</f>
+      </c>
+      <c r="AB127" s="10">
+        <f>(77700/30*y127)</f>
+      </c>
+      <c r="AC127" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD127" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="128">
@@ -8785,22 +10575,22 @@
         <v>740.0</v>
       </c>
       <c r="C128" t="s" s="10">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D128" t="s" s="10">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E128" t="s" s="10">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F128" t="s" s="10">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G128" s="10">
         <f>concatenate(c128,d128,e128,f128)</f>
       </c>
       <c r="H128" t="s" s="10">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I128" t="n" s="10">
         <v>2.4046415813E10</v>
@@ -8831,6 +10621,21 @@
       </c>
       <c r="Y128" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z128" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA128" s="10">
+        <f>(z128 * y128)</f>
+      </c>
+      <c r="AB128" s="10">
+        <f>(77700/30*y128)</f>
+      </c>
+      <c r="AC128" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD128" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="129">
@@ -8841,22 +10646,22 @@
         <v>755.0</v>
       </c>
       <c r="C129" t="s" s="10">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D129" t="s" s="10">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E129" t="s" s="10">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F129" t="s" s="10">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G129" s="10">
         <f>concatenate(c129,d129,e129,f129)</f>
       </c>
       <c r="H129" t="s" s="10">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I129" t="n" s="10">
         <v>2.4046845243E10</v>
@@ -8887,6 +10692,21 @@
       </c>
       <c r="Y129" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z129" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA129" s="10">
+        <f>(z129 * y129)</f>
+      </c>
+      <c r="AB129" s="10">
+        <f>(77700/30*y129)</f>
+      </c>
+      <c r="AC129" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD129" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="130">
@@ -8897,22 +10717,22 @@
         <v>-7.0</v>
       </c>
       <c r="C130" t="s" s="7">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D130" t="s" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E130" t="s" s="7">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F130" t="s" s="7">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G130" s="7">
         <f>concatenate(c130,d130,e130,f130)</f>
       </c>
       <c r="H130" t="s" s="7">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I130" t="n" s="10">
         <v>2.4040877235E10</v>
@@ -8943,6 +10763,21 @@
       </c>
       <c r="Y130" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z130" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA130" s="10">
+        <f>(z130 * y130)</f>
+      </c>
+      <c r="AB130" s="10">
+        <f>(77700/30*y130)</f>
+      </c>
+      <c r="AC130" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD130" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="131">
@@ -8953,22 +10788,22 @@
         <v>32.0</v>
       </c>
       <c r="C131" t="s" s="10">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D131" t="s" s="10">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E131" t="s" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F131" t="s" s="10">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G131" s="10">
         <f>concatenate(c131,d131,e131,f131)</f>
       </c>
       <c r="H131" t="s" s="10">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I131" t="n" s="10">
         <v>2.4041266845E10</v>
@@ -8980,7 +10815,7 @@
         <v>41</v>
       </c>
       <c r="L131" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M131" t="s" s="10">
         <v>41</v>
@@ -8999,6 +10834,21 @@
       </c>
       <c r="Y131" t="n" s="10">
         <v>7.0</v>
+      </c>
+      <c r="Z131" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA131" s="10">
+        <f>(z131 * y131)</f>
+      </c>
+      <c r="AB131" s="10">
+        <f>(77700/30*y131)</f>
+      </c>
+      <c r="AC131" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD131" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="132">
@@ -9009,22 +10859,22 @@
         <v>48.0</v>
       </c>
       <c r="C132" t="s" s="10">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D132" t="s" s="10">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E132" t="s" s="10">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F132" t="s" s="10">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G132" s="10">
         <f>concatenate(c132,d132,e132,f132)</f>
       </c>
       <c r="H132" t="s" s="10">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I132" t="n" s="10">
         <v>2.4040879161E10</v>
@@ -9055,6 +10905,21 @@
       </c>
       <c r="Y132" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z132" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA132" s="10">
+        <f>(z132 * y132)</f>
+      </c>
+      <c r="AB132" s="10">
+        <f>(77700/30*y132)</f>
+      </c>
+      <c r="AC132" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD132" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="133">
@@ -9065,22 +10930,22 @@
         <v>51.0</v>
       </c>
       <c r="C133" t="s" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D133" t="s" s="10">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E133" t="s" s="10">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F133" t="s" s="10">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G133" s="10">
         <f>concatenate(c133,d133,e133,f133)</f>
       </c>
       <c r="H133" t="s" s="10">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I133" t="n" s="10">
         <v>2.4040993795E10</v>
@@ -9111,6 +10976,21 @@
       </c>
       <c r="Y133" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z133" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA133" s="10">
+        <f>(z133 * y133)</f>
+      </c>
+      <c r="AB133" s="10">
+        <f>(77700/30*y133)</f>
+      </c>
+      <c r="AC133" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD133" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="134">
@@ -9121,22 +11001,22 @@
         <v>73.0</v>
       </c>
       <c r="C134" t="s" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D134" t="s" s="10">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E134" t="s" s="10">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F134" t="s" s="10">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G134" s="10">
         <f>concatenate(c134,d134,e134,f134)</f>
       </c>
       <c r="H134" t="s" s="10">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I134" t="n" s="10">
         <v>2.4040874539E10</v>
@@ -9145,10 +11025,10 @@
         <v>41</v>
       </c>
       <c r="K134" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L134" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M134" t="s" s="10">
         <v>41</v>
@@ -9167,6 +11047,21 @@
       </c>
       <c r="Y134" t="n" s="10">
         <v>6.0</v>
+      </c>
+      <c r="Z134" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA134" s="10">
+        <f>(z134 * y134)</f>
+      </c>
+      <c r="AB134" s="10">
+        <f>(77700/30*y134)</f>
+      </c>
+      <c r="AC134" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD134" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="135">
@@ -9177,22 +11072,22 @@
         <v>218.0</v>
       </c>
       <c r="C135" t="s" s="10">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D135" t="s" s="10">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E135" t="s" s="10">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F135" t="s" s="10">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G135" s="10">
         <f>concatenate(c135,d135,e135,f135)</f>
       </c>
       <c r="H135" t="s" s="10">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I135" t="n" s="10">
         <v>2.4040933832E10</v>
@@ -9201,7 +11096,7 @@
         <v>41</v>
       </c>
       <c r="K135" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L135" t="s" s="10">
         <v>41</v>
@@ -9223,6 +11118,21 @@
       </c>
       <c r="Y135" t="n" s="10">
         <v>7.0</v>
+      </c>
+      <c r="Z135" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA135" s="10">
+        <f>(z135 * y135)</f>
+      </c>
+      <c r="AB135" s="10">
+        <f>(77700/30*y135)</f>
+      </c>
+      <c r="AC135" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD135" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="136">
@@ -9233,22 +11143,22 @@
         <v>231.0</v>
       </c>
       <c r="C136" t="s" s="10">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D136" t="s" s="10">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E136" t="s" s="10">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F136" t="s" s="10">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G136" s="10">
         <f>concatenate(c136,d136,e136,f136)</f>
       </c>
       <c r="H136" t="s" s="10">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I136" t="n" s="10">
         <v>2.4041021958E10</v>
@@ -9257,7 +11167,7 @@
         <v>41</v>
       </c>
       <c r="K136" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L136" t="s" s="10">
         <v>41</v>
@@ -9279,6 +11189,21 @@
       </c>
       <c r="Y136" t="n" s="10">
         <v>7.0</v>
+      </c>
+      <c r="Z136" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA136" s="10">
+        <f>(z136 * y136)</f>
+      </c>
+      <c r="AB136" s="10">
+        <f>(77700/30*y136)</f>
+      </c>
+      <c r="AC136" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD136" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="137">
@@ -9289,22 +11214,22 @@
         <v>288.0</v>
       </c>
       <c r="C137" t="s" s="10">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D137" t="s" s="10">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E137" t="s" s="10">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F137" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G137" s="10">
         <f>concatenate(c137,d137,e137,f137)</f>
       </c>
       <c r="H137" t="s" s="10">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I137" t="n" s="10">
         <v>2.4041265208E10</v>
@@ -9335,6 +11260,21 @@
       </c>
       <c r="Y137" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z137" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA137" s="10">
+        <f>(z137 * y137)</f>
+      </c>
+      <c r="AB137" s="10">
+        <f>(77700/30*y137)</f>
+      </c>
+      <c r="AC137" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD137" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="138">
@@ -9345,22 +11285,22 @@
         <v>293.0</v>
       </c>
       <c r="C138" t="s" s="10">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D138" t="s" s="10">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E138" t="s" s="10">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F138" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G138" s="10">
         <f>concatenate(c138,d138,e138,f138)</f>
       </c>
       <c r="H138" t="s" s="10">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="I138" t="n" s="10">
         <v>2.404102418E10</v>
@@ -9391,6 +11331,21 @@
       </c>
       <c r="Y138" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z138" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA138" s="10">
+        <f>(z138 * y138)</f>
+      </c>
+      <c r="AB138" s="10">
+        <f>(77700/30*y138)</f>
+      </c>
+      <c r="AC138" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD138" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="139">
@@ -9401,22 +11356,22 @@
         <v>423.0</v>
       </c>
       <c r="C139" t="s" s="10">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D139" t="s" s="10">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E139" t="s" s="10">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F139" t="s" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G139" s="10">
         <f>concatenate(c139,d139,e139,f139)</f>
       </c>
       <c r="H139" t="s" s="10">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I139" t="n" s="10">
         <v>2.4040874166E10</v>
@@ -9447,6 +11402,21 @@
       </c>
       <c r="Y139" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z139" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA139" s="10">
+        <f>(z139 * y139)</f>
+      </c>
+      <c r="AB139" s="10">
+        <f>(77700/30*y139)</f>
+      </c>
+      <c r="AC139" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD139" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="140">
@@ -9457,22 +11427,22 @@
         <v>514.0</v>
       </c>
       <c r="C140" t="s" s="10">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D140" t="s" s="10">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E140" t="s" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F140" t="s" s="10">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G140" s="10">
         <f>concatenate(c140,d140,e140,f140)</f>
       </c>
       <c r="H140" t="s" s="10">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I140" t="n" s="10">
         <v>2.4041863974E10</v>
@@ -9503,6 +11473,21 @@
       </c>
       <c r="Y140" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z140" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA140" s="10">
+        <f>(z140 * y140)</f>
+      </c>
+      <c r="AB140" s="10">
+        <f>(77700/30*y140)</f>
+      </c>
+      <c r="AC140" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD140" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="141">
@@ -9513,22 +11498,22 @@
         <v>516.0</v>
       </c>
       <c r="C141" t="s" s="10">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D141" t="s" s="10">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E141" t="s" s="10">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F141" t="s" s="10">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G141" s="10">
         <f>concatenate(c141,d141,e141,f141)</f>
       </c>
       <c r="H141" t="s" s="10">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="I141" t="n" s="10">
         <v>2.4041860177E10</v>
@@ -9559,6 +11544,21 @@
       </c>
       <c r="Y141" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z141" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA141" s="10">
+        <f>(z141 * y141)</f>
+      </c>
+      <c r="AB141" s="10">
+        <f>(77700/30*y141)</f>
+      </c>
+      <c r="AC141" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD141" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="142">
@@ -9569,22 +11569,22 @@
         <v>574.0</v>
       </c>
       <c r="C142" t="s" s="10">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D142" t="s" s="10">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E142" t="s" s="10">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F142" t="s" s="10">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G142" s="10">
         <f>concatenate(c142,d142,e142,f142)</f>
       </c>
       <c r="H142" t="s" s="10">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I142" t="n" s="10">
         <v>2.4042906665E10</v>
@@ -9615,6 +11615,21 @@
       </c>
       <c r="Y142" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z142" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA142" s="10">
+        <f>(z142 * y142)</f>
+      </c>
+      <c r="AB142" s="10">
+        <f>(77700/30*y142)</f>
+      </c>
+      <c r="AC142" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD142" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="143">
@@ -9625,22 +11640,22 @@
         <v>598.0</v>
       </c>
       <c r="C143" t="s" s="10">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D143" t="s" s="10">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E143" t="s" s="10">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F143" t="s" s="10">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G143" s="10">
         <f>concatenate(c143,d143,e143,f143)</f>
       </c>
       <c r="H143" t="s" s="10">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I143" t="n" s="10">
         <v>2.4043159664E10</v>
@@ -9671,6 +11686,21 @@
       </c>
       <c r="Y143" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z143" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA143" s="10">
+        <f>(z143 * y143)</f>
+      </c>
+      <c r="AB143" s="10">
+        <f>(77700/30*y143)</f>
+      </c>
+      <c r="AC143" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD143" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="144">
@@ -9681,22 +11711,22 @@
         <v>626.0</v>
       </c>
       <c r="C144" t="s" s="10">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D144" t="s" s="10">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E144" t="s" s="10">
         <v>38</v>
       </c>
       <c r="F144" t="s" s="10">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G144" s="10">
         <f>concatenate(c144,d144,e144,f144)</f>
       </c>
       <c r="H144" t="s" s="10">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I144" t="n" s="10">
         <v>2.4044488567E10</v>
@@ -9727,6 +11757,21 @@
       </c>
       <c r="Y144" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z144" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA144" s="10">
+        <f>(z144 * y144)</f>
+      </c>
+      <c r="AB144" s="10">
+        <f>(77700/30*y144)</f>
+      </c>
+      <c r="AC144" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD144" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="145">
@@ -9737,22 +11782,22 @@
         <v>791.0</v>
       </c>
       <c r="C145" t="s" s="10">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D145" t="s" s="10">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E145" t="s" s="10">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F145" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G145" s="10">
         <f>concatenate(c145,d145,e145,f145)</f>
       </c>
       <c r="H145" t="s" s="10">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="I145" t="n" s="10">
         <v>2.4051011338E10</v>
@@ -9783,6 +11828,21 @@
       </c>
       <c r="Y145" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z145" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA145" s="10">
+        <f>(z145 * y145)</f>
+      </c>
+      <c r="AB145" s="10">
+        <f>(77700/30*y145)</f>
+      </c>
+      <c r="AC145" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD145" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="146">
@@ -9793,13 +11853,13 @@
         <v>920.0</v>
       </c>
       <c r="C146" t="s" s="10">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D146" t="s" s="10">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E146" t="s" s="10">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F146" t="s" s="10">
         <v>39</v>
@@ -9808,7 +11868,7 @@
         <f>concatenate(c146,d146,e146,f146)</f>
       </c>
       <c r="H146" t="s" s="10">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I146" t="n" s="10">
         <v>2.4054525881E10</v>
@@ -9839,6 +11899,21 @@
       </c>
       <c r="Y146" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z146" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA146" s="10">
+        <f>(z146 * y146)</f>
+      </c>
+      <c r="AB146" s="10">
+        <f>(77700/30*y146)</f>
+      </c>
+      <c r="AC146" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD146" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="147">
@@ -9849,22 +11924,22 @@
         <v>945.0</v>
       </c>
       <c r="C147" t="s" s="10">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D147" t="s" s="10">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E147" t="s" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F147" t="s" s="10">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G147" s="10">
         <f>concatenate(c147,d147,e147,f147)</f>
       </c>
       <c r="H147" t="s" s="10">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="I147" t="n" s="10">
         <v>2.4054861208E10</v>
@@ -9895,6 +11970,21 @@
       </c>
       <c r="Y147" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z147" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA147" s="10">
+        <f>(z147 * y147)</f>
+      </c>
+      <c r="AB147" s="10">
+        <f>(77700/30*y147)</f>
+      </c>
+      <c r="AC147" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD147" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="148">
@@ -9905,22 +11995,22 @@
         <v>970.0</v>
       </c>
       <c r="C148" t="s" s="10">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D148" t="s" s="10">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E148" t="s" s="10">
         <v>38</v>
       </c>
       <c r="F148" t="s" s="10">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G148" s="10">
         <f>concatenate(c148,d148,e148,f148)</f>
       </c>
       <c r="H148" t="s" s="10">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="I148" t="n" s="10">
         <v>2.4046162962E10</v>
@@ -9951,6 +12041,21 @@
       </c>
       <c r="Y148" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z148" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA148" s="10">
+        <f>(z148 * y148)</f>
+      </c>
+      <c r="AB148" s="10">
+        <f>(77700/30*y148)</f>
+      </c>
+      <c r="AC148" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD148" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="149">
@@ -9961,22 +12066,22 @@
         <v>1009.0</v>
       </c>
       <c r="C149" t="s" s="10">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D149" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E149" t="s" s="10">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F149" t="s" s="10">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G149" s="10">
         <f>concatenate(c149,d149,e149,f149)</f>
       </c>
       <c r="H149" t="s" s="10">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="I149" t="n" s="10">
         <v>2.4055737795E10</v>
@@ -10007,6 +12112,21 @@
       </c>
       <c r="Y149" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z149" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA149" s="10">
+        <f>(z149 * y149)</f>
+      </c>
+      <c r="AB149" s="10">
+        <f>(77700/30*y149)</f>
+      </c>
+      <c r="AC149" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD149" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="150">
@@ -10017,22 +12137,22 @@
         <v>1065.0</v>
       </c>
       <c r="C150" t="s" s="10">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D150" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E150" t="s" s="10">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F150" t="s" s="10">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G150" s="10">
         <f>concatenate(c150,d150,e150,f150)</f>
       </c>
       <c r="H150" t="s" s="10">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I150" t="n" s="10">
         <v>2.4041265253E10</v>
@@ -10063,6 +12183,21 @@
       </c>
       <c r="Y150" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z150" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA150" s="10">
+        <f>(z150 * y150)</f>
+      </c>
+      <c r="AB150" s="10">
+        <f>(77700/30*y150)</f>
+      </c>
+      <c r="AC150" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD150" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="151">
@@ -10073,22 +12208,22 @@
         <v>1103.0</v>
       </c>
       <c r="C151" t="s" s="10">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D151" t="s" s="10">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E151" t="s" s="10">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F151" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G151" s="10">
         <f>concatenate(c151,d151,e151,f151)</f>
       </c>
       <c r="H151" t="s" s="10">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="I151" t="n" s="10">
         <v>2.4044829416E10</v>
@@ -10119,6 +12254,21 @@
       </c>
       <c r="Y151" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z151" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA151" s="10">
+        <f>(z151 * y151)</f>
+      </c>
+      <c r="AB151" s="10">
+        <f>(77700/30*y151)</f>
+      </c>
+      <c r="AC151" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD151" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="152">
@@ -10129,22 +12279,22 @@
         <v>1114.0</v>
       </c>
       <c r="C152" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D152" t="s" s="10">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E152" t="s" s="10">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F152" t="s" s="10">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G152" s="10">
         <f>concatenate(c152,d152,e152,f152)</f>
       </c>
       <c r="H152" t="s" s="10">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="I152" t="n" s="10">
         <v>2.4059089816E10</v>
@@ -10175,6 +12325,21 @@
       </c>
       <c r="Y152" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z152" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA152" s="10">
+        <f>(z152 * y152)</f>
+      </c>
+      <c r="AB152" s="10">
+        <f>(77700/30*y152)</f>
+      </c>
+      <c r="AC152" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD152" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="153">
@@ -10185,22 +12350,22 @@
         <v>1115.0</v>
       </c>
       <c r="C153" t="s" s="10">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D153" t="s" s="10">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E153" t="s" s="10">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F153" t="s" s="10">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G153" s="10">
         <f>concatenate(c153,d153,e153,f153)</f>
       </c>
       <c r="H153" t="s" s="10">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="I153" t="n" s="10">
         <v>2.4059055899E10</v>
@@ -10231,6 +12396,21 @@
       </c>
       <c r="Y153" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z153" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA153" s="10">
+        <f>(z153 * y153)</f>
+      </c>
+      <c r="AB153" s="10">
+        <f>(77700/30*y153)</f>
+      </c>
+      <c r="AC153" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD153" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="154">
@@ -10241,13 +12421,13 @@
         <v>1117.0</v>
       </c>
       <c r="C154" t="s" s="10">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D154" t="s" s="10">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E154" t="s" s="10">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F154" t="s" s="10">
         <v>39</v>
@@ -10256,7 +12436,7 @@
         <f>concatenate(c154,d154,e154,f154)</f>
       </c>
       <c r="H154" t="s" s="10">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I154" t="n" s="10">
         <v>2.4059238478E10</v>
@@ -10287,6 +12467,21 @@
       </c>
       <c r="Y154" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z154" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA154" s="10">
+        <f>(z154 * y154)</f>
+      </c>
+      <c r="AB154" s="10">
+        <f>(77700/30*y154)</f>
+      </c>
+      <c r="AC154" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD154" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="155">
@@ -10297,22 +12492,22 @@
         <v>1118.0</v>
       </c>
       <c r="C155" t="s" s="10">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D155" t="s" s="10">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E155" t="s" s="10">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F155" t="s" s="10">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G155" s="10">
         <f>concatenate(c155,d155,e155,f155)</f>
       </c>
       <c r="H155" t="s" s="10">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="I155" t="n" s="10">
         <v>2.4054858163E10</v>
@@ -10343,6 +12538,21 @@
       </c>
       <c r="Y155" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z155" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA155" s="10">
+        <f>(z155 * y155)</f>
+      </c>
+      <c r="AB155" s="10">
+        <f>(77700/30*y155)</f>
+      </c>
+      <c r="AC155" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD155" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="156">
@@ -10353,22 +12563,22 @@
         <v>1120.0</v>
       </c>
       <c r="C156" t="s" s="10">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D156" t="s" s="10">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E156" t="s" s="10">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F156" t="s" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G156" s="10">
         <f>concatenate(c156,d156,e156,f156)</f>
       </c>
       <c r="H156" t="s" s="10">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="I156" t="n" s="10">
         <v>2.4053690977E10</v>
@@ -10399,6 +12609,21 @@
       </c>
       <c r="Y156" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z156" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA156" s="10">
+        <f>(z156 * y156)</f>
+      </c>
+      <c r="AB156" s="10">
+        <f>(77700/30*y156)</f>
+      </c>
+      <c r="AC156" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD156" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="157">
@@ -10409,22 +12634,22 @@
         <v>1121.0</v>
       </c>
       <c r="C157" t="s" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D157" t="s" s="10">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E157" t="s" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F157" t="s" s="10">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G157" s="10">
         <f>concatenate(c157,d157,e157,f157)</f>
       </c>
       <c r="H157" t="s" s="10">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="I157" t="n" s="10">
         <v>2.4040876542E10</v>
@@ -10455,6 +12680,21 @@
       </c>
       <c r="Y157" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z157" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA157" s="10">
+        <f>(z157 * y157)</f>
+      </c>
+      <c r="AB157" s="10">
+        <f>(77700/30*y157)</f>
+      </c>
+      <c r="AC157" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD157" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="158">
@@ -10465,22 +12705,22 @@
         <v>1122.0</v>
       </c>
       <c r="C158" t="s" s="10">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D158" t="s" s="10">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E158" t="s" s="10">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F158" t="s" s="10">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G158" s="10">
         <f>concatenate(c158,d158,e158,f158)</f>
       </c>
       <c r="H158" t="s" s="10">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I158" t="n" s="10">
         <v>2.4041266908E10</v>
@@ -10511,6 +12751,21 @@
       </c>
       <c r="Y158" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z158" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA158" s="10">
+        <f>(z158 * y158)</f>
+      </c>
+      <c r="AB158" s="10">
+        <f>(77700/30*y158)</f>
+      </c>
+      <c r="AC158" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD158" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="159">
@@ -10521,22 +12776,22 @@
         <v>1123.0</v>
       </c>
       <c r="C159" t="s" s="10">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D159" t="s" s="10">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E159" t="s" s="10">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F159" t="s" s="10">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G159" s="10">
         <f>concatenate(c159,d159,e159,f159)</f>
       </c>
       <c r="H159" t="s" s="10">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I159" t="n" s="10">
         <v>2.4059506171E10</v>
@@ -10545,7 +12800,7 @@
         <v>41</v>
       </c>
       <c r="K159" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L159" t="s" s="10">
         <v>41</v>
@@ -10567,6 +12822,21 @@
       </c>
       <c r="Y159" t="n" s="10">
         <v>7.0</v>
+      </c>
+      <c r="Z159" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA159" s="10">
+        <f>(z159 * y159)</f>
+      </c>
+      <c r="AB159" s="10">
+        <f>(77700/30*y159)</f>
+      </c>
+      <c r="AC159" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD159" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="160">
@@ -10577,22 +12847,22 @@
         <v>1124.0</v>
       </c>
       <c r="C160" t="s" s="10">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D160" t="s" s="10">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E160" t="s" s="10">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F160" t="s" s="10">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G160" s="10">
         <f>concatenate(c160,d160,e160,f160)</f>
       </c>
       <c r="H160" t="s" s="10">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="I160" t="n" s="10">
         <v>2.4042062192E10</v>
@@ -10601,7 +12871,7 @@
         <v>41</v>
       </c>
       <c r="K160" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L160" t="s" s="10">
         <v>41</v>
@@ -10623,6 +12893,21 @@
       </c>
       <c r="Y160" t="n" s="10">
         <v>7.0</v>
+      </c>
+      <c r="Z160" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA160" s="10">
+        <f>(z160 * y160)</f>
+      </c>
+      <c r="AB160" s="10">
+        <f>(77700/30*y160)</f>
+      </c>
+      <c r="AC160" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD160" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="161">
@@ -10633,22 +12918,22 @@
         <v>1127.0</v>
       </c>
       <c r="C161" t="s" s="10">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D161" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E161" t="s" s="10">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F161" t="s" s="10">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G161" s="10">
         <f>concatenate(c161,d161,e161,f161)</f>
       </c>
       <c r="H161" t="s" s="10">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="I161" t="n" s="10">
         <v>2.4060369644E10</v>
@@ -10679,6 +12964,21 @@
       </c>
       <c r="Y161" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z161" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA161" s="10">
+        <f>(z161 * y161)</f>
+      </c>
+      <c r="AB161" s="10">
+        <f>(77700/30*y161)</f>
+      </c>
+      <c r="AC161" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD161" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="162">
@@ -10689,22 +12989,22 @@
         <v>1133.0</v>
       </c>
       <c r="C162" t="s" s="10">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D162" t="s" s="10">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E162" t="s" s="10">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F162" t="s" s="10">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G162" s="10">
         <f>concatenate(c162,d162,e162,f162)</f>
       </c>
       <c r="H162" t="s" s="10">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I162" t="n" s="10">
         <v>2.4060368913E10</v>
@@ -10735,6 +13035,21 @@
       </c>
       <c r="Y162" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z162" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA162" s="10">
+        <f>(z162 * y162)</f>
+      </c>
+      <c r="AB162" s="10">
+        <f>(77700/30*y162)</f>
+      </c>
+      <c r="AC162" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD162" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="163">
@@ -10745,22 +13060,22 @@
         <v>1136.0</v>
       </c>
       <c r="C163" t="s" s="10">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D163" t="s" s="10">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E163" t="s" s="10">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F163" t="s" s="10">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G163" s="10">
         <f>concatenate(c163,d163,e163,f163)</f>
       </c>
       <c r="H163" t="s" s="10">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I163" t="n" s="10">
         <v>2.4061141724E10</v>
@@ -10791,6 +13106,21 @@
       </c>
       <c r="Y163" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z163" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA163" s="10">
+        <f>(z163 * y163)</f>
+      </c>
+      <c r="AB163" s="10">
+        <f>(77700/30*y163)</f>
+      </c>
+      <c r="AC163" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD163" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="164">
@@ -10801,22 +13131,22 @@
         <v>1137.0</v>
       </c>
       <c r="C164" t="s" s="10">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D164" t="s" s="10">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E164" t="s" s="10">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F164" t="s" s="10">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G164" s="10">
         <f>concatenate(c164,d164,e164,f164)</f>
       </c>
       <c r="H164" t="s" s="10">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="I164" t="n" s="10">
         <v>0.0</v>
@@ -10847,6 +13177,21 @@
       </c>
       <c r="Y164" t="n" s="10">
         <v>8.0</v>
+      </c>
+      <c r="Z164" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA164" s="10">
+        <f>(z164 * y164)</f>
+      </c>
+      <c r="AB164" s="10">
+        <f>(77700/30*y164)</f>
+      </c>
+      <c r="AC164" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD164" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
   </sheetData>

--- a/personal/quincena.xlsx
+++ b/personal/quincena.xlsx
@@ -1585,9 +1585,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #.##0_);_(* (#.##0);_(* -??_);_(@_)"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11.0"/>
@@ -1867,7 +1865,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
@@ -1884,42 +1882,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.86328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.5546875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="15.6953125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.984375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="14.52734375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="12.7265625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="17.9296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="24.04296875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="10.6796875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="10.6796875" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="10.6796875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="10.6796875" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="10.6796875" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="10.6796875" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="10.6796875" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="10.6796875" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="10.6796875" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="11.953125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="11.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="11.953125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="11.953125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="11.953125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="11.953125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="10.6796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="11.1875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="10.1640625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="13.77734375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="16.17578125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="4.5078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="17.625" customWidth="true" bestFit="true"/>
-    <col min="32" max="32" width="14.0703125" customWidth="true" bestFit="true"/>
-    <col min="33" max="33" width="16.54296875" customWidth="true" bestFit="true"/>
-    <col min="34" max="34" width="22.49609375" customWidth="true" bestFit="true"/>
-    <col min="35" max="35" width="8.42578125" customWidth="true" bestFit="true"/>
-    <col min="36" max="36" width="23.515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="4.78125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.5" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="15.79296875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.8359375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.89453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.0078125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.51171875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="2.45703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="3.37890625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="2.45703125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="2.9765625" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="2.9765625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="2.37890625" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="2.45703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="2.609375" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="2.44140625" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="3.56640625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="3.56640625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="3.56640625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="3.56640625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="3.56640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="3.56640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="5.37890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="10.41796875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="9.00390625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="12.26953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="3.71875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="15.7890625" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="12.72265625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="14.203125" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="19.77734375" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" width="7.6796875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="21.5234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">

--- a/personal/quincena.xlsx
+++ b/personal/quincena.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="periodo 2016-09-01 a 2016-09-15" r:id="rId3" sheetId="1"/>
-    <sheet name="2016-09-08" r:id="rId4" sheetId="2"/>
+    <sheet name="2016-09-14" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3165" uniqueCount="523">
   <si>
     <t>Convecciones</t>
   </si>
@@ -183,268 +183,271 @@
     <t>BURBANO</t>
   </si>
   <si>
+    <t>\images\1.jpg</t>
+  </si>
+  <si>
+    <t>GERMAN</t>
+  </si>
+  <si>
+    <t>OSWALDO</t>
+  </si>
+  <si>
+    <t>12.754.736</t>
+  </si>
+  <si>
+    <t>MENESES</t>
+  </si>
+  <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>JAIRO</t>
+  </si>
+  <si>
+    <t>87.060.664</t>
+  </si>
+  <si>
+    <t>BOTINA</t>
+  </si>
+  <si>
+    <t>NUPAN</t>
+  </si>
+  <si>
+    <t>ROSA</t>
+  </si>
+  <si>
+    <t>ELVIRA</t>
+  </si>
+  <si>
+    <t>59.836.908</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>ERASO</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>CONCEPCION</t>
+  </si>
+  <si>
+    <t>27.204.225</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>GOMAJOA</t>
+  </si>
+  <si>
+    <t>NATIVEL</t>
+  </si>
+  <si>
+    <t>98.392.255</t>
+  </si>
+  <si>
+    <t>BENAVIDES</t>
+  </si>
+  <si>
+    <t>FLOREZ</t>
+  </si>
+  <si>
+    <t>EUGENIO</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>87.067.092</t>
+  </si>
+  <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>NARVAEZ</t>
+  </si>
+  <si>
+    <t>EDMUNDO</t>
+  </si>
+  <si>
+    <t>5.207.330</t>
+  </si>
+  <si>
+    <t>BUESAQUILLO</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>HUVEYMAR</t>
+  </si>
+  <si>
+    <t>1.085.275.131</t>
+  </si>
+  <si>
+    <t>TUTISTAR</t>
+  </si>
+  <si>
+    <t>ERLINTO</t>
+  </si>
+  <si>
+    <t>5.203.541</t>
+  </si>
+  <si>
+    <t>LEANDRO</t>
+  </si>
+  <si>
+    <t>MARINO</t>
+  </si>
+  <si>
+    <t>1.085.311.542</t>
+  </si>
+  <si>
+    <t>YORDIN</t>
+  </si>
+  <si>
+    <t>SEGUNDO</t>
+  </si>
+  <si>
+    <t>1.085.309.640</t>
+  </si>
+  <si>
+    <t>NICANOR</t>
+  </si>
+  <si>
+    <t>12.995.874</t>
+  </si>
+  <si>
+    <t>TIMARAN</t>
+  </si>
+  <si>
+    <t>WILMAR</t>
+  </si>
+  <si>
+    <t>ALEXANDER</t>
+  </si>
+  <si>
+    <t>1.084.224.396</t>
+  </si>
+  <si>
+    <t>CORTES</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>JHONY</t>
+  </si>
+  <si>
+    <t>SANDRO</t>
+  </si>
+  <si>
+    <t>98.385.039</t>
+  </si>
+  <si>
+    <t>CORTEZ</t>
+  </si>
+  <si>
+    <t>CUASPA</t>
+  </si>
+  <si>
+    <t>JOHNNY</t>
+  </si>
+  <si>
+    <t>STEVEN</t>
+  </si>
+  <si>
+    <t>1.085.319.345</t>
+  </si>
+  <si>
+    <t>ROSERO</t>
+  </si>
+  <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>1.085.271.056</t>
+  </si>
+  <si>
+    <t>CRIOLLO</t>
+  </si>
+  <si>
+    <t>JUAN</t>
+  </si>
+  <si>
+    <t>98.381.799</t>
+  </si>
+  <si>
+    <t>CABRERA</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>KENEDY</t>
+  </si>
+  <si>
+    <t>87.303.908</t>
+  </si>
+  <si>
+    <t>DELGADO</t>
+  </si>
+  <si>
+    <t>MANCISOY</t>
+  </si>
+  <si>
+    <t>MEDARDO</t>
+  </si>
+  <si>
+    <t>12.750.317</t>
+  </si>
+  <si>
+    <t>RIASCOS</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>HERMES</t>
+  </si>
+  <si>
+    <t>12.983.892</t>
+  </si>
+  <si>
+    <t>SAAVEDRA</t>
+  </si>
+  <si>
+    <t>CLAUDIO</t>
+  </si>
+  <si>
+    <t>ROBERTO</t>
+  </si>
+  <si>
+    <t>1.085.247.858</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>FRANCO</t>
+  </si>
+  <si>
+    <t>IGNACIO</t>
+  </si>
+  <si>
+    <t>12.964.012</t>
+  </si>
+  <si>
     <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>GERMAN</t>
-  </si>
-  <si>
-    <t>OSWALDO</t>
-  </si>
-  <si>
-    <t>12.754.736</t>
-  </si>
-  <si>
-    <t>MENESES</t>
-  </si>
-  <si>
-    <t>MUÑOZ</t>
-  </si>
-  <si>
-    <t>MARCELO</t>
-  </si>
-  <si>
-    <t>JAIRO</t>
-  </si>
-  <si>
-    <t>87.060.664</t>
-  </si>
-  <si>
-    <t>BOTINA</t>
-  </si>
-  <si>
-    <t>NUPAN</t>
-  </si>
-  <si>
-    <t>ROSA</t>
-  </si>
-  <si>
-    <t>ELVIRA</t>
-  </si>
-  <si>
-    <t>59.836.908</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>ERASO</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>CONCEPCION</t>
-  </si>
-  <si>
-    <t>27.204.225</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>GOMAJOA</t>
-  </si>
-  <si>
-    <t>NATIVEL</t>
-  </si>
-  <si>
-    <t>98.392.255</t>
-  </si>
-  <si>
-    <t>BENAVIDES</t>
-  </si>
-  <si>
-    <t>FLOREZ</t>
-  </si>
-  <si>
-    <t>EUGENIO</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>87.067.092</t>
-  </si>
-  <si>
-    <t>ANDRADE</t>
-  </si>
-  <si>
-    <t>NARVAEZ</t>
-  </si>
-  <si>
-    <t>EDMUNDO</t>
-  </si>
-  <si>
-    <t>5.207.330</t>
-  </si>
-  <si>
-    <t>BUESAQUILLO</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
-    <t>HUVEYMAR</t>
-  </si>
-  <si>
-    <t>1.085.275.131</t>
-  </si>
-  <si>
-    <t>TUTISTAR</t>
-  </si>
-  <si>
-    <t>ERLINTO</t>
-  </si>
-  <si>
-    <t>5.203.541</t>
-  </si>
-  <si>
-    <t>LEANDRO</t>
-  </si>
-  <si>
-    <t>MARINO</t>
-  </si>
-  <si>
-    <t>1.085.311.542</t>
-  </si>
-  <si>
-    <t>YORDIN</t>
-  </si>
-  <si>
-    <t>SEGUNDO</t>
-  </si>
-  <si>
-    <t>1.085.309.640</t>
-  </si>
-  <si>
-    <t>NICANOR</t>
-  </si>
-  <si>
-    <t>12.995.874</t>
-  </si>
-  <si>
-    <t>TIMARAN</t>
-  </si>
-  <si>
-    <t>WILMAR</t>
-  </si>
-  <si>
-    <t>ALEXANDER</t>
-  </si>
-  <si>
-    <t>1.084.224.396</t>
-  </si>
-  <si>
-    <t>CORTES</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>JHONY</t>
-  </si>
-  <si>
-    <t>SANDRO</t>
-  </si>
-  <si>
-    <t>98.385.039</t>
-  </si>
-  <si>
-    <t>CORTEZ</t>
-  </si>
-  <si>
-    <t>CUASPA</t>
-  </si>
-  <si>
-    <t>JOHNNY</t>
-  </si>
-  <si>
-    <t>STEVEN</t>
-  </si>
-  <si>
-    <t>1.085.319.345</t>
-  </si>
-  <si>
-    <t>ROSERO</t>
-  </si>
-  <si>
-    <t>ANDRES</t>
-  </si>
-  <si>
-    <t>FELIPE</t>
-  </si>
-  <si>
-    <t>1.085.271.056</t>
-  </si>
-  <si>
-    <t>CRIOLLO</t>
-  </si>
-  <si>
-    <t>JUAN</t>
-  </si>
-  <si>
-    <t>98.381.799</t>
-  </si>
-  <si>
-    <t>CABRERA</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>KENEDY</t>
-  </si>
-  <si>
-    <t>87.303.908</t>
-  </si>
-  <si>
-    <t>DELGADO</t>
-  </si>
-  <si>
-    <t>MANCISOY</t>
-  </si>
-  <si>
-    <t>MEDARDO</t>
-  </si>
-  <si>
-    <t>12.750.317</t>
-  </si>
-  <si>
-    <t>RIASCOS</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>HERMES</t>
-  </si>
-  <si>
-    <t>12.983.892</t>
-  </si>
-  <si>
-    <t>SAAVEDRA</t>
-  </si>
-  <si>
-    <t>CLAUDIO</t>
-  </si>
-  <si>
-    <t>ROBERTO</t>
-  </si>
-  <si>
-    <t>1.085.247.858</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>FRANCO</t>
-  </si>
-  <si>
-    <t>IGNACIO</t>
-  </si>
-  <si>
-    <t>12.964.012</t>
   </si>
   <si>
     <t>LIBIO</t>
@@ -1882,42 +1885,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="4.78125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.93359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.5" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="15.79296875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="12.8359375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="14.89453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.265625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.0078125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.51171875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="2.45703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="3.37890625" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="2.45703125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="2.9765625" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="2.9765625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="2.37890625" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="2.45703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="2.609375" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="2.44140625" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="3.56640625" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="3.56640625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="3.56640625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="3.56640625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="3.56640625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="3.56640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="5.37890625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="10.41796875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="9.00390625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="12.26953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="3.71875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="15.7890625" customWidth="true" bestFit="true"/>
-    <col min="32" max="32" width="12.72265625" customWidth="true" bestFit="true"/>
-    <col min="33" max="33" width="14.203125" customWidth="true" bestFit="true"/>
-    <col min="34" max="34" width="19.77734375" customWidth="true" bestFit="true"/>
-    <col min="35" max="35" width="7.6796875" customWidth="true" bestFit="true"/>
-    <col min="36" max="36" width="21.5234375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="4.95703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="8.72265625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.5546875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="15.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.984375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.52734375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="12.7265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="17.9296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="2.5078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="3.390625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="2.5078125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="3.01171875" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="3.01171875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="2.5078125" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="2.60546875" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="2.78515625" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="2.70703125" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="3.68359375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="3.68359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="3.68359375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="3.68359375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="3.68359375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="3.68359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="5.59375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="11.1875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="10.1640625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="13.77734375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="16.17578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="4.5078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="17.625" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="14.0703125" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="16.54296875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="22.49609375" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" width="8.42578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="23.515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -2168,8 +2171,26 @@
       <c r="Q9" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R9" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S9" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T9" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U9" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V9" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W9" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y9" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z9" s="10">
         <f>(689455.0/30)</f>
@@ -2239,8 +2260,26 @@
       <c r="Q10" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R10" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S10" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T10" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U10" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V10" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W10" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y10" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z10" s="10">
         <f>(689455.0/30)</f>
@@ -2310,8 +2349,26 @@
       <c r="Q11" t="s" s="9">
         <v>54</v>
       </c>
+      <c r="R11" t="s" s="9">
+        <v>54</v>
+      </c>
+      <c r="S11" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T11" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U11" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V11" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W11" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y11" t="n" s="10">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z11" s="10">
         <f>(689455.0/30)</f>
@@ -2381,8 +2438,26 @@
       <c r="Q12" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R12" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S12" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T12" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U12" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V12" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W12" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y12" t="n" s="10">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="Z12" s="10">
         <f>(689455.0/30)</f>
@@ -2452,8 +2527,26 @@
       <c r="Q13" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R13" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S13" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T13" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U13" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V13" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W13" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y13" t="n" s="10">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z13" s="10">
         <f>(689455.0/30)</f>
@@ -2523,8 +2616,26 @@
       <c r="Q14" t="s" s="8">
         <v>70</v>
       </c>
+      <c r="R14" t="s" s="8">
+        <v>70</v>
+      </c>
+      <c r="S14" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T14" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U14" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V14" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W14" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y14" t="n" s="10">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="Z14" s="10">
         <f>(689455.0/30)</f>
@@ -2594,8 +2705,26 @@
       <c r="Q15" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R15" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S15" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T15" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U15" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V15" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W15" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y15" t="n" s="10">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="Z15" s="10">
         <f>(689455.0/30)</f>
@@ -2665,8 +2794,26 @@
       <c r="Q16" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R16" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S16" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T16" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U16" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V16" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W16" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y16" t="n" s="10">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z16" s="10">
         <f>(689455.0/30)</f>
@@ -2736,8 +2883,26 @@
       <c r="Q17" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R17" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S17" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T17" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U17" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V17" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W17" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y17" t="n" s="10">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z17" s="10">
         <f>(689455.0/30)</f>
@@ -2807,8 +2972,26 @@
       <c r="Q18" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R18" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S18" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T18" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U18" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V18" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W18" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y18" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z18" s="10">
         <f>(689455.0/30)</f>
@@ -2878,8 +3061,26 @@
       <c r="Q19" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R19" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S19" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T19" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U19" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V19" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W19" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y19" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z19" s="10">
         <f>(689455.0/30)</f>
@@ -2949,8 +3150,26 @@
       <c r="Q20" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R20" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S20" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T20" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U20" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V20" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W20" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y20" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z20" s="10">
         <f>(689455.0/30)</f>
@@ -3020,8 +3239,26 @@
       <c r="Q21" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R21" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S21" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T21" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U21" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V21" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W21" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y21" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z21" s="10">
         <f>(689455.0/30)</f>
@@ -3091,8 +3328,26 @@
       <c r="Q22" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R22" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S22" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T22" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U22" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V22" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W22" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y22" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z22" s="10">
         <f>(689455.0/30)</f>
@@ -3162,8 +3417,26 @@
       <c r="Q23" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R23" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S23" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T23" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U23" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V23" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W23" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y23" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z23" s="10">
         <f>(689455.0/30)</f>
@@ -3233,8 +3506,26 @@
       <c r="Q24" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R24" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S24" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T24" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U24" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V24" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W24" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y24" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z24" s="10">
         <f>(689455.0/30)</f>
@@ -3304,8 +3595,26 @@
       <c r="Q25" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R25" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S25" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T25" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U25" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V25" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W25" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y25" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z25" s="10">
         <f>(689455.0/30)</f>
@@ -3375,8 +3684,26 @@
       <c r="Q26" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R26" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S26" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T26" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U26" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V26" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W26" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y26" t="n" s="10">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z26" s="10">
         <f>(689455.0/30)</f>
@@ -3446,8 +3773,26 @@
       <c r="Q27" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R27" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S27" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T27" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U27" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V27" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W27" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y27" t="n" s="10">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z27" s="10">
         <f>(689455.0/30)</f>
@@ -3517,8 +3862,26 @@
       <c r="Q28" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R28" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S28" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T28" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U28" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V28" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W28" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y28" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z28" s="10">
         <f>(689455.0/30)</f>
@@ -3588,8 +3951,26 @@
       <c r="Q29" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R29" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S29" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T29" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U29" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V29" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W29" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y29" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z29" s="10">
         <f>(689455.0/30)</f>
@@ -3659,8 +4040,26 @@
       <c r="Q30" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R30" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S30" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T30" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U30" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V30" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W30" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y30" t="n" s="10">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="Z30" s="10">
         <f>(689455.0/30)</f>
@@ -3730,8 +4129,26 @@
       <c r="Q31" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R31" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S31" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T31" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U31" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V31" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W31" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y31" t="n" s="10">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z31" s="10">
         <f>(689455.0/30)</f>
@@ -3801,8 +4218,26 @@
       <c r="Q32" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R32" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S32" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T32" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U32" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V32" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W32" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y32" t="n" s="10">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="Z32" s="10">
         <f>(689455.0/30)</f>
@@ -3872,8 +4307,26 @@
       <c r="Q33" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R33" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S33" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T33" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U33" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V33" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W33" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y33" t="n" s="10">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z33" s="10">
         <f>(689455.0/30)</f>
@@ -3899,13 +4352,13 @@
         <v>147.0</v>
       </c>
       <c r="C34" t="s" s="10">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="D34" t="s" s="10">
         <v>60</v>
       </c>
       <c r="E34" t="s" s="10">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F34" t="s" s="10">
         <v>105</v>
@@ -3914,7 +4367,7 @@
         <f>concatenate(c34,d34,e34,f34)</f>
       </c>
       <c r="H34" t="s" s="10">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I34" t="n" s="10">
         <v>2.4040993764E10</v>
@@ -3943,8 +4396,26 @@
       <c r="Q34" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R34" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S34" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T34" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U34" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V34" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W34" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y34" t="n" s="10">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z34" s="10">
         <f>(689455.0/30)</f>
@@ -3970,22 +4441,22 @@
         <v>178.0</v>
       </c>
       <c r="C35" t="s" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D35" t="s" s="10">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E35" t="s" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F35" t="s" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G35" s="10">
         <f>concatenate(c35,d35,e35,f35)</f>
       </c>
       <c r="H35" t="s" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I35" t="n" s="10">
         <v>2.404087519E10</v>
@@ -4014,8 +4485,26 @@
       <c r="Q35" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R35" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S35" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T35" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U35" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V35" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W35" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y35" t="n" s="10">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z35" s="10">
         <f>(689455.0/30)</f>
@@ -4041,22 +4530,22 @@
         <v>206.0</v>
       </c>
       <c r="C36" t="s" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D36" t="s" s="10">
         <v>125</v>
       </c>
       <c r="E36" t="s" s="10">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F36" t="s" s="10">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G36" s="10">
         <f>concatenate(c36,d36,e36,f36)</f>
       </c>
       <c r="H36" t="s" s="10">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I36" t="n" s="10">
         <v>2.4040875215E10</v>
@@ -4085,8 +4574,26 @@
       <c r="Q36" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R36" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S36" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T36" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U36" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V36" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W36" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y36" t="n" s="10">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z36" s="10">
         <f>(689455.0/30)</f>
@@ -4112,22 +4619,22 @@
         <v>212.0</v>
       </c>
       <c r="C37" t="s" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D37" t="s" s="10">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E37" t="s" s="10">
         <v>63</v>
       </c>
       <c r="F37" t="s" s="10">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G37" s="10">
         <f>concatenate(c37,d37,e37,f37)</f>
       </c>
       <c r="H37" t="s" s="10">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I37" t="n" s="10">
         <v>2.4040877071E10</v>
@@ -4156,8 +4663,26 @@
       <c r="Q37" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R37" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S37" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T37" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U37" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V37" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W37" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y37" t="n" s="10">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z37" s="10">
         <f>(689455.0/30)</f>
@@ -4183,22 +4708,22 @@
         <v>249.0</v>
       </c>
       <c r="C38" t="s" s="10">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D38" t="s" s="10">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E38" t="s" s="10">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F38" t="s" s="10">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G38" s="10">
         <f>concatenate(c38,d38,e38,f38)</f>
       </c>
       <c r="H38" t="s" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I38" t="n" s="10">
         <v>2.4040875811E10</v>
@@ -4227,8 +4752,26 @@
       <c r="Q38" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R38" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S38" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T38" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U38" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V38" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W38" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y38" t="n" s="10">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z38" s="10">
         <f>(689455.0/30)</f>
@@ -4254,22 +4797,22 @@
         <v>252.0</v>
       </c>
       <c r="C39" t="s" s="10">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D39" t="s" s="10">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E39" t="s" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F39" t="s" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G39" s="10">
         <f>concatenate(c39,d39,e39,f39)</f>
       </c>
       <c r="H39" t="s" s="10">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I39" t="n" s="10">
         <v>2.4041024351E10</v>
@@ -4298,8 +4841,26 @@
       <c r="Q39" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R39" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S39" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T39" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U39" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V39" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W39" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y39" t="n" s="10">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z39" s="10">
         <f>(689455.0/30)</f>
@@ -4325,22 +4886,22 @@
         <v>256.0</v>
       </c>
       <c r="C40" t="s" s="10">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D40" t="s" s="10">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E40" t="s" s="10">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F40" t="s" s="10">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G40" s="10">
         <f>concatenate(c40,d40,e40,f40)</f>
       </c>
       <c r="H40" t="s" s="10">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I40" t="n" s="10">
         <v>2.4041024104E10</v>
@@ -4369,8 +4930,26 @@
       <c r="Q40" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R40" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S40" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T40" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U40" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V40" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W40" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y40" t="n" s="10">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="Z40" s="10">
         <f>(689455.0/30)</f>
@@ -4396,13 +4975,13 @@
         <v>375.0</v>
       </c>
       <c r="C41" t="s" s="10">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D41" t="s" s="10">
         <v>121</v>
       </c>
       <c r="E41" t="s" s="10">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F41" t="s" s="10">
         <v>46</v>
@@ -4411,7 +4990,7 @@
         <f>concatenate(c41,d41,e41,f41)</f>
       </c>
       <c r="H41" t="s" s="10">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I41" t="n" s="10">
         <v>2.4040935674E10</v>
@@ -4438,10 +5017,28 @@
         <v>41</v>
       </c>
       <c r="Q41" t="s" s="9">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="R41" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S41" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T41" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U41" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V41" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W41" t="s" s="10">
+        <v>41</v>
       </c>
       <c r="Y41" t="n" s="10">
-        <v>5.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z41" s="10">
         <f>(689455.0/30)</f>
@@ -4470,19 +5067,19 @@
         <v>65</v>
       </c>
       <c r="D42" t="s" s="10">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E42" t="s" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F42" t="s" s="10">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G42" s="10">
         <f>concatenate(c42,d42,e42,f42)</f>
       </c>
       <c r="H42" t="s" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I42" t="n" s="10">
         <v>2.4040884839E10</v>
@@ -4511,8 +5108,26 @@
       <c r="Q42" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R42" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S42" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T42" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U42" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V42" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W42" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y42" t="n" s="10">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z42" s="10">
         <f>(689455.0/30)</f>
@@ -4538,7 +5153,7 @@
         <v>403.0</v>
       </c>
       <c r="C43" t="s" s="10">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D43" t="s" s="10">
         <v>121</v>
@@ -4547,13 +5162,13 @@
         <v>122</v>
       </c>
       <c r="F43" t="s" s="10">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G43" s="10">
         <f>concatenate(c43,d43,e43,f43)</f>
       </c>
       <c r="H43" t="s" s="10">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I43" t="n" s="10">
         <v>2.4040874375E10</v>
@@ -4582,8 +5197,26 @@
       <c r="Q43" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R43" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S43" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T43" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U43" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V43" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W43" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y43" t="n" s="10">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z43" s="10">
         <f>(689455.0/30)</f>
@@ -4609,22 +5242,22 @@
         <v>411.0</v>
       </c>
       <c r="C44" t="s" s="10">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D44" t="s" s="10">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E44" t="s" s="10">
         <v>45</v>
       </c>
       <c r="F44" t="s" s="10">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G44" s="10">
         <f>concatenate(c44,d44,e44,f44)</f>
       </c>
       <c r="H44" t="s" s="10">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I44" t="n" s="10">
         <v>2.404093596E10</v>
@@ -4653,8 +5286,26 @@
       <c r="Q44" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R44" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S44" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T44" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U44" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V44" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W44" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y44" t="n" s="10">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="Z44" s="10">
         <f>(689455.0/30)</f>
@@ -4683,19 +5334,19 @@
         <v>133</v>
       </c>
       <c r="D45" t="s" s="10">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E45" t="s" s="10">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F45" t="s" s="10">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G45" s="10">
         <f>concatenate(c45,d45,e45,f45)</f>
       </c>
       <c r="H45" t="s" s="10">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I45" t="n" s="10">
         <v>2.404448862E10</v>
@@ -4724,8 +5375,26 @@
       <c r="Q45" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R45" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S45" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T45" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U45" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V45" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W45" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y45" t="n" s="10">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z45" s="10">
         <f>(689455.0/30)</f>
@@ -4751,13 +5420,13 @@
         <v>704.0</v>
       </c>
       <c r="C46" t="s" s="10">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="D46" t="s" s="10">
         <v>133</v>
       </c>
       <c r="E46" t="s" s="10">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F46" t="s" s="10">
         <v>125</v>
@@ -4766,7 +5435,7 @@
         <f>concatenate(c46,d46,e46,f46)</f>
       </c>
       <c r="H46" t="s" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I46" t="n" s="10">
         <v>2.404551069E10</v>
@@ -4795,8 +5464,26 @@
       <c r="Q46" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R46" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S46" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T46" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U46" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V46" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W46" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y46" t="n" s="10">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z46" s="10">
         <f>(689455.0/30)</f>
@@ -4822,22 +5509,22 @@
         <v>737.0</v>
       </c>
       <c r="C47" t="s" s="10">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D47" t="s" s="10">
         <v>125</v>
       </c>
       <c r="E47" t="s" s="10">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F47" t="s" s="10">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G47" s="10">
         <f>concatenate(c47,d47,e47,f47)</f>
       </c>
       <c r="H47" t="s" s="10">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I47" t="n" s="10">
         <v>2.4046162342E10</v>
@@ -4866,8 +5553,26 @@
       <c r="Q47" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R47" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S47" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T47" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U47" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V47" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W47" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y47" t="n" s="10">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z47" s="10">
         <f>(689455.0/30)</f>
@@ -4893,22 +5598,22 @@
         <v>738.0</v>
       </c>
       <c r="C48" t="s" s="10">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D48" t="s" s="10">
         <v>125</v>
       </c>
       <c r="E48" t="s" s="10">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F48" t="s" s="10">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G48" s="10">
         <f>concatenate(c48,d48,e48,f48)</f>
       </c>
       <c r="H48" t="s" s="10">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I48" t="n" s="10">
         <v>2.4046415938E10</v>
@@ -4937,8 +5642,26 @@
       <c r="Q48" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R48" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S48" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T48" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U48" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V48" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W48" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y48" t="n" s="10">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z48" s="10">
         <f>(689455.0/30)</f>
@@ -4964,22 +5687,22 @@
         <v>807.0</v>
       </c>
       <c r="C49" t="s" s="10">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D49" t="s" s="10">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E49" t="s" s="10">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F49" t="s" s="10">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G49" s="10">
         <f>concatenate(c49,d49,e49,f49)</f>
       </c>
       <c r="H49" t="s" s="10">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I49" t="n" s="10">
         <v>2.4051432896E10</v>
@@ -5008,8 +5731,26 @@
       <c r="Q49" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R49" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S49" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T49" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U49" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V49" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W49" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y49" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z49" s="10">
         <f>(689455.0/30)</f>
@@ -5038,10 +5779,10 @@
         <v>60</v>
       </c>
       <c r="D50" t="s" s="10">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E50" t="s" s="10">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F50" t="s" s="10">
         <v>105</v>
@@ -5050,7 +5791,7 @@
         <f>concatenate(c50,d50,e50,f50)</f>
       </c>
       <c r="H50" t="s" s="10">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I50" t="n" s="10">
         <v>2.4054095171E10</v>
@@ -5079,8 +5820,26 @@
       <c r="Q50" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R50" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S50" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T50" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U50" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V50" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W50" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y50" t="n" s="10">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z50" s="10">
         <f>(689455.0/30)</f>
@@ -5109,19 +5868,19 @@
         <v>117</v>
       </c>
       <c r="D51" t="s" s="10">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E51" t="s" s="10">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F51" t="s" s="10">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G51" s="10">
         <f>concatenate(c51,d51,e51,f51)</f>
       </c>
       <c r="H51" t="s" s="10">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I51" t="n" s="10">
         <v>2.4040877468E10</v>
@@ -5150,8 +5909,26 @@
       <c r="Q51" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R51" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S51" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T51" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U51" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V51" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W51" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y51" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z51" s="10">
         <f>(689455.0/30)</f>
@@ -5177,22 +5954,22 @@
         <v>978.0</v>
       </c>
       <c r="C52" t="s" s="10">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D52" t="s" s="10">
         <v>65</v>
       </c>
       <c r="E52" t="s" s="10">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F52" t="s" s="10">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G52" s="10">
         <f>concatenate(c52,d52,e52,f52)</f>
       </c>
       <c r="H52" t="s" s="10">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I52" t="n" s="10">
         <v>2.4041021648E10</v>
@@ -5221,8 +5998,26 @@
       <c r="Q52" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R52" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S52" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T52" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U52" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V52" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W52" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y52" t="n" s="10">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z52" s="10">
         <f>(689455.0/30)</f>
@@ -5248,22 +6043,22 @@
         <v>1028.0</v>
       </c>
       <c r="C53" t="s" s="10">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D53" t="s" s="10">
         <v>89</v>
       </c>
       <c r="E53" t="s" s="10">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F53" t="s" s="10">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G53" s="10">
         <f>concatenate(c53,d53,e53,f53)</f>
       </c>
       <c r="H53" t="s" s="10">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I53" t="n" s="10">
         <v>2.4056106293E10</v>
@@ -5292,8 +6087,26 @@
       <c r="Q53" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R53" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S53" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T53" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U53" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V53" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W53" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y53" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z53" s="10">
         <f>(689455.0/30)</f>
@@ -5319,13 +6132,13 @@
         <v>1044.0</v>
       </c>
       <c r="C54" t="s" s="10">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D54" t="s" s="10">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E54" t="s" s="10">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F54" t="s" s="10">
         <v>125</v>
@@ -5334,7 +6147,7 @@
         <f>concatenate(c54,d54,e54,f54)</f>
       </c>
       <c r="H54" t="s" s="10">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I54" t="n" s="10">
         <v>2.4056114434E10</v>
@@ -5363,8 +6176,26 @@
       <c r="Q54" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R54" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S54" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T54" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U54" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V54" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W54" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y54" t="n" s="10">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z54" s="10">
         <f>(689455.0/30)</f>
@@ -5390,22 +6221,22 @@
         <v>1046.0</v>
       </c>
       <c r="C55" t="s" s="10">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" t="s" s="10">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E55" t="s" s="10">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F55" t="s" s="10">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G55" s="10">
         <f>concatenate(c55,d55,e55,f55)</f>
       </c>
       <c r="H55" t="s" s="10">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I55" t="n" s="10">
         <v>2.405611458E10</v>
@@ -5434,8 +6265,26 @@
       <c r="Q55" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R55" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S55" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T55" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U55" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V55" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W55" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y55" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z55" s="10">
         <f>(689455.0/30)</f>
@@ -5464,19 +6313,19 @@
         <v>75</v>
       </c>
       <c r="D56" t="s" s="10">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E56" t="s" s="10">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F56" t="s" s="10">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G56" s="10">
         <f>concatenate(c56,d56,e56,f56)</f>
       </c>
       <c r="H56" t="s" s="10">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I56" t="n" s="10">
         <v>2.4057413329E10</v>
@@ -5505,8 +6354,26 @@
       <c r="Q56" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R56" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S56" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T56" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U56" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V56" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W56" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y56" t="n" s="10">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z56" s="10">
         <f>(689455.0/30)</f>
@@ -5532,22 +6399,22 @@
         <v>1108.0</v>
       </c>
       <c r="C57" t="s" s="10">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D57" t="s" s="10">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E57" t="s" s="10">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F57" t="s" s="10">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G57" s="10">
         <f>concatenate(c57,d57,e57,f57)</f>
       </c>
       <c r="H57" t="s" s="10">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I57" t="n" s="10">
         <v>2.4057558006E10</v>
@@ -5576,8 +6443,26 @@
       <c r="Q57" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R57" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S57" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T57" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U57" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V57" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W57" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y57" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z57" s="10">
         <f>(689455.0/30)</f>
@@ -5603,7 +6488,7 @@
         <v>221.0</v>
       </c>
       <c r="C58" t="s" s="7">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D58" t="s" s="7">
         <v>125</v>
@@ -5612,13 +6497,13 @@
         <v>45</v>
       </c>
       <c r="F58" t="s" s="7">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G58" s="7">
         <f>concatenate(c58,d58,e58,f58)</f>
       </c>
       <c r="H58" t="s" s="7">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I58" t="n" s="10">
         <v>2.4040980566E10</v>
@@ -5647,8 +6532,26 @@
       <c r="Q58" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R58" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S58" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T58" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U58" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V58" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W58" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y58" t="n" s="10">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z58" s="10">
         <f>(689455.0/30)</f>
@@ -5674,10 +6577,10 @@
         <v>484.0</v>
       </c>
       <c r="C59" t="s" s="10">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D59" t="s" s="10">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E59" t="s" s="10">
         <v>105</v>
@@ -5689,7 +6592,7 @@
         <f>concatenate(c59,d59,e59,f59)</f>
       </c>
       <c r="H59" t="s" s="10">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I59" t="n" s="10">
         <v>2.404147226E10</v>
@@ -5718,8 +6621,26 @@
       <c r="Q59" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R59" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S59" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T59" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U59" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V59" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W59" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y59" t="n" s="10">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z59" s="10">
         <f>(689455.0/30)</f>
@@ -5751,16 +6672,16 @@
         <v>125</v>
       </c>
       <c r="E60" t="s" s="10">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F60" t="s" s="10">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G60" s="10">
         <f>concatenate(c60,d60,e60,f60)</f>
       </c>
       <c r="H60" t="s" s="10">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I60" t="n" s="10">
         <v>2.4048444831E10</v>
@@ -5789,8 +6710,26 @@
       <c r="Q60" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R60" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S60" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T60" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U60" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V60" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W60" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y60" t="n" s="10">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z60" s="10">
         <f>(689455.0/30)</f>
@@ -5819,19 +6758,19 @@
         <v>140</v>
       </c>
       <c r="D61" t="s" s="10">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E61" t="s" s="10">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F61" t="s" s="10">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G61" s="10">
         <f>concatenate(c61,d61,e61,f61)</f>
       </c>
       <c r="H61" t="s" s="10">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I61" t="n" s="10">
         <v>2.4051430566E10</v>
@@ -5860,8 +6799,26 @@
       <c r="Q61" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R61" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S61" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T61" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U61" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V61" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W61" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y61" t="n" s="10">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z61" s="10">
         <f>(689455.0/30)</f>
@@ -5887,22 +6844,22 @@
         <v>826.0</v>
       </c>
       <c r="C62" t="s" s="10">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D62" t="s" s="10">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E62" t="s" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F62" t="s" s="10">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G62" s="10">
         <f>concatenate(c62,d62,e62,f62)</f>
       </c>
       <c r="H62" t="s" s="10">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I62" t="n" s="10">
         <v>2.4046973465E10</v>
@@ -5911,7 +6868,7 @@
         <v>41</v>
       </c>
       <c r="K62" t="s" s="9">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L62" t="s" s="9">
         <v>54</v>
@@ -5931,8 +6888,26 @@
       <c r="Q62" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R62" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S62" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T62" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U62" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V62" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W62" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y62" t="n" s="10">
-        <v>7.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z62" s="10">
         <f>(689455.0/30)</f>
@@ -5958,22 +6933,22 @@
         <v>832.0</v>
       </c>
       <c r="C63" t="s" s="10">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D63" t="s" s="10">
         <v>125</v>
       </c>
       <c r="E63" t="s" s="10">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F63" t="s" s="10">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G63" s="10">
         <f>concatenate(c63,d63,e63,f63)</f>
       </c>
       <c r="H63" t="s" s="10">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I63" t="n" s="10">
         <v>2.4053029892E10</v>
@@ -6002,8 +6977,26 @@
       <c r="Q63" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R63" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S63" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T63" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U63" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V63" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W63" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y63" t="n" s="10">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z63" s="10">
         <f>(689455.0/30)</f>
@@ -6029,22 +7022,22 @@
         <v>834.0</v>
       </c>
       <c r="C64" t="s" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D64" t="s" s="10">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E64" t="s" s="10">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F64" t="s" s="10">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G64" s="10">
         <f>concatenate(c64,d64,e64,f64)</f>
       </c>
       <c r="H64" t="s" s="10">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I64" t="n" s="10">
         <v>2.4053031097E10</v>
@@ -6073,8 +7066,26 @@
       <c r="Q64" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R64" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S64" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T64" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U64" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V64" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W64" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y64" t="n" s="10">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z64" s="10">
         <f>(689455.0/30)</f>
@@ -6100,22 +7111,22 @@
         <v>837.0</v>
       </c>
       <c r="C65" t="s" s="10">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D65" t="s" s="10">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E65" t="s" s="10">
         <v>45</v>
       </c>
       <c r="F65" t="s" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G65" s="10">
         <f>concatenate(c65,d65,e65,f65)</f>
       </c>
       <c r="H65" t="s" s="10">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I65" t="n" s="10">
         <v>2.4042062301E10</v>
@@ -6144,8 +7155,26 @@
       <c r="Q65" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R65" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S65" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T65" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U65" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V65" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W65" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y65" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z65" s="10">
         <f>(689455.0/30)</f>
@@ -6171,13 +7200,13 @@
         <v>851.0</v>
       </c>
       <c r="C66" t="s" s="10">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D66" t="s" s="10">
         <v>75</v>
       </c>
       <c r="E66" t="s" s="10">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F66" t="s" s="10">
         <v>82</v>
@@ -6186,7 +7215,7 @@
         <f>concatenate(c66,d66,e66,f66)</f>
       </c>
       <c r="H66" t="s" s="10">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I66" t="n" s="10">
         <v>2.4053221605E10</v>
@@ -6215,8 +7244,26 @@
       <c r="Q66" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R66" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S66" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T66" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U66" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V66" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W66" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y66" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z66" s="10">
         <f>(689455.0/30)</f>
@@ -6242,22 +7289,22 @@
         <v>855.0</v>
       </c>
       <c r="C67" t="s" s="10">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D67" t="s" s="10">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="E67" t="s" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F67" t="s" s="10">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G67" s="10">
         <f>concatenate(c67,d67,e67,f67)</f>
       </c>
       <c r="H67" t="s" s="10">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I67" t="n" s="10">
         <v>2.405358386E10</v>
@@ -6286,8 +7333,26 @@
       <c r="Q67" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R67" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S67" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T67" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U67" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V67" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W67" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y67" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z67" s="10">
         <f>(689455.0/30)</f>
@@ -6313,22 +7378,22 @@
         <v>861.0</v>
       </c>
       <c r="C68" t="s" s="10">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D68" t="s" s="10">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E68" t="s" s="10">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F68" t="s" s="10">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G68" s="10">
         <f>concatenate(c68,d68,e68,f68)</f>
       </c>
       <c r="H68" t="s" s="10">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I68" t="n" s="10">
         <v>2.4053670384E10</v>
@@ -6357,8 +7422,26 @@
       <c r="Q68" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R68" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S68" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T68" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U68" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V68" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W68" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y68" t="n" s="10">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z68" s="10">
         <f>(689455.0/30)</f>
@@ -6384,22 +7467,22 @@
         <v>938.0</v>
       </c>
       <c r="C69" t="s" s="10">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D69" t="s" s="10">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E69" t="s" s="10">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F69" t="s" s="10">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G69" s="10">
         <f>concatenate(c69,d69,e69,f69)</f>
       </c>
       <c r="H69" t="s" s="10">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I69" t="n" s="10">
         <v>2.4054779741E10</v>
@@ -6428,8 +7511,26 @@
       <c r="Q69" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R69" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S69" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T69" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U69" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V69" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W69" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y69" t="n" s="10">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z69" s="10">
         <f>(689455.0/30)</f>
@@ -6455,13 +7556,13 @@
         <v>975.0</v>
       </c>
       <c r="C70" t="s" s="10">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D70" t="s" s="10">
         <v>79</v>
       </c>
       <c r="E70" t="s" s="10">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F70" t="s" s="10">
         <v>125</v>
@@ -6470,7 +7571,7 @@
         <f>concatenate(c70,d70,e70,f70)</f>
       </c>
       <c r="H70" t="s" s="10">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I70" t="n" s="10">
         <v>2.4052657078E10</v>
@@ -6499,8 +7600,26 @@
       <c r="Q70" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R70" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S70" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T70" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U70" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V70" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W70" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y70" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z70" s="10">
         <f>(689455.0/30)</f>
@@ -6526,22 +7645,22 @@
         <v>979.0</v>
       </c>
       <c r="C71" t="s" s="10">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D71" t="s" s="10">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E71" t="s" s="10">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F71" t="s" s="10">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G71" s="10">
         <f>concatenate(c71,d71,e71,f71)</f>
       </c>
       <c r="H71" t="s" s="10">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I71" t="n" s="10">
         <v>2.4055405207E10</v>
@@ -6570,8 +7689,26 @@
       <c r="Q71" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R71" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S71" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T71" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U71" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V71" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W71" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y71" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z71" s="10">
         <f>(689455.0/30)</f>
@@ -6597,7 +7734,7 @@
         <v>1073.0</v>
       </c>
       <c r="C72" t="s" s="10">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D72" t="s" s="10">
         <v>117</v>
@@ -6606,13 +7743,13 @@
         <v>45</v>
       </c>
       <c r="F72" t="s" s="10">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G72" s="10">
         <f>concatenate(c72,d72,e72,f72)</f>
       </c>
       <c r="H72" t="s" s="10">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I72" t="n" s="10">
         <v>2.4052656277E10</v>
@@ -6641,8 +7778,26 @@
       <c r="Q72" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R72" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S72" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T72" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U72" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V72" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W72" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y72" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z72" s="10">
         <f>(689455.0/30)</f>
@@ -6668,7 +7823,7 @@
         <v>-4.0</v>
       </c>
       <c r="C73" t="s" s="7">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D73" t="s" s="7">
         <v>65</v>
@@ -6677,13 +7832,13 @@
         <v>122</v>
       </c>
       <c r="F73" t="s" s="7">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G73" s="7">
         <f>concatenate(c73,d73,e73,f73)</f>
       </c>
       <c r="H73" t="s" s="7">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I73" t="n" s="10">
         <v>2.4040877482E10</v>
@@ -6712,8 +7867,26 @@
       <c r="Q73" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R73" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S73" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T73" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U73" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V73" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W73" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y73" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z73" s="10">
         <f>(689455.0/30)</f>
@@ -6739,13 +7912,13 @@
         <v>22.0</v>
       </c>
       <c r="C74" t="s" s="10">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D74" t="s" s="10">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E74" t="s" s="10">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F74" t="s" s="10">
         <v>125</v>
@@ -6754,7 +7927,7 @@
         <f>concatenate(c74,d74,e74,f74)</f>
       </c>
       <c r="H74" t="s" s="10">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I74" t="n" s="10">
         <v>2.4041023916E10</v>
@@ -6783,8 +7956,26 @@
       <c r="Q74" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R74" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S74" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T74" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U74" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V74" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W74" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y74" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z74" s="10">
         <f>(689455.0/30)</f>
@@ -6810,22 +8001,22 @@
         <v>46.0</v>
       </c>
       <c r="C75" t="s" s="10">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D75" t="s" s="10">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E75" t="s" s="10">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F75" t="s" s="10">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G75" s="10">
         <f>concatenate(c75,d75,e75,f75)</f>
       </c>
       <c r="H75" t="s" s="10">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I75" t="n" s="10">
         <v>2.4041024988E10</v>
@@ -6854,8 +8045,26 @@
       <c r="Q75" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R75" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S75" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T75" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U75" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V75" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W75" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y75" t="n" s="10">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z75" s="10">
         <f>(689455.0/30)</f>
@@ -6881,13 +8090,13 @@
         <v>148.0</v>
       </c>
       <c r="C76" t="s" s="10">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D76" t="s" s="10">
         <v>65</v>
       </c>
       <c r="E76" t="s" s="10">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F76" t="s" s="10">
         <v>39</v>
@@ -6896,7 +8105,7 @@
         <f>concatenate(c76,d76,e76,f76)</f>
       </c>
       <c r="H76" t="s" s="10">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I76" t="n" s="10">
         <v>2.4041022533E10</v>
@@ -6925,8 +8134,26 @@
       <c r="Q76" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R76" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S76" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T76" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U76" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V76" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W76" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y76" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z76" s="10">
         <f>(689455.0/30)</f>
@@ -6952,22 +8179,22 @@
         <v>176.0</v>
       </c>
       <c r="C77" t="s" s="10">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D77" t="s" s="10">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E77" t="s" s="10">
         <v>105</v>
       </c>
       <c r="F77" t="s" s="10">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G77" s="10">
         <f>concatenate(c77,d77,e77,f77)</f>
       </c>
       <c r="H77" t="s" s="10">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I77" t="n" s="10">
         <v>2.4041022331E10</v>
@@ -6996,8 +8223,26 @@
       <c r="Q77" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R77" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S77" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T77" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U77" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V77" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W77" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y77" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z77" s="10">
         <f>(689455.0/30)</f>
@@ -7023,22 +8268,22 @@
         <v>227.0</v>
       </c>
       <c r="C78" t="s" s="10">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D78" t="s" s="10">
         <v>108</v>
       </c>
       <c r="E78" t="s" s="10">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F78" t="s" s="10">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G78" s="10">
         <f>concatenate(c78,d78,e78,f78)</f>
       </c>
       <c r="H78" t="s" s="10">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I78" t="n" s="10">
         <v>2.4041023839E10</v>
@@ -7067,8 +8312,26 @@
       <c r="Q78" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R78" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S78" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T78" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U78" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V78" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W78" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y78" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z78" s="10">
         <f>(689455.0/30)</f>
@@ -7094,22 +8357,22 @@
         <v>291.0</v>
       </c>
       <c r="C79" t="s" s="10">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D79" t="s" s="10">
         <v>85</v>
       </c>
       <c r="E79" t="s" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F79" t="s" s="10">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G79" s="10">
         <f>concatenate(c79,d79,e79,f79)</f>
       </c>
       <c r="H79" t="s" s="10">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I79" t="n" s="10">
         <v>2.4041021819E10</v>
@@ -7138,8 +8401,26 @@
       <c r="Q79" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R79" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S79" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T79" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U79" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V79" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W79" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y79" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z79" s="10">
         <f>(689455.0/30)</f>
@@ -7168,19 +8449,19 @@
         <v>133</v>
       </c>
       <c r="D80" t="s" s="10">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E80" t="s" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F80" t="s" s="10">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G80" s="10">
         <f>concatenate(c80,d80,e80,f80)</f>
       </c>
       <c r="H80" t="s" s="10">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I80" t="n" s="10">
         <v>2.4041022247E10</v>
@@ -7209,8 +8490,26 @@
       <c r="Q80" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R80" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S80" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T80" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U80" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V80" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W80" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y80" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z80" s="10">
         <f>(689455.0/30)</f>
@@ -7236,22 +8535,22 @@
         <v>836.0</v>
       </c>
       <c r="C81" t="s" s="10">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D81" t="s" s="10">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E81" t="s" s="10">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F81" t="s" s="10">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G81" s="10">
         <f>concatenate(c81,d81,e81,f81)</f>
       </c>
       <c r="H81" t="s" s="10">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I81" t="n" s="10">
         <v>2.4053009766E10</v>
@@ -7280,8 +8579,26 @@
       <c r="Q81" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R81" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S81" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T81" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U81" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V81" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W81" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y81" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z81" s="10">
         <f>(689455.0/30)</f>
@@ -7307,13 +8624,13 @@
         <v>895.0</v>
       </c>
       <c r="C82" t="s" s="10">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D82" t="s" s="10">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E82" t="s" s="10">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F82" t="s" s="10">
         <v>118</v>
@@ -7322,7 +8639,7 @@
         <f>concatenate(c82,d82,e82,f82)</f>
       </c>
       <c r="H82" t="s" s="10">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I82" t="n" s="10">
         <v>2.4054201541E10</v>
@@ -7351,8 +8668,26 @@
       <c r="Q82" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R82" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S82" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T82" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U82" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V82" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W82" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y82" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z82" s="10">
         <f>(689455.0/30)</f>
@@ -7378,22 +8713,22 @@
         <v>944.0</v>
       </c>
       <c r="C83" t="s" s="10">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="D83" t="s" s="10">
         <v>133</v>
       </c>
       <c r="E83" t="s" s="10">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F83" t="s" s="10">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G83" s="10">
         <f>concatenate(c83,d83,e83,f83)</f>
       </c>
       <c r="H83" t="s" s="10">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I83" t="n" s="10">
         <v>2.4054858613E10</v>
@@ -7422,8 +8757,26 @@
       <c r="Q83" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R83" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S83" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T83" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U83" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V83" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W83" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y83" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z83" s="10">
         <f>(689455.0/30)</f>
@@ -7449,22 +8802,22 @@
         <v>960.0</v>
       </c>
       <c r="C84" t="s" s="10">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D84" t="s" s="10">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E84" t="s" s="10">
         <v>45</v>
       </c>
       <c r="F84" t="s" s="10">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G84" s="10">
         <f>concatenate(c84,d84,e84,f84)</f>
       </c>
       <c r="H84" t="s" s="10">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I84" t="n" s="10">
         <v>2.4055339766E10</v>
@@ -7493,8 +8846,26 @@
       <c r="Q84" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R84" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S84" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T84" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U84" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V84" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W84" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y84" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z84" s="10">
         <f>(689455.0/30)</f>
@@ -7520,13 +8891,13 @@
         <v>962.0</v>
       </c>
       <c r="C85" t="s" s="10">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D85" t="s" s="10">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E85" t="s" s="10">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F85" t="s" s="10">
         <v>63</v>
@@ -7535,7 +8906,7 @@
         <f>concatenate(c85,d85,e85,f85)</f>
       </c>
       <c r="H85" t="s" s="10">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I85" t="n" s="10">
         <v>2.4055339216E10</v>
@@ -7564,8 +8935,26 @@
       <c r="Q85" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R85" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S85" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T85" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U85" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V85" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W85" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y85" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z85" s="10">
         <f>(689455.0/30)</f>
@@ -7597,16 +8986,16 @@
         <v>66</v>
       </c>
       <c r="E86" t="s" s="10">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F86" t="s" s="10">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G86" s="10">
         <f>concatenate(c86,d86,e86,f86)</f>
       </c>
       <c r="H86" t="s" s="10">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I86" t="n" s="10">
         <v>2.4055406596E10</v>
@@ -7635,8 +9024,26 @@
       <c r="Q86" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R86" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S86" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T86" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U86" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V86" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W86" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y86" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z86" s="10">
         <f>(689455.0/30)</f>
@@ -7662,7 +9069,7 @@
         <v>1023.0</v>
       </c>
       <c r="C87" t="s" s="10">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D87" t="s" s="10">
         <v>125</v>
@@ -7671,13 +9078,13 @@
         <v>45</v>
       </c>
       <c r="F87" t="s" s="10">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G87" s="10">
         <f>concatenate(c87,d87,e87,f87)</f>
       </c>
       <c r="H87" t="s" s="10">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I87" t="n" s="10">
         <v>2.4055811097E10</v>
@@ -7706,8 +9113,26 @@
       <c r="Q87" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R87" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S87" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T87" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U87" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V87" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W87" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y87" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z87" s="10">
         <f>(689455.0/30)</f>
@@ -7733,13 +9158,13 @@
         <v>1086.0</v>
       </c>
       <c r="C88" t="s" s="10">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D88" t="s" s="10">
         <v>75</v>
       </c>
       <c r="E88" t="s" s="10">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F88" t="s" s="10">
         <v>118</v>
@@ -7748,7 +9173,7 @@
         <f>concatenate(c88,d88,e88,f88)</f>
       </c>
       <c r="H88" t="s" s="10">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I88" t="n" s="10">
         <v>2.4056726293E10</v>
@@ -7777,8 +9202,26 @@
       <c r="Q88" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R88" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S88" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T88" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U88" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V88" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W88" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y88" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z88" s="10">
         <f>(689455.0/30)</f>
@@ -7804,22 +9247,22 @@
         <v>1125.0</v>
       </c>
       <c r="C89" t="s" s="10">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D89" t="s" s="10">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E89" t="s" s="10">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F89" t="s" s="10">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G89" s="10">
         <f>concatenate(c89,d89,e89,f89)</f>
       </c>
       <c r="H89" t="s" s="10">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I89" t="n" s="10">
         <v>2.4041022658E10</v>
@@ -7848,8 +9291,26 @@
       <c r="Q89" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R89" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S89" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T89" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U89" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V89" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W89" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y89" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z89" s="10">
         <f>(689455.0/30)</f>
@@ -7875,22 +9336,22 @@
         <v>1129.0</v>
       </c>
       <c r="C90" t="s" s="10">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D90" t="s" s="10">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E90" t="s" s="10">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F90" t="s" s="10">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G90" s="10">
         <f>concatenate(c90,d90,e90,f90)</f>
       </c>
       <c r="H90" t="s" s="10">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I90" t="n" s="10">
         <v>2.4041280579E10</v>
@@ -7919,8 +9380,26 @@
       <c r="Q90" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R90" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S90" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T90" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U90" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V90" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W90" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y90" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z90" s="10">
         <f>(689455.0/30)</f>
@@ -7946,22 +9425,22 @@
         <v>-5.0</v>
       </c>
       <c r="C91" t="s" s="7">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D91" t="s" s="7">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E91" t="s" s="7">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F91" t="s" s="7">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G91" s="7">
         <f>concatenate(c91,d91,e91,f91)</f>
       </c>
       <c r="H91" t="s" s="7">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I91" t="n" s="10">
         <v>2.404126672E10</v>
@@ -7990,8 +9469,26 @@
       <c r="Q91" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R91" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S91" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T91" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U91" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V91" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W91" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y91" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z91" s="10">
         <f>(689455.0/30)</f>
@@ -8017,22 +9514,22 @@
         <v>226.0</v>
       </c>
       <c r="C92" t="s" s="10">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D92" t="s" s="10">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E92" t="s" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F92" t="s" s="10">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G92" s="10">
         <f>concatenate(c92,d92,e92,f92)</f>
       </c>
       <c r="H92" t="s" s="10">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I92" t="n" s="10">
         <v>2.4041022069E10</v>
@@ -8061,8 +9558,26 @@
       <c r="Q92" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R92" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S92" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T92" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U92" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V92" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W92" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y92" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z92" s="10">
         <f>(689455.0/30)</f>
@@ -8097,13 +9612,13 @@
         <v>58</v>
       </c>
       <c r="F93" t="s" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G93" s="10">
         <f>concatenate(c93,d93,e93,f93)</f>
       </c>
       <c r="H93" t="s" s="10">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I93" t="n" s="10">
         <v>2.4040878478E10</v>
@@ -8132,8 +9647,26 @@
       <c r="Q93" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R93" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S93" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T93" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U93" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V93" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W93" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y93" t="n" s="10">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z93" s="10">
         <f>(689455.0/30)</f>
@@ -8165,16 +9698,16 @@
         <v>128</v>
       </c>
       <c r="E94" t="s" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F94" t="s" s="10">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G94" s="10">
         <f>concatenate(c94,d94,e94,f94)</f>
       </c>
       <c r="H94" t="s" s="10">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I94" t="n" s="10">
         <v>2.4040875563E10</v>
@@ -8203,8 +9736,26 @@
       <c r="Q94" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R94" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S94" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T94" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U94" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V94" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W94" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y94" t="n" s="10">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z94" s="10">
         <f>(689455.0/30)</f>
@@ -8230,22 +9781,22 @@
         <v>346.0</v>
       </c>
       <c r="C95" t="s" s="10">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D95" t="s" s="10">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E95" t="s" s="10">
         <v>45</v>
       </c>
       <c r="F95" t="s" s="10">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G95" s="10">
         <f>concatenate(c95,d95,e95,f95)</f>
       </c>
       <c r="H95" t="s" s="10">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I95" t="n" s="10">
         <v>2.4040980573E10</v>
@@ -8274,8 +9825,26 @@
       <c r="Q95" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R95" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S95" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T95" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U95" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V95" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W95" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y95" t="n" s="10">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z95" s="10">
         <f>(689455.0/30)</f>
@@ -8301,22 +9870,22 @@
         <v>472.0</v>
       </c>
       <c r="C96" t="s" s="10">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D96" t="s" s="10">
         <v>125</v>
       </c>
       <c r="E96" t="s" s="10">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F96" t="s" s="10">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G96" s="10">
         <f>concatenate(c96,d96,e96,f96)</f>
       </c>
       <c r="H96" t="s" s="10">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I96" t="n" s="10">
         <v>2.4040935744E10</v>
@@ -8345,8 +9914,26 @@
       <c r="Q96" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R96" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S96" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T96" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U96" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V96" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W96" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y96" t="n" s="10">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z96" s="10">
         <f>(689455.0/30)</f>
@@ -8372,7 +9959,7 @@
         <v>491.0</v>
       </c>
       <c r="C97" t="s" s="10">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D97" t="s" s="10">
         <v>48</v>
@@ -8381,13 +9968,13 @@
         <v>45</v>
       </c>
       <c r="F97" t="s" s="10">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G97" s="10">
         <f>concatenate(c97,d97,e97,f97)</f>
       </c>
       <c r="H97" t="s" s="10">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I97" t="n" s="10">
         <v>2.4041395008E10</v>
@@ -8416,8 +10003,26 @@
       <c r="Q97" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R97" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S97" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T97" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U97" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V97" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W97" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y97" t="n" s="10">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z97" s="10">
         <f>(689455.0/30)</f>
@@ -8443,22 +10048,22 @@
         <v>502.0</v>
       </c>
       <c r="C98" t="s" s="10">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D98" t="s" s="10">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E98" t="s" s="10">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F98" t="s" s="10">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G98" s="10">
         <f>concatenate(c98,d98,e98,f98)</f>
       </c>
       <c r="H98" t="s" s="10">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I98" t="n" s="10">
         <v>2.4041860146E10</v>
@@ -8487,8 +10092,26 @@
       <c r="Q98" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R98" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S98" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T98" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U98" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V98" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W98" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y98" t="n" s="10">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z98" s="10">
         <f>(689455.0/30)</f>
@@ -8517,10 +10140,10 @@
         <v>48</v>
       </c>
       <c r="D99" t="s" s="10">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E99" t="s" s="10">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F99" t="s" s="10">
         <v>105</v>
@@ -8529,7 +10152,7 @@
         <f>concatenate(c99,d99,e99,f99)</f>
       </c>
       <c r="H99" t="s" s="10">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I99" t="n" s="10">
         <v>2.4054172489E10</v>
@@ -8558,8 +10181,26 @@
       <c r="Q99" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R99" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S99" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T99" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U99" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V99" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W99" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y99" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z99" s="10">
         <f>(689455.0/30)</f>
@@ -8585,22 +10226,22 @@
         <v>1021.0</v>
       </c>
       <c r="C100" t="s" s="10">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D100" t="s" s="10">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E100" t="s" s="10">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s" s="10">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G100" s="10">
         <f>concatenate(c100,d100,e100,f100)</f>
       </c>
       <c r="H100" t="s" s="10">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I100" t="n" s="10">
         <v>2.4055841694E10</v>
@@ -8629,8 +10270,26 @@
       <c r="Q100" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R100" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S100" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T100" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U100" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V100" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W100" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y100" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z100" s="10">
         <f>(689455.0/30)</f>
@@ -8656,22 +10315,22 @@
         <v>1050.0</v>
       </c>
       <c r="C101" t="s" s="10">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D101" t="s" s="10">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E101" t="s" s="10">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F101" t="s" s="10">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G101" s="10">
         <f>concatenate(c101,d101,e101,f101)</f>
       </c>
       <c r="H101" t="s" s="10">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I101" t="n" s="10">
         <v>2.4041265556E10</v>
@@ -8700,8 +10359,26 @@
       <c r="Q101" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R101" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S101" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T101" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U101" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V101" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W101" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y101" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z101" s="10">
         <f>(689455.0/30)</f>
@@ -8727,13 +10404,13 @@
         <v>1067.0</v>
       </c>
       <c r="C102" t="s" s="10">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D102" t="s" s="10">
         <v>125</v>
       </c>
       <c r="E102" t="s" s="10">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F102" t="s" s="10">
         <v>125</v>
@@ -8742,7 +10419,7 @@
         <f>concatenate(c102,d102,e102,f102)</f>
       </c>
       <c r="H102" t="s" s="10">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I102" t="n" s="10">
         <v>2.4056458886E10</v>
@@ -8771,8 +10448,26 @@
       <c r="Q102" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R102" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S102" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T102" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U102" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V102" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W102" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y102" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z102" s="10">
         <f>(689455.0/30)</f>
@@ -8798,22 +10493,22 @@
         <v>1080.0</v>
       </c>
       <c r="C103" t="s" s="10">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D103" t="s" s="10">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E103" t="s" s="10">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F103" t="s" s="10">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G103" s="10">
         <f>concatenate(c103,d103,e103,f103)</f>
       </c>
       <c r="H103" t="s" s="10">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I103" t="n" s="10">
         <v>2.4056675148E10</v>
@@ -8842,8 +10537,26 @@
       <c r="Q103" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R103" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S103" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T103" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U103" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V103" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W103" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y103" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z103" s="10">
         <f>(689455.0/30)</f>
@@ -8869,13 +10582,13 @@
         <v>1104.0</v>
       </c>
       <c r="C104" t="s" s="10">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D104" t="s" s="10">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E104" t="s" s="10">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F104" t="s" s="10">
         <v>125</v>
@@ -8884,7 +10597,7 @@
         <f>concatenate(c104,d104,e104,f104)</f>
       </c>
       <c r="H104" t="s" s="10">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I104" t="n" s="10">
         <v>2.4041264933E10</v>
@@ -8913,8 +10626,26 @@
       <c r="Q104" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R104" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S104" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T104" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U104" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V104" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W104" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y104" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z104" s="10">
         <f>(689455.0/30)</f>
@@ -8940,13 +10671,13 @@
         <v>1105.0</v>
       </c>
       <c r="C105" t="s" s="10">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D105" t="s" s="10">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E105" t="s" s="10">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F105" t="s" s="10">
         <v>125</v>
@@ -8955,7 +10686,7 @@
         <f>concatenate(c105,d105,e105,f105)</f>
       </c>
       <c r="H105" t="s" s="10">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I105" t="n" s="10">
         <v>2.4041022456E10</v>
@@ -8984,8 +10715,26 @@
       <c r="Q105" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R105" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S105" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T105" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U105" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V105" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W105" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y105" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z105" s="10">
         <f>(689455.0/30)</f>
@@ -9011,13 +10760,13 @@
         <v>-6.0</v>
       </c>
       <c r="C106" t="s" s="7">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D106" t="s" s="7">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E106" t="s" s="7">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F106" t="s" s="7">
         <v>118</v>
@@ -9026,7 +10775,7 @@
         <f>concatenate(c106,d106,e106,f106)</f>
       </c>
       <c r="H106" t="s" s="7">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I106" t="n" s="10">
         <v>2.4040908836E10</v>
@@ -9055,8 +10804,26 @@
       <c r="Q106" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R106" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S106" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T106" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U106" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V106" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W106" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y106" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z106" s="10">
         <f>(689455.0/30)</f>
@@ -9082,13 +10849,13 @@
         <v>224.0</v>
       </c>
       <c r="C107" t="s" s="10">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D107" t="s" s="10">
         <v>121</v>
       </c>
       <c r="E107" t="s" s="10">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F107" t="s" s="10">
         <v>58</v>
@@ -9097,7 +10864,7 @@
         <f>concatenate(c107,d107,e107,f107)</f>
       </c>
       <c r="H107" t="s" s="10">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I107" t="n" s="10">
         <v>2.4040980085E10</v>
@@ -9126,8 +10893,26 @@
       <c r="Q107" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R107" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S107" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T107" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U107" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V107" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W107" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y107" t="n" s="10">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z107" s="10">
         <f>(689455.0/30)</f>
@@ -9153,22 +10938,22 @@
         <v>779.0</v>
       </c>
       <c r="C108" t="s" s="10">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D108" t="s" s="10">
         <v>65</v>
       </c>
       <c r="E108" t="s" s="10">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F108" t="s" s="10">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G108" s="10">
         <f>concatenate(c108,d108,e108,f108)</f>
       </c>
       <c r="H108" t="s" s="10">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I108" t="n" s="10">
         <v>2.4050221567E10</v>
@@ -9197,8 +10982,26 @@
       <c r="Q108" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R108" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S108" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T108" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U108" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V108" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W108" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y108" t="n" s="10">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z108" s="10">
         <f>(689455.0/30)</f>
@@ -9224,13 +11027,13 @@
         <v>849.0</v>
       </c>
       <c r="C109" t="s" s="10">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D109" t="s" s="10">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E109" t="s" s="10">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F109" t="s" s="10">
         <v>125</v>
@@ -9239,7 +11042,7 @@
         <f>concatenate(c109,d109,e109,f109)</f>
       </c>
       <c r="H109" t="s" s="10">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I109" t="n" s="10">
         <v>2.4041023644E10</v>
@@ -9268,8 +11071,26 @@
       <c r="Q109" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R109" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S109" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T109" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U109" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V109" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W109" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y109" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z109" s="10">
         <f>(689455.0/30)</f>
@@ -9295,13 +11116,13 @@
         <v>907.0</v>
       </c>
       <c r="C110" t="s" s="10">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D110" t="s" s="10">
         <v>79</v>
       </c>
       <c r="E110" t="s" s="10">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F110" t="s" s="10">
         <v>125</v>
@@ -9310,7 +11131,7 @@
         <f>concatenate(c110,d110,e110,f110)</f>
       </c>
       <c r="H110" t="s" s="10">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I110" t="n" s="10">
         <v>2.4054250271E10</v>
@@ -9339,8 +11160,26 @@
       <c r="Q110" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R110" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S110" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T110" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U110" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V110" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W110" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y110" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z110" s="10">
         <f>(689455.0/30)</f>
@@ -9366,22 +11205,22 @@
         <v>993.0</v>
       </c>
       <c r="C111" t="s" s="10">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D111" t="s" s="10">
         <v>61</v>
       </c>
       <c r="E111" t="s" s="10">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F111" t="s" s="10">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G111" s="10">
         <f>concatenate(c111,d111,e111,f111)</f>
       </c>
       <c r="H111" t="s" s="10">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I111" t="n" s="10">
         <v>2.4056382105E10</v>
@@ -9410,8 +11249,26 @@
       <c r="Q111" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R111" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S111" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T111" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U111" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V111" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W111" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y111" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z111" s="10">
         <f>(689455.0/30)</f>
@@ -9443,7 +11300,7 @@
         <v>140</v>
       </c>
       <c r="E112" t="s" s="10">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F112" t="s" s="10">
         <v>105</v>
@@ -9452,7 +11309,7 @@
         <f>concatenate(c112,d112,e112,f112)</f>
       </c>
       <c r="H112" t="s" s="10">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I112" t="n" s="10">
         <v>2.4046148074E10</v>
@@ -9481,8 +11338,26 @@
       <c r="Q112" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R112" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S112" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T112" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U112" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V112" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W112" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y112" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z112" s="10">
         <f>(689455.0/30)</f>
@@ -9508,13 +11383,13 @@
         <v>140.0</v>
       </c>
       <c r="C113" t="s" s="7">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D113" t="s" s="7">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E113" t="s" s="7">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F113" t="s" s="7">
         <v>125</v>
@@ -9523,7 +11398,7 @@
         <f>concatenate(c113,d113,e113,f113)</f>
       </c>
       <c r="H113" t="s" s="7">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I113" t="n" s="10">
         <v>2.4040876218E10</v>
@@ -9552,8 +11427,26 @@
       <c r="Q113" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R113" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S113" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T113" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U113" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V113" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W113" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y113" t="n" s="10">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z113" s="10">
         <f>(689455.0/30)</f>
@@ -9579,22 +11472,22 @@
         <v>199.0</v>
       </c>
       <c r="C114" t="s" s="10">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D114" t="s" s="10">
         <v>140</v>
       </c>
       <c r="E114" t="s" s="10">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F114" t="s" s="10">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G114" s="10">
         <f>concatenate(c114,d114,e114,f114)</f>
       </c>
       <c r="H114" t="s" s="10">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I114" t="n" s="10">
         <v>2.4041596515E10</v>
@@ -9623,8 +11516,26 @@
       <c r="Q114" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R114" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S114" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T114" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U114" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V114" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W114" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y114" t="n" s="10">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z114" s="10">
         <f>(689455.0/30)</f>
@@ -9650,13 +11561,13 @@
         <v>313.0</v>
       </c>
       <c r="C115" t="s" s="10">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D115" t="s" s="10">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E115" t="s" s="10">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F115" t="s" s="10">
         <v>118</v>
@@ -9665,7 +11576,7 @@
         <f>concatenate(c115,d115,e115,f115)</f>
       </c>
       <c r="H115" t="s" s="10">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I115" t="n" s="10">
         <v>2.4041022704E10</v>
@@ -9694,8 +11605,26 @@
       <c r="Q115" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R115" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S115" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T115" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U115" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V115" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W115" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y115" t="n" s="10">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z115" s="10">
         <f>(689455.0/30)</f>
@@ -9721,22 +11650,22 @@
         <v>325.0</v>
       </c>
       <c r="C116" t="s" s="10">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D116" t="s" s="10">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E116" t="s" s="10">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F116" t="s" s="10">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G116" s="10">
         <f>concatenate(c116,d116,e116,f116)</f>
       </c>
       <c r="H116" t="s" s="10">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I116" t="n" s="10">
         <v>2.4041023017E10</v>
@@ -9765,8 +11694,26 @@
       <c r="Q116" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R116" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S116" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T116" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U116" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V116" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W116" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y116" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z116" s="10">
         <f>(689455.0/30)</f>
@@ -9792,22 +11739,22 @@
         <v>329.0</v>
       </c>
       <c r="C117" t="s" s="10">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D117" t="s" s="10">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E117" t="s" s="10">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F117" t="s" s="10">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G117" s="10">
         <f>concatenate(c117,d117,e117,f117)</f>
       </c>
       <c r="H117" t="s" s="10">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I117" t="n" s="10">
         <v>2.4041022805E10</v>
@@ -9836,8 +11783,26 @@
       <c r="Q117" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R117" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S117" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T117" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U117" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V117" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W117" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y117" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z117" s="10">
         <f>(689455.0/30)</f>
@@ -9863,13 +11828,13 @@
         <v>545.0</v>
       </c>
       <c r="C118" t="s" s="10">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D118" t="s" s="10">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E118" t="s" s="10">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F118" t="s" s="10">
         <v>82</v>
@@ -9878,7 +11843,7 @@
         <f>concatenate(c118,d118,e118,f118)</f>
       </c>
       <c r="H118" t="s" s="10">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I118" t="n" s="10">
         <v>2.4042181101E10</v>
@@ -9907,8 +11872,26 @@
       <c r="Q118" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R118" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S118" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T118" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U118" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V118" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W118" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y118" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z118" s="10">
         <f>(689455.0/30)</f>
@@ -9934,22 +11917,22 @@
         <v>557.0</v>
       </c>
       <c r="C119" t="s" s="10">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D119" t="s" s="10">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E119" t="s" s="10">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F119" t="s" s="10">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G119" s="10">
         <f>concatenate(c119,d119,e119,f119)</f>
       </c>
       <c r="H119" t="s" s="10">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I119" t="n" s="10">
         <v>2.4042489083E10</v>
@@ -9978,8 +11961,26 @@
       <c r="Q119" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R119" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S119" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T119" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U119" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V119" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W119" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y119" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z119" s="10">
         <f>(689455.0/30)</f>
@@ -10005,22 +12006,22 @@
         <v>706.0</v>
       </c>
       <c r="C120" t="s" s="10">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D120" t="s" s="10">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="E120" t="s" s="10">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F120" t="s" s="10">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G120" s="10">
         <f>concatenate(c120,d120,e120,f120)</f>
       </c>
       <c r="H120" t="s" s="10">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I120" t="n" s="10">
         <v>2.4045679962E10</v>
@@ -10049,8 +12050,26 @@
       <c r="Q120" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R120" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S120" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T120" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U120" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V120" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W120" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y120" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z120" s="10">
         <f>(689455.0/30)</f>
@@ -10076,22 +12095,22 @@
         <v>331.0</v>
       </c>
       <c r="C121" t="s" s="7">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D121" t="s" s="7">
         <v>128</v>
       </c>
       <c r="E121" t="s" s="7">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F121" t="s" s="7">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G121" s="7">
         <f>concatenate(c121,d121,e121,f121)</f>
       </c>
       <c r="H121" t="s" s="7">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I121" t="n" s="10">
         <v>2.4040875253E10</v>
@@ -10120,8 +12139,26 @@
       <c r="Q121" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R121" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S121" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T121" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U121" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V121" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W121" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y121" t="n" s="10">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z121" s="10">
         <f>(689455.0/30)</f>
@@ -10147,7 +12184,7 @@
         <v>317.0</v>
       </c>
       <c r="C122" t="s" s="10">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D122" t="s" s="10">
         <v>128</v>
@@ -10156,13 +12193,13 @@
         <v>45</v>
       </c>
       <c r="F122" t="s" s="10">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G122" s="10">
         <f>concatenate(c122,d122,e122,f122)</f>
       </c>
       <c r="H122" t="s" s="10">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I122" t="n" s="10">
         <v>2.4041022519E10</v>
@@ -10191,8 +12228,26 @@
       <c r="Q122" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R122" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S122" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T122" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U122" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V122" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W122" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y122" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z122" s="10">
         <f>(689455.0/30)</f>
@@ -10218,22 +12273,22 @@
         <v>330.0</v>
       </c>
       <c r="C123" t="s" s="10">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D123" t="s" s="10">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E123" t="s" s="10">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F123" t="s" s="10">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G123" s="10">
         <f>concatenate(c123,d123,e123,f123)</f>
       </c>
       <c r="H123" t="s" s="10">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I123" t="n" s="10">
         <v>2.4040874692E10</v>
@@ -10262,8 +12317,26 @@
       <c r="Q123" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R123" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S123" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T123" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U123" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V123" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W123" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y123" t="n" s="10">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z123" s="10">
         <f>(689455.0/30)</f>
@@ -10289,22 +12362,22 @@
         <v>459.0</v>
       </c>
       <c r="C124" t="s" s="10">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D124" t="s" s="10">
         <v>65</v>
       </c>
       <c r="E124" t="s" s="10">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F124" t="s" s="10">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G124" s="10">
         <f>concatenate(c124,d124,e124,f124)</f>
       </c>
       <c r="H124" t="s" s="10">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I124" t="n" s="10">
         <v>2.4040875385E10</v>
@@ -10333,8 +12406,26 @@
       <c r="Q124" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R124" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S124" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T124" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U124" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V124" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W124" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y124" t="n" s="10">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z124" s="10">
         <f>(689455.0/30)</f>
@@ -10360,13 +12451,13 @@
         <v>592.0</v>
       </c>
       <c r="C125" t="s" s="10">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D125" t="s" s="10">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E125" t="s" s="10">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F125" t="s" s="10">
         <v>118</v>
@@ -10375,7 +12466,7 @@
         <f>concatenate(c125,d125,e125,f125)</f>
       </c>
       <c r="H125" t="s" s="10">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I125" t="n" s="10">
         <v>2.4041862267E10</v>
@@ -10404,8 +12495,26 @@
       <c r="Q125" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R125" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S125" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T125" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U125" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V125" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W125" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y125" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z125" s="10">
         <f>(689455.0/30)</f>
@@ -10437,16 +12546,16 @@
         <v>92</v>
       </c>
       <c r="E126" t="s" s="10">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F126" t="s" s="10">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G126" s="10">
         <f>concatenate(c126,d126,e126,f126)</f>
       </c>
       <c r="H126" t="s" s="10">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I126" t="n" s="10">
         <v>2.4041418437E10</v>
@@ -10475,8 +12584,26 @@
       <c r="Q126" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R126" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S126" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T126" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U126" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V126" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W126" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y126" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z126" s="10">
         <f>(689455.0/30)</f>
@@ -10502,13 +12629,13 @@
         <v>605.0</v>
       </c>
       <c r="C127" t="s" s="10">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D127" t="s" s="10">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E127" t="s" s="10">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F127" t="s" s="10">
         <v>105</v>
@@ -10517,7 +12644,7 @@
         <f>concatenate(c127,d127,e127,f127)</f>
       </c>
       <c r="H127" t="s" s="10">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I127" t="n" s="10">
         <v>2.4043531716E10</v>
@@ -10546,8 +12673,26 @@
       <c r="Q127" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R127" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S127" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T127" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U127" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V127" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W127" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y127" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z127" s="10">
         <f>(689455.0/30)</f>
@@ -10573,22 +12718,22 @@
         <v>740.0</v>
       </c>
       <c r="C128" t="s" s="10">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D128" t="s" s="10">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E128" t="s" s="10">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F128" t="s" s="10">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G128" s="10">
         <f>concatenate(c128,d128,e128,f128)</f>
       </c>
       <c r="H128" t="s" s="10">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I128" t="n" s="10">
         <v>2.4046415813E10</v>
@@ -10617,8 +12762,26 @@
       <c r="Q128" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R128" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S128" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T128" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U128" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V128" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W128" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y128" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z128" s="10">
         <f>(689455.0/30)</f>
@@ -10644,22 +12807,22 @@
         <v>755.0</v>
       </c>
       <c r="C129" t="s" s="10">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D129" t="s" s="10">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E129" t="s" s="10">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F129" t="s" s="10">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G129" s="10">
         <f>concatenate(c129,d129,e129,f129)</f>
       </c>
       <c r="H129" t="s" s="10">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I129" t="n" s="10">
         <v>2.4046845243E10</v>
@@ -10688,8 +12851,26 @@
       <c r="Q129" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R129" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S129" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T129" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U129" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V129" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W129" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y129" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z129" s="10">
         <f>(689455.0/30)</f>
@@ -10715,13 +12896,13 @@
         <v>-7.0</v>
       </c>
       <c r="C130" t="s" s="7">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D130" t="s" s="7">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="E130" t="s" s="7">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F130" t="s" s="7">
         <v>119</v>
@@ -10730,7 +12911,7 @@
         <f>concatenate(c130,d130,e130,f130)</f>
       </c>
       <c r="H130" t="s" s="7">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I130" t="n" s="10">
         <v>2.4040877235E10</v>
@@ -10759,8 +12940,26 @@
       <c r="Q130" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R130" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S130" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T130" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U130" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V130" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W130" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y130" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z130" s="10">
         <f>(689455.0/30)</f>
@@ -10786,22 +12985,22 @@
         <v>32.0</v>
       </c>
       <c r="C131" t="s" s="10">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D131" t="s" s="10">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E131" t="s" s="10">
         <v>45</v>
       </c>
       <c r="F131" t="s" s="10">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G131" s="10">
         <f>concatenate(c131,d131,e131,f131)</f>
       </c>
       <c r="H131" t="s" s="10">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I131" t="n" s="10">
         <v>2.4041266845E10</v>
@@ -10830,8 +13029,26 @@
       <c r="Q131" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R131" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S131" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T131" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U131" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V131" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W131" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y131" t="n" s="10">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z131" s="10">
         <f>(689455.0/30)</f>
@@ -10857,22 +13074,22 @@
         <v>48.0</v>
       </c>
       <c r="C132" t="s" s="10">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D132" t="s" s="10">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E132" t="s" s="10">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F132" t="s" s="10">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G132" s="10">
         <f>concatenate(c132,d132,e132,f132)</f>
       </c>
       <c r="H132" t="s" s="10">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I132" t="n" s="10">
         <v>2.4040879161E10</v>
@@ -10901,8 +13118,26 @@
       <c r="Q132" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R132" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S132" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T132" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U132" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V132" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W132" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y132" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z132" s="10">
         <f>(689455.0/30)</f>
@@ -10931,19 +13166,19 @@
         <v>48</v>
       </c>
       <c r="D133" t="s" s="10">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E133" t="s" s="10">
         <v>119</v>
       </c>
       <c r="F133" t="s" s="10">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G133" s="10">
         <f>concatenate(c133,d133,e133,f133)</f>
       </c>
       <c r="H133" t="s" s="10">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I133" t="n" s="10">
         <v>2.4040993795E10</v>
@@ -10972,8 +13207,26 @@
       <c r="Q133" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R133" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S133" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T133" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U133" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V133" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W133" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y133" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z133" s="10">
         <f>(689455.0/30)</f>
@@ -10999,22 +13252,22 @@
         <v>73.0</v>
       </c>
       <c r="C134" t="s" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D134" t="s" s="10">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E134" t="s" s="10">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F134" t="s" s="10">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G134" s="10">
         <f>concatenate(c134,d134,e134,f134)</f>
       </c>
       <c r="H134" t="s" s="10">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I134" t="n" s="10">
         <v>2.4040874539E10</v>
@@ -11043,8 +13296,26 @@
       <c r="Q134" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R134" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S134" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T134" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U134" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V134" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W134" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y134" t="n" s="10">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z134" s="10">
         <f>(689455.0/30)</f>
@@ -11070,22 +13341,22 @@
         <v>218.0</v>
       </c>
       <c r="C135" t="s" s="10">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D135" t="s" s="10">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E135" t="s" s="10">
         <v>93</v>
       </c>
       <c r="F135" t="s" s="10">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G135" s="10">
         <f>concatenate(c135,d135,e135,f135)</f>
       </c>
       <c r="H135" t="s" s="10">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="I135" t="n" s="10">
         <v>2.4040933832E10</v>
@@ -11114,8 +13385,26 @@
       <c r="Q135" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R135" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S135" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T135" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U135" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V135" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W135" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y135" t="n" s="10">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z135" s="10">
         <f>(689455.0/30)</f>
@@ -11141,22 +13430,22 @@
         <v>231.0</v>
       </c>
       <c r="C136" t="s" s="10">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D136" t="s" s="10">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E136" t="s" s="10">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F136" t="s" s="10">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G136" s="10">
         <f>concatenate(c136,d136,e136,f136)</f>
       </c>
       <c r="H136" t="s" s="10">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I136" t="n" s="10">
         <v>2.4041021958E10</v>
@@ -11185,8 +13474,26 @@
       <c r="Q136" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R136" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S136" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T136" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U136" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V136" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W136" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y136" t="n" s="10">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z136" s="10">
         <f>(689455.0/30)</f>
@@ -11212,13 +13519,13 @@
         <v>288.0</v>
       </c>
       <c r="C137" t="s" s="10">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D137" t="s" s="10">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E137" t="s" s="10">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F137" t="s" s="10">
         <v>125</v>
@@ -11227,7 +13534,7 @@
         <f>concatenate(c137,d137,e137,f137)</f>
       </c>
       <c r="H137" t="s" s="10">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="I137" t="n" s="10">
         <v>2.4041265208E10</v>
@@ -11256,8 +13563,26 @@
       <c r="Q137" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R137" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S137" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T137" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U137" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V137" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W137" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y137" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z137" s="10">
         <f>(689455.0/30)</f>
@@ -11283,13 +13608,13 @@
         <v>293.0</v>
       </c>
       <c r="C138" t="s" s="10">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D138" t="s" s="10">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="E138" t="s" s="10">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F138" t="s" s="10">
         <v>125</v>
@@ -11298,7 +13623,7 @@
         <f>concatenate(c138,d138,e138,f138)</f>
       </c>
       <c r="H138" t="s" s="10">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I138" t="n" s="10">
         <v>2.404102418E10</v>
@@ -11327,8 +13652,26 @@
       <c r="Q138" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R138" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S138" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T138" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U138" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V138" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W138" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y138" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z138" s="10">
         <f>(689455.0/30)</f>
@@ -11354,13 +13697,13 @@
         <v>423.0</v>
       </c>
       <c r="C139" t="s" s="10">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D139" t="s" s="10">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E139" t="s" s="10">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F139" t="s" s="10">
         <v>45</v>
@@ -11369,7 +13712,7 @@
         <f>concatenate(c139,d139,e139,f139)</f>
       </c>
       <c r="H139" t="s" s="10">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="I139" t="n" s="10">
         <v>2.4040874166E10</v>
@@ -11398,8 +13741,26 @@
       <c r="Q139" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R139" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S139" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T139" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U139" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V139" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W139" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y139" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z139" s="10">
         <f>(689455.0/30)</f>
@@ -11425,22 +13786,22 @@
         <v>514.0</v>
       </c>
       <c r="C140" t="s" s="10">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D140" t="s" s="10">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E140" t="s" s="10">
         <v>51</v>
       </c>
       <c r="F140" t="s" s="10">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G140" s="10">
         <f>concatenate(c140,d140,e140,f140)</f>
       </c>
       <c r="H140" t="s" s="10">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="I140" t="n" s="10">
         <v>2.4041863974E10</v>
@@ -11469,8 +13830,26 @@
       <c r="Q140" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R140" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S140" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T140" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U140" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V140" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W140" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y140" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z140" s="10">
         <f>(689455.0/30)</f>
@@ -11496,22 +13875,22 @@
         <v>516.0</v>
       </c>
       <c r="C141" t="s" s="10">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D141" t="s" s="10">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E141" t="s" s="10">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F141" t="s" s="10">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G141" s="10">
         <f>concatenate(c141,d141,e141,f141)</f>
       </c>
       <c r="H141" t="s" s="10">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I141" t="n" s="10">
         <v>2.4041860177E10</v>
@@ -11540,8 +13919,26 @@
       <c r="Q141" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R141" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S141" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T141" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U141" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V141" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W141" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y141" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z141" s="10">
         <f>(689455.0/30)</f>
@@ -11567,22 +13964,22 @@
         <v>574.0</v>
       </c>
       <c r="C142" t="s" s="10">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D142" t="s" s="10">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E142" t="s" s="10">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F142" t="s" s="10">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G142" s="10">
         <f>concatenate(c142,d142,e142,f142)</f>
       </c>
       <c r="H142" t="s" s="10">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I142" t="n" s="10">
         <v>2.4042906665E10</v>
@@ -11611,8 +14008,26 @@
       <c r="Q142" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R142" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S142" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T142" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U142" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V142" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W142" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y142" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z142" s="10">
         <f>(689455.0/30)</f>
@@ -11638,22 +14053,22 @@
         <v>598.0</v>
       </c>
       <c r="C143" t="s" s="10">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D143" t="s" s="10">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E143" t="s" s="10">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F143" t="s" s="10">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G143" s="10">
         <f>concatenate(c143,d143,e143,f143)</f>
       </c>
       <c r="H143" t="s" s="10">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="I143" t="n" s="10">
         <v>2.4043159664E10</v>
@@ -11682,8 +14097,26 @@
       <c r="Q143" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R143" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S143" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T143" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U143" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V143" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W143" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y143" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z143" s="10">
         <f>(689455.0/30)</f>
@@ -11709,22 +14142,22 @@
         <v>626.0</v>
       </c>
       <c r="C144" t="s" s="10">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D144" t="s" s="10">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E144" t="s" s="10">
         <v>38</v>
       </c>
       <c r="F144" t="s" s="10">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G144" s="10">
         <f>concatenate(c144,d144,e144,f144)</f>
       </c>
       <c r="H144" t="s" s="10">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="I144" t="n" s="10">
         <v>2.4044488567E10</v>
@@ -11753,8 +14186,26 @@
       <c r="Q144" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R144" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S144" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T144" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U144" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V144" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W144" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y144" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z144" s="10">
         <f>(689455.0/30)</f>
@@ -11780,13 +14231,13 @@
         <v>791.0</v>
       </c>
       <c r="C145" t="s" s="10">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D145" t="s" s="10">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E145" t="s" s="10">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F145" t="s" s="10">
         <v>125</v>
@@ -11795,7 +14246,7 @@
         <f>concatenate(c145,d145,e145,f145)</f>
       </c>
       <c r="H145" t="s" s="10">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="I145" t="n" s="10">
         <v>2.4051011338E10</v>
@@ -11824,8 +14275,26 @@
       <c r="Q145" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R145" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S145" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T145" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U145" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V145" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W145" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y145" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z145" s="10">
         <f>(689455.0/30)</f>
@@ -11851,13 +14320,13 @@
         <v>920.0</v>
       </c>
       <c r="C146" t="s" s="10">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D146" t="s" s="10">
         <v>133</v>
       </c>
       <c r="E146" t="s" s="10">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F146" t="s" s="10">
         <v>39</v>
@@ -11866,7 +14335,7 @@
         <f>concatenate(c146,d146,e146,f146)</f>
       </c>
       <c r="H146" t="s" s="10">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="I146" t="n" s="10">
         <v>2.4054525881E10</v>
@@ -11895,8 +14364,26 @@
       <c r="Q146" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R146" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S146" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T146" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U146" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V146" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W146" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y146" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z146" s="10">
         <f>(689455.0/30)</f>
@@ -11925,19 +14412,19 @@
         <v>136</v>
       </c>
       <c r="D147" t="s" s="10">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E147" t="s" s="10">
         <v>45</v>
       </c>
       <c r="F147" t="s" s="10">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G147" s="10">
         <f>concatenate(c147,d147,e147,f147)</f>
       </c>
       <c r="H147" t="s" s="10">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="I147" t="n" s="10">
         <v>2.4054861208E10</v>
@@ -11966,8 +14453,26 @@
       <c r="Q147" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R147" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S147" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T147" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U147" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V147" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W147" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y147" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z147" s="10">
         <f>(689455.0/30)</f>
@@ -11993,22 +14498,22 @@
         <v>970.0</v>
       </c>
       <c r="C148" t="s" s="10">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D148" t="s" s="10">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E148" t="s" s="10">
         <v>38</v>
       </c>
       <c r="F148" t="s" s="10">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G148" s="10">
         <f>concatenate(c148,d148,e148,f148)</f>
       </c>
       <c r="H148" t="s" s="10">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="I148" t="n" s="10">
         <v>2.4046162962E10</v>
@@ -12037,8 +14542,26 @@
       <c r="Q148" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R148" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S148" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T148" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U148" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V148" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W148" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y148" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z148" s="10">
         <f>(689455.0/30)</f>
@@ -12064,22 +14587,22 @@
         <v>1009.0</v>
       </c>
       <c r="C149" t="s" s="10">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D149" t="s" s="10">
         <v>125</v>
       </c>
       <c r="E149" t="s" s="10">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F149" t="s" s="10">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G149" s="10">
         <f>concatenate(c149,d149,e149,f149)</f>
       </c>
       <c r="H149" t="s" s="10">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I149" t="n" s="10">
         <v>2.4055737795E10</v>
@@ -12108,8 +14631,26 @@
       <c r="Q149" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R149" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S149" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T149" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U149" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V149" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W149" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y149" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z149" s="10">
         <f>(689455.0/30)</f>
@@ -12135,13 +14676,13 @@
         <v>1065.0</v>
       </c>
       <c r="C150" t="s" s="10">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D150" t="s" s="10">
         <v>55</v>
       </c>
       <c r="E150" t="s" s="10">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F150" t="s" s="10">
         <v>118</v>
@@ -12150,7 +14691,7 @@
         <f>concatenate(c150,d150,e150,f150)</f>
       </c>
       <c r="H150" t="s" s="10">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="I150" t="n" s="10">
         <v>2.4041265253E10</v>
@@ -12179,8 +14720,26 @@
       <c r="Q150" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R150" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S150" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T150" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U150" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V150" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W150" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y150" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z150" s="10">
         <f>(689455.0/30)</f>
@@ -12206,13 +14765,13 @@
         <v>1103.0</v>
       </c>
       <c r="C151" t="s" s="10">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D151" t="s" s="10">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E151" t="s" s="10">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F151" t="s" s="10">
         <v>125</v>
@@ -12221,7 +14780,7 @@
         <f>concatenate(c151,d151,e151,f151)</f>
       </c>
       <c r="H151" t="s" s="10">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="I151" t="n" s="10">
         <v>2.4044829416E10</v>
@@ -12250,8 +14809,26 @@
       <c r="Q151" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R151" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S151" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T151" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U151" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V151" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W151" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y151" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z151" s="10">
         <f>(689455.0/30)</f>
@@ -12280,19 +14857,19 @@
         <v>80</v>
       </c>
       <c r="D152" t="s" s="10">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E152" t="s" s="10">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F152" t="s" s="10">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G152" s="10">
         <f>concatenate(c152,d152,e152,f152)</f>
       </c>
       <c r="H152" t="s" s="10">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="I152" t="n" s="10">
         <v>2.4059089816E10</v>
@@ -12321,8 +14898,26 @@
       <c r="Q152" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R152" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S152" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T152" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U152" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V152" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W152" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y152" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z152" s="10">
         <f>(689455.0/30)</f>
@@ -12348,22 +14943,22 @@
         <v>1115.0</v>
       </c>
       <c r="C153" t="s" s="10">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D153" t="s" s="10">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E153" t="s" s="10">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F153" t="s" s="10">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G153" s="10">
         <f>concatenate(c153,d153,e153,f153)</f>
       </c>
       <c r="H153" t="s" s="10">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I153" t="n" s="10">
         <v>2.4059055899E10</v>
@@ -12392,8 +14987,26 @@
       <c r="Q153" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R153" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S153" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T153" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U153" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V153" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W153" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y153" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z153" s="10">
         <f>(689455.0/30)</f>
@@ -12419,13 +15032,13 @@
         <v>1117.0</v>
       </c>
       <c r="C154" t="s" s="10">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D154" t="s" s="10">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E154" t="s" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F154" t="s" s="10">
         <v>39</v>
@@ -12434,7 +15047,7 @@
         <f>concatenate(c154,d154,e154,f154)</f>
       </c>
       <c r="H154" t="s" s="10">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I154" t="n" s="10">
         <v>2.4059238478E10</v>
@@ -12463,8 +15076,26 @@
       <c r="Q154" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R154" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S154" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T154" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U154" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V154" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W154" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y154" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z154" s="10">
         <f>(689455.0/30)</f>
@@ -12490,22 +15121,22 @@
         <v>1118.0</v>
       </c>
       <c r="C155" t="s" s="10">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D155" t="s" s="10">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E155" t="s" s="10">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F155" t="s" s="10">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G155" s="10">
         <f>concatenate(c155,d155,e155,f155)</f>
       </c>
       <c r="H155" t="s" s="10">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I155" t="n" s="10">
         <v>2.4054858163E10</v>
@@ -12534,8 +15165,26 @@
       <c r="Q155" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R155" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S155" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T155" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U155" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V155" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W155" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y155" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z155" s="10">
         <f>(689455.0/30)</f>
@@ -12561,13 +15210,13 @@
         <v>1120.0</v>
       </c>
       <c r="C156" t="s" s="10">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D156" t="s" s="10">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E156" t="s" s="10">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F156" t="s" s="10">
         <v>45</v>
@@ -12576,7 +15225,7 @@
         <f>concatenate(c156,d156,e156,f156)</f>
       </c>
       <c r="H156" t="s" s="10">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I156" t="n" s="10">
         <v>2.4053690977E10</v>
@@ -12605,8 +15254,26 @@
       <c r="Q156" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R156" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S156" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T156" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U156" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V156" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W156" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y156" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z156" s="10">
         <f>(689455.0/30)</f>
@@ -12635,19 +15302,19 @@
         <v>48</v>
       </c>
       <c r="D157" t="s" s="10">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E157" t="s" s="10">
         <v>45</v>
       </c>
       <c r="F157" t="s" s="10">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G157" s="10">
         <f>concatenate(c157,d157,e157,f157)</f>
       </c>
       <c r="H157" t="s" s="10">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="I157" t="n" s="10">
         <v>2.4040876542E10</v>
@@ -12676,8 +15343,26 @@
       <c r="Q157" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R157" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S157" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T157" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U157" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V157" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W157" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y157" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z157" s="10">
         <f>(689455.0/30)</f>
@@ -12703,22 +15388,22 @@
         <v>1122.0</v>
       </c>
       <c r="C158" t="s" s="10">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D158" t="s" s="10">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E158" t="s" s="10">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F158" t="s" s="10">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G158" s="10">
         <f>concatenate(c158,d158,e158,f158)</f>
       </c>
       <c r="H158" t="s" s="10">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I158" t="n" s="10">
         <v>2.4041266908E10</v>
@@ -12747,8 +15432,26 @@
       <c r="Q158" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R158" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S158" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T158" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U158" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V158" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W158" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y158" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z158" s="10">
         <f>(689455.0/30)</f>
@@ -12777,19 +15480,19 @@
         <v>108</v>
       </c>
       <c r="D159" t="s" s="10">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E159" t="s" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F159" t="s" s="10">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G159" s="10">
         <f>concatenate(c159,d159,e159,f159)</f>
       </c>
       <c r="H159" t="s" s="10">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I159" t="n" s="10">
         <v>2.4059506171E10</v>
@@ -12818,8 +15521,26 @@
       <c r="Q159" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R159" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S159" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T159" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U159" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V159" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W159" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y159" t="n" s="10">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z159" s="10">
         <f>(689455.0/30)</f>
@@ -12845,22 +15566,22 @@
         <v>1124.0</v>
       </c>
       <c r="C160" t="s" s="10">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D160" t="s" s="10">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E160" t="s" s="10">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F160" t="s" s="10">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G160" s="10">
         <f>concatenate(c160,d160,e160,f160)</f>
       </c>
       <c r="H160" t="s" s="10">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I160" t="n" s="10">
         <v>2.4042062192E10</v>
@@ -12889,8 +15610,26 @@
       <c r="Q160" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R160" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S160" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T160" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U160" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V160" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W160" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y160" t="n" s="10">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z160" s="10">
         <f>(689455.0/30)</f>
@@ -12916,22 +15655,22 @@
         <v>1127.0</v>
       </c>
       <c r="C161" t="s" s="10">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D161" t="s" s="10">
         <v>66</v>
       </c>
       <c r="E161" t="s" s="10">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F161" t="s" s="10">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G161" s="10">
         <f>concatenate(c161,d161,e161,f161)</f>
       </c>
       <c r="H161" t="s" s="10">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I161" t="n" s="10">
         <v>2.4060369644E10</v>
@@ -12960,8 +15699,26 @@
       <c r="Q161" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R161" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S161" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T161" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U161" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V161" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W161" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y161" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z161" s="10">
         <f>(689455.0/30)</f>
@@ -12987,22 +15744,22 @@
         <v>1133.0</v>
       </c>
       <c r="C162" t="s" s="10">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D162" t="s" s="10">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E162" t="s" s="10">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F162" t="s" s="10">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G162" s="10">
         <f>concatenate(c162,d162,e162,f162)</f>
       </c>
       <c r="H162" t="s" s="10">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I162" t="n" s="10">
         <v>2.4060368913E10</v>
@@ -13031,8 +15788,26 @@
       <c r="Q162" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R162" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S162" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T162" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U162" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V162" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W162" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y162" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z162" s="10">
         <f>(689455.0/30)</f>
@@ -13058,22 +15833,22 @@
         <v>1136.0</v>
       </c>
       <c r="C163" t="s" s="10">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D163" t="s" s="10">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E163" t="s" s="10">
         <v>122</v>
       </c>
       <c r="F163" t="s" s="10">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G163" s="10">
         <f>concatenate(c163,d163,e163,f163)</f>
       </c>
       <c r="H163" t="s" s="10">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="I163" t="n" s="10">
         <v>2.4061141724E10</v>
@@ -13102,8 +15877,26 @@
       <c r="Q163" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R163" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S163" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T163" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U163" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V163" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W163" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y163" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z163" s="10">
         <f>(689455.0/30)</f>
@@ -13129,22 +15922,22 @@
         <v>1137.0</v>
       </c>
       <c r="C164" t="s" s="10">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D164" t="s" s="10">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E164" t="s" s="10">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F164" t="s" s="10">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G164" s="10">
         <f>concatenate(c164,d164,e164,f164)</f>
       </c>
       <c r="H164" t="s" s="10">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="I164" t="n" s="10">
         <v>0.0</v>
@@ -13173,8 +15966,26 @@
       <c r="Q164" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="R164" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="S164" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="T164" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="U164" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="V164" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="W164" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y164" t="n" s="10">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z164" s="10">
         <f>(689455.0/30)</f>

--- a/personal/quincena.xlsx
+++ b/personal/quincena.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2385" uniqueCount="523">
   <si>
     <t>Convecciones</t>
   </si>
@@ -141,6 +141,9 @@
     <t>X</t>
   </si>
   <si>
+    <t>bonificacion</t>
+  </si>
+  <si>
     <t>CHALACAN</t>
   </si>
   <si>
@@ -174,373 +177,376 @@
     <t>N</t>
   </si>
   <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>BURBANO</t>
+  </si>
+  <si>
+    <t>\images\1.jpg</t>
+  </si>
+  <si>
+    <t>GERMAN</t>
+  </si>
+  <si>
+    <t>OSWALDO</t>
+  </si>
+  <si>
+    <t>12.754.736</t>
+  </si>
+  <si>
+    <t>MENESES</t>
+  </si>
+  <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>JAIRO</t>
+  </si>
+  <si>
+    <t>87.060.664</t>
+  </si>
+  <si>
+    <t>BOTINA</t>
+  </si>
+  <si>
+    <t>NUPAN</t>
+  </si>
+  <si>
+    <t>ROSA</t>
+  </si>
+  <si>
+    <t>ELVIRA</t>
+  </si>
+  <si>
+    <t>59.836.908</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>ERASO</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>CONCEPCION</t>
+  </si>
+  <si>
+    <t>27.204.225</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>GOMAJOA</t>
+  </si>
+  <si>
+    <t>NATIVEL</t>
+  </si>
+  <si>
+    <t>98.392.255</t>
+  </si>
+  <si>
+    <t>BENAVIDES</t>
+  </si>
+  <si>
+    <t>FLOREZ</t>
+  </si>
+  <si>
+    <t>EUGENIO</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>87.067.092</t>
+  </si>
+  <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>NARVAEZ</t>
+  </si>
+  <si>
+    <t>EDMUNDO</t>
+  </si>
+  <si>
+    <t>5.207.330</t>
+  </si>
+  <si>
+    <t>BUESAQUILLO</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>HUVEYMAR</t>
+  </si>
+  <si>
+    <t>1.085.275.131</t>
+  </si>
+  <si>
+    <t>TUTISTAR</t>
+  </si>
+  <si>
+    <t>ERLINTO</t>
+  </si>
+  <si>
+    <t>5.203.541</t>
+  </si>
+  <si>
+    <t>LEANDRO</t>
+  </si>
+  <si>
+    <t>MARINO</t>
+  </si>
+  <si>
+    <t>1.085.311.542</t>
+  </si>
+  <si>
+    <t>YORDIN</t>
+  </si>
+  <si>
+    <t>SEGUNDO</t>
+  </si>
+  <si>
+    <t>1.085.309.640</t>
+  </si>
+  <si>
+    <t>NICANOR</t>
+  </si>
+  <si>
+    <t>12.995.874</t>
+  </si>
+  <si>
+    <t>TIMARAN</t>
+  </si>
+  <si>
+    <t>WILMAR</t>
+  </si>
+  <si>
+    <t>ALEXANDER</t>
+  </si>
+  <si>
+    <t>1.084.224.396</t>
+  </si>
+  <si>
+    <t>CORTES</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>JHONY</t>
+  </si>
+  <si>
+    <t>SANDRO</t>
+  </si>
+  <si>
+    <t>98.385.039</t>
+  </si>
+  <si>
+    <t>CORTEZ</t>
+  </si>
+  <si>
+    <t>CUASPA</t>
+  </si>
+  <si>
+    <t>JOHNNY</t>
+  </si>
+  <si>
+    <t>STEVEN</t>
+  </si>
+  <si>
+    <t>1.085.319.345</t>
+  </si>
+  <si>
+    <t>ROSERO</t>
+  </si>
+  <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>1.085.271.056</t>
+  </si>
+  <si>
+    <t>CRIOLLO</t>
+  </si>
+  <si>
+    <t>JUAN</t>
+  </si>
+  <si>
+    <t>98.381.799</t>
+  </si>
+  <si>
+    <t>CABRERA</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>KENEDY</t>
+  </si>
+  <si>
+    <t>87.303.908</t>
+  </si>
+  <si>
+    <t>DELGADO</t>
+  </si>
+  <si>
+    <t>MANCISOY</t>
+  </si>
+  <si>
+    <t>MEDARDO</t>
+  </si>
+  <si>
+    <t>12.750.317</t>
+  </si>
+  <si>
+    <t>RIASCOS</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>HERMES</t>
+  </si>
+  <si>
+    <t>12.983.892</t>
+  </si>
+  <si>
+    <t>SAAVEDRA</t>
+  </si>
+  <si>
+    <t>CLAUDIO</t>
+  </si>
+  <si>
+    <t>ROBERTO</t>
+  </si>
+  <si>
+    <t>1.085.247.858</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>FRANCO</t>
+  </si>
+  <si>
+    <t>IGNACIO</t>
+  </si>
+  <si>
+    <t>12.964.012</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>LIBIO</t>
+  </si>
+  <si>
+    <t>1.085.252.017</t>
+  </si>
+  <si>
+    <t>CHACUA</t>
+  </si>
+  <si>
+    <t>ITUYAN</t>
+  </si>
+  <si>
+    <t>ALEXIS</t>
+  </si>
+  <si>
+    <t>JAVIER</t>
+  </si>
+  <si>
+    <t>1.126.449.550</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>HENRRY</t>
+  </si>
+  <si>
+    <t>FERNANDO</t>
+  </si>
+  <si>
+    <t>13.062.509</t>
+  </si>
+  <si>
+    <t>PORTILLA</t>
+  </si>
+  <si>
+    <t>CERON</t>
+  </si>
+  <si>
+    <t>NICOLAS</t>
+  </si>
+  <si>
+    <t>87.532.409</t>
+  </si>
+  <si>
+    <t>GELPUD</t>
+  </si>
+  <si>
+    <t>HEIMAN</t>
+  </si>
+  <si>
+    <t>GUILLERMO</t>
+  </si>
+  <si>
+    <t>87.061.316</t>
+  </si>
+  <si>
+    <t>GARCES</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>HERNAN</t>
+  </si>
+  <si>
+    <t>79.318.587</t>
+  </si>
+  <si>
+    <t>JURADO</t>
+  </si>
+  <si>
+    <t>MORA</t>
+  </si>
+  <si>
+    <t>HECTOR</t>
+  </si>
+  <si>
+    <t>DARIO</t>
+  </si>
+  <si>
+    <t>5.213.931</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>12.989.621</t>
+  </si>
+  <si>
     <t>%</t>
-  </si>
-  <si>
-    <t>BURBANO</t>
-  </si>
-  <si>
-    <t>\images\1.jpg</t>
-  </si>
-  <si>
-    <t>GERMAN</t>
-  </si>
-  <si>
-    <t>OSWALDO</t>
-  </si>
-  <si>
-    <t>12.754.736</t>
-  </si>
-  <si>
-    <t>MENESES</t>
-  </si>
-  <si>
-    <t>MUÑOZ</t>
-  </si>
-  <si>
-    <t>MARCELO</t>
-  </si>
-  <si>
-    <t>JAIRO</t>
-  </si>
-  <si>
-    <t>87.060.664</t>
-  </si>
-  <si>
-    <t>BOTINA</t>
-  </si>
-  <si>
-    <t>NUPAN</t>
-  </si>
-  <si>
-    <t>ROSA</t>
-  </si>
-  <si>
-    <t>ELVIRA</t>
-  </si>
-  <si>
-    <t>59.836.908</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>ERASO</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>CONCEPCION</t>
-  </si>
-  <si>
-    <t>27.204.225</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>GOMAJOA</t>
-  </si>
-  <si>
-    <t>NATIVEL</t>
-  </si>
-  <si>
-    <t>98.392.255</t>
-  </si>
-  <si>
-    <t>BENAVIDES</t>
-  </si>
-  <si>
-    <t>FLOREZ</t>
-  </si>
-  <si>
-    <t>EUGENIO</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>87.067.092</t>
-  </si>
-  <si>
-    <t>ANDRADE</t>
-  </si>
-  <si>
-    <t>NARVAEZ</t>
-  </si>
-  <si>
-    <t>EDMUNDO</t>
-  </si>
-  <si>
-    <t>5.207.330</t>
-  </si>
-  <si>
-    <t>BUESAQUILLO</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
-    <t>HUVEYMAR</t>
-  </si>
-  <si>
-    <t>1.085.275.131</t>
-  </si>
-  <si>
-    <t>TUTISTAR</t>
-  </si>
-  <si>
-    <t>ERLINTO</t>
-  </si>
-  <si>
-    <t>5.203.541</t>
-  </si>
-  <si>
-    <t>LEANDRO</t>
-  </si>
-  <si>
-    <t>MARINO</t>
-  </si>
-  <si>
-    <t>1.085.311.542</t>
-  </si>
-  <si>
-    <t>YORDIN</t>
-  </si>
-  <si>
-    <t>SEGUNDO</t>
-  </si>
-  <si>
-    <t>1.085.309.640</t>
-  </si>
-  <si>
-    <t>NICANOR</t>
-  </si>
-  <si>
-    <t>12.995.874</t>
-  </si>
-  <si>
-    <t>TIMARAN</t>
-  </si>
-  <si>
-    <t>WILMAR</t>
-  </si>
-  <si>
-    <t>ALEXANDER</t>
-  </si>
-  <si>
-    <t>1.084.224.396</t>
-  </si>
-  <si>
-    <t>CORTES</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>JHONY</t>
-  </si>
-  <si>
-    <t>SANDRO</t>
-  </si>
-  <si>
-    <t>98.385.039</t>
-  </si>
-  <si>
-    <t>CORTEZ</t>
-  </si>
-  <si>
-    <t>CUASPA</t>
-  </si>
-  <si>
-    <t>JOHNNY</t>
-  </si>
-  <si>
-    <t>STEVEN</t>
-  </si>
-  <si>
-    <t>1.085.319.345</t>
-  </si>
-  <si>
-    <t>ROSERO</t>
-  </si>
-  <si>
-    <t>ANDRES</t>
-  </si>
-  <si>
-    <t>FELIPE</t>
-  </si>
-  <si>
-    <t>1.085.271.056</t>
-  </si>
-  <si>
-    <t>CRIOLLO</t>
-  </si>
-  <si>
-    <t>JUAN</t>
-  </si>
-  <si>
-    <t>98.381.799</t>
-  </si>
-  <si>
-    <t>CABRERA</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>KENEDY</t>
-  </si>
-  <si>
-    <t>87.303.908</t>
-  </si>
-  <si>
-    <t>DELGADO</t>
-  </si>
-  <si>
-    <t>MANCISOY</t>
-  </si>
-  <si>
-    <t>MEDARDO</t>
-  </si>
-  <si>
-    <t>12.750.317</t>
-  </si>
-  <si>
-    <t>RIASCOS</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>HERMES</t>
-  </si>
-  <si>
-    <t>12.983.892</t>
-  </si>
-  <si>
-    <t>SAAVEDRA</t>
-  </si>
-  <si>
-    <t>CLAUDIO</t>
-  </si>
-  <si>
-    <t>ROBERTO</t>
-  </si>
-  <si>
-    <t>1.085.247.858</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>FRANCO</t>
-  </si>
-  <si>
-    <t>IGNACIO</t>
-  </si>
-  <si>
-    <t>12.964.012</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>LIBIO</t>
-  </si>
-  <si>
-    <t>1.085.252.017</t>
-  </si>
-  <si>
-    <t>CHACUA</t>
-  </si>
-  <si>
-    <t>ITUYAN</t>
-  </si>
-  <si>
-    <t>ALEXIS</t>
-  </si>
-  <si>
-    <t>JAVIER</t>
-  </si>
-  <si>
-    <t>1.126.449.550</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>HENRRY</t>
-  </si>
-  <si>
-    <t>FERNANDO</t>
-  </si>
-  <si>
-    <t>13.062.509</t>
-  </si>
-  <si>
-    <t>PORTILLA</t>
-  </si>
-  <si>
-    <t>CERON</t>
-  </si>
-  <si>
-    <t>NICOLAS</t>
-  </si>
-  <si>
-    <t>87.532.409</t>
-  </si>
-  <si>
-    <t>GELPUD</t>
-  </si>
-  <si>
-    <t>HEIMAN</t>
-  </si>
-  <si>
-    <t>GUILLERMO</t>
-  </si>
-  <si>
-    <t>87.061.316</t>
-  </si>
-  <si>
-    <t>GARCES</t>
-  </si>
-  <si>
-    <t>GUTIERREZ</t>
-  </si>
-  <si>
-    <t>LUIS</t>
-  </si>
-  <si>
-    <t>HERNAN</t>
-  </si>
-  <si>
-    <t>79.318.587</t>
-  </si>
-  <si>
-    <t>JURADO</t>
-  </si>
-  <si>
-    <t>MORA</t>
-  </si>
-  <si>
-    <t>HECTOR</t>
-  </si>
-  <si>
-    <t>DARIO</t>
-  </si>
-  <si>
-    <t>5.213.931</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>12.989.621</t>
   </si>
   <si>
     <t>GONZALO</t>
@@ -1878,6 +1884,44 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="4.78125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.5" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="15.79296875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.8359375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.89453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.0078125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.51171875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="2.45703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="3.37890625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="2.45703125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="2.9765625" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="2.9765625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="2.37890625" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="2.45703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="2.609375" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="2.44140625" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="3.56640625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="3.56640625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="3.56640625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="3.56640625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="3.56640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="3.56640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="5.37890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="10.41796875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="9.00390625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="12.26953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="3.71875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="15.7890625" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="12.72265625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="14.203125" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="19.77734375" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" width="7.6796875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="21.5234375" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="2">
       <c r="H2" s="5" t="s">
@@ -2130,6 +2174,24 @@
       <c r="R9" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Y9" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z9" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA9" s="10">
+        <f>(z9 * y9)</f>
+      </c>
+      <c r="AB9" s="10">
+        <f>(77700/30*y9)</f>
+      </c>
+      <c r="AC9" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD9" s="10">
+        <f>(689455.0*0.08)/30*15</f>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n" s="10">
@@ -2139,22 +2201,22 @@
         <v>-1.0</v>
       </c>
       <c r="C10" t="s" s="10">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" s="10">
         <f>concatenate(c10,d10,e10,f10)</f>
       </c>
       <c r="H10" t="s" s="10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="n" s="10">
         <v>2.404102177E10</v>
@@ -2185,6 +2247,24 @@
       </c>
       <c r="R10" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y10" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z10" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA10" s="10">
+        <f>(z10 * y10)</f>
+      </c>
+      <c r="AB10" s="10">
+        <f>(77700/30*y10)</f>
+      </c>
+      <c r="AC10" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD10" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="11">
@@ -2195,22 +2275,22 @@
         <v>49.0</v>
       </c>
       <c r="C11" t="s" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G11" s="10">
         <f>concatenate(c11,d11,e11,f11)</f>
       </c>
       <c r="H11" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I11" t="n" s="10">
         <v>2.4040874104E10</v>
@@ -2219,10 +2299,10 @@
         <v>41</v>
       </c>
       <c r="K11" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L11" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M11" t="s" s="10">
         <v>41</v>
@@ -2234,13 +2314,31 @@
         <v>41</v>
       </c>
       <c r="P11" t="s" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q11" t="s" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R11" t="s" s="9">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="Y11" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="Z11" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA11" s="10">
+        <f>(z11 * y11)</f>
+      </c>
+      <c r="AB11" s="10">
+        <f>(77700/30*y11)</f>
+      </c>
+      <c r="AC11" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD11" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="12">
@@ -2251,37 +2349,37 @@
         <v>230.0</v>
       </c>
       <c r="C12" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s" s="10">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G12" s="10">
         <f>concatenate(c12,d12,e12,f12)</f>
       </c>
       <c r="H12" t="s" s="10">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I12" t="n" s="10">
         <v>2.4040879938E10</v>
       </c>
       <c r="J12" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K12" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L12" t="s" s="10">
         <v>41</v>
       </c>
       <c r="M12" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N12" t="s" s="10">
         <v>41</v>
@@ -2290,13 +2388,31 @@
         <v>41</v>
       </c>
       <c r="P12" t="s" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q12" t="s" s="10">
         <v>41</v>
       </c>
       <c r="R12" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y12" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="Z12" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA12" s="10">
+        <f>(z12 * y12)</f>
+      </c>
+      <c r="AB12" s="10">
+        <f>(77700/30*y12)</f>
+      </c>
+      <c r="AC12" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD12" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="13">
@@ -2307,22 +2423,22 @@
         <v>625.0</v>
       </c>
       <c r="C13" t="s" s="10">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s" s="10">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s" s="10">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s" s="10">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G13" s="10">
         <f>concatenate(c13,d13,e13,f13)</f>
       </c>
       <c r="H13" t="s" s="10">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I13" t="n" s="10">
         <v>2.4041419106E10</v>
@@ -2331,7 +2447,7 @@
         <v>41</v>
       </c>
       <c r="K13" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L13" t="s" s="10">
         <v>41</v>
@@ -2346,13 +2462,31 @@
         <v>41</v>
       </c>
       <c r="P13" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q13" t="s" s="10">
         <v>41</v>
       </c>
       <c r="R13" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y13" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="Z13" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA13" s="10">
+        <f>(z13 * y13)</f>
+      </c>
+      <c r="AB13" s="10">
+        <f>(77700/30*y13)</f>
+      </c>
+      <c r="AC13" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD13" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="14">
@@ -2363,31 +2497,31 @@
         <v>773.0</v>
       </c>
       <c r="C14" t="s" s="10">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s" s="10">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G14" s="10">
         <f>concatenate(c14,d14,e14,f14)</f>
       </c>
       <c r="H14" t="s" s="10">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I14" t="n" s="10">
         <v>2.4041417287E10</v>
       </c>
       <c r="J14" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K14" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L14" t="s" s="10">
         <v>41</v>
@@ -2402,13 +2536,31 @@
         <v>41</v>
       </c>
       <c r="P14" t="s" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q14" t="s" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R14" t="s" s="8">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="Y14" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="Z14" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA14" s="10">
+        <f>(z14 * y14)</f>
+      </c>
+      <c r="AB14" s="10">
+        <f>(77700/30*y14)</f>
+      </c>
+      <c r="AC14" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD14" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="15">
@@ -2419,34 +2571,34 @@
         <v>784.0</v>
       </c>
       <c r="C15" t="s" s="10">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s" s="10">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G15" s="10">
         <f>concatenate(c15,d15,e15,f15)</f>
       </c>
       <c r="H15" t="s" s="10">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I15" t="n" s="10">
         <v>2.4050679421E10</v>
       </c>
       <c r="J15" t="s" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K15" t="s" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L15" t="s" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M15" t="s" s="10">
         <v>41</v>
@@ -2465,6 +2617,24 @@
       </c>
       <c r="R15" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y15" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="Z15" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA15" s="10">
+        <f>(z15 * y15)</f>
+      </c>
+      <c r="AB15" s="10">
+        <f>(77700/30*y15)</f>
+      </c>
+      <c r="AC15" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD15" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="16">
@@ -2475,22 +2645,22 @@
         <v>319.0</v>
       </c>
       <c r="C16" t="s" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G16" s="7">
         <f>concatenate(c16,d16,e16,f16)</f>
       </c>
       <c r="H16" t="s" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I16" t="n" s="10">
         <v>2.4040877747E10</v>
@@ -2505,7 +2675,7 @@
         <v>41</v>
       </c>
       <c r="M16" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N16" t="s" s="10">
         <v>41</v>
@@ -2514,13 +2684,31 @@
         <v>41</v>
       </c>
       <c r="P16" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q16" t="s" s="10">
         <v>41</v>
       </c>
       <c r="R16" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y16" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="Z16" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA16" s="10">
+        <f>(z16 * y16)</f>
+      </c>
+      <c r="AB16" s="10">
+        <f>(77700/30*y16)</f>
+      </c>
+      <c r="AC16" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD16" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="17">
@@ -2531,22 +2719,22 @@
         <v>119.0</v>
       </c>
       <c r="C17" t="s" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s" s="10">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G17" s="10">
         <f>concatenate(c17,d17,e17,f17)</f>
       </c>
       <c r="H17" t="s" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I17" t="n" s="10">
         <v>2.4040993339E10</v>
@@ -2555,10 +2743,10 @@
         <v>41</v>
       </c>
       <c r="K17" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L17" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M17" t="s" s="10">
         <v>41</v>
@@ -2577,6 +2765,24 @@
       </c>
       <c r="R17" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y17" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="Z17" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA17" s="10">
+        <f>(z17 * y17)</f>
+      </c>
+      <c r="AB17" s="10">
+        <f>(77700/30*y17)</f>
+      </c>
+      <c r="AC17" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD17" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="18">
@@ -2587,22 +2793,22 @@
         <v>142.0</v>
       </c>
       <c r="C18" t="s" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s" s="10">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G18" s="10">
         <f>concatenate(c18,d18,e18,f18)</f>
       </c>
       <c r="H18" t="s" s="10">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I18" t="n" s="10">
         <v>2.4041276873E10</v>
@@ -2633,6 +2839,24 @@
       </c>
       <c r="R18" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y18" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z18" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA18" s="10">
+        <f>(z18 * y18)</f>
+      </c>
+      <c r="AB18" s="10">
+        <f>(77700/30*y18)</f>
+      </c>
+      <c r="AC18" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD18" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="19">
@@ -2643,22 +2867,22 @@
         <v>180.0</v>
       </c>
       <c r="C19" t="s" s="10">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s" s="10">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E19" t="s" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F19" t="s" s="10">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G19" s="10">
         <f>concatenate(c19,d19,e19,f19)</f>
       </c>
       <c r="H19" t="s" s="10">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I19" t="n" s="10">
         <v>2.4041025525E10</v>
@@ -2689,6 +2913,24 @@
       </c>
       <c r="R19" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y19" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z19" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA19" s="10">
+        <f>(z19 * y19)</f>
+      </c>
+      <c r="AB19" s="10">
+        <f>(77700/30*y19)</f>
+      </c>
+      <c r="AC19" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD19" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="20">
@@ -2699,22 +2941,22 @@
         <v>320.0</v>
       </c>
       <c r="C20" t="s" s="10">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s" s="10">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E20" t="s" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F20" t="s" s="10">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G20" s="10">
         <f>concatenate(c20,d20,e20,f20)</f>
       </c>
       <c r="H20" t="s" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I20" t="n" s="10">
         <v>2.4041276431E10</v>
@@ -2745,6 +2987,24 @@
       </c>
       <c r="R20" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y20" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z20" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA20" s="10">
+        <f>(z20 * y20)</f>
+      </c>
+      <c r="AB20" s="10">
+        <f>(77700/30*y20)</f>
+      </c>
+      <c r="AC20" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD20" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="21">
@@ -2755,22 +3015,22 @@
         <v>321.0</v>
       </c>
       <c r="C21" t="s" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s" s="10">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F21" t="s" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G21" s="10">
         <f>concatenate(c21,d21,e21,f21)</f>
       </c>
       <c r="H21" t="s" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I21" t="n" s="10">
         <v>2.4040934284E10</v>
@@ -2801,6 +3061,24 @@
       </c>
       <c r="R21" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y21" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z21" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA21" s="10">
+        <f>(z21 * y21)</f>
+      </c>
+      <c r="AB21" s="10">
+        <f>(77700/30*y21)</f>
+      </c>
+      <c r="AC21" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD21" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="22">
@@ -2811,22 +3089,22 @@
         <v>362.0</v>
       </c>
       <c r="C22" t="s" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s" s="10">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s" s="10">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F22" t="s" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G22" s="10">
         <f>concatenate(c22,d22,e22,f22)</f>
       </c>
       <c r="H22" t="s" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I22" t="n" s="10">
         <v>2.4041023101E10</v>
@@ -2857,6 +3135,24 @@
       </c>
       <c r="R22" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y22" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z22" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA22" s="10">
+        <f>(z22 * y22)</f>
+      </c>
+      <c r="AB22" s="10">
+        <f>(77700/30*y22)</f>
+      </c>
+      <c r="AC22" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD22" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="23">
@@ -2867,22 +3163,22 @@
         <v>527.0</v>
       </c>
       <c r="C23" t="s" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s" s="10">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F23" t="s" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G23" s="10">
         <f>concatenate(c23,d23,e23,f23)</f>
       </c>
       <c r="H23" t="s" s="10">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I23" t="n" s="10">
         <v>2.4042048949E10</v>
@@ -2913,6 +3209,24 @@
       </c>
       <c r="R23" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y23" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z23" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA23" s="10">
+        <f>(z23 * y23)</f>
+      </c>
+      <c r="AB23" s="10">
+        <f>(77700/30*y23)</f>
+      </c>
+      <c r="AC23" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD23" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="24">
@@ -2923,22 +3237,22 @@
         <v>551.0</v>
       </c>
       <c r="C24" t="s" s="10">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E24" t="s" s="10">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F24" t="s" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G24" s="10">
         <f>concatenate(c24,d24,e24,f24)</f>
       </c>
       <c r="H24" t="s" s="10">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I24" t="n" s="10">
         <v>2.4042198868E10</v>
@@ -2969,6 +3283,24 @@
       </c>
       <c r="R24" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y24" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z24" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA24" s="10">
+        <f>(z24 * y24)</f>
+      </c>
+      <c r="AB24" s="10">
+        <f>(77700/30*y24)</f>
+      </c>
+      <c r="AC24" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD24" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="25">
@@ -2979,22 +3311,22 @@
         <v>862.0</v>
       </c>
       <c r="C25" t="s" s="10">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D25" t="s" s="10">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E25" t="s" s="10">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F25" t="s" s="10">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G25" s="10">
         <f>concatenate(c25,d25,e25,f25)</f>
       </c>
       <c r="H25" t="s" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I25" t="n" s="10">
         <v>2.4053669562E10</v>
@@ -3025,6 +3357,24 @@
       </c>
       <c r="R25" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y25" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z25" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA25" s="10">
+        <f>(z25 * y25)</f>
+      </c>
+      <c r="AB25" s="10">
+        <f>(77700/30*y25)</f>
+      </c>
+      <c r="AC25" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD25" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="26">
@@ -3035,22 +3385,22 @@
         <v>921.0</v>
       </c>
       <c r="C26" t="s" s="10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D26" t="s" s="10">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E26" t="s" s="10">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F26" t="s" s="10">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G26" s="10">
         <f>concatenate(c26,d26,e26,f26)</f>
       </c>
       <c r="H26" t="s" s="10">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I26" t="n" s="10">
         <v>2.4054491483E10</v>
@@ -3062,7 +3412,7 @@
         <v>41</v>
       </c>
       <c r="L26" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M26" t="s" s="10">
         <v>41</v>
@@ -3081,6 +3431,24 @@
       </c>
       <c r="R26" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y26" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="Z26" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA26" s="10">
+        <f>(z26 * y26)</f>
+      </c>
+      <c r="AB26" s="10">
+        <f>(77700/30*y26)</f>
+      </c>
+      <c r="AC26" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD26" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="27">
@@ -3091,22 +3459,22 @@
         <v>922.0</v>
       </c>
       <c r="C27" t="s" s="10">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D27" t="s" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E27" t="s" s="10">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F27" t="s" s="10">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G27" s="10">
         <f>concatenate(c27,d27,e27,f27)</f>
       </c>
       <c r="H27" t="s" s="10">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I27" t="n" s="10">
         <v>2.4054489428E10</v>
@@ -3118,7 +3486,7 @@
         <v>41</v>
       </c>
       <c r="L27" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M27" t="s" s="10">
         <v>41</v>
@@ -3137,6 +3505,24 @@
       </c>
       <c r="R27" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y27" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="Z27" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA27" s="10">
+        <f>(z27 * y27)</f>
+      </c>
+      <c r="AB27" s="10">
+        <f>(77700/30*y27)</f>
+      </c>
+      <c r="AC27" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD27" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="28">
@@ -3147,22 +3533,22 @@
         <v>-3.0</v>
       </c>
       <c r="C28" t="s" s="7">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D28" t="s" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E28" t="s" s="7">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F28" t="s" s="7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G28" s="7">
         <f>concatenate(c28,d28,e28,f28)</f>
       </c>
       <c r="H28" t="s" s="7">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I28" t="n" s="10">
         <v>2.4042181512E10</v>
@@ -3193,6 +3579,24 @@
       </c>
       <c r="R28" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y28" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z28" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA28" s="10">
+        <f>(z28 * y28)</f>
+      </c>
+      <c r="AB28" s="10">
+        <f>(77700/30*y28)</f>
+      </c>
+      <c r="AC28" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD28" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="29">
@@ -3203,22 +3607,22 @@
         <v>8.0</v>
       </c>
       <c r="C29" t="s" s="10">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D29" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E29" t="s" s="10">
         <v>38</v>
       </c>
       <c r="F29" t="s" s="10">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G29" s="10">
         <f>concatenate(c29,d29,e29,f29)</f>
       </c>
       <c r="H29" t="s" s="10">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I29" t="n" s="10">
         <v>2.404102362E10</v>
@@ -3249,6 +3653,24 @@
       </c>
       <c r="R29" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y29" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z29" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA29" s="10">
+        <f>(z29 * y29)</f>
+      </c>
+      <c r="AB29" s="10">
+        <f>(77700/30*y29)</f>
+      </c>
+      <c r="AC29" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD29" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="30">
@@ -3259,34 +3681,34 @@
         <v>23.0</v>
       </c>
       <c r="C30" t="s" s="10">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s" s="10">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E30" t="s" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F30" t="s" s="10">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G30" s="10">
         <f>concatenate(c30,d30,e30,f30)</f>
       </c>
       <c r="H30" t="s" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I30" t="n" s="10">
         <v>2.404102278E10</v>
       </c>
       <c r="J30" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K30" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L30" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M30" t="s" s="10">
         <v>41</v>
@@ -3305,6 +3727,24 @@
       </c>
       <c r="R30" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y30" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="Z30" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA30" s="10">
+        <f>(z30 * y30)</f>
+      </c>
+      <c r="AB30" s="10">
+        <f>(77700/30*y30)</f>
+      </c>
+      <c r="AC30" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD30" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="31">
@@ -3315,22 +3755,22 @@
         <v>92.0</v>
       </c>
       <c r="C31" t="s" s="10">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D31" t="s" s="10">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E31" t="s" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F31" t="s" s="10">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G31" s="10">
         <f>concatenate(c31,d31,e31,f31)</f>
       </c>
       <c r="H31" t="s" s="10">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I31" t="n" s="10">
         <v>2.4041023954E10</v>
@@ -3339,7 +3779,7 @@
         <v>41</v>
       </c>
       <c r="K31" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L31" t="s" s="10">
         <v>41</v>
@@ -3361,6 +3801,24 @@
       </c>
       <c r="R31" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y31" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="Z31" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA31" s="10">
+        <f>(z31 * y31)</f>
+      </c>
+      <c r="AB31" s="10">
+        <f>(77700/30*y31)</f>
+      </c>
+      <c r="AC31" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD31" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="32">
@@ -3371,31 +3829,31 @@
         <v>100.0</v>
       </c>
       <c r="C32" t="s" s="10">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D32" t="s" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E32" t="s" s="10">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F32" t="s" s="10">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G32" s="10">
         <f>concatenate(c32,d32,e32,f32)</f>
       </c>
       <c r="H32" t="s" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I32" t="n" s="10">
         <v>2.4041416734E10</v>
       </c>
       <c r="J32" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K32" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L32" t="s" s="10">
         <v>41</v>
@@ -3410,13 +3868,31 @@
         <v>41</v>
       </c>
       <c r="P32" t="s" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q32" t="s" s="10">
         <v>41</v>
       </c>
       <c r="R32" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y32" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="Z32" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA32" s="10">
+        <f>(z32 * y32)</f>
+      </c>
+      <c r="AB32" s="10">
+        <f>(77700/30*y32)</f>
+      </c>
+      <c r="AC32" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD32" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="33">
@@ -3427,22 +3903,22 @@
         <v>127.0</v>
       </c>
       <c r="C33" t="s" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D33" t="s" s="10">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E33" t="s" s="10">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F33" t="s" s="10">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G33" s="10">
         <f>concatenate(c33,d33,e33,f33)</f>
       </c>
       <c r="H33" t="s" s="10">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I33" t="n" s="10">
         <v>2.404087812E10</v>
@@ -3451,13 +3927,13 @@
         <v>41</v>
       </c>
       <c r="K33" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L33" t="s" s="10">
         <v>41</v>
       </c>
       <c r="M33" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N33" t="s" s="10">
         <v>41</v>
@@ -3473,6 +3949,24 @@
       </c>
       <c r="R33" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y33" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="Z33" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA33" s="10">
+        <f>(z33 * y33)</f>
+      </c>
+      <c r="AB33" s="10">
+        <f>(77700/30*y33)</f>
+      </c>
+      <c r="AC33" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD33" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="34">
@@ -3483,31 +3977,31 @@
         <v>147.0</v>
       </c>
       <c r="C34" t="s" s="10">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D34" t="s" s="10">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s" s="10">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F34" t="s" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G34" s="10">
         <f>concatenate(c34,d34,e34,f34)</f>
       </c>
       <c r="H34" t="s" s="10">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I34" t="n" s="10">
         <v>2.4040993764E10</v>
       </c>
       <c r="J34" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K34" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L34" t="s" s="10">
         <v>41</v>
@@ -3529,6 +4023,24 @@
       </c>
       <c r="R34" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y34" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="Z34" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA34" s="10">
+        <f>(z34 * y34)</f>
+      </c>
+      <c r="AB34" s="10">
+        <f>(77700/30*y34)</f>
+      </c>
+      <c r="AC34" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD34" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="35">
@@ -3539,22 +4051,22 @@
         <v>178.0</v>
       </c>
       <c r="C35" t="s" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D35" t="s" s="10">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E35" t="s" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F35" t="s" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G35" s="10">
         <f>concatenate(c35,d35,e35,f35)</f>
       </c>
       <c r="H35" t="s" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I35" t="n" s="10">
         <v>2.404087519E10</v>
@@ -3563,7 +4075,7 @@
         <v>41</v>
       </c>
       <c r="K35" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L35" t="s" s="10">
         <v>41</v>
@@ -3585,6 +4097,24 @@
       </c>
       <c r="R35" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y35" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="Z35" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA35" s="10">
+        <f>(z35 * y35)</f>
+      </c>
+      <c r="AB35" s="10">
+        <f>(77700/30*y35)</f>
+      </c>
+      <c r="AC35" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD35" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="36">
@@ -3595,31 +4125,31 @@
         <v>206.0</v>
       </c>
       <c r="C36" t="s" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D36" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E36" t="s" s="10">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F36" t="s" s="10">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G36" s="10">
         <f>concatenate(c36,d36,e36,f36)</f>
       </c>
       <c r="H36" t="s" s="10">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I36" t="n" s="10">
         <v>2.4040875215E10</v>
       </c>
       <c r="J36" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K36" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L36" t="s" s="10">
         <v>41</v>
@@ -3641,6 +4171,24 @@
       </c>
       <c r="R36" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y36" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="Z36" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA36" s="10">
+        <f>(z36 * y36)</f>
+      </c>
+      <c r="AB36" s="10">
+        <f>(77700/30*y36)</f>
+      </c>
+      <c r="AC36" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD36" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="37">
@@ -3651,22 +4199,22 @@
         <v>212.0</v>
       </c>
       <c r="C37" t="s" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D37" t="s" s="10">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E37" t="s" s="10">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F37" t="s" s="10">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G37" s="10">
         <f>concatenate(c37,d37,e37,f37)</f>
       </c>
       <c r="H37" t="s" s="10">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I37" t="n" s="10">
         <v>2.4040877071E10</v>
@@ -3675,13 +4223,13 @@
         <v>41</v>
       </c>
       <c r="K37" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L37" t="s" s="10">
         <v>41</v>
       </c>
       <c r="M37" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N37" t="s" s="10">
         <v>41</v>
@@ -3697,6 +4245,24 @@
       </c>
       <c r="R37" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y37" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="Z37" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA37" s="10">
+        <f>(z37 * y37)</f>
+      </c>
+      <c r="AB37" s="10">
+        <f>(77700/30*y37)</f>
+      </c>
+      <c r="AC37" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD37" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="38">
@@ -3707,31 +4273,31 @@
         <v>249.0</v>
       </c>
       <c r="C38" t="s" s="10">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D38" t="s" s="10">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E38" t="s" s="10">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F38" t="s" s="10">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G38" s="10">
         <f>concatenate(c38,d38,e38,f38)</f>
       </c>
       <c r="H38" t="s" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I38" t="n" s="10">
         <v>2.4040875811E10</v>
       </c>
       <c r="J38" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K38" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L38" t="s" s="10">
         <v>41</v>
@@ -3753,6 +4319,24 @@
       </c>
       <c r="R38" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y38" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="Z38" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA38" s="10">
+        <f>(z38 * y38)</f>
+      </c>
+      <c r="AB38" s="10">
+        <f>(77700/30*y38)</f>
+      </c>
+      <c r="AC38" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD38" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="39">
@@ -3763,22 +4347,22 @@
         <v>252.0</v>
       </c>
       <c r="C39" t="s" s="10">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D39" t="s" s="10">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E39" t="s" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F39" t="s" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G39" s="10">
         <f>concatenate(c39,d39,e39,f39)</f>
       </c>
       <c r="H39" t="s" s="10">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I39" t="n" s="10">
         <v>2.4041024351E10</v>
@@ -3787,7 +4371,7 @@
         <v>41</v>
       </c>
       <c r="K39" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L39" t="s" s="10">
         <v>41</v>
@@ -3809,6 +4393,24 @@
       </c>
       <c r="R39" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y39" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="Z39" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA39" s="10">
+        <f>(z39 * y39)</f>
+      </c>
+      <c r="AB39" s="10">
+        <f>(77700/30*y39)</f>
+      </c>
+      <c r="AC39" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD39" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="40">
@@ -3819,34 +4421,34 @@
         <v>256.0</v>
       </c>
       <c r="C40" t="s" s="10">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D40" t="s" s="10">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E40" t="s" s="10">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F40" t="s" s="10">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G40" s="10">
         <f>concatenate(c40,d40,e40,f40)</f>
       </c>
       <c r="H40" t="s" s="10">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I40" t="n" s="10">
         <v>2.4041024104E10</v>
       </c>
       <c r="J40" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K40" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L40" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M40" t="s" s="10">
         <v>41</v>
@@ -3865,6 +4467,24 @@
       </c>
       <c r="R40" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y40" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="Z40" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA40" s="10">
+        <f>(z40 * y40)</f>
+      </c>
+      <c r="AB40" s="10">
+        <f>(77700/30*y40)</f>
+      </c>
+      <c r="AC40" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD40" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="41">
@@ -3875,22 +4495,22 @@
         <v>375.0</v>
       </c>
       <c r="C41" t="s" s="10">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D41" t="s" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E41" t="s" s="10">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F41" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G41" s="10">
         <f>concatenate(c41,d41,e41,f41)</f>
       </c>
       <c r="H41" t="s" s="10">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I41" t="n" s="10">
         <v>2.4040935674E10</v>
@@ -3899,13 +4519,13 @@
         <v>41</v>
       </c>
       <c r="K41" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L41" t="s" s="10">
         <v>41</v>
       </c>
       <c r="M41" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N41" t="s" s="10">
         <v>41</v>
@@ -3916,8 +4536,29 @@
       <c r="P41" t="s" s="10">
         <v>41</v>
       </c>
-      <c r="Q41" t="s" s="10">
-        <v>41</v>
+      <c r="Q41" t="s" s="9">
+        <v>177</v>
+      </c>
+      <c r="R41" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="Y41" t="n" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="Z41" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA41" s="10">
+        <f>(z41 * y41)</f>
+      </c>
+      <c r="AB41" s="10">
+        <f>(77700/30*y41)</f>
+      </c>
+      <c r="AC41" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD41" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="42">
@@ -3928,31 +4569,31 @@
         <v>402.0</v>
       </c>
       <c r="C42" t="s" s="10">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D42" t="s" s="10">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E42" t="s" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F42" t="s" s="10">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G42" s="10">
         <f>concatenate(c42,d42,e42,f42)</f>
       </c>
       <c r="H42" t="s" s="10">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I42" t="n" s="10">
         <v>2.4040884839E10</v>
       </c>
       <c r="J42" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K42" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L42" t="s" s="10">
         <v>41</v>
@@ -3974,6 +4615,24 @@
       </c>
       <c r="R42" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y42" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="Z42" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA42" s="10">
+        <f>(z42 * y42)</f>
+      </c>
+      <c r="AB42" s="10">
+        <f>(77700/30*y42)</f>
+      </c>
+      <c r="AC42" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD42" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="43">
@@ -3984,22 +4643,22 @@
         <v>403.0</v>
       </c>
       <c r="C43" t="s" s="10">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D43" t="s" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E43" t="s" s="10">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F43" t="s" s="10">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G43" s="10">
         <f>concatenate(c43,d43,e43,f43)</f>
       </c>
       <c r="H43" t="s" s="10">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I43" t="n" s="10">
         <v>2.4040874375E10</v>
@@ -4008,7 +4667,7 @@
         <v>41</v>
       </c>
       <c r="K43" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L43" t="s" s="10">
         <v>41</v>
@@ -4030,6 +4689,24 @@
       </c>
       <c r="R43" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y43" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="Z43" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA43" s="10">
+        <f>(z43 * y43)</f>
+      </c>
+      <c r="AB43" s="10">
+        <f>(77700/30*y43)</f>
+      </c>
+      <c r="AC43" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD43" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="44">
@@ -4040,37 +4717,37 @@
         <v>411.0</v>
       </c>
       <c r="C44" t="s" s="10">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D44" t="s" s="10">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E44" t="s" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s" s="10">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G44" s="10">
         <f>concatenate(c44,d44,e44,f44)</f>
       </c>
       <c r="H44" t="s" s="10">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I44" t="n" s="10">
         <v>2.404093596E10</v>
       </c>
       <c r="J44" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K44" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L44" t="s" s="10">
         <v>41</v>
       </c>
       <c r="M44" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N44" t="s" s="10">
         <v>41</v>
@@ -4086,6 +4763,24 @@
       </c>
       <c r="R44" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y44" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="Z44" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA44" s="10">
+        <f>(z44 * y44)</f>
+      </c>
+      <c r="AB44" s="10">
+        <f>(77700/30*y44)</f>
+      </c>
+      <c r="AC44" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD44" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="45">
@@ -4096,22 +4791,22 @@
         <v>639.0</v>
       </c>
       <c r="C45" t="s" s="10">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" t="s" s="10">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E45" t="s" s="10">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F45" t="s" s="10">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G45" s="10">
         <f>concatenate(c45,d45,e45,f45)</f>
       </c>
       <c r="H45" t="s" s="10">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I45" t="n" s="10">
         <v>2.404448862E10</v>
@@ -4120,7 +4815,7 @@
         <v>41</v>
       </c>
       <c r="K45" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L45" t="s" s="10">
         <v>41</v>
@@ -4142,6 +4837,24 @@
       </c>
       <c r="R45" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y45" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="Z45" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA45" s="10">
+        <f>(z45 * y45)</f>
+      </c>
+      <c r="AB45" s="10">
+        <f>(77700/30*y45)</f>
+      </c>
+      <c r="AC45" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD45" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="46">
@@ -4152,31 +4865,31 @@
         <v>704.0</v>
       </c>
       <c r="C46" t="s" s="10">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" t="s" s="10">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E46" t="s" s="10">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F46" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G46" s="10">
         <f>concatenate(c46,d46,e46,f46)</f>
       </c>
       <c r="H46" t="s" s="10">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I46" t="n" s="10">
         <v>2.404551069E10</v>
       </c>
       <c r="J46" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K46" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L46" t="s" s="10">
         <v>41</v>
@@ -4198,6 +4911,24 @@
       </c>
       <c r="R46" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y46" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="Z46" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA46" s="10">
+        <f>(z46 * y46)</f>
+      </c>
+      <c r="AB46" s="10">
+        <f>(77700/30*y46)</f>
+      </c>
+      <c r="AC46" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD46" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="47">
@@ -4208,22 +4939,22 @@
         <v>737.0</v>
       </c>
       <c r="C47" t="s" s="10">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D47" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E47" t="s" s="10">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F47" t="s" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G47" s="10">
         <f>concatenate(c47,d47,e47,f47)</f>
       </c>
       <c r="H47" t="s" s="10">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I47" t="n" s="10">
         <v>2.4046162342E10</v>
@@ -4232,7 +4963,7 @@
         <v>41</v>
       </c>
       <c r="K47" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L47" t="s" s="10">
         <v>41</v>
@@ -4254,6 +4985,24 @@
       </c>
       <c r="R47" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y47" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="Z47" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA47" s="10">
+        <f>(z47 * y47)</f>
+      </c>
+      <c r="AB47" s="10">
+        <f>(77700/30*y47)</f>
+      </c>
+      <c r="AC47" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD47" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="48">
@@ -4264,28 +5013,28 @@
         <v>738.0</v>
       </c>
       <c r="C48" t="s" s="10">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D48" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E48" t="s" s="10">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F48" t="s" s="10">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G48" s="10">
         <f>concatenate(c48,d48,e48,f48)</f>
       </c>
       <c r="H48" t="s" s="10">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I48" t="n" s="10">
         <v>2.4046415938E10</v>
       </c>
       <c r="J48" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K48" t="s" s="10">
         <v>41</v>
@@ -4310,6 +5059,24 @@
       </c>
       <c r="R48" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y48" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="Z48" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA48" s="10">
+        <f>(z48 * y48)</f>
+      </c>
+      <c r="AB48" s="10">
+        <f>(77700/30*y48)</f>
+      </c>
+      <c r="AC48" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD48" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="49">
@@ -4320,22 +5087,22 @@
         <v>807.0</v>
       </c>
       <c r="C49" t="s" s="10">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D49" t="s" s="10">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E49" t="s" s="10">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F49" t="s" s="10">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G49" s="10">
         <f>concatenate(c49,d49,e49,f49)</f>
       </c>
       <c r="H49" t="s" s="10">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I49" t="n" s="10">
         <v>2.4051432896E10</v>
@@ -4366,6 +5133,24 @@
       </c>
       <c r="R49" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y49" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z49" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA49" s="10">
+        <f>(z49 * y49)</f>
+      </c>
+      <c r="AB49" s="10">
+        <f>(77700/30*y49)</f>
+      </c>
+      <c r="AC49" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD49" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="50">
@@ -4376,28 +5161,28 @@
         <v>887.0</v>
       </c>
       <c r="C50" t="s" s="10">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D50" t="s" s="10">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E50" t="s" s="10">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F50" t="s" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G50" s="10">
         <f>concatenate(c50,d50,e50,f50)</f>
       </c>
       <c r="H50" t="s" s="10">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I50" t="n" s="10">
         <v>2.4054095171E10</v>
       </c>
       <c r="J50" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K50" t="s" s="10">
         <v>41</v>
@@ -4422,6 +5207,24 @@
       </c>
       <c r="R50" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y50" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="Z50" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA50" s="10">
+        <f>(z50 * y50)</f>
+      </c>
+      <c r="AB50" s="10">
+        <f>(77700/30*y50)</f>
+      </c>
+      <c r="AC50" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD50" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="51">
@@ -4432,22 +5235,22 @@
         <v>928.0</v>
       </c>
       <c r="C51" t="s" s="10">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D51" t="s" s="10">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E51" t="s" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F51" t="s" s="10">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G51" s="10">
         <f>concatenate(c51,d51,e51,f51)</f>
       </c>
       <c r="H51" t="s" s="10">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I51" t="n" s="10">
         <v>2.4040877468E10</v>
@@ -4478,6 +5281,24 @@
       </c>
       <c r="R51" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y51" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z51" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA51" s="10">
+        <f>(z51 * y51)</f>
+      </c>
+      <c r="AB51" s="10">
+        <f>(77700/30*y51)</f>
+      </c>
+      <c r="AC51" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD51" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="52">
@@ -4488,28 +5309,28 @@
         <v>978.0</v>
       </c>
       <c r="C52" t="s" s="10">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D52" t="s" s="10">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E52" t="s" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F52" t="s" s="10">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G52" s="10">
         <f>concatenate(c52,d52,e52,f52)</f>
       </c>
       <c r="H52" t="s" s="10">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I52" t="n" s="10">
         <v>2.4041021648E10</v>
       </c>
       <c r="J52" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K52" t="s" s="10">
         <v>41</v>
@@ -4534,6 +5355,24 @@
       </c>
       <c r="R52" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y52" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="Z52" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA52" s="10">
+        <f>(z52 * y52)</f>
+      </c>
+      <c r="AB52" s="10">
+        <f>(77700/30*y52)</f>
+      </c>
+      <c r="AC52" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD52" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="53">
@@ -4544,22 +5383,22 @@
         <v>1028.0</v>
       </c>
       <c r="C53" t="s" s="10">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D53" t="s" s="10">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E53" t="s" s="10">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F53" t="s" s="10">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G53" s="10">
         <f>concatenate(c53,d53,e53,f53)</f>
       </c>
       <c r="H53" t="s" s="10">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I53" t="n" s="10">
         <v>2.4056106293E10</v>
@@ -4590,6 +5429,24 @@
       </c>
       <c r="R53" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y53" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z53" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA53" s="10">
+        <f>(z53 * y53)</f>
+      </c>
+      <c r="AB53" s="10">
+        <f>(77700/30*y53)</f>
+      </c>
+      <c r="AC53" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD53" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="54">
@@ -4600,28 +5457,28 @@
         <v>1044.0</v>
       </c>
       <c r="C54" t="s" s="10">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D54" t="s" s="10">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E54" t="s" s="10">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F54" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G54" s="10">
         <f>concatenate(c54,d54,e54,f54)</f>
       </c>
       <c r="H54" t="s" s="10">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I54" t="n" s="10">
         <v>2.4056114434E10</v>
       </c>
       <c r="J54" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K54" t="s" s="10">
         <v>41</v>
@@ -4646,6 +5503,24 @@
       </c>
       <c r="R54" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y54" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="Z54" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA54" s="10">
+        <f>(z54 * y54)</f>
+      </c>
+      <c r="AB54" s="10">
+        <f>(77700/30*y54)</f>
+      </c>
+      <c r="AC54" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD54" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="55">
@@ -4656,22 +5531,22 @@
         <v>1046.0</v>
       </c>
       <c r="C55" t="s" s="10">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" t="s" s="10">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E55" t="s" s="10">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F55" t="s" s="10">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G55" s="10">
         <f>concatenate(c55,d55,e55,f55)</f>
       </c>
       <c r="H55" t="s" s="10">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I55" t="n" s="10">
         <v>2.405611458E10</v>
@@ -4702,6 +5577,24 @@
       </c>
       <c r="R55" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y55" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z55" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA55" s="10">
+        <f>(z55 * y55)</f>
+      </c>
+      <c r="AB55" s="10">
+        <f>(77700/30*y55)</f>
+      </c>
+      <c r="AC55" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD55" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="56">
@@ -4712,28 +5605,28 @@
         <v>1106.0</v>
       </c>
       <c r="C56" t="s" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D56" t="s" s="10">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E56" t="s" s="10">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F56" t="s" s="10">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G56" s="10">
         <f>concatenate(c56,d56,e56,f56)</f>
       </c>
       <c r="H56" t="s" s="10">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I56" t="n" s="10">
         <v>2.4057413329E10</v>
       </c>
       <c r="J56" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K56" t="s" s="10">
         <v>41</v>
@@ -4758,6 +5651,24 @@
       </c>
       <c r="R56" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y56" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="Z56" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA56" s="10">
+        <f>(z56 * y56)</f>
+      </c>
+      <c r="AB56" s="10">
+        <f>(77700/30*y56)</f>
+      </c>
+      <c r="AC56" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD56" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="57">
@@ -4768,22 +5679,22 @@
         <v>1108.0</v>
       </c>
       <c r="C57" t="s" s="10">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D57" t="s" s="10">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E57" t="s" s="10">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F57" t="s" s="10">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G57" s="10">
         <f>concatenate(c57,d57,e57,f57)</f>
       </c>
       <c r="H57" t="s" s="10">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I57" t="n" s="10">
         <v>2.4057558006E10</v>
@@ -4814,6 +5725,24 @@
       </c>
       <c r="R57" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y57" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z57" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA57" s="10">
+        <f>(z57 * y57)</f>
+      </c>
+      <c r="AB57" s="10">
+        <f>(77700/30*y57)</f>
+      </c>
+      <c r="AC57" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD57" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="58">
@@ -4824,28 +5753,28 @@
         <v>221.0</v>
       </c>
       <c r="C58" t="s" s="7">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D58" t="s" s="7">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E58" t="s" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s" s="7">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G58" s="7">
         <f>concatenate(c58,d58,e58,f58)</f>
       </c>
       <c r="H58" t="s" s="7">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I58" t="n" s="10">
         <v>2.4040980566E10</v>
       </c>
       <c r="J58" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K58" t="s" s="10">
         <v>41</v>
@@ -4870,6 +5799,24 @@
       </c>
       <c r="R58" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y58" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="Z58" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA58" s="10">
+        <f>(z58 * y58)</f>
+      </c>
+      <c r="AB58" s="10">
+        <f>(77700/30*y58)</f>
+      </c>
+      <c r="AC58" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD58" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="59">
@@ -4880,22 +5827,22 @@
         <v>484.0</v>
       </c>
       <c r="C59" t="s" s="10">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D59" t="s" s="10">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E59" t="s" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F59" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G59" s="10">
         <f>concatenate(c59,d59,e59,f59)</f>
       </c>
       <c r="H59" t="s" s="10">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I59" t="n" s="10">
         <v>2.404147226E10</v>
@@ -4904,10 +5851,10 @@
         <v>41</v>
       </c>
       <c r="K59" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L59" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M59" t="s" s="10">
         <v>41</v>
@@ -4926,6 +5873,24 @@
       </c>
       <c r="R59" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y59" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="Z59" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA59" s="10">
+        <f>(z59 * y59)</f>
+      </c>
+      <c r="AB59" s="10">
+        <f>(77700/30*y59)</f>
+      </c>
+      <c r="AC59" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD59" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="60">
@@ -4936,22 +5901,22 @@
         <v>768.0</v>
       </c>
       <c r="C60" t="s" s="10">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D60" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E60" t="s" s="10">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F60" t="s" s="10">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G60" s="10">
         <f>concatenate(c60,d60,e60,f60)</f>
       </c>
       <c r="H60" t="s" s="10">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I60" t="n" s="10">
         <v>2.4048444831E10</v>
@@ -4960,10 +5925,10 @@
         <v>41</v>
       </c>
       <c r="K60" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L60" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M60" t="s" s="10">
         <v>41</v>
@@ -4982,6 +5947,24 @@
       </c>
       <c r="R60" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y60" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="Z60" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA60" s="10">
+        <f>(z60 * y60)</f>
+      </c>
+      <c r="AB60" s="10">
+        <f>(77700/30*y60)</f>
+      </c>
+      <c r="AC60" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD60" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="61">
@@ -4992,22 +5975,22 @@
         <v>798.0</v>
       </c>
       <c r="C61" t="s" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D61" t="s" s="10">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E61" t="s" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F61" t="s" s="10">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G61" s="10">
         <f>concatenate(c61,d61,e61,f61)</f>
       </c>
       <c r="H61" t="s" s="10">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I61" t="n" s="10">
         <v>2.4051430566E10</v>
@@ -5016,10 +5999,10 @@
         <v>41</v>
       </c>
       <c r="K61" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L61" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M61" t="s" s="10">
         <v>41</v>
@@ -5038,6 +6021,24 @@
       </c>
       <c r="R61" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y61" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="Z61" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA61" s="10">
+        <f>(z61 * y61)</f>
+      </c>
+      <c r="AB61" s="10">
+        <f>(77700/30*y61)</f>
+      </c>
+      <c r="AC61" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD61" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="62">
@@ -5048,22 +6049,22 @@
         <v>826.0</v>
       </c>
       <c r="C62" t="s" s="10">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D62" t="s" s="10">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E62" t="s" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F62" t="s" s="10">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G62" s="10">
         <f>concatenate(c62,d62,e62,f62)</f>
       </c>
       <c r="H62" t="s" s="10">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I62" t="n" s="10">
         <v>2.4046973465E10</v>
@@ -5072,10 +6073,10 @@
         <v>41</v>
       </c>
       <c r="K62" t="s" s="9">
-        <v>53</v>
+        <v>177</v>
       </c>
       <c r="L62" t="s" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M62" t="s" s="10">
         <v>41</v>
@@ -5094,6 +6095,24 @@
       </c>
       <c r="R62" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y62" t="n" s="10">
+        <v>8.5</v>
+      </c>
+      <c r="Z62" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA62" s="10">
+        <f>(z62 * y62)</f>
+      </c>
+      <c r="AB62" s="10">
+        <f>(77700/30*y62)</f>
+      </c>
+      <c r="AC62" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD62" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="63">
@@ -5104,22 +6123,22 @@
         <v>832.0</v>
       </c>
       <c r="C63" t="s" s="10">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D63" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E63" t="s" s="10">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F63" t="s" s="10">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G63" s="10">
         <f>concatenate(c63,d63,e63,f63)</f>
       </c>
       <c r="H63" t="s" s="10">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I63" t="n" s="10">
         <v>2.4053029892E10</v>
@@ -5128,7 +6147,7 @@
         <v>41</v>
       </c>
       <c r="K63" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L63" t="s" s="10">
         <v>41</v>
@@ -5150,6 +6169,24 @@
       </c>
       <c r="R63" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y63" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="Z63" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA63" s="10">
+        <f>(z63 * y63)</f>
+      </c>
+      <c r="AB63" s="10">
+        <f>(77700/30*y63)</f>
+      </c>
+      <c r="AC63" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD63" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="64">
@@ -5160,22 +6197,22 @@
         <v>834.0</v>
       </c>
       <c r="C64" t="s" s="10">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D64" t="s" s="10">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E64" t="s" s="10">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F64" t="s" s="10">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G64" s="10">
         <f>concatenate(c64,d64,e64,f64)</f>
       </c>
       <c r="H64" t="s" s="10">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I64" t="n" s="10">
         <v>2.4053031097E10</v>
@@ -5184,7 +6221,7 @@
         <v>41</v>
       </c>
       <c r="K64" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L64" t="s" s="10">
         <v>41</v>
@@ -5206,6 +6243,24 @@
       </c>
       <c r="R64" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y64" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="Z64" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA64" s="10">
+        <f>(z64 * y64)</f>
+      </c>
+      <c r="AB64" s="10">
+        <f>(77700/30*y64)</f>
+      </c>
+      <c r="AC64" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD64" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="65">
@@ -5216,22 +6271,22 @@
         <v>837.0</v>
       </c>
       <c r="C65" t="s" s="10">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D65" t="s" s="10">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E65" t="s" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G65" s="10">
         <f>concatenate(c65,d65,e65,f65)</f>
       </c>
       <c r="H65" t="s" s="10">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I65" t="n" s="10">
         <v>2.4042062301E10</v>
@@ -5262,6 +6317,24 @@
       </c>
       <c r="R65" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y65" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z65" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA65" s="10">
+        <f>(z65 * y65)</f>
+      </c>
+      <c r="AB65" s="10">
+        <f>(77700/30*y65)</f>
+      </c>
+      <c r="AC65" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD65" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="66">
@@ -5272,22 +6345,22 @@
         <v>851.0</v>
       </c>
       <c r="C66" t="s" s="10">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D66" t="s" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E66" t="s" s="10">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F66" t="s" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G66" s="10">
         <f>concatenate(c66,d66,e66,f66)</f>
       </c>
       <c r="H66" t="s" s="10">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I66" t="n" s="10">
         <v>2.4053221605E10</v>
@@ -5318,6 +6391,24 @@
       </c>
       <c r="R66" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y66" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z66" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA66" s="10">
+        <f>(z66 * y66)</f>
+      </c>
+      <c r="AB66" s="10">
+        <f>(77700/30*y66)</f>
+      </c>
+      <c r="AC66" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD66" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="67">
@@ -5328,22 +6419,22 @@
         <v>855.0</v>
       </c>
       <c r="C67" t="s" s="10">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D67" t="s" s="10">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E67" t="s" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F67" t="s" s="10">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G67" s="10">
         <f>concatenate(c67,d67,e67,f67)</f>
       </c>
       <c r="H67" t="s" s="10">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I67" t="n" s="10">
         <v>2.405358386E10</v>
@@ -5374,6 +6465,24 @@
       </c>
       <c r="R67" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y67" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z67" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA67" s="10">
+        <f>(z67 * y67)</f>
+      </c>
+      <c r="AB67" s="10">
+        <f>(77700/30*y67)</f>
+      </c>
+      <c r="AC67" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD67" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="68">
@@ -5384,22 +6493,22 @@
         <v>861.0</v>
       </c>
       <c r="C68" t="s" s="10">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D68" t="s" s="10">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E68" t="s" s="10">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F68" t="s" s="10">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G68" s="10">
         <f>concatenate(c68,d68,e68,f68)</f>
       </c>
       <c r="H68" t="s" s="10">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I68" t="n" s="10">
         <v>2.4053670384E10</v>
@@ -5414,7 +6523,7 @@
         <v>41</v>
       </c>
       <c r="M68" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N68" t="s" s="10">
         <v>41</v>
@@ -5430,6 +6539,24 @@
       </c>
       <c r="R68" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y68" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="Z68" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA68" s="10">
+        <f>(z68 * y68)</f>
+      </c>
+      <c r="AB68" s="10">
+        <f>(77700/30*y68)</f>
+      </c>
+      <c r="AC68" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD68" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="69">
@@ -5440,22 +6567,22 @@
         <v>938.0</v>
       </c>
       <c r="C69" t="s" s="10">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D69" t="s" s="10">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E69" t="s" s="10">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F69" t="s" s="10">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G69" s="10">
         <f>concatenate(c69,d69,e69,f69)</f>
       </c>
       <c r="H69" t="s" s="10">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I69" t="n" s="10">
         <v>2.4054779741E10</v>
@@ -5470,7 +6597,7 @@
         <v>41</v>
       </c>
       <c r="M69" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N69" t="s" s="10">
         <v>41</v>
@@ -5486,6 +6613,24 @@
       </c>
       <c r="R69" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y69" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="Z69" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA69" s="10">
+        <f>(z69 * y69)</f>
+      </c>
+      <c r="AB69" s="10">
+        <f>(77700/30*y69)</f>
+      </c>
+      <c r="AC69" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD69" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="70">
@@ -5496,22 +6641,22 @@
         <v>975.0</v>
       </c>
       <c r="C70" t="s" s="10">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D70" t="s" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E70" t="s" s="10">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F70" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G70" s="10">
         <f>concatenate(c70,d70,e70,f70)</f>
       </c>
       <c r="H70" t="s" s="10">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I70" t="n" s="10">
         <v>2.4052657078E10</v>
@@ -5542,6 +6687,24 @@
       </c>
       <c r="R70" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y70" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z70" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA70" s="10">
+        <f>(z70 * y70)</f>
+      </c>
+      <c r="AB70" s="10">
+        <f>(77700/30*y70)</f>
+      </c>
+      <c r="AC70" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD70" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="71">
@@ -5552,22 +6715,22 @@
         <v>979.0</v>
       </c>
       <c r="C71" t="s" s="10">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D71" t="s" s="10">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E71" t="s" s="10">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F71" t="s" s="10">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G71" s="10">
         <f>concatenate(c71,d71,e71,f71)</f>
       </c>
       <c r="H71" t="s" s="10">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I71" t="n" s="10">
         <v>2.4055405207E10</v>
@@ -5598,6 +6761,24 @@
       </c>
       <c r="R71" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y71" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z71" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA71" s="10">
+        <f>(z71 * y71)</f>
+      </c>
+      <c r="AB71" s="10">
+        <f>(77700/30*y71)</f>
+      </c>
+      <c r="AC71" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD71" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="72">
@@ -5608,22 +6789,22 @@
         <v>1073.0</v>
       </c>
       <c r="C72" t="s" s="10">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D72" t="s" s="10">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E72" t="s" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s" s="10">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G72" s="10">
         <f>concatenate(c72,d72,e72,f72)</f>
       </c>
       <c r="H72" t="s" s="10">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I72" t="n" s="10">
         <v>2.4052656277E10</v>
@@ -5654,6 +6835,24 @@
       </c>
       <c r="R72" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y72" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z72" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA72" s="10">
+        <f>(z72 * y72)</f>
+      </c>
+      <c r="AB72" s="10">
+        <f>(77700/30*y72)</f>
+      </c>
+      <c r="AC72" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD72" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="73">
@@ -5664,22 +6863,22 @@
         <v>-4.0</v>
       </c>
       <c r="C73" t="s" s="7">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D73" t="s" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E73" t="s" s="7">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F73" t="s" s="7">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G73" s="7">
         <f>concatenate(c73,d73,e73,f73)</f>
       </c>
       <c r="H73" t="s" s="7">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I73" t="n" s="10">
         <v>2.4040877482E10</v>
@@ -5710,6 +6909,24 @@
       </c>
       <c r="R73" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y73" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z73" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA73" s="10">
+        <f>(z73 * y73)</f>
+      </c>
+      <c r="AB73" s="10">
+        <f>(77700/30*y73)</f>
+      </c>
+      <c r="AC73" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD73" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="74">
@@ -5720,22 +6937,22 @@
         <v>22.0</v>
       </c>
       <c r="C74" t="s" s="10">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D74" t="s" s="10">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E74" t="s" s="10">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F74" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G74" s="10">
         <f>concatenate(c74,d74,e74,f74)</f>
       </c>
       <c r="H74" t="s" s="10">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I74" t="n" s="10">
         <v>2.4041023916E10</v>
@@ -5766,6 +6983,24 @@
       </c>
       <c r="R74" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y74" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z74" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA74" s="10">
+        <f>(z74 * y74)</f>
+      </c>
+      <c r="AB74" s="10">
+        <f>(77700/30*y74)</f>
+      </c>
+      <c r="AC74" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD74" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="75">
@@ -5776,22 +7011,22 @@
         <v>46.0</v>
       </c>
       <c r="C75" t="s" s="10">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D75" t="s" s="10">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E75" t="s" s="10">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F75" t="s" s="10">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G75" s="10">
         <f>concatenate(c75,d75,e75,f75)</f>
       </c>
       <c r="H75" t="s" s="10">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I75" t="n" s="10">
         <v>2.4041024988E10</v>
@@ -5800,10 +7035,10 @@
         <v>41</v>
       </c>
       <c r="K75" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L75" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M75" t="s" s="10">
         <v>41</v>
@@ -5822,6 +7057,24 @@
       </c>
       <c r="R75" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y75" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="Z75" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA75" s="10">
+        <f>(z75 * y75)</f>
+      </c>
+      <c r="AB75" s="10">
+        <f>(77700/30*y75)</f>
+      </c>
+      <c r="AC75" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD75" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="76">
@@ -5832,13 +7085,13 @@
         <v>148.0</v>
       </c>
       <c r="C76" t="s" s="10">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D76" t="s" s="10">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E76" t="s" s="10">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F76" t="s" s="10">
         <v>39</v>
@@ -5847,7 +7100,7 @@
         <f>concatenate(c76,d76,e76,f76)</f>
       </c>
       <c r="H76" t="s" s="10">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I76" t="n" s="10">
         <v>2.4041022533E10</v>
@@ -5878,6 +7131,24 @@
       </c>
       <c r="R76" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y76" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z76" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA76" s="10">
+        <f>(z76 * y76)</f>
+      </c>
+      <c r="AB76" s="10">
+        <f>(77700/30*y76)</f>
+      </c>
+      <c r="AC76" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD76" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="77">
@@ -5888,22 +7159,22 @@
         <v>176.0</v>
       </c>
       <c r="C77" t="s" s="10">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D77" t="s" s="10">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E77" t="s" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F77" t="s" s="10">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G77" s="10">
         <f>concatenate(c77,d77,e77,f77)</f>
       </c>
       <c r="H77" t="s" s="10">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I77" t="n" s="10">
         <v>2.4041022331E10</v>
@@ -5934,6 +7205,24 @@
       </c>
       <c r="R77" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y77" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z77" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA77" s="10">
+        <f>(z77 * y77)</f>
+      </c>
+      <c r="AB77" s="10">
+        <f>(77700/30*y77)</f>
+      </c>
+      <c r="AC77" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD77" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="78">
@@ -5944,22 +7233,22 @@
         <v>227.0</v>
       </c>
       <c r="C78" t="s" s="10">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D78" t="s" s="10">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E78" t="s" s="10">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F78" t="s" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G78" s="10">
         <f>concatenate(c78,d78,e78,f78)</f>
       </c>
       <c r="H78" t="s" s="10">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I78" t="n" s="10">
         <v>2.4041023839E10</v>
@@ -5990,6 +7279,24 @@
       </c>
       <c r="R78" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y78" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z78" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA78" s="10">
+        <f>(z78 * y78)</f>
+      </c>
+      <c r="AB78" s="10">
+        <f>(77700/30*y78)</f>
+      </c>
+      <c r="AC78" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD78" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="79">
@@ -6000,22 +7307,22 @@
         <v>291.0</v>
       </c>
       <c r="C79" t="s" s="10">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D79" t="s" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E79" t="s" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F79" t="s" s="10">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G79" s="10">
         <f>concatenate(c79,d79,e79,f79)</f>
       </c>
       <c r="H79" t="s" s="10">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I79" t="n" s="10">
         <v>2.4041021819E10</v>
@@ -6046,6 +7353,24 @@
       </c>
       <c r="R79" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y79" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z79" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA79" s="10">
+        <f>(z79 * y79)</f>
+      </c>
+      <c r="AB79" s="10">
+        <f>(77700/30*y79)</f>
+      </c>
+      <c r="AC79" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD79" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="80">
@@ -6056,22 +7381,22 @@
         <v>442.0</v>
       </c>
       <c r="C80" t="s" s="10">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D80" t="s" s="10">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E80" t="s" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F80" t="s" s="10">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G80" s="10">
         <f>concatenate(c80,d80,e80,f80)</f>
       </c>
       <c r="H80" t="s" s="10">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I80" t="n" s="10">
         <v>2.4041022247E10</v>
@@ -6102,6 +7427,24 @@
       </c>
       <c r="R80" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y80" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z80" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA80" s="10">
+        <f>(z80 * y80)</f>
+      </c>
+      <c r="AB80" s="10">
+        <f>(77700/30*y80)</f>
+      </c>
+      <c r="AC80" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD80" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="81">
@@ -6112,22 +7455,22 @@
         <v>836.0</v>
       </c>
       <c r="C81" t="s" s="10">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D81" t="s" s="10">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E81" t="s" s="10">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F81" t="s" s="10">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G81" s="10">
         <f>concatenate(c81,d81,e81,f81)</f>
       </c>
       <c r="H81" t="s" s="10">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I81" t="n" s="10">
         <v>2.4053009766E10</v>
@@ -6158,6 +7501,24 @@
       </c>
       <c r="R81" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y81" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z81" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA81" s="10">
+        <f>(z81 * y81)</f>
+      </c>
+      <c r="AB81" s="10">
+        <f>(77700/30*y81)</f>
+      </c>
+      <c r="AC81" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD81" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="82">
@@ -6168,22 +7529,22 @@
         <v>895.0</v>
       </c>
       <c r="C82" t="s" s="10">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D82" t="s" s="10">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E82" t="s" s="10">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F82" t="s" s="10">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G82" s="10">
         <f>concatenate(c82,d82,e82,f82)</f>
       </c>
       <c r="H82" t="s" s="10">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I82" t="n" s="10">
         <v>2.4054201541E10</v>
@@ -6214,6 +7575,24 @@
       </c>
       <c r="R82" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y82" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z82" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA82" s="10">
+        <f>(z82 * y82)</f>
+      </c>
+      <c r="AB82" s="10">
+        <f>(77700/30*y82)</f>
+      </c>
+      <c r="AC82" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD82" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="83">
@@ -6224,22 +7603,22 @@
         <v>944.0</v>
       </c>
       <c r="C83" t="s" s="10">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D83" t="s" s="10">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E83" t="s" s="10">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F83" t="s" s="10">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G83" s="10">
         <f>concatenate(c83,d83,e83,f83)</f>
       </c>
       <c r="H83" t="s" s="10">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I83" t="n" s="10">
         <v>2.4054858613E10</v>
@@ -6270,6 +7649,24 @@
       </c>
       <c r="R83" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y83" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z83" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA83" s="10">
+        <f>(z83 * y83)</f>
+      </c>
+      <c r="AB83" s="10">
+        <f>(77700/30*y83)</f>
+      </c>
+      <c r="AC83" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD83" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="84">
@@ -6280,22 +7677,22 @@
         <v>960.0</v>
       </c>
       <c r="C84" t="s" s="10">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D84" t="s" s="10">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E84" t="s" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s" s="10">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G84" s="10">
         <f>concatenate(c84,d84,e84,f84)</f>
       </c>
       <c r="H84" t="s" s="10">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I84" t="n" s="10">
         <v>2.4055339766E10</v>
@@ -6326,6 +7723,24 @@
       </c>
       <c r="R84" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y84" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z84" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA84" s="10">
+        <f>(z84 * y84)</f>
+      </c>
+      <c r="AB84" s="10">
+        <f>(77700/30*y84)</f>
+      </c>
+      <c r="AC84" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD84" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="85">
@@ -6336,22 +7751,22 @@
         <v>962.0</v>
       </c>
       <c r="C85" t="s" s="10">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D85" t="s" s="10">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E85" t="s" s="10">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F85" t="s" s="10">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G85" s="10">
         <f>concatenate(c85,d85,e85,f85)</f>
       </c>
       <c r="H85" t="s" s="10">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I85" t="n" s="10">
         <v>2.4055339216E10</v>
@@ -6382,6 +7797,24 @@
       </c>
       <c r="R85" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y85" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z85" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA85" s="10">
+        <f>(z85 * y85)</f>
+      </c>
+      <c r="AB85" s="10">
+        <f>(77700/30*y85)</f>
+      </c>
+      <c r="AC85" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD85" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="86">
@@ -6392,22 +7825,22 @@
         <v>981.0</v>
       </c>
       <c r="C86" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D86" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E86" t="s" s="10">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F86" t="s" s="10">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G86" s="10">
         <f>concatenate(c86,d86,e86,f86)</f>
       </c>
       <c r="H86" t="s" s="10">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="I86" t="n" s="10">
         <v>2.4055406596E10</v>
@@ -6438,6 +7871,24 @@
       </c>
       <c r="R86" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y86" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z86" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA86" s="10">
+        <f>(z86 * y86)</f>
+      </c>
+      <c r="AB86" s="10">
+        <f>(77700/30*y86)</f>
+      </c>
+      <c r="AC86" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD86" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="87">
@@ -6448,22 +7899,22 @@
         <v>1023.0</v>
       </c>
       <c r="C87" t="s" s="10">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D87" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E87" t="s" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s" s="10">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G87" s="10">
         <f>concatenate(c87,d87,e87,f87)</f>
       </c>
       <c r="H87" t="s" s="10">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I87" t="n" s="10">
         <v>2.4055811097E10</v>
@@ -6494,6 +7945,24 @@
       </c>
       <c r="R87" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y87" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z87" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA87" s="10">
+        <f>(z87 * y87)</f>
+      </c>
+      <c r="AB87" s="10">
+        <f>(77700/30*y87)</f>
+      </c>
+      <c r="AC87" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD87" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="88">
@@ -6504,22 +7973,22 @@
         <v>1086.0</v>
       </c>
       <c r="C88" t="s" s="10">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D88" t="s" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E88" t="s" s="10">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F88" t="s" s="10">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G88" s="10">
         <f>concatenate(c88,d88,e88,f88)</f>
       </c>
       <c r="H88" t="s" s="10">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I88" t="n" s="10">
         <v>2.4056726293E10</v>
@@ -6550,6 +8019,24 @@
       </c>
       <c r="R88" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y88" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z88" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA88" s="10">
+        <f>(z88 * y88)</f>
+      </c>
+      <c r="AB88" s="10">
+        <f>(77700/30*y88)</f>
+      </c>
+      <c r="AC88" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD88" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="89">
@@ -6560,22 +8047,22 @@
         <v>1125.0</v>
       </c>
       <c r="C89" t="s" s="10">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D89" t="s" s="10">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E89" t="s" s="10">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F89" t="s" s="10">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G89" s="10">
         <f>concatenate(c89,d89,e89,f89)</f>
       </c>
       <c r="H89" t="s" s="10">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="I89" t="n" s="10">
         <v>2.4041022658E10</v>
@@ -6606,6 +8093,24 @@
       </c>
       <c r="R89" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y89" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z89" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA89" s="10">
+        <f>(z89 * y89)</f>
+      </c>
+      <c r="AB89" s="10">
+        <f>(77700/30*y89)</f>
+      </c>
+      <c r="AC89" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD89" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="90">
@@ -6616,22 +8121,22 @@
         <v>1129.0</v>
       </c>
       <c r="C90" t="s" s="10">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D90" t="s" s="10">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E90" t="s" s="10">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F90" t="s" s="10">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G90" s="10">
         <f>concatenate(c90,d90,e90,f90)</f>
       </c>
       <c r="H90" t="s" s="10">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="I90" t="n" s="10">
         <v>2.4041280579E10</v>
@@ -6662,6 +8167,24 @@
       </c>
       <c r="R90" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y90" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z90" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA90" s="10">
+        <f>(z90 * y90)</f>
+      </c>
+      <c r="AB90" s="10">
+        <f>(77700/30*y90)</f>
+      </c>
+      <c r="AC90" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD90" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="91">
@@ -6672,22 +8195,22 @@
         <v>-5.0</v>
       </c>
       <c r="C91" t="s" s="7">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D91" t="s" s="7">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E91" t="s" s="7">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F91" t="s" s="7">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G91" s="7">
         <f>concatenate(c91,d91,e91,f91)</f>
       </c>
       <c r="H91" t="s" s="7">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="I91" t="n" s="10">
         <v>2.404126672E10</v>
@@ -6718,6 +8241,24 @@
       </c>
       <c r="R91" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y91" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z91" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA91" s="10">
+        <f>(z91 * y91)</f>
+      </c>
+      <c r="AB91" s="10">
+        <f>(77700/30*y91)</f>
+      </c>
+      <c r="AC91" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD91" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="92">
@@ -6728,22 +8269,22 @@
         <v>226.0</v>
       </c>
       <c r="C92" t="s" s="10">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D92" t="s" s="10">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E92" t="s" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F92" t="s" s="10">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G92" s="10">
         <f>concatenate(c92,d92,e92,f92)</f>
       </c>
       <c r="H92" t="s" s="10">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I92" t="n" s="10">
         <v>2.4041022069E10</v>
@@ -6774,6 +8315,24 @@
       </c>
       <c r="R92" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y92" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z92" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA92" s="10">
+        <f>(z92 * y92)</f>
+      </c>
+      <c r="AB92" s="10">
+        <f>(77700/30*y92)</f>
+      </c>
+      <c r="AC92" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD92" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="93">
@@ -6784,22 +8343,22 @@
         <v>235.0</v>
       </c>
       <c r="C93" t="s" s="10">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D93" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E93" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F93" t="s" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G93" s="10">
         <f>concatenate(c93,d93,e93,f93)</f>
       </c>
       <c r="H93" t="s" s="10">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I93" t="n" s="10">
         <v>2.4040878478E10</v>
@@ -6808,10 +8367,10 @@
         <v>41</v>
       </c>
       <c r="K93" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L93" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M93" t="s" s="10">
         <v>41</v>
@@ -6830,6 +8389,24 @@
       </c>
       <c r="R93" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y93" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="Z93" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA93" s="10">
+        <f>(z93 * y93)</f>
+      </c>
+      <c r="AB93" s="10">
+        <f>(77700/30*y93)</f>
+      </c>
+      <c r="AC93" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD93" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="94">
@@ -6840,22 +8417,22 @@
         <v>334.0</v>
       </c>
       <c r="C94" t="s" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D94" t="s" s="10">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E94" t="s" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F94" t="s" s="10">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G94" s="10">
         <f>concatenate(c94,d94,e94,f94)</f>
       </c>
       <c r="H94" t="s" s="10">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I94" t="n" s="10">
         <v>2.4040875563E10</v>
@@ -6864,10 +8441,10 @@
         <v>41</v>
       </c>
       <c r="K94" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L94" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M94" t="s" s="10">
         <v>41</v>
@@ -6886,6 +8463,24 @@
       </c>
       <c r="R94" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y94" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="Z94" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA94" s="10">
+        <f>(z94 * y94)</f>
+      </c>
+      <c r="AB94" s="10">
+        <f>(77700/30*y94)</f>
+      </c>
+      <c r="AC94" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD94" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="95">
@@ -6896,22 +8491,22 @@
         <v>346.0</v>
       </c>
       <c r="C95" t="s" s="10">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D95" t="s" s="10">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E95" t="s" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s" s="10">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G95" s="10">
         <f>concatenate(c95,d95,e95,f95)</f>
       </c>
       <c r="H95" t="s" s="10">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="I95" t="n" s="10">
         <v>2.4040980573E10</v>
@@ -6923,7 +8518,7 @@
         <v>41</v>
       </c>
       <c r="L95" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M95" t="s" s="10">
         <v>41</v>
@@ -6942,6 +8537,24 @@
       </c>
       <c r="R95" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y95" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="Z95" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA95" s="10">
+        <f>(z95 * y95)</f>
+      </c>
+      <c r="AB95" s="10">
+        <f>(77700/30*y95)</f>
+      </c>
+      <c r="AC95" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD95" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="96">
@@ -6952,22 +8565,22 @@
         <v>472.0</v>
       </c>
       <c r="C96" t="s" s="10">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D96" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E96" t="s" s="10">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F96" t="s" s="10">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G96" s="10">
         <f>concatenate(c96,d96,e96,f96)</f>
       </c>
       <c r="H96" t="s" s="10">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="I96" t="n" s="10">
         <v>2.4040935744E10</v>
@@ -6979,7 +8592,7 @@
         <v>41</v>
       </c>
       <c r="L96" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M96" t="s" s="10">
         <v>41</v>
@@ -6998,6 +8611,24 @@
       </c>
       <c r="R96" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y96" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="Z96" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA96" s="10">
+        <f>(z96 * y96)</f>
+      </c>
+      <c r="AB96" s="10">
+        <f>(77700/30*y96)</f>
+      </c>
+      <c r="AC96" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD96" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="97">
@@ -7008,22 +8639,22 @@
         <v>491.0</v>
       </c>
       <c r="C97" t="s" s="10">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D97" t="s" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E97" t="s" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s" s="10">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G97" s="10">
         <f>concatenate(c97,d97,e97,f97)</f>
       </c>
       <c r="H97" t="s" s="10">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="I97" t="n" s="10">
         <v>2.4041395008E10</v>
@@ -7035,7 +8666,7 @@
         <v>41</v>
       </c>
       <c r="L97" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M97" t="s" s="10">
         <v>41</v>
@@ -7054,6 +8685,24 @@
       </c>
       <c r="R97" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y97" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="Z97" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA97" s="10">
+        <f>(z97 * y97)</f>
+      </c>
+      <c r="AB97" s="10">
+        <f>(77700/30*y97)</f>
+      </c>
+      <c r="AC97" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD97" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="98">
@@ -7064,22 +8713,22 @@
         <v>502.0</v>
       </c>
       <c r="C98" t="s" s="10">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D98" t="s" s="10">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E98" t="s" s="10">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F98" t="s" s="10">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G98" s="10">
         <f>concatenate(c98,d98,e98,f98)</f>
       </c>
       <c r="H98" t="s" s="10">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I98" t="n" s="10">
         <v>2.4041860146E10</v>
@@ -7088,7 +8737,7 @@
         <v>41</v>
       </c>
       <c r="K98" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L98" t="s" s="10">
         <v>41</v>
@@ -7110,6 +8759,24 @@
       </c>
       <c r="R98" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y98" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="Z98" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA98" s="10">
+        <f>(z98 * y98)</f>
+      </c>
+      <c r="AB98" s="10">
+        <f>(77700/30*y98)</f>
+      </c>
+      <c r="AC98" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD98" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="99">
@@ -7120,22 +8787,22 @@
         <v>892.0</v>
       </c>
       <c r="C99" t="s" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D99" t="s" s="10">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E99" t="s" s="10">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F99" t="s" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G99" s="10">
         <f>concatenate(c99,d99,e99,f99)</f>
       </c>
       <c r="H99" t="s" s="10">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I99" t="n" s="10">
         <v>2.4054172489E10</v>
@@ -7166,6 +8833,24 @@
       </c>
       <c r="R99" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y99" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z99" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA99" s="10">
+        <f>(z99 * y99)</f>
+      </c>
+      <c r="AB99" s="10">
+        <f>(77700/30*y99)</f>
+      </c>
+      <c r="AC99" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD99" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="100">
@@ -7176,22 +8861,22 @@
         <v>1021.0</v>
       </c>
       <c r="C100" t="s" s="10">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D100" t="s" s="10">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E100" t="s" s="10">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G100" s="10">
         <f>concatenate(c100,d100,e100,f100)</f>
       </c>
       <c r="H100" t="s" s="10">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="I100" t="n" s="10">
         <v>2.4055841694E10</v>
@@ -7222,6 +8907,24 @@
       </c>
       <c r="R100" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y100" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z100" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA100" s="10">
+        <f>(z100 * y100)</f>
+      </c>
+      <c r="AB100" s="10">
+        <f>(77700/30*y100)</f>
+      </c>
+      <c r="AC100" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD100" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="101">
@@ -7232,22 +8935,22 @@
         <v>1050.0</v>
       </c>
       <c r="C101" t="s" s="10">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D101" t="s" s="10">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E101" t="s" s="10">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F101" t="s" s="10">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G101" s="10">
         <f>concatenate(c101,d101,e101,f101)</f>
       </c>
       <c r="H101" t="s" s="10">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="I101" t="n" s="10">
         <v>2.4041265556E10</v>
@@ -7278,6 +8981,24 @@
       </c>
       <c r="R101" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y101" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z101" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA101" s="10">
+        <f>(z101 * y101)</f>
+      </c>
+      <c r="AB101" s="10">
+        <f>(77700/30*y101)</f>
+      </c>
+      <c r="AC101" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD101" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="102">
@@ -7288,22 +9009,22 @@
         <v>1067.0</v>
       </c>
       <c r="C102" t="s" s="10">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D102" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E102" t="s" s="10">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F102" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G102" s="10">
         <f>concatenate(c102,d102,e102,f102)</f>
       </c>
       <c r="H102" t="s" s="10">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="I102" t="n" s="10">
         <v>2.4056458886E10</v>
@@ -7334,6 +9055,24 @@
       </c>
       <c r="R102" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y102" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z102" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA102" s="10">
+        <f>(z102 * y102)</f>
+      </c>
+      <c r="AB102" s="10">
+        <f>(77700/30*y102)</f>
+      </c>
+      <c r="AC102" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD102" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="103">
@@ -7344,22 +9083,22 @@
         <v>1080.0</v>
       </c>
       <c r="C103" t="s" s="10">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D103" t="s" s="10">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E103" t="s" s="10">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F103" t="s" s="10">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G103" s="10">
         <f>concatenate(c103,d103,e103,f103)</f>
       </c>
       <c r="H103" t="s" s="10">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="I103" t="n" s="10">
         <v>2.4056675148E10</v>
@@ -7390,6 +9129,24 @@
       </c>
       <c r="R103" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y103" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z103" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA103" s="10">
+        <f>(z103 * y103)</f>
+      </c>
+      <c r="AB103" s="10">
+        <f>(77700/30*y103)</f>
+      </c>
+      <c r="AC103" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD103" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="104">
@@ -7400,22 +9157,22 @@
         <v>1104.0</v>
       </c>
       <c r="C104" t="s" s="10">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D104" t="s" s="10">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E104" t="s" s="10">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F104" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G104" s="10">
         <f>concatenate(c104,d104,e104,f104)</f>
       </c>
       <c r="H104" t="s" s="10">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="I104" t="n" s="10">
         <v>2.4041264933E10</v>
@@ -7446,6 +9203,24 @@
       </c>
       <c r="R104" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y104" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z104" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA104" s="10">
+        <f>(z104 * y104)</f>
+      </c>
+      <c r="AB104" s="10">
+        <f>(77700/30*y104)</f>
+      </c>
+      <c r="AC104" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD104" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="105">
@@ -7456,22 +9231,22 @@
         <v>1105.0</v>
       </c>
       <c r="C105" t="s" s="10">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D105" t="s" s="10">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E105" t="s" s="10">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F105" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G105" s="10">
         <f>concatenate(c105,d105,e105,f105)</f>
       </c>
       <c r="H105" t="s" s="10">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="I105" t="n" s="10">
         <v>2.4041022456E10</v>
@@ -7502,6 +9277,24 @@
       </c>
       <c r="R105" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y105" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z105" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA105" s="10">
+        <f>(z105 * y105)</f>
+      </c>
+      <c r="AB105" s="10">
+        <f>(77700/30*y105)</f>
+      </c>
+      <c r="AC105" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD105" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="106">
@@ -7512,22 +9305,22 @@
         <v>-6.0</v>
       </c>
       <c r="C106" t="s" s="7">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D106" t="s" s="7">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E106" t="s" s="7">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F106" t="s" s="7">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G106" s="7">
         <f>concatenate(c106,d106,e106,f106)</f>
       </c>
       <c r="H106" t="s" s="7">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="I106" t="n" s="10">
         <v>2.4040908836E10</v>
@@ -7558,6 +9351,24 @@
       </c>
       <c r="R106" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y106" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z106" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA106" s="10">
+        <f>(z106 * y106)</f>
+      </c>
+      <c r="AB106" s="10">
+        <f>(77700/30*y106)</f>
+      </c>
+      <c r="AC106" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD106" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="107">
@@ -7568,22 +9379,22 @@
         <v>224.0</v>
       </c>
       <c r="C107" t="s" s="10">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D107" t="s" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E107" t="s" s="10">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F107" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G107" s="10">
         <f>concatenate(c107,d107,e107,f107)</f>
       </c>
       <c r="H107" t="s" s="10">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="I107" t="n" s="10">
         <v>2.4040980085E10</v>
@@ -7592,7 +9403,7 @@
         <v>41</v>
       </c>
       <c r="K107" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L107" t="s" s="10">
         <v>41</v>
@@ -7614,6 +9425,24 @@
       </c>
       <c r="R107" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y107" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="Z107" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA107" s="10">
+        <f>(z107 * y107)</f>
+      </c>
+      <c r="AB107" s="10">
+        <f>(77700/30*y107)</f>
+      </c>
+      <c r="AC107" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD107" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="108">
@@ -7624,22 +9453,22 @@
         <v>779.0</v>
       </c>
       <c r="C108" t="s" s="10">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D108" t="s" s="10">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E108" t="s" s="10">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F108" t="s" s="10">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G108" s="10">
         <f>concatenate(c108,d108,e108,f108)</f>
       </c>
       <c r="H108" t="s" s="10">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="I108" t="n" s="10">
         <v>2.4050221567E10</v>
@@ -7648,10 +9477,10 @@
         <v>41</v>
       </c>
       <c r="K108" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L108" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M108" t="s" s="10">
         <v>41</v>
@@ -7670,6 +9499,24 @@
       </c>
       <c r="R108" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y108" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="Z108" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA108" s="10">
+        <f>(z108 * y108)</f>
+      </c>
+      <c r="AB108" s="10">
+        <f>(77700/30*y108)</f>
+      </c>
+      <c r="AC108" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD108" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="109">
@@ -7680,22 +9527,22 @@
         <v>849.0</v>
       </c>
       <c r="C109" t="s" s="10">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D109" t="s" s="10">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E109" t="s" s="10">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F109" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G109" s="10">
         <f>concatenate(c109,d109,e109,f109)</f>
       </c>
       <c r="H109" t="s" s="10">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="I109" t="n" s="10">
         <v>2.4041023644E10</v>
@@ -7726,6 +9573,24 @@
       </c>
       <c r="R109" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y109" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z109" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA109" s="10">
+        <f>(z109 * y109)</f>
+      </c>
+      <c r="AB109" s="10">
+        <f>(77700/30*y109)</f>
+      </c>
+      <c r="AC109" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD109" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="110">
@@ -7736,22 +9601,22 @@
         <v>907.0</v>
       </c>
       <c r="C110" t="s" s="10">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D110" t="s" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E110" t="s" s="10">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F110" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G110" s="10">
         <f>concatenate(c110,d110,e110,f110)</f>
       </c>
       <c r="H110" t="s" s="10">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="I110" t="n" s="10">
         <v>2.4054250271E10</v>
@@ -7782,6 +9647,24 @@
       </c>
       <c r="R110" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y110" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z110" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA110" s="10">
+        <f>(z110 * y110)</f>
+      </c>
+      <c r="AB110" s="10">
+        <f>(77700/30*y110)</f>
+      </c>
+      <c r="AC110" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD110" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="111">
@@ -7792,22 +9675,22 @@
         <v>993.0</v>
       </c>
       <c r="C111" t="s" s="10">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D111" t="s" s="10">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E111" t="s" s="10">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F111" t="s" s="10">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G111" s="10">
         <f>concatenate(c111,d111,e111,f111)</f>
       </c>
       <c r="H111" t="s" s="10">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I111" t="n" s="10">
         <v>2.4056382105E10</v>
@@ -7838,6 +9721,24 @@
       </c>
       <c r="R111" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y111" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z111" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA111" s="10">
+        <f>(z111 * y111)</f>
+      </c>
+      <c r="AB111" s="10">
+        <f>(77700/30*y111)</f>
+      </c>
+      <c r="AC111" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD111" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="112">
@@ -7848,22 +9749,22 @@
         <v>1031.0</v>
       </c>
       <c r="C112" t="s" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D112" t="s" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E112" t="s" s="10">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F112" t="s" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G112" s="10">
         <f>concatenate(c112,d112,e112,f112)</f>
       </c>
       <c r="H112" t="s" s="10">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="I112" t="n" s="10">
         <v>2.4046148074E10</v>
@@ -7894,6 +9795,24 @@
       </c>
       <c r="R112" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y112" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z112" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA112" s="10">
+        <f>(z112 * y112)</f>
+      </c>
+      <c r="AB112" s="10">
+        <f>(77700/30*y112)</f>
+      </c>
+      <c r="AC112" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD112" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="113">
@@ -7904,22 +9823,22 @@
         <v>140.0</v>
       </c>
       <c r="C113" t="s" s="7">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D113" t="s" s="7">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E113" t="s" s="7">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F113" t="s" s="7">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G113" s="7">
         <f>concatenate(c113,d113,e113,f113)</f>
       </c>
       <c r="H113" t="s" s="7">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="I113" t="n" s="10">
         <v>2.4040876218E10</v>
@@ -7931,7 +9850,7 @@
         <v>41</v>
       </c>
       <c r="L113" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M113" t="s" s="10">
         <v>41</v>
@@ -7950,6 +9869,24 @@
       </c>
       <c r="R113" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y113" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="Z113" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA113" s="10">
+        <f>(z113 * y113)</f>
+      </c>
+      <c r="AB113" s="10">
+        <f>(77700/30*y113)</f>
+      </c>
+      <c r="AC113" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD113" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="114">
@@ -7960,22 +9897,22 @@
         <v>199.0</v>
       </c>
       <c r="C114" t="s" s="10">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D114" t="s" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E114" t="s" s="10">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F114" t="s" s="10">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G114" s="10">
         <f>concatenate(c114,d114,e114,f114)</f>
       </c>
       <c r="H114" t="s" s="10">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I114" t="n" s="10">
         <v>2.4041596515E10</v>
@@ -7984,10 +9921,10 @@
         <v>41</v>
       </c>
       <c r="K114" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L114" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M114" t="s" s="10">
         <v>41</v>
@@ -8006,6 +9943,24 @@
       </c>
       <c r="R114" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y114" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="Z114" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA114" s="10">
+        <f>(z114 * y114)</f>
+      </c>
+      <c r="AB114" s="10">
+        <f>(77700/30*y114)</f>
+      </c>
+      <c r="AC114" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD114" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="115">
@@ -8016,22 +9971,22 @@
         <v>313.0</v>
       </c>
       <c r="C115" t="s" s="10">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D115" t="s" s="10">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E115" t="s" s="10">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F115" t="s" s="10">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G115" s="10">
         <f>concatenate(c115,d115,e115,f115)</f>
       </c>
       <c r="H115" t="s" s="10">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="I115" t="n" s="10">
         <v>2.4041022704E10</v>
@@ -8040,7 +9995,7 @@
         <v>41</v>
       </c>
       <c r="K115" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L115" t="s" s="10">
         <v>41</v>
@@ -8062,6 +10017,24 @@
       </c>
       <c r="R115" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y115" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="Z115" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA115" s="10">
+        <f>(z115 * y115)</f>
+      </c>
+      <c r="AB115" s="10">
+        <f>(77700/30*y115)</f>
+      </c>
+      <c r="AC115" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD115" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="116">
@@ -8072,22 +10045,22 @@
         <v>325.0</v>
       </c>
       <c r="C116" t="s" s="10">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D116" t="s" s="10">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E116" t="s" s="10">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F116" t="s" s="10">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G116" s="10">
         <f>concatenate(c116,d116,e116,f116)</f>
       </c>
       <c r="H116" t="s" s="10">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="I116" t="n" s="10">
         <v>2.4041023017E10</v>
@@ -8118,6 +10091,24 @@
       </c>
       <c r="R116" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y116" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z116" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA116" s="10">
+        <f>(z116 * y116)</f>
+      </c>
+      <c r="AB116" s="10">
+        <f>(77700/30*y116)</f>
+      </c>
+      <c r="AC116" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD116" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="117">
@@ -8128,22 +10119,22 @@
         <v>329.0</v>
       </c>
       <c r="C117" t="s" s="10">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D117" t="s" s="10">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E117" t="s" s="10">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F117" t="s" s="10">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G117" s="10">
         <f>concatenate(c117,d117,e117,f117)</f>
       </c>
       <c r="H117" t="s" s="10">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I117" t="n" s="10">
         <v>2.4041022805E10</v>
@@ -8174,6 +10165,24 @@
       </c>
       <c r="R117" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y117" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z117" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA117" s="10">
+        <f>(z117 * y117)</f>
+      </c>
+      <c r="AB117" s="10">
+        <f>(77700/30*y117)</f>
+      </c>
+      <c r="AC117" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD117" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="118">
@@ -8184,22 +10193,22 @@
         <v>545.0</v>
       </c>
       <c r="C118" t="s" s="10">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D118" t="s" s="10">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E118" t="s" s="10">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F118" t="s" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G118" s="10">
         <f>concatenate(c118,d118,e118,f118)</f>
       </c>
       <c r="H118" t="s" s="10">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="I118" t="n" s="10">
         <v>2.4042181101E10</v>
@@ -8230,6 +10239,24 @@
       </c>
       <c r="R118" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y118" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z118" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA118" s="10">
+        <f>(z118 * y118)</f>
+      </c>
+      <c r="AB118" s="10">
+        <f>(77700/30*y118)</f>
+      </c>
+      <c r="AC118" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD118" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="119">
@@ -8240,22 +10267,22 @@
         <v>557.0</v>
       </c>
       <c r="C119" t="s" s="10">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D119" t="s" s="10">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E119" t="s" s="10">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F119" t="s" s="10">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G119" s="10">
         <f>concatenate(c119,d119,e119,f119)</f>
       </c>
       <c r="H119" t="s" s="10">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="I119" t="n" s="10">
         <v>2.4042489083E10</v>
@@ -8286,6 +10313,24 @@
       </c>
       <c r="R119" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y119" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z119" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA119" s="10">
+        <f>(z119 * y119)</f>
+      </c>
+      <c r="AB119" s="10">
+        <f>(77700/30*y119)</f>
+      </c>
+      <c r="AC119" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD119" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="120">
@@ -8296,22 +10341,22 @@
         <v>706.0</v>
       </c>
       <c r="C120" t="s" s="10">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D120" t="s" s="10">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E120" t="s" s="10">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F120" t="s" s="10">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G120" s="10">
         <f>concatenate(c120,d120,e120,f120)</f>
       </c>
       <c r="H120" t="s" s="10">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="I120" t="n" s="10">
         <v>2.4045679962E10</v>
@@ -8342,6 +10387,24 @@
       </c>
       <c r="R120" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y120" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z120" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA120" s="10">
+        <f>(z120 * y120)</f>
+      </c>
+      <c r="AB120" s="10">
+        <f>(77700/30*y120)</f>
+      </c>
+      <c r="AC120" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD120" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="121">
@@ -8352,22 +10415,22 @@
         <v>331.0</v>
       </c>
       <c r="C121" t="s" s="7">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D121" t="s" s="7">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E121" t="s" s="7">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F121" t="s" s="7">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G121" s="7">
         <f>concatenate(c121,d121,e121,f121)</f>
       </c>
       <c r="H121" t="s" s="7">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="I121" t="n" s="10">
         <v>2.4040875253E10</v>
@@ -8376,10 +10439,10 @@
         <v>41</v>
       </c>
       <c r="K121" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L121" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M121" t="s" s="10">
         <v>41</v>
@@ -8398,6 +10461,24 @@
       </c>
       <c r="R121" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y121" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="Z121" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA121" s="10">
+        <f>(z121 * y121)</f>
+      </c>
+      <c r="AB121" s="10">
+        <f>(77700/30*y121)</f>
+      </c>
+      <c r="AC121" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD121" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="122">
@@ -8408,22 +10489,22 @@
         <v>317.0</v>
       </c>
       <c r="C122" t="s" s="10">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D122" t="s" s="10">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E122" t="s" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F122" t="s" s="10">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G122" s="10">
         <f>concatenate(c122,d122,e122,f122)</f>
       </c>
       <c r="H122" t="s" s="10">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="I122" t="n" s="10">
         <v>2.4041022519E10</v>
@@ -8454,6 +10535,24 @@
       </c>
       <c r="R122" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y122" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z122" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA122" s="10">
+        <f>(z122 * y122)</f>
+      </c>
+      <c r="AB122" s="10">
+        <f>(77700/30*y122)</f>
+      </c>
+      <c r="AC122" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD122" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="123">
@@ -8464,22 +10563,22 @@
         <v>330.0</v>
       </c>
       <c r="C123" t="s" s="10">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D123" t="s" s="10">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E123" t="s" s="10">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F123" t="s" s="10">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G123" s="10">
         <f>concatenate(c123,d123,e123,f123)</f>
       </c>
       <c r="H123" t="s" s="10">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I123" t="n" s="10">
         <v>2.4040874692E10</v>
@@ -8488,10 +10587,10 @@
         <v>41</v>
       </c>
       <c r="K123" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L123" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M123" t="s" s="10">
         <v>41</v>
@@ -8510,6 +10609,24 @@
       </c>
       <c r="R123" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y123" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="Z123" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA123" s="10">
+        <f>(z123 * y123)</f>
+      </c>
+      <c r="AB123" s="10">
+        <f>(77700/30*y123)</f>
+      </c>
+      <c r="AC123" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD123" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="124">
@@ -8520,22 +10637,22 @@
         <v>459.0</v>
       </c>
       <c r="C124" t="s" s="10">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D124" t="s" s="10">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E124" t="s" s="10">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F124" t="s" s="10">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G124" s="10">
         <f>concatenate(c124,d124,e124,f124)</f>
       </c>
       <c r="H124" t="s" s="10">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="I124" t="n" s="10">
         <v>2.4040875385E10</v>
@@ -8547,7 +10664,7 @@
         <v>41</v>
       </c>
       <c r="L124" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M124" t="s" s="10">
         <v>41</v>
@@ -8566,6 +10683,24 @@
       </c>
       <c r="R124" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y124" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="Z124" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA124" s="10">
+        <f>(z124 * y124)</f>
+      </c>
+      <c r="AB124" s="10">
+        <f>(77700/30*y124)</f>
+      </c>
+      <c r="AC124" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD124" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="125">
@@ -8576,22 +10711,22 @@
         <v>592.0</v>
       </c>
       <c r="C125" t="s" s="10">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D125" t="s" s="10">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E125" t="s" s="10">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F125" t="s" s="10">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G125" s="10">
         <f>concatenate(c125,d125,e125,f125)</f>
       </c>
       <c r="H125" t="s" s="10">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="I125" t="n" s="10">
         <v>2.4041862267E10</v>
@@ -8622,6 +10757,24 @@
       </c>
       <c r="R125" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y125" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z125" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA125" s="10">
+        <f>(z125 * y125)</f>
+      </c>
+      <c r="AB125" s="10">
+        <f>(77700/30*y125)</f>
+      </c>
+      <c r="AC125" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD125" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="126">
@@ -8632,22 +10785,22 @@
         <v>602.0</v>
       </c>
       <c r="C126" t="s" s="10">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D126" t="s" s="10">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E126" t="s" s="10">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F126" t="s" s="10">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G126" s="10">
         <f>concatenate(c126,d126,e126,f126)</f>
       </c>
       <c r="H126" t="s" s="10">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="I126" t="n" s="10">
         <v>2.4041418437E10</v>
@@ -8678,6 +10831,24 @@
       </c>
       <c r="R126" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y126" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z126" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA126" s="10">
+        <f>(z126 * y126)</f>
+      </c>
+      <c r="AB126" s="10">
+        <f>(77700/30*y126)</f>
+      </c>
+      <c r="AC126" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD126" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="127">
@@ -8688,22 +10859,22 @@
         <v>605.0</v>
       </c>
       <c r="C127" t="s" s="10">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D127" t="s" s="10">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E127" t="s" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F127" t="s" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G127" s="10">
         <f>concatenate(c127,d127,e127,f127)</f>
       </c>
       <c r="H127" t="s" s="10">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I127" t="n" s="10">
         <v>2.4043531716E10</v>
@@ -8734,6 +10905,24 @@
       </c>
       <c r="R127" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y127" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z127" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA127" s="10">
+        <f>(z127 * y127)</f>
+      </c>
+      <c r="AB127" s="10">
+        <f>(77700/30*y127)</f>
+      </c>
+      <c r="AC127" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD127" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="128">
@@ -8744,22 +10933,22 @@
         <v>740.0</v>
       </c>
       <c r="C128" t="s" s="10">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D128" t="s" s="10">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E128" t="s" s="10">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F128" t="s" s="10">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G128" s="10">
         <f>concatenate(c128,d128,e128,f128)</f>
       </c>
       <c r="H128" t="s" s="10">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="I128" t="n" s="10">
         <v>2.4046415813E10</v>
@@ -8790,6 +10979,24 @@
       </c>
       <c r="R128" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y128" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z128" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA128" s="10">
+        <f>(z128 * y128)</f>
+      </c>
+      <c r="AB128" s="10">
+        <f>(77700/30*y128)</f>
+      </c>
+      <c r="AC128" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD128" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="129">
@@ -8800,22 +11007,22 @@
         <v>755.0</v>
       </c>
       <c r="C129" t="s" s="10">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D129" t="s" s="10">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E129" t="s" s="10">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F129" t="s" s="10">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G129" s="10">
         <f>concatenate(c129,d129,e129,f129)</f>
       </c>
       <c r="H129" t="s" s="10">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="I129" t="n" s="10">
         <v>2.4046845243E10</v>
@@ -8846,6 +11053,24 @@
       </c>
       <c r="R129" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y129" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z129" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA129" s="10">
+        <f>(z129 * y129)</f>
+      </c>
+      <c r="AB129" s="10">
+        <f>(77700/30*y129)</f>
+      </c>
+      <c r="AC129" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD129" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="130">
@@ -8856,22 +11081,22 @@
         <v>-7.0</v>
       </c>
       <c r="C130" t="s" s="7">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D130" t="s" s="7">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E130" t="s" s="7">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F130" t="s" s="7">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G130" s="7">
         <f>concatenate(c130,d130,e130,f130)</f>
       </c>
       <c r="H130" t="s" s="7">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="I130" t="n" s="10">
         <v>2.4040877235E10</v>
@@ -8902,6 +11127,24 @@
       </c>
       <c r="R130" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y130" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z130" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA130" s="10">
+        <f>(z130 * y130)</f>
+      </c>
+      <c r="AB130" s="10">
+        <f>(77700/30*y130)</f>
+      </c>
+      <c r="AC130" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD130" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="131">
@@ -8912,22 +11155,22 @@
         <v>32.0</v>
       </c>
       <c r="C131" t="s" s="10">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D131" t="s" s="10">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E131" t="s" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F131" t="s" s="10">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G131" s="10">
         <f>concatenate(c131,d131,e131,f131)</f>
       </c>
       <c r="H131" t="s" s="10">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="I131" t="n" s="10">
         <v>2.4041266845E10</v>
@@ -8939,7 +11182,7 @@
         <v>41</v>
       </c>
       <c r="L131" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M131" t="s" s="10">
         <v>41</v>
@@ -8958,6 +11201,24 @@
       </c>
       <c r="R131" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y131" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="Z131" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA131" s="10">
+        <f>(z131 * y131)</f>
+      </c>
+      <c r="AB131" s="10">
+        <f>(77700/30*y131)</f>
+      </c>
+      <c r="AC131" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD131" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="132">
@@ -8968,22 +11229,22 @@
         <v>48.0</v>
       </c>
       <c r="C132" t="s" s="10">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D132" t="s" s="10">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E132" t="s" s="10">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F132" t="s" s="10">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G132" s="10">
         <f>concatenate(c132,d132,e132,f132)</f>
       </c>
       <c r="H132" t="s" s="10">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="I132" t="n" s="10">
         <v>2.4040879161E10</v>
@@ -9014,6 +11275,24 @@
       </c>
       <c r="R132" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y132" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z132" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA132" s="10">
+        <f>(z132 * y132)</f>
+      </c>
+      <c r="AB132" s="10">
+        <f>(77700/30*y132)</f>
+      </c>
+      <c r="AC132" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD132" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="133">
@@ -9024,22 +11303,22 @@
         <v>51.0</v>
       </c>
       <c r="C133" t="s" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D133" t="s" s="10">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E133" t="s" s="10">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F133" t="s" s="10">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G133" s="10">
         <f>concatenate(c133,d133,e133,f133)</f>
       </c>
       <c r="H133" t="s" s="10">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="I133" t="n" s="10">
         <v>2.4040993795E10</v>
@@ -9070,6 +11349,24 @@
       </c>
       <c r="R133" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y133" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z133" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA133" s="10">
+        <f>(z133 * y133)</f>
+      </c>
+      <c r="AB133" s="10">
+        <f>(77700/30*y133)</f>
+      </c>
+      <c r="AC133" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD133" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="134">
@@ -9080,22 +11377,22 @@
         <v>73.0</v>
       </c>
       <c r="C134" t="s" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D134" t="s" s="10">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E134" t="s" s="10">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F134" t="s" s="10">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G134" s="10">
         <f>concatenate(c134,d134,e134,f134)</f>
       </c>
       <c r="H134" t="s" s="10">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="I134" t="n" s="10">
         <v>2.4040874539E10</v>
@@ -9104,10 +11401,10 @@
         <v>41</v>
       </c>
       <c r="K134" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L134" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M134" t="s" s="10">
         <v>41</v>
@@ -9126,6 +11423,24 @@
       </c>
       <c r="R134" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y134" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="Z134" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA134" s="10">
+        <f>(z134 * y134)</f>
+      </c>
+      <c r="AB134" s="10">
+        <f>(77700/30*y134)</f>
+      </c>
+      <c r="AC134" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD134" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="135">
@@ -9136,22 +11451,22 @@
         <v>218.0</v>
       </c>
       <c r="C135" t="s" s="10">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D135" t="s" s="10">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E135" t="s" s="10">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F135" t="s" s="10">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G135" s="10">
         <f>concatenate(c135,d135,e135,f135)</f>
       </c>
       <c r="H135" t="s" s="10">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="I135" t="n" s="10">
         <v>2.4040933832E10</v>
@@ -9160,7 +11475,7 @@
         <v>41</v>
       </c>
       <c r="K135" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L135" t="s" s="10">
         <v>41</v>
@@ -9182,6 +11497,24 @@
       </c>
       <c r="R135" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y135" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="Z135" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA135" s="10">
+        <f>(z135 * y135)</f>
+      </c>
+      <c r="AB135" s="10">
+        <f>(77700/30*y135)</f>
+      </c>
+      <c r="AC135" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD135" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="136">
@@ -9192,22 +11525,22 @@
         <v>231.0</v>
       </c>
       <c r="C136" t="s" s="10">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D136" t="s" s="10">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E136" t="s" s="10">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F136" t="s" s="10">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G136" s="10">
         <f>concatenate(c136,d136,e136,f136)</f>
       </c>
       <c r="H136" t="s" s="10">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="I136" t="n" s="10">
         <v>2.4041021958E10</v>
@@ -9216,7 +11549,7 @@
         <v>41</v>
       </c>
       <c r="K136" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L136" t="s" s="10">
         <v>41</v>
@@ -9238,6 +11571,24 @@
       </c>
       <c r="R136" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y136" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="Z136" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA136" s="10">
+        <f>(z136 * y136)</f>
+      </c>
+      <c r="AB136" s="10">
+        <f>(77700/30*y136)</f>
+      </c>
+      <c r="AC136" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD136" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="137">
@@ -9248,22 +11599,22 @@
         <v>288.0</v>
       </c>
       <c r="C137" t="s" s="10">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D137" t="s" s="10">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E137" t="s" s="10">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F137" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G137" s="10">
         <f>concatenate(c137,d137,e137,f137)</f>
       </c>
       <c r="H137" t="s" s="10">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="I137" t="n" s="10">
         <v>2.4041265208E10</v>
@@ -9294,6 +11645,24 @@
       </c>
       <c r="R137" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y137" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z137" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA137" s="10">
+        <f>(z137 * y137)</f>
+      </c>
+      <c r="AB137" s="10">
+        <f>(77700/30*y137)</f>
+      </c>
+      <c r="AC137" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD137" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="138">
@@ -9304,22 +11673,22 @@
         <v>293.0</v>
       </c>
       <c r="C138" t="s" s="10">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D138" t="s" s="10">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E138" t="s" s="10">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F138" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G138" s="10">
         <f>concatenate(c138,d138,e138,f138)</f>
       </c>
       <c r="H138" t="s" s="10">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="I138" t="n" s="10">
         <v>2.404102418E10</v>
@@ -9350,6 +11719,24 @@
       </c>
       <c r="R138" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y138" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z138" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA138" s="10">
+        <f>(z138 * y138)</f>
+      </c>
+      <c r="AB138" s="10">
+        <f>(77700/30*y138)</f>
+      </c>
+      <c r="AC138" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD138" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="139">
@@ -9360,22 +11747,22 @@
         <v>423.0</v>
       </c>
       <c r="C139" t="s" s="10">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D139" t="s" s="10">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E139" t="s" s="10">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F139" t="s" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G139" s="10">
         <f>concatenate(c139,d139,e139,f139)</f>
       </c>
       <c r="H139" t="s" s="10">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I139" t="n" s="10">
         <v>2.4040874166E10</v>
@@ -9406,6 +11793,24 @@
       </c>
       <c r="R139" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y139" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z139" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA139" s="10">
+        <f>(z139 * y139)</f>
+      </c>
+      <c r="AB139" s="10">
+        <f>(77700/30*y139)</f>
+      </c>
+      <c r="AC139" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD139" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="140">
@@ -9416,22 +11821,22 @@
         <v>514.0</v>
       </c>
       <c r="C140" t="s" s="10">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D140" t="s" s="10">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E140" t="s" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F140" t="s" s="10">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G140" s="10">
         <f>concatenate(c140,d140,e140,f140)</f>
       </c>
       <c r="H140" t="s" s="10">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I140" t="n" s="10">
         <v>2.4041863974E10</v>
@@ -9462,6 +11867,24 @@
       </c>
       <c r="R140" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y140" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z140" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA140" s="10">
+        <f>(z140 * y140)</f>
+      </c>
+      <c r="AB140" s="10">
+        <f>(77700/30*y140)</f>
+      </c>
+      <c r="AC140" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD140" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="141">
@@ -9472,22 +11895,22 @@
         <v>516.0</v>
       </c>
       <c r="C141" t="s" s="10">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D141" t="s" s="10">
+        <v>458</v>
+      </c>
+      <c r="E141" t="s" s="10">
         <v>456</v>
       </c>
-      <c r="E141" t="s" s="10">
-        <v>454</v>
-      </c>
       <c r="F141" t="s" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G141" s="10">
         <f>concatenate(c141,d141,e141,f141)</f>
       </c>
       <c r="H141" t="s" s="10">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="I141" t="n" s="10">
         <v>2.4041860177E10</v>
@@ -9518,6 +11941,24 @@
       </c>
       <c r="R141" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y141" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z141" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA141" s="10">
+        <f>(z141 * y141)</f>
+      </c>
+      <c r="AB141" s="10">
+        <f>(77700/30*y141)</f>
+      </c>
+      <c r="AC141" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD141" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="142">
@@ -9528,22 +11969,22 @@
         <v>574.0</v>
       </c>
       <c r="C142" t="s" s="10">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D142" t="s" s="10">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E142" t="s" s="10">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F142" t="s" s="10">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G142" s="10">
         <f>concatenate(c142,d142,e142,f142)</f>
       </c>
       <c r="H142" t="s" s="10">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="I142" t="n" s="10">
         <v>2.4042906665E10</v>
@@ -9574,6 +12015,24 @@
       </c>
       <c r="R142" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y142" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z142" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA142" s="10">
+        <f>(z142 * y142)</f>
+      </c>
+      <c r="AB142" s="10">
+        <f>(77700/30*y142)</f>
+      </c>
+      <c r="AC142" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD142" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="143">
@@ -9584,22 +12043,22 @@
         <v>598.0</v>
       </c>
       <c r="C143" t="s" s="10">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D143" t="s" s="10">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E143" t="s" s="10">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F143" t="s" s="10">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G143" s="10">
         <f>concatenate(c143,d143,e143,f143)</f>
       </c>
       <c r="H143" t="s" s="10">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I143" t="n" s="10">
         <v>2.4043159664E10</v>
@@ -9630,6 +12089,24 @@
       </c>
       <c r="R143" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y143" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z143" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA143" s="10">
+        <f>(z143 * y143)</f>
+      </c>
+      <c r="AB143" s="10">
+        <f>(77700/30*y143)</f>
+      </c>
+      <c r="AC143" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD143" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="144">
@@ -9640,22 +12117,22 @@
         <v>626.0</v>
       </c>
       <c r="C144" t="s" s="10">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D144" t="s" s="10">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E144" t="s" s="10">
         <v>38</v>
       </c>
       <c r="F144" t="s" s="10">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G144" s="10">
         <f>concatenate(c144,d144,e144,f144)</f>
       </c>
       <c r="H144" t="s" s="10">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="I144" t="n" s="10">
         <v>2.4044488567E10</v>
@@ -9686,6 +12163,24 @@
       </c>
       <c r="R144" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y144" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z144" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA144" s="10">
+        <f>(z144 * y144)</f>
+      </c>
+      <c r="AB144" s="10">
+        <f>(77700/30*y144)</f>
+      </c>
+      <c r="AC144" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD144" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="145">
@@ -9696,22 +12191,22 @@
         <v>791.0</v>
       </c>
       <c r="C145" t="s" s="10">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D145" t="s" s="10">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E145" t="s" s="10">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F145" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G145" s="10">
         <f>concatenate(c145,d145,e145,f145)</f>
       </c>
       <c r="H145" t="s" s="10">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="I145" t="n" s="10">
         <v>2.4051011338E10</v>
@@ -9742,6 +12237,24 @@
       </c>
       <c r="R145" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y145" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z145" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA145" s="10">
+        <f>(z145 * y145)</f>
+      </c>
+      <c r="AB145" s="10">
+        <f>(77700/30*y145)</f>
+      </c>
+      <c r="AC145" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD145" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="146">
@@ -9752,13 +12265,13 @@
         <v>920.0</v>
       </c>
       <c r="C146" t="s" s="10">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D146" t="s" s="10">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E146" t="s" s="10">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F146" t="s" s="10">
         <v>39</v>
@@ -9767,7 +12280,7 @@
         <f>concatenate(c146,d146,e146,f146)</f>
       </c>
       <c r="H146" t="s" s="10">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="I146" t="n" s="10">
         <v>2.4054525881E10</v>
@@ -9798,6 +12311,24 @@
       </c>
       <c r="R146" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y146" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z146" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA146" s="10">
+        <f>(z146 * y146)</f>
+      </c>
+      <c r="AB146" s="10">
+        <f>(77700/30*y146)</f>
+      </c>
+      <c r="AC146" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD146" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="147">
@@ -9808,22 +12339,22 @@
         <v>945.0</v>
       </c>
       <c r="C147" t="s" s="10">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D147" t="s" s="10">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E147" t="s" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F147" t="s" s="10">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G147" s="10">
         <f>concatenate(c147,d147,e147,f147)</f>
       </c>
       <c r="H147" t="s" s="10">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="I147" t="n" s="10">
         <v>2.4054861208E10</v>
@@ -9854,6 +12385,24 @@
       </c>
       <c r="R147" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y147" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z147" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA147" s="10">
+        <f>(z147 * y147)</f>
+      </c>
+      <c r="AB147" s="10">
+        <f>(77700/30*y147)</f>
+      </c>
+      <c r="AC147" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD147" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="148">
@@ -9864,22 +12413,22 @@
         <v>970.0</v>
       </c>
       <c r="C148" t="s" s="10">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D148" t="s" s="10">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E148" t="s" s="10">
         <v>38</v>
       </c>
       <c r="F148" t="s" s="10">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G148" s="10">
         <f>concatenate(c148,d148,e148,f148)</f>
       </c>
       <c r="H148" t="s" s="10">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="I148" t="n" s="10">
         <v>2.4046162962E10</v>
@@ -9910,6 +12459,24 @@
       </c>
       <c r="R148" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y148" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z148" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA148" s="10">
+        <f>(z148 * y148)</f>
+      </c>
+      <c r="AB148" s="10">
+        <f>(77700/30*y148)</f>
+      </c>
+      <c r="AC148" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD148" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="149">
@@ -9920,22 +12487,22 @@
         <v>1009.0</v>
       </c>
       <c r="C149" t="s" s="10">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D149" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E149" t="s" s="10">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F149" t="s" s="10">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G149" s="10">
         <f>concatenate(c149,d149,e149,f149)</f>
       </c>
       <c r="H149" t="s" s="10">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="I149" t="n" s="10">
         <v>2.4055737795E10</v>
@@ -9966,6 +12533,24 @@
       </c>
       <c r="R149" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y149" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z149" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA149" s="10">
+        <f>(z149 * y149)</f>
+      </c>
+      <c r="AB149" s="10">
+        <f>(77700/30*y149)</f>
+      </c>
+      <c r="AC149" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD149" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="150">
@@ -9976,22 +12561,22 @@
         <v>1065.0</v>
       </c>
       <c r="C150" t="s" s="10">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D150" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E150" t="s" s="10">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F150" t="s" s="10">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G150" s="10">
         <f>concatenate(c150,d150,e150,f150)</f>
       </c>
       <c r="H150" t="s" s="10">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="I150" t="n" s="10">
         <v>2.4041265253E10</v>
@@ -10022,6 +12607,24 @@
       </c>
       <c r="R150" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y150" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z150" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA150" s="10">
+        <f>(z150 * y150)</f>
+      </c>
+      <c r="AB150" s="10">
+        <f>(77700/30*y150)</f>
+      </c>
+      <c r="AC150" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD150" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="151">
@@ -10032,22 +12635,22 @@
         <v>1103.0</v>
       </c>
       <c r="C151" t="s" s="10">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D151" t="s" s="10">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E151" t="s" s="10">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F151" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G151" s="10">
         <f>concatenate(c151,d151,e151,f151)</f>
       </c>
       <c r="H151" t="s" s="10">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="I151" t="n" s="10">
         <v>2.4044829416E10</v>
@@ -10078,6 +12681,24 @@
       </c>
       <c r="R151" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y151" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z151" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA151" s="10">
+        <f>(z151 * y151)</f>
+      </c>
+      <c r="AB151" s="10">
+        <f>(77700/30*y151)</f>
+      </c>
+      <c r="AC151" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD151" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="152">
@@ -10088,22 +12709,22 @@
         <v>1114.0</v>
       </c>
       <c r="C152" t="s" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D152" t="s" s="10">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E152" t="s" s="10">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F152" t="s" s="10">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G152" s="10">
         <f>concatenate(c152,d152,e152,f152)</f>
       </c>
       <c r="H152" t="s" s="10">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="I152" t="n" s="10">
         <v>2.4059089816E10</v>
@@ -10134,6 +12755,24 @@
       </c>
       <c r="R152" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y152" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z152" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA152" s="10">
+        <f>(z152 * y152)</f>
+      </c>
+      <c r="AB152" s="10">
+        <f>(77700/30*y152)</f>
+      </c>
+      <c r="AC152" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD152" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="153">
@@ -10144,22 +12783,22 @@
         <v>1115.0</v>
       </c>
       <c r="C153" t="s" s="10">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D153" t="s" s="10">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E153" t="s" s="10">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F153" t="s" s="10">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="G153" s="10">
         <f>concatenate(c153,d153,e153,f153)</f>
       </c>
       <c r="H153" t="s" s="10">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I153" t="n" s="10">
         <v>2.4059055899E10</v>
@@ -10190,6 +12829,24 @@
       </c>
       <c r="R153" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y153" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z153" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA153" s="10">
+        <f>(z153 * y153)</f>
+      </c>
+      <c r="AB153" s="10">
+        <f>(77700/30*y153)</f>
+      </c>
+      <c r="AC153" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD153" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="154">
@@ -10200,13 +12857,13 @@
         <v>1117.0</v>
       </c>
       <c r="C154" t="s" s="10">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D154" t="s" s="10">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E154" t="s" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F154" t="s" s="10">
         <v>39</v>
@@ -10215,7 +12872,7 @@
         <f>concatenate(c154,d154,e154,f154)</f>
       </c>
       <c r="H154" t="s" s="10">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="I154" t="n" s="10">
         <v>2.4059238478E10</v>
@@ -10246,6 +12903,24 @@
       </c>
       <c r="R154" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y154" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z154" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA154" s="10">
+        <f>(z154 * y154)</f>
+      </c>
+      <c r="AB154" s="10">
+        <f>(77700/30*y154)</f>
+      </c>
+      <c r="AC154" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD154" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="155">
@@ -10256,22 +12931,22 @@
         <v>1118.0</v>
       </c>
       <c r="C155" t="s" s="10">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D155" t="s" s="10">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E155" t="s" s="10">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F155" t="s" s="10">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G155" s="10">
         <f>concatenate(c155,d155,e155,f155)</f>
       </c>
       <c r="H155" t="s" s="10">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="I155" t="n" s="10">
         <v>2.4054858163E10</v>
@@ -10302,6 +12977,24 @@
       </c>
       <c r="R155" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y155" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z155" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA155" s="10">
+        <f>(z155 * y155)</f>
+      </c>
+      <c r="AB155" s="10">
+        <f>(77700/30*y155)</f>
+      </c>
+      <c r="AC155" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD155" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="156">
@@ -10312,22 +13005,22 @@
         <v>1120.0</v>
       </c>
       <c r="C156" t="s" s="10">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D156" t="s" s="10">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E156" t="s" s="10">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F156" t="s" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G156" s="10">
         <f>concatenate(c156,d156,e156,f156)</f>
       </c>
       <c r="H156" t="s" s="10">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="I156" t="n" s="10">
         <v>2.4053690977E10</v>
@@ -10358,6 +13051,24 @@
       </c>
       <c r="R156" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y156" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z156" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA156" s="10">
+        <f>(z156 * y156)</f>
+      </c>
+      <c r="AB156" s="10">
+        <f>(77700/30*y156)</f>
+      </c>
+      <c r="AC156" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD156" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="157">
@@ -10368,22 +13079,22 @@
         <v>1121.0</v>
       </c>
       <c r="C157" t="s" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D157" t="s" s="10">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E157" t="s" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F157" t="s" s="10">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G157" s="10">
         <f>concatenate(c157,d157,e157,f157)</f>
       </c>
       <c r="H157" t="s" s="10">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I157" t="n" s="10">
         <v>2.4040876542E10</v>
@@ -10414,6 +13125,24 @@
       </c>
       <c r="R157" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y157" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z157" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA157" s="10">
+        <f>(z157 * y157)</f>
+      </c>
+      <c r="AB157" s="10">
+        <f>(77700/30*y157)</f>
+      </c>
+      <c r="AC157" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD157" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="158">
@@ -10424,22 +13153,22 @@
         <v>1122.0</v>
       </c>
       <c r="C158" t="s" s="10">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D158" t="s" s="10">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E158" t="s" s="10">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F158" t="s" s="10">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="G158" s="10">
         <f>concatenate(c158,d158,e158,f158)</f>
       </c>
       <c r="H158" t="s" s="10">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="I158" t="n" s="10">
         <v>2.4041266908E10</v>
@@ -10470,6 +13199,24 @@
       </c>
       <c r="R158" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y158" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z158" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA158" s="10">
+        <f>(z158 * y158)</f>
+      </c>
+      <c r="AB158" s="10">
+        <f>(77700/30*y158)</f>
+      </c>
+      <c r="AC158" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD158" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="159">
@@ -10480,22 +13227,22 @@
         <v>1123.0</v>
       </c>
       <c r="C159" t="s" s="10">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D159" t="s" s="10">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E159" t="s" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F159" t="s" s="10">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G159" s="10">
         <f>concatenate(c159,d159,e159,f159)</f>
       </c>
       <c r="H159" t="s" s="10">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="I159" t="n" s="10">
         <v>2.4059506171E10</v>
@@ -10504,7 +13251,7 @@
         <v>41</v>
       </c>
       <c r="K159" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L159" t="s" s="10">
         <v>41</v>
@@ -10526,6 +13273,24 @@
       </c>
       <c r="R159" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y159" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="Z159" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA159" s="10">
+        <f>(z159 * y159)</f>
+      </c>
+      <c r="AB159" s="10">
+        <f>(77700/30*y159)</f>
+      </c>
+      <c r="AC159" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD159" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="160">
@@ -10536,22 +13301,22 @@
         <v>1124.0</v>
       </c>
       <c r="C160" t="s" s="10">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D160" t="s" s="10">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E160" t="s" s="10">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F160" t="s" s="10">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G160" s="10">
         <f>concatenate(c160,d160,e160,f160)</f>
       </c>
       <c r="H160" t="s" s="10">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="I160" t="n" s="10">
         <v>2.4042062192E10</v>
@@ -10560,7 +13325,7 @@
         <v>41</v>
       </c>
       <c r="K160" t="s" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L160" t="s" s="10">
         <v>41</v>
@@ -10582,6 +13347,24 @@
       </c>
       <c r="R160" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y160" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="Z160" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA160" s="10">
+        <f>(z160 * y160)</f>
+      </c>
+      <c r="AB160" s="10">
+        <f>(77700/30*y160)</f>
+      </c>
+      <c r="AC160" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD160" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="161">
@@ -10592,22 +13375,22 @@
         <v>1127.0</v>
       </c>
       <c r="C161" t="s" s="10">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D161" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E161" t="s" s="10">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F161" t="s" s="10">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="G161" s="10">
         <f>concatenate(c161,d161,e161,f161)</f>
       </c>
       <c r="H161" t="s" s="10">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="I161" t="n" s="10">
         <v>2.4060369644E10</v>
@@ -10638,6 +13421,24 @@
       </c>
       <c r="R161" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y161" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z161" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA161" s="10">
+        <f>(z161 * y161)</f>
+      </c>
+      <c r="AB161" s="10">
+        <f>(77700/30*y161)</f>
+      </c>
+      <c r="AC161" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD161" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="162">
@@ -10648,22 +13449,22 @@
         <v>1133.0</v>
       </c>
       <c r="C162" t="s" s="10">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D162" t="s" s="10">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E162" t="s" s="10">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F162" t="s" s="10">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="G162" s="10">
         <f>concatenate(c162,d162,e162,f162)</f>
       </c>
       <c r="H162" t="s" s="10">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="I162" t="n" s="10">
         <v>2.4060368913E10</v>
@@ -10694,6 +13495,24 @@
       </c>
       <c r="R162" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y162" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z162" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA162" s="10">
+        <f>(z162 * y162)</f>
+      </c>
+      <c r="AB162" s="10">
+        <f>(77700/30*y162)</f>
+      </c>
+      <c r="AC162" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD162" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="163">
@@ -10704,22 +13523,22 @@
         <v>1136.0</v>
       </c>
       <c r="C163" t="s" s="10">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D163" t="s" s="10">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E163" t="s" s="10">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F163" t="s" s="10">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G163" s="10">
         <f>concatenate(c163,d163,e163,f163)</f>
       </c>
       <c r="H163" t="s" s="10">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="I163" t="n" s="10">
         <v>2.4061141724E10</v>
@@ -10750,6 +13569,24 @@
       </c>
       <c r="R163" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y163" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z163" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA163" s="10">
+        <f>(z163 * y163)</f>
+      </c>
+      <c r="AB163" s="10">
+        <f>(77700/30*y163)</f>
+      </c>
+      <c r="AC163" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD163" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
     <row r="164">
@@ -10760,22 +13597,22 @@
         <v>1137.0</v>
       </c>
       <c r="C164" t="s" s="10">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D164" t="s" s="10">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E164" t="s" s="10">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="F164" t="s" s="10">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G164" s="10">
         <f>concatenate(c164,d164,e164,f164)</f>
       </c>
       <c r="H164" t="s" s="10">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="I164" t="n" s="10">
         <v>0.0</v>
@@ -10806,6 +13643,24 @@
       </c>
       <c r="R164" t="s" s="10">
         <v>41</v>
+      </c>
+      <c r="Y164" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="Z164" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA164" s="10">
+        <f>(z164 * y164)</f>
+      </c>
+      <c r="AB164" s="10">
+        <f>(77700/30*y164)</f>
+      </c>
+      <c r="AC164" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="AD164" s="10">
+        <f>(689455.0*0.08)/30*15</f>
       </c>
     </row>
   </sheetData>

--- a/personal/quincena.xlsx
+++ b/personal/quincena.xlsx
@@ -2005,42 +2005,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="4.95703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="8.72265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.5546875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="15.6953125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.984375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="14.52734375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="12.7265625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="17.9296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="2.78515625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="3.390625" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="2.5078125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="3.01171875" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="3.01171875" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="2.5078125" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="2.60546875" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="2.5078125" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="2.70703125" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="3.68359375" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="3.68359375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="3.68359375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="3.68359375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="3.68359375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="3.68359375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="5.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="11.1875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="10.1640625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="13.77734375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="16.17578125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="4.5078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="17.625" customWidth="true" bestFit="true"/>
-    <col min="32" max="32" width="14.0703125" customWidth="true" bestFit="true"/>
-    <col min="33" max="33" width="4.5078125" customWidth="true" bestFit="true"/>
-    <col min="34" max="34" width="16.54296875" customWidth="true" bestFit="true"/>
-    <col min="35" max="35" width="22.49609375" customWidth="true" bestFit="true"/>
-    <col min="36" max="36" width="25.125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="4.78125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.5" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="15.79296875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.8359375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.89453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.0078125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.51171875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="2.609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="3.37890625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="2.37890625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="2.9765625" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="2.9765625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="2.45703125" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="2.37890625" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="2.34765625" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="2.44140625" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="3.56640625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="3.56640625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="3.56640625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="3.56640625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="3.56640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="3.56640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="5.37890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="10.41796875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="9.00390625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="12.26953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="3.71875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="15.7890625" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="12.72265625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="3.71875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="14.203125" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" width="19.77734375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">

--- a/personal/quincena.xlsx
+++ b/personal/quincena.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="periodo 2016-09-16 a 2016-09-30" r:id="rId3" sheetId="1"/>
-    <sheet name="2016-09-22" r:id="rId4" sheetId="2"/>
+    <sheet name="2016-09-23" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2476" uniqueCount="563">
   <si>
     <t>Convecciones</t>
   </si>
@@ -2005,42 +2005,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="4.78125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.93359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.5" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="15.79296875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="12.8359375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="14.89453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.265625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.0078125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.51171875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="2.609375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="3.37890625" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="2.37890625" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="2.9765625" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="2.9765625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="2.45703125" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="2.37890625" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="2.34765625" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="2.44140625" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="3.56640625" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="3.56640625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="3.56640625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="3.56640625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="3.56640625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="3.56640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="5.37890625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="10.41796875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="9.00390625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="12.26953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="3.71875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="15.7890625" customWidth="true" bestFit="true"/>
-    <col min="32" max="32" width="12.72265625" customWidth="true" bestFit="true"/>
-    <col min="33" max="33" width="3.71875" customWidth="true" bestFit="true"/>
-    <col min="34" max="34" width="14.203125" customWidth="true" bestFit="true"/>
-    <col min="35" max="35" width="19.77734375" customWidth="true" bestFit="true"/>
-    <col min="36" max="36" width="24.91796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="4.95703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="8.72265625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.5546875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="15.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.984375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.52734375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="12.7265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="17.9296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="2.78515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="3.390625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="2.5078125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="3.01171875" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="3.01171875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="2.5078125" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="2.60546875" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="2.5078125" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="2.70703125" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="3.68359375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="3.68359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="3.68359375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="3.68359375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="3.68359375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="3.68359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="5.3984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="11.1875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="10.1640625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="13.77734375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="16.17578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="4.5078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="17.625" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="14.0703125" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="4.5078125" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="16.54296875" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" width="22.49609375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="25.125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -2291,8 +2291,11 @@
       <c r="P9" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q9" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y9" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z9" s="10">
         <f>(689455.0/30)</f>
@@ -2380,8 +2383,11 @@
       <c r="P10" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q10" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y10" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z10" s="10">
         <f>(689455.0/30)</f>
@@ -2469,8 +2475,11 @@
       <c r="P11" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q11" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y11" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z11" s="10">
         <f>(689455.0/30)</f>
@@ -2558,8 +2567,11 @@
       <c r="P12" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q12" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y12" t="n" s="10">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="Z12" s="10">
         <f>(689455.0/30)</f>
@@ -2647,8 +2659,11 @@
       <c r="P13" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q13" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y13" t="n" s="10">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="Z13" s="10">
         <f>(689455.0/30)</f>
@@ -2736,8 +2751,11 @@
       <c r="P14" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q14" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y14" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z14" s="10">
         <f>(689455.0/30)</f>
@@ -2825,8 +2843,11 @@
       <c r="P15" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q15" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y15" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z15" s="10">
         <f>(689455.0/30)</f>
@@ -2914,8 +2935,11 @@
       <c r="P16" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q16" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y16" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z16" s="10">
         <f>(689455.0/30)</f>
@@ -3003,8 +3027,11 @@
       <c r="P17" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q17" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y17" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z17" s="10">
         <f>(689455.0/30)</f>
@@ -3092,8 +3119,11 @@
       <c r="P18" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q18" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y18" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z18" s="10">
         <f>(689455.0/30)</f>
@@ -3181,8 +3211,11 @@
       <c r="P19" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q19" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y19" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z19" s="10">
         <f>(689455.0/30)</f>
@@ -3270,8 +3303,11 @@
       <c r="P20" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q20" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y20" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z20" s="10">
         <f>(689455.0/30)</f>
@@ -3359,8 +3395,11 @@
       <c r="P21" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q21" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y21" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z21" s="10">
         <f>(689455.0/30)</f>
@@ -3448,8 +3487,11 @@
       <c r="P22" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q22" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y22" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z22" s="10">
         <f>(689455.0/30)</f>
@@ -3537,8 +3579,11 @@
       <c r="P23" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q23" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y23" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z23" s="10">
         <f>(689455.0/30)</f>
@@ -3626,8 +3671,11 @@
       <c r="P24" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q24" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y24" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z24" s="10">
         <f>(689455.0/30)</f>
@@ -3715,8 +3763,11 @@
       <c r="P25" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q25" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y25" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z25" s="10">
         <f>(689455.0/30)</f>
@@ -3804,8 +3855,11 @@
       <c r="P26" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q26" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y26" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z26" s="10">
         <f>(689455.0/30)</f>
@@ -3893,8 +3947,11 @@
       <c r="P27" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q27" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y27" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z27" s="10">
         <f>(689455.0/30)</f>
@@ -3982,8 +4039,11 @@
       <c r="P28" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q28" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y28" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z28" s="10">
         <f>(689455.0/30)</f>
@@ -4071,8 +4131,11 @@
       <c r="P29" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q29" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y29" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z29" s="10">
         <f>(689455.0/30)</f>
@@ -4160,8 +4223,11 @@
       <c r="P30" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q30" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y30" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z30" s="10">
         <f>(689455.0/30)</f>
@@ -4249,8 +4315,11 @@
       <c r="P31" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q31" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y31" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z31" s="10">
         <f>(689455.0/30)</f>
@@ -4338,8 +4407,11 @@
       <c r="P32" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q32" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y32" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z32" s="10">
         <f>(689455.0/30)</f>
@@ -4427,8 +4499,11 @@
       <c r="P33" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q33" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y33" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z33" s="10">
         <f>(689455.0/30)</f>
@@ -4516,8 +4591,11 @@
       <c r="P34" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q34" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y34" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z34" s="10">
         <f>(689455.0/30)</f>
@@ -4605,8 +4683,11 @@
       <c r="P35" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q35" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y35" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z35" s="10">
         <f>(689455.0/30)</f>
@@ -4694,8 +4775,11 @@
       <c r="P36" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q36" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y36" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z36" s="10">
         <f>(689455.0/30)</f>
@@ -4783,8 +4867,11 @@
       <c r="P37" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q37" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y37" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z37" s="10">
         <f>(689455.0/30)</f>
@@ -4872,8 +4959,11 @@
       <c r="P38" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q38" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y38" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z38" s="10">
         <f>(689455.0/30)</f>
@@ -4961,8 +5051,11 @@
       <c r="P39" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q39" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y39" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z39" s="10">
         <f>(689455.0/30)</f>
@@ -5050,8 +5143,11 @@
       <c r="P40" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q40" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y40" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z40" s="10">
         <f>(689455.0/30)</f>
@@ -5139,8 +5235,11 @@
       <c r="P41" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q41" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y41" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z41" s="10">
         <f>(689455.0/30)</f>
@@ -5228,8 +5327,11 @@
       <c r="P42" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q42" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y42" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z42" s="10">
         <f>(689455.0/30)</f>
@@ -5317,8 +5419,11 @@
       <c r="P43" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q43" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y43" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z43" s="10">
         <f>(689455.0/30)</f>
@@ -5406,8 +5511,11 @@
       <c r="P44" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q44" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y44" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z44" s="10">
         <f>(689455.0/30)</f>
@@ -5495,8 +5603,11 @@
       <c r="P45" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q45" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y45" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z45" s="10">
         <f>(689455.0/30)</f>
@@ -5584,8 +5695,11 @@
       <c r="P46" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q46" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y46" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z46" s="10">
         <f>(689455.0/30)</f>
@@ -5673,8 +5787,11 @@
       <c r="P47" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q47" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y47" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z47" s="10">
         <f>(689455.0/30)</f>
@@ -5762,8 +5879,11 @@
       <c r="P48" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q48" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y48" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z48" s="10">
         <f>(689455.0/30)</f>
@@ -5851,8 +5971,11 @@
       <c r="P49" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q49" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y49" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z49" s="10">
         <f>(689455.0/30)</f>
@@ -5940,8 +6063,11 @@
       <c r="P50" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q50" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y50" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z50" s="10">
         <f>(689455.0/30)</f>
@@ -6029,8 +6155,11 @@
       <c r="P51" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q51" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y51" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z51" s="10">
         <f>(689455.0/30)</f>
@@ -6118,8 +6247,11 @@
       <c r="P52" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q52" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y52" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z52" s="10">
         <f>(689455.0/30)</f>
@@ -6207,8 +6339,11 @@
       <c r="P53" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q53" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y53" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z53" s="10">
         <f>(689455.0/30)</f>
@@ -6296,8 +6431,11 @@
       <c r="P54" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q54" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y54" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z54" s="10">
         <f>(689455.0/30)</f>
@@ -6385,8 +6523,11 @@
       <c r="P55" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q55" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y55" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z55" s="10">
         <f>(689455.0/30)</f>
@@ -6474,8 +6615,11 @@
       <c r="P56" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q56" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y56" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z56" s="10">
         <f>(689455.0/30)</f>
@@ -6563,8 +6707,11 @@
       <c r="P57" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q57" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y57" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z57" s="10">
         <f>(689455.0/30)</f>
@@ -6652,8 +6799,11 @@
       <c r="P58" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q58" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y58" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z58" s="10">
         <f>(689455.0/30)</f>
@@ -6741,8 +6891,11 @@
       <c r="P59" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q59" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y59" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z59" s="10">
         <f>(689455.0/30)</f>
@@ -6830,8 +6983,11 @@
       <c r="P60" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q60" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y60" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z60" s="10">
         <f>(689455.0/30)</f>
@@ -6919,8 +7075,11 @@
       <c r="P61" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q61" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y61" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z61" s="10">
         <f>(689455.0/30)</f>
@@ -7008,8 +7167,11 @@
       <c r="P62" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q62" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y62" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z62" s="10">
         <f>(689455.0/30)</f>
@@ -7097,8 +7259,11 @@
       <c r="P63" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q63" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y63" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z63" s="10">
         <f>(689455.0/30)</f>
@@ -7186,8 +7351,11 @@
       <c r="P64" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q64" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y64" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z64" s="10">
         <f>(689455.0/30)</f>
@@ -7275,8 +7443,11 @@
       <c r="P65" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q65" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y65" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z65" s="10">
         <f>(689455.0/30)</f>
@@ -7364,8 +7535,11 @@
       <c r="P66" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q66" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y66" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z66" s="10">
         <f>(689455.0/30)</f>
@@ -7453,8 +7627,11 @@
       <c r="P67" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q67" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y67" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z67" s="10">
         <f>(689455.0/30)</f>
@@ -7542,8 +7719,11 @@
       <c r="P68" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q68" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y68" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z68" s="10">
         <f>(689455.0/30)</f>
@@ -7631,8 +7811,11 @@
       <c r="P69" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q69" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y69" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z69" s="10">
         <f>(689455.0/30)</f>
@@ -7720,8 +7903,11 @@
       <c r="P70" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q70" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y70" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z70" s="10">
         <f>(689455.0/30)</f>
@@ -7809,8 +7995,11 @@
       <c r="P71" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q71" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y71" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z71" s="10">
         <f>(689455.0/30)</f>
@@ -7898,8 +8087,11 @@
       <c r="P72" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q72" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y72" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z72" s="10">
         <f>(689455.0/30)</f>
@@ -7987,8 +8179,11 @@
       <c r="P73" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q73" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y73" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z73" s="10">
         <f>(689455.0/30)</f>
@@ -8076,8 +8271,11 @@
       <c r="P74" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q74" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y74" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z74" s="10">
         <f>(689455.0/30)</f>
@@ -8165,8 +8363,11 @@
       <c r="P75" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q75" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y75" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z75" s="10">
         <f>(689455.0/30)</f>
@@ -8254,8 +8455,11 @@
       <c r="P76" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q76" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y76" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z76" s="10">
         <f>(689455.0/30)</f>
@@ -8343,8 +8547,11 @@
       <c r="P77" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q77" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y77" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z77" s="10">
         <f>(689455.0/30)</f>
@@ -8432,8 +8639,11 @@
       <c r="P78" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q78" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y78" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z78" s="10">
         <f>(689455.0/30)</f>
@@ -8521,8 +8731,11 @@
       <c r="P79" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q79" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y79" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z79" s="10">
         <f>(689455.0/30)</f>
@@ -8610,8 +8823,11 @@
       <c r="P80" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q80" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y80" t="n" s="10">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Z80" s="10">
         <f>(689455.0/30)</f>
@@ -8699,8 +8915,11 @@
       <c r="P81" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q81" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y81" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z81" s="10">
         <f>(689455.0/30)</f>
@@ -8788,8 +9007,11 @@
       <c r="P82" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q82" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y82" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z82" s="10">
         <f>(689455.0/30)</f>
@@ -8877,8 +9099,11 @@
       <c r="P83" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q83" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y83" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z83" s="10">
         <f>(689455.0/30)</f>
@@ -8966,8 +9191,11 @@
       <c r="P84" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q84" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y84" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z84" s="10">
         <f>(689455.0/30)</f>
@@ -9055,8 +9283,11 @@
       <c r="P85" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q85" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y85" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z85" s="10">
         <f>(689455.0/30)</f>
@@ -9144,8 +9375,11 @@
       <c r="P86" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q86" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y86" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z86" s="10">
         <f>(689455.0/30)</f>
@@ -9233,8 +9467,11 @@
       <c r="P87" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q87" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y87" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z87" s="10">
         <f>(689455.0/30)</f>
@@ -9322,8 +9559,11 @@
       <c r="P88" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q88" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y88" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z88" s="10">
         <f>(689455.0/30)</f>
@@ -9411,8 +9651,11 @@
       <c r="P89" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q89" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y89" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z89" s="10">
         <f>(689455.0/30)</f>
@@ -9500,8 +9743,11 @@
       <c r="P90" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q90" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y90" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z90" s="10">
         <f>(689455.0/30)</f>
@@ -9589,8 +9835,11 @@
       <c r="P91" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q91" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y91" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z91" s="10">
         <f>(689455.0/30)</f>
@@ -9678,8 +9927,11 @@
       <c r="P92" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q92" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y92" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z92" s="10">
         <f>(689455.0/30)</f>
@@ -9767,8 +10019,11 @@
       <c r="P93" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q93" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y93" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z93" s="10">
         <f>(689455.0/30)</f>
@@ -9856,8 +10111,11 @@
       <c r="P94" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q94" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y94" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z94" s="10">
         <f>(689455.0/30)</f>
@@ -9945,8 +10203,11 @@
       <c r="P95" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q95" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y95" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z95" s="10">
         <f>(689455.0/30)</f>
@@ -10034,8 +10295,11 @@
       <c r="P96" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q96" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y96" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z96" s="10">
         <f>(689455.0/30)</f>
@@ -10123,8 +10387,11 @@
       <c r="P97" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q97" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y97" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z97" s="10">
         <f>(689455.0/30)</f>
@@ -10212,8 +10479,11 @@
       <c r="P98" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q98" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y98" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z98" s="10">
         <f>(689455.0/30)</f>
@@ -10301,8 +10571,11 @@
       <c r="P99" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q99" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y99" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z99" s="10">
         <f>(689455.0/30)</f>
@@ -10390,8 +10663,11 @@
       <c r="P100" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q100" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y100" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z100" s="10">
         <f>(689455.0/30)</f>
@@ -10479,8 +10755,11 @@
       <c r="P101" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q101" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y101" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z101" s="10">
         <f>(689455.0/30)</f>
@@ -10568,8 +10847,11 @@
       <c r="P102" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q102" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y102" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z102" s="10">
         <f>(689455.0/30)</f>
@@ -10657,8 +10939,11 @@
       <c r="P103" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q103" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y103" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z103" s="10">
         <f>(689455.0/30)</f>
@@ -10746,8 +11031,11 @@
       <c r="P104" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q104" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y104" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z104" s="10">
         <f>(689455.0/30)</f>
@@ -10835,8 +11123,11 @@
       <c r="P105" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q105" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y105" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z105" s="10">
         <f>(689455.0/30)</f>
@@ -10924,8 +11215,11 @@
       <c r="P106" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q106" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y106" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z106" s="10">
         <f>(689455.0/30)</f>
@@ -11013,8 +11307,11 @@
       <c r="P107" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q107" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y107" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z107" s="10">
         <f>(689455.0/30)</f>
@@ -11102,8 +11399,11 @@
       <c r="P108" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q108" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y108" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z108" s="10">
         <f>(689455.0/30)</f>
@@ -11191,8 +11491,11 @@
       <c r="P109" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q109" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y109" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z109" s="10">
         <f>(689455.0/30)</f>
@@ -11280,8 +11583,11 @@
       <c r="P110" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q110" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y110" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z110" s="10">
         <f>(689455.0/30)</f>
@@ -11369,8 +11675,11 @@
       <c r="P111" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q111" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y111" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z111" s="10">
         <f>(689455.0/30)</f>
@@ -11458,8 +11767,11 @@
       <c r="P112" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q112" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y112" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z112" s="10">
         <f>(689455.0/30)</f>
@@ -11547,8 +11859,11 @@
       <c r="P113" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q113" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y113" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z113" s="10">
         <f>(689455.0/30)</f>
@@ -11636,8 +11951,11 @@
       <c r="P114" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q114" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y114" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z114" s="10">
         <f>(689455.0/30)</f>
@@ -11725,8 +12043,11 @@
       <c r="P115" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q115" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y115" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z115" s="10">
         <f>(689455.0/30)</f>
@@ -11814,8 +12135,11 @@
       <c r="P116" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q116" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y116" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z116" s="10">
         <f>(689455.0/30)</f>
@@ -11903,8 +12227,11 @@
       <c r="P117" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q117" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y117" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z117" s="10">
         <f>(689455.0/30)</f>
@@ -11992,8 +12319,11 @@
       <c r="P118" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q118" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y118" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z118" s="10">
         <f>(689455.0/30)</f>
@@ -12081,8 +12411,11 @@
       <c r="P119" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q119" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y119" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z119" s="10">
         <f>(689455.0/30)</f>
@@ -12170,8 +12503,11 @@
       <c r="P120" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q120" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y120" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z120" s="10">
         <f>(689455.0/30)</f>
@@ -12259,8 +12595,11 @@
       <c r="P121" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q121" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y121" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z121" s="10">
         <f>(689455.0/30)</f>
@@ -12348,8 +12687,11 @@
       <c r="P122" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q122" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y122" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z122" s="10">
         <f>(689455.0/30)</f>
@@ -12437,8 +12779,11 @@
       <c r="P123" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q123" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y123" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z123" s="10">
         <f>(689455.0/30)</f>
@@ -12526,8 +12871,11 @@
       <c r="P124" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q124" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y124" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z124" s="10">
         <f>(689455.0/30)</f>
@@ -12615,8 +12963,11 @@
       <c r="P125" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q125" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y125" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z125" s="10">
         <f>(689455.0/30)</f>
@@ -12704,8 +13055,11 @@
       <c r="P126" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q126" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y126" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z126" s="10">
         <f>(689455.0/30)</f>
@@ -12793,8 +13147,11 @@
       <c r="P127" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q127" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y127" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z127" s="10">
         <f>(689455.0/30)</f>
@@ -12882,8 +13239,11 @@
       <c r="P128" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q128" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y128" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z128" s="10">
         <f>(689455.0/30)</f>
@@ -12971,8 +13331,11 @@
       <c r="P129" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q129" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y129" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z129" s="10">
         <f>(689455.0/30)</f>
@@ -13060,8 +13423,11 @@
       <c r="P130" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q130" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y130" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z130" s="10">
         <f>(689455.0/30)</f>
@@ -13149,8 +13515,11 @@
       <c r="P131" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q131" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y131" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z131" s="10">
         <f>(689455.0/30)</f>
@@ -13238,8 +13607,11 @@
       <c r="P132" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q132" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y132" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z132" s="10">
         <f>(689455.0/30)</f>
@@ -13327,8 +13699,11 @@
       <c r="P133" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q133" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y133" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z133" s="10">
         <f>(689455.0/30)</f>
@@ -13416,8 +13791,11 @@
       <c r="P134" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q134" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y134" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z134" s="10">
         <f>(689455.0/30)</f>
@@ -13505,8 +13883,11 @@
       <c r="P135" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q135" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y135" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z135" s="10">
         <f>(689455.0/30)</f>
@@ -13594,8 +13975,11 @@
       <c r="P136" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q136" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y136" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z136" s="10">
         <f>(689455.0/30)</f>
@@ -13683,8 +14067,11 @@
       <c r="P137" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q137" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y137" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z137" s="10">
         <f>(689455.0/30)</f>
@@ -13772,8 +14159,11 @@
       <c r="P138" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q138" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y138" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z138" s="10">
         <f>(689455.0/30)</f>
@@ -13861,8 +14251,11 @@
       <c r="P139" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q139" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y139" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z139" s="10">
         <f>(689455.0/30)</f>
@@ -13950,8 +14343,11 @@
       <c r="P140" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q140" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y140" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z140" s="10">
         <f>(689455.0/30)</f>
@@ -14039,8 +14435,11 @@
       <c r="P141" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q141" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y141" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z141" s="10">
         <f>(689455.0/30)</f>
@@ -14128,8 +14527,11 @@
       <c r="P142" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q142" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y142" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z142" s="10">
         <f>(689455.0/30)</f>
@@ -14217,8 +14619,11 @@
       <c r="P143" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q143" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y143" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z143" s="10">
         <f>(689455.0/30)</f>
@@ -14306,8 +14711,11 @@
       <c r="P144" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q144" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y144" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z144" s="10">
         <f>(689455.0/30)</f>
@@ -14395,8 +14803,11 @@
       <c r="P145" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q145" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y145" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z145" s="10">
         <f>(689455.0/30)</f>
@@ -14484,8 +14895,11 @@
       <c r="P146" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q146" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y146" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z146" s="10">
         <f>(689455.0/30)</f>
@@ -14573,8 +14987,11 @@
       <c r="P147" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q147" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y147" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z147" s="10">
         <f>(689455.0/30)</f>
@@ -14662,8 +15079,11 @@
       <c r="P148" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q148" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y148" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z148" s="10">
         <f>(689455.0/30)</f>
@@ -14751,8 +15171,11 @@
       <c r="P149" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q149" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y149" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z149" s="10">
         <f>(689455.0/30)</f>
@@ -14840,8 +15263,11 @@
       <c r="P150" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q150" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y150" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z150" s="10">
         <f>(689455.0/30)</f>
@@ -14929,8 +15355,11 @@
       <c r="P151" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q151" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y151" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z151" s="10">
         <f>(689455.0/30)</f>
@@ -15018,8 +15447,11 @@
       <c r="P152" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q152" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y152" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z152" s="10">
         <f>(689455.0/30)</f>
@@ -15107,8 +15539,11 @@
       <c r="P153" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q153" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y153" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z153" s="10">
         <f>(689455.0/30)</f>
@@ -15196,8 +15631,11 @@
       <c r="P154" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q154" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y154" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z154" s="10">
         <f>(689455.0/30)</f>
@@ -15285,8 +15723,11 @@
       <c r="P155" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q155" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y155" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z155" s="10">
         <f>(689455.0/30)</f>
@@ -15374,8 +15815,11 @@
       <c r="P156" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q156" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y156" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z156" s="10">
         <f>(689455.0/30)</f>
@@ -15463,8 +15907,11 @@
       <c r="P157" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q157" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y157" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z157" s="10">
         <f>(689455.0/30)</f>
@@ -15552,8 +15999,11 @@
       <c r="P158" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q158" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y158" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z158" s="10">
         <f>(689455.0/30)</f>
@@ -15641,8 +16091,11 @@
       <c r="P159" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q159" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y159" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z159" s="10">
         <f>(689455.0/30)</f>
@@ -15730,8 +16183,11 @@
       <c r="P160" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q160" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y160" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z160" s="10">
         <f>(689455.0/30)</f>
@@ -15819,8 +16275,11 @@
       <c r="P161" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q161" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y161" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z161" s="10">
         <f>(689455.0/30)</f>
@@ -15908,8 +16367,11 @@
       <c r="P162" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q162" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y162" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z162" s="10">
         <f>(689455.0/30)</f>
@@ -15997,8 +16459,11 @@
       <c r="P163" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q163" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y163" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z163" s="10">
         <f>(689455.0/30)</f>
@@ -16086,8 +16551,11 @@
       <c r="P164" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q164" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y164" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z164" s="10">
         <f>(689455.0/30)</f>
@@ -16175,8 +16643,11 @@
       <c r="P165" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q165" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y165" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z165" s="10">
         <f>(689455.0/30)</f>
@@ -16264,8 +16735,11 @@
       <c r="P166" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q166" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y166" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z166" s="10">
         <f>(689455.0/30)</f>
@@ -16353,8 +16827,11 @@
       <c r="P167" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q167" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y167" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z167" s="10">
         <f>(689455.0/30)</f>
@@ -16442,8 +16919,11 @@
       <c r="P168" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q168" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y168" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z168" s="10">
         <f>(689455.0/30)</f>
@@ -16531,8 +17011,11 @@
       <c r="P169" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q169" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y169" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z169" s="10">
         <f>(689455.0/30)</f>
@@ -16620,8 +17103,11 @@
       <c r="P170" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="Q170" t="s" s="10">
+        <v>41</v>
+      </c>
       <c r="Y170" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z170" s="10">
         <f>(689455.0/30)</f>

--- a/personal/quincena.xlsx
+++ b/personal/quincena.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2476" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2491" uniqueCount="565">
   <si>
     <t>Convecciones</t>
   </si>
@@ -162,6 +162,24 @@
     <t>5.309.290</t>
   </si>
   <si>
+    <t>APELLIDO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>OBRERO</t>
+  </si>
+  <si>
+    <t>MANUEL</t>
+  </si>
+  <si>
+    <t>12343123123</t>
+  </si>
+  <si>
+    <t>CERRAJERO</t>
+  </si>
+  <si>
     <t>SERGIO</t>
   </si>
   <si>
@@ -177,18 +195,12 @@
     <t>PERES</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>PEDRO</t>
   </si>
   <si>
     <t>43.43.43.43</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>ASEO</t>
   </si>
   <si>
@@ -264,9 +276,6 @@
     <t>12.754.736</t>
   </si>
   <si>
-    <t>CERRAJERO</t>
-  </si>
-  <si>
     <t>MENESES</t>
   </si>
   <si>
@@ -685,9 +694,6 @@
   </si>
   <si>
     <t>TELLO</t>
-  </si>
-  <si>
-    <t>MANUEL</t>
   </si>
   <si>
     <t>JESUS</t>
@@ -2005,42 +2011,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="4.95703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="8.72265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.5546875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="15.6953125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.984375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="14.52734375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="12.7265625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="17.9296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="2.78515625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="3.390625" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="2.5078125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="3.01171875" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="3.01171875" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="2.5078125" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="2.60546875" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="2.5078125" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="2.70703125" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="3.68359375" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="3.68359375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="3.68359375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="3.68359375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="3.68359375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="3.68359375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="5.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="11.1875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="10.1640625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="13.77734375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="16.17578125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="4.5078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="17.625" customWidth="true" bestFit="true"/>
-    <col min="32" max="32" width="14.0703125" customWidth="true" bestFit="true"/>
-    <col min="33" max="33" width="4.5078125" customWidth="true" bestFit="true"/>
-    <col min="34" max="34" width="16.54296875" customWidth="true" bestFit="true"/>
-    <col min="35" max="35" width="22.49609375" customWidth="true" bestFit="true"/>
-    <col min="36" max="36" width="25.125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="4.78125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.5" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="15.79296875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.8359375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.89453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.0078125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.51171875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="2.609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="3.37890625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="2.37890625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="2.9765625" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="2.9765625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="2.37890625" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="2.37890625" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="2.37890625" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="2.44140625" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="3.56640625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="3.56640625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="3.56640625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="3.56640625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="3.56640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="3.56640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="5.37890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="10.41796875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="9.00390625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="12.26953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="3.71875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="15.7890625" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="12.72265625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="3.71875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="14.203125" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" width="19.77734375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -2431,28 +2437,28 @@
         <v>3.0</v>
       </c>
       <c r="B11" t="n" s="10">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C11" t="s" s="10">
         <v>49</v>
       </c>
       <c r="D11" t="s" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s" s="10">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G11" s="10">
         <f>concatenate(c11,d11,e11,f11)</f>
       </c>
       <c r="H11" t="s" s="10">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I11" t="n" s="10">
-        <v>1.2345612E7</v>
+        <v>1.23454321E8</v>
       </c>
       <c r="J11" t="s" s="10">
         <v>41</v>
@@ -2512,7 +2518,7 @@
         <f>AA11+AB11+AC11+AD11+AG11+AH11</f>
       </c>
       <c r="AJ11" t="s" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AK11" t="s" s="10">
         <v>43</v>
@@ -2523,28 +2529,28 @@
         <v>4.0</v>
       </c>
       <c r="B12" t="n" s="10">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="C12" t="s" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s" s="10">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s" s="10">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G12" s="10">
         <f>concatenate(c12,d12,e12,f12)</f>
       </c>
       <c r="H12" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I12" t="n" s="10">
-        <v>676767.0</v>
+        <v>1.2345612E7</v>
       </c>
       <c r="J12" t="s" s="10">
         <v>41</v>
@@ -2561,8 +2567,8 @@
       <c r="N12" t="s" s="10">
         <v>41</v>
       </c>
-      <c r="O12" t="s" s="6">
-        <v>57</v>
+      <c r="O12" t="s" s="10">
+        <v>41</v>
       </c>
       <c r="P12" t="s" s="10">
         <v>41</v>
@@ -2571,7 +2577,7 @@
         <v>41</v>
       </c>
       <c r="Y12" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z12" s="10">
         <f>(689455.0/30)</f>
@@ -2579,8 +2585,8 @@
       <c r="AA12" s="10">
         <f>(z12 * y12)</f>
       </c>
-      <c r="AB12" t="n" s="10">
-        <v>0.0</v>
+      <c r="AB12" s="10">
+        <f>77700.0/30*y12</f>
       </c>
       <c r="AC12" s="10">
         <f>3.0/15*Y12</f>
@@ -2615,28 +2621,28 @@
         <v>5.0</v>
       </c>
       <c r="B13" t="n" s="10">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="C13" t="s" s="10">
         <v>59</v>
       </c>
       <c r="D13" t="s" s="10">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s" s="10">
         <v>60</v>
       </c>
       <c r="F13" t="s" s="10">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G13" s="10">
         <f>concatenate(c13,d13,e13,f13)</f>
       </c>
       <c r="H13" t="s" s="10">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I13" t="n" s="10">
-        <v>56566.0</v>
+        <v>676767.0</v>
       </c>
       <c r="J13" t="s" s="10">
         <v>41</v>
@@ -2653,8 +2659,8 @@
       <c r="N13" t="s" s="10">
         <v>41</v>
       </c>
-      <c r="O13" t="s" s="6">
-        <v>57</v>
+      <c r="O13" t="s" s="10">
+        <v>41</v>
       </c>
       <c r="P13" t="s" s="10">
         <v>41</v>
@@ -2663,7 +2669,7 @@
         <v>41</v>
       </c>
       <c r="Y13" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z13" s="10">
         <f>(689455.0/30)</f>
@@ -2696,7 +2702,7 @@
         <f>AA13+AB13+AC13+AD13+AG13+AH13</f>
       </c>
       <c r="AJ13" t="s" s="10">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK13" t="s" s="10">
         <v>43</v>
@@ -2707,28 +2713,28 @@
         <v>6.0</v>
       </c>
       <c r="B14" t="n" s="10">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="C14" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s" s="10">
         <v>64</v>
       </c>
-      <c r="D14" t="s" s="10">
+      <c r="F14" t="s" s="10">
         <v>65</v>
-      </c>
-      <c r="E14" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="F14" t="s" s="10">
-        <v>67</v>
       </c>
       <c r="G14" s="10">
         <f>concatenate(c14,d14,e14,f14)</f>
       </c>
       <c r="H14" t="s" s="10">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I14" t="n" s="10">
-        <v>66.0</v>
+        <v>56566.0</v>
       </c>
       <c r="J14" t="s" s="10">
         <v>41</v>
@@ -2788,7 +2794,7 @@
         <f>AA14+AB14+AC14+AD14+AG14+AH14</f>
       </c>
       <c r="AJ14" t="s" s="10">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AK14" t="s" s="10">
         <v>43</v>
@@ -2799,28 +2805,28 @@
         <v>7.0</v>
       </c>
       <c r="B15" t="n" s="10">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="C15" t="s" s="10">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s" s="10">
         <v>69</v>
       </c>
-      <c r="D15" t="s" s="10">
+      <c r="E15" t="s" s="10">
         <v>70</v>
       </c>
-      <c r="E15" t="s" s="10">
+      <c r="F15" t="s" s="10">
         <v>71</v>
-      </c>
-      <c r="F15" t="s" s="10">
-        <v>72</v>
       </c>
       <c r="G15" s="10">
         <f>concatenate(c15,d15,e15,f15)</f>
       </c>
       <c r="H15" t="s" s="10">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I15" t="n" s="10">
-        <v>565656.0</v>
+        <v>66.0</v>
       </c>
       <c r="J15" t="s" s="10">
         <v>41</v>
@@ -2880,7 +2886,7 @@
         <f>AA15+AB15+AC15+AD15+AG15+AH15</f>
       </c>
       <c r="AJ15" t="s" s="10">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="AK15" t="s" s="10">
         <v>43</v>
@@ -2891,28 +2897,28 @@
         <v>8.0</v>
       </c>
       <c r="B16" t="n" s="10">
-        <v>49.0</v>
+        <v>20.0</v>
       </c>
       <c r="C16" t="s" s="10">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s" s="10">
         <v>74</v>
       </c>
-      <c r="D16" t="s" s="10">
+      <c r="E16" t="s" s="10">
         <v>75</v>
       </c>
-      <c r="E16" t="s" s="10">
+      <c r="F16" t="s" s="10">
         <v>76</v>
-      </c>
-      <c r="F16" t="s" s="10">
-        <v>77</v>
       </c>
       <c r="G16" s="10">
         <f>concatenate(c16,d16,e16,f16)</f>
       </c>
       <c r="H16" t="s" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I16" t="n" s="10">
-        <v>2.4040874104E10</v>
+        <v>565656.0</v>
       </c>
       <c r="J16" t="s" s="10">
         <v>41</v>
@@ -2950,8 +2956,8 @@
       <c r="AB16" t="n" s="10">
         <v>0.0</v>
       </c>
-      <c r="AC16" t="n" s="10">
-        <v>0.0</v>
+      <c r="AC16" s="10">
+        <f>3.0/15*Y16</f>
       </c>
       <c r="AD16" s="10">
         <f>(689455.0*0.08)/30*15</f>
@@ -2972,7 +2978,7 @@
         <f>AA16+AB16+AC16+AD16+AG16+AH16</f>
       </c>
       <c r="AJ16" t="s" s="10">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="AK16" t="s" s="10">
         <v>43</v>
@@ -2983,13 +2989,13 @@
         <v>9.0</v>
       </c>
       <c r="B17" t="n" s="10">
-        <v>230.0</v>
+        <v>49.0</v>
       </c>
       <c r="C17" t="s" s="10">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s" s="10">
         <v>79</v>
-      </c>
-      <c r="D17" t="s" s="10">
-        <v>54</v>
       </c>
       <c r="E17" t="s" s="10">
         <v>80</v>
@@ -3004,7 +3010,7 @@
         <v>82</v>
       </c>
       <c r="I17" t="n" s="10">
-        <v>2.4040879938E10</v>
+        <v>2.4040874104E10</v>
       </c>
       <c r="J17" t="s" s="10">
         <v>41</v>
@@ -3039,8 +3045,8 @@
       <c r="AA17" s="10">
         <f>(z17 * y17)</f>
       </c>
-      <c r="AB17" s="10">
-        <f>77700.0/30*y17</f>
+      <c r="AB17" t="n" s="10">
+        <v>0.0</v>
       </c>
       <c r="AC17" t="n" s="10">
         <v>0.0</v>
@@ -3064,7 +3070,7 @@
         <f>AA17+AB17+AC17+AD17+AG17+AH17</f>
       </c>
       <c r="AJ17" t="s" s="10">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="AK17" t="s" s="10">
         <v>43</v>
@@ -3075,28 +3081,28 @@
         <v>10.0</v>
       </c>
       <c r="B18" t="n" s="10">
-        <v>625.0</v>
+        <v>230.0</v>
       </c>
       <c r="C18" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s" s="10">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s" s="10">
         <v>84</v>
       </c>
-      <c r="D18" t="s" s="10">
+      <c r="F18" t="s" s="10">
         <v>85</v>
-      </c>
-      <c r="E18" t="s" s="10">
-        <v>86</v>
-      </c>
-      <c r="F18" t="s" s="10">
-        <v>87</v>
       </c>
       <c r="G18" s="10">
         <f>concatenate(c18,d18,e18,f18)</f>
       </c>
       <c r="H18" t="s" s="10">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I18" t="n" s="10">
-        <v>2.4041419106E10</v>
+        <v>2.4040879938E10</v>
       </c>
       <c r="J18" t="s" s="10">
         <v>41</v>
@@ -3131,8 +3137,8 @@
       <c r="AA18" s="10">
         <f>(z18 * y18)</f>
       </c>
-      <c r="AB18" t="n" s="10">
-        <v>0.0</v>
+      <c r="AB18" s="10">
+        <f>77700.0/30*y18</f>
       </c>
       <c r="AC18" t="n" s="10">
         <v>0.0</v>
@@ -3156,7 +3162,7 @@
         <f>AA18+AB18+AC18+AD18+AG18+AH18</f>
       </c>
       <c r="AJ18" t="s" s="10">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="AK18" t="s" s="10">
         <v>43</v>
@@ -3167,28 +3173,28 @@
         <v>11.0</v>
       </c>
       <c r="B19" t="n" s="10">
-        <v>773.0</v>
+        <v>625.0</v>
       </c>
       <c r="C19" t="s" s="10">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s" s="10">
+        <v>88</v>
+      </c>
+      <c r="E19" t="s" s="10">
         <v>89</v>
       </c>
-      <c r="D19" t="s" s="10">
+      <c r="F19" t="s" s="10">
         <v>90</v>
-      </c>
-      <c r="E19" t="s" s="10">
-        <v>91</v>
-      </c>
-      <c r="F19" t="s" s="10">
-        <v>92</v>
       </c>
       <c r="G19" s="10">
         <f>concatenate(c19,d19,e19,f19)</f>
       </c>
       <c r="H19" t="s" s="10">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I19" t="n" s="10">
-        <v>2.4041417287E10</v>
+        <v>2.4041419106E10</v>
       </c>
       <c r="J19" t="s" s="10">
         <v>41</v>
@@ -3248,7 +3254,7 @@
         <f>AA19+AB19+AC19+AD19+AG19+AH19</f>
       </c>
       <c r="AJ19" t="s" s="10">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="AK19" t="s" s="10">
         <v>43</v>
@@ -3259,28 +3265,28 @@
         <v>12.0</v>
       </c>
       <c r="B20" t="n" s="10">
-        <v>784.0</v>
+        <v>773.0</v>
       </c>
       <c r="C20" t="s" s="10">
+        <v>92</v>
+      </c>
+      <c r="D20" t="s" s="10">
+        <v>93</v>
+      </c>
+      <c r="E20" t="s" s="10">
         <v>94</v>
       </c>
-      <c r="D20" t="s" s="10">
-        <v>74</v>
-      </c>
-      <c r="E20" t="s" s="10">
+      <c r="F20" t="s" s="10">
         <v>95</v>
-      </c>
-      <c r="F20" t="s" s="10">
-        <v>96</v>
       </c>
       <c r="G20" s="10">
         <f>concatenate(c20,d20,e20,f20)</f>
       </c>
       <c r="H20" t="s" s="10">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I20" t="n" s="10">
-        <v>2.4050679421E10</v>
+        <v>2.4041417287E10</v>
       </c>
       <c r="J20" t="s" s="10">
         <v>41</v>
@@ -3340,7 +3346,7 @@
         <f>AA20+AB20+AC20+AD20+AG20+AH20</f>
       </c>
       <c r="AJ20" t="s" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AK20" t="s" s="10">
         <v>43</v>
@@ -3350,29 +3356,29 @@
       <c r="A21" t="n" s="10">
         <v>13.0</v>
       </c>
-      <c r="B21" t="n" s="7">
-        <v>319.0</v>
-      </c>
-      <c r="C21" t="s" s="7">
+      <c r="B21" t="n" s="10">
+        <v>784.0</v>
+      </c>
+      <c r="C21" t="s" s="10">
+        <v>97</v>
+      </c>
+      <c r="D21" t="s" s="10">
+        <v>78</v>
+      </c>
+      <c r="E21" t="s" s="10">
         <v>98</v>
       </c>
-      <c r="D21" t="s" s="7">
+      <c r="F21" t="s" s="10">
         <v>99</v>
       </c>
-      <c r="E21" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="F21" t="s" s="7">
+      <c r="G21" s="10">
+        <f>concatenate(c21,d21,e21,f21)</f>
+      </c>
+      <c r="H21" t="s" s="10">
         <v>100</v>
       </c>
-      <c r="G21" s="7">
-        <f>concatenate(c21,d21,e21,f21)</f>
-      </c>
-      <c r="H21" t="s" s="7">
-        <v>101</v>
-      </c>
       <c r="I21" t="n" s="10">
-        <v>2.4040877747E10</v>
+        <v>2.4050679421E10</v>
       </c>
       <c r="J21" t="s" s="10">
         <v>41</v>
@@ -3432,39 +3438,39 @@
         <f>AA21+AB21+AC21+AD21+AG21+AH21</f>
       </c>
       <c r="AJ21" t="s" s="10">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK21" t="s" s="10">
-        <v>103</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n" s="10">
         <v>14.0</v>
       </c>
-      <c r="B22" t="n" s="10">
-        <v>119.0</v>
-      </c>
-      <c r="C22" t="s" s="10">
+      <c r="B22" t="n" s="7">
+        <v>319.0</v>
+      </c>
+      <c r="C22" t="s" s="7">
+        <v>101</v>
+      </c>
+      <c r="D22" t="s" s="7">
+        <v>102</v>
+      </c>
+      <c r="E22" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="F22" t="s" s="7">
+        <v>103</v>
+      </c>
+      <c r="G22" s="7">
+        <f>concatenate(c22,d22,e22,f22)</f>
+      </c>
+      <c r="H22" t="s" s="7">
         <v>104</v>
       </c>
-      <c r="D22" t="s" s="10">
-        <v>105</v>
-      </c>
-      <c r="E22" t="s" s="10">
-        <v>106</v>
-      </c>
-      <c r="F22" t="s" s="10">
-        <v>107</v>
-      </c>
-      <c r="G22" s="10">
-        <f>concatenate(c22,d22,e22,f22)</f>
-      </c>
-      <c r="H22" t="s" s="10">
-        <v>108</v>
-      </c>
       <c r="I22" t="n" s="10">
-        <v>2.4040993339E10</v>
+        <v>2.4040877747E10</v>
       </c>
       <c r="J22" t="s" s="10">
         <v>41</v>
@@ -3524,10 +3530,10 @@
         <f>AA22+AB22+AC22+AD22+AG22+AH22</f>
       </c>
       <c r="AJ22" t="s" s="10">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AK22" t="s" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23">
@@ -3535,28 +3541,28 @@
         <v>15.0</v>
       </c>
       <c r="B23" t="n" s="10">
-        <v>142.0</v>
+        <v>119.0</v>
       </c>
       <c r="C23" t="s" s="10">
+        <v>107</v>
+      </c>
+      <c r="D23" t="s" s="10">
+        <v>108</v>
+      </c>
+      <c r="E23" t="s" s="10">
+        <v>109</v>
+      </c>
+      <c r="F23" t="s" s="10">
         <v>110</v>
-      </c>
-      <c r="D23" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="E23" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="F23" t="s" s="10">
-        <v>112</v>
       </c>
       <c r="G23" s="10">
         <f>concatenate(c23,d23,e23,f23)</f>
       </c>
       <c r="H23" t="s" s="10">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I23" t="n" s="10">
-        <v>2.4041276873E10</v>
+        <v>2.4040993339E10</v>
       </c>
       <c r="J23" t="s" s="10">
         <v>41</v>
@@ -3616,10 +3622,10 @@
         <f>AA23+AB23+AC23+AD23+AG23+AH23</f>
       </c>
       <c r="AJ23" t="s" s="10">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AK23" t="s" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
@@ -3627,28 +3633,28 @@
         <v>16.0</v>
       </c>
       <c r="B24" t="n" s="10">
-        <v>180.0</v>
+        <v>142.0</v>
       </c>
       <c r="C24" t="s" s="10">
+        <v>113</v>
+      </c>
+      <c r="D24" t="s" s="10">
         <v>114</v>
       </c>
-      <c r="D24" t="s" s="10">
+      <c r="E24" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s" s="10">
         <v>115</v>
-      </c>
-      <c r="E24" t="s" s="10">
-        <v>107</v>
-      </c>
-      <c r="F24" t="s" s="10">
-        <v>116</v>
       </c>
       <c r="G24" s="10">
         <f>concatenate(c24,d24,e24,f24)</f>
       </c>
       <c r="H24" t="s" s="10">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I24" t="n" s="10">
-        <v>2.4041025525E10</v>
+        <v>2.4041276873E10</v>
       </c>
       <c r="J24" t="s" s="10">
         <v>41</v>
@@ -3708,10 +3714,10 @@
         <f>AA24+AB24+AC24+AD24+AG24+AH24</f>
       </c>
       <c r="AJ24" t="s" s="10">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AK24" t="s" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25">
@@ -3719,16 +3725,16 @@
         <v>17.0</v>
       </c>
       <c r="B25" t="n" s="10">
-        <v>320.0</v>
+        <v>180.0</v>
       </c>
       <c r="C25" t="s" s="10">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s" s="10">
         <v>118</v>
       </c>
       <c r="E25" t="s" s="10">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="F25" t="s" s="10">
         <v>119</v>
@@ -3740,7 +3746,7 @@
         <v>120</v>
       </c>
       <c r="I25" t="n" s="10">
-        <v>2.4041276431E10</v>
+        <v>2.4041025525E10</v>
       </c>
       <c r="J25" t="s" s="10">
         <v>41</v>
@@ -3800,10 +3806,10 @@
         <f>AA25+AB25+AC25+AD25+AG25+AH25</f>
       </c>
       <c r="AJ25" t="s" s="10">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AK25" t="s" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26">
@@ -3811,16 +3817,16 @@
         <v>18.0</v>
       </c>
       <c r="B26" t="n" s="10">
-        <v>321.0</v>
+        <v>320.0</v>
       </c>
       <c r="C26" t="s" s="10">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E26" t="s" s="10">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s" s="10">
         <v>122</v>
@@ -3832,7 +3838,7 @@
         <v>123</v>
       </c>
       <c r="I26" t="n" s="10">
-        <v>2.4040934284E10</v>
+        <v>2.4041276431E10</v>
       </c>
       <c r="J26" t="s" s="10">
         <v>41</v>
@@ -3892,10 +3898,10 @@
         <f>AA26+AB26+AC26+AD26+AG26+AH26</f>
       </c>
       <c r="AJ26" t="s" s="10">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="AK26" t="s" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27">
@@ -3903,28 +3909,28 @@
         <v>19.0</v>
       </c>
       <c r="B27" t="n" s="10">
-        <v>362.0</v>
+        <v>321.0</v>
       </c>
       <c r="C27" t="s" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D27" t="s" s="10">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="E27" t="s" s="10">
+        <v>124</v>
+      </c>
+      <c r="F27" t="s" s="10">
         <v>125</v>
-      </c>
-      <c r="F27" t="s" s="10">
-        <v>126</v>
       </c>
       <c r="G27" s="10">
         <f>concatenate(c27,d27,e27,f27)</f>
       </c>
       <c r="H27" t="s" s="10">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I27" t="n" s="10">
-        <v>2.4041023101E10</v>
+        <v>2.4040934284E10</v>
       </c>
       <c r="J27" t="s" s="10">
         <v>41</v>
@@ -3984,10 +3990,10 @@
         <f>AA27+AB27+AC27+AD27+AG27+AH27</f>
       </c>
       <c r="AJ27" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK27" t="s" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
@@ -3995,28 +4001,28 @@
         <v>20.0</v>
       </c>
       <c r="B28" t="n" s="10">
-        <v>527.0</v>
+        <v>362.0</v>
       </c>
       <c r="C28" t="s" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s" s="10">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E28" t="s" s="10">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F28" t="s" s="10">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G28" s="10">
         <f>concatenate(c28,d28,e28,f28)</f>
       </c>
       <c r="H28" t="s" s="10">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I28" t="n" s="10">
-        <v>2.4042048949E10</v>
+        <v>2.4041023101E10</v>
       </c>
       <c r="J28" t="s" s="10">
         <v>41</v>
@@ -4076,10 +4082,10 @@
         <f>AA28+AB28+AC28+AD28+AG28+AH28</f>
       </c>
       <c r="AJ28" t="s" s="10">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="AK28" t="s" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29">
@@ -4087,28 +4093,28 @@
         <v>21.0</v>
       </c>
       <c r="B29" t="n" s="10">
-        <v>551.0</v>
+        <v>527.0</v>
       </c>
       <c r="C29" t="s" s="10">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s" s="10">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s" s="10">
+        <v>129</v>
+      </c>
+      <c r="F29" t="s" s="10">
         <v>131</v>
-      </c>
-      <c r="F29" t="s" s="10">
-        <v>132</v>
       </c>
       <c r="G29" s="10">
         <f>concatenate(c29,d29,e29,f29)</f>
       </c>
       <c r="H29" t="s" s="10">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I29" t="n" s="10">
-        <v>2.4042198868E10</v>
+        <v>2.4042048949E10</v>
       </c>
       <c r="J29" t="s" s="10">
         <v>41</v>
@@ -4168,10 +4174,10 @@
         <f>AA29+AB29+AC29+AD29+AG29+AH29</f>
       </c>
       <c r="AJ29" t="s" s="10">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="AK29" t="s" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30">
@@ -4179,28 +4185,28 @@
         <v>22.0</v>
       </c>
       <c r="B30" t="n" s="10">
-        <v>862.0</v>
+        <v>551.0</v>
       </c>
       <c r="C30" t="s" s="10">
+        <v>133</v>
+      </c>
+      <c r="D30" t="s" s="10">
+        <v>114</v>
+      </c>
+      <c r="E30" t="s" s="10">
         <v>134</v>
       </c>
-      <c r="D30" t="s" s="10">
+      <c r="F30" t="s" s="10">
         <v>135</v>
-      </c>
-      <c r="E30" t="s" s="10">
-        <v>136</v>
-      </c>
-      <c r="F30" t="s" s="10">
-        <v>137</v>
       </c>
       <c r="G30" s="10">
         <f>concatenate(c30,d30,e30,f30)</f>
       </c>
       <c r="H30" t="s" s="10">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I30" t="n" s="10">
-        <v>2.4053669562E10</v>
+        <v>2.4042198868E10</v>
       </c>
       <c r="J30" t="s" s="10">
         <v>41</v>
@@ -4260,10 +4266,10 @@
         <f>AA30+AB30+AC30+AD30+AG30+AH30</f>
       </c>
       <c r="AJ30" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK30" t="s" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31">
@@ -4271,28 +4277,28 @@
         <v>23.0</v>
       </c>
       <c r="B31" t="n" s="10">
-        <v>921.0</v>
+        <v>862.0</v>
       </c>
       <c r="C31" t="s" s="10">
+        <v>137</v>
+      </c>
+      <c r="D31" t="s" s="10">
+        <v>138</v>
+      </c>
+      <c r="E31" t="s" s="10">
         <v>139</v>
       </c>
-      <c r="D31" t="s" s="10">
+      <c r="F31" t="s" s="10">
         <v>140</v>
-      </c>
-      <c r="E31" t="s" s="10">
-        <v>141</v>
-      </c>
-      <c r="F31" t="s" s="10">
-        <v>142</v>
       </c>
       <c r="G31" s="10">
         <f>concatenate(c31,d31,e31,f31)</f>
       </c>
       <c r="H31" t="s" s="10">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I31" t="n" s="10">
-        <v>2.4054491483E10</v>
+        <v>2.4053669562E10</v>
       </c>
       <c r="J31" t="s" s="10">
         <v>41</v>
@@ -4352,10 +4358,10 @@
         <f>AA31+AB31+AC31+AD31+AG31+AH31</f>
       </c>
       <c r="AJ31" t="s" s="10">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="AK31" t="s" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32">
@@ -4363,28 +4369,28 @@
         <v>24.0</v>
       </c>
       <c r="B32" t="n" s="10">
-        <v>922.0</v>
+        <v>921.0</v>
       </c>
       <c r="C32" t="s" s="10">
+        <v>142</v>
+      </c>
+      <c r="D32" t="s" s="10">
+        <v>143</v>
+      </c>
+      <c r="E32" t="s" s="10">
         <v>144</v>
       </c>
-      <c r="D32" t="s" s="10">
-        <v>110</v>
-      </c>
-      <c r="E32" t="s" s="10">
+      <c r="F32" t="s" s="10">
         <v>145</v>
-      </c>
-      <c r="F32" t="s" s="10">
-        <v>146</v>
       </c>
       <c r="G32" s="10">
         <f>concatenate(c32,d32,e32,f32)</f>
       </c>
       <c r="H32" t="s" s="10">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I32" t="n" s="10">
-        <v>2.4054489428E10</v>
+        <v>2.4054491483E10</v>
       </c>
       <c r="J32" t="s" s="10">
         <v>41</v>
@@ -4444,39 +4450,39 @@
         <f>AA32+AB32+AC32+AD32+AG32+AH32</f>
       </c>
       <c r="AJ32" t="s" s="10">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AK32" t="s" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="10">
         <v>25.0</v>
       </c>
-      <c r="B33" t="n" s="7">
-        <v>-3.0</v>
-      </c>
-      <c r="C33" t="s" s="7">
+      <c r="B33" t="n" s="10">
+        <v>922.0</v>
+      </c>
+      <c r="C33" t="s" s="10">
+        <v>147</v>
+      </c>
+      <c r="D33" t="s" s="10">
+        <v>113</v>
+      </c>
+      <c r="E33" t="s" s="10">
         <v>148</v>
       </c>
-      <c r="D33" t="s" s="7">
-        <v>89</v>
-      </c>
-      <c r="E33" t="s" s="7">
+      <c r="F33" t="s" s="10">
         <v>149</v>
       </c>
-      <c r="F33" t="s" s="7">
-        <v>126</v>
-      </c>
-      <c r="G33" s="7">
+      <c r="G33" s="10">
         <f>concatenate(c33,d33,e33,f33)</f>
       </c>
-      <c r="H33" t="s" s="7">
+      <c r="H33" t="s" s="10">
         <v>150</v>
       </c>
       <c r="I33" t="n" s="10">
-        <v>2.4042181512E10</v>
+        <v>2.4054489428E10</v>
       </c>
       <c r="J33" t="s" s="10">
         <v>41</v>
@@ -4536,39 +4542,39 @@
         <f>AA33+AB33+AC33+AD33+AG33+AH33</f>
       </c>
       <c r="AJ33" t="s" s="10">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AK33" t="s" s="10">
-        <v>149</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="10">
         <v>26.0</v>
       </c>
-      <c r="B34" t="n" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="C34" t="s" s="10">
+      <c r="B34" t="n" s="7">
+        <v>-3.0</v>
+      </c>
+      <c r="C34" t="s" s="7">
         <v>151</v>
       </c>
-      <c r="D34" t="s" s="10">
-        <v>54</v>
-      </c>
-      <c r="E34" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="F34" t="s" s="10">
+      <c r="D34" t="s" s="7">
+        <v>92</v>
+      </c>
+      <c r="E34" t="s" s="7">
         <v>152</v>
       </c>
-      <c r="G34" s="10">
+      <c r="F34" t="s" s="7">
+        <v>129</v>
+      </c>
+      <c r="G34" s="7">
         <f>concatenate(c34,d34,e34,f34)</f>
       </c>
-      <c r="H34" t="s" s="10">
+      <c r="H34" t="s" s="7">
         <v>153</v>
       </c>
       <c r="I34" t="n" s="10">
-        <v>2.404102362E10</v>
+        <v>2.4042181512E10</v>
       </c>
       <c r="J34" t="s" s="10">
         <v>41</v>
@@ -4628,10 +4634,10 @@
         <f>AA34+AB34+AC34+AD34+AG34+AH34</f>
       </c>
       <c r="AJ34" t="s" s="10">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="AK34" t="s" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35">
@@ -4639,16 +4645,16 @@
         <v>27.0</v>
       </c>
       <c r="B35" t="n" s="10">
-        <v>18.0</v>
+        <v>8.0</v>
       </c>
       <c r="C35" t="s" s="10">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="D35" t="s" s="10">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E35" t="s" s="10">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="F35" t="s" s="10">
         <v>155</v>
@@ -4660,7 +4666,7 @@
         <v>156</v>
       </c>
       <c r="I35" t="n" s="10">
-        <v>3.33232467E8</v>
+        <v>2.404102362E10</v>
       </c>
       <c r="J35" t="s" s="10">
         <v>41</v>
@@ -4698,8 +4704,8 @@
       <c r="AB35" t="n" s="10">
         <v>0.0</v>
       </c>
-      <c r="AC35" s="10">
-        <f>3.0/15*Y35</f>
+      <c r="AC35" t="n" s="10">
+        <v>0.0</v>
       </c>
       <c r="AD35" s="10">
         <f>(689455.0*0.08)/30*15</f>
@@ -4720,10 +4726,10 @@
         <f>AA35+AB35+AC35+AD35+AG35+AH35</f>
       </c>
       <c r="AJ35" t="s" s="10">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="AK35" t="s" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36">
@@ -4731,28 +4737,28 @@
         <v>28.0</v>
       </c>
       <c r="B36" t="n" s="10">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
       <c r="C36" t="s" s="10">
+        <v>22</v>
+      </c>
+      <c r="D36" t="s" s="10">
+        <v>69</v>
+      </c>
+      <c r="E36" t="s" s="10">
         <v>157</v>
       </c>
-      <c r="D36" t="s" s="10">
+      <c r="F36" t="s" s="10">
         <v>158</v>
-      </c>
-      <c r="E36" t="s" s="10">
-        <v>126</v>
-      </c>
-      <c r="F36" t="s" s="10">
-        <v>159</v>
       </c>
       <c r="G36" s="10">
         <f>concatenate(c36,d36,e36,f36)</f>
       </c>
       <c r="H36" t="s" s="10">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I36" t="n" s="10">
-        <v>2.404102278E10</v>
+        <v>3.33232467E8</v>
       </c>
       <c r="J36" t="s" s="10">
         <v>41</v>
@@ -4790,8 +4796,8 @@
       <c r="AB36" t="n" s="10">
         <v>0.0</v>
       </c>
-      <c r="AC36" t="n" s="10">
-        <v>0.0</v>
+      <c r="AC36" s="10">
+        <f>3.0/15*Y36</f>
       </c>
       <c r="AD36" s="10">
         <f>(689455.0*0.08)/30*15</f>
@@ -4812,10 +4818,10 @@
         <f>AA36+AB36+AC36+AD36+AG36+AH36</f>
       </c>
       <c r="AJ36" t="s" s="10">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="AK36" t="s" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37">
@@ -4823,28 +4829,28 @@
         <v>29.0</v>
       </c>
       <c r="B37" t="n" s="10">
-        <v>92.0</v>
+        <v>23.0</v>
       </c>
       <c r="C37" t="s" s="10">
+        <v>160</v>
+      </c>
+      <c r="D37" t="s" s="10">
         <v>161</v>
       </c>
-      <c r="D37" t="s" s="10">
+      <c r="E37" t="s" s="10">
+        <v>129</v>
+      </c>
+      <c r="F37" t="s" s="10">
         <v>162</v>
-      </c>
-      <c r="E37" t="s" s="10">
-        <v>126</v>
-      </c>
-      <c r="F37" t="s" s="10">
-        <v>163</v>
       </c>
       <c r="G37" s="10">
         <f>concatenate(c37,d37,e37,f37)</f>
       </c>
       <c r="H37" t="s" s="10">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I37" t="n" s="10">
-        <v>2.4041023954E10</v>
+        <v>2.404102278E10</v>
       </c>
       <c r="J37" t="s" s="10">
         <v>41</v>
@@ -4904,10 +4910,10 @@
         <f>AA37+AB37+AC37+AD37+AG37+AH37</f>
       </c>
       <c r="AJ37" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK37" t="s" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38">
@@ -4915,28 +4921,28 @@
         <v>30.0</v>
       </c>
       <c r="B38" t="n" s="10">
-        <v>100.0</v>
+        <v>92.0</v>
       </c>
       <c r="C38" t="s" s="10">
+        <v>164</v>
+      </c>
+      <c r="D38" t="s" s="10">
         <v>165</v>
       </c>
-      <c r="D38" t="s" s="10">
-        <v>98</v>
-      </c>
       <c r="E38" t="s" s="10">
+        <v>129</v>
+      </c>
+      <c r="F38" t="s" s="10">
         <v>166</v>
-      </c>
-      <c r="F38" t="s" s="10">
-        <v>167</v>
       </c>
       <c r="G38" s="10">
         <f>concatenate(c38,d38,e38,f38)</f>
       </c>
       <c r="H38" t="s" s="10">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I38" t="n" s="10">
-        <v>2.4041416734E10</v>
+        <v>2.4041023954E10</v>
       </c>
       <c r="J38" t="s" s="10">
         <v>41</v>
@@ -4996,10 +5002,10 @@
         <f>AA38+AB38+AC38+AD38+AG38+AH38</f>
       </c>
       <c r="AJ38" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK38" t="s" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39">
@@ -5007,28 +5013,28 @@
         <v>31.0</v>
       </c>
       <c r="B39" t="n" s="10">
-        <v>127.0</v>
+        <v>100.0</v>
       </c>
       <c r="C39" t="s" s="10">
+        <v>168</v>
+      </c>
+      <c r="D39" t="s" s="10">
+        <v>101</v>
+      </c>
+      <c r="E39" t="s" s="10">
         <v>169</v>
       </c>
-      <c r="D39" t="s" s="10">
-        <v>144</v>
-      </c>
-      <c r="E39" t="s" s="10">
+      <c r="F39" t="s" s="10">
         <v>170</v>
-      </c>
-      <c r="F39" t="s" s="10">
-        <v>171</v>
       </c>
       <c r="G39" s="10">
         <f>concatenate(c39,d39,e39,f39)</f>
       </c>
       <c r="H39" t="s" s="10">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I39" t="n" s="10">
-        <v>2.404087812E10</v>
+        <v>2.4041416734E10</v>
       </c>
       <c r="J39" t="s" s="10">
         <v>41</v>
@@ -5088,10 +5094,10 @@
         <f>AA39+AB39+AC39+AD39+AG39+AH39</f>
       </c>
       <c r="AJ39" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK39" t="s" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40">
@@ -5099,19 +5105,19 @@
         <v>32.0</v>
       </c>
       <c r="B40" t="n" s="10">
-        <v>147.0</v>
+        <v>127.0</v>
       </c>
       <c r="C40" t="s" s="10">
+        <v>172</v>
+      </c>
+      <c r="D40" t="s" s="10">
+        <v>147</v>
+      </c>
+      <c r="E40" t="s" s="10">
         <v>173</v>
       </c>
-      <c r="D40" t="s" s="10">
-        <v>84</v>
-      </c>
-      <c r="E40" t="s" s="10">
+      <c r="F40" t="s" s="10">
         <v>174</v>
-      </c>
-      <c r="F40" t="s" s="10">
-        <v>132</v>
       </c>
       <c r="G40" s="10">
         <f>concatenate(c40,d40,e40,f40)</f>
@@ -5120,7 +5126,7 @@
         <v>175</v>
       </c>
       <c r="I40" t="n" s="10">
-        <v>2.4040993764E10</v>
+        <v>2.404087812E10</v>
       </c>
       <c r="J40" t="s" s="10">
         <v>41</v>
@@ -5180,10 +5186,10 @@
         <f>AA40+AB40+AC40+AD40+AG40+AH40</f>
       </c>
       <c r="AJ40" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK40" t="s" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41">
@@ -5191,28 +5197,28 @@
         <v>33.0</v>
       </c>
       <c r="B41" t="n" s="10">
-        <v>178.0</v>
+        <v>147.0</v>
       </c>
       <c r="C41" t="s" s="10">
         <v>176</v>
       </c>
       <c r="D41" t="s" s="10">
+        <v>87</v>
+      </c>
+      <c r="E41" t="s" s="10">
         <v>177</v>
       </c>
-      <c r="E41" t="s" s="10">
-        <v>178</v>
-      </c>
       <c r="F41" t="s" s="10">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="G41" s="10">
         <f>concatenate(c41,d41,e41,f41)</f>
       </c>
       <c r="H41" t="s" s="10">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I41" t="n" s="10">
-        <v>2.404087519E10</v>
+        <v>2.4040993764E10</v>
       </c>
       <c r="J41" t="s" s="10">
         <v>41</v>
@@ -5272,10 +5278,10 @@
         <f>AA41+AB41+AC41+AD41+AG41+AH41</f>
       </c>
       <c r="AJ41" t="s" s="10">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="AK41" t="s" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42">
@@ -5283,28 +5289,28 @@
         <v>34.0</v>
       </c>
       <c r="B42" t="n" s="10">
-        <v>206.0</v>
+        <v>178.0</v>
       </c>
       <c r="C42" t="s" s="10">
+        <v>179</v>
+      </c>
+      <c r="D42" t="s" s="10">
+        <v>180</v>
+      </c>
+      <c r="E42" t="s" s="10">
+        <v>181</v>
+      </c>
+      <c r="F42" t="s" s="10">
         <v>182</v>
-      </c>
-      <c r="D42" t="s" s="10">
-        <v>54</v>
-      </c>
-      <c r="E42" t="s" s="10">
-        <v>183</v>
-      </c>
-      <c r="F42" t="s" s="10">
-        <v>184</v>
       </c>
       <c r="G42" s="10">
         <f>concatenate(c42,d42,e42,f42)</f>
       </c>
       <c r="H42" t="s" s="10">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I42" t="n" s="10">
-        <v>2.4040875215E10</v>
+        <v>2.404087519E10</v>
       </c>
       <c r="J42" t="s" s="10">
         <v>41</v>
@@ -5364,10 +5370,10 @@
         <f>AA42+AB42+AC42+AD42+AG42+AH42</f>
       </c>
       <c r="AJ42" t="s" s="10">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="AK42" t="s" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43">
@@ -5375,28 +5381,28 @@
         <v>35.0</v>
       </c>
       <c r="B43" t="n" s="10">
-        <v>212.0</v>
+        <v>206.0</v>
       </c>
       <c r="C43" t="s" s="10">
+        <v>185</v>
+      </c>
+      <c r="D43" t="s" s="10">
+        <v>50</v>
+      </c>
+      <c r="E43" t="s" s="10">
         <v>186</v>
       </c>
-      <c r="D43" t="s" s="10">
+      <c r="F43" t="s" s="10">
         <v>187</v>
-      </c>
-      <c r="E43" t="s" s="10">
-        <v>87</v>
-      </c>
-      <c r="F43" t="s" s="10">
-        <v>188</v>
       </c>
       <c r="G43" s="10">
         <f>concatenate(c43,d43,e43,f43)</f>
       </c>
       <c r="H43" t="s" s="10">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I43" t="n" s="10">
-        <v>2.4040877071E10</v>
+        <v>2.4040875215E10</v>
       </c>
       <c r="J43" t="s" s="10">
         <v>41</v>
@@ -5456,10 +5462,10 @@
         <f>AA43+AB43+AC43+AD43+AG43+AH43</f>
       </c>
       <c r="AJ43" t="s" s="10">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="AK43" t="s" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44">
@@ -5467,28 +5473,28 @@
         <v>36.0</v>
       </c>
       <c r="B44" t="n" s="10">
-        <v>249.0</v>
+        <v>212.0</v>
       </c>
       <c r="C44" t="s" s="10">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D44" t="s" s="10">
         <v>190</v>
       </c>
       <c r="E44" t="s" s="10">
+        <v>90</v>
+      </c>
+      <c r="F44" t="s" s="10">
         <v>191</v>
-      </c>
-      <c r="F44" t="s" s="10">
-        <v>192</v>
       </c>
       <c r="G44" s="10">
         <f>concatenate(c44,d44,e44,f44)</f>
       </c>
       <c r="H44" t="s" s="10">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I44" t="n" s="10">
-        <v>2.4040875811E10</v>
+        <v>2.4040877071E10</v>
       </c>
       <c r="J44" t="s" s="10">
         <v>41</v>
@@ -5548,10 +5554,10 @@
         <f>AA44+AB44+AC44+AD44+AG44+AH44</f>
       </c>
       <c r="AJ44" t="s" s="10">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AK44" t="s" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45">
@@ -5559,28 +5565,28 @@
         <v>37.0</v>
       </c>
       <c r="B45" t="n" s="10">
-        <v>252.0</v>
+        <v>249.0</v>
       </c>
       <c r="C45" t="s" s="10">
+        <v>193</v>
+      </c>
+      <c r="D45" t="s" s="10">
+        <v>193</v>
+      </c>
+      <c r="E45" t="s" s="10">
         <v>194</v>
       </c>
-      <c r="D45" t="s" s="10">
+      <c r="F45" t="s" s="10">
         <v>195</v>
-      </c>
-      <c r="E45" t="s" s="10">
-        <v>196</v>
-      </c>
-      <c r="F45" t="s" s="10">
-        <v>197</v>
       </c>
       <c r="G45" s="10">
         <f>concatenate(c45,d45,e45,f45)</f>
       </c>
       <c r="H45" t="s" s="10">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I45" t="n" s="10">
-        <v>2.4041024351E10</v>
+        <v>2.4040875811E10</v>
       </c>
       <c r="J45" t="s" s="10">
         <v>41</v>
@@ -5640,10 +5646,10 @@
         <f>AA45+AB45+AC45+AD45+AG45+AH45</f>
       </c>
       <c r="AJ45" t="s" s="10">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AK45" t="s" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46">
@@ -5651,28 +5657,28 @@
         <v>38.0</v>
       </c>
       <c r="B46" t="n" s="10">
-        <v>256.0</v>
+        <v>252.0</v>
       </c>
       <c r="C46" t="s" s="10">
+        <v>197</v>
+      </c>
+      <c r="D46" t="s" s="10">
+        <v>198</v>
+      </c>
+      <c r="E46" t="s" s="10">
         <v>199</v>
       </c>
-      <c r="D46" t="s" s="10">
+      <c r="F46" t="s" s="10">
         <v>200</v>
-      </c>
-      <c r="E46" t="s" s="10">
-        <v>201</v>
-      </c>
-      <c r="F46" t="s" s="10">
-        <v>202</v>
       </c>
       <c r="G46" s="10">
         <f>concatenate(c46,d46,e46,f46)</f>
       </c>
       <c r="H46" t="s" s="10">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I46" t="n" s="10">
-        <v>2.4041024104E10</v>
+        <v>2.4041024351E10</v>
       </c>
       <c r="J46" t="s" s="10">
         <v>41</v>
@@ -5732,10 +5738,10 @@
         <f>AA46+AB46+AC46+AD46+AG46+AH46</f>
       </c>
       <c r="AJ46" t="s" s="10">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="AK46" t="s" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47">
@@ -5743,19 +5749,19 @@
         <v>39.0</v>
       </c>
       <c r="B47" t="n" s="10">
-        <v>375.0</v>
+        <v>256.0</v>
       </c>
       <c r="C47" t="s" s="10">
+        <v>202</v>
+      </c>
+      <c r="D47" t="s" s="10">
+        <v>203</v>
+      </c>
+      <c r="E47" t="s" s="10">
         <v>204</v>
       </c>
-      <c r="D47" t="s" s="10">
-        <v>148</v>
-      </c>
-      <c r="E47" t="s" s="10">
+      <c r="F47" t="s" s="10">
         <v>205</v>
-      </c>
-      <c r="F47" t="s" s="10">
-        <v>47</v>
       </c>
       <c r="G47" s="10">
         <f>concatenate(c47,d47,e47,f47)</f>
@@ -5764,7 +5770,7 @@
         <v>206</v>
       </c>
       <c r="I47" t="n" s="10">
-        <v>2.4040935674E10</v>
+        <v>2.4041024104E10</v>
       </c>
       <c r="J47" t="s" s="10">
         <v>41</v>
@@ -5824,10 +5830,10 @@
         <f>AA47+AB47+AC47+AD47+AG47+AH47</f>
       </c>
       <c r="AJ47" t="s" s="10">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AK47" t="s" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48">
@@ -5835,19 +5841,19 @@
         <v>40.0</v>
       </c>
       <c r="B48" t="n" s="10">
-        <v>402.0</v>
+        <v>375.0</v>
       </c>
       <c r="C48" t="s" s="10">
-        <v>89</v>
+        <v>207</v>
       </c>
       <c r="D48" t="s" s="10">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="E48" t="s" s="10">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="F48" t="s" s="10">
-        <v>208</v>
+        <v>47</v>
       </c>
       <c r="G48" s="10">
         <f>concatenate(c48,d48,e48,f48)</f>
@@ -5856,7 +5862,7 @@
         <v>209</v>
       </c>
       <c r="I48" t="n" s="10">
-        <v>2.4040884839E10</v>
+        <v>2.4040935674E10</v>
       </c>
       <c r="J48" t="s" s="10">
         <v>41</v>
@@ -5916,10 +5922,10 @@
         <f>AA48+AB48+AC48+AD48+AG48+AH48</f>
       </c>
       <c r="AJ48" t="s" s="10">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c r="AK48" t="s" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49">
@@ -5927,16 +5933,16 @@
         <v>41.0</v>
       </c>
       <c r="B49" t="n" s="10">
-        <v>403.0</v>
+        <v>402.0</v>
       </c>
       <c r="C49" t="s" s="10">
-        <v>210</v>
+        <v>92</v>
       </c>
       <c r="D49" t="s" s="10">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="E49" t="s" s="10">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="F49" t="s" s="10">
         <v>211</v>
@@ -5948,7 +5954,7 @@
         <v>212</v>
       </c>
       <c r="I49" t="n" s="10">
-        <v>2.4040874375E10</v>
+        <v>2.4040884839E10</v>
       </c>
       <c r="J49" t="s" s="10">
         <v>41</v>
@@ -6008,10 +6014,10 @@
         <f>AA49+AB49+AC49+AD49+AG49+AH49</f>
       </c>
       <c r="AJ49" t="s" s="10">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AK49" t="s" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50">
@@ -6019,16 +6025,16 @@
         <v>42.0</v>
       </c>
       <c r="B50" t="n" s="10">
-        <v>411.0</v>
+        <v>403.0</v>
       </c>
       <c r="C50" t="s" s="10">
         <v>213</v>
       </c>
       <c r="D50" t="s" s="10">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="E50" t="s" s="10">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="F50" t="s" s="10">
         <v>214</v>
@@ -6040,7 +6046,7 @@
         <v>215</v>
       </c>
       <c r="I50" t="n" s="10">
-        <v>2.404093596E10</v>
+        <v>2.4040874375E10</v>
       </c>
       <c r="J50" t="s" s="10">
         <v>41</v>
@@ -6100,10 +6106,10 @@
         <f>AA50+AB50+AC50+AD50+AG50+AH50</f>
       </c>
       <c r="AJ50" t="s" s="10">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="AK50" t="s" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51">
@@ -6111,28 +6117,28 @@
         <v>43.0</v>
       </c>
       <c r="B51" t="n" s="10">
-        <v>639.0</v>
+        <v>411.0</v>
       </c>
       <c r="C51" t="s" s="10">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="D51" t="s" s="10">
+        <v>216</v>
+      </c>
+      <c r="E51" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="F51" t="s" s="10">
         <v>217</v>
-      </c>
-      <c r="E51" t="s" s="10">
-        <v>218</v>
-      </c>
-      <c r="F51" t="s" s="10">
-        <v>219</v>
       </c>
       <c r="G51" s="10">
         <f>concatenate(c51,d51,e51,f51)</f>
       </c>
       <c r="H51" t="s" s="10">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I51" t="n" s="10">
-        <v>2.404448862E10</v>
+        <v>2.404093596E10</v>
       </c>
       <c r="J51" t="s" s="10">
         <v>41</v>
@@ -6192,10 +6198,10 @@
         <f>AA51+AB51+AC51+AD51+AG51+AH51</f>
       </c>
       <c r="AJ51" t="s" s="10">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="AK51" t="s" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52">
@@ -6203,28 +6209,28 @@
         <v>44.0</v>
       </c>
       <c r="B52" t="n" s="10">
-        <v>704.0</v>
+        <v>639.0</v>
       </c>
       <c r="C52" t="s" s="10">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D52" t="s" s="10">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="E52" t="s" s="10">
         <v>221</v>
       </c>
       <c r="F52" t="s" s="10">
-        <v>54</v>
+        <v>222</v>
       </c>
       <c r="G52" s="10">
         <f>concatenate(c52,d52,e52,f52)</f>
       </c>
       <c r="H52" t="s" s="10">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I52" t="n" s="10">
-        <v>2.404551069E10</v>
+        <v>2.404448862E10</v>
       </c>
       <c r="J52" t="s" s="10">
         <v>41</v>
@@ -6284,10 +6290,10 @@
         <f>AA52+AB52+AC52+AD52+AG52+AH52</f>
       </c>
       <c r="AJ52" t="s" s="10">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="AK52" t="s" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53">
@@ -6295,28 +6301,28 @@
         <v>45.0</v>
       </c>
       <c r="B53" t="n" s="10">
-        <v>737.0</v>
+        <v>704.0</v>
       </c>
       <c r="C53" t="s" s="10">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c r="D53" t="s" s="10">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c r="E53" t="s" s="10">
         <v>224</v>
       </c>
       <c r="F53" t="s" s="10">
-        <v>225</v>
+        <v>50</v>
       </c>
       <c r="G53" s="10">
         <f>concatenate(c53,d53,e53,f53)</f>
       </c>
       <c r="H53" t="s" s="10">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I53" t="n" s="10">
-        <v>2.4046162342E10</v>
+        <v>2.404551069E10</v>
       </c>
       <c r="J53" t="s" s="10">
         <v>41</v>
@@ -6376,10 +6382,10 @@
         <f>AA53+AB53+AC53+AD53+AG53+AH53</f>
       </c>
       <c r="AJ53" t="s" s="10">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="AK53" t="s" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54">
@@ -6387,28 +6393,28 @@
         <v>46.0</v>
       </c>
       <c r="B54" t="n" s="10">
-        <v>738.0</v>
+        <v>737.0</v>
       </c>
       <c r="C54" t="s" s="10">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D54" t="s" s="10">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E54" t="s" s="10">
+        <v>52</v>
+      </c>
+      <c r="F54" t="s" s="10">
         <v>227</v>
-      </c>
-      <c r="F54" t="s" s="10">
-        <v>228</v>
       </c>
       <c r="G54" s="10">
         <f>concatenate(c54,d54,e54,f54)</f>
       </c>
       <c r="H54" t="s" s="10">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I54" t="n" s="10">
-        <v>2.4046415938E10</v>
+        <v>2.4046162342E10</v>
       </c>
       <c r="J54" t="s" s="10">
         <v>41</v>
@@ -6468,10 +6474,10 @@
         <f>AA54+AB54+AC54+AD54+AG54+AH54</f>
       </c>
       <c r="AJ54" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK54" t="s" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55">
@@ -6479,28 +6485,28 @@
         <v>47.0</v>
       </c>
       <c r="B55" t="n" s="10">
-        <v>807.0</v>
+        <v>738.0</v>
       </c>
       <c r="C55" t="s" s="10">
+        <v>226</v>
+      </c>
+      <c r="D55" t="s" s="10">
+        <v>50</v>
+      </c>
+      <c r="E55" t="s" s="10">
+        <v>229</v>
+      </c>
+      <c r="F55" t="s" s="10">
         <v>230</v>
-      </c>
-      <c r="D55" t="s" s="10">
-        <v>231</v>
-      </c>
-      <c r="E55" t="s" s="10">
-        <v>232</v>
-      </c>
-      <c r="F55" t="s" s="10">
-        <v>233</v>
       </c>
       <c r="G55" s="10">
         <f>concatenate(c55,d55,e55,f55)</f>
       </c>
       <c r="H55" t="s" s="10">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I55" t="n" s="10">
-        <v>2.4051432896E10</v>
+        <v>2.4046415938E10</v>
       </c>
       <c r="J55" t="s" s="10">
         <v>41</v>
@@ -6560,10 +6566,10 @@
         <f>AA55+AB55+AC55+AD55+AG55+AH55</f>
       </c>
       <c r="AJ55" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK55" t="s" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56">
@@ -6571,28 +6577,28 @@
         <v>48.0</v>
       </c>
       <c r="B56" t="n" s="10">
-        <v>887.0</v>
+        <v>807.0</v>
       </c>
       <c r="C56" t="s" s="10">
-        <v>84</v>
+        <v>232</v>
       </c>
       <c r="D56" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="E56" t="s" s="10">
+        <v>234</v>
+      </c>
+      <c r="F56" t="s" s="10">
         <v>235</v>
-      </c>
-      <c r="E56" t="s" s="10">
-        <v>236</v>
-      </c>
-      <c r="F56" t="s" s="10">
-        <v>132</v>
       </c>
       <c r="G56" s="10">
         <f>concatenate(c56,d56,e56,f56)</f>
       </c>
       <c r="H56" t="s" s="10">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I56" t="n" s="10">
-        <v>2.4054095171E10</v>
+        <v>2.4051432896E10</v>
       </c>
       <c r="J56" t="s" s="10">
         <v>41</v>
@@ -6652,10 +6658,10 @@
         <f>AA56+AB56+AC56+AD56+AG56+AH56</f>
       </c>
       <c r="AJ56" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK56" t="s" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57">
@@ -6663,28 +6669,28 @@
         <v>49.0</v>
       </c>
       <c r="B57" t="n" s="10">
-        <v>928.0</v>
+        <v>887.0</v>
       </c>
       <c r="C57" t="s" s="10">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="D57" t="s" s="10">
+        <v>237</v>
+      </c>
+      <c r="E57" t="s" s="10">
         <v>238</v>
       </c>
-      <c r="E57" t="s" s="10">
-        <v>225</v>
-      </c>
       <c r="F57" t="s" s="10">
-        <v>239</v>
+        <v>135</v>
       </c>
       <c r="G57" s="10">
         <f>concatenate(c57,d57,e57,f57)</f>
       </c>
       <c r="H57" t="s" s="10">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I57" t="n" s="10">
-        <v>2.4040877468E10</v>
+        <v>2.4054095171E10</v>
       </c>
       <c r="J57" t="s" s="10">
         <v>41</v>
@@ -6744,10 +6750,10 @@
         <f>AA57+AB57+AC57+AD57+AG57+AH57</f>
       </c>
       <c r="AJ57" t="s" s="10">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="AK57" t="s" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58">
@@ -6755,28 +6761,28 @@
         <v>50.0</v>
       </c>
       <c r="B58" t="n" s="10">
-        <v>978.0</v>
+        <v>928.0</v>
       </c>
       <c r="C58" t="s" s="10">
+        <v>147</v>
+      </c>
+      <c r="D58" t="s" s="10">
+        <v>240</v>
+      </c>
+      <c r="E58" t="s" s="10">
+        <v>227</v>
+      </c>
+      <c r="F58" t="s" s="10">
         <v>241</v>
-      </c>
-      <c r="D58" t="s" s="10">
-        <v>89</v>
-      </c>
-      <c r="E58" t="s" s="10">
-        <v>225</v>
-      </c>
-      <c r="F58" t="s" s="10">
-        <v>242</v>
       </c>
       <c r="G58" s="10">
         <f>concatenate(c58,d58,e58,f58)</f>
       </c>
       <c r="H58" t="s" s="10">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I58" t="n" s="10">
-        <v>2.4041021648E10</v>
+        <v>2.4040877468E10</v>
       </c>
       <c r="J58" t="s" s="10">
         <v>41</v>
@@ -6836,10 +6842,10 @@
         <f>AA58+AB58+AC58+AD58+AG58+AH58</f>
       </c>
       <c r="AJ58" t="s" s="10">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AK58" t="s" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59">
@@ -6847,28 +6853,28 @@
         <v>51.0</v>
       </c>
       <c r="B59" t="n" s="10">
-        <v>1028.0</v>
+        <v>978.0</v>
       </c>
       <c r="C59" t="s" s="10">
+        <v>243</v>
+      </c>
+      <c r="D59" t="s" s="10">
+        <v>92</v>
+      </c>
+      <c r="E59" t="s" s="10">
+        <v>227</v>
+      </c>
+      <c r="F59" t="s" s="10">
         <v>244</v>
-      </c>
-      <c r="D59" t="s" s="10">
-        <v>115</v>
-      </c>
-      <c r="E59" t="s" s="10">
-        <v>245</v>
-      </c>
-      <c r="F59" t="s" s="10">
-        <v>246</v>
       </c>
       <c r="G59" s="10">
         <f>concatenate(c59,d59,e59,f59)</f>
       </c>
       <c r="H59" t="s" s="10">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I59" t="n" s="10">
-        <v>2.4056106293E10</v>
+        <v>2.4041021648E10</v>
       </c>
       <c r="J59" t="s" s="10">
         <v>41</v>
@@ -6928,10 +6934,10 @@
         <f>AA59+AB59+AC59+AD59+AG59+AH59</f>
       </c>
       <c r="AJ59" t="s" s="10">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="AK59" t="s" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60">
@@ -6939,28 +6945,28 @@
         <v>52.0</v>
       </c>
       <c r="B60" t="n" s="10">
-        <v>1044.0</v>
+        <v>1028.0</v>
       </c>
       <c r="C60" t="s" s="10">
+        <v>246</v>
+      </c>
+      <c r="D60" t="s" s="10">
+        <v>118</v>
+      </c>
+      <c r="E60" t="s" s="10">
+        <v>247</v>
+      </c>
+      <c r="F60" t="s" s="10">
         <v>248</v>
-      </c>
-      <c r="D60" t="s" s="10">
-        <v>249</v>
-      </c>
-      <c r="E60" t="s" s="10">
-        <v>250</v>
-      </c>
-      <c r="F60" t="s" s="10">
-        <v>54</v>
       </c>
       <c r="G60" s="10">
         <f>concatenate(c60,d60,e60,f60)</f>
       </c>
       <c r="H60" t="s" s="10">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I60" t="n" s="10">
-        <v>2.4056114434E10</v>
+        <v>2.4056106293E10</v>
       </c>
       <c r="J60" t="s" s="10">
         <v>41</v>
@@ -7020,10 +7026,10 @@
         <f>AA60+AB60+AC60+AD60+AG60+AH60</f>
       </c>
       <c r="AJ60" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK60" t="s" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61">
@@ -7031,28 +7037,28 @@
         <v>53.0</v>
       </c>
       <c r="B61" t="n" s="10">
-        <v>1046.0</v>
+        <v>1044.0</v>
       </c>
       <c r="C61" t="s" s="10">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="D61" t="s" s="10">
+        <v>251</v>
+      </c>
+      <c r="E61" t="s" s="10">
         <v>252</v>
       </c>
-      <c r="E61" t="s" s="10">
-        <v>253</v>
-      </c>
       <c r="F61" t="s" s="10">
-        <v>254</v>
+        <v>50</v>
       </c>
       <c r="G61" s="10">
         <f>concatenate(c61,d61,e61,f61)</f>
       </c>
       <c r="H61" t="s" s="10">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I61" t="n" s="10">
-        <v>2.405611458E10</v>
+        <v>2.4056114434E10</v>
       </c>
       <c r="J61" t="s" s="10">
         <v>41</v>
@@ -7112,10 +7118,10 @@
         <f>AA61+AB61+AC61+AD61+AG61+AH61</f>
       </c>
       <c r="AJ61" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK61" t="s" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62">
@@ -7123,28 +7129,28 @@
         <v>54.0</v>
       </c>
       <c r="B62" t="n" s="10">
-        <v>1106.0</v>
+        <v>1046.0</v>
       </c>
       <c r="C62" t="s" s="10">
-        <v>98</v>
+        <v>202</v>
       </c>
       <c r="D62" t="s" s="10">
+        <v>254</v>
+      </c>
+      <c r="E62" t="s" s="10">
+        <v>255</v>
+      </c>
+      <c r="F62" t="s" s="10">
         <v>256</v>
-      </c>
-      <c r="E62" t="s" s="10">
-        <v>257</v>
-      </c>
-      <c r="F62" t="s" s="10">
-        <v>258</v>
       </c>
       <c r="G62" s="10">
         <f>concatenate(c62,d62,e62,f62)</f>
       </c>
       <c r="H62" t="s" s="10">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I62" t="n" s="10">
-        <v>2.4057413329E10</v>
+        <v>2.405611458E10</v>
       </c>
       <c r="J62" t="s" s="10">
         <v>41</v>
@@ -7204,10 +7210,10 @@
         <f>AA62+AB62+AC62+AD62+AG62+AH62</f>
       </c>
       <c r="AJ62" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK62" t="s" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63">
@@ -7215,28 +7221,28 @@
         <v>55.0</v>
       </c>
       <c r="B63" t="n" s="10">
-        <v>1108.0</v>
+        <v>1106.0</v>
       </c>
       <c r="C63" t="s" s="10">
+        <v>101</v>
+      </c>
+      <c r="D63" t="s" s="10">
+        <v>258</v>
+      </c>
+      <c r="E63" t="s" s="10">
+        <v>259</v>
+      </c>
+      <c r="F63" t="s" s="10">
         <v>260</v>
-      </c>
-      <c r="D63" t="s" s="10">
-        <v>231</v>
-      </c>
-      <c r="E63" t="s" s="10">
-        <v>261</v>
-      </c>
-      <c r="F63" t="s" s="10">
-        <v>262</v>
       </c>
       <c r="G63" s="10">
         <f>concatenate(c63,d63,e63,f63)</f>
       </c>
       <c r="H63" t="s" s="10">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I63" t="n" s="10">
-        <v>2.4057558006E10</v>
+        <v>2.4057413329E10</v>
       </c>
       <c r="J63" t="s" s="10">
         <v>41</v>
@@ -7296,39 +7302,39 @@
         <f>AA63+AB63+AC63+AD63+AG63+AH63</f>
       </c>
       <c r="AJ63" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK63" t="s" s="10">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n" s="10">
         <v>56.0</v>
       </c>
-      <c r="B64" t="n" s="7">
-        <v>221.0</v>
-      </c>
-      <c r="C64" t="s" s="7">
+      <c r="B64" t="n" s="10">
+        <v>1108.0</v>
+      </c>
+      <c r="C64" t="s" s="10">
+        <v>262</v>
+      </c>
+      <c r="D64" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="E64" t="s" s="10">
+        <v>263</v>
+      </c>
+      <c r="F64" t="s" s="10">
         <v>264</v>
       </c>
-      <c r="D64" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="E64" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="F64" t="s" s="7">
+      <c r="G64" s="10">
+        <f>concatenate(c64,d64,e64,f64)</f>
+      </c>
+      <c r="H64" t="s" s="10">
         <v>265</v>
       </c>
-      <c r="G64" s="7">
-        <f>concatenate(c64,d64,e64,f64)</f>
-      </c>
-      <c r="H64" t="s" s="7">
-        <v>266</v>
-      </c>
       <c r="I64" t="n" s="10">
-        <v>2.4040980566E10</v>
+        <v>2.4057558006E10</v>
       </c>
       <c r="J64" t="s" s="10">
         <v>41</v>
@@ -7388,39 +7394,39 @@
         <f>AA64+AB64+AC64+AD64+AG64+AH64</f>
       </c>
       <c r="AJ64" t="s" s="10">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="AK64" t="s" s="10">
-        <v>267</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n" s="10">
         <v>57.0</v>
       </c>
-      <c r="B65" t="n" s="10">
-        <v>484.0</v>
-      </c>
-      <c r="C65" t="s" s="10">
+      <c r="B65" t="n" s="7">
+        <v>221.0</v>
+      </c>
+      <c r="C65" t="s" s="7">
+        <v>266</v>
+      </c>
+      <c r="D65" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="E65" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="F65" t="s" s="7">
+        <v>267</v>
+      </c>
+      <c r="G65" s="7">
+        <f>concatenate(c65,d65,e65,f65)</f>
+      </c>
+      <c r="H65" t="s" s="7">
         <v>268</v>
       </c>
-      <c r="D65" t="s" s="10">
-        <v>200</v>
-      </c>
-      <c r="E65" t="s" s="10">
-        <v>132</v>
-      </c>
-      <c r="F65" t="s" s="10">
-        <v>54</v>
-      </c>
-      <c r="G65" s="10">
-        <f>concatenate(c65,d65,e65,f65)</f>
-      </c>
-      <c r="H65" t="s" s="10">
-        <v>269</v>
-      </c>
       <c r="I65" t="n" s="10">
-        <v>2.404147226E10</v>
+        <v>2.4040980566E10</v>
       </c>
       <c r="J65" t="s" s="10">
         <v>41</v>
@@ -7480,10 +7486,10 @@
         <f>AA65+AB65+AC65+AD65+AG65+AH65</f>
       </c>
       <c r="AJ65" t="s" s="10">
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="AK65" t="s" s="10">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="66">
@@ -7491,28 +7497,28 @@
         <v>58.0</v>
       </c>
       <c r="B66" t="n" s="10">
-        <v>768.0</v>
+        <v>484.0</v>
       </c>
       <c r="C66" t="s" s="10">
-        <v>114</v>
+        <v>270</v>
       </c>
       <c r="D66" t="s" s="10">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="E66" t="s" s="10">
-        <v>271</v>
+        <v>135</v>
       </c>
       <c r="F66" t="s" s="10">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="G66" s="10">
         <f>concatenate(c66,d66,e66,f66)</f>
       </c>
       <c r="H66" t="s" s="10">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I66" t="n" s="10">
-        <v>2.4048444831E10</v>
+        <v>2.404147226E10</v>
       </c>
       <c r="J66" t="s" s="10">
         <v>41</v>
@@ -7572,10 +7578,10 @@
         <f>AA66+AB66+AC66+AD66+AG66+AH66</f>
       </c>
       <c r="AJ66" t="s" s="10">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AK66" t="s" s="10">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="67">
@@ -7583,28 +7589,28 @@
         <v>59.0</v>
       </c>
       <c r="B67" t="n" s="10">
-        <v>798.0</v>
+        <v>768.0</v>
       </c>
       <c r="C67" t="s" s="10">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="D67" t="s" s="10">
+        <v>50</v>
+      </c>
+      <c r="E67" t="s" s="10">
+        <v>273</v>
+      </c>
+      <c r="F67" t="s" s="10">
         <v>274</v>
-      </c>
-      <c r="E67" t="s" s="10">
-        <v>225</v>
-      </c>
-      <c r="F67" t="s" s="10">
-        <v>275</v>
       </c>
       <c r="G67" s="10">
         <f>concatenate(c67,d67,e67,f67)</f>
       </c>
       <c r="H67" t="s" s="10">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I67" t="n" s="10">
-        <v>2.4051430566E10</v>
+        <v>2.4048444831E10</v>
       </c>
       <c r="J67" t="s" s="10">
         <v>41</v>
@@ -7664,10 +7670,10 @@
         <f>AA67+AB67+AC67+AD67+AG67+AH67</f>
       </c>
       <c r="AJ67" t="s" s="10">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AK67" t="s" s="10">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="68">
@@ -7675,28 +7681,28 @@
         <v>60.0</v>
       </c>
       <c r="B68" t="n" s="10">
-        <v>826.0</v>
+        <v>798.0</v>
       </c>
       <c r="C68" t="s" s="10">
-        <v>230</v>
+        <v>172</v>
       </c>
       <c r="D68" t="s" s="10">
+        <v>276</v>
+      </c>
+      <c r="E68" t="s" s="10">
+        <v>227</v>
+      </c>
+      <c r="F68" t="s" s="10">
         <v>277</v>
-      </c>
-      <c r="E68" t="s" s="10">
-        <v>196</v>
-      </c>
-      <c r="F68" t="s" s="10">
-        <v>278</v>
       </c>
       <c r="G68" s="10">
         <f>concatenate(c68,d68,e68,f68)</f>
       </c>
       <c r="H68" t="s" s="10">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I68" t="n" s="10">
-        <v>2.4046973465E10</v>
+        <v>2.4051430566E10</v>
       </c>
       <c r="J68" t="s" s="10">
         <v>41</v>
@@ -7756,10 +7762,10 @@
         <f>AA68+AB68+AC68+AD68+AG68+AH68</f>
       </c>
       <c r="AJ68" t="s" s="10">
-        <v>181</v>
+        <v>272</v>
       </c>
       <c r="AK68" t="s" s="10">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="69">
@@ -7767,28 +7773,28 @@
         <v>61.0</v>
       </c>
       <c r="B69" t="n" s="10">
-        <v>832.0</v>
+        <v>826.0</v>
       </c>
       <c r="C69" t="s" s="10">
+        <v>232</v>
+      </c>
+      <c r="D69" t="s" s="10">
+        <v>279</v>
+      </c>
+      <c r="E69" t="s" s="10">
+        <v>199</v>
+      </c>
+      <c r="F69" t="s" s="10">
         <v>280</v>
-      </c>
-      <c r="D69" t="s" s="10">
-        <v>54</v>
-      </c>
-      <c r="E69" t="s" s="10">
-        <v>281</v>
-      </c>
-      <c r="F69" t="s" s="10">
-        <v>282</v>
       </c>
       <c r="G69" s="10">
         <f>concatenate(c69,d69,e69,f69)</f>
       </c>
       <c r="H69" t="s" s="10">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I69" t="n" s="10">
-        <v>2.4053029892E10</v>
+        <v>2.4046973465E10</v>
       </c>
       <c r="J69" t="s" s="10">
         <v>41</v>
@@ -7848,10 +7854,10 @@
         <f>AA69+AB69+AC69+AD69+AG69+AH69</f>
       </c>
       <c r="AJ69" t="s" s="10">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="AK69" t="s" s="10">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="70">
@@ -7859,28 +7865,28 @@
         <v>62.0</v>
       </c>
       <c r="B70" t="n" s="10">
-        <v>834.0</v>
+        <v>832.0</v>
       </c>
       <c r="C70" t="s" s="10">
+        <v>282</v>
+      </c>
+      <c r="D70" t="s" s="10">
+        <v>50</v>
+      </c>
+      <c r="E70" t="s" s="10">
+        <v>283</v>
+      </c>
+      <c r="F70" t="s" s="10">
         <v>284</v>
-      </c>
-      <c r="D70" t="s" s="10">
-        <v>285</v>
-      </c>
-      <c r="E70" t="s" s="10">
-        <v>286</v>
-      </c>
-      <c r="F70" t="s" s="10">
-        <v>287</v>
       </c>
       <c r="G70" s="10">
         <f>concatenate(c70,d70,e70,f70)</f>
       </c>
       <c r="H70" t="s" s="10">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I70" t="n" s="10">
-        <v>2.4053031097E10</v>
+        <v>2.4053029892E10</v>
       </c>
       <c r="J70" t="s" s="10">
         <v>41</v>
@@ -7940,10 +7946,10 @@
         <f>AA70+AB70+AC70+AD70+AG70+AH70</f>
       </c>
       <c r="AJ70" t="s" s="10">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="AK70" t="s" s="10">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="71">
@@ -7951,19 +7957,19 @@
         <v>63.0</v>
       </c>
       <c r="B71" t="n" s="10">
-        <v>837.0</v>
+        <v>834.0</v>
       </c>
       <c r="C71" t="s" s="10">
+        <v>286</v>
+      </c>
+      <c r="D71" t="s" s="10">
+        <v>287</v>
+      </c>
+      <c r="E71" t="s" s="10">
+        <v>288</v>
+      </c>
+      <c r="F71" t="s" s="10">
         <v>289</v>
-      </c>
-      <c r="D71" t="s" s="10">
-        <v>289</v>
-      </c>
-      <c r="E71" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="F71" t="s" s="10">
-        <v>196</v>
       </c>
       <c r="G71" s="10">
         <f>concatenate(c71,d71,e71,f71)</f>
@@ -7972,7 +7978,7 @@
         <v>290</v>
       </c>
       <c r="I71" t="n" s="10">
-        <v>2.4042062301E10</v>
+        <v>2.4053031097E10</v>
       </c>
       <c r="J71" t="s" s="10">
         <v>41</v>
@@ -8032,10 +8038,10 @@
         <f>AA71+AB71+AC71+AD71+AG71+AH71</f>
       </c>
       <c r="AJ71" t="s" s="10">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AK71" t="s" s="10">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="72">
@@ -8043,19 +8049,19 @@
         <v>64.0</v>
       </c>
       <c r="B72" t="n" s="10">
-        <v>851.0</v>
+        <v>837.0</v>
       </c>
       <c r="C72" t="s" s="10">
         <v>291</v>
       </c>
       <c r="D72" t="s" s="10">
-        <v>98</v>
+        <v>291</v>
       </c>
       <c r="E72" t="s" s="10">
-        <v>281</v>
+        <v>46</v>
       </c>
       <c r="F72" t="s" s="10">
-        <v>107</v>
+        <v>199</v>
       </c>
       <c r="G72" s="10">
         <f>concatenate(c72,d72,e72,f72)</f>
@@ -8064,7 +8070,7 @@
         <v>292</v>
       </c>
       <c r="I72" t="n" s="10">
-        <v>2.4053221605E10</v>
+        <v>2.4042062301E10</v>
       </c>
       <c r="J72" t="s" s="10">
         <v>41</v>
@@ -8124,10 +8130,10 @@
         <f>AA72+AB72+AC72+AD72+AG72+AH72</f>
       </c>
       <c r="AJ72" t="s" s="10">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="AK72" t="s" s="10">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="73">
@@ -8135,28 +8141,28 @@
         <v>65.0</v>
       </c>
       <c r="B73" t="n" s="10">
-        <v>855.0</v>
+        <v>851.0</v>
       </c>
       <c r="C73" t="s" s="10">
         <v>293</v>
       </c>
       <c r="D73" t="s" s="10">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="E73" t="s" s="10">
-        <v>196</v>
+        <v>283</v>
       </c>
       <c r="F73" t="s" s="10">
-        <v>294</v>
+        <v>110</v>
       </c>
       <c r="G73" s="10">
         <f>concatenate(c73,d73,e73,f73)</f>
       </c>
       <c r="H73" t="s" s="10">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I73" t="n" s="10">
-        <v>2.405358386E10</v>
+        <v>2.4053221605E10</v>
       </c>
       <c r="J73" t="s" s="10">
         <v>41</v>
@@ -8216,10 +8222,10 @@
         <f>AA73+AB73+AC73+AD73+AG73+AH73</f>
       </c>
       <c r="AJ73" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK73" t="s" s="10">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="74">
@@ -8227,28 +8233,28 @@
         <v>66.0</v>
       </c>
       <c r="B74" t="n" s="10">
-        <v>861.0</v>
+        <v>855.0</v>
       </c>
       <c r="C74" t="s" s="10">
+        <v>295</v>
+      </c>
+      <c r="D74" t="s" s="10">
+        <v>176</v>
+      </c>
+      <c r="E74" t="s" s="10">
+        <v>199</v>
+      </c>
+      <c r="F74" t="s" s="10">
         <v>296</v>
-      </c>
-      <c r="D74" t="s" s="10">
-        <v>297</v>
-      </c>
-      <c r="E74" t="s" s="10">
-        <v>281</v>
-      </c>
-      <c r="F74" t="s" s="10">
-        <v>298</v>
       </c>
       <c r="G74" s="10">
         <f>concatenate(c74,d74,e74,f74)</f>
       </c>
       <c r="H74" t="s" s="10">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I74" t="n" s="10">
-        <v>2.4053670384E10</v>
+        <v>2.405358386E10</v>
       </c>
       <c r="J74" t="s" s="10">
         <v>41</v>
@@ -8308,10 +8314,10 @@
         <f>AA74+AB74+AC74+AD74+AG74+AH74</f>
       </c>
       <c r="AJ74" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK74" t="s" s="10">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="75">
@@ -8319,28 +8325,28 @@
         <v>67.0</v>
       </c>
       <c r="B75" t="n" s="10">
-        <v>938.0</v>
+        <v>861.0</v>
       </c>
       <c r="C75" t="s" s="10">
+        <v>298</v>
+      </c>
+      <c r="D75" t="s" s="10">
+        <v>299</v>
+      </c>
+      <c r="E75" t="s" s="10">
+        <v>283</v>
+      </c>
+      <c r="F75" t="s" s="10">
         <v>300</v>
-      </c>
-      <c r="D75" t="s" s="10">
-        <v>301</v>
-      </c>
-      <c r="E75" t="s" s="10">
-        <v>302</v>
-      </c>
-      <c r="F75" t="s" s="10">
-        <v>303</v>
       </c>
       <c r="G75" s="10">
         <f>concatenate(c75,d75,e75,f75)</f>
       </c>
       <c r="H75" t="s" s="10">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I75" t="n" s="10">
-        <v>2.4054779741E10</v>
+        <v>2.4053670384E10</v>
       </c>
       <c r="J75" t="s" s="10">
         <v>41</v>
@@ -8400,10 +8406,10 @@
         <f>AA75+AB75+AC75+AD75+AG75+AH75</f>
       </c>
       <c r="AJ75" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK75" t="s" s="10">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="76">
@@ -8411,28 +8417,28 @@
         <v>68.0</v>
       </c>
       <c r="B76" t="n" s="10">
-        <v>975.0</v>
+        <v>938.0</v>
       </c>
       <c r="C76" t="s" s="10">
+        <v>302</v>
+      </c>
+      <c r="D76" t="s" s="10">
+        <v>303</v>
+      </c>
+      <c r="E76" t="s" s="10">
+        <v>304</v>
+      </c>
+      <c r="F76" t="s" s="10">
         <v>305</v>
-      </c>
-      <c r="D76" t="s" s="10">
-        <v>104</v>
-      </c>
-      <c r="E76" t="s" s="10">
-        <v>306</v>
-      </c>
-      <c r="F76" t="s" s="10">
-        <v>54</v>
       </c>
       <c r="G76" s="10">
         <f>concatenate(c76,d76,e76,f76)</f>
       </c>
       <c r="H76" t="s" s="10">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I76" t="n" s="10">
-        <v>2.4052657078E10</v>
+        <v>2.4054779741E10</v>
       </c>
       <c r="J76" t="s" s="10">
         <v>41</v>
@@ -8492,10 +8498,10 @@
         <f>AA76+AB76+AC76+AD76+AG76+AH76</f>
       </c>
       <c r="AJ76" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK76" t="s" s="10">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="77">
@@ -8503,28 +8509,28 @@
         <v>69.0</v>
       </c>
       <c r="B77" t="n" s="10">
-        <v>979.0</v>
+        <v>975.0</v>
       </c>
       <c r="C77" t="s" s="10">
+        <v>307</v>
+      </c>
+      <c r="D77" t="s" s="10">
+        <v>107</v>
+      </c>
+      <c r="E77" t="s" s="10">
         <v>308</v>
       </c>
-      <c r="D77" t="s" s="10">
-        <v>309</v>
-      </c>
-      <c r="E77" t="s" s="10">
-        <v>310</v>
-      </c>
       <c r="F77" t="s" s="10">
-        <v>311</v>
+        <v>50</v>
       </c>
       <c r="G77" s="10">
         <f>concatenate(c77,d77,e77,f77)</f>
       </c>
       <c r="H77" t="s" s="10">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I77" t="n" s="10">
-        <v>2.4055405207E10</v>
+        <v>2.4052657078E10</v>
       </c>
       <c r="J77" t="s" s="10">
         <v>41</v>
@@ -8584,10 +8590,10 @@
         <f>AA77+AB77+AC77+AD77+AG77+AH77</f>
       </c>
       <c r="AJ77" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK77" t="s" s="10">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="78">
@@ -8595,28 +8601,28 @@
         <v>70.0</v>
       </c>
       <c r="B78" t="n" s="10">
-        <v>1073.0</v>
+        <v>979.0</v>
       </c>
       <c r="C78" t="s" s="10">
+        <v>310</v>
+      </c>
+      <c r="D78" t="s" s="10">
+        <v>311</v>
+      </c>
+      <c r="E78" t="s" s="10">
+        <v>312</v>
+      </c>
+      <c r="F78" t="s" s="10">
         <v>313</v>
-      </c>
-      <c r="D78" t="s" s="10">
-        <v>144</v>
-      </c>
-      <c r="E78" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="F78" t="s" s="10">
-        <v>314</v>
       </c>
       <c r="G78" s="10">
         <f>concatenate(c78,d78,e78,f78)</f>
       </c>
       <c r="H78" t="s" s="10">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I78" t="n" s="10">
-        <v>2.4052656277E10</v>
+        <v>2.4055405207E10</v>
       </c>
       <c r="J78" t="s" s="10">
         <v>41</v>
@@ -8676,39 +8682,39 @@
         <f>AA78+AB78+AC78+AD78+AG78+AH78</f>
       </c>
       <c r="AJ78" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK78" t="s" s="10">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n" s="10">
         <v>71.0</v>
       </c>
-      <c r="B79" t="n" s="7">
-        <v>-4.0</v>
-      </c>
-      <c r="C79" t="s" s="7">
+      <c r="B79" t="n" s="10">
+        <v>1073.0</v>
+      </c>
+      <c r="C79" t="s" s="10">
+        <v>315</v>
+      </c>
+      <c r="D79" t="s" s="10">
+        <v>147</v>
+      </c>
+      <c r="E79" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="F79" t="s" s="10">
         <v>316</v>
       </c>
-      <c r="D79" t="s" s="7">
-        <v>89</v>
-      </c>
-      <c r="E79" t="s" s="7">
-        <v>149</v>
-      </c>
-      <c r="F79" t="s" s="7">
-        <v>286</v>
-      </c>
-      <c r="G79" s="7">
+      <c r="G79" s="10">
         <f>concatenate(c79,d79,e79,f79)</f>
       </c>
-      <c r="H79" t="s" s="7">
+      <c r="H79" t="s" s="10">
         <v>317</v>
       </c>
       <c r="I79" t="n" s="10">
-        <v>2.4040877482E10</v>
+        <v>2.4052656277E10</v>
       </c>
       <c r="J79" t="s" s="10">
         <v>41</v>
@@ -8768,42 +8774,42 @@
         <f>AA79+AB79+AC79+AD79+AG79+AH79</f>
       </c>
       <c r="AJ79" t="s" s="10">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="AK79" t="s" s="10">
-        <v>318</v>
+        <v>269</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n" s="10">
         <v>72.0</v>
       </c>
-      <c r="B80" t="n" s="10">
-        <v>22.0</v>
-      </c>
-      <c r="C80" t="s" s="10">
+      <c r="B80" t="n" s="7">
+        <v>-4.0</v>
+      </c>
+      <c r="C80" t="s" s="7">
+        <v>318</v>
+      </c>
+      <c r="D80" t="s" s="7">
+        <v>92</v>
+      </c>
+      <c r="E80" t="s" s="7">
+        <v>152</v>
+      </c>
+      <c r="F80" t="s" s="7">
+        <v>288</v>
+      </c>
+      <c r="G80" s="7">
+        <f>concatenate(c80,d80,e80,f80)</f>
+      </c>
+      <c r="H80" t="s" s="7">
         <v>319</v>
       </c>
-      <c r="D80" t="s" s="10">
-        <v>320</v>
-      </c>
-      <c r="E80" t="s" s="10">
-        <v>321</v>
-      </c>
-      <c r="F80" t="s" s="10">
-        <v>54</v>
-      </c>
-      <c r="G80" s="10">
-        <f>concatenate(c80,d80,e80,f80)</f>
-      </c>
-      <c r="H80" t="s" s="10">
-        <v>322</v>
-      </c>
       <c r="I80" t="n" s="10">
-        <v>2.4041023916E10</v>
-      </c>
-      <c r="J80" t="s" s="9">
-        <v>323</v>
+        <v>2.4040877482E10</v>
+      </c>
+      <c r="J80" t="s" s="10">
+        <v>41</v>
       </c>
       <c r="K80" t="s" s="10">
         <v>41</v>
@@ -8827,7 +8833,7 @@
         <v>41</v>
       </c>
       <c r="Y80" t="n" s="10">
-        <v>7.5</v>
+        <v>8.0</v>
       </c>
       <c r="Z80" s="10">
         <f>(689455.0/30)</f>
@@ -8860,10 +8866,10 @@
         <f>AA80+AB80+AC80+AD80+AG80+AH80</f>
       </c>
       <c r="AJ80" t="s" s="10">
-        <v>324</v>
+        <v>105</v>
       </c>
       <c r="AK80" t="s" s="10">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="81">
@@ -8871,31 +8877,31 @@
         <v>73.0</v>
       </c>
       <c r="B81" t="n" s="10">
-        <v>46.0</v>
+        <v>22.0</v>
       </c>
       <c r="C81" t="s" s="10">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D81" t="s" s="10">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E81" t="s" s="10">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F81" t="s" s="10">
-        <v>282</v>
+        <v>50</v>
       </c>
       <c r="G81" s="10">
         <f>concatenate(c81,d81,e81,f81)</f>
       </c>
       <c r="H81" t="s" s="10">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I81" t="n" s="10">
-        <v>2.4041024988E10</v>
+        <v>2.4041023916E10</v>
       </c>
       <c r="J81" t="s" s="9">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K81" t="s" s="10">
         <v>41</v>
@@ -8919,7 +8925,7 @@
         <v>41</v>
       </c>
       <c r="Y81" t="n" s="10">
-        <v>8.0</v>
+        <v>7.5</v>
       </c>
       <c r="Z81" s="10">
         <f>(689455.0/30)</f>
@@ -8952,10 +8958,10 @@
         <f>AA81+AB81+AC81+AD81+AG81+AH81</f>
       </c>
       <c r="AJ81" t="s" s="10">
-        <v>124</v>
+        <v>326</v>
       </c>
       <c r="AK81" t="s" s="10">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="82">
@@ -8963,31 +8969,31 @@
         <v>74.0</v>
       </c>
       <c r="B82" t="n" s="10">
-        <v>148.0</v>
+        <v>46.0</v>
       </c>
       <c r="C82" t="s" s="10">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="D82" t="s" s="10">
-        <v>89</v>
+        <v>328</v>
       </c>
       <c r="E82" t="s" s="10">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F82" t="s" s="10">
-        <v>39</v>
+        <v>284</v>
       </c>
       <c r="G82" s="10">
         <f>concatenate(c82,d82,e82,f82)</f>
       </c>
       <c r="H82" t="s" s="10">
+        <v>330</v>
+      </c>
+      <c r="I82" t="n" s="10">
+        <v>2.4041024988E10</v>
+      </c>
+      <c r="J82" t="s" s="9">
         <v>331</v>
-      </c>
-      <c r="I82" t="n" s="10">
-        <v>2.4041022533E10</v>
-      </c>
-      <c r="J82" t="s" s="10">
-        <v>41</v>
       </c>
       <c r="K82" t="s" s="10">
         <v>41</v>
@@ -9044,10 +9050,10 @@
         <f>AA82+AB82+AC82+AD82+AG82+AH82</f>
       </c>
       <c r="AJ82" t="s" s="10">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="AK82" t="s" s="10">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="83">
@@ -9055,19 +9061,19 @@
         <v>75.0</v>
       </c>
       <c r="B83" t="n" s="10">
-        <v>176.0</v>
+        <v>148.0</v>
       </c>
       <c r="C83" t="s" s="10">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="D83" t="s" s="10">
-        <v>289</v>
+        <v>92</v>
       </c>
       <c r="E83" t="s" s="10">
-        <v>132</v>
+        <v>332</v>
       </c>
       <c r="F83" t="s" s="10">
-        <v>332</v>
+        <v>39</v>
       </c>
       <c r="G83" s="10">
         <f>concatenate(c83,d83,e83,f83)</f>
@@ -9076,7 +9082,7 @@
         <v>333</v>
       </c>
       <c r="I83" t="n" s="10">
-        <v>2.4041022331E10</v>
+        <v>2.4041022533E10</v>
       </c>
       <c r="J83" t="s" s="10">
         <v>41</v>
@@ -9136,10 +9142,10 @@
         <f>AA83+AB83+AC83+AD83+AG83+AH83</f>
       </c>
       <c r="AJ83" t="s" s="10">
-        <v>181</v>
+        <v>105</v>
       </c>
       <c r="AK83" t="s" s="10">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="84">
@@ -9147,28 +9153,28 @@
         <v>76.0</v>
       </c>
       <c r="B84" t="n" s="10">
-        <v>227.0</v>
+        <v>176.0</v>
       </c>
       <c r="C84" t="s" s="10">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D84" t="s" s="10">
+        <v>291</v>
+      </c>
+      <c r="E84" t="s" s="10">
         <v>135</v>
       </c>
-      <c r="E84" t="s" s="10">
-        <v>224</v>
-      </c>
       <c r="F84" t="s" s="10">
-        <v>225</v>
+        <v>334</v>
       </c>
       <c r="G84" s="10">
         <f>concatenate(c84,d84,e84,f84)</f>
       </c>
       <c r="H84" t="s" s="10">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I84" t="n" s="10">
-        <v>2.4041023839E10</v>
+        <v>2.4041022331E10</v>
       </c>
       <c r="J84" t="s" s="10">
         <v>41</v>
@@ -9228,10 +9234,10 @@
         <f>AA84+AB84+AC84+AD84+AG84+AH84</f>
       </c>
       <c r="AJ84" t="s" s="10">
-        <v>324</v>
+        <v>184</v>
       </c>
       <c r="AK84" t="s" s="10">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="85">
@@ -9239,19 +9245,19 @@
         <v>77.0</v>
       </c>
       <c r="B85" t="n" s="10">
-        <v>291.0</v>
+        <v>227.0</v>
       </c>
       <c r="C85" t="s" s="10">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="D85" t="s" s="10">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="E85" t="s" s="10">
-        <v>196</v>
+        <v>52</v>
       </c>
       <c r="F85" t="s" s="10">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="G85" s="10">
         <f>concatenate(c85,d85,e85,f85)</f>
@@ -9260,7 +9266,7 @@
         <v>336</v>
       </c>
       <c r="I85" t="n" s="10">
-        <v>2.4041021819E10</v>
+        <v>2.4041023839E10</v>
       </c>
       <c r="J85" t="s" s="10">
         <v>41</v>
@@ -9320,10 +9326,10 @@
         <f>AA85+AB85+AC85+AD85+AG85+AH85</f>
       </c>
       <c r="AJ85" t="s" s="10">
-        <v>181</v>
+        <v>326</v>
       </c>
       <c r="AK85" t="s" s="10">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="86">
@@ -9331,19 +9337,19 @@
         <v>78.0</v>
       </c>
       <c r="B86" t="n" s="10">
-        <v>442.0</v>
+        <v>291.0</v>
       </c>
       <c r="C86" t="s" s="10">
-        <v>162</v>
+        <v>337</v>
       </c>
       <c r="D86" t="s" s="10">
-        <v>217</v>
+        <v>114</v>
       </c>
       <c r="E86" t="s" s="10">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F86" t="s" s="10">
-        <v>337</v>
+        <v>211</v>
       </c>
       <c r="G86" s="10">
         <f>concatenate(c86,d86,e86,f86)</f>
@@ -9352,7 +9358,7 @@
         <v>338</v>
       </c>
       <c r="I86" t="n" s="10">
-        <v>2.4041022247E10</v>
+        <v>2.4041021819E10</v>
       </c>
       <c r="J86" t="s" s="10">
         <v>41</v>
@@ -9412,10 +9418,10 @@
         <f>AA86+AB86+AC86+AD86+AG86+AH86</f>
       </c>
       <c r="AJ86" t="s" s="10">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AK86" t="s" s="10">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="87">
@@ -9423,28 +9429,28 @@
         <v>79.0</v>
       </c>
       <c r="B87" t="n" s="10">
-        <v>836.0</v>
+        <v>442.0</v>
       </c>
       <c r="C87" t="s" s="10">
+        <v>165</v>
+      </c>
+      <c r="D87" t="s" s="10">
+        <v>220</v>
+      </c>
+      <c r="E87" t="s" s="10">
+        <v>199</v>
+      </c>
+      <c r="F87" t="s" s="10">
         <v>339</v>
-      </c>
-      <c r="D87" t="s" s="10">
-        <v>316</v>
-      </c>
-      <c r="E87" t="s" s="10">
-        <v>340</v>
-      </c>
-      <c r="F87" t="s" s="10">
-        <v>341</v>
       </c>
       <c r="G87" s="10">
         <f>concatenate(c87,d87,e87,f87)</f>
       </c>
       <c r="H87" t="s" s="10">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I87" t="n" s="10">
-        <v>2.4053009766E10</v>
+        <v>2.4041022247E10</v>
       </c>
       <c r="J87" t="s" s="10">
         <v>41</v>
@@ -9504,10 +9510,10 @@
         <f>AA87+AB87+AC87+AD87+AG87+AH87</f>
       </c>
       <c r="AJ87" t="s" s="10">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="AK87" t="s" s="10">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="88">
@@ -9515,28 +9521,28 @@
         <v>80.0</v>
       </c>
       <c r="B88" t="n" s="10">
-        <v>895.0</v>
+        <v>836.0</v>
       </c>
       <c r="C88" t="s" s="10">
+        <v>341</v>
+      </c>
+      <c r="D88" t="s" s="10">
+        <v>318</v>
+      </c>
+      <c r="E88" t="s" s="10">
+        <v>342</v>
+      </c>
+      <c r="F88" t="s" s="10">
         <v>343</v>
-      </c>
-      <c r="D88" t="s" s="10">
-        <v>335</v>
-      </c>
-      <c r="E88" t="s" s="10">
-        <v>344</v>
-      </c>
-      <c r="F88" t="s" s="10">
-        <v>145</v>
       </c>
       <c r="G88" s="10">
         <f>concatenate(c88,d88,e88,f88)</f>
       </c>
       <c r="H88" t="s" s="10">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I88" t="n" s="10">
-        <v>2.4054201541E10</v>
+        <v>2.4053009766E10</v>
       </c>
       <c r="J88" t="s" s="10">
         <v>41</v>
@@ -9596,10 +9602,10 @@
         <f>AA88+AB88+AC88+AD88+AG88+AH88</f>
       </c>
       <c r="AJ88" t="s" s="10">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="AK88" t="s" s="10">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="89">
@@ -9607,19 +9613,19 @@
         <v>81.0</v>
       </c>
       <c r="B89" t="n" s="10">
-        <v>944.0</v>
+        <v>895.0</v>
       </c>
       <c r="C89" t="s" s="10">
-        <v>173</v>
+        <v>345</v>
       </c>
       <c r="D89" t="s" s="10">
-        <v>162</v>
+        <v>337</v>
       </c>
       <c r="E89" t="s" s="10">
-        <v>275</v>
+        <v>346</v>
       </c>
       <c r="F89" t="s" s="10">
-        <v>346</v>
+        <v>148</v>
       </c>
       <c r="G89" s="10">
         <f>concatenate(c89,d89,e89,f89)</f>
@@ -9628,7 +9634,7 @@
         <v>347</v>
       </c>
       <c r="I89" t="n" s="10">
-        <v>2.4054858613E10</v>
+        <v>2.4054201541E10</v>
       </c>
       <c r="J89" t="s" s="10">
         <v>41</v>
@@ -9688,10 +9694,10 @@
         <f>AA89+AB89+AC89+AD89+AG89+AH89</f>
       </c>
       <c r="AJ89" t="s" s="10">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="AK89" t="s" s="10">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="90">
@@ -9699,28 +9705,28 @@
         <v>82.0</v>
       </c>
       <c r="B90" t="n" s="10">
-        <v>960.0</v>
+        <v>944.0</v>
       </c>
       <c r="C90" t="s" s="10">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="D90" t="s" s="10">
+        <v>165</v>
+      </c>
+      <c r="E90" t="s" s="10">
+        <v>277</v>
+      </c>
+      <c r="F90" t="s" s="10">
         <v>348</v>
-      </c>
-      <c r="E90" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="F90" t="s" s="10">
-        <v>349</v>
       </c>
       <c r="G90" s="10">
         <f>concatenate(c90,d90,e90,f90)</f>
       </c>
       <c r="H90" t="s" s="10">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I90" t="n" s="10">
-        <v>2.4055339766E10</v>
+        <v>2.4054858613E10</v>
       </c>
       <c r="J90" t="s" s="10">
         <v>41</v>
@@ -9780,10 +9786,10 @@
         <f>AA90+AB90+AC90+AD90+AG90+AH90</f>
       </c>
       <c r="AJ90" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK90" t="s" s="10">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="91">
@@ -9791,19 +9797,19 @@
         <v>83.0</v>
       </c>
       <c r="B91" t="n" s="10">
-        <v>962.0</v>
+        <v>960.0</v>
       </c>
       <c r="C91" t="s" s="10">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D91" t="s" s="10">
-        <v>199</v>
+        <v>350</v>
       </c>
       <c r="E91" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="F91" t="s" s="10">
         <v>351</v>
-      </c>
-      <c r="F91" t="s" s="10">
-        <v>87</v>
       </c>
       <c r="G91" s="10">
         <f>concatenate(c91,d91,e91,f91)</f>
@@ -9812,7 +9818,7 @@
         <v>352</v>
       </c>
       <c r="I91" t="n" s="10">
-        <v>2.4055339216E10</v>
+        <v>2.4055339766E10</v>
       </c>
       <c r="J91" t="s" s="10">
         <v>41</v>
@@ -9872,10 +9878,10 @@
         <f>AA91+AB91+AC91+AD91+AG91+AH91</f>
       </c>
       <c r="AJ91" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK91" t="s" s="10">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="92">
@@ -9883,28 +9889,28 @@
         <v>84.0</v>
       </c>
       <c r="B92" t="n" s="10">
-        <v>981.0</v>
+        <v>962.0</v>
       </c>
       <c r="C92" t="s" s="10">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="D92" t="s" s="10">
-        <v>90</v>
+        <v>202</v>
       </c>
       <c r="E92" t="s" s="10">
         <v>353</v>
       </c>
       <c r="F92" t="s" s="10">
-        <v>354</v>
+        <v>90</v>
       </c>
       <c r="G92" s="10">
         <f>concatenate(c92,d92,e92,f92)</f>
       </c>
       <c r="H92" t="s" s="10">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I92" t="n" s="10">
-        <v>2.4055406596E10</v>
+        <v>2.4055339216E10</v>
       </c>
       <c r="J92" t="s" s="10">
         <v>41</v>
@@ -9964,10 +9970,10 @@
         <f>AA92+AB92+AC92+AD92+AG92+AH92</f>
       </c>
       <c r="AJ92" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK92" t="s" s="10">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="93">
@@ -9975,19 +9981,19 @@
         <v>85.0</v>
       </c>
       <c r="B93" t="n" s="10">
-        <v>1023.0</v>
+        <v>981.0</v>
       </c>
       <c r="C93" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="D93" t="s" s="10">
+        <v>93</v>
+      </c>
+      <c r="E93" t="s" s="10">
+        <v>355</v>
+      </c>
+      <c r="F93" t="s" s="10">
         <v>356</v>
-      </c>
-      <c r="D93" t="s" s="10">
-        <v>54</v>
-      </c>
-      <c r="E93" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="F93" t="s" s="10">
-        <v>205</v>
       </c>
       <c r="G93" s="10">
         <f>concatenate(c93,d93,e93,f93)</f>
@@ -9996,7 +10002,7 @@
         <v>357</v>
       </c>
       <c r="I93" t="n" s="10">
-        <v>2.4055811097E10</v>
+        <v>2.4055406596E10</v>
       </c>
       <c r="J93" t="s" s="10">
         <v>41</v>
@@ -10056,10 +10062,10 @@
         <f>AA93+AB93+AC93+AD93+AG93+AH93</f>
       </c>
       <c r="AJ93" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK93" t="s" s="10">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="94">
@@ -10067,28 +10073,28 @@
         <v>86.0</v>
       </c>
       <c r="B94" t="n" s="10">
-        <v>1086.0</v>
+        <v>1023.0</v>
       </c>
       <c r="C94" t="s" s="10">
         <v>358</v>
       </c>
       <c r="D94" t="s" s="10">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="E94" t="s" s="10">
-        <v>359</v>
+        <v>46</v>
       </c>
       <c r="F94" t="s" s="10">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="G94" s="10">
         <f>concatenate(c94,d94,e94,f94)</f>
       </c>
       <c r="H94" t="s" s="10">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I94" t="n" s="10">
-        <v>2.4056726293E10</v>
+        <v>2.4055811097E10</v>
       </c>
       <c r="J94" t="s" s="10">
         <v>41</v>
@@ -10148,10 +10154,10 @@
         <f>AA94+AB94+AC94+AD94+AG94+AH94</f>
       </c>
       <c r="AJ94" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK94" t="s" s="10">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="95">
@@ -10159,19 +10165,19 @@
         <v>87.0</v>
       </c>
       <c r="B95" t="n" s="10">
-        <v>1125.0</v>
+        <v>1086.0</v>
       </c>
       <c r="C95" t="s" s="10">
-        <v>190</v>
+        <v>360</v>
       </c>
       <c r="D95" t="s" s="10">
-        <v>190</v>
+        <v>101</v>
       </c>
       <c r="E95" t="s" s="10">
-        <v>55</v>
+        <v>361</v>
       </c>
       <c r="F95" t="s" s="10">
-        <v>361</v>
+        <v>148</v>
       </c>
       <c r="G95" s="10">
         <f>concatenate(c95,d95,e95,f95)</f>
@@ -10180,7 +10186,7 @@
         <v>362</v>
       </c>
       <c r="I95" t="n" s="10">
-        <v>2.4041022658E10</v>
+        <v>2.4056726293E10</v>
       </c>
       <c r="J95" t="s" s="10">
         <v>41</v>
@@ -10240,10 +10246,10 @@
         <f>AA95+AB95+AC95+AD95+AG95+AH95</f>
       </c>
       <c r="AJ95" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK95" t="s" s="10">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="96">
@@ -10251,19 +10257,19 @@
         <v>88.0</v>
       </c>
       <c r="B96" t="n" s="10">
-        <v>1129.0</v>
+        <v>1125.0</v>
       </c>
       <c r="C96" t="s" s="10">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D96" t="s" s="10">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E96" t="s" s="10">
+        <v>60</v>
+      </c>
+      <c r="F96" t="s" s="10">
         <v>363</v>
-      </c>
-      <c r="F96" t="s" s="10">
-        <v>282</v>
       </c>
       <c r="G96" s="10">
         <f>concatenate(c96,d96,e96,f96)</f>
@@ -10272,7 +10278,7 @@
         <v>364</v>
       </c>
       <c r="I96" t="n" s="10">
-        <v>2.4041280579E10</v>
+        <v>2.4041022658E10</v>
       </c>
       <c r="J96" t="s" s="10">
         <v>41</v>
@@ -10332,39 +10338,39 @@
         <f>AA96+AB96+AC96+AD96+AG96+AH96</f>
       </c>
       <c r="AJ96" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK96" t="s" s="10">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n" s="10">
         <v>89.0</v>
       </c>
-      <c r="B97" t="n" s="7">
-        <v>-5.0</v>
-      </c>
-      <c r="C97" t="s" s="7">
+      <c r="B97" t="n" s="10">
+        <v>1129.0</v>
+      </c>
+      <c r="C97" t="s" s="10">
+        <v>193</v>
+      </c>
+      <c r="D97" t="s" s="10">
+        <v>193</v>
+      </c>
+      <c r="E97" t="s" s="10">
         <v>365</v>
       </c>
-      <c r="D97" t="s" s="7">
-        <v>365</v>
-      </c>
-      <c r="E97" t="s" s="7">
+      <c r="F97" t="s" s="10">
+        <v>284</v>
+      </c>
+      <c r="G97" s="10">
+        <f>concatenate(c97,d97,e97,f97)</f>
+      </c>
+      <c r="H97" t="s" s="10">
         <v>366</v>
       </c>
-      <c r="F97" t="s" s="7">
-        <v>367</v>
-      </c>
-      <c r="G97" s="7">
-        <f>concatenate(c97,d97,e97,f97)</f>
-      </c>
-      <c r="H97" t="s" s="7">
-        <v>368</v>
-      </c>
       <c r="I97" t="n" s="10">
-        <v>2.404126672E10</v>
+        <v>2.4041280579E10</v>
       </c>
       <c r="J97" t="s" s="10">
         <v>41</v>
@@ -10424,39 +10430,39 @@
         <f>AA97+AB97+AC97+AD97+AG97+AH97</f>
       </c>
       <c r="AJ97" t="s" s="10">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="AK97" t="s" s="10">
-        <v>366</v>
+        <v>320</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n" s="10">
         <v>90.0</v>
       </c>
-      <c r="B98" t="n" s="10">
-        <v>226.0</v>
-      </c>
-      <c r="C98" t="s" s="10">
+      <c r="B98" t="n" s="7">
+        <v>-5.0</v>
+      </c>
+      <c r="C98" t="s" s="7">
+        <v>367</v>
+      </c>
+      <c r="D98" t="s" s="7">
+        <v>367</v>
+      </c>
+      <c r="E98" t="s" s="7">
+        <v>368</v>
+      </c>
+      <c r="F98" t="s" s="7">
         <v>369</v>
       </c>
-      <c r="D98" t="s" s="10">
-        <v>267</v>
-      </c>
-      <c r="E98" t="s" s="10">
-        <v>179</v>
-      </c>
-      <c r="F98" t="s" s="10">
+      <c r="G98" s="7">
+        <f>concatenate(c98,d98,e98,f98)</f>
+      </c>
+      <c r="H98" t="s" s="7">
         <v>370</v>
       </c>
-      <c r="G98" s="10">
-        <f>concatenate(c98,d98,e98,f98)</f>
-      </c>
-      <c r="H98" t="s" s="10">
-        <v>371</v>
-      </c>
       <c r="I98" t="n" s="10">
-        <v>2.4041022069E10</v>
+        <v>2.404126672E10</v>
       </c>
       <c r="J98" t="s" s="10">
         <v>41</v>
@@ -10516,10 +10522,10 @@
         <f>AA98+AB98+AC98+AD98+AG98+AH98</f>
       </c>
       <c r="AJ98" t="s" s="10">
-        <v>181</v>
+        <v>105</v>
       </c>
       <c r="AK98" t="s" s="10">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="99">
@@ -10527,28 +10533,28 @@
         <v>91.0</v>
       </c>
       <c r="B99" t="n" s="10">
-        <v>235.0</v>
+        <v>226.0</v>
       </c>
       <c r="C99" t="s" s="10">
-        <v>94</v>
+        <v>371</v>
       </c>
       <c r="D99" t="s" s="10">
-        <v>54</v>
+        <v>269</v>
       </c>
       <c r="E99" t="s" s="10">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="F99" t="s" s="10">
-        <v>179</v>
+        <v>372</v>
       </c>
       <c r="G99" s="10">
         <f>concatenate(c99,d99,e99,f99)</f>
       </c>
       <c r="H99" t="s" s="10">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I99" t="n" s="10">
-        <v>2.4040878478E10</v>
+        <v>2.4041022069E10</v>
       </c>
       <c r="J99" t="s" s="10">
         <v>41</v>
@@ -10608,10 +10614,10 @@
         <f>AA99+AB99+AC99+AD99+AG99+AH99</f>
       </c>
       <c r="AJ99" t="s" s="10">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AK99" t="s" s="10">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="100">
@@ -10619,19 +10625,19 @@
         <v>92.0</v>
       </c>
       <c r="B100" t="n" s="10">
-        <v>334.0</v>
+        <v>235.0</v>
       </c>
       <c r="C100" t="s" s="10">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D100" t="s" s="10">
-        <v>157</v>
+        <v>50</v>
       </c>
       <c r="E100" t="s" s="10">
-        <v>196</v>
+        <v>85</v>
       </c>
       <c r="F100" t="s" s="10">
-        <v>373</v>
+        <v>182</v>
       </c>
       <c r="G100" s="10">
         <f>concatenate(c100,d100,e100,f100)</f>
@@ -10640,7 +10646,7 @@
         <v>374</v>
       </c>
       <c r="I100" t="n" s="10">
-        <v>2.4040875563E10</v>
+        <v>2.4040878478E10</v>
       </c>
       <c r="J100" t="s" s="10">
         <v>41</v>
@@ -10700,10 +10706,10 @@
         <f>AA100+AB100+AC100+AD100+AG100+AH100</f>
       </c>
       <c r="AJ100" t="s" s="10">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="AK100" t="s" s="10">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="101">
@@ -10711,28 +10717,28 @@
         <v>93.0</v>
       </c>
       <c r="B101" t="n" s="10">
-        <v>346.0</v>
+        <v>334.0</v>
       </c>
       <c r="C101" t="s" s="10">
+        <v>113</v>
+      </c>
+      <c r="D101" t="s" s="10">
+        <v>160</v>
+      </c>
+      <c r="E101" t="s" s="10">
+        <v>199</v>
+      </c>
+      <c r="F101" t="s" s="10">
         <v>375</v>
-      </c>
-      <c r="D101" t="s" s="10">
-        <v>376</v>
-      </c>
-      <c r="E101" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="F101" t="s" s="10">
-        <v>377</v>
       </c>
       <c r="G101" s="10">
         <f>concatenate(c101,d101,e101,f101)</f>
       </c>
       <c r="H101" t="s" s="10">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I101" t="n" s="10">
-        <v>2.4040980573E10</v>
+        <v>2.4040875563E10</v>
       </c>
       <c r="J101" t="s" s="10">
         <v>41</v>
@@ -10792,10 +10798,10 @@
         <f>AA101+AB101+AC101+AD101+AG101+AH101</f>
       </c>
       <c r="AJ101" t="s" s="10">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="AK101" t="s" s="10">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="102">
@@ -10803,28 +10809,28 @@
         <v>94.0</v>
       </c>
       <c r="B102" t="n" s="10">
-        <v>472.0</v>
+        <v>346.0</v>
       </c>
       <c r="C102" t="s" s="10">
+        <v>377</v>
+      </c>
+      <c r="D102" t="s" s="10">
+        <v>378</v>
+      </c>
+      <c r="E102" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="F102" t="s" s="10">
         <v>379</v>
-      </c>
-      <c r="D102" t="s" s="10">
-        <v>54</v>
-      </c>
-      <c r="E102" t="s" s="10">
-        <v>380</v>
-      </c>
-      <c r="F102" t="s" s="10">
-        <v>381</v>
       </c>
       <c r="G102" s="10">
         <f>concatenate(c102,d102,e102,f102)</f>
       </c>
       <c r="H102" t="s" s="10">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I102" t="n" s="10">
-        <v>2.4040935744E10</v>
+        <v>2.4040980573E10</v>
       </c>
       <c r="J102" t="s" s="10">
         <v>41</v>
@@ -10884,10 +10890,10 @@
         <f>AA102+AB102+AC102+AD102+AG102+AH102</f>
       </c>
       <c r="AJ102" t="s" s="10">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AK102" t="s" s="10">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="103">
@@ -10895,28 +10901,28 @@
         <v>95.0</v>
       </c>
       <c r="B103" t="n" s="10">
-        <v>491.0</v>
+        <v>472.0</v>
       </c>
       <c r="C103" t="s" s="10">
+        <v>381</v>
+      </c>
+      <c r="D103" t="s" s="10">
+        <v>50</v>
+      </c>
+      <c r="E103" t="s" s="10">
+        <v>382</v>
+      </c>
+      <c r="F103" t="s" s="10">
         <v>383</v>
-      </c>
-      <c r="D103" t="s" s="10">
-        <v>74</v>
-      </c>
-      <c r="E103" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="F103" t="s" s="10">
-        <v>384</v>
       </c>
       <c r="G103" s="10">
         <f>concatenate(c103,d103,e103,f103)</f>
       </c>
       <c r="H103" t="s" s="10">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I103" t="n" s="10">
-        <v>2.4041395008E10</v>
+        <v>2.4040935744E10</v>
       </c>
       <c r="J103" t="s" s="10">
         <v>41</v>
@@ -10976,10 +10982,10 @@
         <f>AA103+AB103+AC103+AD103+AG103+AH103</f>
       </c>
       <c r="AJ103" t="s" s="10">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="AK103" t="s" s="10">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="104">
@@ -10987,28 +10993,28 @@
         <v>96.0</v>
       </c>
       <c r="B104" t="n" s="10">
-        <v>502.0</v>
+        <v>491.0</v>
       </c>
       <c r="C104" t="s" s="10">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="D104" t="s" s="10">
-        <v>376</v>
+        <v>78</v>
       </c>
       <c r="E104" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="F104" t="s" s="10">
         <v>386</v>
-      </c>
-      <c r="F104" t="s" s="10">
-        <v>387</v>
       </c>
       <c r="G104" s="10">
         <f>concatenate(c104,d104,e104,f104)</f>
       </c>
       <c r="H104" t="s" s="10">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I104" t="n" s="10">
-        <v>2.4041860146E10</v>
+        <v>2.4041395008E10</v>
       </c>
       <c r="J104" t="s" s="10">
         <v>41</v>
@@ -11068,10 +11074,10 @@
         <f>AA104+AB104+AC104+AD104+AG104+AH104</f>
       </c>
       <c r="AJ104" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK104" t="s" s="10">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="105">
@@ -11079,28 +11085,28 @@
         <v>97.0</v>
       </c>
       <c r="B105" t="n" s="10">
-        <v>892.0</v>
+        <v>502.0</v>
       </c>
       <c r="C105" t="s" s="10">
-        <v>74</v>
+        <v>378</v>
       </c>
       <c r="D105" t="s" s="10">
+        <v>378</v>
+      </c>
+      <c r="E105" t="s" s="10">
+        <v>388</v>
+      </c>
+      <c r="F105" t="s" s="10">
         <v>389</v>
-      </c>
-      <c r="E105" t="s" s="10">
-        <v>390</v>
-      </c>
-      <c r="F105" t="s" s="10">
-        <v>132</v>
       </c>
       <c r="G105" s="10">
         <f>concatenate(c105,d105,e105,f105)</f>
       </c>
       <c r="H105" t="s" s="10">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I105" t="n" s="10">
-        <v>2.4054172489E10</v>
+        <v>2.4041860146E10</v>
       </c>
       <c r="J105" t="s" s="10">
         <v>41</v>
@@ -11160,10 +11166,10 @@
         <f>AA105+AB105+AC105+AD105+AG105+AH105</f>
       </c>
       <c r="AJ105" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK105" t="s" s="10">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="106">
@@ -11171,28 +11177,28 @@
         <v>98.0</v>
       </c>
       <c r="B106" t="n" s="10">
-        <v>1021.0</v>
+        <v>892.0</v>
       </c>
       <c r="C106" t="s" s="10">
+        <v>78</v>
+      </c>
+      <c r="D106" t="s" s="10">
+        <v>391</v>
+      </c>
+      <c r="E106" t="s" s="10">
         <v>392</v>
       </c>
-      <c r="D106" t="s" s="10">
-        <v>393</v>
-      </c>
-      <c r="E106" t="s" s="10">
-        <v>224</v>
-      </c>
       <c r="F106" t="s" s="10">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="G106" s="10">
         <f>concatenate(c106,d106,e106,f106)</f>
       </c>
       <c r="H106" t="s" s="10">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I106" t="n" s="10">
-        <v>2.4055841694E10</v>
+        <v>2.4054172489E10</v>
       </c>
       <c r="J106" t="s" s="10">
         <v>41</v>
@@ -11252,10 +11258,10 @@
         <f>AA106+AB106+AC106+AD106+AG106+AH106</f>
       </c>
       <c r="AJ106" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK106" t="s" s="10">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="107">
@@ -11263,28 +11269,28 @@
         <v>99.0</v>
       </c>
       <c r="B107" t="n" s="10">
-        <v>1050.0</v>
+        <v>1021.0</v>
       </c>
       <c r="C107" t="s" s="10">
-        <v>235</v>
+        <v>394</v>
       </c>
       <c r="D107" t="s" s="10">
         <v>395</v>
       </c>
       <c r="E107" t="s" s="10">
-        <v>396</v>
+        <v>52</v>
       </c>
       <c r="F107" t="s" s="10">
-        <v>397</v>
+        <v>227</v>
       </c>
       <c r="G107" s="10">
         <f>concatenate(c107,d107,e107,f107)</f>
       </c>
       <c r="H107" t="s" s="10">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I107" t="n" s="10">
-        <v>2.4041265556E10</v>
+        <v>2.4055841694E10</v>
       </c>
       <c r="J107" t="s" s="10">
         <v>41</v>
@@ -11344,10 +11350,10 @@
         <f>AA107+AB107+AC107+AD107+AG107+AH107</f>
       </c>
       <c r="AJ107" t="s" s="10">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="AK107" t="s" s="10">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="108">
@@ -11355,28 +11361,28 @@
         <v>100.0</v>
       </c>
       <c r="B108" t="n" s="10">
-        <v>1067.0</v>
+        <v>1050.0</v>
       </c>
       <c r="C108" t="s" s="10">
-        <v>369</v>
+        <v>237</v>
       </c>
       <c r="D108" t="s" s="10">
-        <v>54</v>
+        <v>397</v>
       </c>
       <c r="E108" t="s" s="10">
-        <v>370</v>
+        <v>398</v>
       </c>
       <c r="F108" t="s" s="10">
-        <v>54</v>
+        <v>399</v>
       </c>
       <c r="G108" s="10">
         <f>concatenate(c108,d108,e108,f108)</f>
       </c>
       <c r="H108" t="s" s="10">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I108" t="n" s="10">
-        <v>2.4056458886E10</v>
+        <v>2.4041265556E10</v>
       </c>
       <c r="J108" t="s" s="10">
         <v>41</v>
@@ -11436,10 +11442,10 @@
         <f>AA108+AB108+AC108+AD108+AG108+AH108</f>
       </c>
       <c r="AJ108" t="s" s="10">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="AK108" t="s" s="10">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="109">
@@ -11447,28 +11453,28 @@
         <v>101.0</v>
       </c>
       <c r="B109" t="n" s="10">
-        <v>1080.0</v>
+        <v>1067.0</v>
       </c>
       <c r="C109" t="s" s="10">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="D109" t="s" s="10">
-        <v>401</v>
+        <v>50</v>
       </c>
       <c r="E109" t="s" s="10">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="F109" t="s" s="10">
-        <v>306</v>
+        <v>50</v>
       </c>
       <c r="G109" s="10">
         <f>concatenate(c109,d109,e109,f109)</f>
       </c>
       <c r="H109" t="s" s="10">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I109" t="n" s="10">
-        <v>2.4056675148E10</v>
+        <v>2.4056458886E10</v>
       </c>
       <c r="J109" t="s" s="10">
         <v>41</v>
@@ -11528,10 +11534,10 @@
         <f>AA109+AB109+AC109+AD109+AG109+AH109</f>
       </c>
       <c r="AJ109" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK109" t="s" s="10">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="110">
@@ -11539,28 +11545,28 @@
         <v>102.0</v>
       </c>
       <c r="B110" t="n" s="10">
-        <v>1104.0</v>
+        <v>1080.0</v>
       </c>
       <c r="C110" t="s" s="10">
-        <v>256</v>
+        <v>402</v>
       </c>
       <c r="D110" t="s" s="10">
-        <v>187</v>
+        <v>403</v>
       </c>
       <c r="E110" t="s" s="10">
-        <v>233</v>
+        <v>389</v>
       </c>
       <c r="F110" t="s" s="10">
-        <v>54</v>
+        <v>308</v>
       </c>
       <c r="G110" s="10">
         <f>concatenate(c110,d110,e110,f110)</f>
       </c>
       <c r="H110" t="s" s="10">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I110" t="n" s="10">
-        <v>2.4041264933E10</v>
+        <v>2.4056675148E10</v>
       </c>
       <c r="J110" t="s" s="10">
         <v>41</v>
@@ -11620,10 +11626,10 @@
         <f>AA110+AB110+AC110+AD110+AG110+AH110</f>
       </c>
       <c r="AJ110" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK110" t="s" s="10">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="111">
@@ -11631,19 +11637,19 @@
         <v>103.0</v>
       </c>
       <c r="B111" t="n" s="10">
-        <v>1105.0</v>
+        <v>1104.0</v>
       </c>
       <c r="C111" t="s" s="10">
-        <v>404</v>
+        <v>258</v>
       </c>
       <c r="D111" t="s" s="10">
-        <v>241</v>
+        <v>190</v>
       </c>
       <c r="E111" t="s" s="10">
-        <v>49</v>
+        <v>235</v>
       </c>
       <c r="F111" t="s" s="10">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G111" s="10">
         <f>concatenate(c111,d111,e111,f111)</f>
@@ -11652,7 +11658,7 @@
         <v>405</v>
       </c>
       <c r="I111" t="n" s="10">
-        <v>2.4041022456E10</v>
+        <v>2.4041264933E10</v>
       </c>
       <c r="J111" t="s" s="10">
         <v>41</v>
@@ -11712,39 +11718,39 @@
         <f>AA111+AB111+AC111+AD111+AG111+AH111</f>
       </c>
       <c r="AJ111" t="s" s="10">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="AK111" t="s" s="10">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n" s="10">
         <v>104.0</v>
       </c>
-      <c r="B112" t="n" s="7">
-        <v>-6.0</v>
-      </c>
-      <c r="C112" t="s" s="7">
-        <v>365</v>
-      </c>
-      <c r="D112" t="s" s="7">
-        <v>365</v>
-      </c>
-      <c r="E112" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="F112" t="s" s="7">
-        <v>145</v>
-      </c>
-      <c r="G112" s="7">
+      <c r="B112" t="n" s="10">
+        <v>1105.0</v>
+      </c>
+      <c r="C112" t="s" s="10">
+        <v>406</v>
+      </c>
+      <c r="D112" t="s" s="10">
+        <v>243</v>
+      </c>
+      <c r="E112" t="s" s="10">
+        <v>55</v>
+      </c>
+      <c r="F112" t="s" s="10">
+        <v>50</v>
+      </c>
+      <c r="G112" s="10">
         <f>concatenate(c112,d112,e112,f112)</f>
       </c>
-      <c r="H112" t="s" s="7">
-        <v>406</v>
+      <c r="H112" t="s" s="10">
+        <v>407</v>
       </c>
       <c r="I112" t="n" s="10">
-        <v>2.4040908836E10</v>
+        <v>2.4041022456E10</v>
       </c>
       <c r="J112" t="s" s="10">
         <v>41</v>
@@ -11804,39 +11810,39 @@
         <f>AA112+AB112+AC112+AD112+AG112+AH112</f>
       </c>
       <c r="AJ112" t="s" s="10">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="AK112" t="s" s="10">
-        <v>49</v>
+        <v>368</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n" s="10">
         <v>105.0</v>
       </c>
-      <c r="B113" t="n" s="10">
-        <v>224.0</v>
-      </c>
-      <c r="C113" t="s" s="10">
-        <v>320</v>
-      </c>
-      <c r="D113" t="s" s="10">
+      <c r="B113" t="n" s="7">
+        <v>-6.0</v>
+      </c>
+      <c r="C113" t="s" s="7">
+        <v>367</v>
+      </c>
+      <c r="D113" t="s" s="7">
+        <v>367</v>
+      </c>
+      <c r="E113" t="s" s="7">
+        <v>55</v>
+      </c>
+      <c r="F113" t="s" s="7">
         <v>148</v>
       </c>
-      <c r="E113" t="s" s="10">
-        <v>407</v>
-      </c>
-      <c r="F113" t="s" s="10">
-        <v>81</v>
-      </c>
-      <c r="G113" s="10">
+      <c r="G113" s="7">
         <f>concatenate(c113,d113,e113,f113)</f>
       </c>
-      <c r="H113" t="s" s="10">
+      <c r="H113" t="s" s="7">
         <v>408</v>
       </c>
       <c r="I113" t="n" s="10">
-        <v>2.4040980085E10</v>
+        <v>2.4040908836E10</v>
       </c>
       <c r="J113" t="s" s="10">
         <v>41</v>
@@ -11896,10 +11902,10 @@
         <f>AA113+AB113+AC113+AD113+AG113+AH113</f>
       </c>
       <c r="AJ113" t="s" s="10">
-        <v>181</v>
+        <v>105</v>
       </c>
       <c r="AK113" t="s" s="10">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="114">
@@ -11907,28 +11913,28 @@
         <v>106.0</v>
       </c>
       <c r="B114" t="n" s="10">
-        <v>779.0</v>
+        <v>224.0</v>
       </c>
       <c r="C114" t="s" s="10">
+        <v>322</v>
+      </c>
+      <c r="D114" t="s" s="10">
+        <v>151</v>
+      </c>
+      <c r="E114" t="s" s="10">
         <v>409</v>
       </c>
-      <c r="D114" t="s" s="10">
-        <v>89</v>
-      </c>
-      <c r="E114" t="s" s="10">
-        <v>410</v>
-      </c>
       <c r="F114" t="s" s="10">
-        <v>370</v>
+        <v>85</v>
       </c>
       <c r="G114" s="10">
         <f>concatenate(c114,d114,e114,f114)</f>
       </c>
       <c r="H114" t="s" s="10">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I114" t="n" s="10">
-        <v>2.4050221567E10</v>
+        <v>2.4040980085E10</v>
       </c>
       <c r="J114" t="s" s="10">
         <v>41</v>
@@ -11988,10 +11994,10 @@
         <f>AA114+AB114+AC114+AD114+AG114+AH114</f>
       </c>
       <c r="AJ114" t="s" s="10">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AK114" t="s" s="10">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="115">
@@ -11999,28 +12005,28 @@
         <v>107.0</v>
       </c>
       <c r="B115" t="n" s="10">
-        <v>849.0</v>
+        <v>779.0</v>
       </c>
       <c r="C115" t="s" s="10">
+        <v>411</v>
+      </c>
+      <c r="D115" t="s" s="10">
+        <v>92</v>
+      </c>
+      <c r="E115" t="s" s="10">
         <v>412</v>
       </c>
-      <c r="D115" t="s" s="10">
-        <v>413</v>
-      </c>
-      <c r="E115" t="s" s="10">
-        <v>414</v>
-      </c>
       <c r="F115" t="s" s="10">
-        <v>54</v>
+        <v>372</v>
       </c>
       <c r="G115" s="10">
         <f>concatenate(c115,d115,e115,f115)</f>
       </c>
       <c r="H115" t="s" s="10">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I115" t="n" s="10">
-        <v>2.4041023644E10</v>
+        <v>2.4050221567E10</v>
       </c>
       <c r="J115" t="s" s="10">
         <v>41</v>
@@ -12080,10 +12086,10 @@
         <f>AA115+AB115+AC115+AD115+AG115+AH115</f>
       </c>
       <c r="AJ115" t="s" s="10">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AK115" t="s" s="10">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="116">
@@ -12091,28 +12097,28 @@
         <v>108.0</v>
       </c>
       <c r="B116" t="n" s="10">
-        <v>907.0</v>
+        <v>849.0</v>
       </c>
       <c r="C116" t="s" s="10">
+        <v>414</v>
+      </c>
+      <c r="D116" t="s" s="10">
+        <v>415</v>
+      </c>
+      <c r="E116" t="s" s="10">
         <v>416</v>
       </c>
-      <c r="D116" t="s" s="10">
-        <v>104</v>
-      </c>
-      <c r="E116" t="s" s="10">
-        <v>417</v>
-      </c>
       <c r="F116" t="s" s="10">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G116" s="10">
         <f>concatenate(c116,d116,e116,f116)</f>
       </c>
       <c r="H116" t="s" s="10">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I116" t="n" s="10">
-        <v>2.4054250271E10</v>
+        <v>2.4041023644E10</v>
       </c>
       <c r="J116" t="s" s="10">
         <v>41</v>
@@ -12172,10 +12178,10 @@
         <f>AA116+AB116+AC116+AD116+AG116+AH116</f>
       </c>
       <c r="AJ116" t="s" s="10">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="AK116" t="s" s="10">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="117">
@@ -12183,28 +12189,28 @@
         <v>109.0</v>
       </c>
       <c r="B117" t="n" s="10">
-        <v>993.0</v>
+        <v>907.0</v>
       </c>
       <c r="C117" t="s" s="10">
+        <v>418</v>
+      </c>
+      <c r="D117" t="s" s="10">
+        <v>107</v>
+      </c>
+      <c r="E117" t="s" s="10">
         <v>419</v>
       </c>
-      <c r="D117" t="s" s="10">
-        <v>85</v>
-      </c>
-      <c r="E117" t="s" s="10">
-        <v>420</v>
-      </c>
       <c r="F117" t="s" s="10">
-        <v>421</v>
+        <v>50</v>
       </c>
       <c r="G117" s="10">
         <f>concatenate(c117,d117,e117,f117)</f>
       </c>
       <c r="H117" t="s" s="10">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I117" t="n" s="10">
-        <v>2.4056382105E10</v>
+        <v>2.4054250271E10</v>
       </c>
       <c r="J117" t="s" s="10">
         <v>41</v>
@@ -12264,10 +12270,10 @@
         <f>AA117+AB117+AC117+AD117+AG117+AH117</f>
       </c>
       <c r="AJ117" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK117" t="s" s="10">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="118">
@@ -12275,19 +12281,19 @@
         <v>110.0</v>
       </c>
       <c r="B118" t="n" s="10">
-        <v>1031.0</v>
+        <v>993.0</v>
       </c>
       <c r="C118" t="s" s="10">
-        <v>169</v>
+        <v>421</v>
       </c>
       <c r="D118" t="s" s="10">
-        <v>169</v>
+        <v>88</v>
       </c>
       <c r="E118" t="s" s="10">
+        <v>422</v>
+      </c>
+      <c r="F118" t="s" s="10">
         <v>423</v>
-      </c>
-      <c r="F118" t="s" s="10">
-        <v>132</v>
       </c>
       <c r="G118" s="10">
         <f>concatenate(c118,d118,e118,f118)</f>
@@ -12296,7 +12302,7 @@
         <v>424</v>
       </c>
       <c r="I118" t="n" s="10">
-        <v>2.4046148074E10</v>
+        <v>2.4056382105E10</v>
       </c>
       <c r="J118" t="s" s="10">
         <v>41</v>
@@ -12356,39 +12362,39 @@
         <f>AA118+AB118+AC118+AD118+AG118+AH118</f>
       </c>
       <c r="AJ118" t="s" s="10">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="AK118" t="s" s="10">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n" s="10">
         <v>111.0</v>
       </c>
-      <c r="B119" t="n" s="7">
-        <v>140.0</v>
-      </c>
-      <c r="C119" t="s" s="7">
-        <v>289</v>
-      </c>
-      <c r="D119" t="s" s="7">
-        <v>320</v>
-      </c>
-      <c r="E119" t="s" s="7">
+      <c r="B119" t="n" s="10">
+        <v>1031.0</v>
+      </c>
+      <c r="C119" t="s" s="10">
+        <v>172</v>
+      </c>
+      <c r="D119" t="s" s="10">
+        <v>172</v>
+      </c>
+      <c r="E119" t="s" s="10">
         <v>425</v>
       </c>
-      <c r="F119" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="G119" s="7">
+      <c r="F119" t="s" s="10">
+        <v>135</v>
+      </c>
+      <c r="G119" s="10">
         <f>concatenate(c119,d119,e119,f119)</f>
       </c>
-      <c r="H119" t="s" s="7">
+      <c r="H119" t="s" s="10">
         <v>426</v>
       </c>
       <c r="I119" t="n" s="10">
-        <v>2.4040876218E10</v>
+        <v>2.4046148074E10</v>
       </c>
       <c r="J119" t="s" s="10">
         <v>41</v>
@@ -12448,39 +12454,39 @@
         <f>AA119+AB119+AC119+AD119+AG119+AH119</f>
       </c>
       <c r="AJ119" t="s" s="10">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="AK119" t="s" s="10">
-        <v>427</v>
+        <v>55</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n" s="10">
         <v>112.0</v>
       </c>
-      <c r="B120" t="n" s="10">
-        <v>199.0</v>
-      </c>
-      <c r="C120" t="s" s="10">
+      <c r="B120" t="n" s="7">
+        <v>140.0</v>
+      </c>
+      <c r="C120" t="s" s="7">
+        <v>291</v>
+      </c>
+      <c r="D120" t="s" s="7">
+        <v>322</v>
+      </c>
+      <c r="E120" t="s" s="7">
+        <v>427</v>
+      </c>
+      <c r="F120" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="G120" s="7">
+        <f>concatenate(c120,d120,e120,f120)</f>
+      </c>
+      <c r="H120" t="s" s="7">
         <v>428</v>
       </c>
-      <c r="D120" t="s" s="10">
-        <v>169</v>
-      </c>
-      <c r="E120" t="s" s="10">
-        <v>55</v>
-      </c>
-      <c r="F120" t="s" s="10">
-        <v>275</v>
-      </c>
-      <c r="G120" s="10">
-        <f>concatenate(c120,d120,e120,f120)</f>
-      </c>
-      <c r="H120" t="s" s="10">
-        <v>429</v>
-      </c>
       <c r="I120" t="n" s="10">
-        <v>2.4041596515E10</v>
+        <v>2.4040876218E10</v>
       </c>
       <c r="J120" t="s" s="10">
         <v>41</v>
@@ -12540,10 +12546,10 @@
         <f>AA120+AB120+AC120+AD120+AG120+AH120</f>
       </c>
       <c r="AJ120" t="s" s="10">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="AK120" t="s" s="10">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="121">
@@ -12551,28 +12557,28 @@
         <v>113.0</v>
       </c>
       <c r="B121" t="n" s="10">
-        <v>313.0</v>
+        <v>199.0</v>
       </c>
       <c r="C121" t="s" s="10">
-        <v>241</v>
+        <v>430</v>
       </c>
       <c r="D121" t="s" s="10">
-        <v>241</v>
+        <v>172</v>
       </c>
       <c r="E121" t="s" s="10">
-        <v>386</v>
+        <v>60</v>
       </c>
       <c r="F121" t="s" s="10">
-        <v>145</v>
+        <v>277</v>
       </c>
       <c r="G121" s="10">
         <f>concatenate(c121,d121,e121,f121)</f>
       </c>
       <c r="H121" t="s" s="10">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I121" t="n" s="10">
-        <v>2.4041022704E10</v>
+        <v>2.4041596515E10</v>
       </c>
       <c r="J121" t="s" s="10">
         <v>41</v>
@@ -12632,10 +12638,10 @@
         <f>AA121+AB121+AC121+AD121+AG121+AH121</f>
       </c>
       <c r="AJ121" t="s" s="10">
-        <v>431</v>
+        <v>127</v>
       </c>
       <c r="AK121" t="s" s="10">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="122">
@@ -12643,28 +12649,28 @@
         <v>114.0</v>
       </c>
       <c r="B122" t="n" s="10">
-        <v>325.0</v>
+        <v>313.0</v>
       </c>
       <c r="C122" t="s" s="10">
-        <v>199</v>
+        <v>243</v>
       </c>
       <c r="D122" t="s" s="10">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E122" t="s" s="10">
-        <v>281</v>
+        <v>388</v>
       </c>
       <c r="F122" t="s" s="10">
-        <v>432</v>
+        <v>148</v>
       </c>
       <c r="G122" s="10">
         <f>concatenate(c122,d122,e122,f122)</f>
       </c>
       <c r="H122" t="s" s="10">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I122" t="n" s="10">
-        <v>2.4041023017E10</v>
+        <v>2.4041022704E10</v>
       </c>
       <c r="J122" t="s" s="10">
         <v>41</v>
@@ -12724,10 +12730,10 @@
         <f>AA122+AB122+AC122+AD122+AG122+AH122</f>
       </c>
       <c r="AJ122" t="s" s="10">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AK122" t="s" s="10">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="123">
@@ -12735,28 +12741,28 @@
         <v>115.0</v>
       </c>
       <c r="B123" t="n" s="10">
-        <v>329.0</v>
+        <v>325.0</v>
       </c>
       <c r="C123" t="s" s="10">
+        <v>202</v>
+      </c>
+      <c r="D123" t="s" s="10">
+        <v>254</v>
+      </c>
+      <c r="E123" t="s" s="10">
+        <v>283</v>
+      </c>
+      <c r="F123" t="s" s="10">
         <v>434</v>
-      </c>
-      <c r="D123" t="s" s="10">
-        <v>434</v>
-      </c>
-      <c r="E123" t="s" s="10">
-        <v>435</v>
-      </c>
-      <c r="F123" t="s" s="10">
-        <v>436</v>
       </c>
       <c r="G123" s="10">
         <f>concatenate(c123,d123,e123,f123)</f>
       </c>
       <c r="H123" t="s" s="10">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I123" t="n" s="10">
-        <v>2.4041022805E10</v>
+        <v>2.4041023017E10</v>
       </c>
       <c r="J123" t="s" s="10">
         <v>41</v>
@@ -12816,10 +12822,10 @@
         <f>AA123+AB123+AC123+AD123+AG123+AH123</f>
       </c>
       <c r="AJ123" t="s" s="10">
-        <v>124</v>
+        <v>433</v>
       </c>
       <c r="AK123" t="s" s="10">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="124">
@@ -12827,28 +12833,28 @@
         <v>116.0</v>
       </c>
       <c r="B124" t="n" s="10">
-        <v>545.0</v>
+        <v>329.0</v>
       </c>
       <c r="C124" t="s" s="10">
+        <v>436</v>
+      </c>
+      <c r="D124" t="s" s="10">
+        <v>436</v>
+      </c>
+      <c r="E124" t="s" s="10">
+        <v>437</v>
+      </c>
+      <c r="F124" t="s" s="10">
         <v>438</v>
-      </c>
-      <c r="D124" t="s" s="10">
-        <v>231</v>
-      </c>
-      <c r="E124" t="s" s="10">
-        <v>439</v>
-      </c>
-      <c r="F124" t="s" s="10">
-        <v>107</v>
       </c>
       <c r="G124" s="10">
         <f>concatenate(c124,d124,e124,f124)</f>
       </c>
       <c r="H124" t="s" s="10">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I124" t="n" s="10">
-        <v>2.4042181101E10</v>
+        <v>2.4041022805E10</v>
       </c>
       <c r="J124" t="s" s="10">
         <v>41</v>
@@ -12908,10 +12914,10 @@
         <f>AA124+AB124+AC124+AD124+AG124+AH124</f>
       </c>
       <c r="AJ124" t="s" s="10">
-        <v>431</v>
+        <v>127</v>
       </c>
       <c r="AK124" t="s" s="10">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="125">
@@ -12919,19 +12925,19 @@
         <v>117.0</v>
       </c>
       <c r="B125" t="n" s="10">
-        <v>557.0</v>
+        <v>545.0</v>
       </c>
       <c r="C125" t="s" s="10">
-        <v>376</v>
+        <v>440</v>
       </c>
       <c r="D125" t="s" s="10">
-        <v>395</v>
+        <v>233</v>
       </c>
       <c r="E125" t="s" s="10">
         <v>441</v>
       </c>
       <c r="F125" t="s" s="10">
-        <v>227</v>
+        <v>110</v>
       </c>
       <c r="G125" s="10">
         <f>concatenate(c125,d125,e125,f125)</f>
@@ -12940,7 +12946,7 @@
         <v>442</v>
       </c>
       <c r="I125" t="n" s="10">
-        <v>2.4042489083E10</v>
+        <v>2.4042181101E10</v>
       </c>
       <c r="J125" t="s" s="10">
         <v>41</v>
@@ -13000,10 +13006,10 @@
         <f>AA125+AB125+AC125+AD125+AG125+AH125</f>
       </c>
       <c r="AJ125" t="s" s="10">
-        <v>124</v>
+        <v>433</v>
       </c>
       <c r="AK125" t="s" s="10">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="126">
@@ -13011,28 +13017,28 @@
         <v>118.0</v>
       </c>
       <c r="B126" t="n" s="10">
-        <v>706.0</v>
+        <v>557.0</v>
       </c>
       <c r="C126" t="s" s="10">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="D126" t="s" s="10">
-        <v>173</v>
+        <v>397</v>
       </c>
       <c r="E126" t="s" s="10">
         <v>443</v>
       </c>
       <c r="F126" t="s" s="10">
-        <v>444</v>
+        <v>229</v>
       </c>
       <c r="G126" s="10">
         <f>concatenate(c126,d126,e126,f126)</f>
       </c>
       <c r="H126" t="s" s="10">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I126" t="n" s="10">
-        <v>2.4045679962E10</v>
+        <v>2.4042489083E10</v>
       </c>
       <c r="J126" t="s" s="10">
         <v>41</v>
@@ -13092,39 +13098,39 @@
         <f>AA126+AB126+AC126+AD126+AG126+AH126</f>
       </c>
       <c r="AJ126" t="s" s="10">
-        <v>431</v>
+        <v>127</v>
       </c>
       <c r="AK126" t="s" s="10">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n" s="10">
         <v>119.0</v>
       </c>
-      <c r="B127" t="n" s="7">
-        <v>331.0</v>
-      </c>
-      <c r="C127" t="s" s="7">
-        <v>280</v>
-      </c>
-      <c r="D127" t="s" s="7">
-        <v>157</v>
-      </c>
-      <c r="E127" t="s" s="7">
-        <v>281</v>
-      </c>
-      <c r="F127" t="s" s="7">
-        <v>233</v>
-      </c>
-      <c r="G127" s="7">
+      <c r="B127" t="n" s="10">
+        <v>706.0</v>
+      </c>
+      <c r="C127" t="s" s="10">
+        <v>291</v>
+      </c>
+      <c r="D127" t="s" s="10">
+        <v>176</v>
+      </c>
+      <c r="E127" t="s" s="10">
+        <v>445</v>
+      </c>
+      <c r="F127" t="s" s="10">
+        <v>446</v>
+      </c>
+      <c r="G127" s="10">
         <f>concatenate(c127,d127,e127,f127)</f>
       </c>
-      <c r="H127" t="s" s="7">
-        <v>446</v>
+      <c r="H127" t="s" s="10">
+        <v>447</v>
       </c>
       <c r="I127" t="n" s="10">
-        <v>2.4040875253E10</v>
+        <v>2.4045679962E10</v>
       </c>
       <c r="J127" t="s" s="10">
         <v>41</v>
@@ -13184,39 +13190,39 @@
         <f>AA127+AB127+AC127+AD127+AG127+AH127</f>
       </c>
       <c r="AJ127" t="s" s="10">
-        <v>102</v>
+        <v>433</v>
       </c>
       <c r="AK127" t="s" s="10">
-        <v>447</v>
+        <v>429</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n" s="10">
         <v>120.0</v>
       </c>
-      <c r="B128" t="n" s="10">
-        <v>317.0</v>
-      </c>
-      <c r="C128" t="s" s="10">
-        <v>199</v>
-      </c>
-      <c r="D128" t="s" s="10">
-        <v>157</v>
-      </c>
-      <c r="E128" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="F128" t="s" s="10">
-        <v>184</v>
-      </c>
-      <c r="G128" s="10">
+      <c r="B128" t="n" s="7">
+        <v>331.0</v>
+      </c>
+      <c r="C128" t="s" s="7">
+        <v>282</v>
+      </c>
+      <c r="D128" t="s" s="7">
+        <v>160</v>
+      </c>
+      <c r="E128" t="s" s="7">
+        <v>283</v>
+      </c>
+      <c r="F128" t="s" s="7">
+        <v>235</v>
+      </c>
+      <c r="G128" s="7">
         <f>concatenate(c128,d128,e128,f128)</f>
       </c>
-      <c r="H128" t="s" s="10">
+      <c r="H128" t="s" s="7">
         <v>448</v>
       </c>
       <c r="I128" t="n" s="10">
-        <v>2.4041022519E10</v>
+        <v>2.4040875253E10</v>
       </c>
       <c r="J128" t="s" s="10">
         <v>41</v>
@@ -13276,10 +13282,10 @@
         <f>AA128+AB128+AC128+AD128+AG128+AH128</f>
       </c>
       <c r="AJ128" t="s" s="10">
-        <v>431</v>
+        <v>105</v>
       </c>
       <c r="AK128" t="s" s="10">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="129">
@@ -13287,28 +13293,28 @@
         <v>121.0</v>
       </c>
       <c r="B129" t="n" s="10">
-        <v>330.0</v>
+        <v>317.0</v>
       </c>
       <c r="C129" t="s" s="10">
-        <v>449</v>
+        <v>202</v>
       </c>
       <c r="D129" t="s" s="10">
-        <v>268</v>
+        <v>160</v>
       </c>
       <c r="E129" t="s" s="10">
-        <v>242</v>
+        <v>46</v>
       </c>
       <c r="F129" t="s" s="10">
-        <v>450</v>
+        <v>187</v>
       </c>
       <c r="G129" s="10">
         <f>concatenate(c129,d129,e129,f129)</f>
       </c>
       <c r="H129" t="s" s="10">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I129" t="n" s="10">
-        <v>2.4040874692E10</v>
+        <v>2.4041022519E10</v>
       </c>
       <c r="J129" t="s" s="10">
         <v>41</v>
@@ -13368,10 +13374,10 @@
         <f>AA129+AB129+AC129+AD129+AG129+AH129</f>
       </c>
       <c r="AJ129" t="s" s="10">
-        <v>124</v>
+        <v>433</v>
       </c>
       <c r="AK129" t="s" s="10">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="130">
@@ -13379,28 +13385,28 @@
         <v>122.0</v>
       </c>
       <c r="B130" t="n" s="10">
-        <v>459.0</v>
+        <v>330.0</v>
       </c>
       <c r="C130" t="s" s="10">
-        <v>365</v>
+        <v>451</v>
       </c>
       <c r="D130" t="s" s="10">
-        <v>89</v>
+        <v>270</v>
       </c>
       <c r="E130" t="s" s="10">
-        <v>423</v>
+        <v>244</v>
       </c>
       <c r="F130" t="s" s="10">
-        <v>294</v>
+        <v>452</v>
       </c>
       <c r="G130" s="10">
         <f>concatenate(c130,d130,e130,f130)</f>
       </c>
       <c r="H130" t="s" s="10">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="I130" t="n" s="10">
-        <v>2.4040875385E10</v>
+        <v>2.4040874692E10</v>
       </c>
       <c r="J130" t="s" s="10">
         <v>41</v>
@@ -13460,10 +13466,10 @@
         <f>AA130+AB130+AC130+AD130+AG130+AH130</f>
       </c>
       <c r="AJ130" t="s" s="10">
-        <v>431</v>
+        <v>127</v>
       </c>
       <c r="AK130" t="s" s="10">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="131">
@@ -13471,28 +13477,28 @@
         <v>123.0</v>
       </c>
       <c r="B131" t="n" s="10">
-        <v>592.0</v>
+        <v>459.0</v>
       </c>
       <c r="C131" t="s" s="10">
-        <v>453</v>
+        <v>367</v>
       </c>
       <c r="D131" t="s" s="10">
-        <v>454</v>
+        <v>92</v>
       </c>
       <c r="E131" t="s" s="10">
-        <v>281</v>
+        <v>425</v>
       </c>
       <c r="F131" t="s" s="10">
-        <v>145</v>
+        <v>296</v>
       </c>
       <c r="G131" s="10">
         <f>concatenate(c131,d131,e131,f131)</f>
       </c>
       <c r="H131" t="s" s="10">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I131" t="n" s="10">
-        <v>2.4041862267E10</v>
+        <v>2.4040875385E10</v>
       </c>
       <c r="J131" t="s" s="10">
         <v>41</v>
@@ -13552,10 +13558,10 @@
         <f>AA131+AB131+AC131+AD131+AG131+AH131</f>
       </c>
       <c r="AJ131" t="s" s="10">
-        <v>124</v>
+        <v>433</v>
       </c>
       <c r="AK131" t="s" s="10">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="132">
@@ -13563,28 +13569,28 @@
         <v>124.0</v>
       </c>
       <c r="B132" t="n" s="10">
-        <v>602.0</v>
+        <v>592.0</v>
       </c>
       <c r="C132" t="s" s="10">
-        <v>118</v>
+        <v>455</v>
       </c>
       <c r="D132" t="s" s="10">
-        <v>118</v>
+        <v>456</v>
       </c>
       <c r="E132" t="s" s="10">
-        <v>456</v>
+        <v>283</v>
       </c>
       <c r="F132" t="s" s="10">
-        <v>457</v>
+        <v>148</v>
       </c>
       <c r="G132" s="10">
         <f>concatenate(c132,d132,e132,f132)</f>
       </c>
       <c r="H132" t="s" s="10">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I132" t="n" s="10">
-        <v>2.4041418437E10</v>
+        <v>2.4041862267E10</v>
       </c>
       <c r="J132" t="s" s="10">
         <v>41</v>
@@ -13644,10 +13650,10 @@
         <f>AA132+AB132+AC132+AD132+AG132+AH132</f>
       </c>
       <c r="AJ132" t="s" s="10">
-        <v>431</v>
+        <v>127</v>
       </c>
       <c r="AK132" t="s" s="10">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="133">
@@ -13655,28 +13661,28 @@
         <v>125.0</v>
       </c>
       <c r="B133" t="n" s="10">
-        <v>605.0</v>
+        <v>602.0</v>
       </c>
       <c r="C133" t="s" s="10">
-        <v>449</v>
+        <v>121</v>
       </c>
       <c r="D133" t="s" s="10">
-        <v>187</v>
+        <v>121</v>
       </c>
       <c r="E133" t="s" s="10">
-        <v>225</v>
+        <v>458</v>
       </c>
       <c r="F133" t="s" s="10">
-        <v>132</v>
+        <v>459</v>
       </c>
       <c r="G133" s="10">
         <f>concatenate(c133,d133,e133,f133)</f>
       </c>
       <c r="H133" t="s" s="10">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I133" t="n" s="10">
-        <v>2.4043531716E10</v>
+        <v>2.4041418437E10</v>
       </c>
       <c r="J133" t="s" s="10">
         <v>41</v>
@@ -13736,10 +13742,10 @@
         <f>AA133+AB133+AC133+AD133+AG133+AH133</f>
       </c>
       <c r="AJ133" t="s" s="10">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AK133" t="s" s="10">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="134">
@@ -13747,28 +13753,28 @@
         <v>126.0</v>
       </c>
       <c r="B134" t="n" s="10">
-        <v>740.0</v>
+        <v>605.0</v>
       </c>
       <c r="C134" t="s" s="10">
-        <v>300</v>
+        <v>451</v>
       </c>
       <c r="D134" t="s" s="10">
-        <v>460</v>
+        <v>190</v>
       </c>
       <c r="E134" t="s" s="10">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="F134" t="s" s="10">
-        <v>461</v>
+        <v>135</v>
       </c>
       <c r="G134" s="10">
         <f>concatenate(c134,d134,e134,f134)</f>
       </c>
       <c r="H134" t="s" s="10">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I134" t="n" s="10">
-        <v>2.4046415813E10</v>
+        <v>2.4043531716E10</v>
       </c>
       <c r="J134" t="s" s="10">
         <v>41</v>
@@ -13828,10 +13834,10 @@
         <f>AA134+AB134+AC134+AD134+AG134+AH134</f>
       </c>
       <c r="AJ134" t="s" s="10">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AK134" t="s" s="10">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="135">
@@ -13839,28 +13845,28 @@
         <v>127.0</v>
       </c>
       <c r="B135" t="n" s="10">
-        <v>755.0</v>
+        <v>740.0</v>
       </c>
       <c r="C135" t="s" s="10">
+        <v>302</v>
+      </c>
+      <c r="D135" t="s" s="10">
+        <v>462</v>
+      </c>
+      <c r="E135" t="s" s="10">
+        <v>205</v>
+      </c>
+      <c r="F135" t="s" s="10">
         <v>463</v>
-      </c>
-      <c r="D135" t="s" s="10">
-        <v>464</v>
-      </c>
-      <c r="E135" t="s" s="10">
-        <v>359</v>
-      </c>
-      <c r="F135" t="s" s="10">
-        <v>184</v>
       </c>
       <c r="G135" s="10">
         <f>concatenate(c135,d135,e135,f135)</f>
       </c>
       <c r="H135" t="s" s="10">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I135" t="n" s="10">
-        <v>2.4046845243E10</v>
+        <v>2.4046415813E10</v>
       </c>
       <c r="J135" t="s" s="10">
         <v>41</v>
@@ -13920,39 +13926,39 @@
         <f>AA135+AB135+AC135+AD135+AG135+AH135</f>
       </c>
       <c r="AJ135" t="s" s="10">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AK135" t="s" s="10">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n" s="10">
         <v>128.0</v>
       </c>
-      <c r="B136" t="n" s="7">
-        <v>-7.0</v>
-      </c>
-      <c r="C136" t="s" s="7">
-        <v>289</v>
-      </c>
-      <c r="D136" t="s" s="7">
-        <v>173</v>
-      </c>
-      <c r="E136" t="s" s="7">
-        <v>196</v>
-      </c>
-      <c r="F136" t="s" s="7">
-        <v>146</v>
-      </c>
-      <c r="G136" s="7">
+      <c r="B136" t="n" s="10">
+        <v>755.0</v>
+      </c>
+      <c r="C136" t="s" s="10">
+        <v>465</v>
+      </c>
+      <c r="D136" t="s" s="10">
+        <v>466</v>
+      </c>
+      <c r="E136" t="s" s="10">
+        <v>361</v>
+      </c>
+      <c r="F136" t="s" s="10">
+        <v>187</v>
+      </c>
+      <c r="G136" s="10">
         <f>concatenate(c136,d136,e136,f136)</f>
       </c>
-      <c r="H136" t="s" s="7">
-        <v>466</v>
+      <c r="H136" t="s" s="10">
+        <v>467</v>
       </c>
       <c r="I136" t="n" s="10">
-        <v>2.4040877235E10</v>
+        <v>2.4046845243E10</v>
       </c>
       <c r="J136" t="s" s="10">
         <v>41</v>
@@ -14012,39 +14018,39 @@
         <f>AA136+AB136+AC136+AD136+AG136+AH136</f>
       </c>
       <c r="AJ136" t="s" s="10">
-        <v>102</v>
+        <v>433</v>
       </c>
       <c r="AK136" t="s" s="10">
-        <v>146</v>
+        <v>449</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n" s="10">
         <v>129.0</v>
       </c>
-      <c r="B137" t="n" s="10">
-        <v>32.0</v>
-      </c>
-      <c r="C137" t="s" s="10">
-        <v>190</v>
-      </c>
-      <c r="D137" t="s" s="10">
-        <v>467</v>
-      </c>
-      <c r="E137" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="F137" t="s" s="10">
+      <c r="B137" t="n" s="7">
+        <v>-7.0</v>
+      </c>
+      <c r="C137" t="s" s="7">
+        <v>291</v>
+      </c>
+      <c r="D137" t="s" s="7">
+        <v>176</v>
+      </c>
+      <c r="E137" t="s" s="7">
+        <v>199</v>
+      </c>
+      <c r="F137" t="s" s="7">
+        <v>149</v>
+      </c>
+      <c r="G137" s="7">
+        <f>concatenate(c137,d137,e137,f137)</f>
+      </c>
+      <c r="H137" t="s" s="7">
         <v>468</v>
       </c>
-      <c r="G137" s="10">
-        <f>concatenate(c137,d137,e137,f137)</f>
-      </c>
-      <c r="H137" t="s" s="10">
-        <v>469</v>
-      </c>
       <c r="I137" t="n" s="10">
-        <v>2.4041266845E10</v>
+        <v>2.4040877235E10</v>
       </c>
       <c r="J137" t="s" s="10">
         <v>41</v>
@@ -14104,10 +14110,10 @@
         <f>AA137+AB137+AC137+AD137+AG137+AH137</f>
       </c>
       <c r="AJ137" t="s" s="10">
-        <v>181</v>
+        <v>105</v>
       </c>
       <c r="AK137" t="s" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="138">
@@ -14115,28 +14121,28 @@
         <v>130.0</v>
       </c>
       <c r="B138" t="n" s="10">
-        <v>48.0</v>
+        <v>32.0</v>
       </c>
       <c r="C138" t="s" s="10">
+        <v>193</v>
+      </c>
+      <c r="D138" t="s" s="10">
+        <v>469</v>
+      </c>
+      <c r="E138" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="F138" t="s" s="10">
         <v>470</v>
-      </c>
-      <c r="D138" t="s" s="10">
-        <v>401</v>
-      </c>
-      <c r="E138" t="s" s="10">
-        <v>471</v>
-      </c>
-      <c r="F138" t="s" s="10">
-        <v>472</v>
       </c>
       <c r="G138" s="10">
         <f>concatenate(c138,d138,e138,f138)</f>
       </c>
       <c r="H138" t="s" s="10">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="I138" t="n" s="10">
-        <v>2.4040879161E10</v>
+        <v>2.4041266845E10</v>
       </c>
       <c r="J138" t="s" s="10">
         <v>41</v>
@@ -14196,10 +14202,10 @@
         <f>AA138+AB138+AC138+AD138+AG138+AH138</f>
       </c>
       <c r="AJ138" t="s" s="10">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AK138" t="s" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="139">
@@ -14207,19 +14213,19 @@
         <v>131.0</v>
       </c>
       <c r="B139" t="n" s="10">
-        <v>51.0</v>
+        <v>48.0</v>
       </c>
       <c r="C139" t="s" s="10">
-        <v>74</v>
+        <v>472</v>
       </c>
       <c r="D139" t="s" s="10">
+        <v>403</v>
+      </c>
+      <c r="E139" t="s" s="10">
+        <v>473</v>
+      </c>
+      <c r="F139" t="s" s="10">
         <v>474</v>
-      </c>
-      <c r="E139" t="s" s="10">
-        <v>146</v>
-      </c>
-      <c r="F139" t="s" s="10">
-        <v>461</v>
       </c>
       <c r="G139" s="10">
         <f>concatenate(c139,d139,e139,f139)</f>
@@ -14228,7 +14234,7 @@
         <v>475</v>
       </c>
       <c r="I139" t="n" s="10">
-        <v>2.4040993795E10</v>
+        <v>2.4040879161E10</v>
       </c>
       <c r="J139" t="s" s="10">
         <v>41</v>
@@ -14288,10 +14294,10 @@
         <f>AA139+AB139+AC139+AD139+AG139+AH139</f>
       </c>
       <c r="AJ139" t="s" s="10">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AK139" t="s" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="140">
@@ -14299,28 +14305,28 @@
         <v>132.0</v>
       </c>
       <c r="B140" t="n" s="10">
-        <v>73.0</v>
+        <v>51.0</v>
       </c>
       <c r="C140" t="s" s="10">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="D140" t="s" s="10">
         <v>476</v>
       </c>
       <c r="E140" t="s" s="10">
-        <v>477</v>
+        <v>149</v>
       </c>
       <c r="F140" t="s" s="10">
-        <v>361</v>
+        <v>463</v>
       </c>
       <c r="G140" s="10">
         <f>concatenate(c140,d140,e140,f140)</f>
       </c>
       <c r="H140" t="s" s="10">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I140" t="n" s="10">
-        <v>2.4040874539E10</v>
+        <v>2.4040993795E10</v>
       </c>
       <c r="J140" t="s" s="10">
         <v>41</v>
@@ -14380,10 +14386,10 @@
         <f>AA140+AB140+AC140+AD140+AG140+AH140</f>
       </c>
       <c r="AJ140" t="s" s="10">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="AK140" t="s" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="141">
@@ -14391,19 +14397,19 @@
         <v>133.0</v>
       </c>
       <c r="B141" t="n" s="10">
-        <v>218.0</v>
+        <v>73.0</v>
       </c>
       <c r="C141" t="s" s="10">
-        <v>291</v>
+        <v>185</v>
       </c>
       <c r="D141" t="s" s="10">
-        <v>190</v>
+        <v>478</v>
       </c>
       <c r="E141" t="s" s="10">
-        <v>119</v>
+        <v>479</v>
       </c>
       <c r="F141" t="s" s="10">
-        <v>479</v>
+        <v>363</v>
       </c>
       <c r="G141" s="10">
         <f>concatenate(c141,d141,e141,f141)</f>
@@ -14412,7 +14418,7 @@
         <v>480</v>
       </c>
       <c r="I141" t="n" s="10">
-        <v>2.4040933832E10</v>
+        <v>2.4040874539E10</v>
       </c>
       <c r="J141" t="s" s="10">
         <v>41</v>
@@ -14472,10 +14478,10 @@
         <f>AA141+AB141+AC141+AD141+AG141+AH141</f>
       </c>
       <c r="AJ141" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK141" t="s" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="142">
@@ -14483,28 +14489,28 @@
         <v>134.0</v>
       </c>
       <c r="B142" t="n" s="10">
-        <v>231.0</v>
+        <v>218.0</v>
       </c>
       <c r="C142" t="s" s="10">
-        <v>400</v>
+        <v>293</v>
       </c>
       <c r="D142" t="s" s="10">
+        <v>193</v>
+      </c>
+      <c r="E142" t="s" s="10">
+        <v>122</v>
+      </c>
+      <c r="F142" t="s" s="10">
         <v>481</v>
-      </c>
-      <c r="E142" t="s" s="10">
-        <v>482</v>
-      </c>
-      <c r="F142" t="s" s="10">
-        <v>184</v>
       </c>
       <c r="G142" s="10">
         <f>concatenate(c142,d142,e142,f142)</f>
       </c>
       <c r="H142" t="s" s="10">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I142" t="n" s="10">
-        <v>2.4041021958E10</v>
+        <v>2.4040933832E10</v>
       </c>
       <c r="J142" t="s" s="10">
         <v>41</v>
@@ -14564,10 +14570,10 @@
         <f>AA142+AB142+AC142+AD142+AG142+AH142</f>
       </c>
       <c r="AJ142" t="s" s="10">
-        <v>484</v>
+        <v>127</v>
       </c>
       <c r="AK142" t="s" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="143">
@@ -14575,28 +14581,28 @@
         <v>135.0</v>
       </c>
       <c r="B143" t="n" s="10">
-        <v>288.0</v>
+        <v>231.0</v>
       </c>
       <c r="C143" t="s" s="10">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="D143" t="s" s="10">
-        <v>204</v>
+        <v>483</v>
       </c>
       <c r="E143" t="s" s="10">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F143" t="s" s="10">
-        <v>54</v>
+        <v>187</v>
       </c>
       <c r="G143" s="10">
         <f>concatenate(c143,d143,e143,f143)</f>
       </c>
       <c r="H143" t="s" s="10">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I143" t="n" s="10">
-        <v>2.4041265208E10</v>
+        <v>2.4041021958E10</v>
       </c>
       <c r="J143" t="s" s="10">
         <v>41</v>
@@ -14656,10 +14662,10 @@
         <f>AA143+AB143+AC143+AD143+AG143+AH143</f>
       </c>
       <c r="AJ143" t="s" s="10">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AK143" t="s" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="144">
@@ -14667,28 +14673,28 @@
         <v>136.0</v>
       </c>
       <c r="B144" t="n" s="10">
-        <v>293.0</v>
+        <v>288.0</v>
       </c>
       <c r="C144" t="s" s="10">
-        <v>289</v>
+        <v>367</v>
       </c>
       <c r="D144" t="s" s="10">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="E144" t="s" s="10">
-        <v>202</v>
+        <v>487</v>
       </c>
       <c r="F144" t="s" s="10">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G144" s="10">
         <f>concatenate(c144,d144,e144,f144)</f>
       </c>
       <c r="H144" t="s" s="10">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I144" t="n" s="10">
-        <v>2.404102418E10</v>
+        <v>2.4041265208E10</v>
       </c>
       <c r="J144" t="s" s="10">
         <v>41</v>
@@ -14748,10 +14754,10 @@
         <f>AA144+AB144+AC144+AD144+AG144+AH144</f>
       </c>
       <c r="AJ144" t="s" s="10">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AK144" t="s" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="145">
@@ -14759,28 +14765,28 @@
         <v>137.0</v>
       </c>
       <c r="B145" t="n" s="10">
-        <v>423.0</v>
+        <v>293.0</v>
       </c>
       <c r="C145" t="s" s="10">
-        <v>488</v>
+        <v>291</v>
       </c>
       <c r="D145" t="s" s="10">
-        <v>489</v>
+        <v>176</v>
       </c>
       <c r="E145" t="s" s="10">
-        <v>490</v>
+        <v>205</v>
       </c>
       <c r="F145" t="s" s="10">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G145" s="10">
         <f>concatenate(c145,d145,e145,f145)</f>
       </c>
       <c r="H145" t="s" s="10">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I145" t="n" s="10">
-        <v>2.4040874166E10</v>
+        <v>2.404102418E10</v>
       </c>
       <c r="J145" t="s" s="10">
         <v>41</v>
@@ -14840,10 +14846,10 @@
         <f>AA145+AB145+AC145+AD145+AG145+AH145</f>
       </c>
       <c r="AJ145" t="s" s="10">
-        <v>124</v>
+        <v>486</v>
       </c>
       <c r="AK145" t="s" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="146">
@@ -14851,28 +14857,28 @@
         <v>138.0</v>
       </c>
       <c r="B146" t="n" s="10">
-        <v>514.0</v>
+        <v>423.0</v>
       </c>
       <c r="C146" t="s" s="10">
+        <v>490</v>
+      </c>
+      <c r="D146" t="s" s="10">
+        <v>491</v>
+      </c>
+      <c r="E146" t="s" s="10">
         <v>492</v>
       </c>
-      <c r="D146" t="s" s="10">
-        <v>493</v>
-      </c>
-      <c r="E146" t="s" s="10">
-        <v>77</v>
-      </c>
       <c r="F146" t="s" s="10">
-        <v>494</v>
+        <v>46</v>
       </c>
       <c r="G146" s="10">
         <f>concatenate(c146,d146,e146,f146)</f>
       </c>
       <c r="H146" t="s" s="10">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I146" t="n" s="10">
-        <v>2.4041863974E10</v>
+        <v>2.4040874166E10</v>
       </c>
       <c r="J146" t="s" s="10">
         <v>41</v>
@@ -14932,10 +14938,10 @@
         <f>AA146+AB146+AC146+AD146+AG146+AH146</f>
       </c>
       <c r="AJ146" t="s" s="10">
-        <v>484</v>
+        <v>127</v>
       </c>
       <c r="AK146" t="s" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="147">
@@ -14943,19 +14949,19 @@
         <v>139.0</v>
       </c>
       <c r="B147" t="n" s="10">
-        <v>516.0</v>
+        <v>514.0</v>
       </c>
       <c r="C147" t="s" s="10">
-        <v>375</v>
+        <v>494</v>
       </c>
       <c r="D147" t="s" s="10">
+        <v>495</v>
+      </c>
+      <c r="E147" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="F147" t="s" s="10">
         <v>496</v>
-      </c>
-      <c r="E147" t="s" s="10">
-        <v>494</v>
-      </c>
-      <c r="F147" t="s" s="10">
-        <v>225</v>
       </c>
       <c r="G147" s="10">
         <f>concatenate(c147,d147,e147,f147)</f>
@@ -14964,7 +14970,7 @@
         <v>497</v>
       </c>
       <c r="I147" t="n" s="10">
-        <v>2.4041860177E10</v>
+        <v>2.4041863974E10</v>
       </c>
       <c r="J147" t="s" s="10">
         <v>41</v>
@@ -15024,10 +15030,10 @@
         <f>AA147+AB147+AC147+AD147+AG147+AH147</f>
       </c>
       <c r="AJ147" t="s" s="10">
-        <v>124</v>
+        <v>486</v>
       </c>
       <c r="AK147" t="s" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="148">
@@ -15035,28 +15041,28 @@
         <v>140.0</v>
       </c>
       <c r="B148" t="n" s="10">
-        <v>574.0</v>
+        <v>516.0</v>
       </c>
       <c r="C148" t="s" s="10">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="D148" t="s" s="10">
         <v>498</v>
       </c>
       <c r="E148" t="s" s="10">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F148" t="s" s="10">
-        <v>500</v>
+        <v>227</v>
       </c>
       <c r="G148" s="10">
         <f>concatenate(c148,d148,e148,f148)</f>
       </c>
       <c r="H148" t="s" s="10">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I148" t="n" s="10">
-        <v>2.4042906665E10</v>
+        <v>2.4041860177E10</v>
       </c>
       <c r="J148" t="s" s="10">
         <v>41</v>
@@ -15116,10 +15122,10 @@
         <f>AA148+AB148+AC148+AD148+AG148+AH148</f>
       </c>
       <c r="AJ148" t="s" s="10">
-        <v>484</v>
+        <v>127</v>
       </c>
       <c r="AK148" t="s" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149">
@@ -15127,28 +15133,28 @@
         <v>141.0</v>
       </c>
       <c r="B149" t="n" s="10">
-        <v>598.0</v>
+        <v>574.0</v>
       </c>
       <c r="C149" t="s" s="10">
+        <v>394</v>
+      </c>
+      <c r="D149" t="s" s="10">
+        <v>500</v>
+      </c>
+      <c r="E149" t="s" s="10">
+        <v>501</v>
+      </c>
+      <c r="F149" t="s" s="10">
         <v>502</v>
-      </c>
-      <c r="D149" t="s" s="10">
-        <v>503</v>
-      </c>
-      <c r="E149" t="s" s="10">
-        <v>224</v>
-      </c>
-      <c r="F149" t="s" s="10">
-        <v>494</v>
       </c>
       <c r="G149" s="10">
         <f>concatenate(c149,d149,e149,f149)</f>
       </c>
       <c r="H149" t="s" s="10">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I149" t="n" s="10">
-        <v>2.4043159664E10</v>
+        <v>2.4042906665E10</v>
       </c>
       <c r="J149" t="s" s="10">
         <v>41</v>
@@ -15208,10 +15214,10 @@
         <f>AA149+AB149+AC149+AD149+AG149+AH149</f>
       </c>
       <c r="AJ149" t="s" s="10">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AK149" t="s" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="150">
@@ -15219,28 +15225,28 @@
         <v>142.0</v>
       </c>
       <c r="B150" t="n" s="10">
-        <v>626.0</v>
+        <v>598.0</v>
       </c>
       <c r="C150" t="s" s="10">
+        <v>504</v>
+      </c>
+      <c r="D150" t="s" s="10">
         <v>505</v>
       </c>
-      <c r="D150" t="s" s="10">
-        <v>320</v>
-      </c>
       <c r="E150" t="s" s="10">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F150" t="s" s="10">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="G150" s="10">
         <f>concatenate(c150,d150,e150,f150)</f>
       </c>
       <c r="H150" t="s" s="10">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I150" t="n" s="10">
-        <v>2.4044488567E10</v>
+        <v>2.4043159664E10</v>
       </c>
       <c r="J150" t="s" s="10">
         <v>41</v>
@@ -15300,10 +15306,10 @@
         <f>AA150+AB150+AC150+AD150+AG150+AH150</f>
       </c>
       <c r="AJ150" t="s" s="10">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AK150" t="s" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151">
@@ -15311,28 +15317,28 @@
         <v>143.0</v>
       </c>
       <c r="B151" t="n" s="10">
-        <v>791.0</v>
+        <v>626.0</v>
       </c>
       <c r="C151" t="s" s="10">
+        <v>507</v>
+      </c>
+      <c r="D151" t="s" s="10">
+        <v>322</v>
+      </c>
+      <c r="E151" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="F151" t="s" s="10">
         <v>508</v>
-      </c>
-      <c r="D151" t="s" s="10">
-        <v>509</v>
-      </c>
-      <c r="E151" t="s" s="10">
-        <v>218</v>
-      </c>
-      <c r="F151" t="s" s="10">
-        <v>54</v>
       </c>
       <c r="G151" s="10">
         <f>concatenate(c151,d151,e151,f151)</f>
       </c>
       <c r="H151" t="s" s="10">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I151" t="n" s="10">
-        <v>2.4051011338E10</v>
+        <v>2.4044488567E10</v>
       </c>
       <c r="J151" t="s" s="10">
         <v>41</v>
@@ -15392,10 +15398,10 @@
         <f>AA151+AB151+AC151+AD151+AG151+AH151</f>
       </c>
       <c r="AJ151" t="s" s="10">
-        <v>124</v>
+        <v>486</v>
       </c>
       <c r="AK151" t="s" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="152">
@@ -15403,19 +15409,19 @@
         <v>144.0</v>
       </c>
       <c r="B152" t="n" s="10">
-        <v>920.0</v>
+        <v>791.0</v>
       </c>
       <c r="C152" t="s" s="10">
+        <v>510</v>
+      </c>
+      <c r="D152" t="s" s="10">
         <v>511</v>
       </c>
-      <c r="D152" t="s" s="10">
-        <v>162</v>
-      </c>
       <c r="E152" t="s" s="10">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="F152" t="s" s="10">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G152" s="10">
         <f>concatenate(c152,d152,e152,f152)</f>
@@ -15424,7 +15430,7 @@
         <v>512</v>
       </c>
       <c r="I152" t="n" s="10">
-        <v>2.4054525881E10</v>
+        <v>2.4051011338E10</v>
       </c>
       <c r="J152" t="s" s="10">
         <v>41</v>
@@ -15484,10 +15490,10 @@
         <f>AA152+AB152+AC152+AD152+AG152+AH152</f>
       </c>
       <c r="AJ152" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK152" t="s" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="153">
@@ -15495,28 +15501,28 @@
         <v>145.0</v>
       </c>
       <c r="B153" t="n" s="10">
-        <v>945.0</v>
+        <v>920.0</v>
       </c>
       <c r="C153" t="s" s="10">
+        <v>513</v>
+      </c>
+      <c r="D153" t="s" s="10">
         <v>165</v>
       </c>
-      <c r="D153" t="s" s="10">
-        <v>513</v>
-      </c>
       <c r="E153" t="s" s="10">
-        <v>46</v>
+        <v>247</v>
       </c>
       <c r="F153" t="s" s="10">
-        <v>514</v>
+        <v>39</v>
       </c>
       <c r="G153" s="10">
         <f>concatenate(c153,d153,e153,f153)</f>
       </c>
       <c r="H153" t="s" s="10">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I153" t="n" s="10">
-        <v>2.4054861208E10</v>
+        <v>2.4054525881E10</v>
       </c>
       <c r="J153" t="s" s="10">
         <v>41</v>
@@ -15576,10 +15582,10 @@
         <f>AA153+AB153+AC153+AD153+AG153+AH153</f>
       </c>
       <c r="AJ153" t="s" s="10">
-        <v>516</v>
+        <v>127</v>
       </c>
       <c r="AK153" t="s" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="154">
@@ -15587,28 +15593,28 @@
         <v>146.0</v>
       </c>
       <c r="B154" t="n" s="10">
-        <v>970.0</v>
+        <v>945.0</v>
       </c>
       <c r="C154" t="s" s="10">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="D154" t="s" s="10">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E154" t="s" s="10">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F154" t="s" s="10">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G154" s="10">
         <f>concatenate(c154,d154,e154,f154)</f>
       </c>
       <c r="H154" t="s" s="10">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="I154" t="n" s="10">
-        <v>2.4046162962E10</v>
+        <v>2.4054861208E10</v>
       </c>
       <c r="J154" t="s" s="10">
         <v>41</v>
@@ -15668,10 +15674,10 @@
         <f>AA154+AB154+AC154+AD154+AG154+AH154</f>
       </c>
       <c r="AJ154" t="s" s="10">
-        <v>124</v>
+        <v>518</v>
       </c>
       <c r="AK154" t="s" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="155">
@@ -15679,28 +15685,28 @@
         <v>147.0</v>
       </c>
       <c r="B155" t="n" s="10">
-        <v>1009.0</v>
+        <v>970.0</v>
       </c>
       <c r="C155" t="s" s="10">
-        <v>449</v>
+        <v>220</v>
       </c>
       <c r="D155" t="s" s="10">
-        <v>54</v>
+        <v>519</v>
       </c>
       <c r="E155" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="F155" t="s" s="10">
         <v>520</v>
-      </c>
-      <c r="F155" t="s" s="10">
-        <v>521</v>
       </c>
       <c r="G155" s="10">
         <f>concatenate(c155,d155,e155,f155)</f>
       </c>
       <c r="H155" t="s" s="10">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I155" t="n" s="10">
-        <v>2.4055737795E10</v>
+        <v>2.4046162962E10</v>
       </c>
       <c r="J155" t="s" s="10">
         <v>41</v>
@@ -15760,10 +15766,10 @@
         <f>AA155+AB155+AC155+AD155+AG155+AH155</f>
       </c>
       <c r="AJ155" t="s" s="10">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AK155" t="s" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="156">
@@ -15771,19 +15777,19 @@
         <v>148.0</v>
       </c>
       <c r="B156" t="n" s="10">
-        <v>1065.0</v>
+        <v>1009.0</v>
       </c>
       <c r="C156" t="s" s="10">
-        <v>358</v>
+        <v>451</v>
       </c>
       <c r="D156" t="s" s="10">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="E156" t="s" s="10">
+        <v>522</v>
+      </c>
+      <c r="F156" t="s" s="10">
         <v>523</v>
-      </c>
-      <c r="F156" t="s" s="10">
-        <v>145</v>
       </c>
       <c r="G156" s="10">
         <f>concatenate(c156,d156,e156,f156)</f>
@@ -15792,7 +15798,7 @@
         <v>524</v>
       </c>
       <c r="I156" t="n" s="10">
-        <v>2.4041265253E10</v>
+        <v>2.4055737795E10</v>
       </c>
       <c r="J156" t="s" s="10">
         <v>41</v>
@@ -15852,10 +15858,10 @@
         <f>AA156+AB156+AC156+AD156+AG156+AH156</f>
       </c>
       <c r="AJ156" t="s" s="10">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c r="AK156" t="s" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="157">
@@ -15863,19 +15869,19 @@
         <v>149.0</v>
       </c>
       <c r="B157" t="n" s="10">
-        <v>1103.0</v>
+        <v>1065.0</v>
       </c>
       <c r="C157" t="s" s="10">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="D157" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="E157" t="s" s="10">
         <v>525</v>
       </c>
-      <c r="E157" t="s" s="10">
-        <v>341</v>
-      </c>
       <c r="F157" t="s" s="10">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="G157" s="10">
         <f>concatenate(c157,d157,e157,f157)</f>
@@ -15884,7 +15890,7 @@
         <v>526</v>
       </c>
       <c r="I157" t="n" s="10">
-        <v>2.4044829416E10</v>
+        <v>2.4041265253E10</v>
       </c>
       <c r="J157" t="s" s="10">
         <v>41</v>
@@ -15944,10 +15950,10 @@
         <f>AA157+AB157+AC157+AD157+AG157+AH157</f>
       </c>
       <c r="AJ157" t="s" s="10">
-        <v>484</v>
+        <v>127</v>
       </c>
       <c r="AK157" t="s" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="158">
@@ -15955,28 +15961,28 @@
         <v>150.0</v>
       </c>
       <c r="B158" t="n" s="10">
-        <v>1114.0</v>
+        <v>1103.0</v>
       </c>
       <c r="C158" t="s" s="10">
-        <v>105</v>
+        <v>377</v>
       </c>
       <c r="D158" t="s" s="10">
         <v>527</v>
       </c>
       <c r="E158" t="s" s="10">
-        <v>528</v>
+        <v>343</v>
       </c>
       <c r="F158" t="s" s="10">
-        <v>529</v>
+        <v>50</v>
       </c>
       <c r="G158" s="10">
         <f>concatenate(c158,d158,e158,f158)</f>
       </c>
       <c r="H158" t="s" s="10">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I158" t="n" s="10">
-        <v>2.4059089816E10</v>
+        <v>2.4044829416E10</v>
       </c>
       <c r="J158" t="s" s="10">
         <v>41</v>
@@ -16036,10 +16042,10 @@
         <f>AA158+AB158+AC158+AD158+AG158+AH158</f>
       </c>
       <c r="AJ158" t="s" s="10">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="AK158" t="s" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="159">
@@ -16047,28 +16053,28 @@
         <v>151.0</v>
       </c>
       <c r="B159" t="n" s="10">
-        <v>1115.0</v>
+        <v>1114.0</v>
       </c>
       <c r="C159" t="s" s="10">
-        <v>527</v>
+        <v>108</v>
       </c>
       <c r="D159" t="s" s="10">
+        <v>529</v>
+      </c>
+      <c r="E159" t="s" s="10">
+        <v>530</v>
+      </c>
+      <c r="F159" t="s" s="10">
         <v>531</v>
-      </c>
-      <c r="E159" t="s" s="10">
-        <v>423</v>
-      </c>
-      <c r="F159" t="s" s="10">
-        <v>532</v>
       </c>
       <c r="G159" s="10">
         <f>concatenate(c159,d159,e159,f159)</f>
       </c>
       <c r="H159" t="s" s="10">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I159" t="n" s="10">
-        <v>2.4059055899E10</v>
+        <v>2.4059089816E10</v>
       </c>
       <c r="J159" t="s" s="10">
         <v>41</v>
@@ -16128,10 +16134,10 @@
         <f>AA159+AB159+AC159+AD159+AG159+AH159</f>
       </c>
       <c r="AJ159" t="s" s="10">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AK159" t="s" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="160">
@@ -16139,28 +16145,28 @@
         <v>152.0</v>
       </c>
       <c r="B160" t="n" s="10">
-        <v>1117.0</v>
+        <v>1115.0</v>
       </c>
       <c r="C160" t="s" s="10">
-        <v>400</v>
+        <v>529</v>
       </c>
       <c r="D160" t="s" s="10">
-        <v>401</v>
+        <v>533</v>
       </c>
       <c r="E160" t="s" s="10">
-        <v>196</v>
+        <v>425</v>
       </c>
       <c r="F160" t="s" s="10">
-        <v>39</v>
+        <v>534</v>
       </c>
       <c r="G160" s="10">
         <f>concatenate(c160,d160,e160,f160)</f>
       </c>
       <c r="H160" t="s" s="10">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I160" t="n" s="10">
-        <v>2.4059238478E10</v>
+        <v>2.4059055899E10</v>
       </c>
       <c r="J160" t="s" s="10">
         <v>41</v>
@@ -16220,10 +16226,10 @@
         <f>AA160+AB160+AC160+AD160+AG160+AH160</f>
       </c>
       <c r="AJ160" t="s" s="10">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AK160" t="s" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="161">
@@ -16231,28 +16237,28 @@
         <v>153.0</v>
       </c>
       <c r="B161" t="n" s="10">
-        <v>1118.0</v>
+        <v>1117.0</v>
       </c>
       <c r="C161" t="s" s="10">
-        <v>535</v>
+        <v>402</v>
       </c>
       <c r="D161" t="s" s="10">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="E161" t="s" s="10">
-        <v>359</v>
+        <v>199</v>
       </c>
       <c r="F161" t="s" s="10">
-        <v>536</v>
+        <v>39</v>
       </c>
       <c r="G161" s="10">
         <f>concatenate(c161,d161,e161,f161)</f>
       </c>
       <c r="H161" t="s" s="10">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I161" t="n" s="10">
-        <v>2.4054858163E10</v>
+        <v>2.4059238478E10</v>
       </c>
       <c r="J161" t="s" s="10">
         <v>41</v>
@@ -16312,10 +16318,10 @@
         <f>AA161+AB161+AC161+AD161+AG161+AH161</f>
       </c>
       <c r="AJ161" t="s" s="10">
-        <v>124</v>
+        <v>433</v>
       </c>
       <c r="AK161" t="s" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="162">
@@ -16323,28 +16329,28 @@
         <v>154.0</v>
       </c>
       <c r="B162" t="n" s="10">
-        <v>1120.0</v>
+        <v>1118.0</v>
       </c>
       <c r="C162" t="s" s="10">
+        <v>537</v>
+      </c>
+      <c r="D162" t="s" s="10">
+        <v>440</v>
+      </c>
+      <c r="E162" t="s" s="10">
+        <v>361</v>
+      </c>
+      <c r="F162" t="s" s="10">
         <v>538</v>
-      </c>
-      <c r="D162" t="s" s="10">
-        <v>539</v>
-      </c>
-      <c r="E162" t="s" s="10">
-        <v>520</v>
-      </c>
-      <c r="F162" t="s" s="10">
-        <v>46</v>
       </c>
       <c r="G162" s="10">
         <f>concatenate(c162,d162,e162,f162)</f>
       </c>
       <c r="H162" t="s" s="10">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I162" t="n" s="10">
-        <v>2.4053690977E10</v>
+        <v>2.4054858163E10</v>
       </c>
       <c r="J162" t="s" s="10">
         <v>41</v>
@@ -16404,10 +16410,10 @@
         <f>AA162+AB162+AC162+AD162+AG162+AH162</f>
       </c>
       <c r="AJ162" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK162" t="s" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="163">
@@ -16415,19 +16421,19 @@
         <v>155.0</v>
       </c>
       <c r="B163" t="n" s="10">
-        <v>1121.0</v>
+        <v>1120.0</v>
       </c>
       <c r="C163" t="s" s="10">
-        <v>74</v>
+        <v>540</v>
       </c>
       <c r="D163" t="s" s="10">
         <v>541</v>
       </c>
       <c r="E163" t="s" s="10">
+        <v>522</v>
+      </c>
+      <c r="F163" t="s" s="10">
         <v>46</v>
-      </c>
-      <c r="F163" t="s" s="10">
-        <v>370</v>
       </c>
       <c r="G163" s="10">
         <f>concatenate(c163,d163,e163,f163)</f>
@@ -16436,7 +16442,7 @@
         <v>542</v>
       </c>
       <c r="I163" t="n" s="10">
-        <v>2.4040876542E10</v>
+        <v>2.4053690977E10</v>
       </c>
       <c r="J163" t="s" s="10">
         <v>41</v>
@@ -16496,10 +16502,10 @@
         <f>AA163+AB163+AC163+AD163+AG163+AH163</f>
       </c>
       <c r="AJ163" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK163" t="s" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="164">
@@ -16507,28 +16513,28 @@
         <v>156.0</v>
       </c>
       <c r="B164" t="n" s="10">
-        <v>1122.0</v>
+        <v>1121.0</v>
       </c>
       <c r="C164" t="s" s="10">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="D164" t="s" s="10">
-        <v>301</v>
+        <v>543</v>
       </c>
       <c r="E164" t="s" s="10">
-        <v>543</v>
+        <v>46</v>
       </c>
       <c r="F164" t="s" s="10">
-        <v>544</v>
+        <v>372</v>
       </c>
       <c r="G164" s="10">
         <f>concatenate(c164,d164,e164,f164)</f>
       </c>
       <c r="H164" t="s" s="10">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I164" t="n" s="10">
-        <v>2.4041266908E10</v>
+        <v>2.4040876542E10</v>
       </c>
       <c r="J164" t="s" s="10">
         <v>41</v>
@@ -16588,10 +16594,10 @@
         <f>AA164+AB164+AC164+AD164+AG164+AH164</f>
       </c>
       <c r="AJ164" t="s" s="10">
-        <v>431</v>
+        <v>127</v>
       </c>
       <c r="AK164" t="s" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="165">
@@ -16599,28 +16605,28 @@
         <v>157.0</v>
       </c>
       <c r="B165" t="n" s="10">
-        <v>1123.0</v>
+        <v>1122.0</v>
       </c>
       <c r="C165" t="s" s="10">
-        <v>135</v>
+        <v>254</v>
       </c>
       <c r="D165" t="s" s="10">
+        <v>303</v>
+      </c>
+      <c r="E165" t="s" s="10">
+        <v>545</v>
+      </c>
+      <c r="F165" t="s" s="10">
         <v>546</v>
-      </c>
-      <c r="E165" t="s" s="10">
-        <v>178</v>
-      </c>
-      <c r="F165" t="s" s="10">
-        <v>547</v>
       </c>
       <c r="G165" s="10">
         <f>concatenate(c165,d165,e165,f165)</f>
       </c>
       <c r="H165" t="s" s="10">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I165" t="n" s="10">
-        <v>2.4059506171E10</v>
+        <v>2.4041266908E10</v>
       </c>
       <c r="J165" t="s" s="10">
         <v>41</v>
@@ -16680,10 +16686,10 @@
         <f>AA165+AB165+AC165+AD165+AG165+AH165</f>
       </c>
       <c r="AJ165" t="s" s="10">
-        <v>124</v>
+        <v>433</v>
       </c>
       <c r="AK165" t="s" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="166">
@@ -16691,19 +16697,19 @@
         <v>158.0</v>
       </c>
       <c r="B166" t="n" s="10">
-        <v>1124.0</v>
+        <v>1123.0</v>
       </c>
       <c r="C166" t="s" s="10">
-        <v>416</v>
+        <v>138</v>
       </c>
       <c r="D166" t="s" s="10">
+        <v>548</v>
+      </c>
+      <c r="E166" t="s" s="10">
+        <v>181</v>
+      </c>
+      <c r="F166" t="s" s="10">
         <v>549</v>
-      </c>
-      <c r="E166" t="s" s="10">
-        <v>302</v>
-      </c>
-      <c r="F166" t="s" s="10">
-        <v>218</v>
       </c>
       <c r="G166" s="10">
         <f>concatenate(c166,d166,e166,f166)</f>
@@ -16712,7 +16718,7 @@
         <v>550</v>
       </c>
       <c r="I166" t="n" s="10">
-        <v>2.4042062192E10</v>
+        <v>2.4059506171E10</v>
       </c>
       <c r="J166" t="s" s="10">
         <v>41</v>
@@ -16772,10 +16778,10 @@
         <f>AA166+AB166+AC166+AD166+AG166+AH166</f>
       </c>
       <c r="AJ166" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK166" t="s" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="167">
@@ -16783,28 +16789,28 @@
         <v>159.0</v>
       </c>
       <c r="B167" t="n" s="10">
-        <v>1127.0</v>
+        <v>1124.0</v>
       </c>
       <c r="C167" t="s" s="10">
+        <v>418</v>
+      </c>
+      <c r="D167" t="s" s="10">
         <v>551</v>
       </c>
-      <c r="D167" t="s" s="10">
-        <v>90</v>
-      </c>
       <c r="E167" t="s" s="10">
-        <v>552</v>
+        <v>304</v>
       </c>
       <c r="F167" t="s" s="10">
-        <v>553</v>
+        <v>221</v>
       </c>
       <c r="G167" s="10">
         <f>concatenate(c167,d167,e167,f167)</f>
       </c>
       <c r="H167" t="s" s="10">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I167" t="n" s="10">
-        <v>2.4060369644E10</v>
+        <v>2.4042062192E10</v>
       </c>
       <c r="J167" t="s" s="10">
         <v>41</v>
@@ -16864,10 +16870,10 @@
         <f>AA167+AB167+AC167+AD167+AG167+AH167</f>
       </c>
       <c r="AJ167" t="s" s="10">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AK167" t="s" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="168">
@@ -16875,28 +16881,28 @@
         <v>160.0</v>
       </c>
       <c r="B168" t="n" s="10">
-        <v>1133.0</v>
+        <v>1127.0</v>
       </c>
       <c r="C168" t="s" s="10">
-        <v>199</v>
+        <v>553</v>
       </c>
       <c r="D168" t="s" s="10">
-        <v>252</v>
+        <v>93</v>
       </c>
       <c r="E168" t="s" s="10">
+        <v>554</v>
+      </c>
+      <c r="F168" t="s" s="10">
         <v>555</v>
-      </c>
-      <c r="F168" t="s" s="10">
-        <v>556</v>
       </c>
       <c r="G168" s="10">
         <f>concatenate(c168,d168,e168,f168)</f>
       </c>
       <c r="H168" t="s" s="10">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I168" t="n" s="10">
-        <v>2.4060368913E10</v>
+        <v>2.4060369644E10</v>
       </c>
       <c r="J168" t="s" s="10">
         <v>41</v>
@@ -16956,10 +16962,10 @@
         <f>AA168+AB168+AC168+AD168+AG168+AH168</f>
       </c>
       <c r="AJ168" t="s" s="10">
-        <v>431</v>
+        <v>210</v>
       </c>
       <c r="AK168" t="s" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="169">
@@ -16967,28 +16973,28 @@
         <v>161.0</v>
       </c>
       <c r="B169" t="n" s="10">
-        <v>1136.0</v>
+        <v>1133.0</v>
       </c>
       <c r="C169" t="s" s="10">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D169" t="s" s="10">
-        <v>348</v>
+        <v>254</v>
       </c>
       <c r="E169" t="s" s="10">
-        <v>149</v>
+        <v>557</v>
       </c>
       <c r="F169" t="s" s="10">
-        <v>281</v>
+        <v>558</v>
       </c>
       <c r="G169" s="10">
         <f>concatenate(c169,d169,e169,f169)</f>
       </c>
       <c r="H169" t="s" s="10">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="I169" t="n" s="10">
-        <v>2.4061141724E10</v>
+        <v>2.4060368913E10</v>
       </c>
       <c r="J169" t="s" s="10">
         <v>41</v>
@@ -17048,10 +17054,10 @@
         <f>AA169+AB169+AC169+AD169+AG169+AH169</f>
       </c>
       <c r="AJ169" t="s" s="10">
-        <v>124</v>
+        <v>433</v>
       </c>
       <c r="AK169" t="s" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="170">
@@ -17059,28 +17065,28 @@
         <v>162.0</v>
       </c>
       <c r="B170" t="n" s="10">
-        <v>1137.0</v>
+        <v>1136.0</v>
       </c>
       <c r="C170" t="s" s="10">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D170" t="s" s="10">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E170" t="s" s="10">
-        <v>559</v>
+        <v>152</v>
       </c>
       <c r="F170" t="s" s="10">
-        <v>560</v>
+        <v>283</v>
       </c>
       <c r="G170" s="10">
         <f>concatenate(c170,d170,e170,f170)</f>
       </c>
       <c r="H170" t="s" s="10">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I170" t="n" s="10">
-        <v>0.0</v>
+        <v>2.4061141724E10</v>
       </c>
       <c r="J170" t="s" s="10">
         <v>41</v>
@@ -17140,10 +17146,102 @@
         <f>AA170+AB170+AC170+AD170+AG170+AH170</f>
       </c>
       <c r="AJ170" t="s" s="10">
+        <v>127</v>
+      </c>
+      <c r="AK170" t="s" s="10">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n" s="10">
+        <v>163.0</v>
+      </c>
+      <c r="B171" t="n" s="10">
+        <v>1137.0</v>
+      </c>
+      <c r="C171" t="s" s="10">
+        <v>193</v>
+      </c>
+      <c r="D171" t="s" s="10">
+        <v>350</v>
+      </c>
+      <c r="E171" t="s" s="10">
+        <v>561</v>
+      </c>
+      <c r="F171" t="s" s="10">
         <v>562</v>
       </c>
-      <c r="AK170" t="s" s="10">
-        <v>146</v>
+      <c r="G171" s="10">
+        <f>concatenate(c171,d171,e171,f171)</f>
+      </c>
+      <c r="H171" t="s" s="10">
+        <v>563</v>
+      </c>
+      <c r="I171" t="n" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="J171" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="K171" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L171" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="M171" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="N171" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="O171" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P171" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="Q171" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="Y171" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="Z171" s="10">
+        <f>(689455.0/30)</f>
+      </c>
+      <c r="AA171" s="10">
+        <f>(z171 * y171)</f>
+      </c>
+      <c r="AB171" t="n" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AC171" t="n" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AD171" s="10">
+        <f>(689455.0*0.08)/30*15</f>
+      </c>
+      <c r="AE171" s="10">
+        <f>AA171+AB171+AC171+AD171</f>
+      </c>
+      <c r="AF171" s="10">
+        <f>ROUND(AE171,0)</f>
+      </c>
+      <c r="AG171" s="10">
+        <f>(689455.0*0.125+689455.0*0.16+689455.0*0.0696+689455.0*0.04)/30*15</f>
+      </c>
+      <c r="AH171" t="n" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AI171" s="10">
+        <f>AA171+AB171+AC171+AD171+AG171+AH171</f>
+      </c>
+      <c r="AJ171" t="s" s="10">
+        <v>564</v>
+      </c>
+      <c r="AK171" t="s" s="10">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
